--- a/CFT4CUnitSrc/src/report/GAReport.xlsx
+++ b/CFT4CUnitSrc/src/report/GAReport.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="359" uniqueCount="305">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="442" uniqueCount="373">
   <si>
     <t>Nhìn chung, để sinh test case cho một input program theo phương pháp GA thì có các bước sau</t>
   </si>
@@ -955,6 +955,210 @@
   </si>
   <si>
     <t>cái tệ ở đây là mình đã dùng static analysis</t>
+  </si>
+  <si>
+    <t>public class BankAccount {</t>
+  </si>
+  <si>
+    <t>private double balance;</t>
+  </si>
+  <si>
+    <t>private int numberOfWithdrawals;</t>
+  </si>
+  <si>
+    <t>public void deposit(double amount) {</t>
+  </si>
+  <si>
+    <t>if (amount &gt; 0.00)</t>
+  </si>
+  <si>
+    <t>balance = balance + amount;</t>
+  </si>
+  <si>
+    <t>}</t>
+  </si>
+  <si>
+    <t>public void withdraw(double amount) {</t>
+  </si>
+  <si>
+    <t>if (amount &gt; balance) {</t>
+  </si>
+  <si>
+    <t>printError();</t>
+  </si>
+  <si>
+    <t>return;</t>
+  </si>
+  <si>
+    <t>if (numberOfWithdrawals &gt;= 10) {</t>
+  </si>
+  <si>
+    <t>dispense(amount);</t>
+  </si>
+  <si>
+    <t>balance = balance - amount;</t>
+  </si>
+  <si>
+    <t>numberOfWithdrawals++;</t>
+  </si>
+  <si>
+    <t>double example(int x, int y, double z) {</t>
+  </si>
+  <si>
+    <t>boolean flag = y &gt; 1000;</t>
+  </si>
+  <si>
+    <t>// ...</t>
+  </si>
+  <si>
+    <t>if (x + y == 1024)</t>
+  </si>
+  <si>
+    <t>chỉ cần sử dụng condition này thôi cũng OK</t>
+  </si>
+  <si>
+    <t>if (flag)</t>
+  </si>
+  <si>
+    <t>if (Math.cos(z) - 0.95 &lt; Math.exp(z))</t>
+  </si>
+  <si>
+    <t>// target branch</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    public double TritypeKorel(double a, double b, double c)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    {        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">        int trityp = 0;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        double ret1 = 0; </t>
+  </si>
+  <si>
+    <t xml:space="preserve">        double ret2 = 0;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        double ret3 = 0;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">        calltime ++;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        ret1 = -(a + b + c); // (c - a - b) + (a - b - c) + (b - c - a);        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">        if ((a + b &gt; c) &amp;&amp; (b + c &gt; a) &amp;&amp; (c + a &gt; b))</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        {</t>
+  </si>
+  <si>
+    <t xml:space="preserve">            ret2 = 0;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">            if ((a != b) &amp;&amp; (b != c) &amp;&amp; (c != a))</t>
+  </si>
+  <si>
+    <t xml:space="preserve">            {</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                trityp = 1;      // Scalene</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                path1++;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">            }</t>
+  </si>
+  <si>
+    <t xml:space="preserve">            else</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                ret3 = Math.min(Math.min(Math.abs(a-b), Math.abs(b-c)), Math.abs(c-a));</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                if (((a == b) &amp;&amp; (b != c)) || ((b == c) &amp;&amp; (c != a)) || ((c == a) &amp;&amp; (a != b)))</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                {</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                    trityp = 2;  // Isosceles</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                    path2++;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                }</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                else</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                    trityp = 3;  // Equilateral</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                    if (path3 == 0) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">                    {</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                        System.out.println("Object call = " + calltime);</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                        //System.out.println("a = " + a + " b = " + b + " c = " + c);</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                        System.out.format("a = %6.8f%n", a);</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                        System.out.format("b = %6.8f%n", b);</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                        System.out.format("c = %6.8f%n", c);</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                    }</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                    path3++;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                    //System.out.println("a = " + a + " b = " + b + " c = " + c);</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        }</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        else</t>
+  </si>
+  <si>
+    <t xml:space="preserve">            trityp = -1;        // Not a triangle</t>
+  </si>
+  <si>
+    <t xml:space="preserve">            path4++;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        stopCriteria = (path1 &gt; 0) &amp;&amp; (path2 &gt; 0) &amp;&amp; (path3 &gt; 0) &amp;&amp; (path4 &gt; 0);</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        return (ret1+ret2+ret3);</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    }</t>
+  </si>
+  <si>
+    <t>a=b</t>
+  </si>
+  <si>
+    <t>a=b=c</t>
   </si>
 </sst>
 </file>
@@ -6726,10 +6930,10 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet4"/>
-  <dimension ref="A1:AF34"/>
+  <dimension ref="A1:AF109"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I27" sqref="I27"/>
+    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="H41" sqref="H41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6910,7 +7114,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="17" spans="2:32" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:32" x14ac:dyDescent="0.25">
       <c r="B17" s="4" t="s">
         <v>241</v>
       </c>
@@ -6935,7 +7139,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="18" spans="2:32" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:32" x14ac:dyDescent="0.25">
       <c r="C18" t="s">
         <v>247</v>
       </c>
@@ -6949,7 +7153,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="19" spans="2:32" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:32" x14ac:dyDescent="0.25">
       <c r="R19" t="s">
         <v>259</v>
       </c>
@@ -6957,7 +7161,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="20" spans="2:32" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:32" x14ac:dyDescent="0.25">
       <c r="R20" t="s">
         <v>260</v>
       </c>
@@ -6968,12 +7172,12 @@
         <v>295</v>
       </c>
     </row>
-    <row r="21" spans="2:32" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:32" x14ac:dyDescent="0.25">
       <c r="R21" t="s">
         <v>261</v>
       </c>
     </row>
-    <row r="22" spans="2:32" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:32" x14ac:dyDescent="0.25">
       <c r="B22" t="s">
         <v>242</v>
       </c>
@@ -6987,7 +7191,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="23" spans="2:32" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:32" x14ac:dyDescent="0.25">
       <c r="R23" t="s">
         <v>263</v>
       </c>
@@ -6995,7 +7199,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="24" spans="2:32" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:32" x14ac:dyDescent="0.25">
       <c r="R24" t="s">
         <v>264</v>
       </c>
@@ -7003,7 +7207,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="25" spans="2:32" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:32" x14ac:dyDescent="0.25">
       <c r="R25" t="s">
         <v>265</v>
       </c>
@@ -7013,7 +7217,7 @@
       <c r="AE25" s="5"/>
       <c r="AF25" s="5"/>
     </row>
-    <row r="26" spans="2:32" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:32" x14ac:dyDescent="0.25">
       <c r="R26" t="s">
         <v>266</v>
       </c>
@@ -7021,7 +7225,15 @@
         <v>298</v>
       </c>
     </row>
-    <row r="27" spans="2:32" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A27" s="13" t="s">
+        <v>305</v>
+      </c>
+      <c r="B27" s="13"/>
+      <c r="C27" s="13"/>
+      <c r="D27" s="13"/>
+      <c r="E27" s="13"/>
+      <c r="F27" s="13"/>
       <c r="R27" t="s">
         <v>267</v>
       </c>
@@ -7029,7 +7241,10 @@
         <v>299</v>
       </c>
     </row>
-    <row r="28" spans="2:32" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="B28" t="s">
+        <v>306</v>
+      </c>
       <c r="R28" t="s">
         <v>268</v>
       </c>
@@ -7037,7 +7252,10 @@
         <v>300</v>
       </c>
     </row>
-    <row r="29" spans="2:32" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="B29" t="s">
+        <v>307</v>
+      </c>
       <c r="R29" t="s">
         <v>269</v>
       </c>
@@ -7045,7 +7263,10 @@
         <v>290</v>
       </c>
     </row>
-    <row r="30" spans="2:32" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="B30" t="s">
+        <v>308</v>
+      </c>
       <c r="R30" t="s">
         <v>270</v>
       </c>
@@ -7053,24 +7274,416 @@
         <v>301</v>
       </c>
     </row>
-    <row r="31" spans="2:32" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="C31" t="s">
+        <v>309</v>
+      </c>
       <c r="AD31" t="s">
         <v>302</v>
       </c>
     </row>
-    <row r="32" spans="2:32" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="C32" t="s">
+        <v>310</v>
+      </c>
       <c r="AD32" t="s">
         <v>303</v>
       </c>
     </row>
-    <row r="33" spans="30:30" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="B33" t="s">
+        <v>311</v>
+      </c>
       <c r="AD33" t="s">
         <v>294</v>
       </c>
     </row>
-    <row r="34" spans="30:30" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="B34" t="s">
+        <v>312</v>
+      </c>
       <c r="AD34" t="s">
         <v>295</v>
+      </c>
+    </row>
+    <row r="35" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="C35" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="36" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="D36" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="37" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="D37" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="38" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="C38" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="39" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="C39" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="40" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="D40" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="41" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="D41" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="42" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="C42" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="43" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="C43" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="44" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="C44" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="45" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="C45" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="46" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="B46" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="47" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A49" s="13" t="s">
+        <v>320</v>
+      </c>
+      <c r="B49" s="13"/>
+      <c r="C49" s="13"/>
+      <c r="D49" s="13"/>
+      <c r="E49" s="13"/>
+      <c r="F49" s="13"/>
+    </row>
+    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B50" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B51" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B52" s="5" t="s">
+        <v>323</v>
+      </c>
+      <c r="C52" s="5"/>
+      <c r="G52" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C53" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="D54" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="E55" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B56" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A57" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A59" s="13" t="s">
+        <v>328</v>
+      </c>
+      <c r="B59" s="13"/>
+      <c r="C59" s="13"/>
+      <c r="D59" s="13"/>
+      <c r="E59" s="13"/>
+      <c r="F59" s="13"/>
+    </row>
+    <row r="60" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A60" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A61" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A62" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A63" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A64" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="65" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A65" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="66" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A66" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="67" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A67" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="68" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A68" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="69" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A69" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="70" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A70" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="71" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A71" t="s">
+        <v>339</v>
+      </c>
+      <c r="I71" s="5" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="72" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A72" t="s">
+        <v>340</v>
+      </c>
+      <c r="I72" s="5" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="73" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A73" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="74" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A74" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="75" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A75" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="76" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A76" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="77" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A77" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="78" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A78" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="79" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A79" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="80" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A80" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="81" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A81" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="82" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A82" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="83" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A83" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="84" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A84" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="85" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A85" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="86" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A86" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="87" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A87" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="88" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A88" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="89" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A89" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="90" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A90" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="91" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A91" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="92" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A92" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="93" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A93" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="94" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A94" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="95" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A95" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="96" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A96" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="97" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A97" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="98" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A98" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="99" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A99" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="100" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A100" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="101" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A101" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="102" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A102" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="103" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A103" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="104" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A104" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="105" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A105" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="107" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A107" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="108" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A108" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="109" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A109" t="s">
+        <v>370</v>
       </c>
     </row>
   </sheetData>

--- a/CFT4CUnitSrc/src/report/GAReport.xlsx
+++ b/CFT4CUnitSrc/src/report/GAReport.xlsx
@@ -4,20 +4,21 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="1065" windowWidth="14805" windowHeight="6840" tabRatio="940" activeTab="3"/>
+    <workbookView xWindow="240" yWindow="1065" windowWidth="14805" windowHeight="6840" tabRatio="940" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="GA based TC generation" sheetId="2" r:id="rId1"/>
     <sheet name="Report" sheetId="9" r:id="rId2"/>
     <sheet name="icta2016" sheetId="11" r:id="rId3"/>
     <sheet name="201612paper" sheetId="12" r:id="rId4"/>
+    <sheet name="ThayHieu_report" sheetId="13" r:id="rId5"/>
   </sheets>
   <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="442" uniqueCount="373">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="563" uniqueCount="412">
   <si>
     <t>Nhìn chung, để sinh test case cho một input program theo phương pháp GA thì có các bước sau</t>
   </si>
@@ -1159,6 +1160,123 @@
   </si>
   <si>
     <t>a=b=c</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    public double example(int x, int y, double z) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">    {</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        double ret1, ret2, ret3, ret4;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        ret1 = ret2 = ret3 = ret4 = 0;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        ret1 = Math.abs((x + y) - 1024);</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        if (x + y == 1024)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">            ret2 = (1000 - y);</t>
+  </si>
+  <si>
+    <t xml:space="preserve">            if (y &gt; 1000)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                ret3 = (Math.cos(z) - 0.95) - Math.exp(z);</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                if (Math.cos(z) - 0.95 &lt; Math.exp(z))</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                    path1++;                    </t>
+  </si>
+  <si>
+    <t xml:space="preserve">                path3++;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        return (ret1 + ret2 + ret3);</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    public double QuadraticEquation2(double a, double b, double c)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        double root1, root2;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        ret1 = Math.abs(a);</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        if (a == 0)</t>
+  </si>
+  <si>
+    <t>ret2 = Math.abs(a);</t>
+  </si>
+  <si>
+    <t xml:space="preserve">            if (b != 0)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                root1 = (-c)/b;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">            </t>
+  </si>
+  <si>
+    <t>path2++;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">            return (ret1 + ret2);</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        }        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">        ret2 = (b*b) - (4*a*c);</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        if (((b*b) - (4*a*c)) &lt; 0)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        {            </t>
+  </si>
+  <si>
+    <t>path3++;</t>
+  </si>
+  <si>
+    <t>return ret2;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        else </t>
+  </si>
+  <si>
+    <t>ret3 = Math.abs((b*b) - (4*a*c));</t>
+  </si>
+  <si>
+    <t xml:space="preserve">            if (((b*b) - (4*a*c)) == 0)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                root1 = (-b)/(a*2);</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                path4++;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                root1 = ((-b + Math.sqrt(((b*b) - (4*a*c))))/(2*a));</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                root2 = ((-b - Math.sqrt(((b*b) - (4*a*c))))/(2*a));</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                path5++;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        stopCriteria = (path1 &gt; 0) &amp;&amp; (path2 &gt; 0) &amp;&amp; (path3 &gt; 0) &amp;&amp; (path4 &gt; 0) &amp;&amp; (path5 &gt; 0);</t>
+  </si>
+  <si>
+    <t>Nothing Worth Having Comes Easy</t>
   </si>
 </sst>
 </file>
@@ -1327,7 +1445,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="51">
+  <cellXfs count="52">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
@@ -1415,6 +1533,7 @@
     <xf numFmtId="2" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -6932,8 +7051,8 @@
   <sheetPr codeName="Sheet4"/>
   <dimension ref="A1:AF109"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="H41" sqref="H41"/>
+    <sheetView topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="G52" sqref="G52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7693,4 +7812,640 @@
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:H125"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
+      <selection activeCell="D113" sqref="D113"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1" s="51" t="s">
+        <v>411</v>
+      </c>
+      <c r="B1" s="51"/>
+      <c r="C1" s="51"/>
+      <c r="D1" s="51"/>
+      <c r="E1" s="51"/>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9" s="5" t="s">
+        <v>378</v>
+      </c>
+      <c r="B9" s="5"/>
+      <c r="C9" s="5"/>
+      <c r="D9" s="5"/>
+      <c r="E9" s="5"/>
+      <c r="F9" s="5"/>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="32" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A46" s="5" t="s">
+        <v>389</v>
+      </c>
+      <c r="B46" s="5"/>
+      <c r="C46" s="5"/>
+      <c r="D46" s="5"/>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>334</v>
+      </c>
+      <c r="B48" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A49" s="5" t="s">
+        <v>391</v>
+      </c>
+      <c r="B49" s="5"/>
+      <c r="C49" s="5"/>
+      <c r="D49" s="5"/>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A55" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A56" t="s">
+        <v>393</v>
+      </c>
+      <c r="B56" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A57" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A58" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A59" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A61" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A62" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A63" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A64" t="s">
+        <v>334</v>
+      </c>
+      <c r="B64" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A65" t="s">
+        <v>334</v>
+      </c>
+      <c r="B65" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A66" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A67" t="s">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A68" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A69" t="s">
+        <v>334</v>
+      </c>
+      <c r="B69" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A70" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A71" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A72" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A73" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A74" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A75" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A76" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="77" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A77" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="78" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A78" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="79" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A79" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="80" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A80" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="81" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A81" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="82" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A82" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="83" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A83" t="s">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="84" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A84" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="85" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A85" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="87" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A87" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="88" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A88" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="89" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A89" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="90" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A90" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="91" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A91" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="92" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A92" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="93" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A93" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="94" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A94" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="95" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A95" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="96" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A96" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="97" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A97" s="5" t="s">
+        <v>340</v>
+      </c>
+      <c r="B97" s="5"/>
+      <c r="C97" s="5"/>
+      <c r="D97" s="5"/>
+    </row>
+    <row r="98" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A98" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="99" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A99" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="100" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A100" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="101" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A101" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="102" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A102" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="103" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A103" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="104" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A104" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="105" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A105" s="5" t="s">
+        <v>347</v>
+      </c>
+      <c r="B105" s="5"/>
+      <c r="C105" s="5"/>
+      <c r="D105" s="5"/>
+      <c r="E105" s="5"/>
+      <c r="F105" s="5"/>
+      <c r="G105" s="5"/>
+      <c r="H105" s="5"/>
+    </row>
+    <row r="106" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A106" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="107" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A107" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="108" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A108" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="109" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A109" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="110" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A110" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="111" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A111" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="112" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A112" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="113" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A113" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="114" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A114" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="115" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A115" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="116" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A116" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="117" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A117" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="118" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A118" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="119" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A119" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="120" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A120" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="121" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A121" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="123" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A123" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="124" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A124" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="125" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A125" t="s">
+        <v>370</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.35433070866141736" bottom="0.35433070866141736" header="0.11811023622047245" footer="0.11811023622047245"/>
+  <pageSetup paperSize="9" scale="85" orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
--- a/CFT4CUnitSrc/src/report/GAReport.xlsx
+++ b/CFT4CUnitSrc/src/report/GAReport.xlsx
@@ -13,12 +13,12 @@
     <sheet name="201612paper" sheetId="12" r:id="rId4"/>
     <sheet name="ThayHieu_report" sheetId="13" r:id="rId5"/>
   </sheets>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="145621" calcOnSave="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="563" uniqueCount="412">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="603" uniqueCount="436">
   <si>
     <t>Nhìn chung, để sinh test case cho một input program theo phương pháp GA thì có các bước sau</t>
   </si>
@@ -1277,6 +1277,78 @@
   </si>
   <si>
     <t>Nothing Worth Having Comes Easy</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    public static double Tritype(double a, double b, double c)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    </t>
+  </si>
+  <si>
+    <t>int type = -1;</t>
+  </si>
+  <si>
+    <t>double ret1, ret2, ret3, ret4;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        ret1 = -(a + b + c); // if (a + b &gt; c &amp;&amp; a + c &gt; b &amp;&amp; b + c &gt; a) </t>
+  </si>
+  <si>
+    <t>if (a + b &gt; c &amp;&amp; a + c &gt; b &amp;&amp; b + c &gt; a)</t>
+  </si>
+  <si>
+    <t>{</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ret2 = Math.abs(a - b) + Math.abs(b - c); </t>
+  </si>
+  <si>
+    <t>if (a == b &amp;&amp; b == c)</t>
+  </si>
+  <si>
+    <t>type = 3;  // Equilateral</t>
+  </si>
+  <si>
+    <t>//System.out.println("Equilateral");</t>
+  </si>
+  <si>
+    <t>else</t>
+  </si>
+  <si>
+    <t>ret3 = Math.min(Math.min(Math.abs(a - b), Math.abs(b - a)), Math.abs(c - a));</t>
+  </si>
+  <si>
+    <t>if (a == b || b == c || c == a)</t>
+  </si>
+  <si>
+    <t>type = 2;  // Isosceles</t>
+  </si>
+  <si>
+    <t>//System.out.println("Isosceles");</t>
+  </si>
+  <si>
+    <t>type = 1;  // Scalene</t>
+  </si>
+  <si>
+    <t>//System.out.println("Scalene");</t>
+  </si>
+  <si>
+    <t>path4++;</t>
+  </si>
+  <si>
+    <t>type = -1; // Not a triangle</t>
+  </si>
+  <si>
+    <t>//System.out.println("Not a triangle");</t>
+  </si>
+  <si>
+    <t>path1++;</t>
+  </si>
+  <si>
+    <t>stopCriteria = (path1 &gt; 0) &amp;&amp; (path2 &gt; 0) &amp;&amp; (path3 &gt; 0) &amp;&amp; (path4 &gt; 0);</t>
+  </si>
+  <si>
+    <t>return (ret1 + ret2 + ret3);</t>
   </si>
 </sst>
 </file>
@@ -1518,6 +1590,7 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1533,7 +1606,6 @@
     <xf numFmtId="2" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -6573,24 +6645,24 @@
       <c r="C23" t="s">
         <v>184</v>
       </c>
-      <c r="G23" s="47" t="s">
+      <c r="G23" s="48" t="s">
         <v>197</v>
       </c>
-      <c r="H23" s="49" t="s">
+      <c r="H23" s="50" t="s">
         <v>75</v>
       </c>
-      <c r="I23" s="46" t="s">
+      <c r="I23" s="47" t="s">
         <v>191</v>
       </c>
-      <c r="J23" s="46"/>
-      <c r="K23" s="46" t="s">
+      <c r="J23" s="47"/>
+      <c r="K23" s="47" t="s">
         <v>192</v>
       </c>
-      <c r="L23" s="46"/>
+      <c r="L23" s="47"/>
     </row>
     <row r="24" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="G24" s="48"/>
-      <c r="H24" s="50"/>
+      <c r="G24" s="49"/>
+      <c r="H24" s="51"/>
       <c r="I24" s="14" t="s">
         <v>193</v>
       </c>
@@ -7816,22 +7888,22 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H125"/>
+  <dimension ref="A1:K130"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
-      <selection activeCell="D113" sqref="D113"/>
+    <sheetView tabSelected="1" topLeftCell="A85" workbookViewId="0">
+      <selection activeCell="M108" sqref="M108"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1" s="51" t="s">
+      <c r="A1" s="46" t="s">
         <v>411</v>
       </c>
-      <c r="B1" s="51"/>
-      <c r="C1" s="51"/>
-      <c r="D1" s="51"/>
-      <c r="E1" s="51"/>
+      <c r="B1" s="46"/>
+      <c r="C1" s="46"/>
+      <c r="D1" s="46"/>
+      <c r="E1" s="46"/>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
@@ -8219,228 +8291,360 @@
         <v>344</v>
       </c>
     </row>
-    <row r="81" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
         <v>364</v>
       </c>
     </row>
-    <row r="82" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
         <v>334</v>
       </c>
     </row>
-    <row r="83" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
         <v>410</v>
       </c>
     </row>
-    <row r="84" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
         <v>385</v>
       </c>
     </row>
-    <row r="85" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
         <v>370</v>
       </c>
     </row>
-    <row r="87" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="88" spans="1:1" x14ac:dyDescent="0.25">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="88" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
-        <v>329</v>
-      </c>
-    </row>
-    <row r="89" spans="1:1" x14ac:dyDescent="0.25">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="89" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
-        <v>330</v>
-      </c>
-    </row>
-    <row r="90" spans="1:1" x14ac:dyDescent="0.25">
+        <v>413</v>
+      </c>
+      <c r="B89" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="90" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
-        <v>375</v>
-      </c>
-    </row>
-    <row r="91" spans="1:1" x14ac:dyDescent="0.25">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="91" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
+        <v>413</v>
+      </c>
+      <c r="B91" t="s">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="92" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A92" t="s">
         <v>376</v>
       </c>
     </row>
-    <row r="92" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A92" t="s">
-        <v>334</v>
-      </c>
-    </row>
-    <row r="93" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A93" t="s">
-        <v>336</v>
-      </c>
-    </row>
-    <row r="94" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
-        <v>337</v>
-      </c>
-    </row>
-    <row r="95" spans="1:1" x14ac:dyDescent="0.25">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="95" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
-        <v>338</v>
-      </c>
-    </row>
-    <row r="96" spans="1:1" x14ac:dyDescent="0.25">
+        <v>413</v>
+      </c>
+      <c r="B95" t="s">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="96" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
-        <v>339</v>
-      </c>
-    </row>
-    <row r="97" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A97" s="5" t="s">
-        <v>340</v>
-      </c>
-      <c r="B97" s="5"/>
-      <c r="C97" s="5"/>
-      <c r="D97" s="5"/>
-    </row>
-    <row r="98" spans="1:8" x14ac:dyDescent="0.25">
+        <v>413</v>
+      </c>
+      <c r="B96" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="97" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A97" s="41" t="s">
+        <v>413</v>
+      </c>
+      <c r="B97" s="41"/>
+      <c r="C97" s="41" t="s">
+        <v>419</v>
+      </c>
+      <c r="D97" s="41"/>
+      <c r="E97" s="41"/>
+      <c r="F97" s="41"/>
+      <c r="G97" s="41"/>
+    </row>
+    <row r="98" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
-        <v>341</v>
-      </c>
-    </row>
-    <row r="99" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A99" t="s">
-        <v>342</v>
-      </c>
-    </row>
-    <row r="100" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A100" t="s">
-        <v>343</v>
-      </c>
-    </row>
-    <row r="101" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A101" t="s">
-        <v>344</v>
-      </c>
-    </row>
-    <row r="102" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A102" t="s">
-        <v>345</v>
-      </c>
-    </row>
-    <row r="103" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A103" t="s">
-        <v>341</v>
-      </c>
-    </row>
-    <row r="104" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A104" t="s">
-        <v>346</v>
-      </c>
-    </row>
-    <row r="105" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A105" s="5" t="s">
-        <v>347</v>
-      </c>
-      <c r="B105" s="5"/>
-      <c r="C105" s="5"/>
-      <c r="D105" s="5"/>
-      <c r="E105" s="5"/>
-      <c r="F105" s="5"/>
-      <c r="G105" s="5"/>
-      <c r="H105" s="5"/>
-    </row>
-    <row r="106" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A106" t="s">
-        <v>348</v>
-      </c>
-    </row>
-    <row r="107" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A107" t="s">
-        <v>349</v>
-      </c>
-    </row>
-    <row r="108" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A108" t="s">
-        <v>350</v>
-      </c>
-    </row>
-    <row r="109" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A109" t="s">
-        <v>351</v>
-      </c>
-    </row>
-    <row r="110" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A110" t="s">
-        <v>352</v>
-      </c>
-    </row>
-    <row r="111" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A111" t="s">
-        <v>348</v>
-      </c>
-    </row>
-    <row r="112" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A112" t="s">
-        <v>353</v>
-      </c>
-    </row>
-    <row r="113" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A113" t="s">
-        <v>362</v>
-      </c>
-    </row>
-    <row r="114" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A114" t="s">
-        <v>351</v>
-      </c>
-    </row>
-    <row r="115" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A115" t="s">
-        <v>344</v>
-      </c>
-    </row>
-    <row r="116" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A116" t="s">
-        <v>364</v>
-      </c>
-    </row>
-    <row r="117" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A117" t="s">
-        <v>365</v>
-      </c>
-    </row>
-    <row r="118" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A118" t="s">
-        <v>338</v>
-      </c>
-    </row>
-    <row r="119" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A119" t="s">
-        <v>366</v>
-      </c>
-    </row>
-    <row r="120" spans="1:1" x14ac:dyDescent="0.25">
+        <v>413</v>
+      </c>
+      <c r="C98" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="99" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B99" t="s">
+        <v>413</v>
+      </c>
+      <c r="C99" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="100" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B100" t="s">
+        <v>413</v>
+      </c>
+      <c r="D100" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="101" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B101" t="s">
+        <v>413</v>
+      </c>
+      <c r="D101" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="102" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B102" t="s">
+        <v>413</v>
+      </c>
+      <c r="D102" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="103" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B103" t="s">
+        <v>413</v>
+      </c>
+      <c r="C103" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="104" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B104" t="s">
+        <v>413</v>
+      </c>
+      <c r="C104" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="105" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A105" s="41"/>
+      <c r="B105" s="41" t="s">
+        <v>413</v>
+      </c>
+      <c r="C105" s="41" t="s">
+        <v>418</v>
+      </c>
+      <c r="D105" s="41"/>
+      <c r="E105" s="41"/>
+      <c r="F105" s="41"/>
+      <c r="G105" s="41"/>
+      <c r="H105" s="41"/>
+      <c r="I105" s="41"/>
+      <c r="J105" s="41"/>
+      <c r="K105" s="41"/>
+    </row>
+    <row r="106" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B106" t="s">
+        <v>413</v>
+      </c>
+      <c r="D106" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="107" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B107" t="s">
+        <v>413</v>
+      </c>
+      <c r="D107" t="s">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="108" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="C108" t="s">
+        <v>413</v>
+      </c>
+      <c r="D108" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="109" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="C109" t="s">
+        <v>413</v>
+      </c>
+      <c r="E109" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="110" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="C110" t="s">
+        <v>413</v>
+      </c>
+      <c r="E110" t="s">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="111" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="C111" t="s">
+        <v>413</v>
+      </c>
+      <c r="E111" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="112" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="C112" t="s">
+        <v>413</v>
+      </c>
+      <c r="D112" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="113" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C113" t="s">
+        <v>413</v>
+      </c>
+      <c r="D113" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="114" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C114" t="s">
+        <v>413</v>
+      </c>
+      <c r="D114" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="115" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C115" t="s">
+        <v>413</v>
+      </c>
+      <c r="E115" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="116" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C116" t="s">
+        <v>413</v>
+      </c>
+      <c r="E116" t="s">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="117" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C117" t="s">
+        <v>413</v>
+      </c>
+      <c r="E117" t="s">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="118" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C118" t="s">
+        <v>413</v>
+      </c>
+      <c r="D118" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="119" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B119" t="s">
+        <v>413</v>
+      </c>
+      <c r="C119" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="120" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
-        <v>367</v>
-      </c>
-    </row>
-    <row r="121" spans="1:1" x14ac:dyDescent="0.25">
+        <v>413</v>
+      </c>
+      <c r="B120" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="121" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
-        <v>364</v>
-      </c>
-    </row>
-    <row r="123" spans="1:1" x14ac:dyDescent="0.25">
+        <v>413</v>
+      </c>
+      <c r="B121" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="122" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A122" t="s">
+        <v>413</v>
+      </c>
+      <c r="B122" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="123" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
-        <v>368</v>
-      </c>
-    </row>
-    <row r="124" spans="1:1" x14ac:dyDescent="0.25">
+        <v>413</v>
+      </c>
+      <c r="C123" t="s">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="124" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
-        <v>369</v>
-      </c>
-    </row>
-    <row r="125" spans="1:1" x14ac:dyDescent="0.25">
+        <v>413</v>
+      </c>
+      <c r="C124" t="s">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="125" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
+        <v>413</v>
+      </c>
+      <c r="C125" t="s">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="126" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A126" t="s">
+        <v>413</v>
+      </c>
+      <c r="B126" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="128" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A128" t="s">
+        <v>413</v>
+      </c>
+      <c r="B128" t="s">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="129" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A129" t="s">
+        <v>413</v>
+      </c>
+      <c r="B129" t="s">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="130" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A130" t="s">
         <v>370</v>
       </c>
     </row>

--- a/CFT4CUnitSrc/src/report/GAReport.xlsx
+++ b/CFT4CUnitSrc/src/report/GAReport.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="1065" windowWidth="14805" windowHeight="6840" tabRatio="940" activeTab="4"/>
@@ -13,12 +13,12 @@
     <sheet name="201612paper" sheetId="12" r:id="rId4"/>
     <sheet name="ThayHieu_report" sheetId="13" r:id="rId5"/>
   </sheets>
-  <calcPr calcId="145621" calcOnSave="0"/>
+  <calcPr calcId="125725" calcOnSave="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="603" uniqueCount="436">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="607" uniqueCount="440">
   <si>
     <t>Nhìn chung, để sinh test case cho một input program theo phương pháp GA thì có các bước sau</t>
   </si>
@@ -1350,15 +1350,27 @@
   <si>
     <t>return (ret1 + ret2 + ret3);</t>
   </si>
+  <si>
+    <t xml:space="preserve">Equal condition list: [x+y==1024] </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Equal condition list: [a==b||b==c||c==a] [a==b&amp;&amp;b==c] </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Equal condition list: [((b*b)-(4*a*c))==0] [a==0] [b==0] </t>
+  </si>
+  <si>
+    <t>Giờ chỉ có 3 đk này thôi thì trong GA điều chỉnh kiểu gì nhỉ?</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.000000000"/>
   </numFmts>
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="6">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -4873,7 +4885,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -4908,7 +4919,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -5084,7 +5094,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:AP158"/>
   <sheetViews>
@@ -5092,29 +5102,29 @@
       <selection activeCell="E145" sqref="E145"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="10.7109375" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="10.140625" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="9.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10">
       <c r="A1" s="18">
         <v>42502</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10">
       <c r="B2" t="s">
         <v>168</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10">
       <c r="C3" t="s">
         <v>169</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10">
       <c r="C4" t="s">
         <v>180</v>
       </c>
@@ -5122,17 +5132,17 @@
         <v>181</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10">
       <c r="J5" t="s">
         <v>182</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10">
       <c r="B6" t="s">
         <v>171</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10">
       <c r="B7" t="s">
         <v>179</v>
       </c>
@@ -5140,7 +5150,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:10">
       <c r="B8" t="s">
         <v>179</v>
       </c>
@@ -5148,32 +5158,32 @@
         <v>176</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:10">
       <c r="C9" t="s">
         <v>172</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:10">
       <c r="C10" t="s">
         <v>173</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:10">
       <c r="C11" t="s">
         <v>174</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:10">
       <c r="C13" s="1" t="s">
         <v>177</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:10">
       <c r="C14" s="1" t="s">
         <v>178</v>
       </c>
     </row>
-    <row r="17" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:17">
       <c r="A17" s="18">
         <v>42499</v>
       </c>
@@ -5181,7 +5191,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:17">
       <c r="B18" t="s">
         <v>160</v>
       </c>
@@ -5189,7 +5199,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="19" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:17">
       <c r="C19" t="s">
         <v>161</v>
       </c>
@@ -5197,7 +5207,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:17">
       <c r="C20" t="s">
         <v>162</v>
       </c>
@@ -5205,12 +5215,12 @@
         <v>166</v>
       </c>
     </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:17">
       <c r="C21" t="s">
         <v>167</v>
       </c>
     </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:17">
       <c r="B22" t="s">
         <v>164</v>
       </c>
@@ -5221,7 +5231,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="24" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:17">
       <c r="A24" s="18">
         <v>42496</v>
       </c>
@@ -5235,7 +5245,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:17">
       <c r="B25" t="s">
         <v>137</v>
       </c>
@@ -5243,7 +5253,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="26" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:17">
       <c r="B26" t="s">
         <v>135</v>
       </c>
@@ -5254,7 +5264,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="28" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:17">
       <c r="B28" t="s">
         <v>136</v>
       </c>
@@ -5265,12 +5275,12 @@
         <v>152</v>
       </c>
     </row>
-    <row r="29" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:17">
       <c r="B29" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="30" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:17">
       <c r="B30" t="s">
         <v>139</v>
       </c>
@@ -5278,12 +5288,12 @@
         <v>153</v>
       </c>
     </row>
-    <row r="32" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:17">
       <c r="B32" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="33" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:16">
       <c r="C33" t="s">
         <v>140</v>
       </c>
@@ -5291,7 +5301,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="34" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:16">
       <c r="C34" t="s">
         <v>141</v>
       </c>
@@ -5299,7 +5309,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="36" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:16">
       <c r="B36" t="s">
         <v>142</v>
       </c>
@@ -5307,47 +5317,47 @@
         <v>159</v>
       </c>
     </row>
-    <row r="38" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="38" spans="2:16">
       <c r="B38" t="s">
         <v>143</v>
       </c>
     </row>
-    <row r="39" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="39" spans="2:16">
       <c r="B39" t="s">
         <v>144</v>
       </c>
     </row>
-    <row r="41" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="41" spans="2:16">
       <c r="B41" t="s">
         <v>146</v>
       </c>
     </row>
-    <row r="42" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="42" spans="2:16">
       <c r="B42" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="43" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="43" spans="2:16">
       <c r="B43" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="45" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="45" spans="2:16">
       <c r="B45" t="s">
         <v>148</v>
       </c>
     </row>
-    <row r="50" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:10">
       <c r="A50" s="18">
         <v>42494</v>
       </c>
     </row>
-    <row r="51" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:10">
       <c r="B51" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="52" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:10">
       <c r="C52" t="s">
         <v>1</v>
       </c>
@@ -5355,7 +5365,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="54" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:10">
       <c r="C54" s="5" t="s">
         <v>3</v>
       </c>
@@ -5363,44 +5373,44 @@
         <v>123</v>
       </c>
     </row>
-    <row r="55" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:10">
       <c r="D55" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="56" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:10">
       <c r="E56" s="25" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="57" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:10">
       <c r="E57" s="25"/>
     </row>
-    <row r="58" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:10">
       <c r="B58" s="5" t="s">
         <v>134</v>
       </c>
       <c r="E58" s="25"/>
     </row>
-    <row r="59" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:10">
       <c r="C59" t="s">
         <v>124</v>
       </c>
       <c r="E59" s="25"/>
     </row>
-    <row r="60" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:10">
       <c r="C60" t="s">
         <v>125</v>
       </c>
       <c r="E60" s="25"/>
     </row>
-    <row r="61" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:10">
       <c r="D61" t="s">
         <v>126</v>
       </c>
       <c r="E61" s="25"/>
     </row>
-    <row r="62" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:10">
       <c r="E62" s="26" t="s">
         <v>127</v>
       </c>
@@ -5411,7 +5421,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="63" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:10">
       <c r="E63" s="27">
         <v>1.1000000000000001</v>
       </c>
@@ -5422,7 +5432,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="64" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:10">
       <c r="E64" s="27">
         <v>1.1100000000000001</v>
       </c>
@@ -5439,7 +5449,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="65" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:7">
       <c r="E65" s="27">
         <v>1.3</v>
       </c>
@@ -5450,21 +5460,21 @@
         <v>1</v>
       </c>
     </row>
-    <row r="66" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:7">
       <c r="D66" t="s">
         <v>132</v>
       </c>
       <c r="E66" s="27"/>
     </row>
-    <row r="67" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:7">
       <c r="E67" s="27" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="68" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:7">
       <c r="E68" s="27"/>
     </row>
-    <row r="69" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:7">
       <c r="C69" t="s">
         <v>5</v>
       </c>
@@ -5472,57 +5482,57 @@
         <v>116</v>
       </c>
     </row>
-    <row r="71" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:7">
       <c r="B71" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="72" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:7">
       <c r="B72" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="74" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:7">
       <c r="B74" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="75" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:7">
       <c r="B75" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="77" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:7">
       <c r="A77" s="18">
         <v>42488</v>
       </c>
     </row>
-    <row r="78" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:7">
       <c r="B78" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="79" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:7">
       <c r="C79" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="80" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:7">
       <c r="C80" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="81" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:42">
       <c r="C81" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="82" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:42">
       <c r="C82" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="83" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:42">
       <c r="B83" s="5" t="s">
         <v>113</v>
       </c>
@@ -5535,12 +5545,12 @@
       <c r="I83" s="5"/>
       <c r="J83" s="5"/>
     </row>
-    <row r="85" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:42">
       <c r="A85" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="87" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:42">
       <c r="B87" t="s">
         <v>1</v>
       </c>
@@ -5548,7 +5558,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="89" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:42">
       <c r="B89" t="s">
         <v>3</v>
       </c>
@@ -5556,12 +5566,12 @@
         <v>6</v>
       </c>
     </row>
-    <row r="90" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:42">
       <c r="C90" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="92" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:42">
       <c r="B92" t="s">
         <v>5</v>
       </c>
@@ -5569,12 +5579,12 @@
         <v>8</v>
       </c>
     </row>
-    <row r="93" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:42">
       <c r="C93" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="94" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:42">
       <c r="C94" s="6" t="s">
         <v>52</v>
       </c>
@@ -5608,7 +5618,7 @@
         <v>42483</v>
       </c>
     </row>
-    <row r="95" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:42">
       <c r="C95" s="6" t="s">
         <v>53</v>
       </c>
@@ -5640,7 +5650,7 @@
       <c r="AO95" s="5"/>
       <c r="AP95" s="5"/>
     </row>
-    <row r="96" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:42">
       <c r="C96" t="s">
         <v>14</v>
       </c>
@@ -5654,29 +5664,29 @@
       <c r="AO96" s="5"/>
       <c r="AP96" s="5"/>
     </row>
-    <row r="97" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="97" spans="2:11">
       <c r="C97" s="1"/>
       <c r="D97" s="1" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="98" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="98" spans="2:11">
       <c r="C98" s="1"/>
       <c r="D98" s="1" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="100" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="100" spans="2:11">
       <c r="C100" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="101" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="101" spans="2:11">
       <c r="C101" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="103" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="103" spans="2:11">
       <c r="B103" t="s">
         <v>7</v>
       </c>
@@ -5684,12 +5694,12 @@
         <v>16</v>
       </c>
     </row>
-    <row r="105" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="105" spans="2:11">
       <c r="C105" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="107" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="107" spans="2:11">
       <c r="B107" t="s">
         <v>17</v>
       </c>
@@ -5697,7 +5707,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="108" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="108" spans="2:11">
       <c r="D108" s="5" t="s">
         <v>50</v>
       </c>
@@ -5715,7 +5725,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="109" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="109" spans="2:11">
       <c r="C109" t="s">
         <v>19</v>
       </c>
@@ -5723,12 +5733,12 @@
         <v>20</v>
       </c>
     </row>
-    <row r="110" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="110" spans="2:11">
       <c r="D110" s="3" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="112" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="112" spans="2:11">
       <c r="B112" t="s">
         <v>22</v>
       </c>
@@ -5736,12 +5746,12 @@
         <v>21</v>
       </c>
     </row>
-    <row r="114" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:24">
       <c r="A114" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="115" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:24">
       <c r="B115" t="s">
         <v>48</v>
       </c>
@@ -5763,7 +5773,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="116" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:24">
       <c r="B116" t="s">
         <v>46</v>
       </c>
@@ -5777,7 +5787,7 @@
         <v>42480</v>
       </c>
     </row>
-    <row r="117" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:24">
       <c r="B117" t="s">
         <v>49</v>
       </c>
@@ -5791,14 +5801,14 @@
         <v>42480</v>
       </c>
     </row>
-    <row r="118" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:24">
       <c r="M118" s="6"/>
       <c r="N118" s="6"/>
       <c r="O118" s="6"/>
       <c r="P118" s="6"/>
       <c r="S118" s="8"/>
     </row>
-    <row r="119" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:24">
       <c r="F119" s="9" t="s">
         <v>69</v>
       </c>
@@ -5811,7 +5821,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="120" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:24">
       <c r="A120" t="s">
         <v>47</v>
       </c>
@@ -5834,7 +5844,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="121" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:24">
       <c r="A121" s="4" t="s">
         <v>23</v>
       </c>
@@ -5854,7 +5864,7 @@
       <c r="O121" s="4"/>
       <c r="P121" s="4"/>
     </row>
-    <row r="122" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:24">
       <c r="A122" s="4" t="s">
         <v>24</v>
       </c>
@@ -5874,7 +5884,7 @@
       <c r="O122" s="4"/>
       <c r="P122" s="4"/>
     </row>
-    <row r="123" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:24">
       <c r="A123" t="s">
         <v>25</v>
       </c>
@@ -5894,12 +5904,12 @@
       </c>
       <c r="V123" s="9"/>
     </row>
-    <row r="124" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:24">
       <c r="A124" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="125" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:24">
       <c r="A125" s="4" t="s">
         <v>42</v>
       </c>
@@ -5919,7 +5929,7 @@
       <c r="O125" s="4"/>
       <c r="P125" s="4"/>
     </row>
-    <row r="126" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:24">
       <c r="A126" s="4" t="s">
         <v>27</v>
       </c>
@@ -5939,12 +5949,12 @@
       <c r="O126" s="4"/>
       <c r="P126" s="4"/>
     </row>
-    <row r="127" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:24">
       <c r="A127" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="128" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:24">
       <c r="A128" s="4" t="s">
         <v>45</v>
       </c>
@@ -5964,83 +5974,83 @@
       <c r="O128" s="4"/>
       <c r="P128" s="4"/>
     </row>
-    <row r="129" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:2">
       <c r="A129" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="130" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:2">
       <c r="A130" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="131" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:2">
       <c r="A131" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="132" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:2">
       <c r="A132" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="133" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:2">
       <c r="A133" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="134" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:2">
       <c r="A134" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="135" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:2">
       <c r="A135" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="136" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:2">
       <c r="A136" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="137" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:2">
       <c r="A137" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="138" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:2">
       <c r="A138" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="139" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:2">
       <c r="A139" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="140" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:2">
       <c r="A140" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="141" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:2">
       <c r="A141" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="144" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:2">
       <c r="A144" s="13" t="s">
         <v>70</v>
       </c>
       <c r="B144" s="13"/>
     </row>
-    <row r="145" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="145" spans="2:11">
       <c r="B145" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="146" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="146" spans="2:11">
       <c r="B146" s="5" t="s">
         <v>80</v>
       </c>
@@ -6050,32 +6060,32 @@
       <c r="D146" s="5"/>
       <c r="E146" s="5"/>
     </row>
-    <row r="147" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="147" spans="2:11">
       <c r="B147" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="148" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="148" spans="2:11">
       <c r="C148" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="149" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="149" spans="2:11">
       <c r="B149" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="151" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="151" spans="2:11">
       <c r="B151" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="152" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="152" spans="2:11">
       <c r="B152" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="154" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="154" spans="2:11">
       <c r="B154" s="5" t="s">
         <v>84</v>
       </c>
@@ -6090,12 +6100,12 @@
         <v>42483</v>
       </c>
     </row>
-    <row r="157" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="157" spans="2:11">
       <c r="B157" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="158" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="158" spans="2:11">
       <c r="B158" t="s">
         <v>86</v>
       </c>
@@ -6110,7 +6120,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:R95"/>
   <sheetViews>
@@ -6118,7 +6128,7 @@
       <selection activeCell="H60" sqref="H60"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="2" max="2" width="5" style="10" customWidth="1"/>
     <col min="3" max="3" width="30.140625" bestFit="1" customWidth="1"/>
@@ -6133,7 +6143,7 @@
     <col min="12" max="12" width="14.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:18">
       <c r="A1" s="7" t="s">
         <v>59</v>
       </c>
@@ -6142,7 +6152,7 @@
       <c r="D1" s="7"/>
       <c r="E1" s="11"/>
     </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:18">
       <c r="B2" s="17" t="s">
         <v>65</v>
       </c>
@@ -6180,7 +6190,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:18">
       <c r="B3" s="14">
         <v>1</v>
       </c>
@@ -6224,7 +6234,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:18">
       <c r="B4" s="14">
         <f>B3+1</f>
         <v>2</v>
@@ -6258,7 +6268,7 @@
       </c>
       <c r="L4" s="15"/>
     </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:18">
       <c r="B5" s="14">
         <f t="shared" ref="B5:B19" si="0">B4+1</f>
         <v>3</v>
@@ -6292,7 +6302,7 @@
       </c>
       <c r="L5" s="15"/>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:18">
       <c r="B6" s="14">
         <f t="shared" si="0"/>
         <v>4</v>
@@ -6329,7 +6339,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:18">
       <c r="B7" s="14">
         <f t="shared" si="0"/>
         <v>5</v>
@@ -6370,7 +6380,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:18">
       <c r="B8" s="14">
         <f t="shared" si="0"/>
         <v>6</v>
@@ -6412,7 +6422,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:18">
       <c r="B9" s="14">
         <f t="shared" si="0"/>
         <v>7</v>
@@ -6452,7 +6462,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:18">
       <c r="B10" s="14">
         <f t="shared" si="0"/>
         <v>8</v>
@@ -6492,7 +6502,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:18">
       <c r="B11" s="14">
         <f t="shared" si="0"/>
         <v>9</v>
@@ -6508,7 +6518,7 @@
       <c r="K11" s="15"/>
       <c r="L11" s="15"/>
     </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:18">
       <c r="B12" s="14">
         <f t="shared" si="0"/>
         <v>10</v>
@@ -6524,7 +6534,7 @@
       <c r="K12" s="15"/>
       <c r="L12" s="15"/>
     </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:18">
       <c r="B13" s="14">
         <f t="shared" si="0"/>
         <v>11</v>
@@ -6540,7 +6550,7 @@
       <c r="K13" s="15"/>
       <c r="L13" s="15"/>
     </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:18">
       <c r="B14" s="14">
         <f t="shared" si="0"/>
         <v>12</v>
@@ -6556,7 +6566,7 @@
       <c r="K14" s="15"/>
       <c r="L14" s="15"/>
     </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:18">
       <c r="B15" s="14">
         <f t="shared" si="0"/>
         <v>13</v>
@@ -6572,7 +6582,7 @@
       <c r="K15" s="15"/>
       <c r="L15" s="15"/>
     </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:18">
       <c r="B16" s="14">
         <f t="shared" si="0"/>
         <v>14</v>
@@ -6588,7 +6598,7 @@
       <c r="K16" s="15"/>
       <c r="L16" s="15"/>
     </row>
-    <row r="17" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:12">
       <c r="B17" s="14">
         <f t="shared" si="0"/>
         <v>15</v>
@@ -6604,7 +6614,7 @@
       <c r="K17" s="15"/>
       <c r="L17" s="15"/>
     </row>
-    <row r="18" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:12">
       <c r="B18" s="14">
         <f t="shared" si="0"/>
         <v>16</v>
@@ -6620,7 +6630,7 @@
       <c r="K18" s="15"/>
       <c r="L18" s="15"/>
     </row>
-    <row r="19" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:12">
       <c r="B19" s="14">
         <f t="shared" si="0"/>
         <v>17</v>
@@ -6636,12 +6646,12 @@
       <c r="K19" s="15"/>
       <c r="L19" s="15"/>
     </row>
-    <row r="22" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:12">
       <c r="C22" t="s">
         <v>183</v>
       </c>
     </row>
-    <row r="23" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:12">
       <c r="C23" t="s">
         <v>184</v>
       </c>
@@ -6660,7 +6670,7 @@
       </c>
       <c r="L23" s="47"/>
     </row>
-    <row r="24" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:12">
       <c r="G24" s="49"/>
       <c r="H24" s="51"/>
       <c r="I24" s="14" t="s">
@@ -6676,7 +6686,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="25" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:12">
       <c r="G25" s="33" t="s">
         <v>110</v>
       </c>
@@ -6692,7 +6702,7 @@
       <c r="K25" s="32"/>
       <c r="L25" s="32"/>
     </row>
-    <row r="26" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:12">
       <c r="G26" s="37"/>
       <c r="H26" s="38"/>
       <c r="I26" s="32">
@@ -6704,7 +6714,7 @@
       <c r="K26" s="32"/>
       <c r="L26" s="32"/>
     </row>
-    <row r="27" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:12">
       <c r="G27" s="37"/>
       <c r="H27" s="38"/>
       <c r="I27" s="32">
@@ -6716,7 +6726,7 @@
       <c r="K27" s="32"/>
       <c r="L27" s="32"/>
     </row>
-    <row r="28" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:12">
       <c r="G28" s="37"/>
       <c r="H28" s="38"/>
       <c r="I28" s="32">
@@ -6728,7 +6738,7 @@
       <c r="K28" s="32"/>
       <c r="L28" s="32"/>
     </row>
-    <row r="29" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:12">
       <c r="G29" s="37"/>
       <c r="H29" s="38"/>
       <c r="I29" s="32"/>
@@ -6736,7 +6746,7 @@
       <c r="K29" s="32"/>
       <c r="L29" s="32"/>
     </row>
-    <row r="30" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:12">
       <c r="G30" s="37"/>
       <c r="H30" s="38"/>
       <c r="I30" s="32"/>
@@ -6744,7 +6754,7 @@
       <c r="K30" s="32"/>
       <c r="L30" s="32"/>
     </row>
-    <row r="31" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:12">
       <c r="G31" s="35"/>
       <c r="H31" s="36"/>
       <c r="I31" s="32"/>
@@ -6752,7 +6762,7 @@
       <c r="K31" s="32"/>
       <c r="L31" s="32"/>
     </row>
-    <row r="32" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:12">
       <c r="G32" s="15" t="s">
         <v>109</v>
       </c>
@@ -6762,7 +6772,7 @@
       <c r="K32" s="32"/>
       <c r="L32" s="32"/>
     </row>
-    <row r="33" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:12">
       <c r="G33" s="15"/>
       <c r="H33" s="32"/>
       <c r="I33" s="32"/>
@@ -6770,7 +6780,7 @@
       <c r="K33" s="32"/>
       <c r="L33" s="32"/>
     </row>
-    <row r="34" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:12">
       <c r="G34" s="15"/>
       <c r="H34" s="32"/>
       <c r="I34" s="32"/>
@@ -6778,7 +6788,7 @@
       <c r="K34" s="32"/>
       <c r="L34" s="32"/>
     </row>
-    <row r="35" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:12">
       <c r="G35" s="15"/>
       <c r="H35" s="32"/>
       <c r="I35" s="32"/>
@@ -6786,7 +6796,7 @@
       <c r="K35" s="32"/>
       <c r="L35" s="32"/>
     </row>
-    <row r="36" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:12">
       <c r="G36" s="15" t="s">
         <v>195</v>
       </c>
@@ -6806,7 +6816,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:12">
       <c r="G37" s="15"/>
       <c r="H37" s="32"/>
       <c r="I37" s="32">
@@ -6822,7 +6832,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="38" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:12">
       <c r="G38" s="15"/>
       <c r="H38" s="32"/>
       <c r="I38" s="32"/>
@@ -6834,7 +6844,7 @@
         <v>462</v>
       </c>
     </row>
-    <row r="39" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:12">
       <c r="G39" s="15"/>
       <c r="H39" s="32"/>
       <c r="I39" s="32"/>
@@ -6846,7 +6856,7 @@
         <v>57595</v>
       </c>
     </row>
-    <row r="40" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:12">
       <c r="G40" s="15" t="s">
         <v>111</v>
       </c>
@@ -6856,7 +6866,7 @@
       <c r="K40" s="32"/>
       <c r="L40" s="32"/>
     </row>
-    <row r="41" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:12">
       <c r="G41" s="15"/>
       <c r="H41" s="32"/>
       <c r="I41" s="32"/>
@@ -6864,14 +6874,14 @@
       <c r="K41" s="32"/>
       <c r="L41" s="32"/>
     </row>
-    <row r="42" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:12">
       <c r="H42" s="31"/>
       <c r="I42" s="31"/>
       <c r="J42" s="31"/>
       <c r="K42" s="31"/>
       <c r="L42" s="31"/>
     </row>
-    <row r="43" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:12">
       <c r="A43" t="s">
         <v>198</v>
       </c>
@@ -6881,7 +6891,7 @@
       <c r="K43" s="31"/>
       <c r="L43" s="31"/>
     </row>
-    <row r="44" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:12">
       <c r="C44" t="s">
         <v>199</v>
       </c>
@@ -6891,7 +6901,7 @@
       <c r="K44" s="31"/>
       <c r="L44" s="31"/>
     </row>
-    <row r="45" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:12">
       <c r="C45" t="s">
         <v>200</v>
       </c>
@@ -6902,7 +6912,7 @@
       <c r="I45" s="30"/>
       <c r="J45" s="30"/>
     </row>
-    <row r="46" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:12">
       <c r="C46" t="s">
         <v>202</v>
       </c>
@@ -6910,7 +6920,7 @@
       <c r="I46" s="30"/>
       <c r="J46" s="30"/>
     </row>
-    <row r="47" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:12">
       <c r="C47" t="s">
         <v>208</v>
       </c>
@@ -6921,17 +6931,17 @@
       <c r="I47" s="30"/>
       <c r="J47" s="30"/>
     </row>
-    <row r="48" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:12">
       <c r="C48" t="s">
         <v>212</v>
       </c>
     </row>
-    <row r="50" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:10">
       <c r="A50" t="s">
         <v>203</v>
       </c>
     </row>
-    <row r="51" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:10">
       <c r="A51" t="s">
         <v>158</v>
       </c>
@@ -6939,7 +6949,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="52" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:10">
       <c r="A52" t="s">
         <v>158</v>
       </c>
@@ -6956,7 +6966,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="53" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:10">
       <c r="B53" s="39" t="s">
         <v>206</v>
       </c>
@@ -6964,41 +6974,41 @@
         <v>211</v>
       </c>
     </row>
-    <row r="54" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:10">
       <c r="B54" s="39" t="s">
         <v>213</v>
       </c>
     </row>
-    <row r="55" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:10">
       <c r="B55" s="39" t="s">
         <v>214</v>
       </c>
     </row>
-    <row r="56" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:10">
       <c r="B56" s="39"/>
       <c r="J56" s="40"/>
     </row>
-    <row r="57" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:10">
       <c r="J57" s="40"/>
     </row>
-    <row r="58" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:10">
       <c r="H58"/>
       <c r="J58" s="40"/>
     </row>
-    <row r="59" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:10">
       <c r="H59"/>
       <c r="J59" s="40"/>
     </row>
-    <row r="60" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:10">
       <c r="H60"/>
     </row>
-    <row r="61" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:10">
       <c r="H61"/>
     </row>
-    <row r="62" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:10">
       <c r="H62"/>
     </row>
-    <row r="95" spans="16:16" x14ac:dyDescent="0.25">
+    <row r="95" spans="16:16">
       <c r="P95" s="41"/>
     </row>
   </sheetData>
@@ -7015,7 +7025,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr codeName="Sheet3"/>
   <dimension ref="A1:AH18"/>
   <sheetViews>
@@ -7023,22 +7033,22 @@
       <selection activeCell="U24" sqref="U24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="16384" width="9.140625" style="42"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:34">
       <c r="A1" s="43" t="s">
         <v>219</v>
       </c>
     </row>
-    <row r="2" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:34">
       <c r="O2" s="42" t="s">
         <v>215</v>
       </c>
     </row>
-    <row r="3" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:34">
       <c r="A3" s="42" t="s">
         <v>220</v>
       </c>
@@ -7046,7 +7056,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="4" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:34">
       <c r="P4" s="42" t="s">
         <v>218</v>
       </c>
@@ -7060,12 +7070,12 @@
       <c r="AG4" s="5"/>
       <c r="AH4" s="5"/>
     </row>
-    <row r="5" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:34">
       <c r="A5" s="42" t="s">
         <v>221</v>
       </c>
     </row>
-    <row r="6" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:34">
       <c r="B6" s="42" t="s">
         <v>224</v>
       </c>
@@ -7073,42 +7083,42 @@
         <v>225</v>
       </c>
     </row>
-    <row r="7" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:34">
       <c r="A7" s="42" t="s">
         <v>222</v>
       </c>
     </row>
-    <row r="8" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:34">
       <c r="B8" s="42" t="s">
         <v>223</v>
       </c>
     </row>
-    <row r="12" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:34">
       <c r="O12" s="42" t="s">
         <v>216</v>
       </c>
     </row>
-    <row r="13" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:34">
       <c r="P13" s="42" t="s">
         <v>217</v>
       </c>
     </row>
-    <row r="14" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:34">
       <c r="Q14" s="42" t="s">
         <v>226</v>
       </c>
     </row>
-    <row r="16" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:34">
       <c r="P16" s="42" t="s">
         <v>227</v>
       </c>
     </row>
-    <row r="17" spans="4:16" x14ac:dyDescent="0.25">
+    <row r="17" spans="4:16">
       <c r="P17" s="42" t="s">
         <v>228</v>
       </c>
     </row>
-    <row r="18" spans="4:16" x14ac:dyDescent="0.25">
+    <row r="18" spans="4:16">
       <c r="D18" s="44"/>
     </row>
   </sheetData>
@@ -7119,7 +7129,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr codeName="Sheet4"/>
   <dimension ref="A1:AF109"/>
   <sheetViews>
@@ -7127,14 +7137,14 @@
       <selection activeCell="G52" sqref="G52"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:31">
       <c r="A1" t="s">
         <v>230</v>
       </c>
     </row>
-    <row r="2" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:31">
       <c r="B2" s="25" t="s">
         <v>229</v>
       </c>
@@ -7142,7 +7152,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="4" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:31">
       <c r="A4" t="s">
         <v>231</v>
       </c>
@@ -7150,7 +7160,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="7" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:31">
       <c r="A7" t="s">
         <v>234</v>
       </c>
@@ -7158,7 +7168,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="8" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:31">
       <c r="B8" s="25" t="s">
         <v>233</v>
       </c>
@@ -7174,7 +7184,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="9" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:31">
       <c r="B9" t="s">
         <v>235</v>
       </c>
@@ -7188,7 +7198,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="10" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:31">
       <c r="C10" s="3" t="s">
         <v>236</v>
       </c>
@@ -7202,7 +7212,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="11" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:31">
       <c r="C11" s="3" t="s">
         <v>237</v>
       </c>
@@ -7220,7 +7230,7 @@
       </c>
       <c r="AE11" s="5"/>
     </row>
-    <row r="12" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:31">
       <c r="R12" t="s">
         <v>252</v>
       </c>
@@ -7231,7 +7241,7 @@
         <v>287</v>
       </c>
     </row>
-    <row r="13" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:31">
       <c r="A13" t="s">
         <v>239</v>
       </c>
@@ -7245,7 +7255,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="14" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:31">
       <c r="B14" s="4" t="s">
         <v>240</v>
       </c>
@@ -7268,7 +7278,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="15" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:31">
       <c r="C15" t="s">
         <v>244</v>
       </c>
@@ -7288,7 +7298,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="16" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:31">
       <c r="C16" t="s">
         <v>246</v>
       </c>
@@ -7305,7 +7315,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="17" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:32">
       <c r="B17" s="4" t="s">
         <v>241</v>
       </c>
@@ -7330,7 +7340,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="18" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:32">
       <c r="C18" t="s">
         <v>247</v>
       </c>
@@ -7344,7 +7354,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="19" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:32">
       <c r="R19" t="s">
         <v>259</v>
       </c>
@@ -7352,7 +7362,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="20" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:32">
       <c r="R20" t="s">
         <v>260</v>
       </c>
@@ -7363,12 +7373,12 @@
         <v>295</v>
       </c>
     </row>
-    <row r="21" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:32">
       <c r="R21" t="s">
         <v>261</v>
       </c>
     </row>
-    <row r="22" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:32">
       <c r="B22" t="s">
         <v>242</v>
       </c>
@@ -7382,7 +7392,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="23" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:32">
       <c r="R23" t="s">
         <v>263</v>
       </c>
@@ -7390,7 +7400,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="24" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:32">
       <c r="R24" t="s">
         <v>264</v>
       </c>
@@ -7398,7 +7408,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="25" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:32">
       <c r="R25" t="s">
         <v>265</v>
       </c>
@@ -7408,7 +7418,7 @@
       <c r="AE25" s="5"/>
       <c r="AF25" s="5"/>
     </row>
-    <row r="26" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:32">
       <c r="R26" t="s">
         <v>266</v>
       </c>
@@ -7416,7 +7426,7 @@
         <v>298</v>
       </c>
     </row>
-    <row r="27" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:32">
       <c r="A27" s="13" t="s">
         <v>305</v>
       </c>
@@ -7432,7 +7442,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="28" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:32">
       <c r="B28" t="s">
         <v>306</v>
       </c>
@@ -7443,7 +7453,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="29" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:32">
       <c r="B29" t="s">
         <v>307</v>
       </c>
@@ -7454,7 +7464,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="30" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:32">
       <c r="B30" t="s">
         <v>308</v>
       </c>
@@ -7465,7 +7475,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="31" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:32">
       <c r="C31" t="s">
         <v>309</v>
       </c>
@@ -7473,7 +7483,7 @@
         <v>302</v>
       </c>
     </row>
-    <row r="32" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:32">
       <c r="C32" t="s">
         <v>310</v>
       </c>
@@ -7481,7 +7491,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="33" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:30">
       <c r="B33" t="s">
         <v>311</v>
       </c>
@@ -7489,7 +7499,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="34" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:30">
       <c r="B34" t="s">
         <v>312</v>
       </c>
@@ -7497,72 +7507,72 @@
         <v>295</v>
       </c>
     </row>
-    <row r="35" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:30">
       <c r="C35" t="s">
         <v>313</v>
       </c>
     </row>
-    <row r="36" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:30">
       <c r="D36" t="s">
         <v>314</v>
       </c>
     </row>
-    <row r="37" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:30">
       <c r="D37" t="s">
         <v>315</v>
       </c>
     </row>
-    <row r="38" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:30">
       <c r="C38" t="s">
         <v>311</v>
       </c>
     </row>
-    <row r="39" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:30">
       <c r="C39" t="s">
         <v>316</v>
       </c>
     </row>
-    <row r="40" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:30">
       <c r="D40" t="s">
         <v>314</v>
       </c>
     </row>
-    <row r="41" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:30">
       <c r="D41" t="s">
         <v>315</v>
       </c>
     </row>
-    <row r="42" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:30">
       <c r="C42" t="s">
         <v>311</v>
       </c>
     </row>
-    <row r="43" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:30">
       <c r="C43" t="s">
         <v>317</v>
       </c>
     </row>
-    <row r="44" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:30">
       <c r="C44" t="s">
         <v>318</v>
       </c>
     </row>
-    <row r="45" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:30">
       <c r="C45" t="s">
         <v>319</v>
       </c>
     </row>
-    <row r="46" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:30">
       <c r="B46" t="s">
         <v>311</v>
       </c>
     </row>
-    <row r="47" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:30">
       <c r="A47" t="s">
         <v>311</v>
       </c>
     </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:7">
       <c r="A49" s="13" t="s">
         <v>320</v>
       </c>
@@ -7572,17 +7582,17 @@
       <c r="E49" s="13"/>
       <c r="F49" s="13"/>
     </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:7">
       <c r="B50" t="s">
         <v>321</v>
       </c>
     </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:7">
       <c r="B51" t="s">
         <v>322</v>
       </c>
     </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:7">
       <c r="B52" s="5" t="s">
         <v>323</v>
       </c>
@@ -7591,32 +7601,32 @@
         <v>324</v>
       </c>
     </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:7">
       <c r="C53" t="s">
         <v>325</v>
       </c>
     </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:7">
       <c r="D54" t="s">
         <v>326</v>
       </c>
     </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:7">
       <c r="E55" t="s">
         <v>327</v>
       </c>
     </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:7">
       <c r="B56" t="s">
         <v>322</v>
       </c>
     </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:7">
       <c r="A57" t="s">
         <v>311</v>
       </c>
     </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:7">
       <c r="A59" s="13" t="s">
         <v>328</v>
       </c>
@@ -7626,62 +7636,62 @@
       <c r="E59" s="13"/>
       <c r="F59" s="13"/>
     </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:7">
       <c r="A60" t="s">
         <v>329</v>
       </c>
     </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:7">
       <c r="A61" t="s">
         <v>330</v>
       </c>
     </row>
-    <row r="62" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:7">
       <c r="A62" t="s">
         <v>331</v>
       </c>
     </row>
-    <row r="63" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:7">
       <c r="A63" t="s">
         <v>332</v>
       </c>
     </row>
-    <row r="64" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:7">
       <c r="A64" t="s">
         <v>333</v>
       </c>
     </row>
-    <row r="65" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:9">
       <c r="A65" t="s">
         <v>334</v>
       </c>
     </row>
-    <row r="66" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:9">
       <c r="A66" t="s">
         <v>335</v>
       </c>
     </row>
-    <row r="67" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:9">
       <c r="A67" t="s">
         <v>334</v>
       </c>
     </row>
-    <row r="68" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:9">
       <c r="A68" t="s">
         <v>336</v>
       </c>
     </row>
-    <row r="69" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:9">
       <c r="A69" t="s">
         <v>337</v>
       </c>
     </row>
-    <row r="70" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:9">
       <c r="A70" t="s">
         <v>338</v>
       </c>
     </row>
-    <row r="71" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:9">
       <c r="A71" t="s">
         <v>339</v>
       </c>
@@ -7689,7 +7699,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="72" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:9">
       <c r="A72" t="s">
         <v>340</v>
       </c>
@@ -7697,182 +7707,182 @@
         <v>372</v>
       </c>
     </row>
-    <row r="73" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:9">
       <c r="A73" t="s">
         <v>341</v>
       </c>
     </row>
-    <row r="74" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:9">
       <c r="A74" t="s">
         <v>342</v>
       </c>
     </row>
-    <row r="75" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:9">
       <c r="A75" t="s">
         <v>343</v>
       </c>
     </row>
-    <row r="76" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:9">
       <c r="A76" t="s">
         <v>344</v>
       </c>
     </row>
-    <row r="77" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:9">
       <c r="A77" t="s">
         <v>345</v>
       </c>
     </row>
-    <row r="78" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:9">
       <c r="A78" t="s">
         <v>341</v>
       </c>
     </row>
-    <row r="79" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:9">
       <c r="A79" t="s">
         <v>346</v>
       </c>
     </row>
-    <row r="80" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:9">
       <c r="A80" t="s">
         <v>347</v>
       </c>
     </row>
-    <row r="81" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:1">
       <c r="A81" t="s">
         <v>348</v>
       </c>
     </row>
-    <row r="82" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:1">
       <c r="A82" t="s">
         <v>349</v>
       </c>
     </row>
-    <row r="83" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:1">
       <c r="A83" t="s">
         <v>350</v>
       </c>
     </row>
-    <row r="84" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:1">
       <c r="A84" t="s">
         <v>351</v>
       </c>
     </row>
-    <row r="85" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:1">
       <c r="A85" t="s">
         <v>352</v>
       </c>
     </row>
-    <row r="86" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:1">
       <c r="A86" t="s">
         <v>348</v>
       </c>
     </row>
-    <row r="87" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:1">
       <c r="A87" t="s">
         <v>353</v>
       </c>
     </row>
-    <row r="88" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:1">
       <c r="A88" t="s">
         <v>354</v>
       </c>
     </row>
-    <row r="89" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:1">
       <c r="A89" t="s">
         <v>355</v>
       </c>
     </row>
-    <row r="90" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:1">
       <c r="A90" t="s">
         <v>356</v>
       </c>
     </row>
-    <row r="91" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:1">
       <c r="A91" t="s">
         <v>357</v>
       </c>
     </row>
-    <row r="92" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:1">
       <c r="A92" t="s">
         <v>358</v>
       </c>
     </row>
-    <row r="93" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:1">
       <c r="A93" t="s">
         <v>359</v>
       </c>
     </row>
-    <row r="94" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:1">
       <c r="A94" t="s">
         <v>360</v>
       </c>
     </row>
-    <row r="95" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:1">
       <c r="A95" t="s">
         <v>361</v>
       </c>
     </row>
-    <row r="96" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:1">
       <c r="A96" t="s">
         <v>362</v>
       </c>
     </row>
-    <row r="97" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:1">
       <c r="A97" t="s">
         <v>363</v>
       </c>
     </row>
-    <row r="98" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:1">
       <c r="A98" t="s">
         <v>351</v>
       </c>
     </row>
-    <row r="99" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:1">
       <c r="A99" t="s">
         <v>344</v>
       </c>
     </row>
-    <row r="100" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:1">
       <c r="A100" t="s">
         <v>364</v>
       </c>
     </row>
-    <row r="101" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:1">
       <c r="A101" t="s">
         <v>365</v>
       </c>
     </row>
-    <row r="102" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:1">
       <c r="A102" t="s">
         <v>338</v>
       </c>
     </row>
-    <row r="103" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:1">
       <c r="A103" t="s">
         <v>366</v>
       </c>
     </row>
-    <row r="104" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:1">
       <c r="A104" t="s">
         <v>367</v>
       </c>
     </row>
-    <row r="105" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:1">
       <c r="A105" t="s">
         <v>364</v>
       </c>
     </row>
-    <row r="107" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:1">
       <c r="A107" t="s">
         <v>368</v>
       </c>
     </row>
-    <row r="108" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:1">
       <c r="A108" t="s">
         <v>369</v>
       </c>
     </row>
-    <row r="109" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:1">
       <c r="A109" t="s">
         <v>370</v>
       </c>
@@ -7887,16 +7897,16 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:K130"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A85" workbookViewId="0">
-      <selection activeCell="M108" sqref="M108"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I8" sqref="I8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9">
       <c r="A1" s="46" t="s">
         <v>411</v>
       </c>
@@ -7905,32 +7915,46 @@
       <c r="D1" s="46"/>
       <c r="E1" s="46"/>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9">
+      <c r="I2" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9">
       <c r="A3" t="s">
         <v>373</v>
       </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="I3" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9">
       <c r="A4" t="s">
         <v>374</v>
       </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="I4" t="s">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9">
       <c r="A5" t="s">
         <v>375</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9">
       <c r="A6" t="s">
         <v>376</v>
       </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="I6" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9">
       <c r="A8" t="s">
         <v>377</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9">
       <c r="A9" s="5" t="s">
         <v>378</v>
       </c>
@@ -7940,167 +7964,167 @@
       <c r="E9" s="5"/>
       <c r="F9" s="5"/>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9">
       <c r="A10" t="s">
         <v>338</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9">
       <c r="A11" t="s">
         <v>379</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:9">
       <c r="A12" t="s">
         <v>380</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:9">
       <c r="A13" t="s">
         <v>341</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:9">
       <c r="A14" t="s">
         <v>381</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:9">
       <c r="A15" t="s">
         <v>382</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:9">
       <c r="A16" t="s">
         <v>348</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:1">
       <c r="A17" t="s">
         <v>383</v>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:1">
       <c r="A18" t="s">
         <v>351</v>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:1">
       <c r="A19" t="s">
         <v>352</v>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:1">
       <c r="A20" t="s">
         <v>348</v>
       </c>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:1">
       <c r="A21" t="s">
         <v>350</v>
       </c>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:1">
       <c r="A22" t="s">
         <v>351</v>
       </c>
     </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:1">
       <c r="A23" t="s">
         <v>344</v>
       </c>
     </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:1">
       <c r="A24" t="s">
         <v>345</v>
       </c>
     </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:1">
       <c r="A25" t="s">
         <v>341</v>
       </c>
     </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:1">
       <c r="A26" t="s">
         <v>384</v>
       </c>
     </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:1">
       <c r="A27" t="s">
         <v>344</v>
       </c>
     </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:1">
       <c r="A28" t="s">
         <v>364</v>
       </c>
     </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:1">
       <c r="A29" t="s">
         <v>365</v>
       </c>
     </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:1">
       <c r="A30" t="s">
         <v>338</v>
       </c>
     </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:1">
       <c r="A31" t="s">
         <v>367</v>
       </c>
     </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:1">
       <c r="A32" t="s">
         <v>364</v>
       </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:4">
       <c r="A34" t="s">
         <v>368</v>
       </c>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:4">
       <c r="A35" t="s">
         <v>385</v>
       </c>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:4">
       <c r="A36" t="s">
         <v>370</v>
       </c>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:4">
       <c r="A38" t="s">
         <v>386</v>
       </c>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:4">
       <c r="A39" t="s">
         <v>374</v>
       </c>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:4">
       <c r="A40" t="s">
         <v>387</v>
       </c>
     </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:4">
       <c r="A42" t="s">
         <v>375</v>
       </c>
     </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:4">
       <c r="A43" t="s">
         <v>376</v>
       </c>
     </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:4">
       <c r="A45" t="s">
         <v>388</v>
       </c>
     </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:4">
       <c r="A46" s="5" t="s">
         <v>389</v>
       </c>
@@ -8108,12 +8132,12 @@
       <c r="C46" s="5"/>
       <c r="D46" s="5"/>
     </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:4">
       <c r="A47" t="s">
         <v>338</v>
       </c>
     </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:4">
       <c r="A48" t="s">
         <v>334</v>
       </c>
@@ -8121,7 +8145,7 @@
         <v>390</v>
       </c>
     </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:4">
       <c r="A49" s="5" t="s">
         <v>391</v>
       </c>
@@ -8129,37 +8153,37 @@
       <c r="C49" s="5"/>
       <c r="D49" s="5"/>
     </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:4">
       <c r="A50" t="s">
         <v>341</v>
       </c>
     </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:4">
       <c r="A51" t="s">
         <v>392</v>
       </c>
     </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:4">
       <c r="A52" t="s">
         <v>343</v>
       </c>
     </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:4">
       <c r="A53" t="s">
         <v>344</v>
       </c>
     </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:4">
       <c r="A54" t="s">
         <v>345</v>
       </c>
     </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:4">
       <c r="A55" t="s">
         <v>341</v>
       </c>
     </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:4">
       <c r="A56" t="s">
         <v>393</v>
       </c>
@@ -8167,37 +8191,37 @@
         <v>394</v>
       </c>
     </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:4">
       <c r="A57" t="s">
         <v>344</v>
       </c>
     </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:4">
       <c r="A58" t="s">
         <v>395</v>
       </c>
     </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:4">
       <c r="A59" t="s">
         <v>396</v>
       </c>
     </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:4">
       <c r="A61" t="s">
         <v>397</v>
       </c>
     </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:4">
       <c r="A62" t="s">
         <v>398</v>
       </c>
     </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:4">
       <c r="A63" t="s">
         <v>399</v>
       </c>
     </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:4">
       <c r="A64" t="s">
         <v>334</v>
       </c>
@@ -8205,7 +8229,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:2">
       <c r="A65" t="s">
         <v>334</v>
       </c>
@@ -8213,22 +8237,22 @@
         <v>401</v>
       </c>
     </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:2">
       <c r="A66" t="s">
         <v>396</v>
       </c>
     </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:2">
       <c r="A67" t="s">
         <v>402</v>
       </c>
     </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:2">
       <c r="A68" t="s">
         <v>338</v>
       </c>
     </row>
-    <row r="69" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:2">
       <c r="A69" t="s">
         <v>334</v>
       </c>
@@ -8236,97 +8260,97 @@
         <v>403</v>
       </c>
     </row>
-    <row r="70" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:2">
       <c r="A70" t="s">
         <v>404</v>
       </c>
     </row>
-    <row r="71" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:2">
       <c r="A71" t="s">
         <v>341</v>
       </c>
     </row>
-    <row r="72" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:2">
       <c r="A72" t="s">
         <v>405</v>
       </c>
     </row>
-    <row r="73" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:2">
       <c r="A73" t="s">
         <v>406</v>
       </c>
     </row>
-    <row r="74" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:2">
       <c r="A74" t="s">
         <v>344</v>
       </c>
     </row>
-    <row r="75" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:2">
       <c r="A75" t="s">
         <v>345</v>
       </c>
     </row>
-    <row r="76" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:2">
       <c r="A76" t="s">
         <v>341</v>
       </c>
     </row>
-    <row r="77" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:2">
       <c r="A77" t="s">
         <v>407</v>
       </c>
     </row>
-    <row r="78" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:2">
       <c r="A78" t="s">
         <v>408</v>
       </c>
     </row>
-    <row r="79" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:2">
       <c r="A79" t="s">
         <v>409</v>
       </c>
     </row>
-    <row r="80" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:2">
       <c r="A80" t="s">
         <v>344</v>
       </c>
     </row>
-    <row r="81" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:2">
       <c r="A81" t="s">
         <v>364</v>
       </c>
     </row>
-    <row r="82" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:2">
       <c r="A82" t="s">
         <v>334</v>
       </c>
     </row>
-    <row r="83" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:2">
       <c r="A83" t="s">
         <v>410</v>
       </c>
     </row>
-    <row r="84" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:2">
       <c r="A84" t="s">
         <v>385</v>
       </c>
     </row>
-    <row r="85" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:2">
       <c r="A85" t="s">
         <v>370</v>
       </c>
     </row>
-    <row r="87" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:2">
       <c r="A87" t="s">
         <v>412</v>
       </c>
     </row>
-    <row r="88" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:2">
       <c r="A88" t="s">
         <v>374</v>
       </c>
     </row>
-    <row r="89" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:2">
       <c r="A89" t="s">
         <v>413</v>
       </c>
@@ -8334,12 +8358,12 @@
         <v>414</v>
       </c>
     </row>
-    <row r="90" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:2">
       <c r="A90" t="s">
         <v>334</v>
       </c>
     </row>
-    <row r="91" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:2">
       <c r="A91" t="s">
         <v>413</v>
       </c>
@@ -8347,17 +8371,17 @@
         <v>415</v>
       </c>
     </row>
-    <row r="92" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:2">
       <c r="A92" t="s">
         <v>376</v>
       </c>
     </row>
-    <row r="94" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:2">
       <c r="A94" t="s">
         <v>416</v>
       </c>
     </row>
-    <row r="95" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:2">
       <c r="A95" t="s">
         <v>413</v>
       </c>
@@ -8365,7 +8389,7 @@
         <v>417</v>
       </c>
     </row>
-    <row r="96" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:2">
       <c r="A96" t="s">
         <v>413</v>
       </c>
@@ -8373,7 +8397,7 @@
         <v>418</v>
       </c>
     </row>
-    <row r="97" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:11">
       <c r="A97" s="41" t="s">
         <v>413</v>
       </c>
@@ -8386,7 +8410,7 @@
       <c r="F97" s="41"/>
       <c r="G97" s="41"/>
     </row>
-    <row r="98" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:11">
       <c r="A98" t="s">
         <v>413</v>
       </c>
@@ -8394,7 +8418,7 @@
         <v>420</v>
       </c>
     </row>
-    <row r="99" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:11">
       <c r="B99" t="s">
         <v>413</v>
       </c>
@@ -8402,7 +8426,7 @@
         <v>418</v>
       </c>
     </row>
-    <row r="100" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:11">
       <c r="B100" t="s">
         <v>413</v>
       </c>
@@ -8410,7 +8434,7 @@
         <v>421</v>
       </c>
     </row>
-    <row r="101" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:11">
       <c r="B101" t="s">
         <v>413</v>
       </c>
@@ -8418,7 +8442,7 @@
         <v>422</v>
       </c>
     </row>
-    <row r="102" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:11">
       <c r="B102" t="s">
         <v>413</v>
       </c>
@@ -8426,7 +8450,7 @@
         <v>394</v>
       </c>
     </row>
-    <row r="103" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:11">
       <c r="B103" t="s">
         <v>413</v>
       </c>
@@ -8434,7 +8458,7 @@
         <v>311</v>
       </c>
     </row>
-    <row r="104" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:11">
       <c r="B104" t="s">
         <v>413</v>
       </c>
@@ -8442,7 +8466,7 @@
         <v>423</v>
       </c>
     </row>
-    <row r="105" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:11">
       <c r="A105" s="41"/>
       <c r="B105" s="41" t="s">
         <v>413</v>
@@ -8459,7 +8483,7 @@
       <c r="J105" s="41"/>
       <c r="K105" s="41"/>
     </row>
-    <row r="106" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:11">
       <c r="B106" t="s">
         <v>413</v>
       </c>
@@ -8467,7 +8491,7 @@
         <v>424</v>
       </c>
     </row>
-    <row r="107" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:11">
       <c r="B107" t="s">
         <v>413</v>
       </c>
@@ -8475,7 +8499,7 @@
         <v>425</v>
       </c>
     </row>
-    <row r="108" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:11">
       <c r="C108" t="s">
         <v>413</v>
       </c>
@@ -8483,7 +8507,7 @@
         <v>418</v>
       </c>
     </row>
-    <row r="109" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:11">
       <c r="C109" t="s">
         <v>413</v>
       </c>
@@ -8491,7 +8515,7 @@
         <v>426</v>
       </c>
     </row>
-    <row r="110" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:11">
       <c r="C110" t="s">
         <v>413</v>
       </c>
@@ -8499,7 +8523,7 @@
         <v>427</v>
       </c>
     </row>
-    <row r="111" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:11">
       <c r="C111" t="s">
         <v>413</v>
       </c>
@@ -8507,7 +8531,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="112" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:11">
       <c r="C112" t="s">
         <v>413</v>
       </c>
@@ -8515,7 +8539,7 @@
         <v>311</v>
       </c>
     </row>
-    <row r="113" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:5">
       <c r="C113" t="s">
         <v>413</v>
       </c>
@@ -8523,7 +8547,7 @@
         <v>423</v>
       </c>
     </row>
-    <row r="114" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:5">
       <c r="C114" t="s">
         <v>413</v>
       </c>
@@ -8531,7 +8555,7 @@
         <v>418</v>
       </c>
     </row>
-    <row r="115" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:5">
       <c r="C115" t="s">
         <v>413</v>
       </c>
@@ -8539,7 +8563,7 @@
         <v>428</v>
       </c>
     </row>
-    <row r="116" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:5">
       <c r="C116" t="s">
         <v>413</v>
       </c>
@@ -8547,7 +8571,7 @@
         <v>429</v>
       </c>
     </row>
-    <row r="117" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:5">
       <c r="C117" t="s">
         <v>413</v>
       </c>
@@ -8555,7 +8579,7 @@
         <v>430</v>
       </c>
     </row>
-    <row r="118" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:5">
       <c r="C118" t="s">
         <v>413</v>
       </c>
@@ -8563,7 +8587,7 @@
         <v>311</v>
       </c>
     </row>
-    <row r="119" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:5">
       <c r="B119" t="s">
         <v>413</v>
       </c>
@@ -8571,7 +8595,7 @@
         <v>311</v>
       </c>
     </row>
-    <row r="120" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:5">
       <c r="A120" t="s">
         <v>413</v>
       </c>
@@ -8579,7 +8603,7 @@
         <v>311</v>
       </c>
     </row>
-    <row r="121" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:5">
       <c r="A121" t="s">
         <v>413</v>
       </c>
@@ -8587,7 +8611,7 @@
         <v>423</v>
       </c>
     </row>
-    <row r="122" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:5">
       <c r="A122" t="s">
         <v>413</v>
       </c>
@@ -8595,7 +8619,7 @@
         <v>418</v>
       </c>
     </row>
-    <row r="123" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:5">
       <c r="A123" t="s">
         <v>413</v>
       </c>
@@ -8603,7 +8627,7 @@
         <v>431</v>
       </c>
     </row>
-    <row r="124" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:5">
       <c r="A124" t="s">
         <v>413</v>
       </c>
@@ -8611,7 +8635,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="125" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:5">
       <c r="A125" t="s">
         <v>413</v>
       </c>
@@ -8619,7 +8643,7 @@
         <v>433</v>
       </c>
     </row>
-    <row r="126" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:5">
       <c r="A126" t="s">
         <v>413</v>
       </c>
@@ -8627,7 +8651,7 @@
         <v>311</v>
       </c>
     </row>
-    <row r="128" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:5">
       <c r="A128" t="s">
         <v>413</v>
       </c>
@@ -8635,7 +8659,7 @@
         <v>434</v>
       </c>
     </row>
-    <row r="129" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:2">
       <c r="A129" t="s">
         <v>413</v>
       </c>
@@ -8643,7 +8667,7 @@
         <v>435</v>
       </c>
     </row>
-    <row r="130" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:2">
       <c r="A130" t="s">
         <v>370</v>
       </c>

--- a/CFT4CUnitSrc/src/report/GAReport.xlsx
+++ b/CFT4CUnitSrc/src/report/GAReport.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="1065" windowWidth="14805" windowHeight="6840" tabRatio="940" activeTab="4"/>
+    <workbookView xWindow="240" yWindow="1125" windowWidth="14805" windowHeight="6780" tabRatio="940" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="GA based TC generation" sheetId="2" r:id="rId1"/>
@@ -13,12 +13,12 @@
     <sheet name="201612paper" sheetId="12" r:id="rId4"/>
     <sheet name="ThayHieu_report" sheetId="13" r:id="rId5"/>
   </sheets>
-  <calcPr calcId="125725" calcOnSave="0"/>
+  <calcPr calcId="145621" calcOnSave="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="607" uniqueCount="440">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="532" uniqueCount="409">
   <si>
     <t>Nhìn chung, để sinh test case cho một input program theo phương pháp GA thì có các bước sau</t>
   </si>
@@ -1162,195 +1162,51 @@
     <t>a=b=c</t>
   </si>
   <si>
-    <t xml:space="preserve">    public double example(int x, int y, double z) </t>
-  </si>
-  <si>
-    <t xml:space="preserve">    {</t>
-  </si>
-  <si>
-    <t xml:space="preserve">        double ret1, ret2, ret3, ret4;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">        ret1 = ret2 = ret3 = ret4 = 0;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">        ret1 = Math.abs((x + y) - 1024);</t>
-  </si>
-  <si>
-    <t xml:space="preserve">        if (x + y == 1024)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">            ret2 = (1000 - y);</t>
-  </si>
-  <si>
-    <t xml:space="preserve">            if (y &gt; 1000)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">                ret3 = (Math.cos(z) - 0.95) - Math.exp(z);</t>
-  </si>
-  <si>
-    <t xml:space="preserve">                if (Math.cos(z) - 0.95 &lt; Math.exp(z))</t>
-  </si>
-  <si>
-    <t xml:space="preserve">                    path1++;                    </t>
-  </si>
-  <si>
-    <t xml:space="preserve">                path3++;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">        return (ret1 + ret2 + ret3);</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    public double QuadraticEquation2(double a, double b, double c)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">        double root1, root2;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">        ret1 = Math.abs(a);</t>
-  </si>
-  <si>
-    <t xml:space="preserve">        if (a == 0)</t>
-  </si>
-  <si>
-    <t>ret2 = Math.abs(a);</t>
-  </si>
-  <si>
-    <t xml:space="preserve">            if (b != 0)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">                root1 = (-c)/b;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">            </t>
-  </si>
-  <si>
     <t>path2++;</t>
   </si>
   <si>
-    <t xml:space="preserve">            return (ret1 + ret2);</t>
-  </si>
-  <si>
-    <t xml:space="preserve">        }        </t>
-  </si>
-  <si>
-    <t xml:space="preserve">        ret2 = (b*b) - (4*a*c);</t>
-  </si>
-  <si>
-    <t xml:space="preserve">        if (((b*b) - (4*a*c)) &lt; 0)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">        {            </t>
-  </si>
-  <si>
     <t>path3++;</t>
   </si>
   <si>
-    <t>return ret2;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">        else </t>
-  </si>
-  <si>
-    <t>ret3 = Math.abs((b*b) - (4*a*c));</t>
-  </si>
-  <si>
-    <t xml:space="preserve">            if (((b*b) - (4*a*c)) == 0)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">                root1 = (-b)/(a*2);</t>
-  </si>
-  <si>
-    <t xml:space="preserve">                path4++;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">                root1 = ((-b + Math.sqrt(((b*b) - (4*a*c))))/(2*a));</t>
-  </si>
-  <si>
-    <t xml:space="preserve">                root2 = ((-b - Math.sqrt(((b*b) - (4*a*c))))/(2*a));</t>
-  </si>
-  <si>
-    <t xml:space="preserve">                path5++;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">        stopCriteria = (path1 &gt; 0) &amp;&amp; (path2 &gt; 0) &amp;&amp; (path3 &gt; 0) &amp;&amp; (path4 &gt; 0) &amp;&amp; (path5 &gt; 0);</t>
-  </si>
-  <si>
     <t>Nothing Worth Having Comes Easy</t>
   </si>
   <si>
-    <t xml:space="preserve">    public static double Tritype(double a, double b, double c)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    </t>
-  </si>
-  <si>
     <t>int type = -1;</t>
   </si>
   <si>
-    <t>double ret1, ret2, ret3, ret4;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">        ret1 = -(a + b + c); // if (a + b &gt; c &amp;&amp; a + c &gt; b &amp;&amp; b + c &gt; a) </t>
-  </si>
-  <si>
     <t>if (a + b &gt; c &amp;&amp; a + c &gt; b &amp;&amp; b + c &gt; a)</t>
   </si>
   <si>
     <t>{</t>
   </si>
   <si>
-    <t xml:space="preserve">ret2 = Math.abs(a - b) + Math.abs(b - c); </t>
-  </si>
-  <si>
     <t>if (a == b &amp;&amp; b == c)</t>
   </si>
   <si>
     <t>type = 3;  // Equilateral</t>
   </si>
   <si>
-    <t>//System.out.println("Equilateral");</t>
-  </si>
-  <si>
     <t>else</t>
   </si>
   <si>
-    <t>ret3 = Math.min(Math.min(Math.abs(a - b), Math.abs(b - a)), Math.abs(c - a));</t>
-  </si>
-  <si>
     <t>if (a == b || b == c || c == a)</t>
   </si>
   <si>
     <t>type = 2;  // Isosceles</t>
   </si>
   <si>
-    <t>//System.out.println("Isosceles");</t>
-  </si>
-  <si>
     <t>type = 1;  // Scalene</t>
   </si>
   <si>
-    <t>//System.out.println("Scalene");</t>
-  </si>
-  <si>
     <t>path4++;</t>
   </si>
   <si>
     <t>type = -1; // Not a triangle</t>
   </si>
   <si>
-    <t>//System.out.println("Not a triangle");</t>
-  </si>
-  <si>
     <t>path1++;</t>
   </si>
   <si>
-    <t>stopCriteria = (path1 &gt; 0) &amp;&amp; (path2 &gt; 0) &amp;&amp; (path3 &gt; 0) &amp;&amp; (path4 &gt; 0);</t>
-  </si>
-  <si>
-    <t>return (ret1 + ret2 + ret3);</t>
-  </si>
-  <si>
     <t xml:space="preserve">Equal condition list: [x+y==1024] </t>
   </si>
   <si>
@@ -1360,17 +1216,68 @@
     <t xml:space="preserve">Equal condition list: [((b*b)-(4*a*c))==0] [a==0] [b==0] </t>
   </si>
   <si>
-    <t>Giờ chỉ có 3 đk này thôi thì trong GA điều chỉnh kiểu gì nhỉ?</t>
+    <t xml:space="preserve">void example(int x, int y, double z) </t>
+  </si>
+  <si>
+    <t>if (y &gt; 1000)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">path1++;                    </t>
+  </si>
+  <si>
+    <t>void QuadraticEquation2(double a, double b, double c)</t>
+  </si>
+  <si>
+    <t>double root1, root2;</t>
+  </si>
+  <si>
+    <t>if (a == 0)</t>
+  </si>
+  <si>
+    <t>if (b != 0)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">}        </t>
+  </si>
+  <si>
+    <t>if (((b*b) - (4*a*c)) &lt; 0)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">{            </t>
+  </si>
+  <si>
+    <t xml:space="preserve">else </t>
+  </si>
+  <si>
+    <t>if (((b*b) - (4*a*c)) == 0)</t>
+  </si>
+  <si>
+    <t>root1 = (-b)/(a*2);</t>
+  </si>
+  <si>
+    <t>root1 = ((-b + Math.sqrt(((b*b) - (4*a*c))))/(2*a));</t>
+  </si>
+  <si>
+    <t>root2 = ((-b - Math.sqrt(((b*b) - (4*a*c))))/(2*a));</t>
+  </si>
+  <si>
+    <t>path5++;</t>
+  </si>
+  <si>
+    <t>double Tritype(double a, double b, double c)</t>
+  </si>
+  <si>
+    <t>return type;</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.000000000"/>
   </numFmts>
-  <fonts count="6">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -4885,6 +4792,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -4919,6 +4827,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -5094,37 +5003,37 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:AP158"/>
   <sheetViews>
-    <sheetView topLeftCell="A130" workbookViewId="0">
-      <selection activeCell="E145" sqref="E145"/>
+    <sheetView topLeftCell="A121" workbookViewId="0">
+      <selection activeCell="F147" sqref="F147"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="10.7109375" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="10.140625" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="9.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" s="18">
         <v>42502</v>
       </c>
     </row>
-    <row r="2" spans="1:10">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
         <v>168</v>
       </c>
     </row>
-    <row r="3" spans="1:10">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="C3" t="s">
         <v>169</v>
       </c>
     </row>
-    <row r="4" spans="1:10">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="C4" t="s">
         <v>180</v>
       </c>
@@ -5132,17 +5041,17 @@
         <v>181</v>
       </c>
     </row>
-    <row r="5" spans="1:10">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="J5" t="s">
         <v>182</v>
       </c>
     </row>
-    <row r="6" spans="1:10">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
         <v>171</v>
       </c>
     </row>
-    <row r="7" spans="1:10">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
         <v>179</v>
       </c>
@@ -5150,7 +5059,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="8" spans="1:10">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
         <v>179</v>
       </c>
@@ -5158,32 +5067,32 @@
         <v>176</v>
       </c>
     </row>
-    <row r="9" spans="1:10">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="C9" t="s">
         <v>172</v>
       </c>
     </row>
-    <row r="10" spans="1:10">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="C10" t="s">
         <v>173</v>
       </c>
     </row>
-    <row r="11" spans="1:10">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="C11" t="s">
         <v>174</v>
       </c>
     </row>
-    <row r="13" spans="1:10">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="C13" s="1" t="s">
         <v>177</v>
       </c>
     </row>
-    <row r="14" spans="1:10">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="C14" s="1" t="s">
         <v>178</v>
       </c>
     </row>
-    <row r="17" spans="1:17">
+    <row r="17" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A17" s="18">
         <v>42499</v>
       </c>
@@ -5191,7 +5100,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:17">
+    <row r="18" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B18" t="s">
         <v>160</v>
       </c>
@@ -5199,7 +5108,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="19" spans="1:17">
+    <row r="19" spans="1:17" x14ac:dyDescent="0.25">
       <c r="C19" t="s">
         <v>161</v>
       </c>
@@ -5207,7 +5116,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="20" spans="1:17">
+    <row r="20" spans="1:17" x14ac:dyDescent="0.25">
       <c r="C20" t="s">
         <v>162</v>
       </c>
@@ -5215,12 +5124,12 @@
         <v>166</v>
       </c>
     </row>
-    <row r="21" spans="1:17">
+    <row r="21" spans="1:17" x14ac:dyDescent="0.25">
       <c r="C21" t="s">
         <v>167</v>
       </c>
     </row>
-    <row r="22" spans="1:17">
+    <row r="22" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B22" t="s">
         <v>164</v>
       </c>
@@ -5231,7 +5140,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="24" spans="1:17">
+    <row r="24" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A24" s="18">
         <v>42496</v>
       </c>
@@ -5245,7 +5154,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="25" spans="1:17">
+    <row r="25" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B25" t="s">
         <v>137</v>
       </c>
@@ -5253,7 +5162,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="26" spans="1:17">
+    <row r="26" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B26" t="s">
         <v>135</v>
       </c>
@@ -5264,7 +5173,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="28" spans="1:17">
+    <row r="28" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B28" t="s">
         <v>136</v>
       </c>
@@ -5275,12 +5184,12 @@
         <v>152</v>
       </c>
     </row>
-    <row r="29" spans="1:17">
+    <row r="29" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B29" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="30" spans="1:17">
+    <row r="30" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B30" t="s">
         <v>139</v>
       </c>
@@ -5288,12 +5197,12 @@
         <v>153</v>
       </c>
     </row>
-    <row r="32" spans="1:17">
+    <row r="32" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B32" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="33" spans="2:16">
+    <row r="33" spans="2:16" x14ac:dyDescent="0.25">
       <c r="C33" t="s">
         <v>140</v>
       </c>
@@ -5301,7 +5210,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="34" spans="2:16">
+    <row r="34" spans="2:16" x14ac:dyDescent="0.25">
       <c r="C34" t="s">
         <v>141</v>
       </c>
@@ -5309,7 +5218,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="36" spans="2:16">
+    <row r="36" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B36" t="s">
         <v>142</v>
       </c>
@@ -5317,47 +5226,47 @@
         <v>159</v>
       </c>
     </row>
-    <row r="38" spans="2:16">
+    <row r="38" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B38" t="s">
         <v>143</v>
       </c>
     </row>
-    <row r="39" spans="2:16">
+    <row r="39" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B39" t="s">
         <v>144</v>
       </c>
     </row>
-    <row r="41" spans="2:16">
+    <row r="41" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B41" t="s">
         <v>146</v>
       </c>
     </row>
-    <row r="42" spans="2:16">
+    <row r="42" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B42" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="43" spans="2:16">
+    <row r="43" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B43" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="45" spans="2:16">
+    <row r="45" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B45" t="s">
         <v>148</v>
       </c>
     </row>
-    <row r="50" spans="1:10">
+    <row r="50" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A50" s="18">
         <v>42494</v>
       </c>
     </row>
-    <row r="51" spans="1:10">
+    <row r="51" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B51" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="52" spans="1:10">
+    <row r="52" spans="1:10" x14ac:dyDescent="0.25">
       <c r="C52" t="s">
         <v>1</v>
       </c>
@@ -5365,7 +5274,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="54" spans="1:10">
+    <row r="54" spans="1:10" x14ac:dyDescent="0.25">
       <c r="C54" s="5" t="s">
         <v>3</v>
       </c>
@@ -5373,44 +5282,44 @@
         <v>123</v>
       </c>
     </row>
-    <row r="55" spans="1:10">
+    <row r="55" spans="1:10" x14ac:dyDescent="0.25">
       <c r="D55" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="56" spans="1:10">
+    <row r="56" spans="1:10" x14ac:dyDescent="0.25">
       <c r="E56" s="25" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="57" spans="1:10">
+    <row r="57" spans="1:10" x14ac:dyDescent="0.25">
       <c r="E57" s="25"/>
     </row>
-    <row r="58" spans="1:10">
+    <row r="58" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B58" s="5" t="s">
         <v>134</v>
       </c>
       <c r="E58" s="25"/>
     </row>
-    <row r="59" spans="1:10">
+    <row r="59" spans="1:10" x14ac:dyDescent="0.25">
       <c r="C59" t="s">
         <v>124</v>
       </c>
       <c r="E59" s="25"/>
     </row>
-    <row r="60" spans="1:10">
+    <row r="60" spans="1:10" x14ac:dyDescent="0.25">
       <c r="C60" t="s">
         <v>125</v>
       </c>
       <c r="E60" s="25"/>
     </row>
-    <row r="61" spans="1:10">
+    <row r="61" spans="1:10" x14ac:dyDescent="0.25">
       <c r="D61" t="s">
         <v>126</v>
       </c>
       <c r="E61" s="25"/>
     </row>
-    <row r="62" spans="1:10">
+    <row r="62" spans="1:10" x14ac:dyDescent="0.25">
       <c r="E62" s="26" t="s">
         <v>127</v>
       </c>
@@ -5421,7 +5330,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="63" spans="1:10">
+    <row r="63" spans="1:10" x14ac:dyDescent="0.25">
       <c r="E63" s="27">
         <v>1.1000000000000001</v>
       </c>
@@ -5432,7 +5341,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="64" spans="1:10">
+    <row r="64" spans="1:10" x14ac:dyDescent="0.25">
       <c r="E64" s="27">
         <v>1.1100000000000001</v>
       </c>
@@ -5449,7 +5358,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="65" spans="1:7">
+    <row r="65" spans="1:7" x14ac:dyDescent="0.25">
       <c r="E65" s="27">
         <v>1.3</v>
       </c>
@@ -5460,21 +5369,21 @@
         <v>1</v>
       </c>
     </row>
-    <row r="66" spans="1:7">
+    <row r="66" spans="1:7" x14ac:dyDescent="0.25">
       <c r="D66" t="s">
         <v>132</v>
       </c>
       <c r="E66" s="27"/>
     </row>
-    <row r="67" spans="1:7">
+    <row r="67" spans="1:7" x14ac:dyDescent="0.25">
       <c r="E67" s="27" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="68" spans="1:7">
+    <row r="68" spans="1:7" x14ac:dyDescent="0.25">
       <c r="E68" s="27"/>
     </row>
-    <row r="69" spans="1:7">
+    <row r="69" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C69" t="s">
         <v>5</v>
       </c>
@@ -5482,57 +5391,57 @@
         <v>116</v>
       </c>
     </row>
-    <row r="71" spans="1:7">
+    <row r="71" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B71" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="72" spans="1:7">
+    <row r="72" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B72" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="74" spans="1:7">
+    <row r="74" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B74" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="75" spans="1:7">
+    <row r="75" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B75" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="77" spans="1:7">
+    <row r="77" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A77" s="18">
         <v>42488</v>
       </c>
     </row>
-    <row r="78" spans="1:7">
+    <row r="78" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B78" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="79" spans="1:7">
+    <row r="79" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C79" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="80" spans="1:7">
+    <row r="80" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C80" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="81" spans="1:42">
+    <row r="81" spans="1:42" x14ac:dyDescent="0.25">
       <c r="C81" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="82" spans="1:42">
+    <row r="82" spans="1:42" x14ac:dyDescent="0.25">
       <c r="C82" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="83" spans="1:42">
+    <row r="83" spans="1:42" x14ac:dyDescent="0.25">
       <c r="B83" s="5" t="s">
         <v>113</v>
       </c>
@@ -5545,12 +5454,12 @@
       <c r="I83" s="5"/>
       <c r="J83" s="5"/>
     </row>
-    <row r="85" spans="1:42">
+    <row r="85" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="87" spans="1:42">
+    <row r="87" spans="1:42" x14ac:dyDescent="0.25">
       <c r="B87" t="s">
         <v>1</v>
       </c>
@@ -5558,7 +5467,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="89" spans="1:42">
+    <row r="89" spans="1:42" x14ac:dyDescent="0.25">
       <c r="B89" t="s">
         <v>3</v>
       </c>
@@ -5566,12 +5475,12 @@
         <v>6</v>
       </c>
     </row>
-    <row r="90" spans="1:42">
+    <row r="90" spans="1:42" x14ac:dyDescent="0.25">
       <c r="C90" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="92" spans="1:42">
+    <row r="92" spans="1:42" x14ac:dyDescent="0.25">
       <c r="B92" t="s">
         <v>5</v>
       </c>
@@ -5579,12 +5488,12 @@
         <v>8</v>
       </c>
     </row>
-    <row r="93" spans="1:42">
+    <row r="93" spans="1:42" x14ac:dyDescent="0.25">
       <c r="C93" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="94" spans="1:42">
+    <row r="94" spans="1:42" x14ac:dyDescent="0.25">
       <c r="C94" s="6" t="s">
         <v>52</v>
       </c>
@@ -5618,7 +5527,7 @@
         <v>42483</v>
       </c>
     </row>
-    <row r="95" spans="1:42">
+    <row r="95" spans="1:42" x14ac:dyDescent="0.25">
       <c r="C95" s="6" t="s">
         <v>53</v>
       </c>
@@ -5650,7 +5559,7 @@
       <c r="AO95" s="5"/>
       <c r="AP95" s="5"/>
     </row>
-    <row r="96" spans="1:42">
+    <row r="96" spans="1:42" x14ac:dyDescent="0.25">
       <c r="C96" t="s">
         <v>14</v>
       </c>
@@ -5664,29 +5573,29 @@
       <c r="AO96" s="5"/>
       <c r="AP96" s="5"/>
     </row>
-    <row r="97" spans="2:11">
+    <row r="97" spans="2:11" x14ac:dyDescent="0.25">
       <c r="C97" s="1"/>
       <c r="D97" s="1" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="98" spans="2:11">
+    <row r="98" spans="2:11" x14ac:dyDescent="0.25">
       <c r="C98" s="1"/>
       <c r="D98" s="1" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="100" spans="2:11">
+    <row r="100" spans="2:11" x14ac:dyDescent="0.25">
       <c r="C100" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="101" spans="2:11">
+    <row r="101" spans="2:11" x14ac:dyDescent="0.25">
       <c r="C101" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="103" spans="2:11">
+    <row r="103" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B103" t="s">
         <v>7</v>
       </c>
@@ -5694,12 +5603,12 @@
         <v>16</v>
       </c>
     </row>
-    <row r="105" spans="2:11">
+    <row r="105" spans="2:11" x14ac:dyDescent="0.25">
       <c r="C105" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="107" spans="2:11">
+    <row r="107" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B107" t="s">
         <v>17</v>
       </c>
@@ -5707,7 +5616,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="108" spans="2:11">
+    <row r="108" spans="2:11" x14ac:dyDescent="0.25">
       <c r="D108" s="5" t="s">
         <v>50</v>
       </c>
@@ -5725,7 +5634,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="109" spans="2:11">
+    <row r="109" spans="2:11" x14ac:dyDescent="0.25">
       <c r="C109" t="s">
         <v>19</v>
       </c>
@@ -5733,12 +5642,12 @@
         <v>20</v>
       </c>
     </row>
-    <row r="110" spans="2:11">
+    <row r="110" spans="2:11" x14ac:dyDescent="0.25">
       <c r="D110" s="3" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="112" spans="2:11">
+    <row r="112" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B112" t="s">
         <v>22</v>
       </c>
@@ -5746,12 +5655,12 @@
         <v>21</v>
       </c>
     </row>
-    <row r="114" spans="1:24">
+    <row r="114" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="115" spans="1:24">
+    <row r="115" spans="1:24" x14ac:dyDescent="0.25">
       <c r="B115" t="s">
         <v>48</v>
       </c>
@@ -5773,7 +5682,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="116" spans="1:24">
+    <row r="116" spans="1:24" x14ac:dyDescent="0.25">
       <c r="B116" t="s">
         <v>46</v>
       </c>
@@ -5787,7 +5696,7 @@
         <v>42480</v>
       </c>
     </row>
-    <row r="117" spans="1:24">
+    <row r="117" spans="1:24" x14ac:dyDescent="0.25">
       <c r="B117" t="s">
         <v>49</v>
       </c>
@@ -5801,14 +5710,14 @@
         <v>42480</v>
       </c>
     </row>
-    <row r="118" spans="1:24">
+    <row r="118" spans="1:24" x14ac:dyDescent="0.25">
       <c r="M118" s="6"/>
       <c r="N118" s="6"/>
       <c r="O118" s="6"/>
       <c r="P118" s="6"/>
       <c r="S118" s="8"/>
     </row>
-    <row r="119" spans="1:24">
+    <row r="119" spans="1:24" x14ac:dyDescent="0.25">
       <c r="F119" s="9" t="s">
         <v>69</v>
       </c>
@@ -5821,7 +5730,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="120" spans="1:24">
+    <row r="120" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
         <v>47</v>
       </c>
@@ -5844,7 +5753,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="121" spans="1:24">
+    <row r="121" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A121" s="4" t="s">
         <v>23</v>
       </c>
@@ -5864,7 +5773,7 @@
       <c r="O121" s="4"/>
       <c r="P121" s="4"/>
     </row>
-    <row r="122" spans="1:24">
+    <row r="122" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A122" s="4" t="s">
         <v>24</v>
       </c>
@@ -5884,7 +5793,7 @@
       <c r="O122" s="4"/>
       <c r="P122" s="4"/>
     </row>
-    <row r="123" spans="1:24">
+    <row r="123" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
         <v>25</v>
       </c>
@@ -5904,12 +5813,12 @@
       </c>
       <c r="V123" s="9"/>
     </row>
-    <row r="124" spans="1:24">
+    <row r="124" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="125" spans="1:24">
+    <row r="125" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A125" s="4" t="s">
         <v>42</v>
       </c>
@@ -5929,7 +5838,7 @@
       <c r="O125" s="4"/>
       <c r="P125" s="4"/>
     </row>
-    <row r="126" spans="1:24">
+    <row r="126" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A126" s="4" t="s">
         <v>27</v>
       </c>
@@ -5949,12 +5858,12 @@
       <c r="O126" s="4"/>
       <c r="P126" s="4"/>
     </row>
-    <row r="127" spans="1:24">
+    <row r="127" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="128" spans="1:24">
+    <row r="128" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A128" s="4" t="s">
         <v>45</v>
       </c>
@@ -5974,83 +5883,83 @@
       <c r="O128" s="4"/>
       <c r="P128" s="4"/>
     </row>
-    <row r="129" spans="1:2">
+    <row r="129" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="130" spans="1:2">
+    <row r="130" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="131" spans="1:2">
+    <row r="131" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="132" spans="1:2">
+    <row r="132" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="133" spans="1:2">
+    <row r="133" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="134" spans="1:2">
+    <row r="134" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="135" spans="1:2">
+    <row r="135" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="136" spans="1:2">
+    <row r="136" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="137" spans="1:2">
+    <row r="137" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="138" spans="1:2">
+    <row r="138" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="139" spans="1:2">
+    <row r="139" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="140" spans="1:2">
+    <row r="140" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="141" spans="1:2">
+    <row r="141" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="144" spans="1:2">
+    <row r="144" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A144" s="13" t="s">
         <v>70</v>
       </c>
       <c r="B144" s="13"/>
     </row>
-    <row r="145" spans="2:11">
+    <row r="145" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B145" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="146" spans="2:11">
+    <row r="146" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B146" s="5" t="s">
         <v>80</v>
       </c>
@@ -6060,32 +5969,32 @@
       <c r="D146" s="5"/>
       <c r="E146" s="5"/>
     </row>
-    <row r="147" spans="2:11">
+    <row r="147" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B147" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="148" spans="2:11">
+    <row r="148" spans="2:11" x14ac:dyDescent="0.25">
       <c r="C148" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="149" spans="2:11">
+    <row r="149" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B149" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="151" spans="2:11">
+    <row r="151" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B151" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="152" spans="2:11">
+    <row r="152" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B152" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="154" spans="2:11">
+    <row r="154" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B154" s="5" t="s">
         <v>84</v>
       </c>
@@ -6100,12 +6009,12 @@
         <v>42483</v>
       </c>
     </row>
-    <row r="157" spans="2:11">
+    <row r="157" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B157" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="158" spans="2:11">
+    <row r="158" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B158" t="s">
         <v>86</v>
       </c>
@@ -6120,7 +6029,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:R95"/>
   <sheetViews>
@@ -6128,7 +6037,7 @@
       <selection activeCell="H60" sqref="H60"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="5" style="10" customWidth="1"/>
     <col min="3" max="3" width="30.140625" bestFit="1" customWidth="1"/>
@@ -6143,7 +6052,7 @@
     <col min="12" max="12" width="14.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A1" s="7" t="s">
         <v>59</v>
       </c>
@@ -6152,7 +6061,7 @@
       <c r="D1" s="7"/>
       <c r="E1" s="11"/>
     </row>
-    <row r="2" spans="1:18">
+    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B2" s="17" t="s">
         <v>65</v>
       </c>
@@ -6190,7 +6099,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="3" spans="1:18">
+    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B3" s="14">
         <v>1</v>
       </c>
@@ -6234,7 +6143,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="4" spans="1:18">
+    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B4" s="14">
         <f>B3+1</f>
         <v>2</v>
@@ -6268,7 +6177,7 @@
       </c>
       <c r="L4" s="15"/>
     </row>
-    <row r="5" spans="1:18">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B5" s="14">
         <f t="shared" ref="B5:B19" si="0">B4+1</f>
         <v>3</v>
@@ -6302,7 +6211,7 @@
       </c>
       <c r="L5" s="15"/>
     </row>
-    <row r="6" spans="1:18">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B6" s="14">
         <f t="shared" si="0"/>
         <v>4</v>
@@ -6339,7 +6248,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="7" spans="1:18">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B7" s="14">
         <f t="shared" si="0"/>
         <v>5</v>
@@ -6380,7 +6289,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="8" spans="1:18">
+    <row r="8" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B8" s="14">
         <f t="shared" si="0"/>
         <v>6</v>
@@ -6422,7 +6331,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="9" spans="1:18">
+    <row r="9" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B9" s="14">
         <f t="shared" si="0"/>
         <v>7</v>
@@ -6462,7 +6371,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="10" spans="1:18">
+    <row r="10" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B10" s="14">
         <f t="shared" si="0"/>
         <v>8</v>
@@ -6502,7 +6411,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="11" spans="1:18">
+    <row r="11" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B11" s="14">
         <f t="shared" si="0"/>
         <v>9</v>
@@ -6518,7 +6427,7 @@
       <c r="K11" s="15"/>
       <c r="L11" s="15"/>
     </row>
-    <row r="12" spans="1:18">
+    <row r="12" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B12" s="14">
         <f t="shared" si="0"/>
         <v>10</v>
@@ -6534,7 +6443,7 @@
       <c r="K12" s="15"/>
       <c r="L12" s="15"/>
     </row>
-    <row r="13" spans="1:18">
+    <row r="13" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B13" s="14">
         <f t="shared" si="0"/>
         <v>11</v>
@@ -6550,7 +6459,7 @@
       <c r="K13" s="15"/>
       <c r="L13" s="15"/>
     </row>
-    <row r="14" spans="1:18">
+    <row r="14" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B14" s="14">
         <f t="shared" si="0"/>
         <v>12</v>
@@ -6566,7 +6475,7 @@
       <c r="K14" s="15"/>
       <c r="L14" s="15"/>
     </row>
-    <row r="15" spans="1:18">
+    <row r="15" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B15" s="14">
         <f t="shared" si="0"/>
         <v>13</v>
@@ -6582,7 +6491,7 @@
       <c r="K15" s="15"/>
       <c r="L15" s="15"/>
     </row>
-    <row r="16" spans="1:18">
+    <row r="16" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B16" s="14">
         <f t="shared" si="0"/>
         <v>14</v>
@@ -6598,7 +6507,7 @@
       <c r="K16" s="15"/>
       <c r="L16" s="15"/>
     </row>
-    <row r="17" spans="2:12">
+    <row r="17" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B17" s="14">
         <f t="shared" si="0"/>
         <v>15</v>
@@ -6614,7 +6523,7 @@
       <c r="K17" s="15"/>
       <c r="L17" s="15"/>
     </row>
-    <row r="18" spans="2:12">
+    <row r="18" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B18" s="14">
         <f t="shared" si="0"/>
         <v>16</v>
@@ -6630,7 +6539,7 @@
       <c r="K18" s="15"/>
       <c r="L18" s="15"/>
     </row>
-    <row r="19" spans="2:12">
+    <row r="19" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B19" s="14">
         <f t="shared" si="0"/>
         <v>17</v>
@@ -6646,12 +6555,12 @@
       <c r="K19" s="15"/>
       <c r="L19" s="15"/>
     </row>
-    <row r="22" spans="2:12">
+    <row r="22" spans="2:12" x14ac:dyDescent="0.25">
       <c r="C22" t="s">
         <v>183</v>
       </c>
     </row>
-    <row r="23" spans="2:12">
+    <row r="23" spans="2:12" x14ac:dyDescent="0.25">
       <c r="C23" t="s">
         <v>184</v>
       </c>
@@ -6670,7 +6579,7 @@
       </c>
       <c r="L23" s="47"/>
     </row>
-    <row r="24" spans="2:12">
+    <row r="24" spans="2:12" x14ac:dyDescent="0.25">
       <c r="G24" s="49"/>
       <c r="H24" s="51"/>
       <c r="I24" s="14" t="s">
@@ -6686,7 +6595,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="25" spans="2:12">
+    <row r="25" spans="2:12" x14ac:dyDescent="0.25">
       <c r="G25" s="33" t="s">
         <v>110</v>
       </c>
@@ -6702,7 +6611,7 @@
       <c r="K25" s="32"/>
       <c r="L25" s="32"/>
     </row>
-    <row r="26" spans="2:12">
+    <row r="26" spans="2:12" x14ac:dyDescent="0.25">
       <c r="G26" s="37"/>
       <c r="H26" s="38"/>
       <c r="I26" s="32">
@@ -6714,7 +6623,7 @@
       <c r="K26" s="32"/>
       <c r="L26" s="32"/>
     </row>
-    <row r="27" spans="2:12">
+    <row r="27" spans="2:12" x14ac:dyDescent="0.25">
       <c r="G27" s="37"/>
       <c r="H27" s="38"/>
       <c r="I27" s="32">
@@ -6726,7 +6635,7 @@
       <c r="K27" s="32"/>
       <c r="L27" s="32"/>
     </row>
-    <row r="28" spans="2:12">
+    <row r="28" spans="2:12" x14ac:dyDescent="0.25">
       <c r="G28" s="37"/>
       <c r="H28" s="38"/>
       <c r="I28" s="32">
@@ -6738,7 +6647,7 @@
       <c r="K28" s="32"/>
       <c r="L28" s="32"/>
     </row>
-    <row r="29" spans="2:12">
+    <row r="29" spans="2:12" x14ac:dyDescent="0.25">
       <c r="G29" s="37"/>
       <c r="H29" s="38"/>
       <c r="I29" s="32"/>
@@ -6746,7 +6655,7 @@
       <c r="K29" s="32"/>
       <c r="L29" s="32"/>
     </row>
-    <row r="30" spans="2:12">
+    <row r="30" spans="2:12" x14ac:dyDescent="0.25">
       <c r="G30" s="37"/>
       <c r="H30" s="38"/>
       <c r="I30" s="32"/>
@@ -6754,7 +6663,7 @@
       <c r="K30" s="32"/>
       <c r="L30" s="32"/>
     </row>
-    <row r="31" spans="2:12">
+    <row r="31" spans="2:12" x14ac:dyDescent="0.25">
       <c r="G31" s="35"/>
       <c r="H31" s="36"/>
       <c r="I31" s="32"/>
@@ -6762,7 +6671,7 @@
       <c r="K31" s="32"/>
       <c r="L31" s="32"/>
     </row>
-    <row r="32" spans="2:12">
+    <row r="32" spans="2:12" x14ac:dyDescent="0.25">
       <c r="G32" s="15" t="s">
         <v>109</v>
       </c>
@@ -6772,7 +6681,7 @@
       <c r="K32" s="32"/>
       <c r="L32" s="32"/>
     </row>
-    <row r="33" spans="1:12">
+    <row r="33" spans="1:12" x14ac:dyDescent="0.25">
       <c r="G33" s="15"/>
       <c r="H33" s="32"/>
       <c r="I33" s="32"/>
@@ -6780,7 +6689,7 @@
       <c r="K33" s="32"/>
       <c r="L33" s="32"/>
     </row>
-    <row r="34" spans="1:12">
+    <row r="34" spans="1:12" x14ac:dyDescent="0.25">
       <c r="G34" s="15"/>
       <c r="H34" s="32"/>
       <c r="I34" s="32"/>
@@ -6788,7 +6697,7 @@
       <c r="K34" s="32"/>
       <c r="L34" s="32"/>
     </row>
-    <row r="35" spans="1:12">
+    <row r="35" spans="1:12" x14ac:dyDescent="0.25">
       <c r="G35" s="15"/>
       <c r="H35" s="32"/>
       <c r="I35" s="32"/>
@@ -6796,7 +6705,7 @@
       <c r="K35" s="32"/>
       <c r="L35" s="32"/>
     </row>
-    <row r="36" spans="1:12">
+    <row r="36" spans="1:12" x14ac:dyDescent="0.25">
       <c r="G36" s="15" t="s">
         <v>195</v>
       </c>
@@ -6816,7 +6725,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="1:12">
+    <row r="37" spans="1:12" x14ac:dyDescent="0.25">
       <c r="G37" s="15"/>
       <c r="H37" s="32"/>
       <c r="I37" s="32">
@@ -6832,7 +6741,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="38" spans="1:12">
+    <row r="38" spans="1:12" x14ac:dyDescent="0.25">
       <c r="G38" s="15"/>
       <c r="H38" s="32"/>
       <c r="I38" s="32"/>
@@ -6844,7 +6753,7 @@
         <v>462</v>
       </c>
     </row>
-    <row r="39" spans="1:12">
+    <row r="39" spans="1:12" x14ac:dyDescent="0.25">
       <c r="G39" s="15"/>
       <c r="H39" s="32"/>
       <c r="I39" s="32"/>
@@ -6856,7 +6765,7 @@
         <v>57595</v>
       </c>
     </row>
-    <row r="40" spans="1:12">
+    <row r="40" spans="1:12" x14ac:dyDescent="0.25">
       <c r="G40" s="15" t="s">
         <v>111</v>
       </c>
@@ -6866,7 +6775,7 @@
       <c r="K40" s="32"/>
       <c r="L40" s="32"/>
     </row>
-    <row r="41" spans="1:12">
+    <row r="41" spans="1:12" x14ac:dyDescent="0.25">
       <c r="G41" s="15"/>
       <c r="H41" s="32"/>
       <c r="I41" s="32"/>
@@ -6874,14 +6783,14 @@
       <c r="K41" s="32"/>
       <c r="L41" s="32"/>
     </row>
-    <row r="42" spans="1:12">
+    <row r="42" spans="1:12" x14ac:dyDescent="0.25">
       <c r="H42" s="31"/>
       <c r="I42" s="31"/>
       <c r="J42" s="31"/>
       <c r="K42" s="31"/>
       <c r="L42" s="31"/>
     </row>
-    <row r="43" spans="1:12">
+    <row r="43" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>198</v>
       </c>
@@ -6891,7 +6800,7 @@
       <c r="K43" s="31"/>
       <c r="L43" s="31"/>
     </row>
-    <row r="44" spans="1:12">
+    <row r="44" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C44" t="s">
         <v>199</v>
       </c>
@@ -6901,7 +6810,7 @@
       <c r="K44" s="31"/>
       <c r="L44" s="31"/>
     </row>
-    <row r="45" spans="1:12">
+    <row r="45" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C45" t="s">
         <v>200</v>
       </c>
@@ -6912,7 +6821,7 @@
       <c r="I45" s="30"/>
       <c r="J45" s="30"/>
     </row>
-    <row r="46" spans="1:12">
+    <row r="46" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C46" t="s">
         <v>202</v>
       </c>
@@ -6920,7 +6829,7 @@
       <c r="I46" s="30"/>
       <c r="J46" s="30"/>
     </row>
-    <row r="47" spans="1:12">
+    <row r="47" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C47" t="s">
         <v>208</v>
       </c>
@@ -6931,17 +6840,17 @@
       <c r="I47" s="30"/>
       <c r="J47" s="30"/>
     </row>
-    <row r="48" spans="1:12">
+    <row r="48" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C48" t="s">
         <v>212</v>
       </c>
     </row>
-    <row r="50" spans="1:10">
+    <row r="50" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>203</v>
       </c>
     </row>
-    <row r="51" spans="1:10">
+    <row r="51" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>158</v>
       </c>
@@ -6949,7 +6858,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="52" spans="1:10">
+    <row r="52" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>158</v>
       </c>
@@ -6966,7 +6875,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="53" spans="1:10">
+    <row r="53" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B53" s="39" t="s">
         <v>206</v>
       </c>
@@ -6974,41 +6883,41 @@
         <v>211</v>
       </c>
     </row>
-    <row r="54" spans="1:10">
+    <row r="54" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B54" s="39" t="s">
         <v>213</v>
       </c>
     </row>
-    <row r="55" spans="1:10">
+    <row r="55" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B55" s="39" t="s">
         <v>214</v>
       </c>
     </row>
-    <row r="56" spans="1:10">
+    <row r="56" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B56" s="39"/>
       <c r="J56" s="40"/>
     </row>
-    <row r="57" spans="1:10">
+    <row r="57" spans="1:10" x14ac:dyDescent="0.25">
       <c r="J57" s="40"/>
     </row>
-    <row r="58" spans="1:10">
+    <row r="58" spans="1:10" x14ac:dyDescent="0.25">
       <c r="H58"/>
       <c r="J58" s="40"/>
     </row>
-    <row r="59" spans="1:10">
+    <row r="59" spans="1:10" x14ac:dyDescent="0.25">
       <c r="H59"/>
       <c r="J59" s="40"/>
     </row>
-    <row r="60" spans="1:10">
+    <row r="60" spans="1:10" x14ac:dyDescent="0.25">
       <c r="H60"/>
     </row>
-    <row r="61" spans="1:10">
+    <row r="61" spans="1:10" x14ac:dyDescent="0.25">
       <c r="H61"/>
     </row>
-    <row r="62" spans="1:10">
+    <row r="62" spans="1:10" x14ac:dyDescent="0.25">
       <c r="H62"/>
     </row>
-    <row r="95" spans="16:16">
+    <row r="95" spans="16:16" x14ac:dyDescent="0.25">
       <c r="P95" s="41"/>
     </row>
   </sheetData>
@@ -7025,7 +6934,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet3"/>
   <dimension ref="A1:AH18"/>
   <sheetViews>
@@ -7033,22 +6942,22 @@
       <selection activeCell="U24" sqref="U24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="16384" width="9.140625" style="42"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:34">
+    <row r="1" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A1" s="43" t="s">
         <v>219</v>
       </c>
     </row>
-    <row r="2" spans="1:34">
+    <row r="2" spans="1:34" x14ac:dyDescent="0.25">
       <c r="O2" s="42" t="s">
         <v>215</v>
       </c>
     </row>
-    <row r="3" spans="1:34">
+    <row r="3" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A3" s="42" t="s">
         <v>220</v>
       </c>
@@ -7056,7 +6965,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="4" spans="1:34">
+    <row r="4" spans="1:34" x14ac:dyDescent="0.25">
       <c r="P4" s="42" t="s">
         <v>218</v>
       </c>
@@ -7070,12 +6979,12 @@
       <c r="AG4" s="5"/>
       <c r="AH4" s="5"/>
     </row>
-    <row r="5" spans="1:34">
+    <row r="5" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A5" s="42" t="s">
         <v>221</v>
       </c>
     </row>
-    <row r="6" spans="1:34">
+    <row r="6" spans="1:34" x14ac:dyDescent="0.25">
       <c r="B6" s="42" t="s">
         <v>224</v>
       </c>
@@ -7083,42 +6992,42 @@
         <v>225</v>
       </c>
     </row>
-    <row r="7" spans="1:34">
+    <row r="7" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A7" s="42" t="s">
         <v>222</v>
       </c>
     </row>
-    <row r="8" spans="1:34">
+    <row r="8" spans="1:34" x14ac:dyDescent="0.25">
       <c r="B8" s="42" t="s">
         <v>223</v>
       </c>
     </row>
-    <row r="12" spans="1:34">
+    <row r="12" spans="1:34" x14ac:dyDescent="0.25">
       <c r="O12" s="42" t="s">
         <v>216</v>
       </c>
     </row>
-    <row r="13" spans="1:34">
+    <row r="13" spans="1:34" x14ac:dyDescent="0.25">
       <c r="P13" s="42" t="s">
         <v>217</v>
       </c>
     </row>
-    <row r="14" spans="1:34">
+    <row r="14" spans="1:34" x14ac:dyDescent="0.25">
       <c r="Q14" s="42" t="s">
         <v>226</v>
       </c>
     </row>
-    <row r="16" spans="1:34">
+    <row r="16" spans="1:34" x14ac:dyDescent="0.25">
       <c r="P16" s="42" t="s">
         <v>227</v>
       </c>
     </row>
-    <row r="17" spans="4:16">
+    <row r="17" spans="4:16" x14ac:dyDescent="0.25">
       <c r="P17" s="42" t="s">
         <v>228</v>
       </c>
     </row>
-    <row r="18" spans="4:16">
+    <row r="18" spans="4:16" x14ac:dyDescent="0.25">
       <c r="D18" s="44"/>
     </row>
   </sheetData>
@@ -7129,7 +7038,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet4"/>
   <dimension ref="A1:AF109"/>
   <sheetViews>
@@ -7137,14 +7046,14 @@
       <selection activeCell="G52" sqref="G52"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:31">
+    <row r="1" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>230</v>
       </c>
     </row>
-    <row r="2" spans="1:31">
+    <row r="2" spans="1:31" x14ac:dyDescent="0.25">
       <c r="B2" s="25" t="s">
         <v>229</v>
       </c>
@@ -7152,7 +7061,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="4" spans="1:31">
+    <row r="4" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>231</v>
       </c>
@@ -7160,7 +7069,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="7" spans="1:31">
+    <row r="7" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>234</v>
       </c>
@@ -7168,7 +7077,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="8" spans="1:31">
+    <row r="8" spans="1:31" x14ac:dyDescent="0.25">
       <c r="B8" s="25" t="s">
         <v>233</v>
       </c>
@@ -7184,7 +7093,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="9" spans="1:31">
+    <row r="9" spans="1:31" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
         <v>235</v>
       </c>
@@ -7198,7 +7107,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="10" spans="1:31">
+    <row r="10" spans="1:31" x14ac:dyDescent="0.25">
       <c r="C10" s="3" t="s">
         <v>236</v>
       </c>
@@ -7212,7 +7121,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="11" spans="1:31">
+    <row r="11" spans="1:31" x14ac:dyDescent="0.25">
       <c r="C11" s="3" t="s">
         <v>237</v>
       </c>
@@ -7230,7 +7139,7 @@
       </c>
       <c r="AE11" s="5"/>
     </row>
-    <row r="12" spans="1:31">
+    <row r="12" spans="1:31" x14ac:dyDescent="0.25">
       <c r="R12" t="s">
         <v>252</v>
       </c>
@@ -7241,7 +7150,7 @@
         <v>287</v>
       </c>
     </row>
-    <row r="13" spans="1:31">
+    <row r="13" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>239</v>
       </c>
@@ -7255,7 +7164,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="14" spans="1:31">
+    <row r="14" spans="1:31" x14ac:dyDescent="0.25">
       <c r="B14" s="4" t="s">
         <v>240</v>
       </c>
@@ -7278,7 +7187,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="15" spans="1:31">
+    <row r="15" spans="1:31" x14ac:dyDescent="0.25">
       <c r="C15" t="s">
         <v>244</v>
       </c>
@@ -7298,7 +7207,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="16" spans="1:31">
+    <row r="16" spans="1:31" x14ac:dyDescent="0.25">
       <c r="C16" t="s">
         <v>246</v>
       </c>
@@ -7315,7 +7224,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="17" spans="1:32">
+    <row r="17" spans="1:32" x14ac:dyDescent="0.25">
       <c r="B17" s="4" t="s">
         <v>241</v>
       </c>
@@ -7340,7 +7249,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="18" spans="1:32">
+    <row r="18" spans="1:32" x14ac:dyDescent="0.25">
       <c r="C18" t="s">
         <v>247</v>
       </c>
@@ -7354,7 +7263,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="19" spans="1:32">
+    <row r="19" spans="1:32" x14ac:dyDescent="0.25">
       <c r="R19" t="s">
         <v>259</v>
       </c>
@@ -7362,7 +7271,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="20" spans="1:32">
+    <row r="20" spans="1:32" x14ac:dyDescent="0.25">
       <c r="R20" t="s">
         <v>260</v>
       </c>
@@ -7373,12 +7282,12 @@
         <v>295</v>
       </c>
     </row>
-    <row r="21" spans="1:32">
+    <row r="21" spans="1:32" x14ac:dyDescent="0.25">
       <c r="R21" t="s">
         <v>261</v>
       </c>
     </row>
-    <row r="22" spans="1:32">
+    <row r="22" spans="1:32" x14ac:dyDescent="0.25">
       <c r="B22" t="s">
         <v>242</v>
       </c>
@@ -7392,7 +7301,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="23" spans="1:32">
+    <row r="23" spans="1:32" x14ac:dyDescent="0.25">
       <c r="R23" t="s">
         <v>263</v>
       </c>
@@ -7400,7 +7309,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="24" spans="1:32">
+    <row r="24" spans="1:32" x14ac:dyDescent="0.25">
       <c r="R24" t="s">
         <v>264</v>
       </c>
@@ -7408,7 +7317,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="25" spans="1:32">
+    <row r="25" spans="1:32" x14ac:dyDescent="0.25">
       <c r="R25" t="s">
         <v>265</v>
       </c>
@@ -7418,7 +7327,7 @@
       <c r="AE25" s="5"/>
       <c r="AF25" s="5"/>
     </row>
-    <row r="26" spans="1:32">
+    <row r="26" spans="1:32" x14ac:dyDescent="0.25">
       <c r="R26" t="s">
         <v>266</v>
       </c>
@@ -7426,7 +7335,7 @@
         <v>298</v>
       </c>
     </row>
-    <row r="27" spans="1:32">
+    <row r="27" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A27" s="13" t="s">
         <v>305</v>
       </c>
@@ -7442,7 +7351,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="28" spans="1:32">
+    <row r="28" spans="1:32" x14ac:dyDescent="0.25">
       <c r="B28" t="s">
         <v>306</v>
       </c>
@@ -7453,7 +7362,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="29" spans="1:32">
+    <row r="29" spans="1:32" x14ac:dyDescent="0.25">
       <c r="B29" t="s">
         <v>307</v>
       </c>
@@ -7464,7 +7373,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="30" spans="1:32">
+    <row r="30" spans="1:32" x14ac:dyDescent="0.25">
       <c r="B30" t="s">
         <v>308</v>
       </c>
@@ -7475,7 +7384,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="31" spans="1:32">
+    <row r="31" spans="1:32" x14ac:dyDescent="0.25">
       <c r="C31" t="s">
         <v>309</v>
       </c>
@@ -7483,7 +7392,7 @@
         <v>302</v>
       </c>
     </row>
-    <row r="32" spans="1:32">
+    <row r="32" spans="1:32" x14ac:dyDescent="0.25">
       <c r="C32" t="s">
         <v>310</v>
       </c>
@@ -7491,7 +7400,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="33" spans="1:30">
+    <row r="33" spans="1:30" x14ac:dyDescent="0.25">
       <c r="B33" t="s">
         <v>311</v>
       </c>
@@ -7499,7 +7408,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="34" spans="1:30">
+    <row r="34" spans="1:30" x14ac:dyDescent="0.25">
       <c r="B34" t="s">
         <v>312</v>
       </c>
@@ -7507,72 +7416,72 @@
         <v>295</v>
       </c>
     </row>
-    <row r="35" spans="1:30">
+    <row r="35" spans="1:30" x14ac:dyDescent="0.25">
       <c r="C35" t="s">
         <v>313</v>
       </c>
     </row>
-    <row r="36" spans="1:30">
+    <row r="36" spans="1:30" x14ac:dyDescent="0.25">
       <c r="D36" t="s">
         <v>314</v>
       </c>
     </row>
-    <row r="37" spans="1:30">
+    <row r="37" spans="1:30" x14ac:dyDescent="0.25">
       <c r="D37" t="s">
         <v>315</v>
       </c>
     </row>
-    <row r="38" spans="1:30">
+    <row r="38" spans="1:30" x14ac:dyDescent="0.25">
       <c r="C38" t="s">
         <v>311</v>
       </c>
     </row>
-    <row r="39" spans="1:30">
+    <row r="39" spans="1:30" x14ac:dyDescent="0.25">
       <c r="C39" t="s">
         <v>316</v>
       </c>
     </row>
-    <row r="40" spans="1:30">
+    <row r="40" spans="1:30" x14ac:dyDescent="0.25">
       <c r="D40" t="s">
         <v>314</v>
       </c>
     </row>
-    <row r="41" spans="1:30">
+    <row r="41" spans="1:30" x14ac:dyDescent="0.25">
       <c r="D41" t="s">
         <v>315</v>
       </c>
     </row>
-    <row r="42" spans="1:30">
+    <row r="42" spans="1:30" x14ac:dyDescent="0.25">
       <c r="C42" t="s">
         <v>311</v>
       </c>
     </row>
-    <row r="43" spans="1:30">
+    <row r="43" spans="1:30" x14ac:dyDescent="0.25">
       <c r="C43" t="s">
         <v>317</v>
       </c>
     </row>
-    <row r="44" spans="1:30">
+    <row r="44" spans="1:30" x14ac:dyDescent="0.25">
       <c r="C44" t="s">
         <v>318</v>
       </c>
     </row>
-    <row r="45" spans="1:30">
+    <row r="45" spans="1:30" x14ac:dyDescent="0.25">
       <c r="C45" t="s">
         <v>319</v>
       </c>
     </row>
-    <row r="46" spans="1:30">
+    <row r="46" spans="1:30" x14ac:dyDescent="0.25">
       <c r="B46" t="s">
         <v>311</v>
       </c>
     </row>
-    <row r="47" spans="1:30">
+    <row r="47" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>311</v>
       </c>
     </row>
-    <row r="49" spans="1:7">
+    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A49" s="13" t="s">
         <v>320</v>
       </c>
@@ -7582,17 +7491,17 @@
       <c r="E49" s="13"/>
       <c r="F49" s="13"/>
     </row>
-    <row r="50" spans="1:7">
+    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B50" t="s">
         <v>321</v>
       </c>
     </row>
-    <row r="51" spans="1:7">
+    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B51" t="s">
         <v>322</v>
       </c>
     </row>
-    <row r="52" spans="1:7">
+    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B52" s="5" t="s">
         <v>323</v>
       </c>
@@ -7601,32 +7510,32 @@
         <v>324</v>
       </c>
     </row>
-    <row r="53" spans="1:7">
+    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C53" t="s">
         <v>325</v>
       </c>
     </row>
-    <row r="54" spans="1:7">
+    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
       <c r="D54" t="s">
         <v>326</v>
       </c>
     </row>
-    <row r="55" spans="1:7">
+    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
       <c r="E55" t="s">
         <v>327</v>
       </c>
     </row>
-    <row r="56" spans="1:7">
+    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B56" t="s">
         <v>322</v>
       </c>
     </row>
-    <row r="57" spans="1:7">
+    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>311</v>
       </c>
     </row>
-    <row r="59" spans="1:7">
+    <row r="59" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A59" s="13" t="s">
         <v>328</v>
       </c>
@@ -7636,62 +7545,62 @@
       <c r="E59" s="13"/>
       <c r="F59" s="13"/>
     </row>
-    <row r="60" spans="1:7">
+    <row r="60" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>329</v>
       </c>
     </row>
-    <row r="61" spans="1:7">
+    <row r="61" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>330</v>
       </c>
     </row>
-    <row r="62" spans="1:7">
+    <row r="62" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>331</v>
       </c>
     </row>
-    <row r="63" spans="1:7">
+    <row r="63" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>332</v>
       </c>
     </row>
-    <row r="64" spans="1:7">
+    <row r="64" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>333</v>
       </c>
     </row>
-    <row r="65" spans="1:9">
+    <row r="65" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>334</v>
       </c>
     </row>
-    <row r="66" spans="1:9">
+    <row r="66" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>335</v>
       </c>
     </row>
-    <row r="67" spans="1:9">
+    <row r="67" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>334</v>
       </c>
     </row>
-    <row r="68" spans="1:9">
+    <row r="68" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>336</v>
       </c>
     </row>
-    <row r="69" spans="1:9">
+    <row r="69" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>337</v>
       </c>
     </row>
-    <row r="70" spans="1:9">
+    <row r="70" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>338</v>
       </c>
     </row>
-    <row r="71" spans="1:9">
+    <row r="71" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>339</v>
       </c>
@@ -7699,7 +7608,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="72" spans="1:9">
+    <row r="72" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>340</v>
       </c>
@@ -7707,182 +7616,182 @@
         <v>372</v>
       </c>
     </row>
-    <row r="73" spans="1:9">
+    <row r="73" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>341</v>
       </c>
     </row>
-    <row r="74" spans="1:9">
+    <row r="74" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>342</v>
       </c>
     </row>
-    <row r="75" spans="1:9">
+    <row r="75" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>343</v>
       </c>
     </row>
-    <row r="76" spans="1:9">
+    <row r="76" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>344</v>
       </c>
     </row>
-    <row r="77" spans="1:9">
+    <row r="77" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
         <v>345</v>
       </c>
     </row>
-    <row r="78" spans="1:9">
+    <row r="78" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
         <v>341</v>
       </c>
     </row>
-    <row r="79" spans="1:9">
+    <row r="79" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
         <v>346</v>
       </c>
     </row>
-    <row r="80" spans="1:9">
+    <row r="80" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
         <v>347</v>
       </c>
     </row>
-    <row r="81" spans="1:1">
+    <row r="81" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
         <v>348</v>
       </c>
     </row>
-    <row r="82" spans="1:1">
+    <row r="82" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
         <v>349</v>
       </c>
     </row>
-    <row r="83" spans="1:1">
+    <row r="83" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
         <v>350</v>
       </c>
     </row>
-    <row r="84" spans="1:1">
+    <row r="84" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
         <v>351</v>
       </c>
     </row>
-    <row r="85" spans="1:1">
+    <row r="85" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
         <v>352</v>
       </c>
     </row>
-    <row r="86" spans="1:1">
+    <row r="86" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
         <v>348</v>
       </c>
     </row>
-    <row r="87" spans="1:1">
+    <row r="87" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
         <v>353</v>
       </c>
     </row>
-    <row r="88" spans="1:1">
+    <row r="88" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
         <v>354</v>
       </c>
     </row>
-    <row r="89" spans="1:1">
+    <row r="89" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
         <v>355</v>
       </c>
     </row>
-    <row r="90" spans="1:1">
+    <row r="90" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
         <v>356</v>
       </c>
     </row>
-    <row r="91" spans="1:1">
+    <row r="91" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
         <v>357</v>
       </c>
     </row>
-    <row r="92" spans="1:1">
+    <row r="92" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
         <v>358</v>
       </c>
     </row>
-    <row r="93" spans="1:1">
+    <row r="93" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
         <v>359</v>
       </c>
     </row>
-    <row r="94" spans="1:1">
+    <row r="94" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
         <v>360</v>
       </c>
     </row>
-    <row r="95" spans="1:1">
+    <row r="95" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
         <v>361</v>
       </c>
     </row>
-    <row r="96" spans="1:1">
+    <row r="96" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
         <v>362</v>
       </c>
     </row>
-    <row r="97" spans="1:1">
+    <row r="97" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
         <v>363</v>
       </c>
     </row>
-    <row r="98" spans="1:1">
+    <row r="98" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
         <v>351</v>
       </c>
     </row>
-    <row r="99" spans="1:1">
+    <row r="99" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
         <v>344</v>
       </c>
     </row>
-    <row r="100" spans="1:1">
+    <row r="100" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
         <v>364</v>
       </c>
     </row>
-    <row r="101" spans="1:1">
+    <row r="101" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
         <v>365</v>
       </c>
     </row>
-    <row r="102" spans="1:1">
+    <row r="102" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
         <v>338</v>
       </c>
     </row>
-    <row r="103" spans="1:1">
+    <row r="103" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
         <v>366</v>
       </c>
     </row>
-    <row r="104" spans="1:1">
+    <row r="104" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
         <v>367</v>
       </c>
     </row>
-    <row r="105" spans="1:1">
+    <row r="105" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
         <v>364</v>
       </c>
     </row>
-    <row r="107" spans="1:1">
+    <row r="107" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
         <v>368</v>
       </c>
     </row>
-    <row r="108" spans="1:1">
+    <row r="108" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
         <v>369</v>
       </c>
     </row>
-    <row r="109" spans="1:1">
+    <row r="109" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
         <v>370</v>
       </c>
@@ -7897,583 +7806,1048 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K130"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:K105"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I8" sqref="I8"/>
+      <selection activeCell="I6" sqref="I6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" s="46" t="s">
-        <v>411</v>
+        <v>375</v>
       </c>
       <c r="B1" s="46"/>
       <c r="C1" s="46"/>
       <c r="D1" s="46"/>
       <c r="E1" s="46"/>
     </row>
-    <row r="2" spans="1:9">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="I2" t="s">
-        <v>436</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9">
-      <c r="A3" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A3" s="41" t="s">
+        <v>391</v>
+      </c>
+      <c r="B3" s="41"/>
+      <c r="C3" s="41"/>
+      <c r="D3" s="41"/>
+      <c r="E3" s="41"/>
+      <c r="F3" s="41"/>
+      <c r="G3" s="41"/>
+      <c r="I3" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A4" s="41" t="s">
+        <v>378</v>
+      </c>
+      <c r="B4" s="41"/>
+      <c r="C4" s="41"/>
+      <c r="D4" s="41"/>
+      <c r="E4" s="41"/>
+      <c r="F4" s="41"/>
+      <c r="G4" s="41"/>
+      <c r="I4" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A5" s="41"/>
+      <c r="B5" s="41" t="s">
+        <v>323</v>
+      </c>
+      <c r="C5" s="41"/>
+      <c r="D5" s="41"/>
+      <c r="E5" s="41"/>
+      <c r="F5" s="41"/>
+      <c r="G5" s="41"/>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A6" s="41"/>
+      <c r="B6" s="41" t="s">
+        <v>378</v>
+      </c>
+      <c r="C6" s="41"/>
+      <c r="D6" s="41"/>
+      <c r="E6" s="41"/>
+      <c r="F6" s="41"/>
+      <c r="G6" s="41"/>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A7" s="41"/>
+      <c r="B7" s="41"/>
+      <c r="C7" s="41" t="s">
+        <v>392</v>
+      </c>
+      <c r="D7" s="41"/>
+      <c r="E7" s="41"/>
+      <c r="F7" s="41"/>
+      <c r="G7" s="41"/>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A8" s="41"/>
+      <c r="B8" s="41"/>
+      <c r="C8" s="41" t="s">
+        <v>378</v>
+      </c>
+      <c r="D8" s="41"/>
+      <c r="E8" s="41"/>
+      <c r="F8" s="41"/>
+      <c r="G8" s="41"/>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A9" s="41"/>
+      <c r="B9" s="41"/>
+      <c r="C9" s="41"/>
+      <c r="D9" s="41" t="s">
+        <v>326</v>
+      </c>
+      <c r="E9" s="41"/>
+      <c r="F9" s="41"/>
+      <c r="G9" s="41"/>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A10" s="41"/>
+      <c r="B10" s="41"/>
+      <c r="C10" s="41"/>
+      <c r="D10" s="41" t="s">
+        <v>378</v>
+      </c>
+      <c r="E10" s="41"/>
+      <c r="F10" s="41"/>
+      <c r="G10" s="41"/>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A11" s="41"/>
+      <c r="B11" s="41"/>
+      <c r="C11" s="41"/>
+      <c r="D11" s="41"/>
+      <c r="E11" s="41" t="s">
+        <v>393</v>
+      </c>
+      <c r="F11" s="41"/>
+      <c r="G11" s="41"/>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A12" s="41"/>
+      <c r="B12" s="41"/>
+      <c r="C12" s="41"/>
+      <c r="D12" s="41" t="s">
+        <v>311</v>
+      </c>
+      <c r="E12" s="41"/>
+      <c r="F12" s="41"/>
+      <c r="G12" s="41"/>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A13" s="41"/>
+      <c r="B13" s="41"/>
+      <c r="C13" s="41"/>
+      <c r="D13" s="41" t="s">
+        <v>381</v>
+      </c>
+      <c r="E13" s="41"/>
+      <c r="F13" s="41"/>
+      <c r="G13" s="41"/>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A14" s="41"/>
+      <c r="B14" s="41"/>
+      <c r="C14" s="41"/>
+      <c r="D14" s="41" t="s">
+        <v>378</v>
+      </c>
+      <c r="E14" s="41"/>
+      <c r="F14" s="41"/>
+      <c r="G14" s="41"/>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A15" s="41"/>
+      <c r="B15" s="41"/>
+      <c r="C15" s="41"/>
+      <c r="D15" s="41"/>
+      <c r="E15" s="41" t="s">
         <v>373</v>
       </c>
-      <c r="I3" t="s">
-        <v>437</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9">
-      <c r="A4" t="s">
+      <c r="F15" s="41"/>
+      <c r="G15" s="41"/>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A16" s="41"/>
+      <c r="B16" s="41"/>
+      <c r="C16" s="41"/>
+      <c r="D16" s="41" t="s">
+        <v>311</v>
+      </c>
+      <c r="E16" s="41"/>
+      <c r="F16" s="41"/>
+      <c r="G16" s="41"/>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A17" s="41"/>
+      <c r="B17" s="41"/>
+      <c r="C17" s="41" t="s">
+        <v>311</v>
+      </c>
+      <c r="D17" s="41"/>
+      <c r="E17" s="41"/>
+      <c r="F17" s="41"/>
+      <c r="G17" s="41"/>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A18" s="41"/>
+      <c r="B18" s="41"/>
+      <c r="C18" s="41" t="s">
+        <v>381</v>
+      </c>
+      <c r="D18" s="41"/>
+      <c r="E18" s="41"/>
+      <c r="F18" s="41"/>
+      <c r="G18" s="41"/>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A19" s="41"/>
+      <c r="B19" s="41"/>
+      <c r="C19" s="41" t="s">
+        <v>378</v>
+      </c>
+      <c r="D19" s="41"/>
+      <c r="E19" s="41"/>
+      <c r="F19" s="41"/>
+      <c r="G19" s="41"/>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A20" s="41"/>
+      <c r="B20" s="41"/>
+      <c r="C20" s="41"/>
+      <c r="D20" s="41" t="s">
         <v>374</v>
       </c>
-      <c r="I4" t="s">
-        <v>438</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9">
-      <c r="A5" t="s">
-        <v>375</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9">
-      <c r="A6" t="s">
+      <c r="E20" s="41"/>
+      <c r="F20" s="41"/>
+      <c r="G20" s="41"/>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A21" s="41"/>
+      <c r="B21" s="41"/>
+      <c r="C21" s="41" t="s">
+        <v>311</v>
+      </c>
+      <c r="D21" s="41"/>
+      <c r="E21" s="41"/>
+      <c r="F21" s="41"/>
+      <c r="G21" s="41"/>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A22" s="41"/>
+      <c r="B22" s="41" t="s">
+        <v>311</v>
+      </c>
+      <c r="C22" s="41"/>
+      <c r="D22" s="41"/>
+      <c r="E22" s="41"/>
+      <c r="F22" s="41"/>
+      <c r="G22" s="41"/>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A23" s="41"/>
+      <c r="B23" s="41" t="s">
+        <v>381</v>
+      </c>
+      <c r="C23" s="41"/>
+      <c r="D23" s="41"/>
+      <c r="E23" s="41"/>
+      <c r="F23" s="41"/>
+      <c r="G23" s="41"/>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A24" s="41"/>
+      <c r="B24" s="41" t="s">
+        <v>378</v>
+      </c>
+      <c r="C24" s="41"/>
+      <c r="D24" s="41"/>
+      <c r="E24" s="41"/>
+      <c r="F24" s="41"/>
+      <c r="G24" s="41"/>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A25" s="41"/>
+      <c r="B25" s="41"/>
+      <c r="C25" s="41" t="s">
+        <v>385</v>
+      </c>
+      <c r="D25" s="41"/>
+      <c r="E25" s="41"/>
+      <c r="F25" s="41"/>
+      <c r="G25" s="41"/>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A26" s="41"/>
+      <c r="B26" s="41" t="s">
+        <v>311</v>
+      </c>
+      <c r="C26" s="41"/>
+      <c r="D26" s="41"/>
+      <c r="E26" s="41"/>
+      <c r="F26" s="41"/>
+      <c r="G26" s="41"/>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A27" s="41" t="s">
+        <v>311</v>
+      </c>
+      <c r="B27" s="41"/>
+      <c r="C27" s="41"/>
+      <c r="D27" s="41"/>
+      <c r="E27" s="41"/>
+      <c r="F27" s="41"/>
+      <c r="G27" s="41"/>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A28" s="41"/>
+      <c r="B28" s="41"/>
+      <c r="C28" s="41"/>
+      <c r="D28" s="41"/>
+      <c r="E28" s="41"/>
+      <c r="F28" s="41"/>
+      <c r="G28" s="41"/>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A29" s="41" t="s">
+        <v>394</v>
+      </c>
+      <c r="B29" s="41"/>
+      <c r="C29" s="41"/>
+      <c r="D29" s="41"/>
+      <c r="E29" s="41"/>
+      <c r="F29" s="41"/>
+      <c r="G29" s="41"/>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A30" s="41" t="s">
+        <v>378</v>
+      </c>
+      <c r="B30" s="41"/>
+      <c r="C30" s="41"/>
+      <c r="D30" s="41"/>
+      <c r="E30" s="41"/>
+      <c r="F30" s="41"/>
+      <c r="G30" s="41"/>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A31" s="41"/>
+      <c r="B31" s="41" t="s">
+        <v>395</v>
+      </c>
+      <c r="C31" s="41"/>
+      <c r="D31" s="41"/>
+      <c r="E31" s="41"/>
+      <c r="F31" s="41"/>
+      <c r="G31" s="41"/>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A32" s="41"/>
+      <c r="B32" s="41"/>
+      <c r="C32" s="41"/>
+      <c r="D32" s="41"/>
+      <c r="E32" s="41"/>
+      <c r="F32" s="41"/>
+      <c r="G32" s="41"/>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A33" s="41"/>
+      <c r="B33" s="41" t="s">
+        <v>396</v>
+      </c>
+      <c r="C33" s="41"/>
+      <c r="D33" s="41"/>
+      <c r="E33" s="41"/>
+      <c r="F33" s="41"/>
+      <c r="G33" s="41"/>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A34" s="41"/>
+      <c r="B34" s="41" t="s">
+        <v>378</v>
+      </c>
+      <c r="C34" s="41"/>
+      <c r="D34" s="41"/>
+      <c r="E34" s="41"/>
+      <c r="F34" s="41"/>
+      <c r="G34" s="41"/>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A35" s="41"/>
+      <c r="B35" s="41"/>
+      <c r="C35" s="41" t="s">
+        <v>397</v>
+      </c>
+      <c r="D35" s="41"/>
+      <c r="E35" s="41"/>
+      <c r="F35" s="41"/>
+      <c r="G35" s="41"/>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A36" s="41"/>
+      <c r="B36" s="41"/>
+      <c r="C36" s="41" t="s">
+        <v>378</v>
+      </c>
+      <c r="D36" s="41"/>
+      <c r="E36" s="41"/>
+      <c r="F36" s="41"/>
+      <c r="G36" s="41"/>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A37" s="41"/>
+      <c r="B37" s="41"/>
+      <c r="C37" s="41"/>
+      <c r="D37" s="41" t="s">
+        <v>387</v>
+      </c>
+      <c r="E37" s="41"/>
+      <c r="F37" s="41"/>
+      <c r="G37" s="41"/>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A38" s="41"/>
+      <c r="B38" s="41"/>
+      <c r="C38" s="41" t="s">
+        <v>311</v>
+      </c>
+      <c r="D38" s="41"/>
+      <c r="E38" s="41"/>
+      <c r="F38" s="41"/>
+      <c r="G38" s="41"/>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A39" s="41"/>
+      <c r="B39" s="41"/>
+      <c r="C39" s="41" t="s">
+        <v>381</v>
+      </c>
+      <c r="D39" s="41"/>
+      <c r="E39" s="41"/>
+      <c r="F39" s="41"/>
+      <c r="G39" s="41"/>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A40" s="41"/>
+      <c r="B40" s="41"/>
+      <c r="C40" s="41" t="s">
+        <v>378</v>
+      </c>
+      <c r="D40" s="41"/>
+      <c r="E40" s="41"/>
+      <c r="F40" s="41"/>
+      <c r="G40" s="41"/>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A41" s="41"/>
+      <c r="B41" s="41"/>
+      <c r="C41" s="41"/>
+      <c r="D41" s="41" t="s">
+        <v>373</v>
+      </c>
+      <c r="E41" s="41"/>
+      <c r="F41" s="41"/>
+      <c r="G41" s="41"/>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A42" s="41"/>
+      <c r="B42" s="41"/>
+      <c r="C42" s="41" t="s">
+        <v>311</v>
+      </c>
+      <c r="D42" s="41"/>
+      <c r="E42" s="41"/>
+      <c r="F42" s="41"/>
+      <c r="G42" s="41"/>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A43" s="41"/>
+      <c r="B43" s="41"/>
+      <c r="C43" s="41" t="s">
+        <v>315</v>
+      </c>
+      <c r="D43" s="41"/>
+      <c r="E43" s="41"/>
+      <c r="F43" s="41"/>
+      <c r="G43" s="41"/>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A44" s="41"/>
+      <c r="B44" s="41" t="s">
+        <v>398</v>
+      </c>
+      <c r="C44" s="41"/>
+      <c r="D44" s="41"/>
+      <c r="E44" s="41"/>
+      <c r="F44" s="41"/>
+      <c r="G44" s="41"/>
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A45" s="41"/>
+      <c r="B45" s="41"/>
+      <c r="C45" s="41"/>
+      <c r="D45" s="41"/>
+      <c r="E45" s="41"/>
+      <c r="F45" s="41"/>
+      <c r="G45" s="41"/>
+    </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A46" s="41"/>
+      <c r="B46" s="41" t="s">
+        <v>399</v>
+      </c>
+      <c r="C46" s="41"/>
+      <c r="D46" s="41"/>
+      <c r="E46" s="41"/>
+      <c r="F46" s="41"/>
+      <c r="G46" s="41"/>
+    </row>
+    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A47" s="41"/>
+      <c r="B47" s="41" t="s">
+        <v>400</v>
+      </c>
+      <c r="C47" s="41"/>
+      <c r="D47" s="41"/>
+      <c r="E47" s="41"/>
+      <c r="F47" s="41"/>
+      <c r="G47" s="41"/>
+    </row>
+    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A48" s="41"/>
+      <c r="B48" s="41"/>
+      <c r="C48" s="41" t="s">
+        <v>374</v>
+      </c>
+      <c r="D48" s="41"/>
+      <c r="E48" s="41"/>
+      <c r="F48" s="41"/>
+      <c r="G48" s="41"/>
+    </row>
+    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A49" s="41"/>
+      <c r="B49" s="41" t="s">
+        <v>398</v>
+      </c>
+      <c r="C49" s="41"/>
+      <c r="D49" s="41"/>
+      <c r="E49" s="41"/>
+      <c r="F49" s="41"/>
+      <c r="G49" s="41"/>
+    </row>
+    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A50" s="41"/>
+      <c r="B50" s="41" t="s">
+        <v>401</v>
+      </c>
+      <c r="C50" s="41"/>
+      <c r="D50" s="41"/>
+      <c r="E50" s="41"/>
+      <c r="F50" s="41"/>
+      <c r="G50" s="41"/>
+    </row>
+    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A51" s="41"/>
+      <c r="B51" s="41" t="s">
+        <v>378</v>
+      </c>
+      <c r="C51" s="41"/>
+      <c r="D51" s="41"/>
+      <c r="E51" s="41"/>
+      <c r="F51" s="41"/>
+      <c r="G51" s="41"/>
+    </row>
+    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A52" s="41"/>
+      <c r="B52" s="41"/>
+      <c r="C52" s="41" t="s">
+        <v>402</v>
+      </c>
+      <c r="D52" s="41"/>
+      <c r="E52" s="41"/>
+      <c r="F52" s="41"/>
+      <c r="G52" s="41"/>
+    </row>
+    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A53" s="41"/>
+      <c r="B53" s="41"/>
+      <c r="C53" s="41" t="s">
+        <v>378</v>
+      </c>
+      <c r="D53" s="41"/>
+      <c r="E53" s="41"/>
+      <c r="F53" s="41"/>
+      <c r="G53" s="41"/>
+    </row>
+    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A54" s="41"/>
+      <c r="B54" s="41"/>
+      <c r="C54" s="41"/>
+      <c r="D54" s="41" t="s">
+        <v>403</v>
+      </c>
+      <c r="E54" s="41"/>
+      <c r="F54" s="41"/>
+      <c r="G54" s="41"/>
+    </row>
+    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A55" s="41"/>
+      <c r="B55" s="41"/>
+      <c r="C55" s="41"/>
+      <c r="D55" s="41" t="s">
+        <v>385</v>
+      </c>
+      <c r="E55" s="41"/>
+      <c r="F55" s="41"/>
+      <c r="G55" s="41"/>
+    </row>
+    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A56" s="41"/>
+      <c r="B56" s="41"/>
+      <c r="C56" s="41" t="s">
+        <v>311</v>
+      </c>
+      <c r="D56" s="41"/>
+      <c r="E56" s="41"/>
+      <c r="F56" s="41"/>
+      <c r="G56" s="41"/>
+    </row>
+    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A57" s="41"/>
+      <c r="B57" s="41"/>
+      <c r="C57" s="41" t="s">
+        <v>381</v>
+      </c>
+      <c r="D57" s="41"/>
+      <c r="E57" s="41"/>
+      <c r="F57" s="41"/>
+      <c r="G57" s="41"/>
+    </row>
+    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A58" s="41"/>
+      <c r="B58" s="41"/>
+      <c r="C58" s="41" t="s">
+        <v>378</v>
+      </c>
+      <c r="D58" s="41"/>
+      <c r="E58" s="41"/>
+      <c r="F58" s="41"/>
+      <c r="G58" s="41"/>
+    </row>
+    <row r="59" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A59" s="41"/>
+      <c r="B59" s="41"/>
+      <c r="C59" s="41"/>
+      <c r="D59" s="41" t="s">
+        <v>404</v>
+      </c>
+      <c r="E59" s="41"/>
+      <c r="F59" s="41"/>
+      <c r="G59" s="41"/>
+    </row>
+    <row r="60" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A60" s="41"/>
+      <c r="B60" s="41"/>
+      <c r="C60" s="41"/>
+      <c r="D60" s="41" t="s">
+        <v>405</v>
+      </c>
+      <c r="E60" s="41"/>
+      <c r="F60" s="41"/>
+      <c r="G60" s="41"/>
+    </row>
+    <row r="61" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A61" s="41"/>
+      <c r="B61" s="41"/>
+      <c r="C61" s="41"/>
+      <c r="D61" s="41" t="s">
+        <v>406</v>
+      </c>
+      <c r="E61" s="41"/>
+      <c r="F61" s="41"/>
+      <c r="G61" s="41"/>
+    </row>
+    <row r="62" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A62" s="41"/>
+      <c r="B62" s="41"/>
+      <c r="C62" s="41" t="s">
+        <v>311</v>
+      </c>
+      <c r="D62" s="41"/>
+      <c r="E62" s="41"/>
+      <c r="F62" s="41"/>
+      <c r="G62" s="41"/>
+    </row>
+    <row r="63" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A63" s="41"/>
+      <c r="B63" s="41" t="s">
+        <v>311</v>
+      </c>
+      <c r="C63" s="41"/>
+      <c r="D63" s="41"/>
+      <c r="E63" s="41"/>
+      <c r="F63" s="41"/>
+      <c r="G63" s="41"/>
+    </row>
+    <row r="64" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A64" s="41" t="s">
+        <v>311</v>
+      </c>
+      <c r="B64" s="41"/>
+      <c r="C64" s="41"/>
+      <c r="D64" s="41"/>
+      <c r="E64" s="41"/>
+      <c r="F64" s="41"/>
+      <c r="G64" s="41"/>
+    </row>
+    <row r="65" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A65" s="41"/>
+      <c r="B65" s="41"/>
+      <c r="C65" s="41"/>
+      <c r="D65" s="41"/>
+      <c r="E65" s="41"/>
+      <c r="F65" s="41"/>
+      <c r="G65" s="41"/>
+    </row>
+    <row r="66" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A66" s="41" t="s">
+        <v>407</v>
+      </c>
+      <c r="B66" s="41"/>
+      <c r="C66" s="41"/>
+      <c r="D66" s="41"/>
+      <c r="E66" s="41"/>
+      <c r="F66" s="41"/>
+      <c r="G66" s="41"/>
+    </row>
+    <row r="67" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A67" s="41" t="s">
+        <v>378</v>
+      </c>
+      <c r="B67" s="41"/>
+      <c r="C67" s="41"/>
+      <c r="D67" s="41"/>
+      <c r="E67" s="41"/>
+      <c r="F67" s="41"/>
+      <c r="G67" s="41"/>
+    </row>
+    <row r="68" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A68" s="41"/>
+      <c r="B68" s="41" t="s">
         <v>376</v>
       </c>
-      <c r="I6" t="s">
-        <v>439</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9">
-      <c r="A8" t="s">
+      <c r="C68" s="41"/>
+      <c r="D68" s="41"/>
+      <c r="E68" s="41"/>
+      <c r="F68" s="41"/>
+      <c r="G68" s="41"/>
+    </row>
+    <row r="69" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A69" s="41"/>
+      <c r="B69" s="41"/>
+      <c r="C69" s="41"/>
+      <c r="D69" s="41"/>
+      <c r="E69" s="41"/>
+      <c r="F69" s="41"/>
+      <c r="G69" s="41"/>
+    </row>
+    <row r="70" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A70" s="41"/>
+      <c r="B70" s="41" t="s">
         <v>377</v>
       </c>
-    </row>
-    <row r="9" spans="1:9">
-      <c r="A9" s="5" t="s">
+      <c r="C70" s="41"/>
+      <c r="D70" s="41"/>
+      <c r="E70" s="41"/>
+      <c r="F70" s="41"/>
+      <c r="G70" s="41"/>
+    </row>
+    <row r="71" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A71" s="41"/>
+      <c r="B71" s="41" t="s">
         <v>378</v>
       </c>
-      <c r="B9" s="5"/>
-      <c r="C9" s="5"/>
-      <c r="D9" s="5"/>
-      <c r="E9" s="5"/>
-      <c r="F9" s="5"/>
-    </row>
-    <row r="10" spans="1:9">
-      <c r="A10" t="s">
-        <v>338</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9">
-      <c r="A11" t="s">
+      <c r="C71" s="41"/>
+      <c r="D71" s="41"/>
+      <c r="E71" s="41"/>
+      <c r="F71" s="41"/>
+      <c r="G71" s="41"/>
+    </row>
+    <row r="72" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A72" s="41"/>
+      <c r="B72" s="41"/>
+      <c r="C72" s="41" t="s">
         <v>379</v>
       </c>
-    </row>
-    <row r="12" spans="1:9">
-      <c r="A12" t="s">
+      <c r="D72" s="41"/>
+      <c r="E72" s="41"/>
+      <c r="F72" s="41"/>
+      <c r="G72" s="41"/>
+    </row>
+    <row r="73" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A73" s="41"/>
+      <c r="B73" s="41"/>
+      <c r="C73" s="41" t="s">
+        <v>378</v>
+      </c>
+      <c r="D73" s="41"/>
+      <c r="E73" s="41"/>
+      <c r="F73" s="41"/>
+      <c r="G73" s="41"/>
+    </row>
+    <row r="74" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A74" s="41"/>
+      <c r="B74" s="41"/>
+      <c r="C74" s="41"/>
+      <c r="D74" s="41" t="s">
         <v>380</v>
       </c>
-    </row>
-    <row r="13" spans="1:9">
-      <c r="A13" t="s">
-        <v>341</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9">
-      <c r="A14" t="s">
+      <c r="E74" s="41"/>
+      <c r="F74" s="41"/>
+      <c r="G74" s="41"/>
+    </row>
+    <row r="75" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A75" s="41"/>
+      <c r="B75" s="41"/>
+      <c r="C75" s="41" t="s">
+        <v>311</v>
+      </c>
+      <c r="D75" s="41"/>
+      <c r="E75" s="41"/>
+      <c r="F75" s="41"/>
+      <c r="G75" s="41"/>
+    </row>
+    <row r="76" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A76" s="41"/>
+      <c r="B76" s="41"/>
+      <c r="C76" s="41" t="s">
         <v>381</v>
       </c>
-    </row>
-    <row r="15" spans="1:9">
-      <c r="A15" t="s">
+      <c r="D76" s="41"/>
+      <c r="E76" s="41"/>
+      <c r="F76" s="41"/>
+      <c r="G76" s="41"/>
+    </row>
+    <row r="77" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A77" s="41"/>
+      <c r="B77" s="41"/>
+      <c r="C77" s="41" t="s">
+        <v>378</v>
+      </c>
+      <c r="D77" s="41"/>
+      <c r="E77" s="41"/>
+      <c r="F77" s="41"/>
+      <c r="G77" s="41"/>
+    </row>
+    <row r="78" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A78" s="41"/>
+      <c r="B78" s="41"/>
+      <c r="C78" s="41"/>
+      <c r="D78" s="41" t="s">
         <v>382</v>
       </c>
-    </row>
-    <row r="16" spans="1:9">
-      <c r="A16" t="s">
-        <v>348</v>
-      </c>
-    </row>
-    <row r="17" spans="1:1">
-      <c r="A17" t="s">
+      <c r="E78" s="41"/>
+      <c r="F78" s="41"/>
+      <c r="G78" s="41"/>
+    </row>
+    <row r="79" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A79" s="41"/>
+      <c r="B79" s="41"/>
+      <c r="C79" s="41"/>
+      <c r="D79" s="41" t="s">
+        <v>378</v>
+      </c>
+      <c r="E79" s="41"/>
+      <c r="F79" s="41"/>
+      <c r="G79" s="41"/>
+    </row>
+    <row r="80" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A80" s="41"/>
+      <c r="B80" s="41"/>
+      <c r="C80" s="41"/>
+      <c r="D80" s="41"/>
+      <c r="E80" s="41" t="s">
         <v>383</v>
       </c>
-    </row>
-    <row r="18" spans="1:1">
-      <c r="A18" t="s">
-        <v>351</v>
-      </c>
-    </row>
-    <row r="19" spans="1:1">
-      <c r="A19" t="s">
-        <v>352</v>
-      </c>
-    </row>
-    <row r="20" spans="1:1">
-      <c r="A20" t="s">
-        <v>348</v>
-      </c>
-    </row>
-    <row r="21" spans="1:1">
-      <c r="A21" t="s">
-        <v>350</v>
-      </c>
-    </row>
-    <row r="22" spans="1:1">
-      <c r="A22" t="s">
-        <v>351</v>
-      </c>
-    </row>
-    <row r="23" spans="1:1">
-      <c r="A23" t="s">
-        <v>344</v>
-      </c>
-    </row>
-    <row r="24" spans="1:1">
-      <c r="A24" t="s">
-        <v>345</v>
-      </c>
-    </row>
-    <row r="25" spans="1:1">
-      <c r="A25" t="s">
-        <v>341</v>
-      </c>
-    </row>
-    <row r="26" spans="1:1">
-      <c r="A26" t="s">
+      <c r="F80" s="41"/>
+      <c r="G80" s="41"/>
+    </row>
+    <row r="81" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A81" s="41"/>
+      <c r="B81" s="41"/>
+      <c r="C81" s="41"/>
+      <c r="D81" s="41" t="s">
+        <v>311</v>
+      </c>
+      <c r="E81" s="41"/>
+      <c r="F81" s="41"/>
+      <c r="G81" s="41"/>
+    </row>
+    <row r="82" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A82" s="41"/>
+      <c r="B82" s="41"/>
+      <c r="C82" s="41"/>
+      <c r="D82" s="41" t="s">
+        <v>381</v>
+      </c>
+      <c r="E82" s="41"/>
+      <c r="F82" s="41"/>
+      <c r="G82" s="41"/>
+    </row>
+    <row r="83" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A83" s="41"/>
+      <c r="B83" s="41"/>
+      <c r="C83" s="41"/>
+      <c r="D83" s="41" t="s">
+        <v>378</v>
+      </c>
+      <c r="E83" s="41"/>
+      <c r="F83" s="41"/>
+      <c r="G83" s="41"/>
+    </row>
+    <row r="84" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A84" s="41"/>
+      <c r="B84" s="41"/>
+      <c r="C84" s="41"/>
+      <c r="D84" s="41"/>
+      <c r="E84" s="41" t="s">
         <v>384</v>
       </c>
-    </row>
-    <row r="27" spans="1:1">
-      <c r="A27" t="s">
-        <v>344</v>
-      </c>
-    </row>
-    <row r="28" spans="1:1">
-      <c r="A28" t="s">
-        <v>364</v>
-      </c>
-    </row>
-    <row r="29" spans="1:1">
-      <c r="A29" t="s">
-        <v>365</v>
-      </c>
-    </row>
-    <row r="30" spans="1:1">
-      <c r="A30" t="s">
-        <v>338</v>
-      </c>
-    </row>
-    <row r="31" spans="1:1">
-      <c r="A31" t="s">
-        <v>367</v>
-      </c>
-    </row>
-    <row r="32" spans="1:1">
-      <c r="A32" t="s">
-        <v>364</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4">
-      <c r="A34" t="s">
-        <v>368</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4">
-      <c r="A35" t="s">
-        <v>385</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4">
-      <c r="A36" t="s">
-        <v>370</v>
-      </c>
-    </row>
-    <row r="38" spans="1:4">
-      <c r="A38" t="s">
+      <c r="F84" s="41"/>
+      <c r="G84" s="41"/>
+    </row>
+    <row r="85" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A85" s="41"/>
+      <c r="B85" s="41"/>
+      <c r="C85" s="41"/>
+      <c r="D85" s="41" t="s">
+        <v>311</v>
+      </c>
+      <c r="E85" s="41"/>
+      <c r="F85" s="41"/>
+      <c r="G85" s="41"/>
+    </row>
+    <row r="86" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A86" s="41"/>
+      <c r="B86" s="41"/>
+      <c r="C86" s="41" t="s">
+        <v>311</v>
+      </c>
+      <c r="D86" s="41"/>
+      <c r="E86" s="41"/>
+      <c r="F86" s="41"/>
+      <c r="G86" s="41"/>
+    </row>
+    <row r="87" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A87" s="41"/>
+      <c r="B87" s="41" t="s">
+        <v>311</v>
+      </c>
+      <c r="C87" s="41"/>
+      <c r="D87" s="41"/>
+      <c r="E87" s="41"/>
+      <c r="F87" s="41"/>
+      <c r="G87" s="41"/>
+    </row>
+    <row r="88" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A88" s="41"/>
+      <c r="B88" s="41" t="s">
+        <v>381</v>
+      </c>
+      <c r="C88" s="41"/>
+      <c r="D88" s="41"/>
+      <c r="E88" s="41"/>
+      <c r="F88" s="41"/>
+      <c r="G88" s="41"/>
+    </row>
+    <row r="89" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A89" s="41"/>
+      <c r="B89" s="41" t="s">
+        <v>378</v>
+      </c>
+      <c r="C89" s="41"/>
+      <c r="D89" s="41"/>
+      <c r="E89" s="41"/>
+      <c r="F89" s="41"/>
+      <c r="G89" s="41"/>
+    </row>
+    <row r="90" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A90" s="41"/>
+      <c r="B90" s="41"/>
+      <c r="C90" s="41" t="s">
         <v>386</v>
       </c>
-    </row>
-    <row r="39" spans="1:4">
-      <c r="A39" t="s">
-        <v>374</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4">
-      <c r="A40" t="s">
-        <v>387</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4">
-      <c r="A42" t="s">
-        <v>375</v>
-      </c>
-    </row>
-    <row r="43" spans="1:4">
-      <c r="A43" t="s">
-        <v>376</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4">
-      <c r="A45" t="s">
-        <v>388</v>
-      </c>
-    </row>
-    <row r="46" spans="1:4">
-      <c r="A46" s="5" t="s">
-        <v>389</v>
-      </c>
-      <c r="B46" s="5"/>
-      <c r="C46" s="5"/>
-      <c r="D46" s="5"/>
-    </row>
-    <row r="47" spans="1:4">
-      <c r="A47" t="s">
-        <v>338</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4">
-      <c r="A48" t="s">
-        <v>334</v>
-      </c>
-      <c r="B48" t="s">
-        <v>390</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4">
-      <c r="A49" s="5" t="s">
-        <v>391</v>
-      </c>
-      <c r="B49" s="5"/>
-      <c r="C49" s="5"/>
-      <c r="D49" s="5"/>
-    </row>
-    <row r="50" spans="1:4">
-      <c r="A50" t="s">
-        <v>341</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4">
-      <c r="A51" t="s">
-        <v>392</v>
-      </c>
-    </row>
-    <row r="52" spans="1:4">
-      <c r="A52" t="s">
-        <v>343</v>
-      </c>
-    </row>
-    <row r="53" spans="1:4">
-      <c r="A53" t="s">
-        <v>344</v>
-      </c>
-    </row>
-    <row r="54" spans="1:4">
-      <c r="A54" t="s">
-        <v>345</v>
-      </c>
-    </row>
-    <row r="55" spans="1:4">
-      <c r="A55" t="s">
-        <v>341</v>
-      </c>
-    </row>
-    <row r="56" spans="1:4">
-      <c r="A56" t="s">
-        <v>393</v>
-      </c>
-      <c r="B56" t="s">
-        <v>394</v>
-      </c>
-    </row>
-    <row r="57" spans="1:4">
-      <c r="A57" t="s">
-        <v>344</v>
-      </c>
-    </row>
-    <row r="58" spans="1:4">
-      <c r="A58" t="s">
-        <v>395</v>
-      </c>
-    </row>
-    <row r="59" spans="1:4">
-      <c r="A59" t="s">
-        <v>396</v>
-      </c>
-    </row>
-    <row r="61" spans="1:4">
-      <c r="A61" t="s">
-        <v>397</v>
-      </c>
-    </row>
-    <row r="62" spans="1:4">
-      <c r="A62" t="s">
-        <v>398</v>
-      </c>
-    </row>
-    <row r="63" spans="1:4">
-      <c r="A63" t="s">
-        <v>399</v>
-      </c>
-    </row>
-    <row r="64" spans="1:4">
-      <c r="A64" t="s">
-        <v>334</v>
-      </c>
-      <c r="B64" t="s">
-        <v>400</v>
-      </c>
-    </row>
-    <row r="65" spans="1:2">
-      <c r="A65" t="s">
-        <v>334</v>
-      </c>
-      <c r="B65" t="s">
-        <v>401</v>
-      </c>
-    </row>
-    <row r="66" spans="1:2">
-      <c r="A66" t="s">
-        <v>396</v>
-      </c>
-    </row>
-    <row r="67" spans="1:2">
-      <c r="A67" t="s">
-        <v>402</v>
-      </c>
-    </row>
-    <row r="68" spans="1:2">
-      <c r="A68" t="s">
-        <v>338</v>
-      </c>
-    </row>
-    <row r="69" spans="1:2">
-      <c r="A69" t="s">
-        <v>334</v>
-      </c>
-      <c r="B69" t="s">
-        <v>403</v>
-      </c>
-    </row>
-    <row r="70" spans="1:2">
-      <c r="A70" t="s">
-        <v>404</v>
-      </c>
-    </row>
-    <row r="71" spans="1:2">
-      <c r="A71" t="s">
-        <v>341</v>
-      </c>
-    </row>
-    <row r="72" spans="1:2">
-      <c r="A72" t="s">
-        <v>405</v>
-      </c>
-    </row>
-    <row r="73" spans="1:2">
-      <c r="A73" t="s">
-        <v>406</v>
-      </c>
-    </row>
-    <row r="74" spans="1:2">
-      <c r="A74" t="s">
-        <v>344</v>
-      </c>
-    </row>
-    <row r="75" spans="1:2">
-      <c r="A75" t="s">
-        <v>345</v>
-      </c>
-    </row>
-    <row r="76" spans="1:2">
-      <c r="A76" t="s">
-        <v>341</v>
-      </c>
-    </row>
-    <row r="77" spans="1:2">
-      <c r="A77" t="s">
-        <v>407</v>
-      </c>
-    </row>
-    <row r="78" spans="1:2">
-      <c r="A78" t="s">
+      <c r="D90" s="41"/>
+      <c r="E90" s="41"/>
+      <c r="F90" s="41"/>
+      <c r="G90" s="41"/>
+    </row>
+    <row r="91" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A91" s="41"/>
+      <c r="B91" s="41" t="s">
+        <v>311</v>
+      </c>
+      <c r="C91" s="41"/>
+      <c r="D91" s="41"/>
+      <c r="E91" s="41"/>
+      <c r="F91" s="41"/>
+      <c r="G91" s="41"/>
+    </row>
+    <row r="92" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A92" s="41"/>
+      <c r="B92" s="41"/>
+      <c r="C92" s="41"/>
+      <c r="D92" s="41"/>
+      <c r="E92" s="41"/>
+      <c r="F92" s="41"/>
+      <c r="G92" s="41"/>
+    </row>
+    <row r="93" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A93" s="41"/>
+      <c r="B93" s="41" t="s">
         <v>408</v>
       </c>
-    </row>
-    <row r="79" spans="1:2">
-      <c r="A79" t="s">
-        <v>409</v>
-      </c>
-    </row>
-    <row r="80" spans="1:2">
-      <c r="A80" t="s">
-        <v>344</v>
-      </c>
-    </row>
-    <row r="81" spans="1:2">
-      <c r="A81" t="s">
-        <v>364</v>
-      </c>
-    </row>
-    <row r="82" spans="1:2">
-      <c r="A82" t="s">
-        <v>334</v>
-      </c>
-    </row>
-    <row r="83" spans="1:2">
-      <c r="A83" t="s">
-        <v>410</v>
-      </c>
-    </row>
-    <row r="84" spans="1:2">
-      <c r="A84" t="s">
-        <v>385</v>
-      </c>
-    </row>
-    <row r="85" spans="1:2">
-      <c r="A85" t="s">
-        <v>370</v>
-      </c>
-    </row>
-    <row r="87" spans="1:2">
-      <c r="A87" t="s">
-        <v>412</v>
-      </c>
-    </row>
-    <row r="88" spans="1:2">
-      <c r="A88" t="s">
-        <v>374</v>
-      </c>
-    </row>
-    <row r="89" spans="1:2">
-      <c r="A89" t="s">
-        <v>413</v>
-      </c>
-      <c r="B89" t="s">
-        <v>414</v>
-      </c>
-    </row>
-    <row r="90" spans="1:2">
-      <c r="A90" t="s">
-        <v>334</v>
-      </c>
-    </row>
-    <row r="91" spans="1:2">
-      <c r="A91" t="s">
-        <v>413</v>
-      </c>
-      <c r="B91" t="s">
-        <v>415</v>
-      </c>
-    </row>
-    <row r="92" spans="1:2">
-      <c r="A92" t="s">
-        <v>376</v>
-      </c>
-    </row>
-    <row r="94" spans="1:2">
-      <c r="A94" t="s">
-        <v>416</v>
-      </c>
-    </row>
-    <row r="95" spans="1:2">
-      <c r="A95" t="s">
-        <v>413</v>
-      </c>
-      <c r="B95" t="s">
-        <v>417</v>
-      </c>
-    </row>
-    <row r="96" spans="1:2">
-      <c r="A96" t="s">
-        <v>413</v>
-      </c>
-      <c r="B96" t="s">
-        <v>418</v>
-      </c>
-    </row>
-    <row r="97" spans="1:11">
-      <c r="A97" s="41" t="s">
-        <v>413</v>
-      </c>
+      <c r="C93" s="41"/>
+      <c r="D93" s="41"/>
+      <c r="E93" s="41"/>
+      <c r="F93" s="41"/>
+      <c r="G93" s="41"/>
+    </row>
+    <row r="94" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A94" s="41" t="s">
+        <v>311</v>
+      </c>
+      <c r="B94" s="41"/>
+      <c r="C94" s="41"/>
+      <c r="D94" s="41"/>
+      <c r="E94" s="41"/>
+      <c r="F94" s="41"/>
+      <c r="G94" s="41"/>
+    </row>
+    <row r="97" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A97" s="41"/>
       <c r="B97" s="41"/>
-      <c r="C97" s="41" t="s">
-        <v>419</v>
-      </c>
+      <c r="C97" s="41"/>
       <c r="D97" s="41"/>
       <c r="E97" s="41"/>
       <c r="F97" s="41"/>
       <c r="G97" s="41"/>
     </row>
-    <row r="98" spans="1:11">
-      <c r="A98" t="s">
-        <v>413</v>
-      </c>
-      <c r="C98" t="s">
-        <v>420</v>
-      </c>
-    </row>
-    <row r="99" spans="1:11">
-      <c r="B99" t="s">
-        <v>413</v>
-      </c>
-      <c r="C99" t="s">
-        <v>418</v>
-      </c>
-    </row>
-    <row r="100" spans="1:11">
-      <c r="B100" t="s">
-        <v>413</v>
-      </c>
-      <c r="D100" t="s">
-        <v>421</v>
-      </c>
-    </row>
-    <row r="101" spans="1:11">
-      <c r="B101" t="s">
-        <v>413</v>
-      </c>
-      <c r="D101" t="s">
-        <v>422</v>
-      </c>
-    </row>
-    <row r="102" spans="1:11">
-      <c r="B102" t="s">
-        <v>413</v>
-      </c>
-      <c r="D102" t="s">
-        <v>394</v>
-      </c>
-    </row>
-    <row r="103" spans="1:11">
-      <c r="B103" t="s">
-        <v>413</v>
-      </c>
-      <c r="C103" t="s">
-        <v>311</v>
-      </c>
-    </row>
-    <row r="104" spans="1:11">
-      <c r="B104" t="s">
-        <v>413</v>
-      </c>
-      <c r="C104" t="s">
-        <v>423</v>
-      </c>
-    </row>
-    <row r="105" spans="1:11">
+    <row r="105" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A105" s="41"/>
-      <c r="B105" s="41" t="s">
-        <v>413</v>
-      </c>
-      <c r="C105" s="41" t="s">
-        <v>418</v>
-      </c>
+      <c r="B105" s="41"/>
+      <c r="C105" s="41"/>
       <c r="D105" s="41"/>
       <c r="E105" s="41"/>
       <c r="F105" s="41"/>
@@ -8483,195 +8857,6 @@
       <c r="J105" s="41"/>
       <c r="K105" s="41"/>
     </row>
-    <row r="106" spans="1:11">
-      <c r="B106" t="s">
-        <v>413</v>
-      </c>
-      <c r="D106" t="s">
-        <v>424</v>
-      </c>
-    </row>
-    <row r="107" spans="1:11">
-      <c r="B107" t="s">
-        <v>413</v>
-      </c>
-      <c r="D107" t="s">
-        <v>425</v>
-      </c>
-    </row>
-    <row r="108" spans="1:11">
-      <c r="C108" t="s">
-        <v>413</v>
-      </c>
-      <c r="D108" t="s">
-        <v>418</v>
-      </c>
-    </row>
-    <row r="109" spans="1:11">
-      <c r="C109" t="s">
-        <v>413</v>
-      </c>
-      <c r="E109" t="s">
-        <v>426</v>
-      </c>
-    </row>
-    <row r="110" spans="1:11">
-      <c r="C110" t="s">
-        <v>413</v>
-      </c>
-      <c r="E110" t="s">
-        <v>427</v>
-      </c>
-    </row>
-    <row r="111" spans="1:11">
-      <c r="C111" t="s">
-        <v>413</v>
-      </c>
-      <c r="E111" t="s">
-        <v>400</v>
-      </c>
-    </row>
-    <row r="112" spans="1:11">
-      <c r="C112" t="s">
-        <v>413</v>
-      </c>
-      <c r="D112" t="s">
-        <v>311</v>
-      </c>
-    </row>
-    <row r="113" spans="1:5">
-      <c r="C113" t="s">
-        <v>413</v>
-      </c>
-      <c r="D113" t="s">
-        <v>423</v>
-      </c>
-    </row>
-    <row r="114" spans="1:5">
-      <c r="C114" t="s">
-        <v>413</v>
-      </c>
-      <c r="D114" t="s">
-        <v>418</v>
-      </c>
-    </row>
-    <row r="115" spans="1:5">
-      <c r="C115" t="s">
-        <v>413</v>
-      </c>
-      <c r="E115" t="s">
-        <v>428</v>
-      </c>
-    </row>
-    <row r="116" spans="1:5">
-      <c r="C116" t="s">
-        <v>413</v>
-      </c>
-      <c r="E116" t="s">
-        <v>429</v>
-      </c>
-    </row>
-    <row r="117" spans="1:5">
-      <c r="C117" t="s">
-        <v>413</v>
-      </c>
-      <c r="E117" t="s">
-        <v>430</v>
-      </c>
-    </row>
-    <row r="118" spans="1:5">
-      <c r="C118" t="s">
-        <v>413</v>
-      </c>
-      <c r="D118" t="s">
-        <v>311</v>
-      </c>
-    </row>
-    <row r="119" spans="1:5">
-      <c r="B119" t="s">
-        <v>413</v>
-      </c>
-      <c r="C119" t="s">
-        <v>311</v>
-      </c>
-    </row>
-    <row r="120" spans="1:5">
-      <c r="A120" t="s">
-        <v>413</v>
-      </c>
-      <c r="B120" t="s">
-        <v>311</v>
-      </c>
-    </row>
-    <row r="121" spans="1:5">
-      <c r="A121" t="s">
-        <v>413</v>
-      </c>
-      <c r="B121" t="s">
-        <v>423</v>
-      </c>
-    </row>
-    <row r="122" spans="1:5">
-      <c r="A122" t="s">
-        <v>413</v>
-      </c>
-      <c r="B122" t="s">
-        <v>418</v>
-      </c>
-    </row>
-    <row r="123" spans="1:5">
-      <c r="A123" t="s">
-        <v>413</v>
-      </c>
-      <c r="C123" t="s">
-        <v>431</v>
-      </c>
-    </row>
-    <row r="124" spans="1:5">
-      <c r="A124" t="s">
-        <v>413</v>
-      </c>
-      <c r="C124" t="s">
-        <v>432</v>
-      </c>
-    </row>
-    <row r="125" spans="1:5">
-      <c r="A125" t="s">
-        <v>413</v>
-      </c>
-      <c r="C125" t="s">
-        <v>433</v>
-      </c>
-    </row>
-    <row r="126" spans="1:5">
-      <c r="A126" t="s">
-        <v>413</v>
-      </c>
-      <c r="B126" t="s">
-        <v>311</v>
-      </c>
-    </row>
-    <row r="128" spans="1:5">
-      <c r="A128" t="s">
-        <v>413</v>
-      </c>
-      <c r="B128" t="s">
-        <v>434</v>
-      </c>
-    </row>
-    <row r="129" spans="1:2">
-      <c r="A129" t="s">
-        <v>413</v>
-      </c>
-      <c r="B129" t="s">
-        <v>435</v>
-      </c>
-    </row>
-    <row r="130" spans="1:2">
-      <c r="A130" t="s">
-        <v>370</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.35433070866141736" bottom="0.35433070866141736" header="0.11811023622047245" footer="0.11811023622047245"/>
   <pageSetup paperSize="9" scale="85" orientation="portrait" r:id="rId1"/>

--- a/CFT4CUnitSrc/src/report/GAReport.xlsx
+++ b/CFT4CUnitSrc/src/report/GAReport.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="1125" windowWidth="14805" windowHeight="6780" tabRatio="940" activeTab="4"/>
@@ -1273,11 +1273,11 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.000000000"/>
   </numFmts>
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="6">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -4792,7 +4792,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -4827,7 +4826,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -5003,7 +5001,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:AP158"/>
   <sheetViews>
@@ -5011,29 +5009,29 @@
       <selection activeCell="F147" sqref="F147"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="10.7109375" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="10.140625" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="9.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10">
       <c r="A1" s="18">
         <v>42502</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10">
       <c r="B2" t="s">
         <v>168</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10">
       <c r="C3" t="s">
         <v>169</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10">
       <c r="C4" t="s">
         <v>180</v>
       </c>
@@ -5041,17 +5039,17 @@
         <v>181</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10">
       <c r="J5" t="s">
         <v>182</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10">
       <c r="B6" t="s">
         <v>171</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10">
       <c r="B7" t="s">
         <v>179</v>
       </c>
@@ -5059,7 +5057,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:10">
       <c r="B8" t="s">
         <v>179</v>
       </c>
@@ -5067,32 +5065,32 @@
         <v>176</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:10">
       <c r="C9" t="s">
         <v>172</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:10">
       <c r="C10" t="s">
         <v>173</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:10">
       <c r="C11" t="s">
         <v>174</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:10">
       <c r="C13" s="1" t="s">
         <v>177</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:10">
       <c r="C14" s="1" t="s">
         <v>178</v>
       </c>
     </row>
-    <row r="17" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:17">
       <c r="A17" s="18">
         <v>42499</v>
       </c>
@@ -5100,7 +5098,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:17">
       <c r="B18" t="s">
         <v>160</v>
       </c>
@@ -5108,7 +5106,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="19" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:17">
       <c r="C19" t="s">
         <v>161</v>
       </c>
@@ -5116,7 +5114,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:17">
       <c r="C20" t="s">
         <v>162</v>
       </c>
@@ -5124,12 +5122,12 @@
         <v>166</v>
       </c>
     </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:17">
       <c r="C21" t="s">
         <v>167</v>
       </c>
     </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:17">
       <c r="B22" t="s">
         <v>164</v>
       </c>
@@ -5140,7 +5138,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="24" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:17">
       <c r="A24" s="18">
         <v>42496</v>
       </c>
@@ -5154,7 +5152,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:17">
       <c r="B25" t="s">
         <v>137</v>
       </c>
@@ -5162,7 +5160,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="26" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:17">
       <c r="B26" t="s">
         <v>135</v>
       </c>
@@ -5173,7 +5171,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="28" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:17">
       <c r="B28" t="s">
         <v>136</v>
       </c>
@@ -5184,12 +5182,12 @@
         <v>152</v>
       </c>
     </row>
-    <row r="29" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:17">
       <c r="B29" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="30" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:17">
       <c r="B30" t="s">
         <v>139</v>
       </c>
@@ -5197,12 +5195,12 @@
         <v>153</v>
       </c>
     </row>
-    <row r="32" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:17">
       <c r="B32" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="33" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:16">
       <c r="C33" t="s">
         <v>140</v>
       </c>
@@ -5210,7 +5208,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="34" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:16">
       <c r="C34" t="s">
         <v>141</v>
       </c>
@@ -5218,7 +5216,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="36" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:16">
       <c r="B36" t="s">
         <v>142</v>
       </c>
@@ -5226,47 +5224,47 @@
         <v>159</v>
       </c>
     </row>
-    <row r="38" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="38" spans="2:16">
       <c r="B38" t="s">
         <v>143</v>
       </c>
     </row>
-    <row r="39" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="39" spans="2:16">
       <c r="B39" t="s">
         <v>144</v>
       </c>
     </row>
-    <row r="41" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="41" spans="2:16">
       <c r="B41" t="s">
         <v>146</v>
       </c>
     </row>
-    <row r="42" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="42" spans="2:16">
       <c r="B42" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="43" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="43" spans="2:16">
       <c r="B43" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="45" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="45" spans="2:16">
       <c r="B45" t="s">
         <v>148</v>
       </c>
     </row>
-    <row r="50" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:10">
       <c r="A50" s="18">
         <v>42494</v>
       </c>
     </row>
-    <row r="51" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:10">
       <c r="B51" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="52" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:10">
       <c r="C52" t="s">
         <v>1</v>
       </c>
@@ -5274,7 +5272,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="54" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:10">
       <c r="C54" s="5" t="s">
         <v>3</v>
       </c>
@@ -5282,44 +5280,44 @@
         <v>123</v>
       </c>
     </row>
-    <row r="55" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:10">
       <c r="D55" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="56" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:10">
       <c r="E56" s="25" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="57" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:10">
       <c r="E57" s="25"/>
     </row>
-    <row r="58" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:10">
       <c r="B58" s="5" t="s">
         <v>134</v>
       </c>
       <c r="E58" s="25"/>
     </row>
-    <row r="59" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:10">
       <c r="C59" t="s">
         <v>124</v>
       </c>
       <c r="E59" s="25"/>
     </row>
-    <row r="60" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:10">
       <c r="C60" t="s">
         <v>125</v>
       </c>
       <c r="E60" s="25"/>
     </row>
-    <row r="61" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:10">
       <c r="D61" t="s">
         <v>126</v>
       </c>
       <c r="E61" s="25"/>
     </row>
-    <row r="62" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:10">
       <c r="E62" s="26" t="s">
         <v>127</v>
       </c>
@@ -5330,7 +5328,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="63" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:10">
       <c r="E63" s="27">
         <v>1.1000000000000001</v>
       </c>
@@ -5341,7 +5339,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="64" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:10">
       <c r="E64" s="27">
         <v>1.1100000000000001</v>
       </c>
@@ -5358,7 +5356,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="65" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:7">
       <c r="E65" s="27">
         <v>1.3</v>
       </c>
@@ -5369,21 +5367,21 @@
         <v>1</v>
       </c>
     </row>
-    <row r="66" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:7">
       <c r="D66" t="s">
         <v>132</v>
       </c>
       <c r="E66" s="27"/>
     </row>
-    <row r="67" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:7">
       <c r="E67" s="27" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="68" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:7">
       <c r="E68" s="27"/>
     </row>
-    <row r="69" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:7">
       <c r="C69" t="s">
         <v>5</v>
       </c>
@@ -5391,57 +5389,57 @@
         <v>116</v>
       </c>
     </row>
-    <row r="71" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:7">
       <c r="B71" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="72" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:7">
       <c r="B72" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="74" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:7">
       <c r="B74" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="75" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:7">
       <c r="B75" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="77" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:7">
       <c r="A77" s="18">
         <v>42488</v>
       </c>
     </row>
-    <row r="78" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:7">
       <c r="B78" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="79" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:7">
       <c r="C79" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="80" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:7">
       <c r="C80" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="81" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:42">
       <c r="C81" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="82" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:42">
       <c r="C82" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="83" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:42">
       <c r="B83" s="5" t="s">
         <v>113</v>
       </c>
@@ -5454,12 +5452,12 @@
       <c r="I83" s="5"/>
       <c r="J83" s="5"/>
     </row>
-    <row r="85" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:42">
       <c r="A85" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="87" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:42">
       <c r="B87" t="s">
         <v>1</v>
       </c>
@@ -5467,7 +5465,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="89" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:42">
       <c r="B89" t="s">
         <v>3</v>
       </c>
@@ -5475,12 +5473,12 @@
         <v>6</v>
       </c>
     </row>
-    <row r="90" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:42">
       <c r="C90" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="92" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:42">
       <c r="B92" t="s">
         <v>5</v>
       </c>
@@ -5488,12 +5486,12 @@
         <v>8</v>
       </c>
     </row>
-    <row r="93" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:42">
       <c r="C93" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="94" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:42">
       <c r="C94" s="6" t="s">
         <v>52</v>
       </c>
@@ -5527,7 +5525,7 @@
         <v>42483</v>
       </c>
     </row>
-    <row r="95" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:42">
       <c r="C95" s="6" t="s">
         <v>53</v>
       </c>
@@ -5559,7 +5557,7 @@
       <c r="AO95" s="5"/>
       <c r="AP95" s="5"/>
     </row>
-    <row r="96" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:42">
       <c r="C96" t="s">
         <v>14</v>
       </c>
@@ -5573,29 +5571,29 @@
       <c r="AO96" s="5"/>
       <c r="AP96" s="5"/>
     </row>
-    <row r="97" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="97" spans="2:11">
       <c r="C97" s="1"/>
       <c r="D97" s="1" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="98" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="98" spans="2:11">
       <c r="C98" s="1"/>
       <c r="D98" s="1" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="100" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="100" spans="2:11">
       <c r="C100" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="101" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="101" spans="2:11">
       <c r="C101" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="103" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="103" spans="2:11">
       <c r="B103" t="s">
         <v>7</v>
       </c>
@@ -5603,12 +5601,12 @@
         <v>16</v>
       </c>
     </row>
-    <row r="105" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="105" spans="2:11">
       <c r="C105" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="107" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="107" spans="2:11">
       <c r="B107" t="s">
         <v>17</v>
       </c>
@@ -5616,7 +5614,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="108" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="108" spans="2:11">
       <c r="D108" s="5" t="s">
         <v>50</v>
       </c>
@@ -5634,7 +5632,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="109" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="109" spans="2:11">
       <c r="C109" t="s">
         <v>19</v>
       </c>
@@ -5642,12 +5640,12 @@
         <v>20</v>
       </c>
     </row>
-    <row r="110" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="110" spans="2:11">
       <c r="D110" s="3" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="112" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="112" spans="2:11">
       <c r="B112" t="s">
         <v>22</v>
       </c>
@@ -5655,12 +5653,12 @@
         <v>21</v>
       </c>
     </row>
-    <row r="114" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:24">
       <c r="A114" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="115" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:24">
       <c r="B115" t="s">
         <v>48</v>
       </c>
@@ -5682,7 +5680,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="116" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:24">
       <c r="B116" t="s">
         <v>46</v>
       </c>
@@ -5696,7 +5694,7 @@
         <v>42480</v>
       </c>
     </row>
-    <row r="117" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:24">
       <c r="B117" t="s">
         <v>49</v>
       </c>
@@ -5710,14 +5708,14 @@
         <v>42480</v>
       </c>
     </row>
-    <row r="118" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:24">
       <c r="M118" s="6"/>
       <c r="N118" s="6"/>
       <c r="O118" s="6"/>
       <c r="P118" s="6"/>
       <c r="S118" s="8"/>
     </row>
-    <row r="119" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:24">
       <c r="F119" s="9" t="s">
         <v>69</v>
       </c>
@@ -5730,7 +5728,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="120" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:24">
       <c r="A120" t="s">
         <v>47</v>
       </c>
@@ -5753,7 +5751,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="121" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:24">
       <c r="A121" s="4" t="s">
         <v>23</v>
       </c>
@@ -5773,7 +5771,7 @@
       <c r="O121" s="4"/>
       <c r="P121" s="4"/>
     </row>
-    <row r="122" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:24">
       <c r="A122" s="4" t="s">
         <v>24</v>
       </c>
@@ -5793,7 +5791,7 @@
       <c r="O122" s="4"/>
       <c r="P122" s="4"/>
     </row>
-    <row r="123" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:24">
       <c r="A123" t="s">
         <v>25</v>
       </c>
@@ -5813,12 +5811,12 @@
       </c>
       <c r="V123" s="9"/>
     </row>
-    <row r="124" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:24">
       <c r="A124" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="125" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:24">
       <c r="A125" s="4" t="s">
         <v>42</v>
       </c>
@@ -5838,7 +5836,7 @@
       <c r="O125" s="4"/>
       <c r="P125" s="4"/>
     </row>
-    <row r="126" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:24">
       <c r="A126" s="4" t="s">
         <v>27</v>
       </c>
@@ -5858,12 +5856,12 @@
       <c r="O126" s="4"/>
       <c r="P126" s="4"/>
     </row>
-    <row r="127" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:24">
       <c r="A127" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="128" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:24">
       <c r="A128" s="4" t="s">
         <v>45</v>
       </c>
@@ -5883,83 +5881,83 @@
       <c r="O128" s="4"/>
       <c r="P128" s="4"/>
     </row>
-    <row r="129" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:2">
       <c r="A129" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="130" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:2">
       <c r="A130" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="131" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:2">
       <c r="A131" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="132" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:2">
       <c r="A132" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="133" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:2">
       <c r="A133" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="134" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:2">
       <c r="A134" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="135" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:2">
       <c r="A135" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="136" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:2">
       <c r="A136" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="137" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:2">
       <c r="A137" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="138" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:2">
       <c r="A138" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="139" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:2">
       <c r="A139" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="140" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:2">
       <c r="A140" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="141" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:2">
       <c r="A141" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="144" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:2">
       <c r="A144" s="13" t="s">
         <v>70</v>
       </c>
       <c r="B144" s="13"/>
     </row>
-    <row r="145" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="145" spans="2:11">
       <c r="B145" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="146" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="146" spans="2:11">
       <c r="B146" s="5" t="s">
         <v>80</v>
       </c>
@@ -5969,32 +5967,32 @@
       <c r="D146" s="5"/>
       <c r="E146" s="5"/>
     </row>
-    <row r="147" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="147" spans="2:11">
       <c r="B147" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="148" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="148" spans="2:11">
       <c r="C148" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="149" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="149" spans="2:11">
       <c r="B149" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="151" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="151" spans="2:11">
       <c r="B151" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="152" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="152" spans="2:11">
       <c r="B152" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="154" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="154" spans="2:11">
       <c r="B154" s="5" t="s">
         <v>84</v>
       </c>
@@ -6009,12 +6007,12 @@
         <v>42483</v>
       </c>
     </row>
-    <row r="157" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="157" spans="2:11">
       <c r="B157" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="158" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="158" spans="2:11">
       <c r="B158" t="s">
         <v>86</v>
       </c>
@@ -6029,7 +6027,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:R95"/>
   <sheetViews>
@@ -6037,7 +6035,7 @@
       <selection activeCell="H60" sqref="H60"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="2" max="2" width="5" style="10" customWidth="1"/>
     <col min="3" max="3" width="30.140625" bestFit="1" customWidth="1"/>
@@ -6052,7 +6050,7 @@
     <col min="12" max="12" width="14.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:18">
       <c r="A1" s="7" t="s">
         <v>59</v>
       </c>
@@ -6061,7 +6059,7 @@
       <c r="D1" s="7"/>
       <c r="E1" s="11"/>
     </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:18">
       <c r="B2" s="17" t="s">
         <v>65</v>
       </c>
@@ -6099,7 +6097,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:18">
       <c r="B3" s="14">
         <v>1</v>
       </c>
@@ -6143,7 +6141,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:18">
       <c r="B4" s="14">
         <f>B3+1</f>
         <v>2</v>
@@ -6177,7 +6175,7 @@
       </c>
       <c r="L4" s="15"/>
     </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:18">
       <c r="B5" s="14">
         <f t="shared" ref="B5:B19" si="0">B4+1</f>
         <v>3</v>
@@ -6211,7 +6209,7 @@
       </c>
       <c r="L5" s="15"/>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:18">
       <c r="B6" s="14">
         <f t="shared" si="0"/>
         <v>4</v>
@@ -6248,7 +6246,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:18">
       <c r="B7" s="14">
         <f t="shared" si="0"/>
         <v>5</v>
@@ -6289,7 +6287,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:18">
       <c r="B8" s="14">
         <f t="shared" si="0"/>
         <v>6</v>
@@ -6331,7 +6329,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:18">
       <c r="B9" s="14">
         <f t="shared" si="0"/>
         <v>7</v>
@@ -6371,7 +6369,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:18">
       <c r="B10" s="14">
         <f t="shared" si="0"/>
         <v>8</v>
@@ -6411,7 +6409,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:18">
       <c r="B11" s="14">
         <f t="shared" si="0"/>
         <v>9</v>
@@ -6427,7 +6425,7 @@
       <c r="K11" s="15"/>
       <c r="L11" s="15"/>
     </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:18">
       <c r="B12" s="14">
         <f t="shared" si="0"/>
         <v>10</v>
@@ -6443,7 +6441,7 @@
       <c r="K12" s="15"/>
       <c r="L12" s="15"/>
     </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:18">
       <c r="B13" s="14">
         <f t="shared" si="0"/>
         <v>11</v>
@@ -6459,7 +6457,7 @@
       <c r="K13" s="15"/>
       <c r="L13" s="15"/>
     </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:18">
       <c r="B14" s="14">
         <f t="shared" si="0"/>
         <v>12</v>
@@ -6475,7 +6473,7 @@
       <c r="K14" s="15"/>
       <c r="L14" s="15"/>
     </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:18">
       <c r="B15" s="14">
         <f t="shared" si="0"/>
         <v>13</v>
@@ -6491,7 +6489,7 @@
       <c r="K15" s="15"/>
       <c r="L15" s="15"/>
     </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:18">
       <c r="B16" s="14">
         <f t="shared" si="0"/>
         <v>14</v>
@@ -6507,7 +6505,7 @@
       <c r="K16" s="15"/>
       <c r="L16" s="15"/>
     </row>
-    <row r="17" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:12">
       <c r="B17" s="14">
         <f t="shared" si="0"/>
         <v>15</v>
@@ -6523,7 +6521,7 @@
       <c r="K17" s="15"/>
       <c r="L17" s="15"/>
     </row>
-    <row r="18" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:12">
       <c r="B18" s="14">
         <f t="shared" si="0"/>
         <v>16</v>
@@ -6539,7 +6537,7 @@
       <c r="K18" s="15"/>
       <c r="L18" s="15"/>
     </row>
-    <row r="19" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:12">
       <c r="B19" s="14">
         <f t="shared" si="0"/>
         <v>17</v>
@@ -6555,12 +6553,12 @@
       <c r="K19" s="15"/>
       <c r="L19" s="15"/>
     </row>
-    <row r="22" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:12">
       <c r="C22" t="s">
         <v>183</v>
       </c>
     </row>
-    <row r="23" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:12">
       <c r="C23" t="s">
         <v>184</v>
       </c>
@@ -6579,7 +6577,7 @@
       </c>
       <c r="L23" s="47"/>
     </row>
-    <row r="24" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:12">
       <c r="G24" s="49"/>
       <c r="H24" s="51"/>
       <c r="I24" s="14" t="s">
@@ -6595,7 +6593,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="25" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:12">
       <c r="G25" s="33" t="s">
         <v>110</v>
       </c>
@@ -6611,7 +6609,7 @@
       <c r="K25" s="32"/>
       <c r="L25" s="32"/>
     </row>
-    <row r="26" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:12">
       <c r="G26" s="37"/>
       <c r="H26" s="38"/>
       <c r="I26" s="32">
@@ -6623,7 +6621,7 @@
       <c r="K26" s="32"/>
       <c r="L26" s="32"/>
     </row>
-    <row r="27" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:12">
       <c r="G27" s="37"/>
       <c r="H27" s="38"/>
       <c r="I27" s="32">
@@ -6635,7 +6633,7 @@
       <c r="K27" s="32"/>
       <c r="L27" s="32"/>
     </row>
-    <row r="28" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:12">
       <c r="G28" s="37"/>
       <c r="H28" s="38"/>
       <c r="I28" s="32">
@@ -6647,7 +6645,7 @@
       <c r="K28" s="32"/>
       <c r="L28" s="32"/>
     </row>
-    <row r="29" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:12">
       <c r="G29" s="37"/>
       <c r="H29" s="38"/>
       <c r="I29" s="32"/>
@@ -6655,7 +6653,7 @@
       <c r="K29" s="32"/>
       <c r="L29" s="32"/>
     </row>
-    <row r="30" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:12">
       <c r="G30" s="37"/>
       <c r="H30" s="38"/>
       <c r="I30" s="32"/>
@@ -6663,7 +6661,7 @@
       <c r="K30" s="32"/>
       <c r="L30" s="32"/>
     </row>
-    <row r="31" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:12">
       <c r="G31" s="35"/>
       <c r="H31" s="36"/>
       <c r="I31" s="32"/>
@@ -6671,7 +6669,7 @@
       <c r="K31" s="32"/>
       <c r="L31" s="32"/>
     </row>
-    <row r="32" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:12">
       <c r="G32" s="15" t="s">
         <v>109</v>
       </c>
@@ -6681,7 +6679,7 @@
       <c r="K32" s="32"/>
       <c r="L32" s="32"/>
     </row>
-    <row r="33" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:12">
       <c r="G33" s="15"/>
       <c r="H33" s="32"/>
       <c r="I33" s="32"/>
@@ -6689,7 +6687,7 @@
       <c r="K33" s="32"/>
       <c r="L33" s="32"/>
     </row>
-    <row r="34" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:12">
       <c r="G34" s="15"/>
       <c r="H34" s="32"/>
       <c r="I34" s="32"/>
@@ -6697,7 +6695,7 @@
       <c r="K34" s="32"/>
       <c r="L34" s="32"/>
     </row>
-    <row r="35" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:12">
       <c r="G35" s="15"/>
       <c r="H35" s="32"/>
       <c r="I35" s="32"/>
@@ -6705,7 +6703,7 @@
       <c r="K35" s="32"/>
       <c r="L35" s="32"/>
     </row>
-    <row r="36" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:12">
       <c r="G36" s="15" t="s">
         <v>195</v>
       </c>
@@ -6725,7 +6723,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:12">
       <c r="G37" s="15"/>
       <c r="H37" s="32"/>
       <c r="I37" s="32">
@@ -6741,7 +6739,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="38" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:12">
       <c r="G38" s="15"/>
       <c r="H38" s="32"/>
       <c r="I38" s="32"/>
@@ -6753,7 +6751,7 @@
         <v>462</v>
       </c>
     </row>
-    <row r="39" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:12">
       <c r="G39" s="15"/>
       <c r="H39" s="32"/>
       <c r="I39" s="32"/>
@@ -6765,7 +6763,7 @@
         <v>57595</v>
       </c>
     </row>
-    <row r="40" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:12">
       <c r="G40" s="15" t="s">
         <v>111</v>
       </c>
@@ -6775,7 +6773,7 @@
       <c r="K40" s="32"/>
       <c r="L40" s="32"/>
     </row>
-    <row r="41" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:12">
       <c r="G41" s="15"/>
       <c r="H41" s="32"/>
       <c r="I41" s="32"/>
@@ -6783,14 +6781,14 @@
       <c r="K41" s="32"/>
       <c r="L41" s="32"/>
     </row>
-    <row r="42" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:12">
       <c r="H42" s="31"/>
       <c r="I42" s="31"/>
       <c r="J42" s="31"/>
       <c r="K42" s="31"/>
       <c r="L42" s="31"/>
     </row>
-    <row r="43" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:12">
       <c r="A43" t="s">
         <v>198</v>
       </c>
@@ -6800,7 +6798,7 @@
       <c r="K43" s="31"/>
       <c r="L43" s="31"/>
     </row>
-    <row r="44" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:12">
       <c r="C44" t="s">
         <v>199</v>
       </c>
@@ -6810,7 +6808,7 @@
       <c r="K44" s="31"/>
       <c r="L44" s="31"/>
     </row>
-    <row r="45" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:12">
       <c r="C45" t="s">
         <v>200</v>
       </c>
@@ -6821,7 +6819,7 @@
       <c r="I45" s="30"/>
       <c r="J45" s="30"/>
     </row>
-    <row r="46" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:12">
       <c r="C46" t="s">
         <v>202</v>
       </c>
@@ -6829,7 +6827,7 @@
       <c r="I46" s="30"/>
       <c r="J46" s="30"/>
     </row>
-    <row r="47" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:12">
       <c r="C47" t="s">
         <v>208</v>
       </c>
@@ -6840,17 +6838,17 @@
       <c r="I47" s="30"/>
       <c r="J47" s="30"/>
     </row>
-    <row r="48" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:12">
       <c r="C48" t="s">
         <v>212</v>
       </c>
     </row>
-    <row r="50" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:10">
       <c r="A50" t="s">
         <v>203</v>
       </c>
     </row>
-    <row r="51" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:10">
       <c r="A51" t="s">
         <v>158</v>
       </c>
@@ -6858,7 +6856,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="52" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:10">
       <c r="A52" t="s">
         <v>158</v>
       </c>
@@ -6875,7 +6873,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="53" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:10">
       <c r="B53" s="39" t="s">
         <v>206</v>
       </c>
@@ -6883,41 +6881,41 @@
         <v>211</v>
       </c>
     </row>
-    <row r="54" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:10">
       <c r="B54" s="39" t="s">
         <v>213</v>
       </c>
     </row>
-    <row r="55" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:10">
       <c r="B55" s="39" t="s">
         <v>214</v>
       </c>
     </row>
-    <row r="56" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:10">
       <c r="B56" s="39"/>
       <c r="J56" s="40"/>
     </row>
-    <row r="57" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:10">
       <c r="J57" s="40"/>
     </row>
-    <row r="58" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:10">
       <c r="H58"/>
       <c r="J58" s="40"/>
     </row>
-    <row r="59" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:10">
       <c r="H59"/>
       <c r="J59" s="40"/>
     </row>
-    <row r="60" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:10">
       <c r="H60"/>
     </row>
-    <row r="61" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:10">
       <c r="H61"/>
     </row>
-    <row r="62" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:10">
       <c r="H62"/>
     </row>
-    <row r="95" spans="16:16" x14ac:dyDescent="0.25">
+    <row r="95" spans="16:16">
       <c r="P95" s="41"/>
     </row>
   </sheetData>
@@ -6934,7 +6932,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr codeName="Sheet3"/>
   <dimension ref="A1:AH18"/>
   <sheetViews>
@@ -6942,22 +6940,22 @@
       <selection activeCell="U24" sqref="U24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="16384" width="9.140625" style="42"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:34">
       <c r="A1" s="43" t="s">
         <v>219</v>
       </c>
     </row>
-    <row r="2" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:34">
       <c r="O2" s="42" t="s">
         <v>215</v>
       </c>
     </row>
-    <row r="3" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:34">
       <c r="A3" s="42" t="s">
         <v>220</v>
       </c>
@@ -6965,7 +6963,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="4" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:34">
       <c r="P4" s="42" t="s">
         <v>218</v>
       </c>
@@ -6979,12 +6977,12 @@
       <c r="AG4" s="5"/>
       <c r="AH4" s="5"/>
     </row>
-    <row r="5" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:34">
       <c r="A5" s="42" t="s">
         <v>221</v>
       </c>
     </row>
-    <row r="6" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:34">
       <c r="B6" s="42" t="s">
         <v>224</v>
       </c>
@@ -6992,42 +6990,42 @@
         <v>225</v>
       </c>
     </row>
-    <row r="7" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:34">
       <c r="A7" s="42" t="s">
         <v>222</v>
       </c>
     </row>
-    <row r="8" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:34">
       <c r="B8" s="42" t="s">
         <v>223</v>
       </c>
     </row>
-    <row r="12" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:34">
       <c r="O12" s="42" t="s">
         <v>216</v>
       </c>
     </row>
-    <row r="13" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:34">
       <c r="P13" s="42" t="s">
         <v>217</v>
       </c>
     </row>
-    <row r="14" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:34">
       <c r="Q14" s="42" t="s">
         <v>226</v>
       </c>
     </row>
-    <row r="16" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:34">
       <c r="P16" s="42" t="s">
         <v>227</v>
       </c>
     </row>
-    <row r="17" spans="4:16" x14ac:dyDescent="0.25">
+    <row r="17" spans="4:16">
       <c r="P17" s="42" t="s">
         <v>228</v>
       </c>
     </row>
-    <row r="18" spans="4:16" x14ac:dyDescent="0.25">
+    <row r="18" spans="4:16">
       <c r="D18" s="44"/>
     </row>
   </sheetData>
@@ -7038,7 +7036,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr codeName="Sheet4"/>
   <dimension ref="A1:AF109"/>
   <sheetViews>
@@ -7046,14 +7044,14 @@
       <selection activeCell="G52" sqref="G52"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:31">
       <c r="A1" t="s">
         <v>230</v>
       </c>
     </row>
-    <row r="2" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:31">
       <c r="B2" s="25" t="s">
         <v>229</v>
       </c>
@@ -7061,7 +7059,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="4" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:31">
       <c r="A4" t="s">
         <v>231</v>
       </c>
@@ -7069,7 +7067,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="7" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:31">
       <c r="A7" t="s">
         <v>234</v>
       </c>
@@ -7077,7 +7075,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="8" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:31">
       <c r="B8" s="25" t="s">
         <v>233</v>
       </c>
@@ -7093,7 +7091,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="9" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:31">
       <c r="B9" t="s">
         <v>235</v>
       </c>
@@ -7107,7 +7105,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="10" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:31">
       <c r="C10" s="3" t="s">
         <v>236</v>
       </c>
@@ -7121,7 +7119,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="11" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:31">
       <c r="C11" s="3" t="s">
         <v>237</v>
       </c>
@@ -7139,7 +7137,7 @@
       </c>
       <c r="AE11" s="5"/>
     </row>
-    <row r="12" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:31">
       <c r="R12" t="s">
         <v>252</v>
       </c>
@@ -7150,7 +7148,7 @@
         <v>287</v>
       </c>
     </row>
-    <row r="13" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:31">
       <c r="A13" t="s">
         <v>239</v>
       </c>
@@ -7164,7 +7162,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="14" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:31">
       <c r="B14" s="4" t="s">
         <v>240</v>
       </c>
@@ -7187,7 +7185,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="15" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:31">
       <c r="C15" t="s">
         <v>244</v>
       </c>
@@ -7207,7 +7205,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="16" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:31">
       <c r="C16" t="s">
         <v>246</v>
       </c>
@@ -7224,7 +7222,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="17" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:32">
       <c r="B17" s="4" t="s">
         <v>241</v>
       </c>
@@ -7249,7 +7247,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="18" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:32">
       <c r="C18" t="s">
         <v>247</v>
       </c>
@@ -7263,7 +7261,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="19" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:32">
       <c r="R19" t="s">
         <v>259</v>
       </c>
@@ -7271,7 +7269,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="20" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:32">
       <c r="R20" t="s">
         <v>260</v>
       </c>
@@ -7282,12 +7280,12 @@
         <v>295</v>
       </c>
     </row>
-    <row r="21" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:32">
       <c r="R21" t="s">
         <v>261</v>
       </c>
     </row>
-    <row r="22" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:32">
       <c r="B22" t="s">
         <v>242</v>
       </c>
@@ -7301,7 +7299,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="23" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:32">
       <c r="R23" t="s">
         <v>263</v>
       </c>
@@ -7309,7 +7307,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="24" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:32">
       <c r="R24" t="s">
         <v>264</v>
       </c>
@@ -7317,7 +7315,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="25" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:32">
       <c r="R25" t="s">
         <v>265</v>
       </c>
@@ -7327,7 +7325,7 @@
       <c r="AE25" s="5"/>
       <c r="AF25" s="5"/>
     </row>
-    <row r="26" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:32">
       <c r="R26" t="s">
         <v>266</v>
       </c>
@@ -7335,7 +7333,7 @@
         <v>298</v>
       </c>
     </row>
-    <row r="27" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:32">
       <c r="A27" s="13" t="s">
         <v>305</v>
       </c>
@@ -7351,7 +7349,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="28" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:32">
       <c r="B28" t="s">
         <v>306</v>
       </c>
@@ -7362,7 +7360,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="29" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:32">
       <c r="B29" t="s">
         <v>307</v>
       </c>
@@ -7373,7 +7371,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="30" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:32">
       <c r="B30" t="s">
         <v>308</v>
       </c>
@@ -7384,7 +7382,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="31" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:32">
       <c r="C31" t="s">
         <v>309</v>
       </c>
@@ -7392,7 +7390,7 @@
         <v>302</v>
       </c>
     </row>
-    <row r="32" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:32">
       <c r="C32" t="s">
         <v>310</v>
       </c>
@@ -7400,7 +7398,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="33" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:30">
       <c r="B33" t="s">
         <v>311</v>
       </c>
@@ -7408,7 +7406,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="34" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:30">
       <c r="B34" t="s">
         <v>312</v>
       </c>
@@ -7416,72 +7414,72 @@
         <v>295</v>
       </c>
     </row>
-    <row r="35" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:30">
       <c r="C35" t="s">
         <v>313</v>
       </c>
     </row>
-    <row r="36" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:30">
       <c r="D36" t="s">
         <v>314</v>
       </c>
     </row>
-    <row r="37" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:30">
       <c r="D37" t="s">
         <v>315</v>
       </c>
     </row>
-    <row r="38" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:30">
       <c r="C38" t="s">
         <v>311</v>
       </c>
     </row>
-    <row r="39" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:30">
       <c r="C39" t="s">
         <v>316</v>
       </c>
     </row>
-    <row r="40" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:30">
       <c r="D40" t="s">
         <v>314</v>
       </c>
     </row>
-    <row r="41" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:30">
       <c r="D41" t="s">
         <v>315</v>
       </c>
     </row>
-    <row r="42" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:30">
       <c r="C42" t="s">
         <v>311</v>
       </c>
     </row>
-    <row r="43" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:30">
       <c r="C43" t="s">
         <v>317</v>
       </c>
     </row>
-    <row r="44" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:30">
       <c r="C44" t="s">
         <v>318</v>
       </c>
     </row>
-    <row r="45" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:30">
       <c r="C45" t="s">
         <v>319</v>
       </c>
     </row>
-    <row r="46" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:30">
       <c r="B46" t="s">
         <v>311</v>
       </c>
     </row>
-    <row r="47" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:30">
       <c r="A47" t="s">
         <v>311</v>
       </c>
     </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:7">
       <c r="A49" s="13" t="s">
         <v>320</v>
       </c>
@@ -7491,17 +7489,17 @@
       <c r="E49" s="13"/>
       <c r="F49" s="13"/>
     </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:7">
       <c r="B50" t="s">
         <v>321</v>
       </c>
     </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:7">
       <c r="B51" t="s">
         <v>322</v>
       </c>
     </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:7">
       <c r="B52" s="5" t="s">
         <v>323</v>
       </c>
@@ -7510,32 +7508,32 @@
         <v>324</v>
       </c>
     </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:7">
       <c r="C53" t="s">
         <v>325</v>
       </c>
     </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:7">
       <c r="D54" t="s">
         <v>326</v>
       </c>
     </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:7">
       <c r="E55" t="s">
         <v>327</v>
       </c>
     </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:7">
       <c r="B56" t="s">
         <v>322</v>
       </c>
     </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:7">
       <c r="A57" t="s">
         <v>311</v>
       </c>
     </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:7">
       <c r="A59" s="13" t="s">
         <v>328</v>
       </c>
@@ -7545,62 +7543,62 @@
       <c r="E59" s="13"/>
       <c r="F59" s="13"/>
     </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:7">
       <c r="A60" t="s">
         <v>329</v>
       </c>
     </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:7">
       <c r="A61" t="s">
         <v>330</v>
       </c>
     </row>
-    <row r="62" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:7">
       <c r="A62" t="s">
         <v>331</v>
       </c>
     </row>
-    <row r="63" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:7">
       <c r="A63" t="s">
         <v>332</v>
       </c>
     </row>
-    <row r="64" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:7">
       <c r="A64" t="s">
         <v>333</v>
       </c>
     </row>
-    <row r="65" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:9">
       <c r="A65" t="s">
         <v>334</v>
       </c>
     </row>
-    <row r="66" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:9">
       <c r="A66" t="s">
         <v>335</v>
       </c>
     </row>
-    <row r="67" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:9">
       <c r="A67" t="s">
         <v>334</v>
       </c>
     </row>
-    <row r="68" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:9">
       <c r="A68" t="s">
         <v>336</v>
       </c>
     </row>
-    <row r="69" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:9">
       <c r="A69" t="s">
         <v>337</v>
       </c>
     </row>
-    <row r="70" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:9">
       <c r="A70" t="s">
         <v>338</v>
       </c>
     </row>
-    <row r="71" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:9">
       <c r="A71" t="s">
         <v>339</v>
       </c>
@@ -7608,7 +7606,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="72" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:9">
       <c r="A72" t="s">
         <v>340</v>
       </c>
@@ -7616,182 +7614,182 @@
         <v>372</v>
       </c>
     </row>
-    <row r="73" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:9">
       <c r="A73" t="s">
         <v>341</v>
       </c>
     </row>
-    <row r="74" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:9">
       <c r="A74" t="s">
         <v>342</v>
       </c>
     </row>
-    <row r="75" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:9">
       <c r="A75" t="s">
         <v>343</v>
       </c>
     </row>
-    <row r="76" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:9">
       <c r="A76" t="s">
         <v>344</v>
       </c>
     </row>
-    <row r="77" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:9">
       <c r="A77" t="s">
         <v>345</v>
       </c>
     </row>
-    <row r="78" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:9">
       <c r="A78" t="s">
         <v>341</v>
       </c>
     </row>
-    <row r="79" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:9">
       <c r="A79" t="s">
         <v>346</v>
       </c>
     </row>
-    <row r="80" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:9">
       <c r="A80" t="s">
         <v>347</v>
       </c>
     </row>
-    <row r="81" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:1">
       <c r="A81" t="s">
         <v>348</v>
       </c>
     </row>
-    <row r="82" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:1">
       <c r="A82" t="s">
         <v>349</v>
       </c>
     </row>
-    <row r="83" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:1">
       <c r="A83" t="s">
         <v>350</v>
       </c>
     </row>
-    <row r="84" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:1">
       <c r="A84" t="s">
         <v>351</v>
       </c>
     </row>
-    <row r="85" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:1">
       <c r="A85" t="s">
         <v>352</v>
       </c>
     </row>
-    <row r="86" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:1">
       <c r="A86" t="s">
         <v>348</v>
       </c>
     </row>
-    <row r="87" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:1">
       <c r="A87" t="s">
         <v>353</v>
       </c>
     </row>
-    <row r="88" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:1">
       <c r="A88" t="s">
         <v>354</v>
       </c>
     </row>
-    <row r="89" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:1">
       <c r="A89" t="s">
         <v>355</v>
       </c>
     </row>
-    <row r="90" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:1">
       <c r="A90" t="s">
         <v>356</v>
       </c>
     </row>
-    <row r="91" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:1">
       <c r="A91" t="s">
         <v>357</v>
       </c>
     </row>
-    <row r="92" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:1">
       <c r="A92" t="s">
         <v>358</v>
       </c>
     </row>
-    <row r="93" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:1">
       <c r="A93" t="s">
         <v>359</v>
       </c>
     </row>
-    <row r="94" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:1">
       <c r="A94" t="s">
         <v>360</v>
       </c>
     </row>
-    <row r="95" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:1">
       <c r="A95" t="s">
         <v>361</v>
       </c>
     </row>
-    <row r="96" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:1">
       <c r="A96" t="s">
         <v>362</v>
       </c>
     </row>
-    <row r="97" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:1">
       <c r="A97" t="s">
         <v>363</v>
       </c>
     </row>
-    <row r="98" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:1">
       <c r="A98" t="s">
         <v>351</v>
       </c>
     </row>
-    <row r="99" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:1">
       <c r="A99" t="s">
         <v>344</v>
       </c>
     </row>
-    <row r="100" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:1">
       <c r="A100" t="s">
         <v>364</v>
       </c>
     </row>
-    <row r="101" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:1">
       <c r="A101" t="s">
         <v>365</v>
       </c>
     </row>
-    <row r="102" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:1">
       <c r="A102" t="s">
         <v>338</v>
       </c>
     </row>
-    <row r="103" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:1">
       <c r="A103" t="s">
         <v>366</v>
       </c>
     </row>
-    <row r="104" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:1">
       <c r="A104" t="s">
         <v>367</v>
       </c>
     </row>
-    <row r="105" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:1">
       <c r="A105" t="s">
         <v>364</v>
       </c>
     </row>
-    <row r="107" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:1">
       <c r="A107" t="s">
         <v>368</v>
       </c>
     </row>
-    <row r="108" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:1">
       <c r="A108" t="s">
         <v>369</v>
       </c>
     </row>
-    <row r="109" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:1">
       <c r="A109" t="s">
         <v>370</v>
       </c>
@@ -7806,16 +7804,16 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:K105"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I6" sqref="I6"/>
+      <selection activeCell="I14" sqref="I14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9">
       <c r="A1" s="46" t="s">
         <v>375</v>
       </c>
@@ -7824,12 +7822,7 @@
       <c r="D1" s="46"/>
       <c r="E1" s="46"/>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="I2" t="s">
-        <v>388</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9">
       <c r="A3" s="41" t="s">
         <v>391</v>
       </c>
@@ -7840,10 +7833,10 @@
       <c r="F3" s="41"/>
       <c r="G3" s="41"/>
       <c r="I3" t="s">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9">
       <c r="A4" s="41" t="s">
         <v>378</v>
       </c>
@@ -7853,22 +7846,19 @@
       <c r="E4" s="41"/>
       <c r="F4" s="41"/>
       <c r="G4" s="41"/>
-      <c r="I4" t="s">
-        <v>390</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="5" spans="1:9">
       <c r="A5" s="41"/>
-      <c r="B5" s="41" t="s">
+      <c r="B5" s="5" t="s">
         <v>323</v>
       </c>
-      <c r="C5" s="41"/>
+      <c r="C5" s="5"/>
       <c r="D5" s="41"/>
       <c r="E5" s="41"/>
       <c r="F5" s="41"/>
       <c r="G5" s="41"/>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9">
       <c r="A6" s="41"/>
       <c r="B6" s="41" t="s">
         <v>378</v>
@@ -7879,7 +7869,7 @@
       <c r="F6" s="41"/>
       <c r="G6" s="41"/>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9">
       <c r="A7" s="41"/>
       <c r="B7" s="41"/>
       <c r="C7" s="41" t="s">
@@ -7890,7 +7880,7 @@
       <c r="F7" s="41"/>
       <c r="G7" s="41"/>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9">
       <c r="A8" s="41"/>
       <c r="B8" s="41"/>
       <c r="C8" s="41" t="s">
@@ -7901,7 +7891,7 @@
       <c r="F8" s="41"/>
       <c r="G8" s="41"/>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9">
       <c r="A9" s="41"/>
       <c r="B9" s="41"/>
       <c r="C9" s="41"/>
@@ -7912,7 +7902,7 @@
       <c r="F9" s="41"/>
       <c r="G9" s="41"/>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9">
       <c r="A10" s="41"/>
       <c r="B10" s="41"/>
       <c r="C10" s="41"/>
@@ -7923,7 +7913,7 @@
       <c r="F10" s="41"/>
       <c r="G10" s="41"/>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9">
       <c r="A11" s="41"/>
       <c r="B11" s="41"/>
       <c r="C11" s="41"/>
@@ -7934,7 +7924,7 @@
       <c r="F11" s="41"/>
       <c r="G11" s="41"/>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:9">
       <c r="A12" s="41"/>
       <c r="B12" s="41"/>
       <c r="C12" s="41"/>
@@ -7945,7 +7935,7 @@
       <c r="F12" s="41"/>
       <c r="G12" s="41"/>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:9">
       <c r="A13" s="41"/>
       <c r="B13" s="41"/>
       <c r="C13" s="41"/>
@@ -7956,7 +7946,7 @@
       <c r="F13" s="41"/>
       <c r="G13" s="41"/>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:9">
       <c r="A14" s="41"/>
       <c r="B14" s="41"/>
       <c r="C14" s="41"/>
@@ -7967,7 +7957,7 @@
       <c r="F14" s="41"/>
       <c r="G14" s="41"/>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:9">
       <c r="A15" s="41"/>
       <c r="B15" s="41"/>
       <c r="C15" s="41"/>
@@ -7978,7 +7968,7 @@
       <c r="F15" s="41"/>
       <c r="G15" s="41"/>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:9">
       <c r="A16" s="41"/>
       <c r="B16" s="41"/>
       <c r="C16" s="41"/>
@@ -7989,7 +7979,7 @@
       <c r="F16" s="41"/>
       <c r="G16" s="41"/>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:9">
       <c r="A17" s="41"/>
       <c r="B17" s="41"/>
       <c r="C17" s="41" t="s">
@@ -8000,7 +7990,7 @@
       <c r="F17" s="41"/>
       <c r="G17" s="41"/>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:9">
       <c r="A18" s="41"/>
       <c r="B18" s="41"/>
       <c r="C18" s="41" t="s">
@@ -8011,7 +8001,7 @@
       <c r="F18" s="41"/>
       <c r="G18" s="41"/>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:9">
       <c r="A19" s="41"/>
       <c r="B19" s="41"/>
       <c r="C19" s="41" t="s">
@@ -8022,7 +8012,7 @@
       <c r="F19" s="41"/>
       <c r="G19" s="41"/>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:9">
       <c r="A20" s="41"/>
       <c r="B20" s="41"/>
       <c r="C20" s="41"/>
@@ -8033,7 +8023,7 @@
       <c r="F20" s="41"/>
       <c r="G20" s="41"/>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:9">
       <c r="A21" s="41"/>
       <c r="B21" s="41"/>
       <c r="C21" s="41" t="s">
@@ -8044,7 +8034,7 @@
       <c r="F21" s="41"/>
       <c r="G21" s="41"/>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:9">
       <c r="A22" s="41"/>
       <c r="B22" s="41" t="s">
         <v>311</v>
@@ -8055,7 +8045,7 @@
       <c r="F22" s="41"/>
       <c r="G22" s="41"/>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:9">
       <c r="A23" s="41"/>
       <c r="B23" s="41" t="s">
         <v>381</v>
@@ -8066,7 +8056,7 @@
       <c r="F23" s="41"/>
       <c r="G23" s="41"/>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:9">
       <c r="A24" s="41"/>
       <c r="B24" s="41" t="s">
         <v>378</v>
@@ -8077,7 +8067,7 @@
       <c r="F24" s="41"/>
       <c r="G24" s="41"/>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:9">
       <c r="A25" s="41"/>
       <c r="B25" s="41"/>
       <c r="C25" s="41" t="s">
@@ -8088,7 +8078,7 @@
       <c r="F25" s="41"/>
       <c r="G25" s="41"/>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:9">
       <c r="A26" s="41"/>
       <c r="B26" s="41" t="s">
         <v>311</v>
@@ -8099,7 +8089,7 @@
       <c r="F26" s="41"/>
       <c r="G26" s="41"/>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:9">
       <c r="A27" s="41" t="s">
         <v>311</v>
       </c>
@@ -8110,7 +8100,7 @@
       <c r="F27" s="41"/>
       <c r="G27" s="41"/>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:9">
       <c r="A28" s="41"/>
       <c r="B28" s="41"/>
       <c r="C28" s="41"/>
@@ -8119,7 +8109,7 @@
       <c r="F28" s="41"/>
       <c r="G28" s="41"/>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:9">
       <c r="A29" s="41" t="s">
         <v>394</v>
       </c>
@@ -8129,8 +8119,11 @@
       <c r="E29" s="41"/>
       <c r="F29" s="41"/>
       <c r="G29" s="41"/>
-    </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I29" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9">
       <c r="A30" s="41" t="s">
         <v>378</v>
       </c>
@@ -8141,7 +8134,7 @@
       <c r="F30" s="41"/>
       <c r="G30" s="41"/>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:9">
       <c r="A31" s="41"/>
       <c r="B31" s="41" t="s">
         <v>395</v>
@@ -8152,7 +8145,7 @@
       <c r="F31" s="41"/>
       <c r="G31" s="41"/>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:9">
       <c r="A32" s="41"/>
       <c r="B32" s="41"/>
       <c r="C32" s="41"/>
@@ -8161,9 +8154,9 @@
       <c r="F32" s="41"/>
       <c r="G32" s="41"/>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:7">
       <c r="A33" s="41"/>
-      <c r="B33" s="41" t="s">
+      <c r="B33" s="5" t="s">
         <v>396</v>
       </c>
       <c r="C33" s="41"/>
@@ -8172,7 +8165,7 @@
       <c r="F33" s="41"/>
       <c r="G33" s="41"/>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:7">
       <c r="A34" s="41"/>
       <c r="B34" s="41" t="s">
         <v>378</v>
@@ -8183,10 +8176,10 @@
       <c r="F34" s="41"/>
       <c r="G34" s="41"/>
     </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:7">
       <c r="A35" s="41"/>
       <c r="B35" s="41"/>
-      <c r="C35" s="41" t="s">
+      <c r="C35" s="5" t="s">
         <v>397</v>
       </c>
       <c r="D35" s="41"/>
@@ -8194,7 +8187,7 @@
       <c r="F35" s="41"/>
       <c r="G35" s="41"/>
     </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:7">
       <c r="A36" s="41"/>
       <c r="B36" s="41"/>
       <c r="C36" s="41" t="s">
@@ -8205,7 +8198,7 @@
       <c r="F36" s="41"/>
       <c r="G36" s="41"/>
     </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:7">
       <c r="A37" s="41"/>
       <c r="B37" s="41"/>
       <c r="C37" s="41"/>
@@ -8216,7 +8209,7 @@
       <c r="F37" s="41"/>
       <c r="G37" s="41"/>
     </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:7">
       <c r="A38" s="41"/>
       <c r="B38" s="41"/>
       <c r="C38" s="41" t="s">
@@ -8227,7 +8220,7 @@
       <c r="F38" s="41"/>
       <c r="G38" s="41"/>
     </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:7">
       <c r="A39" s="41"/>
       <c r="B39" s="41"/>
       <c r="C39" s="41" t="s">
@@ -8238,7 +8231,7 @@
       <c r="F39" s="41"/>
       <c r="G39" s="41"/>
     </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:7">
       <c r="A40" s="41"/>
       <c r="B40" s="41"/>
       <c r="C40" s="41" t="s">
@@ -8249,7 +8242,7 @@
       <c r="F40" s="41"/>
       <c r="G40" s="41"/>
     </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:7">
       <c r="A41" s="41"/>
       <c r="B41" s="41"/>
       <c r="C41" s="41"/>
@@ -8260,7 +8253,7 @@
       <c r="F41" s="41"/>
       <c r="G41" s="41"/>
     </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:7">
       <c r="A42" s="41"/>
       <c r="B42" s="41"/>
       <c r="C42" s="41" t="s">
@@ -8271,7 +8264,7 @@
       <c r="F42" s="41"/>
       <c r="G42" s="41"/>
     </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:7">
       <c r="A43" s="41"/>
       <c r="B43" s="41"/>
       <c r="C43" s="41" t="s">
@@ -8282,7 +8275,7 @@
       <c r="F43" s="41"/>
       <c r="G43" s="41"/>
     </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:7">
       <c r="A44" s="41"/>
       <c r="B44" s="41" t="s">
         <v>398</v>
@@ -8293,7 +8286,7 @@
       <c r="F44" s="41"/>
       <c r="G44" s="41"/>
     </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:7">
       <c r="A45" s="41"/>
       <c r="B45" s="41"/>
       <c r="C45" s="41"/>
@@ -8302,7 +8295,7 @@
       <c r="F45" s="41"/>
       <c r="G45" s="41"/>
     </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:7">
       <c r="A46" s="41"/>
       <c r="B46" s="41" t="s">
         <v>399</v>
@@ -8313,7 +8306,7 @@
       <c r="F46" s="41"/>
       <c r="G46" s="41"/>
     </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:7">
       <c r="A47" s="41"/>
       <c r="B47" s="41" t="s">
         <v>400</v>
@@ -8324,7 +8317,7 @@
       <c r="F47" s="41"/>
       <c r="G47" s="41"/>
     </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:7">
       <c r="A48" s="41"/>
       <c r="B48" s="41"/>
       <c r="C48" s="41" t="s">
@@ -8335,7 +8328,7 @@
       <c r="F48" s="41"/>
       <c r="G48" s="41"/>
     </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:7">
       <c r="A49" s="41"/>
       <c r="B49" s="41" t="s">
         <v>398</v>
@@ -8346,7 +8339,7 @@
       <c r="F49" s="41"/>
       <c r="G49" s="41"/>
     </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:7">
       <c r="A50" s="41"/>
       <c r="B50" s="41" t="s">
         <v>401</v>
@@ -8357,7 +8350,7 @@
       <c r="F50" s="41"/>
       <c r="G50" s="41"/>
     </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:7">
       <c r="A51" s="41"/>
       <c r="B51" s="41" t="s">
         <v>378</v>
@@ -8368,18 +8361,18 @@
       <c r="F51" s="41"/>
       <c r="G51" s="41"/>
     </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:7">
       <c r="A52" s="41"/>
       <c r="B52" s="41"/>
-      <c r="C52" s="41" t="s">
+      <c r="C52" s="5" t="s">
         <v>402</v>
       </c>
-      <c r="D52" s="41"/>
-      <c r="E52" s="41"/>
+      <c r="D52" s="5"/>
+      <c r="E52" s="5"/>
       <c r="F52" s="41"/>
       <c r="G52" s="41"/>
     </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:7">
       <c r="A53" s="41"/>
       <c r="B53" s="41"/>
       <c r="C53" s="41" t="s">
@@ -8390,7 +8383,7 @@
       <c r="F53" s="41"/>
       <c r="G53" s="41"/>
     </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:7">
       <c r="A54" s="41"/>
       <c r="B54" s="41"/>
       <c r="C54" s="41"/>
@@ -8401,7 +8394,7 @@
       <c r="F54" s="41"/>
       <c r="G54" s="41"/>
     </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:7">
       <c r="A55" s="41"/>
       <c r="B55" s="41"/>
       <c r="C55" s="41"/>
@@ -8412,7 +8405,7 @@
       <c r="F55" s="41"/>
       <c r="G55" s="41"/>
     </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:7">
       <c r="A56" s="41"/>
       <c r="B56" s="41"/>
       <c r="C56" s="41" t="s">
@@ -8423,7 +8416,7 @@
       <c r="F56" s="41"/>
       <c r="G56" s="41"/>
     </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:7">
       <c r="A57" s="41"/>
       <c r="B57" s="41"/>
       <c r="C57" s="41" t="s">
@@ -8434,7 +8427,7 @@
       <c r="F57" s="41"/>
       <c r="G57" s="41"/>
     </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:7">
       <c r="A58" s="41"/>
       <c r="B58" s="41"/>
       <c r="C58" s="41" t="s">
@@ -8445,7 +8438,7 @@
       <c r="F58" s="41"/>
       <c r="G58" s="41"/>
     </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:7">
       <c r="A59" s="41"/>
       <c r="B59" s="41"/>
       <c r="C59" s="41"/>
@@ -8456,7 +8449,7 @@
       <c r="F59" s="41"/>
       <c r="G59" s="41"/>
     </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:7">
       <c r="A60" s="41"/>
       <c r="B60" s="41"/>
       <c r="C60" s="41"/>
@@ -8467,7 +8460,7 @@
       <c r="F60" s="41"/>
       <c r="G60" s="41"/>
     </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:7">
       <c r="A61" s="41"/>
       <c r="B61" s="41"/>
       <c r="C61" s="41"/>
@@ -8478,7 +8471,7 @@
       <c r="F61" s="41"/>
       <c r="G61" s="41"/>
     </row>
-    <row r="62" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:7">
       <c r="A62" s="41"/>
       <c r="B62" s="41"/>
       <c r="C62" s="41" t="s">
@@ -8489,7 +8482,7 @@
       <c r="F62" s="41"/>
       <c r="G62" s="41"/>
     </row>
-    <row r="63" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:7">
       <c r="A63" s="41"/>
       <c r="B63" s="41" t="s">
         <v>311</v>
@@ -8500,7 +8493,7 @@
       <c r="F63" s="41"/>
       <c r="G63" s="41"/>
     </row>
-    <row r="64" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:7">
       <c r="A64" s="41" t="s">
         <v>311</v>
       </c>
@@ -8511,7 +8504,7 @@
       <c r="F64" s="41"/>
       <c r="G64" s="41"/>
     </row>
-    <row r="65" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:9">
       <c r="A65" s="41"/>
       <c r="B65" s="41"/>
       <c r="C65" s="41"/>
@@ -8520,7 +8513,7 @@
       <c r="F65" s="41"/>
       <c r="G65" s="41"/>
     </row>
-    <row r="66" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:9">
       <c r="A66" s="41" t="s">
         <v>407</v>
       </c>
@@ -8530,8 +8523,11 @@
       <c r="E66" s="41"/>
       <c r="F66" s="41"/>
       <c r="G66" s="41"/>
-    </row>
-    <row r="67" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I66" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="67" spans="1:9">
       <c r="A67" s="41" t="s">
         <v>378</v>
       </c>
@@ -8542,7 +8538,7 @@
       <c r="F67" s="41"/>
       <c r="G67" s="41"/>
     </row>
-    <row r="68" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:9">
       <c r="A68" s="41"/>
       <c r="B68" s="41" t="s">
         <v>376</v>
@@ -8553,7 +8549,7 @@
       <c r="F68" s="41"/>
       <c r="G68" s="41"/>
     </row>
-    <row r="69" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:9">
       <c r="A69" s="41"/>
       <c r="B69" s="41"/>
       <c r="C69" s="41"/>
@@ -8562,7 +8558,7 @@
       <c r="F69" s="41"/>
       <c r="G69" s="41"/>
     </row>
-    <row r="70" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:9">
       <c r="A70" s="41"/>
       <c r="B70" s="41" t="s">
         <v>377</v>
@@ -8573,7 +8569,7 @@
       <c r="F70" s="41"/>
       <c r="G70" s="41"/>
     </row>
-    <row r="71" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:9">
       <c r="A71" s="41"/>
       <c r="B71" s="41" t="s">
         <v>378</v>
@@ -8584,18 +8580,18 @@
       <c r="F71" s="41"/>
       <c r="G71" s="41"/>
     </row>
-    <row r="72" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:9">
       <c r="A72" s="41"/>
       <c r="B72" s="41"/>
-      <c r="C72" s="41" t="s">
+      <c r="C72" s="5" t="s">
         <v>379</v>
       </c>
-      <c r="D72" s="41"/>
+      <c r="D72" s="5"/>
       <c r="E72" s="41"/>
       <c r="F72" s="41"/>
       <c r="G72" s="41"/>
     </row>
-    <row r="73" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:9">
       <c r="A73" s="41"/>
       <c r="B73" s="41"/>
       <c r="C73" s="41" t="s">
@@ -8606,7 +8602,7 @@
       <c r="F73" s="41"/>
       <c r="G73" s="41"/>
     </row>
-    <row r="74" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:9">
       <c r="A74" s="41"/>
       <c r="B74" s="41"/>
       <c r="C74" s="41"/>
@@ -8617,7 +8613,7 @@
       <c r="F74" s="41"/>
       <c r="G74" s="41"/>
     </row>
-    <row r="75" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:9">
       <c r="A75" s="41"/>
       <c r="B75" s="41"/>
       <c r="C75" s="41" t="s">
@@ -8628,7 +8624,7 @@
       <c r="F75" s="41"/>
       <c r="G75" s="41"/>
     </row>
-    <row r="76" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:9">
       <c r="A76" s="41"/>
       <c r="B76" s="41"/>
       <c r="C76" s="41" t="s">
@@ -8639,7 +8635,7 @@
       <c r="F76" s="41"/>
       <c r="G76" s="41"/>
     </row>
-    <row r="77" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:9">
       <c r="A77" s="41"/>
       <c r="B77" s="41"/>
       <c r="C77" s="41" t="s">
@@ -8650,18 +8646,18 @@
       <c r="F77" s="41"/>
       <c r="G77" s="41"/>
     </row>
-    <row r="78" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:9">
       <c r="A78" s="41"/>
       <c r="B78" s="41"/>
       <c r="C78" s="41"/>
-      <c r="D78" s="41" t="s">
+      <c r="D78" s="5" t="s">
         <v>382</v>
       </c>
-      <c r="E78" s="41"/>
-      <c r="F78" s="41"/>
+      <c r="E78" s="5"/>
+      <c r="F78" s="5"/>
       <c r="G78" s="41"/>
     </row>
-    <row r="79" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:9">
       <c r="A79" s="41"/>
       <c r="B79" s="41"/>
       <c r="C79" s="41"/>
@@ -8672,7 +8668,7 @@
       <c r="F79" s="41"/>
       <c r="G79" s="41"/>
     </row>
-    <row r="80" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:9">
       <c r="A80" s="41"/>
       <c r="B80" s="41"/>
       <c r="C80" s="41"/>
@@ -8683,7 +8679,7 @@
       <c r="F80" s="41"/>
       <c r="G80" s="41"/>
     </row>
-    <row r="81" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:7">
       <c r="A81" s="41"/>
       <c r="B81" s="41"/>
       <c r="C81" s="41"/>
@@ -8694,7 +8690,7 @@
       <c r="F81" s="41"/>
       <c r="G81" s="41"/>
     </row>
-    <row r="82" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:7">
       <c r="A82" s="41"/>
       <c r="B82" s="41"/>
       <c r="C82" s="41"/>
@@ -8705,7 +8701,7 @@
       <c r="F82" s="41"/>
       <c r="G82" s="41"/>
     </row>
-    <row r="83" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:7">
       <c r="A83" s="41"/>
       <c r="B83" s="41"/>
       <c r="C83" s="41"/>
@@ -8716,7 +8712,7 @@
       <c r="F83" s="41"/>
       <c r="G83" s="41"/>
     </row>
-    <row r="84" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:7">
       <c r="A84" s="41"/>
       <c r="B84" s="41"/>
       <c r="C84" s="41"/>
@@ -8727,7 +8723,7 @@
       <c r="F84" s="41"/>
       <c r="G84" s="41"/>
     </row>
-    <row r="85" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:7">
       <c r="A85" s="41"/>
       <c r="B85" s="41"/>
       <c r="C85" s="41"/>
@@ -8738,7 +8734,7 @@
       <c r="F85" s="41"/>
       <c r="G85" s="41"/>
     </row>
-    <row r="86" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:7">
       <c r="A86" s="41"/>
       <c r="B86" s="41"/>
       <c r="C86" s="41" t="s">
@@ -8749,7 +8745,7 @@
       <c r="F86" s="41"/>
       <c r="G86" s="41"/>
     </row>
-    <row r="87" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:7">
       <c r="A87" s="41"/>
       <c r="B87" s="41" t="s">
         <v>311</v>
@@ -8760,7 +8756,7 @@
       <c r="F87" s="41"/>
       <c r="G87" s="41"/>
     </row>
-    <row r="88" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:7">
       <c r="A88" s="41"/>
       <c r="B88" s="41" t="s">
         <v>381</v>
@@ -8771,7 +8767,7 @@
       <c r="F88" s="41"/>
       <c r="G88" s="41"/>
     </row>
-    <row r="89" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:7">
       <c r="A89" s="41"/>
       <c r="B89" s="41" t="s">
         <v>378</v>
@@ -8782,7 +8778,7 @@
       <c r="F89" s="41"/>
       <c r="G89" s="41"/>
     </row>
-    <row r="90" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:7">
       <c r="A90" s="41"/>
       <c r="B90" s="41"/>
       <c r="C90" s="41" t="s">
@@ -8793,7 +8789,7 @@
       <c r="F90" s="41"/>
       <c r="G90" s="41"/>
     </row>
-    <row r="91" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:7">
       <c r="A91" s="41"/>
       <c r="B91" s="41" t="s">
         <v>311</v>
@@ -8804,7 +8800,7 @@
       <c r="F91" s="41"/>
       <c r="G91" s="41"/>
     </row>
-    <row r="92" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:7">
       <c r="A92" s="41"/>
       <c r="B92" s="41"/>
       <c r="C92" s="41"/>
@@ -8813,7 +8809,7 @@
       <c r="F92" s="41"/>
       <c r="G92" s="41"/>
     </row>
-    <row r="93" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:7">
       <c r="A93" s="41"/>
       <c r="B93" s="41" t="s">
         <v>408</v>
@@ -8824,7 +8820,7 @@
       <c r="F93" s="41"/>
       <c r="G93" s="41"/>
     </row>
-    <row r="94" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:7">
       <c r="A94" s="41" t="s">
         <v>311</v>
       </c>
@@ -8835,7 +8831,7 @@
       <c r="F94" s="41"/>
       <c r="G94" s="41"/>
     </row>
-    <row r="97" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:11">
       <c r="A97" s="41"/>
       <c r="B97" s="41"/>
       <c r="C97" s="41"/>
@@ -8844,7 +8840,7 @@
       <c r="F97" s="41"/>
       <c r="G97" s="41"/>
     </row>
-    <row r="105" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:11">
       <c r="A105" s="41"/>
       <c r="B105" s="41"/>
       <c r="C105" s="41"/>

--- a/CFT4CUnitSrc/src/report/GAReport.xlsx
+++ b/CFT4CUnitSrc/src/report/GAReport.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="1125" windowWidth="14805" windowHeight="6780" tabRatio="940" activeTab="4"/>
@@ -1273,11 +1273,11 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.000000000"/>
   </numFmts>
-  <fonts count="6">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -4792,6 +4792,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -4826,6 +4827,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -5001,7 +5003,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:AP158"/>
   <sheetViews>
@@ -5009,29 +5011,29 @@
       <selection activeCell="F147" sqref="F147"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="10.7109375" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="10.140625" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="9.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" s="18">
         <v>42502</v>
       </c>
     </row>
-    <row r="2" spans="1:10">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
         <v>168</v>
       </c>
     </row>
-    <row r="3" spans="1:10">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="C3" t="s">
         <v>169</v>
       </c>
     </row>
-    <row r="4" spans="1:10">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="C4" t="s">
         <v>180</v>
       </c>
@@ -5039,17 +5041,17 @@
         <v>181</v>
       </c>
     </row>
-    <row r="5" spans="1:10">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="J5" t="s">
         <v>182</v>
       </c>
     </row>
-    <row r="6" spans="1:10">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
         <v>171</v>
       </c>
     </row>
-    <row r="7" spans="1:10">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
         <v>179</v>
       </c>
@@ -5057,7 +5059,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="8" spans="1:10">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
         <v>179</v>
       </c>
@@ -5065,32 +5067,32 @@
         <v>176</v>
       </c>
     </row>
-    <row r="9" spans="1:10">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="C9" t="s">
         <v>172</v>
       </c>
     </row>
-    <row r="10" spans="1:10">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="C10" t="s">
         <v>173</v>
       </c>
     </row>
-    <row r="11" spans="1:10">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="C11" t="s">
         <v>174</v>
       </c>
     </row>
-    <row r="13" spans="1:10">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="C13" s="1" t="s">
         <v>177</v>
       </c>
     </row>
-    <row r="14" spans="1:10">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="C14" s="1" t="s">
         <v>178</v>
       </c>
     </row>
-    <row r="17" spans="1:17">
+    <row r="17" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A17" s="18">
         <v>42499</v>
       </c>
@@ -5098,7 +5100,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:17">
+    <row r="18" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B18" t="s">
         <v>160</v>
       </c>
@@ -5106,7 +5108,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="19" spans="1:17">
+    <row r="19" spans="1:17" x14ac:dyDescent="0.25">
       <c r="C19" t="s">
         <v>161</v>
       </c>
@@ -5114,7 +5116,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="20" spans="1:17">
+    <row r="20" spans="1:17" x14ac:dyDescent="0.25">
       <c r="C20" t="s">
         <v>162</v>
       </c>
@@ -5122,12 +5124,12 @@
         <v>166</v>
       </c>
     </row>
-    <row r="21" spans="1:17">
+    <row r="21" spans="1:17" x14ac:dyDescent="0.25">
       <c r="C21" t="s">
         <v>167</v>
       </c>
     </row>
-    <row r="22" spans="1:17">
+    <row r="22" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B22" t="s">
         <v>164</v>
       </c>
@@ -5138,7 +5140,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="24" spans="1:17">
+    <row r="24" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A24" s="18">
         <v>42496</v>
       </c>
@@ -5152,7 +5154,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="25" spans="1:17">
+    <row r="25" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B25" t="s">
         <v>137</v>
       </c>
@@ -5160,7 +5162,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="26" spans="1:17">
+    <row r="26" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B26" t="s">
         <v>135</v>
       </c>
@@ -5171,7 +5173,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="28" spans="1:17">
+    <row r="28" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B28" t="s">
         <v>136</v>
       </c>
@@ -5182,12 +5184,12 @@
         <v>152</v>
       </c>
     </row>
-    <row r="29" spans="1:17">
+    <row r="29" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B29" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="30" spans="1:17">
+    <row r="30" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B30" t="s">
         <v>139</v>
       </c>
@@ -5195,12 +5197,12 @@
         <v>153</v>
       </c>
     </row>
-    <row r="32" spans="1:17">
+    <row r="32" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B32" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="33" spans="2:16">
+    <row r="33" spans="2:16" x14ac:dyDescent="0.25">
       <c r="C33" t="s">
         <v>140</v>
       </c>
@@ -5208,7 +5210,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="34" spans="2:16">
+    <row r="34" spans="2:16" x14ac:dyDescent="0.25">
       <c r="C34" t="s">
         <v>141</v>
       </c>
@@ -5216,7 +5218,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="36" spans="2:16">
+    <row r="36" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B36" t="s">
         <v>142</v>
       </c>
@@ -5224,47 +5226,47 @@
         <v>159</v>
       </c>
     </row>
-    <row r="38" spans="2:16">
+    <row r="38" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B38" t="s">
         <v>143</v>
       </c>
     </row>
-    <row r="39" spans="2:16">
+    <row r="39" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B39" t="s">
         <v>144</v>
       </c>
     </row>
-    <row r="41" spans="2:16">
+    <row r="41" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B41" t="s">
         <v>146</v>
       </c>
     </row>
-    <row r="42" spans="2:16">
+    <row r="42" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B42" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="43" spans="2:16">
+    <row r="43" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B43" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="45" spans="2:16">
+    <row r="45" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B45" t="s">
         <v>148</v>
       </c>
     </row>
-    <row r="50" spans="1:10">
+    <row r="50" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A50" s="18">
         <v>42494</v>
       </c>
     </row>
-    <row r="51" spans="1:10">
+    <row r="51" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B51" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="52" spans="1:10">
+    <row r="52" spans="1:10" x14ac:dyDescent="0.25">
       <c r="C52" t="s">
         <v>1</v>
       </c>
@@ -5272,7 +5274,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="54" spans="1:10">
+    <row r="54" spans="1:10" x14ac:dyDescent="0.25">
       <c r="C54" s="5" t="s">
         <v>3</v>
       </c>
@@ -5280,44 +5282,44 @@
         <v>123</v>
       </c>
     </row>
-    <row r="55" spans="1:10">
+    <row r="55" spans="1:10" x14ac:dyDescent="0.25">
       <c r="D55" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="56" spans="1:10">
+    <row r="56" spans="1:10" x14ac:dyDescent="0.25">
       <c r="E56" s="25" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="57" spans="1:10">
+    <row r="57" spans="1:10" x14ac:dyDescent="0.25">
       <c r="E57" s="25"/>
     </row>
-    <row r="58" spans="1:10">
+    <row r="58" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B58" s="5" t="s">
         <v>134</v>
       </c>
       <c r="E58" s="25"/>
     </row>
-    <row r="59" spans="1:10">
+    <row r="59" spans="1:10" x14ac:dyDescent="0.25">
       <c r="C59" t="s">
         <v>124</v>
       </c>
       <c r="E59" s="25"/>
     </row>
-    <row r="60" spans="1:10">
+    <row r="60" spans="1:10" x14ac:dyDescent="0.25">
       <c r="C60" t="s">
         <v>125</v>
       </c>
       <c r="E60" s="25"/>
     </row>
-    <row r="61" spans="1:10">
+    <row r="61" spans="1:10" x14ac:dyDescent="0.25">
       <c r="D61" t="s">
         <v>126</v>
       </c>
       <c r="E61" s="25"/>
     </row>
-    <row r="62" spans="1:10">
+    <row r="62" spans="1:10" x14ac:dyDescent="0.25">
       <c r="E62" s="26" t="s">
         <v>127</v>
       </c>
@@ -5328,7 +5330,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="63" spans="1:10">
+    <row r="63" spans="1:10" x14ac:dyDescent="0.25">
       <c r="E63" s="27">
         <v>1.1000000000000001</v>
       </c>
@@ -5339,7 +5341,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="64" spans="1:10">
+    <row r="64" spans="1:10" x14ac:dyDescent="0.25">
       <c r="E64" s="27">
         <v>1.1100000000000001</v>
       </c>
@@ -5356,7 +5358,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="65" spans="1:7">
+    <row r="65" spans="1:7" x14ac:dyDescent="0.25">
       <c r="E65" s="27">
         <v>1.3</v>
       </c>
@@ -5367,21 +5369,21 @@
         <v>1</v>
       </c>
     </row>
-    <row r="66" spans="1:7">
+    <row r="66" spans="1:7" x14ac:dyDescent="0.25">
       <c r="D66" t="s">
         <v>132</v>
       </c>
       <c r="E66" s="27"/>
     </row>
-    <row r="67" spans="1:7">
+    <row r="67" spans="1:7" x14ac:dyDescent="0.25">
       <c r="E67" s="27" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="68" spans="1:7">
+    <row r="68" spans="1:7" x14ac:dyDescent="0.25">
       <c r="E68" s="27"/>
     </row>
-    <row r="69" spans="1:7">
+    <row r="69" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C69" t="s">
         <v>5</v>
       </c>
@@ -5389,57 +5391,57 @@
         <v>116</v>
       </c>
     </row>
-    <row r="71" spans="1:7">
+    <row r="71" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B71" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="72" spans="1:7">
+    <row r="72" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B72" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="74" spans="1:7">
+    <row r="74" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B74" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="75" spans="1:7">
+    <row r="75" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B75" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="77" spans="1:7">
+    <row r="77" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A77" s="18">
         <v>42488</v>
       </c>
     </row>
-    <row r="78" spans="1:7">
+    <row r="78" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B78" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="79" spans="1:7">
+    <row r="79" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C79" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="80" spans="1:7">
+    <row r="80" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C80" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="81" spans="1:42">
+    <row r="81" spans="1:42" x14ac:dyDescent="0.25">
       <c r="C81" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="82" spans="1:42">
+    <row r="82" spans="1:42" x14ac:dyDescent="0.25">
       <c r="C82" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="83" spans="1:42">
+    <row r="83" spans="1:42" x14ac:dyDescent="0.25">
       <c r="B83" s="5" t="s">
         <v>113</v>
       </c>
@@ -5452,12 +5454,12 @@
       <c r="I83" s="5"/>
       <c r="J83" s="5"/>
     </row>
-    <row r="85" spans="1:42">
+    <row r="85" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="87" spans="1:42">
+    <row r="87" spans="1:42" x14ac:dyDescent="0.25">
       <c r="B87" t="s">
         <v>1</v>
       </c>
@@ -5465,7 +5467,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="89" spans="1:42">
+    <row r="89" spans="1:42" x14ac:dyDescent="0.25">
       <c r="B89" t="s">
         <v>3</v>
       </c>
@@ -5473,12 +5475,12 @@
         <v>6</v>
       </c>
     </row>
-    <row r="90" spans="1:42">
+    <row r="90" spans="1:42" x14ac:dyDescent="0.25">
       <c r="C90" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="92" spans="1:42">
+    <row r="92" spans="1:42" x14ac:dyDescent="0.25">
       <c r="B92" t="s">
         <v>5</v>
       </c>
@@ -5486,12 +5488,12 @@
         <v>8</v>
       </c>
     </row>
-    <row r="93" spans="1:42">
+    <row r="93" spans="1:42" x14ac:dyDescent="0.25">
       <c r="C93" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="94" spans="1:42">
+    <row r="94" spans="1:42" x14ac:dyDescent="0.25">
       <c r="C94" s="6" t="s">
         <v>52</v>
       </c>
@@ -5525,7 +5527,7 @@
         <v>42483</v>
       </c>
     </row>
-    <row r="95" spans="1:42">
+    <row r="95" spans="1:42" x14ac:dyDescent="0.25">
       <c r="C95" s="6" t="s">
         <v>53</v>
       </c>
@@ -5557,7 +5559,7 @@
       <c r="AO95" s="5"/>
       <c r="AP95" s="5"/>
     </row>
-    <row r="96" spans="1:42">
+    <row r="96" spans="1:42" x14ac:dyDescent="0.25">
       <c r="C96" t="s">
         <v>14</v>
       </c>
@@ -5571,29 +5573,29 @@
       <c r="AO96" s="5"/>
       <c r="AP96" s="5"/>
     </row>
-    <row r="97" spans="2:11">
+    <row r="97" spans="2:11" x14ac:dyDescent="0.25">
       <c r="C97" s="1"/>
       <c r="D97" s="1" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="98" spans="2:11">
+    <row r="98" spans="2:11" x14ac:dyDescent="0.25">
       <c r="C98" s="1"/>
       <c r="D98" s="1" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="100" spans="2:11">
+    <row r="100" spans="2:11" x14ac:dyDescent="0.25">
       <c r="C100" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="101" spans="2:11">
+    <row r="101" spans="2:11" x14ac:dyDescent="0.25">
       <c r="C101" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="103" spans="2:11">
+    <row r="103" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B103" t="s">
         <v>7</v>
       </c>
@@ -5601,12 +5603,12 @@
         <v>16</v>
       </c>
     </row>
-    <row r="105" spans="2:11">
+    <row r="105" spans="2:11" x14ac:dyDescent="0.25">
       <c r="C105" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="107" spans="2:11">
+    <row r="107" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B107" t="s">
         <v>17</v>
       </c>
@@ -5614,7 +5616,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="108" spans="2:11">
+    <row r="108" spans="2:11" x14ac:dyDescent="0.25">
       <c r="D108" s="5" t="s">
         <v>50</v>
       </c>
@@ -5632,7 +5634,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="109" spans="2:11">
+    <row r="109" spans="2:11" x14ac:dyDescent="0.25">
       <c r="C109" t="s">
         <v>19</v>
       </c>
@@ -5640,12 +5642,12 @@
         <v>20</v>
       </c>
     </row>
-    <row r="110" spans="2:11">
+    <row r="110" spans="2:11" x14ac:dyDescent="0.25">
       <c r="D110" s="3" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="112" spans="2:11">
+    <row r="112" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B112" t="s">
         <v>22</v>
       </c>
@@ -5653,12 +5655,12 @@
         <v>21</v>
       </c>
     </row>
-    <row r="114" spans="1:24">
+    <row r="114" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="115" spans="1:24">
+    <row r="115" spans="1:24" x14ac:dyDescent="0.25">
       <c r="B115" t="s">
         <v>48</v>
       </c>
@@ -5680,7 +5682,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="116" spans="1:24">
+    <row r="116" spans="1:24" x14ac:dyDescent="0.25">
       <c r="B116" t="s">
         <v>46</v>
       </c>
@@ -5694,7 +5696,7 @@
         <v>42480</v>
       </c>
     </row>
-    <row r="117" spans="1:24">
+    <row r="117" spans="1:24" x14ac:dyDescent="0.25">
       <c r="B117" t="s">
         <v>49</v>
       </c>
@@ -5708,14 +5710,14 @@
         <v>42480</v>
       </c>
     </row>
-    <row r="118" spans="1:24">
+    <row r="118" spans="1:24" x14ac:dyDescent="0.25">
       <c r="M118" s="6"/>
       <c r="N118" s="6"/>
       <c r="O118" s="6"/>
       <c r="P118" s="6"/>
       <c r="S118" s="8"/>
     </row>
-    <row r="119" spans="1:24">
+    <row r="119" spans="1:24" x14ac:dyDescent="0.25">
       <c r="F119" s="9" t="s">
         <v>69</v>
       </c>
@@ -5728,7 +5730,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="120" spans="1:24">
+    <row r="120" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
         <v>47</v>
       </c>
@@ -5751,7 +5753,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="121" spans="1:24">
+    <row r="121" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A121" s="4" t="s">
         <v>23</v>
       </c>
@@ -5771,7 +5773,7 @@
       <c r="O121" s="4"/>
       <c r="P121" s="4"/>
     </row>
-    <row r="122" spans="1:24">
+    <row r="122" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A122" s="4" t="s">
         <v>24</v>
       </c>
@@ -5791,7 +5793,7 @@
       <c r="O122" s="4"/>
       <c r="P122" s="4"/>
     </row>
-    <row r="123" spans="1:24">
+    <row r="123" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
         <v>25</v>
       </c>
@@ -5811,12 +5813,12 @@
       </c>
       <c r="V123" s="9"/>
     </row>
-    <row r="124" spans="1:24">
+    <row r="124" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="125" spans="1:24">
+    <row r="125" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A125" s="4" t="s">
         <v>42</v>
       </c>
@@ -5836,7 +5838,7 @@
       <c r="O125" s="4"/>
       <c r="P125" s="4"/>
     </row>
-    <row r="126" spans="1:24">
+    <row r="126" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A126" s="4" t="s">
         <v>27</v>
       </c>
@@ -5856,12 +5858,12 @@
       <c r="O126" s="4"/>
       <c r="P126" s="4"/>
     </row>
-    <row r="127" spans="1:24">
+    <row r="127" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="128" spans="1:24">
+    <row r="128" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A128" s="4" t="s">
         <v>45</v>
       </c>
@@ -5881,83 +5883,83 @@
       <c r="O128" s="4"/>
       <c r="P128" s="4"/>
     </row>
-    <row r="129" spans="1:2">
+    <row r="129" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="130" spans="1:2">
+    <row r="130" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="131" spans="1:2">
+    <row r="131" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="132" spans="1:2">
+    <row r="132" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="133" spans="1:2">
+    <row r="133" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="134" spans="1:2">
+    <row r="134" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="135" spans="1:2">
+    <row r="135" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="136" spans="1:2">
+    <row r="136" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="137" spans="1:2">
+    <row r="137" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="138" spans="1:2">
+    <row r="138" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="139" spans="1:2">
+    <row r="139" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="140" spans="1:2">
+    <row r="140" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="141" spans="1:2">
+    <row r="141" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="144" spans="1:2">
+    <row r="144" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A144" s="13" t="s">
         <v>70</v>
       </c>
       <c r="B144" s="13"/>
     </row>
-    <row r="145" spans="2:11">
+    <row r="145" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B145" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="146" spans="2:11">
+    <row r="146" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B146" s="5" t="s">
         <v>80</v>
       </c>
@@ -5967,32 +5969,32 @@
       <c r="D146" s="5"/>
       <c r="E146" s="5"/>
     </row>
-    <row r="147" spans="2:11">
+    <row r="147" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B147" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="148" spans="2:11">
+    <row r="148" spans="2:11" x14ac:dyDescent="0.25">
       <c r="C148" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="149" spans="2:11">
+    <row r="149" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B149" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="151" spans="2:11">
+    <row r="151" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B151" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="152" spans="2:11">
+    <row r="152" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B152" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="154" spans="2:11">
+    <row r="154" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B154" s="5" t="s">
         <v>84</v>
       </c>
@@ -6007,12 +6009,12 @@
         <v>42483</v>
       </c>
     </row>
-    <row r="157" spans="2:11">
+    <row r="157" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B157" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="158" spans="2:11">
+    <row r="158" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B158" t="s">
         <v>86</v>
       </c>
@@ -6027,7 +6029,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:R95"/>
   <sheetViews>
@@ -6035,7 +6037,7 @@
       <selection activeCell="H60" sqref="H60"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="5" style="10" customWidth="1"/>
     <col min="3" max="3" width="30.140625" bestFit="1" customWidth="1"/>
@@ -6050,7 +6052,7 @@
     <col min="12" max="12" width="14.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A1" s="7" t="s">
         <v>59</v>
       </c>
@@ -6059,7 +6061,7 @@
       <c r="D1" s="7"/>
       <c r="E1" s="11"/>
     </row>
-    <row r="2" spans="1:18">
+    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B2" s="17" t="s">
         <v>65</v>
       </c>
@@ -6097,7 +6099,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="3" spans="1:18">
+    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B3" s="14">
         <v>1</v>
       </c>
@@ -6141,7 +6143,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="4" spans="1:18">
+    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B4" s="14">
         <f>B3+1</f>
         <v>2</v>
@@ -6175,7 +6177,7 @@
       </c>
       <c r="L4" s="15"/>
     </row>
-    <row r="5" spans="1:18">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B5" s="14">
         <f t="shared" ref="B5:B19" si="0">B4+1</f>
         <v>3</v>
@@ -6209,7 +6211,7 @@
       </c>
       <c r="L5" s="15"/>
     </row>
-    <row r="6" spans="1:18">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B6" s="14">
         <f t="shared" si="0"/>
         <v>4</v>
@@ -6246,7 +6248,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="7" spans="1:18">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B7" s="14">
         <f t="shared" si="0"/>
         <v>5</v>
@@ -6287,7 +6289,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="8" spans="1:18">
+    <row r="8" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B8" s="14">
         <f t="shared" si="0"/>
         <v>6</v>
@@ -6329,7 +6331,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="9" spans="1:18">
+    <row r="9" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B9" s="14">
         <f t="shared" si="0"/>
         <v>7</v>
@@ -6369,7 +6371,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="10" spans="1:18">
+    <row r="10" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B10" s="14">
         <f t="shared" si="0"/>
         <v>8</v>
@@ -6409,7 +6411,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="11" spans="1:18">
+    <row r="11" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B11" s="14">
         <f t="shared" si="0"/>
         <v>9</v>
@@ -6425,7 +6427,7 @@
       <c r="K11" s="15"/>
       <c r="L11" s="15"/>
     </row>
-    <row r="12" spans="1:18">
+    <row r="12" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B12" s="14">
         <f t="shared" si="0"/>
         <v>10</v>
@@ -6441,7 +6443,7 @@
       <c r="K12" s="15"/>
       <c r="L12" s="15"/>
     </row>
-    <row r="13" spans="1:18">
+    <row r="13" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B13" s="14">
         <f t="shared" si="0"/>
         <v>11</v>
@@ -6457,7 +6459,7 @@
       <c r="K13" s="15"/>
       <c r="L13" s="15"/>
     </row>
-    <row r="14" spans="1:18">
+    <row r="14" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B14" s="14">
         <f t="shared" si="0"/>
         <v>12</v>
@@ -6473,7 +6475,7 @@
       <c r="K14" s="15"/>
       <c r="L14" s="15"/>
     </row>
-    <row r="15" spans="1:18">
+    <row r="15" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B15" s="14">
         <f t="shared" si="0"/>
         <v>13</v>
@@ -6489,7 +6491,7 @@
       <c r="K15" s="15"/>
       <c r="L15" s="15"/>
     </row>
-    <row r="16" spans="1:18">
+    <row r="16" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B16" s="14">
         <f t="shared" si="0"/>
         <v>14</v>
@@ -6505,7 +6507,7 @@
       <c r="K16" s="15"/>
       <c r="L16" s="15"/>
     </row>
-    <row r="17" spans="2:12">
+    <row r="17" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B17" s="14">
         <f t="shared" si="0"/>
         <v>15</v>
@@ -6521,7 +6523,7 @@
       <c r="K17" s="15"/>
       <c r="L17" s="15"/>
     </row>
-    <row r="18" spans="2:12">
+    <row r="18" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B18" s="14">
         <f t="shared" si="0"/>
         <v>16</v>
@@ -6537,7 +6539,7 @@
       <c r="K18" s="15"/>
       <c r="L18" s="15"/>
     </row>
-    <row r="19" spans="2:12">
+    <row r="19" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B19" s="14">
         <f t="shared" si="0"/>
         <v>17</v>
@@ -6553,12 +6555,12 @@
       <c r="K19" s="15"/>
       <c r="L19" s="15"/>
     </row>
-    <row r="22" spans="2:12">
+    <row r="22" spans="2:12" x14ac:dyDescent="0.25">
       <c r="C22" t="s">
         <v>183</v>
       </c>
     </row>
-    <row r="23" spans="2:12">
+    <row r="23" spans="2:12" x14ac:dyDescent="0.25">
       <c r="C23" t="s">
         <v>184</v>
       </c>
@@ -6577,7 +6579,7 @@
       </c>
       <c r="L23" s="47"/>
     </row>
-    <row r="24" spans="2:12">
+    <row r="24" spans="2:12" x14ac:dyDescent="0.25">
       <c r="G24" s="49"/>
       <c r="H24" s="51"/>
       <c r="I24" s="14" t="s">
@@ -6593,7 +6595,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="25" spans="2:12">
+    <row r="25" spans="2:12" x14ac:dyDescent="0.25">
       <c r="G25" s="33" t="s">
         <v>110</v>
       </c>
@@ -6609,7 +6611,7 @@
       <c r="K25" s="32"/>
       <c r="L25" s="32"/>
     </row>
-    <row r="26" spans="2:12">
+    <row r="26" spans="2:12" x14ac:dyDescent="0.25">
       <c r="G26" s="37"/>
       <c r="H26" s="38"/>
       <c r="I26" s="32">
@@ -6621,7 +6623,7 @@
       <c r="K26" s="32"/>
       <c r="L26" s="32"/>
     </row>
-    <row r="27" spans="2:12">
+    <row r="27" spans="2:12" x14ac:dyDescent="0.25">
       <c r="G27" s="37"/>
       <c r="H27" s="38"/>
       <c r="I27" s="32">
@@ -6633,7 +6635,7 @@
       <c r="K27" s="32"/>
       <c r="L27" s="32"/>
     </row>
-    <row r="28" spans="2:12">
+    <row r="28" spans="2:12" x14ac:dyDescent="0.25">
       <c r="G28" s="37"/>
       <c r="H28" s="38"/>
       <c r="I28" s="32">
@@ -6645,7 +6647,7 @@
       <c r="K28" s="32"/>
       <c r="L28" s="32"/>
     </row>
-    <row r="29" spans="2:12">
+    <row r="29" spans="2:12" x14ac:dyDescent="0.25">
       <c r="G29" s="37"/>
       <c r="H29" s="38"/>
       <c r="I29" s="32"/>
@@ -6653,7 +6655,7 @@
       <c r="K29" s="32"/>
       <c r="L29" s="32"/>
     </row>
-    <row r="30" spans="2:12">
+    <row r="30" spans="2:12" x14ac:dyDescent="0.25">
       <c r="G30" s="37"/>
       <c r="H30" s="38"/>
       <c r="I30" s="32"/>
@@ -6661,7 +6663,7 @@
       <c r="K30" s="32"/>
       <c r="L30" s="32"/>
     </row>
-    <row r="31" spans="2:12">
+    <row r="31" spans="2:12" x14ac:dyDescent="0.25">
       <c r="G31" s="35"/>
       <c r="H31" s="36"/>
       <c r="I31" s="32"/>
@@ -6669,7 +6671,7 @@
       <c r="K31" s="32"/>
       <c r="L31" s="32"/>
     </row>
-    <row r="32" spans="2:12">
+    <row r="32" spans="2:12" x14ac:dyDescent="0.25">
       <c r="G32" s="15" t="s">
         <v>109</v>
       </c>
@@ -6679,7 +6681,7 @@
       <c r="K32" s="32"/>
       <c r="L32" s="32"/>
     </row>
-    <row r="33" spans="1:12">
+    <row r="33" spans="1:12" x14ac:dyDescent="0.25">
       <c r="G33" s="15"/>
       <c r="H33" s="32"/>
       <c r="I33" s="32"/>
@@ -6687,7 +6689,7 @@
       <c r="K33" s="32"/>
       <c r="L33" s="32"/>
     </row>
-    <row r="34" spans="1:12">
+    <row r="34" spans="1:12" x14ac:dyDescent="0.25">
       <c r="G34" s="15"/>
       <c r="H34" s="32"/>
       <c r="I34" s="32"/>
@@ -6695,7 +6697,7 @@
       <c r="K34" s="32"/>
       <c r="L34" s="32"/>
     </row>
-    <row r="35" spans="1:12">
+    <row r="35" spans="1:12" x14ac:dyDescent="0.25">
       <c r="G35" s="15"/>
       <c r="H35" s="32"/>
       <c r="I35" s="32"/>
@@ -6703,7 +6705,7 @@
       <c r="K35" s="32"/>
       <c r="L35" s="32"/>
     </row>
-    <row r="36" spans="1:12">
+    <row r="36" spans="1:12" x14ac:dyDescent="0.25">
       <c r="G36" s="15" t="s">
         <v>195</v>
       </c>
@@ -6723,7 +6725,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="1:12">
+    <row r="37" spans="1:12" x14ac:dyDescent="0.25">
       <c r="G37" s="15"/>
       <c r="H37" s="32"/>
       <c r="I37" s="32">
@@ -6739,7 +6741,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="38" spans="1:12">
+    <row r="38" spans="1:12" x14ac:dyDescent="0.25">
       <c r="G38" s="15"/>
       <c r="H38" s="32"/>
       <c r="I38" s="32"/>
@@ -6751,7 +6753,7 @@
         <v>462</v>
       </c>
     </row>
-    <row r="39" spans="1:12">
+    <row r="39" spans="1:12" x14ac:dyDescent="0.25">
       <c r="G39" s="15"/>
       <c r="H39" s="32"/>
       <c r="I39" s="32"/>
@@ -6763,7 +6765,7 @@
         <v>57595</v>
       </c>
     </row>
-    <row r="40" spans="1:12">
+    <row r="40" spans="1:12" x14ac:dyDescent="0.25">
       <c r="G40" s="15" t="s">
         <v>111</v>
       </c>
@@ -6773,7 +6775,7 @@
       <c r="K40" s="32"/>
       <c r="L40" s="32"/>
     </row>
-    <row r="41" spans="1:12">
+    <row r="41" spans="1:12" x14ac:dyDescent="0.25">
       <c r="G41" s="15"/>
       <c r="H41" s="32"/>
       <c r="I41" s="32"/>
@@ -6781,14 +6783,14 @@
       <c r="K41" s="32"/>
       <c r="L41" s="32"/>
     </row>
-    <row r="42" spans="1:12">
+    <row r="42" spans="1:12" x14ac:dyDescent="0.25">
       <c r="H42" s="31"/>
       <c r="I42" s="31"/>
       <c r="J42" s="31"/>
       <c r="K42" s="31"/>
       <c r="L42" s="31"/>
     </row>
-    <row r="43" spans="1:12">
+    <row r="43" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>198</v>
       </c>
@@ -6798,7 +6800,7 @@
       <c r="K43" s="31"/>
       <c r="L43" s="31"/>
     </row>
-    <row r="44" spans="1:12">
+    <row r="44" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C44" t="s">
         <v>199</v>
       </c>
@@ -6808,7 +6810,7 @@
       <c r="K44" s="31"/>
       <c r="L44" s="31"/>
     </row>
-    <row r="45" spans="1:12">
+    <row r="45" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C45" t="s">
         <v>200</v>
       </c>
@@ -6819,7 +6821,7 @@
       <c r="I45" s="30"/>
       <c r="J45" s="30"/>
     </row>
-    <row r="46" spans="1:12">
+    <row r="46" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C46" t="s">
         <v>202</v>
       </c>
@@ -6827,7 +6829,7 @@
       <c r="I46" s="30"/>
       <c r="J46" s="30"/>
     </row>
-    <row r="47" spans="1:12">
+    <row r="47" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C47" t="s">
         <v>208</v>
       </c>
@@ -6838,17 +6840,17 @@
       <c r="I47" s="30"/>
       <c r="J47" s="30"/>
     </row>
-    <row r="48" spans="1:12">
+    <row r="48" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C48" t="s">
         <v>212</v>
       </c>
     </row>
-    <row r="50" spans="1:10">
+    <row r="50" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>203</v>
       </c>
     </row>
-    <row r="51" spans="1:10">
+    <row r="51" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>158</v>
       </c>
@@ -6856,7 +6858,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="52" spans="1:10">
+    <row r="52" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>158</v>
       </c>
@@ -6873,7 +6875,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="53" spans="1:10">
+    <row r="53" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B53" s="39" t="s">
         <v>206</v>
       </c>
@@ -6881,41 +6883,41 @@
         <v>211</v>
       </c>
     </row>
-    <row r="54" spans="1:10">
+    <row r="54" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B54" s="39" t="s">
         <v>213</v>
       </c>
     </row>
-    <row r="55" spans="1:10">
+    <row r="55" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B55" s="39" t="s">
         <v>214</v>
       </c>
     </row>
-    <row r="56" spans="1:10">
+    <row r="56" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B56" s="39"/>
       <c r="J56" s="40"/>
     </row>
-    <row r="57" spans="1:10">
+    <row r="57" spans="1:10" x14ac:dyDescent="0.25">
       <c r="J57" s="40"/>
     </row>
-    <row r="58" spans="1:10">
+    <row r="58" spans="1:10" x14ac:dyDescent="0.25">
       <c r="H58"/>
       <c r="J58" s="40"/>
     </row>
-    <row r="59" spans="1:10">
+    <row r="59" spans="1:10" x14ac:dyDescent="0.25">
       <c r="H59"/>
       <c r="J59" s="40"/>
     </row>
-    <row r="60" spans="1:10">
+    <row r="60" spans="1:10" x14ac:dyDescent="0.25">
       <c r="H60"/>
     </row>
-    <row r="61" spans="1:10">
+    <row r="61" spans="1:10" x14ac:dyDescent="0.25">
       <c r="H61"/>
     </row>
-    <row r="62" spans="1:10">
+    <row r="62" spans="1:10" x14ac:dyDescent="0.25">
       <c r="H62"/>
     </row>
-    <row r="95" spans="16:16">
+    <row r="95" spans="16:16" x14ac:dyDescent="0.25">
       <c r="P95" s="41"/>
     </row>
   </sheetData>
@@ -6932,7 +6934,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet3"/>
   <dimension ref="A1:AH18"/>
   <sheetViews>
@@ -6940,22 +6942,22 @@
       <selection activeCell="U24" sqref="U24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="16384" width="9.140625" style="42"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:34">
+    <row r="1" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A1" s="43" t="s">
         <v>219</v>
       </c>
     </row>
-    <row r="2" spans="1:34">
+    <row r="2" spans="1:34" x14ac:dyDescent="0.25">
       <c r="O2" s="42" t="s">
         <v>215</v>
       </c>
     </row>
-    <row r="3" spans="1:34">
+    <row r="3" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A3" s="42" t="s">
         <v>220</v>
       </c>
@@ -6963,7 +6965,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="4" spans="1:34">
+    <row r="4" spans="1:34" x14ac:dyDescent="0.25">
       <c r="P4" s="42" t="s">
         <v>218</v>
       </c>
@@ -6977,12 +6979,12 @@
       <c r="AG4" s="5"/>
       <c r="AH4" s="5"/>
     </row>
-    <row r="5" spans="1:34">
+    <row r="5" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A5" s="42" t="s">
         <v>221</v>
       </c>
     </row>
-    <row r="6" spans="1:34">
+    <row r="6" spans="1:34" x14ac:dyDescent="0.25">
       <c r="B6" s="42" t="s">
         <v>224</v>
       </c>
@@ -6990,42 +6992,42 @@
         <v>225</v>
       </c>
     </row>
-    <row r="7" spans="1:34">
+    <row r="7" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A7" s="42" t="s">
         <v>222</v>
       </c>
     </row>
-    <row r="8" spans="1:34">
+    <row r="8" spans="1:34" x14ac:dyDescent="0.25">
       <c r="B8" s="42" t="s">
         <v>223</v>
       </c>
     </row>
-    <row r="12" spans="1:34">
+    <row r="12" spans="1:34" x14ac:dyDescent="0.25">
       <c r="O12" s="42" t="s">
         <v>216</v>
       </c>
     </row>
-    <row r="13" spans="1:34">
+    <row r="13" spans="1:34" x14ac:dyDescent="0.25">
       <c r="P13" s="42" t="s">
         <v>217</v>
       </c>
     </row>
-    <row r="14" spans="1:34">
+    <row r="14" spans="1:34" x14ac:dyDescent="0.25">
       <c r="Q14" s="42" t="s">
         <v>226</v>
       </c>
     </row>
-    <row r="16" spans="1:34">
+    <row r="16" spans="1:34" x14ac:dyDescent="0.25">
       <c r="P16" s="42" t="s">
         <v>227</v>
       </c>
     </row>
-    <row r="17" spans="4:16">
+    <row r="17" spans="4:16" x14ac:dyDescent="0.25">
       <c r="P17" s="42" t="s">
         <v>228</v>
       </c>
     </row>
-    <row r="18" spans="4:16">
+    <row r="18" spans="4:16" x14ac:dyDescent="0.25">
       <c r="D18" s="44"/>
     </row>
   </sheetData>
@@ -7036,7 +7038,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet4"/>
   <dimension ref="A1:AF109"/>
   <sheetViews>
@@ -7044,14 +7046,14 @@
       <selection activeCell="G52" sqref="G52"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:31">
+    <row r="1" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>230</v>
       </c>
     </row>
-    <row r="2" spans="1:31">
+    <row r="2" spans="1:31" x14ac:dyDescent="0.25">
       <c r="B2" s="25" t="s">
         <v>229</v>
       </c>
@@ -7059,7 +7061,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="4" spans="1:31">
+    <row r="4" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>231</v>
       </c>
@@ -7067,7 +7069,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="7" spans="1:31">
+    <row r="7" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>234</v>
       </c>
@@ -7075,7 +7077,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="8" spans="1:31">
+    <row r="8" spans="1:31" x14ac:dyDescent="0.25">
       <c r="B8" s="25" t="s">
         <v>233</v>
       </c>
@@ -7091,7 +7093,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="9" spans="1:31">
+    <row r="9" spans="1:31" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
         <v>235</v>
       </c>
@@ -7105,7 +7107,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="10" spans="1:31">
+    <row r="10" spans="1:31" x14ac:dyDescent="0.25">
       <c r="C10" s="3" t="s">
         <v>236</v>
       </c>
@@ -7119,7 +7121,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="11" spans="1:31">
+    <row r="11" spans="1:31" x14ac:dyDescent="0.25">
       <c r="C11" s="3" t="s">
         <v>237</v>
       </c>
@@ -7137,7 +7139,7 @@
       </c>
       <c r="AE11" s="5"/>
     </row>
-    <row r="12" spans="1:31">
+    <row r="12" spans="1:31" x14ac:dyDescent="0.25">
       <c r="R12" t="s">
         <v>252</v>
       </c>
@@ -7148,7 +7150,7 @@
         <v>287</v>
       </c>
     </row>
-    <row r="13" spans="1:31">
+    <row r="13" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>239</v>
       </c>
@@ -7162,7 +7164,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="14" spans="1:31">
+    <row r="14" spans="1:31" x14ac:dyDescent="0.25">
       <c r="B14" s="4" t="s">
         <v>240</v>
       </c>
@@ -7185,7 +7187,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="15" spans="1:31">
+    <row r="15" spans="1:31" x14ac:dyDescent="0.25">
       <c r="C15" t="s">
         <v>244</v>
       </c>
@@ -7205,7 +7207,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="16" spans="1:31">
+    <row r="16" spans="1:31" x14ac:dyDescent="0.25">
       <c r="C16" t="s">
         <v>246</v>
       </c>
@@ -7222,7 +7224,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="17" spans="1:32">
+    <row r="17" spans="1:32" x14ac:dyDescent="0.25">
       <c r="B17" s="4" t="s">
         <v>241</v>
       </c>
@@ -7247,7 +7249,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="18" spans="1:32">
+    <row r="18" spans="1:32" x14ac:dyDescent="0.25">
       <c r="C18" t="s">
         <v>247</v>
       </c>
@@ -7261,7 +7263,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="19" spans="1:32">
+    <row r="19" spans="1:32" x14ac:dyDescent="0.25">
       <c r="R19" t="s">
         <v>259</v>
       </c>
@@ -7269,7 +7271,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="20" spans="1:32">
+    <row r="20" spans="1:32" x14ac:dyDescent="0.25">
       <c r="R20" t="s">
         <v>260</v>
       </c>
@@ -7280,12 +7282,12 @@
         <v>295</v>
       </c>
     </row>
-    <row r="21" spans="1:32">
+    <row r="21" spans="1:32" x14ac:dyDescent="0.25">
       <c r="R21" t="s">
         <v>261</v>
       </c>
     </row>
-    <row r="22" spans="1:32">
+    <row r="22" spans="1:32" x14ac:dyDescent="0.25">
       <c r="B22" t="s">
         <v>242</v>
       </c>
@@ -7299,7 +7301,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="23" spans="1:32">
+    <row r="23" spans="1:32" x14ac:dyDescent="0.25">
       <c r="R23" t="s">
         <v>263</v>
       </c>
@@ -7307,7 +7309,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="24" spans="1:32">
+    <row r="24" spans="1:32" x14ac:dyDescent="0.25">
       <c r="R24" t="s">
         <v>264</v>
       </c>
@@ -7315,7 +7317,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="25" spans="1:32">
+    <row r="25" spans="1:32" x14ac:dyDescent="0.25">
       <c r="R25" t="s">
         <v>265</v>
       </c>
@@ -7325,7 +7327,7 @@
       <c r="AE25" s="5"/>
       <c r="AF25" s="5"/>
     </row>
-    <row r="26" spans="1:32">
+    <row r="26" spans="1:32" x14ac:dyDescent="0.25">
       <c r="R26" t="s">
         <v>266</v>
       </c>
@@ -7333,7 +7335,7 @@
         <v>298</v>
       </c>
     </row>
-    <row r="27" spans="1:32">
+    <row r="27" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A27" s="13" t="s">
         <v>305</v>
       </c>
@@ -7349,7 +7351,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="28" spans="1:32">
+    <row r="28" spans="1:32" x14ac:dyDescent="0.25">
       <c r="B28" t="s">
         <v>306</v>
       </c>
@@ -7360,7 +7362,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="29" spans="1:32">
+    <row r="29" spans="1:32" x14ac:dyDescent="0.25">
       <c r="B29" t="s">
         <v>307</v>
       </c>
@@ -7371,7 +7373,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="30" spans="1:32">
+    <row r="30" spans="1:32" x14ac:dyDescent="0.25">
       <c r="B30" t="s">
         <v>308</v>
       </c>
@@ -7382,7 +7384,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="31" spans="1:32">
+    <row r="31" spans="1:32" x14ac:dyDescent="0.25">
       <c r="C31" t="s">
         <v>309</v>
       </c>
@@ -7390,7 +7392,7 @@
         <v>302</v>
       </c>
     </row>
-    <row r="32" spans="1:32">
+    <row r="32" spans="1:32" x14ac:dyDescent="0.25">
       <c r="C32" t="s">
         <v>310</v>
       </c>
@@ -7398,7 +7400,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="33" spans="1:30">
+    <row r="33" spans="1:30" x14ac:dyDescent="0.25">
       <c r="B33" t="s">
         <v>311</v>
       </c>
@@ -7406,7 +7408,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="34" spans="1:30">
+    <row r="34" spans="1:30" x14ac:dyDescent="0.25">
       <c r="B34" t="s">
         <v>312</v>
       </c>
@@ -7414,72 +7416,72 @@
         <v>295</v>
       </c>
     </row>
-    <row r="35" spans="1:30">
+    <row r="35" spans="1:30" x14ac:dyDescent="0.25">
       <c r="C35" t="s">
         <v>313</v>
       </c>
     </row>
-    <row r="36" spans="1:30">
+    <row r="36" spans="1:30" x14ac:dyDescent="0.25">
       <c r="D36" t="s">
         <v>314</v>
       </c>
     </row>
-    <row r="37" spans="1:30">
+    <row r="37" spans="1:30" x14ac:dyDescent="0.25">
       <c r="D37" t="s">
         <v>315</v>
       </c>
     </row>
-    <row r="38" spans="1:30">
+    <row r="38" spans="1:30" x14ac:dyDescent="0.25">
       <c r="C38" t="s">
         <v>311</v>
       </c>
     </row>
-    <row r="39" spans="1:30">
+    <row r="39" spans="1:30" x14ac:dyDescent="0.25">
       <c r="C39" t="s">
         <v>316</v>
       </c>
     </row>
-    <row r="40" spans="1:30">
+    <row r="40" spans="1:30" x14ac:dyDescent="0.25">
       <c r="D40" t="s">
         <v>314</v>
       </c>
     </row>
-    <row r="41" spans="1:30">
+    <row r="41" spans="1:30" x14ac:dyDescent="0.25">
       <c r="D41" t="s">
         <v>315</v>
       </c>
     </row>
-    <row r="42" spans="1:30">
+    <row r="42" spans="1:30" x14ac:dyDescent="0.25">
       <c r="C42" t="s">
         <v>311</v>
       </c>
     </row>
-    <row r="43" spans="1:30">
+    <row r="43" spans="1:30" x14ac:dyDescent="0.25">
       <c r="C43" t="s">
         <v>317</v>
       </c>
     </row>
-    <row r="44" spans="1:30">
+    <row r="44" spans="1:30" x14ac:dyDescent="0.25">
       <c r="C44" t="s">
         <v>318</v>
       </c>
     </row>
-    <row r="45" spans="1:30">
+    <row r="45" spans="1:30" x14ac:dyDescent="0.25">
       <c r="C45" t="s">
         <v>319</v>
       </c>
     </row>
-    <row r="46" spans="1:30">
+    <row r="46" spans="1:30" x14ac:dyDescent="0.25">
       <c r="B46" t="s">
         <v>311</v>
       </c>
     </row>
-    <row r="47" spans="1:30">
+    <row r="47" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>311</v>
       </c>
     </row>
-    <row r="49" spans="1:7">
+    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A49" s="13" t="s">
         <v>320</v>
       </c>
@@ -7489,17 +7491,17 @@
       <c r="E49" s="13"/>
       <c r="F49" s="13"/>
     </row>
-    <row r="50" spans="1:7">
+    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B50" t="s">
         <v>321</v>
       </c>
     </row>
-    <row r="51" spans="1:7">
+    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B51" t="s">
         <v>322</v>
       </c>
     </row>
-    <row r="52" spans="1:7">
+    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B52" s="5" t="s">
         <v>323</v>
       </c>
@@ -7508,32 +7510,32 @@
         <v>324</v>
       </c>
     </row>
-    <row r="53" spans="1:7">
+    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C53" t="s">
         <v>325</v>
       </c>
     </row>
-    <row r="54" spans="1:7">
+    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
       <c r="D54" t="s">
         <v>326</v>
       </c>
     </row>
-    <row r="55" spans="1:7">
+    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
       <c r="E55" t="s">
         <v>327</v>
       </c>
     </row>
-    <row r="56" spans="1:7">
+    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B56" t="s">
         <v>322</v>
       </c>
     </row>
-    <row r="57" spans="1:7">
+    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>311</v>
       </c>
     </row>
-    <row r="59" spans="1:7">
+    <row r="59" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A59" s="13" t="s">
         <v>328</v>
       </c>
@@ -7543,62 +7545,62 @@
       <c r="E59" s="13"/>
       <c r="F59" s="13"/>
     </row>
-    <row r="60" spans="1:7">
+    <row r="60" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>329</v>
       </c>
     </row>
-    <row r="61" spans="1:7">
+    <row r="61" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>330</v>
       </c>
     </row>
-    <row r="62" spans="1:7">
+    <row r="62" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>331</v>
       </c>
     </row>
-    <row r="63" spans="1:7">
+    <row r="63" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>332</v>
       </c>
     </row>
-    <row r="64" spans="1:7">
+    <row r="64" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>333</v>
       </c>
     </row>
-    <row r="65" spans="1:9">
+    <row r="65" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>334</v>
       </c>
     </row>
-    <row r="66" spans="1:9">
+    <row r="66" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>335</v>
       </c>
     </row>
-    <row r="67" spans="1:9">
+    <row r="67" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>334</v>
       </c>
     </row>
-    <row r="68" spans="1:9">
+    <row r="68" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>336</v>
       </c>
     </row>
-    <row r="69" spans="1:9">
+    <row r="69" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>337</v>
       </c>
     </row>
-    <row r="70" spans="1:9">
+    <row r="70" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>338</v>
       </c>
     </row>
-    <row r="71" spans="1:9">
+    <row r="71" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>339</v>
       </c>
@@ -7606,7 +7608,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="72" spans="1:9">
+    <row r="72" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>340</v>
       </c>
@@ -7614,182 +7616,182 @@
         <v>372</v>
       </c>
     </row>
-    <row r="73" spans="1:9">
+    <row r="73" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>341</v>
       </c>
     </row>
-    <row r="74" spans="1:9">
+    <row r="74" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>342</v>
       </c>
     </row>
-    <row r="75" spans="1:9">
+    <row r="75" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>343</v>
       </c>
     </row>
-    <row r="76" spans="1:9">
+    <row r="76" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>344</v>
       </c>
     </row>
-    <row r="77" spans="1:9">
+    <row r="77" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
         <v>345</v>
       </c>
     </row>
-    <row r="78" spans="1:9">
+    <row r="78" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
         <v>341</v>
       </c>
     </row>
-    <row r="79" spans="1:9">
+    <row r="79" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
         <v>346</v>
       </c>
     </row>
-    <row r="80" spans="1:9">
+    <row r="80" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
         <v>347</v>
       </c>
     </row>
-    <row r="81" spans="1:1">
+    <row r="81" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
         <v>348</v>
       </c>
     </row>
-    <row r="82" spans="1:1">
+    <row r="82" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
         <v>349</v>
       </c>
     </row>
-    <row r="83" spans="1:1">
+    <row r="83" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
         <v>350</v>
       </c>
     </row>
-    <row r="84" spans="1:1">
+    <row r="84" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
         <v>351</v>
       </c>
     </row>
-    <row r="85" spans="1:1">
+    <row r="85" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
         <v>352</v>
       </c>
     </row>
-    <row r="86" spans="1:1">
+    <row r="86" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
         <v>348</v>
       </c>
     </row>
-    <row r="87" spans="1:1">
+    <row r="87" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
         <v>353</v>
       </c>
     </row>
-    <row r="88" spans="1:1">
+    <row r="88" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
         <v>354</v>
       </c>
     </row>
-    <row r="89" spans="1:1">
+    <row r="89" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
         <v>355</v>
       </c>
     </row>
-    <row r="90" spans="1:1">
+    <row r="90" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
         <v>356</v>
       </c>
     </row>
-    <row r="91" spans="1:1">
+    <row r="91" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
         <v>357</v>
       </c>
     </row>
-    <row r="92" spans="1:1">
+    <row r="92" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
         <v>358</v>
       </c>
     </row>
-    <row r="93" spans="1:1">
+    <row r="93" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
         <v>359</v>
       </c>
     </row>
-    <row r="94" spans="1:1">
+    <row r="94" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
         <v>360</v>
       </c>
     </row>
-    <row r="95" spans="1:1">
+    <row r="95" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
         <v>361</v>
       </c>
     </row>
-    <row r="96" spans="1:1">
+    <row r="96" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
         <v>362</v>
       </c>
     </row>
-    <row r="97" spans="1:1">
+    <row r="97" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
         <v>363</v>
       </c>
     </row>
-    <row r="98" spans="1:1">
+    <row r="98" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
         <v>351</v>
       </c>
     </row>
-    <row r="99" spans="1:1">
+    <row r="99" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
         <v>344</v>
       </c>
     </row>
-    <row r="100" spans="1:1">
+    <row r="100" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
         <v>364</v>
       </c>
     </row>
-    <row r="101" spans="1:1">
+    <row r="101" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
         <v>365</v>
       </c>
     </row>
-    <row r="102" spans="1:1">
+    <row r="102" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
         <v>338</v>
       </c>
     </row>
-    <row r="103" spans="1:1">
+    <row r="103" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
         <v>366</v>
       </c>
     </row>
-    <row r="104" spans="1:1">
+    <row r="104" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
         <v>367</v>
       </c>
     </row>
-    <row r="105" spans="1:1">
+    <row r="105" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
         <v>364</v>
       </c>
     </row>
-    <row r="107" spans="1:1">
+    <row r="107" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
         <v>368</v>
       </c>
     </row>
-    <row r="108" spans="1:1">
+    <row r="108" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
         <v>369</v>
       </c>
     </row>
-    <row r="109" spans="1:1">
+    <row r="109" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
         <v>370</v>
       </c>
@@ -7804,16 +7806,16 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K105"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I14" sqref="I14"/>
+    <sheetView tabSelected="1" topLeftCell="A46" workbookViewId="0">
+      <selection activeCell="I66" sqref="I66"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="46" t="s">
         <v>375</v>
       </c>
@@ -7822,7 +7824,7 @@
       <c r="D1" s="46"/>
       <c r="E1" s="46"/>
     </row>
-    <row r="3" spans="1:9">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="41" t="s">
         <v>391</v>
       </c>
@@ -7832,11 +7834,11 @@
       <c r="E3" s="41"/>
       <c r="F3" s="41"/>
       <c r="G3" s="41"/>
-      <c r="I3" t="s">
+      <c r="H3" t="s">
         <v>388</v>
       </c>
     </row>
-    <row r="4" spans="1:9">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="41" t="s">
         <v>378</v>
       </c>
@@ -7847,7 +7849,7 @@
       <c r="F4" s="41"/>
       <c r="G4" s="41"/>
     </row>
-    <row r="5" spans="1:9">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="41"/>
       <c r="B5" s="5" t="s">
         <v>323</v>
@@ -7858,7 +7860,7 @@
       <c r="F5" s="41"/>
       <c r="G5" s="41"/>
     </row>
-    <row r="6" spans="1:9">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="41"/>
       <c r="B6" s="41" t="s">
         <v>378</v>
@@ -7869,7 +7871,7 @@
       <c r="F6" s="41"/>
       <c r="G6" s="41"/>
     </row>
-    <row r="7" spans="1:9">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="41"/>
       <c r="B7" s="41"/>
       <c r="C7" s="41" t="s">
@@ -7880,7 +7882,7 @@
       <c r="F7" s="41"/>
       <c r="G7" s="41"/>
     </row>
-    <row r="8" spans="1:9">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="41"/>
       <c r="B8" s="41"/>
       <c r="C8" s="41" t="s">
@@ -7891,7 +7893,7 @@
       <c r="F8" s="41"/>
       <c r="G8" s="41"/>
     </row>
-    <row r="9" spans="1:9">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="41"/>
       <c r="B9" s="41"/>
       <c r="C9" s="41"/>
@@ -7902,7 +7904,7 @@
       <c r="F9" s="41"/>
       <c r="G9" s="41"/>
     </row>
-    <row r="10" spans="1:9">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="41"/>
       <c r="B10" s="41"/>
       <c r="C10" s="41"/>
@@ -7913,7 +7915,7 @@
       <c r="F10" s="41"/>
       <c r="G10" s="41"/>
     </row>
-    <row r="11" spans="1:9">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" s="41"/>
       <c r="B11" s="41"/>
       <c r="C11" s="41"/>
@@ -7924,7 +7926,7 @@
       <c r="F11" s="41"/>
       <c r="G11" s="41"/>
     </row>
-    <row r="12" spans="1:9">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" s="41"/>
       <c r="B12" s="41"/>
       <c r="C12" s="41"/>
@@ -7935,7 +7937,7 @@
       <c r="F12" s="41"/>
       <c r="G12" s="41"/>
     </row>
-    <row r="13" spans="1:9">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" s="41"/>
       <c r="B13" s="41"/>
       <c r="C13" s="41"/>
@@ -7946,7 +7948,7 @@
       <c r="F13" s="41"/>
       <c r="G13" s="41"/>
     </row>
-    <row r="14" spans="1:9">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" s="41"/>
       <c r="B14" s="41"/>
       <c r="C14" s="41"/>
@@ -7957,7 +7959,7 @@
       <c r="F14" s="41"/>
       <c r="G14" s="41"/>
     </row>
-    <row r="15" spans="1:9">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" s="41"/>
       <c r="B15" s="41"/>
       <c r="C15" s="41"/>
@@ -7968,7 +7970,7 @@
       <c r="F15" s="41"/>
       <c r="G15" s="41"/>
     </row>
-    <row r="16" spans="1:9">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" s="41"/>
       <c r="B16" s="41"/>
       <c r="C16" s="41"/>
@@ -7979,7 +7981,7 @@
       <c r="F16" s="41"/>
       <c r="G16" s="41"/>
     </row>
-    <row r="17" spans="1:9">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" s="41"/>
       <c r="B17" s="41"/>
       <c r="C17" s="41" t="s">
@@ -7990,7 +7992,7 @@
       <c r="F17" s="41"/>
       <c r="G17" s="41"/>
     </row>
-    <row r="18" spans="1:9">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" s="41"/>
       <c r="B18" s="41"/>
       <c r="C18" s="41" t="s">
@@ -8001,7 +8003,7 @@
       <c r="F18" s="41"/>
       <c r="G18" s="41"/>
     </row>
-    <row r="19" spans="1:9">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19" s="41"/>
       <c r="B19" s="41"/>
       <c r="C19" s="41" t="s">
@@ -8012,7 +8014,7 @@
       <c r="F19" s="41"/>
       <c r="G19" s="41"/>
     </row>
-    <row r="20" spans="1:9">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20" s="41"/>
       <c r="B20" s="41"/>
       <c r="C20" s="41"/>
@@ -8023,7 +8025,7 @@
       <c r="F20" s="41"/>
       <c r="G20" s="41"/>
     </row>
-    <row r="21" spans="1:9">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21" s="41"/>
       <c r="B21" s="41"/>
       <c r="C21" s="41" t="s">
@@ -8034,7 +8036,7 @@
       <c r="F21" s="41"/>
       <c r="G21" s="41"/>
     </row>
-    <row r="22" spans="1:9">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22" s="41"/>
       <c r="B22" s="41" t="s">
         <v>311</v>
@@ -8045,7 +8047,7 @@
       <c r="F22" s="41"/>
       <c r="G22" s="41"/>
     </row>
-    <row r="23" spans="1:9">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23" s="41"/>
       <c r="B23" s="41" t="s">
         <v>381</v>
@@ -8056,7 +8058,7 @@
       <c r="F23" s="41"/>
       <c r="G23" s="41"/>
     </row>
-    <row r="24" spans="1:9">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A24" s="41"/>
       <c r="B24" s="41" t="s">
         <v>378</v>
@@ -8067,7 +8069,7 @@
       <c r="F24" s="41"/>
       <c r="G24" s="41"/>
     </row>
-    <row r="25" spans="1:9">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A25" s="41"/>
       <c r="B25" s="41"/>
       <c r="C25" s="41" t="s">
@@ -8078,7 +8080,7 @@
       <c r="F25" s="41"/>
       <c r="G25" s="41"/>
     </row>
-    <row r="26" spans="1:9">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A26" s="41"/>
       <c r="B26" s="41" t="s">
         <v>311</v>
@@ -8089,7 +8091,7 @@
       <c r="F26" s="41"/>
       <c r="G26" s="41"/>
     </row>
-    <row r="27" spans="1:9">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A27" s="41" t="s">
         <v>311</v>
       </c>
@@ -8100,7 +8102,7 @@
       <c r="F27" s="41"/>
       <c r="G27" s="41"/>
     </row>
-    <row r="28" spans="1:9">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A28" s="41"/>
       <c r="B28" s="41"/>
       <c r="C28" s="41"/>
@@ -8109,7 +8111,7 @@
       <c r="F28" s="41"/>
       <c r="G28" s="41"/>
     </row>
-    <row r="29" spans="1:9">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A29" s="41" t="s">
         <v>394</v>
       </c>
@@ -8119,11 +8121,11 @@
       <c r="E29" s="41"/>
       <c r="F29" s="41"/>
       <c r="G29" s="41"/>
-      <c r="I29" t="s">
+      <c r="H29" t="s">
         <v>390</v>
       </c>
     </row>
-    <row r="30" spans="1:9">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A30" s="41" t="s">
         <v>378</v>
       </c>
@@ -8134,7 +8136,7 @@
       <c r="F30" s="41"/>
       <c r="G30" s="41"/>
     </row>
-    <row r="31" spans="1:9">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A31" s="41"/>
       <c r="B31" s="41" t="s">
         <v>395</v>
@@ -8145,7 +8147,7 @@
       <c r="F31" s="41"/>
       <c r="G31" s="41"/>
     </row>
-    <row r="32" spans="1:9">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A32" s="41"/>
       <c r="B32" s="41"/>
       <c r="C32" s="41"/>
@@ -8154,7 +8156,7 @@
       <c r="F32" s="41"/>
       <c r="G32" s="41"/>
     </row>
-    <row r="33" spans="1:7">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A33" s="41"/>
       <c r="B33" s="5" t="s">
         <v>396</v>
@@ -8165,7 +8167,7 @@
       <c r="F33" s="41"/>
       <c r="G33" s="41"/>
     </row>
-    <row r="34" spans="1:7">
+    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A34" s="41"/>
       <c r="B34" s="41" t="s">
         <v>378</v>
@@ -8176,7 +8178,7 @@
       <c r="F34" s="41"/>
       <c r="G34" s="41"/>
     </row>
-    <row r="35" spans="1:7">
+    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A35" s="41"/>
       <c r="B35" s="41"/>
       <c r="C35" s="5" t="s">
@@ -8187,7 +8189,7 @@
       <c r="F35" s="41"/>
       <c r="G35" s="41"/>
     </row>
-    <row r="36" spans="1:7">
+    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A36" s="41"/>
       <c r="B36" s="41"/>
       <c r="C36" s="41" t="s">
@@ -8198,7 +8200,7 @@
       <c r="F36" s="41"/>
       <c r="G36" s="41"/>
     </row>
-    <row r="37" spans="1:7">
+    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A37" s="41"/>
       <c r="B37" s="41"/>
       <c r="C37" s="41"/>
@@ -8209,7 +8211,7 @@
       <c r="F37" s="41"/>
       <c r="G37" s="41"/>
     </row>
-    <row r="38" spans="1:7">
+    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A38" s="41"/>
       <c r="B38" s="41"/>
       <c r="C38" s="41" t="s">
@@ -8220,7 +8222,7 @@
       <c r="F38" s="41"/>
       <c r="G38" s="41"/>
     </row>
-    <row r="39" spans="1:7">
+    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A39" s="41"/>
       <c r="B39" s="41"/>
       <c r="C39" s="41" t="s">
@@ -8231,7 +8233,7 @@
       <c r="F39" s="41"/>
       <c r="G39" s="41"/>
     </row>
-    <row r="40" spans="1:7">
+    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A40" s="41"/>
       <c r="B40" s="41"/>
       <c r="C40" s="41" t="s">
@@ -8242,7 +8244,7 @@
       <c r="F40" s="41"/>
       <c r="G40" s="41"/>
     </row>
-    <row r="41" spans="1:7">
+    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A41" s="41"/>
       <c r="B41" s="41"/>
       <c r="C41" s="41"/>
@@ -8253,7 +8255,7 @@
       <c r="F41" s="41"/>
       <c r="G41" s="41"/>
     </row>
-    <row r="42" spans="1:7">
+    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A42" s="41"/>
       <c r="B42" s="41"/>
       <c r="C42" s="41" t="s">
@@ -8264,7 +8266,7 @@
       <c r="F42" s="41"/>
       <c r="G42" s="41"/>
     </row>
-    <row r="43" spans="1:7">
+    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A43" s="41"/>
       <c r="B43" s="41"/>
       <c r="C43" s="41" t="s">
@@ -8275,7 +8277,7 @@
       <c r="F43" s="41"/>
       <c r="G43" s="41"/>
     </row>
-    <row r="44" spans="1:7">
+    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A44" s="41"/>
       <c r="B44" s="41" t="s">
         <v>398</v>
@@ -8286,7 +8288,7 @@
       <c r="F44" s="41"/>
       <c r="G44" s="41"/>
     </row>
-    <row r="45" spans="1:7">
+    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A45" s="41"/>
       <c r="B45" s="41"/>
       <c r="C45" s="41"/>
@@ -8295,7 +8297,7 @@
       <c r="F45" s="41"/>
       <c r="G45" s="41"/>
     </row>
-    <row r="46" spans="1:7">
+    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A46" s="41"/>
       <c r="B46" s="41" t="s">
         <v>399</v>
@@ -8306,7 +8308,7 @@
       <c r="F46" s="41"/>
       <c r="G46" s="41"/>
     </row>
-    <row r="47" spans="1:7">
+    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A47" s="41"/>
       <c r="B47" s="41" t="s">
         <v>400</v>
@@ -8317,7 +8319,7 @@
       <c r="F47" s="41"/>
       <c r="G47" s="41"/>
     </row>
-    <row r="48" spans="1:7">
+    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A48" s="41"/>
       <c r="B48" s="41"/>
       <c r="C48" s="41" t="s">
@@ -8328,7 +8330,7 @@
       <c r="F48" s="41"/>
       <c r="G48" s="41"/>
     </row>
-    <row r="49" spans="1:7">
+    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A49" s="41"/>
       <c r="B49" s="41" t="s">
         <v>398</v>
@@ -8339,7 +8341,7 @@
       <c r="F49" s="41"/>
       <c r="G49" s="41"/>
     </row>
-    <row r="50" spans="1:7">
+    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A50" s="41"/>
       <c r="B50" s="41" t="s">
         <v>401</v>
@@ -8350,7 +8352,7 @@
       <c r="F50" s="41"/>
       <c r="G50" s="41"/>
     </row>
-    <row r="51" spans="1:7">
+    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A51" s="41"/>
       <c r="B51" s="41" t="s">
         <v>378</v>
@@ -8361,7 +8363,7 @@
       <c r="F51" s="41"/>
       <c r="G51" s="41"/>
     </row>
-    <row r="52" spans="1:7">
+    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A52" s="41"/>
       <c r="B52" s="41"/>
       <c r="C52" s="5" t="s">
@@ -8372,7 +8374,7 @@
       <c r="F52" s="41"/>
       <c r="G52" s="41"/>
     </row>
-    <row r="53" spans="1:7">
+    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A53" s="41"/>
       <c r="B53" s="41"/>
       <c r="C53" s="41" t="s">
@@ -8383,7 +8385,7 @@
       <c r="F53" s="41"/>
       <c r="G53" s="41"/>
     </row>
-    <row r="54" spans="1:7">
+    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A54" s="41"/>
       <c r="B54" s="41"/>
       <c r="C54" s="41"/>
@@ -8394,7 +8396,7 @@
       <c r="F54" s="41"/>
       <c r="G54" s="41"/>
     </row>
-    <row r="55" spans="1:7">
+    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A55" s="41"/>
       <c r="B55" s="41"/>
       <c r="C55" s="41"/>
@@ -8405,7 +8407,7 @@
       <c r="F55" s="41"/>
       <c r="G55" s="41"/>
     </row>
-    <row r="56" spans="1:7">
+    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A56" s="41"/>
       <c r="B56" s="41"/>
       <c r="C56" s="41" t="s">
@@ -8416,7 +8418,7 @@
       <c r="F56" s="41"/>
       <c r="G56" s="41"/>
     </row>
-    <row r="57" spans="1:7">
+    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A57" s="41"/>
       <c r="B57" s="41"/>
       <c r="C57" s="41" t="s">
@@ -8427,7 +8429,7 @@
       <c r="F57" s="41"/>
       <c r="G57" s="41"/>
     </row>
-    <row r="58" spans="1:7">
+    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A58" s="41"/>
       <c r="B58" s="41"/>
       <c r="C58" s="41" t="s">
@@ -8438,7 +8440,7 @@
       <c r="F58" s="41"/>
       <c r="G58" s="41"/>
     </row>
-    <row r="59" spans="1:7">
+    <row r="59" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A59" s="41"/>
       <c r="B59" s="41"/>
       <c r="C59" s="41"/>
@@ -8449,7 +8451,7 @@
       <c r="F59" s="41"/>
       <c r="G59" s="41"/>
     </row>
-    <row r="60" spans="1:7">
+    <row r="60" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A60" s="41"/>
       <c r="B60" s="41"/>
       <c r="C60" s="41"/>
@@ -8460,7 +8462,7 @@
       <c r="F60" s="41"/>
       <c r="G60" s="41"/>
     </row>
-    <row r="61" spans="1:7">
+    <row r="61" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A61" s="41"/>
       <c r="B61" s="41"/>
       <c r="C61" s="41"/>
@@ -8471,7 +8473,7 @@
       <c r="F61" s="41"/>
       <c r="G61" s="41"/>
     </row>
-    <row r="62" spans="1:7">
+    <row r="62" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A62" s="41"/>
       <c r="B62" s="41"/>
       <c r="C62" s="41" t="s">
@@ -8482,7 +8484,7 @@
       <c r="F62" s="41"/>
       <c r="G62" s="41"/>
     </row>
-    <row r="63" spans="1:7">
+    <row r="63" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A63" s="41"/>
       <c r="B63" s="41" t="s">
         <v>311</v>
@@ -8493,7 +8495,7 @@
       <c r="F63" s="41"/>
       <c r="G63" s="41"/>
     </row>
-    <row r="64" spans="1:7">
+    <row r="64" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A64" s="41" t="s">
         <v>311</v>
       </c>
@@ -8504,7 +8506,7 @@
       <c r="F64" s="41"/>
       <c r="G64" s="41"/>
     </row>
-    <row r="65" spans="1:9">
+    <row r="65" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A65" s="41"/>
       <c r="B65" s="41"/>
       <c r="C65" s="41"/>
@@ -8513,7 +8515,7 @@
       <c r="F65" s="41"/>
       <c r="G65" s="41"/>
     </row>
-    <row r="66" spans="1:9">
+    <row r="66" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A66" s="41" t="s">
         <v>407</v>
       </c>
@@ -8523,11 +8525,11 @@
       <c r="E66" s="41"/>
       <c r="F66" s="41"/>
       <c r="G66" s="41"/>
-      <c r="I66" t="s">
+      <c r="H66" t="s">
         <v>389</v>
       </c>
     </row>
-    <row r="67" spans="1:9">
+    <row r="67" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A67" s="41" t="s">
         <v>378</v>
       </c>
@@ -8538,7 +8540,7 @@
       <c r="F67" s="41"/>
       <c r="G67" s="41"/>
     </row>
-    <row r="68" spans="1:9">
+    <row r="68" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A68" s="41"/>
       <c r="B68" s="41" t="s">
         <v>376</v>
@@ -8549,7 +8551,7 @@
       <c r="F68" s="41"/>
       <c r="G68" s="41"/>
     </row>
-    <row r="69" spans="1:9">
+    <row r="69" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A69" s="41"/>
       <c r="B69" s="41"/>
       <c r="C69" s="41"/>
@@ -8558,7 +8560,7 @@
       <c r="F69" s="41"/>
       <c r="G69" s="41"/>
     </row>
-    <row r="70" spans="1:9">
+    <row r="70" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A70" s="41"/>
       <c r="B70" s="41" t="s">
         <v>377</v>
@@ -8569,7 +8571,7 @@
       <c r="F70" s="41"/>
       <c r="G70" s="41"/>
     </row>
-    <row r="71" spans="1:9">
+    <row r="71" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A71" s="41"/>
       <c r="B71" s="41" t="s">
         <v>378</v>
@@ -8580,7 +8582,7 @@
       <c r="F71" s="41"/>
       <c r="G71" s="41"/>
     </row>
-    <row r="72" spans="1:9">
+    <row r="72" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A72" s="41"/>
       <c r="B72" s="41"/>
       <c r="C72" s="5" t="s">
@@ -8591,7 +8593,7 @@
       <c r="F72" s="41"/>
       <c r="G72" s="41"/>
     </row>
-    <row r="73" spans="1:9">
+    <row r="73" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A73" s="41"/>
       <c r="B73" s="41"/>
       <c r="C73" s="41" t="s">
@@ -8602,7 +8604,7 @@
       <c r="F73" s="41"/>
       <c r="G73" s="41"/>
     </row>
-    <row r="74" spans="1:9">
+    <row r="74" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A74" s="41"/>
       <c r="B74" s="41"/>
       <c r="C74" s="41"/>
@@ -8613,7 +8615,7 @@
       <c r="F74" s="41"/>
       <c r="G74" s="41"/>
     </row>
-    <row r="75" spans="1:9">
+    <row r="75" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A75" s="41"/>
       <c r="B75" s="41"/>
       <c r="C75" s="41" t="s">
@@ -8624,7 +8626,7 @@
       <c r="F75" s="41"/>
       <c r="G75" s="41"/>
     </row>
-    <row r="76" spans="1:9">
+    <row r="76" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A76" s="41"/>
       <c r="B76" s="41"/>
       <c r="C76" s="41" t="s">
@@ -8635,7 +8637,7 @@
       <c r="F76" s="41"/>
       <c r="G76" s="41"/>
     </row>
-    <row r="77" spans="1:9">
+    <row r="77" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A77" s="41"/>
       <c r="B77" s="41"/>
       <c r="C77" s="41" t="s">
@@ -8646,7 +8648,7 @@
       <c r="F77" s="41"/>
       <c r="G77" s="41"/>
     </row>
-    <row r="78" spans="1:9">
+    <row r="78" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A78" s="41"/>
       <c r="B78" s="41"/>
       <c r="C78" s="41"/>
@@ -8657,7 +8659,7 @@
       <c r="F78" s="5"/>
       <c r="G78" s="41"/>
     </row>
-    <row r="79" spans="1:9">
+    <row r="79" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A79" s="41"/>
       <c r="B79" s="41"/>
       <c r="C79" s="41"/>
@@ -8668,7 +8670,7 @@
       <c r="F79" s="41"/>
       <c r="G79" s="41"/>
     </row>
-    <row r="80" spans="1:9">
+    <row r="80" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A80" s="41"/>
       <c r="B80" s="41"/>
       <c r="C80" s="41"/>
@@ -8679,7 +8681,7 @@
       <c r="F80" s="41"/>
       <c r="G80" s="41"/>
     </row>
-    <row r="81" spans="1:7">
+    <row r="81" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A81" s="41"/>
       <c r="B81" s="41"/>
       <c r="C81" s="41"/>
@@ -8690,7 +8692,7 @@
       <c r="F81" s="41"/>
       <c r="G81" s="41"/>
     </row>
-    <row r="82" spans="1:7">
+    <row r="82" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A82" s="41"/>
       <c r="B82" s="41"/>
       <c r="C82" s="41"/>
@@ -8701,7 +8703,7 @@
       <c r="F82" s="41"/>
       <c r="G82" s="41"/>
     </row>
-    <row r="83" spans="1:7">
+    <row r="83" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A83" s="41"/>
       <c r="B83" s="41"/>
       <c r="C83" s="41"/>
@@ -8712,7 +8714,7 @@
       <c r="F83" s="41"/>
       <c r="G83" s="41"/>
     </row>
-    <row r="84" spans="1:7">
+    <row r="84" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A84" s="41"/>
       <c r="B84" s="41"/>
       <c r="C84" s="41"/>
@@ -8723,7 +8725,7 @@
       <c r="F84" s="41"/>
       <c r="G84" s="41"/>
     </row>
-    <row r="85" spans="1:7">
+    <row r="85" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A85" s="41"/>
       <c r="B85" s="41"/>
       <c r="C85" s="41"/>
@@ -8734,7 +8736,7 @@
       <c r="F85" s="41"/>
       <c r="G85" s="41"/>
     </row>
-    <row r="86" spans="1:7">
+    <row r="86" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A86" s="41"/>
       <c r="B86" s="41"/>
       <c r="C86" s="41" t="s">
@@ -8745,7 +8747,7 @@
       <c r="F86" s="41"/>
       <c r="G86" s="41"/>
     </row>
-    <row r="87" spans="1:7">
+    <row r="87" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A87" s="41"/>
       <c r="B87" s="41" t="s">
         <v>311</v>
@@ -8756,7 +8758,7 @@
       <c r="F87" s="41"/>
       <c r="G87" s="41"/>
     </row>
-    <row r="88" spans="1:7">
+    <row r="88" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A88" s="41"/>
       <c r="B88" s="41" t="s">
         <v>381</v>
@@ -8767,7 +8769,7 @@
       <c r="F88" s="41"/>
       <c r="G88" s="41"/>
     </row>
-    <row r="89" spans="1:7">
+    <row r="89" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A89" s="41"/>
       <c r="B89" s="41" t="s">
         <v>378</v>
@@ -8778,7 +8780,7 @@
       <c r="F89" s="41"/>
       <c r="G89" s="41"/>
     </row>
-    <row r="90" spans="1:7">
+    <row r="90" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A90" s="41"/>
       <c r="B90" s="41"/>
       <c r="C90" s="41" t="s">
@@ -8789,7 +8791,7 @@
       <c r="F90" s="41"/>
       <c r="G90" s="41"/>
     </row>
-    <row r="91" spans="1:7">
+    <row r="91" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A91" s="41"/>
       <c r="B91" s="41" t="s">
         <v>311</v>
@@ -8800,7 +8802,7 @@
       <c r="F91" s="41"/>
       <c r="G91" s="41"/>
     </row>
-    <row r="92" spans="1:7">
+    <row r="92" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A92" s="41"/>
       <c r="B92" s="41"/>
       <c r="C92" s="41"/>
@@ -8809,7 +8811,7 @@
       <c r="F92" s="41"/>
       <c r="G92" s="41"/>
     </row>
-    <row r="93" spans="1:7">
+    <row r="93" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A93" s="41"/>
       <c r="B93" s="41" t="s">
         <v>408</v>
@@ -8820,7 +8822,7 @@
       <c r="F93" s="41"/>
       <c r="G93" s="41"/>
     </row>
-    <row r="94" spans="1:7">
+    <row r="94" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A94" s="41" t="s">
         <v>311</v>
       </c>
@@ -8831,7 +8833,7 @@
       <c r="F94" s="41"/>
       <c r="G94" s="41"/>
     </row>
-    <row r="97" spans="1:11">
+    <row r="97" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A97" s="41"/>
       <c r="B97" s="41"/>
       <c r="C97" s="41"/>
@@ -8840,7 +8842,7 @@
       <c r="F97" s="41"/>
       <c r="G97" s="41"/>
     </row>
-    <row r="105" spans="1:11">
+    <row r="105" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A105" s="41"/>
       <c r="B105" s="41"/>
       <c r="C105" s="41"/>
@@ -8854,7 +8856,7 @@
       <c r="K105" s="41"/>
     </row>
   </sheetData>
-  <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.35433070866141736" bottom="0.35433070866141736" header="0.11811023622047245" footer="0.11811023622047245"/>
+  <pageMargins left="0" right="0" top="0.35433070866141736" bottom="0.35433070866141736" header="0.11811023622047245" footer="0.11811023622047245"/>
   <pageSetup paperSize="9" scale="85" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/CFT4CUnitSrc/src/report/GAReport.xlsx
+++ b/CFT4CUnitSrc/src/report/GAReport.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="1125" windowWidth="14805" windowHeight="6780" tabRatio="940" activeTab="4"/>
@@ -13,12 +13,12 @@
     <sheet name="201612paper" sheetId="12" r:id="rId4"/>
     <sheet name="ThayHieu_report" sheetId="13" r:id="rId5"/>
   </sheets>
-  <calcPr calcId="145621" calcOnSave="0"/>
+  <calcPr calcId="125725" calcOnSave="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="532" uniqueCount="409">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="533" uniqueCount="410">
   <si>
     <t>Nhìn chung, để sinh test case cho một input program theo phương pháp GA thì có các bước sau</t>
   </si>
@@ -1269,15 +1269,18 @@
   <si>
     <t>return type;</t>
   </si>
+  <si>
+    <t>↓</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.000000000"/>
   </numFmts>
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="6">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -4792,7 +4795,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -4827,7 +4829,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -5003,7 +5004,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:AP158"/>
   <sheetViews>
@@ -5011,29 +5012,29 @@
       <selection activeCell="F147" sqref="F147"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="10.7109375" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="10.140625" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="9.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10">
       <c r="A1" s="18">
         <v>42502</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10">
       <c r="B2" t="s">
         <v>168</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10">
       <c r="C3" t="s">
         <v>169</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10">
       <c r="C4" t="s">
         <v>180</v>
       </c>
@@ -5041,17 +5042,17 @@
         <v>181</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10">
       <c r="J5" t="s">
         <v>182</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10">
       <c r="B6" t="s">
         <v>171</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10">
       <c r="B7" t="s">
         <v>179</v>
       </c>
@@ -5059,7 +5060,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:10">
       <c r="B8" t="s">
         <v>179</v>
       </c>
@@ -5067,32 +5068,32 @@
         <v>176</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:10">
       <c r="C9" t="s">
         <v>172</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:10">
       <c r="C10" t="s">
         <v>173</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:10">
       <c r="C11" t="s">
         <v>174</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:10">
       <c r="C13" s="1" t="s">
         <v>177</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:10">
       <c r="C14" s="1" t="s">
         <v>178</v>
       </c>
     </row>
-    <row r="17" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:17">
       <c r="A17" s="18">
         <v>42499</v>
       </c>
@@ -5100,7 +5101,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:17">
       <c r="B18" t="s">
         <v>160</v>
       </c>
@@ -5108,7 +5109,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="19" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:17">
       <c r="C19" t="s">
         <v>161</v>
       </c>
@@ -5116,7 +5117,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:17">
       <c r="C20" t="s">
         <v>162</v>
       </c>
@@ -5124,12 +5125,12 @@
         <v>166</v>
       </c>
     </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:17">
       <c r="C21" t="s">
         <v>167</v>
       </c>
     </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:17">
       <c r="B22" t="s">
         <v>164</v>
       </c>
@@ -5140,7 +5141,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="24" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:17">
       <c r="A24" s="18">
         <v>42496</v>
       </c>
@@ -5154,7 +5155,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:17">
       <c r="B25" t="s">
         <v>137</v>
       </c>
@@ -5162,7 +5163,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="26" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:17">
       <c r="B26" t="s">
         <v>135</v>
       </c>
@@ -5173,7 +5174,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="28" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:17">
       <c r="B28" t="s">
         <v>136</v>
       </c>
@@ -5184,12 +5185,12 @@
         <v>152</v>
       </c>
     </row>
-    <row r="29" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:17">
       <c r="B29" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="30" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:17">
       <c r="B30" t="s">
         <v>139</v>
       </c>
@@ -5197,12 +5198,12 @@
         <v>153</v>
       </c>
     </row>
-    <row r="32" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:17">
       <c r="B32" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="33" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:16">
       <c r="C33" t="s">
         <v>140</v>
       </c>
@@ -5210,7 +5211,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="34" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:16">
       <c r="C34" t="s">
         <v>141</v>
       </c>
@@ -5218,7 +5219,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="36" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:16">
       <c r="B36" t="s">
         <v>142</v>
       </c>
@@ -5226,47 +5227,47 @@
         <v>159</v>
       </c>
     </row>
-    <row r="38" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="38" spans="2:16">
       <c r="B38" t="s">
         <v>143</v>
       </c>
     </row>
-    <row r="39" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="39" spans="2:16">
       <c r="B39" t="s">
         <v>144</v>
       </c>
     </row>
-    <row r="41" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="41" spans="2:16">
       <c r="B41" t="s">
         <v>146</v>
       </c>
     </row>
-    <row r="42" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="42" spans="2:16">
       <c r="B42" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="43" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="43" spans="2:16">
       <c r="B43" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="45" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="45" spans="2:16">
       <c r="B45" t="s">
         <v>148</v>
       </c>
     </row>
-    <row r="50" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:10">
       <c r="A50" s="18">
         <v>42494</v>
       </c>
     </row>
-    <row r="51" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:10">
       <c r="B51" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="52" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:10">
       <c r="C52" t="s">
         <v>1</v>
       </c>
@@ -5274,7 +5275,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="54" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:10">
       <c r="C54" s="5" t="s">
         <v>3</v>
       </c>
@@ -5282,44 +5283,44 @@
         <v>123</v>
       </c>
     </row>
-    <row r="55" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:10">
       <c r="D55" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="56" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:10">
       <c r="E56" s="25" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="57" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:10">
       <c r="E57" s="25"/>
     </row>
-    <row r="58" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:10">
       <c r="B58" s="5" t="s">
         <v>134</v>
       </c>
       <c r="E58" s="25"/>
     </row>
-    <row r="59" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:10">
       <c r="C59" t="s">
         <v>124</v>
       </c>
       <c r="E59" s="25"/>
     </row>
-    <row r="60" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:10">
       <c r="C60" t="s">
         <v>125</v>
       </c>
       <c r="E60" s="25"/>
     </row>
-    <row r="61" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:10">
       <c r="D61" t="s">
         <v>126</v>
       </c>
       <c r="E61" s="25"/>
     </row>
-    <row r="62" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:10">
       <c r="E62" s="26" t="s">
         <v>127</v>
       </c>
@@ -5330,7 +5331,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="63" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:10">
       <c r="E63" s="27">
         <v>1.1000000000000001</v>
       </c>
@@ -5341,7 +5342,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="64" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:10">
       <c r="E64" s="27">
         <v>1.1100000000000001</v>
       </c>
@@ -5358,7 +5359,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="65" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:7">
       <c r="E65" s="27">
         <v>1.3</v>
       </c>
@@ -5369,21 +5370,21 @@
         <v>1</v>
       </c>
     </row>
-    <row r="66" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:7">
       <c r="D66" t="s">
         <v>132</v>
       </c>
       <c r="E66" s="27"/>
     </row>
-    <row r="67" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:7">
       <c r="E67" s="27" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="68" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:7">
       <c r="E68" s="27"/>
     </row>
-    <row r="69" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:7">
       <c r="C69" t="s">
         <v>5</v>
       </c>
@@ -5391,57 +5392,57 @@
         <v>116</v>
       </c>
     </row>
-    <row r="71" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:7">
       <c r="B71" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="72" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:7">
       <c r="B72" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="74" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:7">
       <c r="B74" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="75" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:7">
       <c r="B75" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="77" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:7">
       <c r="A77" s="18">
         <v>42488</v>
       </c>
     </row>
-    <row r="78" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:7">
       <c r="B78" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="79" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:7">
       <c r="C79" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="80" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:7">
       <c r="C80" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="81" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:42">
       <c r="C81" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="82" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:42">
       <c r="C82" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="83" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:42">
       <c r="B83" s="5" t="s">
         <v>113</v>
       </c>
@@ -5454,12 +5455,12 @@
       <c r="I83" s="5"/>
       <c r="J83" s="5"/>
     </row>
-    <row r="85" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:42">
       <c r="A85" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="87" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:42">
       <c r="B87" t="s">
         <v>1</v>
       </c>
@@ -5467,7 +5468,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="89" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:42">
       <c r="B89" t="s">
         <v>3</v>
       </c>
@@ -5475,12 +5476,12 @@
         <v>6</v>
       </c>
     </row>
-    <row r="90" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:42">
       <c r="C90" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="92" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:42">
       <c r="B92" t="s">
         <v>5</v>
       </c>
@@ -5488,12 +5489,12 @@
         <v>8</v>
       </c>
     </row>
-    <row r="93" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:42">
       <c r="C93" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="94" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:42">
       <c r="C94" s="6" t="s">
         <v>52</v>
       </c>
@@ -5527,7 +5528,7 @@
         <v>42483</v>
       </c>
     </row>
-    <row r="95" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:42">
       <c r="C95" s="6" t="s">
         <v>53</v>
       </c>
@@ -5559,7 +5560,7 @@
       <c r="AO95" s="5"/>
       <c r="AP95" s="5"/>
     </row>
-    <row r="96" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:42">
       <c r="C96" t="s">
         <v>14</v>
       </c>
@@ -5573,29 +5574,29 @@
       <c r="AO96" s="5"/>
       <c r="AP96" s="5"/>
     </row>
-    <row r="97" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="97" spans="2:11">
       <c r="C97" s="1"/>
       <c r="D97" s="1" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="98" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="98" spans="2:11">
       <c r="C98" s="1"/>
       <c r="D98" s="1" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="100" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="100" spans="2:11">
       <c r="C100" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="101" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="101" spans="2:11">
       <c r="C101" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="103" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="103" spans="2:11">
       <c r="B103" t="s">
         <v>7</v>
       </c>
@@ -5603,12 +5604,12 @@
         <v>16</v>
       </c>
     </row>
-    <row r="105" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="105" spans="2:11">
       <c r="C105" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="107" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="107" spans="2:11">
       <c r="B107" t="s">
         <v>17</v>
       </c>
@@ -5616,7 +5617,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="108" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="108" spans="2:11">
       <c r="D108" s="5" t="s">
         <v>50</v>
       </c>
@@ -5634,7 +5635,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="109" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="109" spans="2:11">
       <c r="C109" t="s">
         <v>19</v>
       </c>
@@ -5642,12 +5643,12 @@
         <v>20</v>
       </c>
     </row>
-    <row r="110" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="110" spans="2:11">
       <c r="D110" s="3" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="112" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="112" spans="2:11">
       <c r="B112" t="s">
         <v>22</v>
       </c>
@@ -5655,12 +5656,12 @@
         <v>21</v>
       </c>
     </row>
-    <row r="114" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:24">
       <c r="A114" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="115" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:24">
       <c r="B115" t="s">
         <v>48</v>
       </c>
@@ -5682,7 +5683,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="116" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:24">
       <c r="B116" t="s">
         <v>46</v>
       </c>
@@ -5696,7 +5697,7 @@
         <v>42480</v>
       </c>
     </row>
-    <row r="117" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:24">
       <c r="B117" t="s">
         <v>49</v>
       </c>
@@ -5710,14 +5711,14 @@
         <v>42480</v>
       </c>
     </row>
-    <row r="118" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:24">
       <c r="M118" s="6"/>
       <c r="N118" s="6"/>
       <c r="O118" s="6"/>
       <c r="P118" s="6"/>
       <c r="S118" s="8"/>
     </row>
-    <row r="119" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:24">
       <c r="F119" s="9" t="s">
         <v>69</v>
       </c>
@@ -5730,7 +5731,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="120" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:24">
       <c r="A120" t="s">
         <v>47</v>
       </c>
@@ -5753,7 +5754,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="121" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:24">
       <c r="A121" s="4" t="s">
         <v>23</v>
       </c>
@@ -5773,7 +5774,7 @@
       <c r="O121" s="4"/>
       <c r="P121" s="4"/>
     </row>
-    <row r="122" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:24">
       <c r="A122" s="4" t="s">
         <v>24</v>
       </c>
@@ -5793,7 +5794,7 @@
       <c r="O122" s="4"/>
       <c r="P122" s="4"/>
     </row>
-    <row r="123" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:24">
       <c r="A123" t="s">
         <v>25</v>
       </c>
@@ -5813,12 +5814,12 @@
       </c>
       <c r="V123" s="9"/>
     </row>
-    <row r="124" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:24">
       <c r="A124" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="125" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:24">
       <c r="A125" s="4" t="s">
         <v>42</v>
       </c>
@@ -5838,7 +5839,7 @@
       <c r="O125" s="4"/>
       <c r="P125" s="4"/>
     </row>
-    <row r="126" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:24">
       <c r="A126" s="4" t="s">
         <v>27</v>
       </c>
@@ -5858,12 +5859,12 @@
       <c r="O126" s="4"/>
       <c r="P126" s="4"/>
     </row>
-    <row r="127" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:24">
       <c r="A127" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="128" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:24">
       <c r="A128" s="4" t="s">
         <v>45</v>
       </c>
@@ -5883,83 +5884,83 @@
       <c r="O128" s="4"/>
       <c r="P128" s="4"/>
     </row>
-    <row r="129" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:2">
       <c r="A129" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="130" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:2">
       <c r="A130" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="131" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:2">
       <c r="A131" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="132" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:2">
       <c r="A132" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="133" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:2">
       <c r="A133" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="134" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:2">
       <c r="A134" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="135" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:2">
       <c r="A135" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="136" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:2">
       <c r="A136" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="137" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:2">
       <c r="A137" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="138" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:2">
       <c r="A138" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="139" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:2">
       <c r="A139" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="140" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:2">
       <c r="A140" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="141" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:2">
       <c r="A141" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="144" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:2">
       <c r="A144" s="13" t="s">
         <v>70</v>
       </c>
       <c r="B144" s="13"/>
     </row>
-    <row r="145" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="145" spans="2:11">
       <c r="B145" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="146" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="146" spans="2:11">
       <c r="B146" s="5" t="s">
         <v>80</v>
       </c>
@@ -5969,32 +5970,32 @@
       <c r="D146" s="5"/>
       <c r="E146" s="5"/>
     </row>
-    <row r="147" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="147" spans="2:11">
       <c r="B147" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="148" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="148" spans="2:11">
       <c r="C148" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="149" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="149" spans="2:11">
       <c r="B149" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="151" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="151" spans="2:11">
       <c r="B151" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="152" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="152" spans="2:11">
       <c r="B152" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="154" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="154" spans="2:11">
       <c r="B154" s="5" t="s">
         <v>84</v>
       </c>
@@ -6009,12 +6010,12 @@
         <v>42483</v>
       </c>
     </row>
-    <row r="157" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="157" spans="2:11">
       <c r="B157" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="158" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="158" spans="2:11">
       <c r="B158" t="s">
         <v>86</v>
       </c>
@@ -6029,7 +6030,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:R95"/>
   <sheetViews>
@@ -6037,7 +6038,7 @@
       <selection activeCell="H60" sqref="H60"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="2" max="2" width="5" style="10" customWidth="1"/>
     <col min="3" max="3" width="30.140625" bestFit="1" customWidth="1"/>
@@ -6052,7 +6053,7 @@
     <col min="12" max="12" width="14.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:18">
       <c r="A1" s="7" t="s">
         <v>59</v>
       </c>
@@ -6061,7 +6062,7 @@
       <c r="D1" s="7"/>
       <c r="E1" s="11"/>
     </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:18">
       <c r="B2" s="17" t="s">
         <v>65</v>
       </c>
@@ -6099,7 +6100,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:18">
       <c r="B3" s="14">
         <v>1</v>
       </c>
@@ -6143,7 +6144,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:18">
       <c r="B4" s="14">
         <f>B3+1</f>
         <v>2</v>
@@ -6177,7 +6178,7 @@
       </c>
       <c r="L4" s="15"/>
     </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:18">
       <c r="B5" s="14">
         <f t="shared" ref="B5:B19" si="0">B4+1</f>
         <v>3</v>
@@ -6211,7 +6212,7 @@
       </c>
       <c r="L5" s="15"/>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:18">
       <c r="B6" s="14">
         <f t="shared" si="0"/>
         <v>4</v>
@@ -6248,7 +6249,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:18">
       <c r="B7" s="14">
         <f t="shared" si="0"/>
         <v>5</v>
@@ -6289,7 +6290,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:18">
       <c r="B8" s="14">
         <f t="shared" si="0"/>
         <v>6</v>
@@ -6331,7 +6332,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:18">
       <c r="B9" s="14">
         <f t="shared" si="0"/>
         <v>7</v>
@@ -6371,7 +6372,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:18">
       <c r="B10" s="14">
         <f t="shared" si="0"/>
         <v>8</v>
@@ -6411,7 +6412,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:18">
       <c r="B11" s="14">
         <f t="shared" si="0"/>
         <v>9</v>
@@ -6427,7 +6428,7 @@
       <c r="K11" s="15"/>
       <c r="L11" s="15"/>
     </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:18">
       <c r="B12" s="14">
         <f t="shared" si="0"/>
         <v>10</v>
@@ -6443,7 +6444,7 @@
       <c r="K12" s="15"/>
       <c r="L12" s="15"/>
     </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:18">
       <c r="B13" s="14">
         <f t="shared" si="0"/>
         <v>11</v>
@@ -6459,7 +6460,7 @@
       <c r="K13" s="15"/>
       <c r="L13" s="15"/>
     </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:18">
       <c r="B14" s="14">
         <f t="shared" si="0"/>
         <v>12</v>
@@ -6475,7 +6476,7 @@
       <c r="K14" s="15"/>
       <c r="L14" s="15"/>
     </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:18">
       <c r="B15" s="14">
         <f t="shared" si="0"/>
         <v>13</v>
@@ -6491,7 +6492,7 @@
       <c r="K15" s="15"/>
       <c r="L15" s="15"/>
     </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:18">
       <c r="B16" s="14">
         <f t="shared" si="0"/>
         <v>14</v>
@@ -6507,7 +6508,7 @@
       <c r="K16" s="15"/>
       <c r="L16" s="15"/>
     </row>
-    <row r="17" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:12">
       <c r="B17" s="14">
         <f t="shared" si="0"/>
         <v>15</v>
@@ -6523,7 +6524,7 @@
       <c r="K17" s="15"/>
       <c r="L17" s="15"/>
     </row>
-    <row r="18" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:12">
       <c r="B18" s="14">
         <f t="shared" si="0"/>
         <v>16</v>
@@ -6539,7 +6540,7 @@
       <c r="K18" s="15"/>
       <c r="L18" s="15"/>
     </row>
-    <row r="19" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:12">
       <c r="B19" s="14">
         <f t="shared" si="0"/>
         <v>17</v>
@@ -6555,12 +6556,12 @@
       <c r="K19" s="15"/>
       <c r="L19" s="15"/>
     </row>
-    <row r="22" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:12">
       <c r="C22" t="s">
         <v>183</v>
       </c>
     </row>
-    <row r="23" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:12">
       <c r="C23" t="s">
         <v>184</v>
       </c>
@@ -6579,7 +6580,7 @@
       </c>
       <c r="L23" s="47"/>
     </row>
-    <row r="24" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:12">
       <c r="G24" s="49"/>
       <c r="H24" s="51"/>
       <c r="I24" s="14" t="s">
@@ -6595,7 +6596,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="25" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:12">
       <c r="G25" s="33" t="s">
         <v>110</v>
       </c>
@@ -6611,7 +6612,7 @@
       <c r="K25" s="32"/>
       <c r="L25" s="32"/>
     </row>
-    <row r="26" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:12">
       <c r="G26" s="37"/>
       <c r="H26" s="38"/>
       <c r="I26" s="32">
@@ -6623,7 +6624,7 @@
       <c r="K26" s="32"/>
       <c r="L26" s="32"/>
     </row>
-    <row r="27" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:12">
       <c r="G27" s="37"/>
       <c r="H27" s="38"/>
       <c r="I27" s="32">
@@ -6635,7 +6636,7 @@
       <c r="K27" s="32"/>
       <c r="L27" s="32"/>
     </row>
-    <row r="28" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:12">
       <c r="G28" s="37"/>
       <c r="H28" s="38"/>
       <c r="I28" s="32">
@@ -6647,7 +6648,7 @@
       <c r="K28" s="32"/>
       <c r="L28" s="32"/>
     </row>
-    <row r="29" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:12">
       <c r="G29" s="37"/>
       <c r="H29" s="38"/>
       <c r="I29" s="32"/>
@@ -6655,7 +6656,7 @@
       <c r="K29" s="32"/>
       <c r="L29" s="32"/>
     </row>
-    <row r="30" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:12">
       <c r="G30" s="37"/>
       <c r="H30" s="38"/>
       <c r="I30" s="32"/>
@@ -6663,7 +6664,7 @@
       <c r="K30" s="32"/>
       <c r="L30" s="32"/>
     </row>
-    <row r="31" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:12">
       <c r="G31" s="35"/>
       <c r="H31" s="36"/>
       <c r="I31" s="32"/>
@@ -6671,7 +6672,7 @@
       <c r="K31" s="32"/>
       <c r="L31" s="32"/>
     </row>
-    <row r="32" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:12">
       <c r="G32" s="15" t="s">
         <v>109</v>
       </c>
@@ -6681,7 +6682,7 @@
       <c r="K32" s="32"/>
       <c r="L32" s="32"/>
     </row>
-    <row r="33" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:12">
       <c r="G33" s="15"/>
       <c r="H33" s="32"/>
       <c r="I33" s="32"/>
@@ -6689,7 +6690,7 @@
       <c r="K33" s="32"/>
       <c r="L33" s="32"/>
     </row>
-    <row r="34" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:12">
       <c r="G34" s="15"/>
       <c r="H34" s="32"/>
       <c r="I34" s="32"/>
@@ -6697,7 +6698,7 @@
       <c r="K34" s="32"/>
       <c r="L34" s="32"/>
     </row>
-    <row r="35" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:12">
       <c r="G35" s="15"/>
       <c r="H35" s="32"/>
       <c r="I35" s="32"/>
@@ -6705,7 +6706,7 @@
       <c r="K35" s="32"/>
       <c r="L35" s="32"/>
     </row>
-    <row r="36" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:12">
       <c r="G36" s="15" t="s">
         <v>195</v>
       </c>
@@ -6725,7 +6726,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:12">
       <c r="G37" s="15"/>
       <c r="H37" s="32"/>
       <c r="I37" s="32">
@@ -6741,7 +6742,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="38" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:12">
       <c r="G38" s="15"/>
       <c r="H38" s="32"/>
       <c r="I38" s="32"/>
@@ -6753,7 +6754,7 @@
         <v>462</v>
       </c>
     </row>
-    <row r="39" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:12">
       <c r="G39" s="15"/>
       <c r="H39" s="32"/>
       <c r="I39" s="32"/>
@@ -6765,7 +6766,7 @@
         <v>57595</v>
       </c>
     </row>
-    <row r="40" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:12">
       <c r="G40" s="15" t="s">
         <v>111</v>
       </c>
@@ -6775,7 +6776,7 @@
       <c r="K40" s="32"/>
       <c r="L40" s="32"/>
     </row>
-    <row r="41" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:12">
       <c r="G41" s="15"/>
       <c r="H41" s="32"/>
       <c r="I41" s="32"/>
@@ -6783,14 +6784,14 @@
       <c r="K41" s="32"/>
       <c r="L41" s="32"/>
     </row>
-    <row r="42" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:12">
       <c r="H42" s="31"/>
       <c r="I42" s="31"/>
       <c r="J42" s="31"/>
       <c r="K42" s="31"/>
       <c r="L42" s="31"/>
     </row>
-    <row r="43" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:12">
       <c r="A43" t="s">
         <v>198</v>
       </c>
@@ -6800,7 +6801,7 @@
       <c r="K43" s="31"/>
       <c r="L43" s="31"/>
     </row>
-    <row r="44" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:12">
       <c r="C44" t="s">
         <v>199</v>
       </c>
@@ -6810,7 +6811,7 @@
       <c r="K44" s="31"/>
       <c r="L44" s="31"/>
     </row>
-    <row r="45" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:12">
       <c r="C45" t="s">
         <v>200</v>
       </c>
@@ -6821,7 +6822,7 @@
       <c r="I45" s="30"/>
       <c r="J45" s="30"/>
     </row>
-    <row r="46" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:12">
       <c r="C46" t="s">
         <v>202</v>
       </c>
@@ -6829,7 +6830,7 @@
       <c r="I46" s="30"/>
       <c r="J46" s="30"/>
     </row>
-    <row r="47" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:12">
       <c r="C47" t="s">
         <v>208</v>
       </c>
@@ -6840,17 +6841,17 @@
       <c r="I47" s="30"/>
       <c r="J47" s="30"/>
     </row>
-    <row r="48" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:12">
       <c r="C48" t="s">
         <v>212</v>
       </c>
     </row>
-    <row r="50" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:10">
       <c r="A50" t="s">
         <v>203</v>
       </c>
     </row>
-    <row r="51" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:10">
       <c r="A51" t="s">
         <v>158</v>
       </c>
@@ -6858,7 +6859,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="52" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:10">
       <c r="A52" t="s">
         <v>158</v>
       </c>
@@ -6875,7 +6876,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="53" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:10">
       <c r="B53" s="39" t="s">
         <v>206</v>
       </c>
@@ -6883,41 +6884,41 @@
         <v>211</v>
       </c>
     </row>
-    <row r="54" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:10">
       <c r="B54" s="39" t="s">
         <v>213</v>
       </c>
     </row>
-    <row r="55" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:10">
       <c r="B55" s="39" t="s">
         <v>214</v>
       </c>
     </row>
-    <row r="56" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:10">
       <c r="B56" s="39"/>
       <c r="J56" s="40"/>
     </row>
-    <row r="57" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:10">
       <c r="J57" s="40"/>
     </row>
-    <row r="58" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:10">
       <c r="H58"/>
       <c r="J58" s="40"/>
     </row>
-    <row r="59" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:10">
       <c r="H59"/>
       <c r="J59" s="40"/>
     </row>
-    <row r="60" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:10">
       <c r="H60"/>
     </row>
-    <row r="61" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:10">
       <c r="H61"/>
     </row>
-    <row r="62" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:10">
       <c r="H62"/>
     </row>
-    <row r="95" spans="16:16" x14ac:dyDescent="0.25">
+    <row r="95" spans="16:16">
       <c r="P95" s="41"/>
     </row>
   </sheetData>
@@ -6934,7 +6935,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr codeName="Sheet3"/>
   <dimension ref="A1:AH18"/>
   <sheetViews>
@@ -6942,22 +6943,22 @@
       <selection activeCell="U24" sqref="U24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="16384" width="9.140625" style="42"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:34">
       <c r="A1" s="43" t="s">
         <v>219</v>
       </c>
     </row>
-    <row r="2" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:34">
       <c r="O2" s="42" t="s">
         <v>215</v>
       </c>
     </row>
-    <row r="3" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:34">
       <c r="A3" s="42" t="s">
         <v>220</v>
       </c>
@@ -6965,7 +6966,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="4" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:34">
       <c r="P4" s="42" t="s">
         <v>218</v>
       </c>
@@ -6979,12 +6980,12 @@
       <c r="AG4" s="5"/>
       <c r="AH4" s="5"/>
     </row>
-    <row r="5" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:34">
       <c r="A5" s="42" t="s">
         <v>221</v>
       </c>
     </row>
-    <row r="6" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:34">
       <c r="B6" s="42" t="s">
         <v>224</v>
       </c>
@@ -6992,42 +6993,42 @@
         <v>225</v>
       </c>
     </row>
-    <row r="7" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:34">
       <c r="A7" s="42" t="s">
         <v>222</v>
       </c>
     </row>
-    <row r="8" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:34">
       <c r="B8" s="42" t="s">
         <v>223</v>
       </c>
     </row>
-    <row r="12" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:34">
       <c r="O12" s="42" t="s">
         <v>216</v>
       </c>
     </row>
-    <row r="13" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:34">
       <c r="P13" s="42" t="s">
         <v>217</v>
       </c>
     </row>
-    <row r="14" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:34">
       <c r="Q14" s="42" t="s">
         <v>226</v>
       </c>
     </row>
-    <row r="16" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:34">
       <c r="P16" s="42" t="s">
         <v>227</v>
       </c>
     </row>
-    <row r="17" spans="4:16" x14ac:dyDescent="0.25">
+    <row r="17" spans="4:16">
       <c r="P17" s="42" t="s">
         <v>228</v>
       </c>
     </row>
-    <row r="18" spans="4:16" x14ac:dyDescent="0.25">
+    <row r="18" spans="4:16">
       <c r="D18" s="44"/>
     </row>
   </sheetData>
@@ -7038,7 +7039,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr codeName="Sheet4"/>
   <dimension ref="A1:AF109"/>
   <sheetViews>
@@ -7046,14 +7047,14 @@
       <selection activeCell="G52" sqref="G52"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:31">
       <c r="A1" t="s">
         <v>230</v>
       </c>
     </row>
-    <row r="2" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:31">
       <c r="B2" s="25" t="s">
         <v>229</v>
       </c>
@@ -7061,7 +7062,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="4" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:31">
       <c r="A4" t="s">
         <v>231</v>
       </c>
@@ -7069,7 +7070,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="7" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:31">
       <c r="A7" t="s">
         <v>234</v>
       </c>
@@ -7077,7 +7078,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="8" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:31">
       <c r="B8" s="25" t="s">
         <v>233</v>
       </c>
@@ -7093,7 +7094,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="9" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:31">
       <c r="B9" t="s">
         <v>235</v>
       </c>
@@ -7107,7 +7108,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="10" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:31">
       <c r="C10" s="3" t="s">
         <v>236</v>
       </c>
@@ -7121,7 +7122,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="11" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:31">
       <c r="C11" s="3" t="s">
         <v>237</v>
       </c>
@@ -7139,7 +7140,7 @@
       </c>
       <c r="AE11" s="5"/>
     </row>
-    <row r="12" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:31">
       <c r="R12" t="s">
         <v>252</v>
       </c>
@@ -7150,7 +7151,7 @@
         <v>287</v>
       </c>
     </row>
-    <row r="13" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:31">
       <c r="A13" t="s">
         <v>239</v>
       </c>
@@ -7164,7 +7165,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="14" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:31">
       <c r="B14" s="4" t="s">
         <v>240</v>
       </c>
@@ -7187,7 +7188,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="15" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:31">
       <c r="C15" t="s">
         <v>244</v>
       </c>
@@ -7207,7 +7208,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="16" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:31">
       <c r="C16" t="s">
         <v>246</v>
       </c>
@@ -7224,7 +7225,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="17" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:32">
       <c r="B17" s="4" t="s">
         <v>241</v>
       </c>
@@ -7249,7 +7250,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="18" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:32">
       <c r="C18" t="s">
         <v>247</v>
       </c>
@@ -7263,7 +7264,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="19" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:32">
       <c r="R19" t="s">
         <v>259</v>
       </c>
@@ -7271,7 +7272,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="20" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:32">
       <c r="R20" t="s">
         <v>260</v>
       </c>
@@ -7282,12 +7283,12 @@
         <v>295</v>
       </c>
     </row>
-    <row r="21" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:32">
       <c r="R21" t="s">
         <v>261</v>
       </c>
     </row>
-    <row r="22" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:32">
       <c r="B22" t="s">
         <v>242</v>
       </c>
@@ -7301,7 +7302,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="23" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:32">
       <c r="R23" t="s">
         <v>263</v>
       </c>
@@ -7309,7 +7310,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="24" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:32">
       <c r="R24" t="s">
         <v>264</v>
       </c>
@@ -7317,7 +7318,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="25" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:32">
       <c r="R25" t="s">
         <v>265</v>
       </c>
@@ -7327,7 +7328,7 @@
       <c r="AE25" s="5"/>
       <c r="AF25" s="5"/>
     </row>
-    <row r="26" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:32">
       <c r="R26" t="s">
         <v>266</v>
       </c>
@@ -7335,7 +7336,7 @@
         <v>298</v>
       </c>
     </row>
-    <row r="27" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:32">
       <c r="A27" s="13" t="s">
         <v>305</v>
       </c>
@@ -7351,7 +7352,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="28" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:32">
       <c r="B28" t="s">
         <v>306</v>
       </c>
@@ -7362,7 +7363,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="29" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:32">
       <c r="B29" t="s">
         <v>307</v>
       </c>
@@ -7373,7 +7374,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="30" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:32">
       <c r="B30" t="s">
         <v>308</v>
       </c>
@@ -7384,7 +7385,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="31" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:32">
       <c r="C31" t="s">
         <v>309</v>
       </c>
@@ -7392,7 +7393,7 @@
         <v>302</v>
       </c>
     </row>
-    <row r="32" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:32">
       <c r="C32" t="s">
         <v>310</v>
       </c>
@@ -7400,7 +7401,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="33" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:30">
       <c r="B33" t="s">
         <v>311</v>
       </c>
@@ -7408,7 +7409,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="34" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:30">
       <c r="B34" t="s">
         <v>312</v>
       </c>
@@ -7416,72 +7417,72 @@
         <v>295</v>
       </c>
     </row>
-    <row r="35" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:30">
       <c r="C35" t="s">
         <v>313</v>
       </c>
     </row>
-    <row r="36" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:30">
       <c r="D36" t="s">
         <v>314</v>
       </c>
     </row>
-    <row r="37" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:30">
       <c r="D37" t="s">
         <v>315</v>
       </c>
     </row>
-    <row r="38" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:30">
       <c r="C38" t="s">
         <v>311</v>
       </c>
     </row>
-    <row r="39" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:30">
       <c r="C39" t="s">
         <v>316</v>
       </c>
     </row>
-    <row r="40" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:30">
       <c r="D40" t="s">
         <v>314</v>
       </c>
     </row>
-    <row r="41" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:30">
       <c r="D41" t="s">
         <v>315</v>
       </c>
     </row>
-    <row r="42" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:30">
       <c r="C42" t="s">
         <v>311</v>
       </c>
     </row>
-    <row r="43" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:30">
       <c r="C43" t="s">
         <v>317</v>
       </c>
     </row>
-    <row r="44" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:30">
       <c r="C44" t="s">
         <v>318</v>
       </c>
     </row>
-    <row r="45" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:30">
       <c r="C45" t="s">
         <v>319</v>
       </c>
     </row>
-    <row r="46" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:30">
       <c r="B46" t="s">
         <v>311</v>
       </c>
     </row>
-    <row r="47" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:30">
       <c r="A47" t="s">
         <v>311</v>
       </c>
     </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:7">
       <c r="A49" s="13" t="s">
         <v>320</v>
       </c>
@@ -7491,17 +7492,17 @@
       <c r="E49" s="13"/>
       <c r="F49" s="13"/>
     </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:7">
       <c r="B50" t="s">
         <v>321</v>
       </c>
     </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:7">
       <c r="B51" t="s">
         <v>322</v>
       </c>
     </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:7">
       <c r="B52" s="5" t="s">
         <v>323</v>
       </c>
@@ -7510,32 +7511,32 @@
         <v>324</v>
       </c>
     </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:7">
       <c r="C53" t="s">
         <v>325</v>
       </c>
     </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:7">
       <c r="D54" t="s">
         <v>326</v>
       </c>
     </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:7">
       <c r="E55" t="s">
         <v>327</v>
       </c>
     </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:7">
       <c r="B56" t="s">
         <v>322</v>
       </c>
     </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:7">
       <c r="A57" t="s">
         <v>311</v>
       </c>
     </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:7">
       <c r="A59" s="13" t="s">
         <v>328</v>
       </c>
@@ -7545,62 +7546,62 @@
       <c r="E59" s="13"/>
       <c r="F59" s="13"/>
     </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:7">
       <c r="A60" t="s">
         <v>329</v>
       </c>
     </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:7">
       <c r="A61" t="s">
         <v>330</v>
       </c>
     </row>
-    <row r="62" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:7">
       <c r="A62" t="s">
         <v>331</v>
       </c>
     </row>
-    <row r="63" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:7">
       <c r="A63" t="s">
         <v>332</v>
       </c>
     </row>
-    <row r="64" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:7">
       <c r="A64" t="s">
         <v>333</v>
       </c>
     </row>
-    <row r="65" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:9">
       <c r="A65" t="s">
         <v>334</v>
       </c>
     </row>
-    <row r="66" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:9">
       <c r="A66" t="s">
         <v>335</v>
       </c>
     </row>
-    <row r="67" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:9">
       <c r="A67" t="s">
         <v>334</v>
       </c>
     </row>
-    <row r="68" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:9">
       <c r="A68" t="s">
         <v>336</v>
       </c>
     </row>
-    <row r="69" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:9">
       <c r="A69" t="s">
         <v>337</v>
       </c>
     </row>
-    <row r="70" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:9">
       <c r="A70" t="s">
         <v>338</v>
       </c>
     </row>
-    <row r="71" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:9">
       <c r="A71" t="s">
         <v>339</v>
       </c>
@@ -7608,7 +7609,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="72" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:9">
       <c r="A72" t="s">
         <v>340</v>
       </c>
@@ -7616,182 +7617,182 @@
         <v>372</v>
       </c>
     </row>
-    <row r="73" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:9">
       <c r="A73" t="s">
         <v>341</v>
       </c>
     </row>
-    <row r="74" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:9">
       <c r="A74" t="s">
         <v>342</v>
       </c>
     </row>
-    <row r="75" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:9">
       <c r="A75" t="s">
         <v>343</v>
       </c>
     </row>
-    <row r="76" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:9">
       <c r="A76" t="s">
         <v>344</v>
       </c>
     </row>
-    <row r="77" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:9">
       <c r="A77" t="s">
         <v>345</v>
       </c>
     </row>
-    <row r="78" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:9">
       <c r="A78" t="s">
         <v>341</v>
       </c>
     </row>
-    <row r="79" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:9">
       <c r="A79" t="s">
         <v>346</v>
       </c>
     </row>
-    <row r="80" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:9">
       <c r="A80" t="s">
         <v>347</v>
       </c>
     </row>
-    <row r="81" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:1">
       <c r="A81" t="s">
         <v>348</v>
       </c>
     </row>
-    <row r="82" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:1">
       <c r="A82" t="s">
         <v>349</v>
       </c>
     </row>
-    <row r="83" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:1">
       <c r="A83" t="s">
         <v>350</v>
       </c>
     </row>
-    <row r="84" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:1">
       <c r="A84" t="s">
         <v>351</v>
       </c>
     </row>
-    <row r="85" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:1">
       <c r="A85" t="s">
         <v>352</v>
       </c>
     </row>
-    <row r="86" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:1">
       <c r="A86" t="s">
         <v>348</v>
       </c>
     </row>
-    <row r="87" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:1">
       <c r="A87" t="s">
         <v>353</v>
       </c>
     </row>
-    <row r="88" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:1">
       <c r="A88" t="s">
         <v>354</v>
       </c>
     </row>
-    <row r="89" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:1">
       <c r="A89" t="s">
         <v>355</v>
       </c>
     </row>
-    <row r="90" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:1">
       <c r="A90" t="s">
         <v>356</v>
       </c>
     </row>
-    <row r="91" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:1">
       <c r="A91" t="s">
         <v>357</v>
       </c>
     </row>
-    <row r="92" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:1">
       <c r="A92" t="s">
         <v>358</v>
       </c>
     </row>
-    <row r="93" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:1">
       <c r="A93" t="s">
         <v>359</v>
       </c>
     </row>
-    <row r="94" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:1">
       <c r="A94" t="s">
         <v>360</v>
       </c>
     </row>
-    <row r="95" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:1">
       <c r="A95" t="s">
         <v>361</v>
       </c>
     </row>
-    <row r="96" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:1">
       <c r="A96" t="s">
         <v>362</v>
       </c>
     </row>
-    <row r="97" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:1">
       <c r="A97" t="s">
         <v>363</v>
       </c>
     </row>
-    <row r="98" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:1">
       <c r="A98" t="s">
         <v>351</v>
       </c>
     </row>
-    <row r="99" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:1">
       <c r="A99" t="s">
         <v>344</v>
       </c>
     </row>
-    <row r="100" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:1">
       <c r="A100" t="s">
         <v>364</v>
       </c>
     </row>
-    <row r="101" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:1">
       <c r="A101" t="s">
         <v>365</v>
       </c>
     </row>
-    <row r="102" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:1">
       <c r="A102" t="s">
         <v>338</v>
       </c>
     </row>
-    <row r="103" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:1">
       <c r="A103" t="s">
         <v>366</v>
       </c>
     </row>
-    <row r="104" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:1">
       <c r="A104" t="s">
         <v>367</v>
       </c>
     </row>
-    <row r="105" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:1">
       <c r="A105" t="s">
         <v>364</v>
       </c>
     </row>
-    <row r="107" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:1">
       <c r="A107" t="s">
         <v>368</v>
       </c>
     </row>
-    <row r="108" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:1">
       <c r="A108" t="s">
         <v>369</v>
       </c>
     </row>
-    <row r="109" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:1">
       <c r="A109" t="s">
         <v>370</v>
       </c>
@@ -7806,16 +7807,16 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:K105"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A46" workbookViewId="0">
-      <selection activeCell="I66" sqref="I66"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H5" sqref="H5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8">
       <c r="A1" s="46" t="s">
         <v>375</v>
       </c>
@@ -7824,7 +7825,7 @@
       <c r="D1" s="46"/>
       <c r="E1" s="46"/>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8">
       <c r="A3" s="41" t="s">
         <v>391</v>
       </c>
@@ -7838,7 +7839,7 @@
         <v>388</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8">
       <c r="A4" s="41" t="s">
         <v>378</v>
       </c>
@@ -7848,8 +7849,11 @@
       <c r="E4" s="41"/>
       <c r="F4" s="41"/>
       <c r="G4" s="41"/>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H4" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
       <c r="A5" s="41"/>
       <c r="B5" s="5" t="s">
         <v>323</v>
@@ -7860,7 +7864,7 @@
       <c r="F5" s="41"/>
       <c r="G5" s="41"/>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8">
       <c r="A6" s="41"/>
       <c r="B6" s="41" t="s">
         <v>378</v>
@@ -7871,7 +7875,7 @@
       <c r="F6" s="41"/>
       <c r="G6" s="41"/>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8">
       <c r="A7" s="41"/>
       <c r="B7" s="41"/>
       <c r="C7" s="41" t="s">
@@ -7882,7 +7886,7 @@
       <c r="F7" s="41"/>
       <c r="G7" s="41"/>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8">
       <c r="A8" s="41"/>
       <c r="B8" s="41"/>
       <c r="C8" s="41" t="s">
@@ -7893,7 +7897,7 @@
       <c r="F8" s="41"/>
       <c r="G8" s="41"/>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8">
       <c r="A9" s="41"/>
       <c r="B9" s="41"/>
       <c r="C9" s="41"/>
@@ -7904,7 +7908,7 @@
       <c r="F9" s="41"/>
       <c r="G9" s="41"/>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8">
       <c r="A10" s="41"/>
       <c r="B10" s="41"/>
       <c r="C10" s="41"/>
@@ -7915,7 +7919,7 @@
       <c r="F10" s="41"/>
       <c r="G10" s="41"/>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8">
       <c r="A11" s="41"/>
       <c r="B11" s="41"/>
       <c r="C11" s="41"/>
@@ -7926,7 +7930,7 @@
       <c r="F11" s="41"/>
       <c r="G11" s="41"/>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8">
       <c r="A12" s="41"/>
       <c r="B12" s="41"/>
       <c r="C12" s="41"/>
@@ -7937,7 +7941,7 @@
       <c r="F12" s="41"/>
       <c r="G12" s="41"/>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8">
       <c r="A13" s="41"/>
       <c r="B13" s="41"/>
       <c r="C13" s="41"/>
@@ -7948,7 +7952,7 @@
       <c r="F13" s="41"/>
       <c r="G13" s="41"/>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8">
       <c r="A14" s="41"/>
       <c r="B14" s="41"/>
       <c r="C14" s="41"/>
@@ -7959,7 +7963,7 @@
       <c r="F14" s="41"/>
       <c r="G14" s="41"/>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8">
       <c r="A15" s="41"/>
       <c r="B15" s="41"/>
       <c r="C15" s="41"/>
@@ -7970,7 +7974,7 @@
       <c r="F15" s="41"/>
       <c r="G15" s="41"/>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:8">
       <c r="A16" s="41"/>
       <c r="B16" s="41"/>
       <c r="C16" s="41"/>
@@ -7981,7 +7985,7 @@
       <c r="F16" s="41"/>
       <c r="G16" s="41"/>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:8">
       <c r="A17" s="41"/>
       <c r="B17" s="41"/>
       <c r="C17" s="41" t="s">
@@ -7992,7 +7996,7 @@
       <c r="F17" s="41"/>
       <c r="G17" s="41"/>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:8">
       <c r="A18" s="41"/>
       <c r="B18" s="41"/>
       <c r="C18" s="41" t="s">
@@ -8003,7 +8007,7 @@
       <c r="F18" s="41"/>
       <c r="G18" s="41"/>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:8">
       <c r="A19" s="41"/>
       <c r="B19" s="41"/>
       <c r="C19" s="41" t="s">
@@ -8014,7 +8018,7 @@
       <c r="F19" s="41"/>
       <c r="G19" s="41"/>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:8">
       <c r="A20" s="41"/>
       <c r="B20" s="41"/>
       <c r="C20" s="41"/>
@@ -8025,7 +8029,7 @@
       <c r="F20" s="41"/>
       <c r="G20" s="41"/>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:8">
       <c r="A21" s="41"/>
       <c r="B21" s="41"/>
       <c r="C21" s="41" t="s">
@@ -8036,7 +8040,7 @@
       <c r="F21" s="41"/>
       <c r="G21" s="41"/>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:8">
       <c r="A22" s="41"/>
       <c r="B22" s="41" t="s">
         <v>311</v>
@@ -8047,7 +8051,7 @@
       <c r="F22" s="41"/>
       <c r="G22" s="41"/>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:8">
       <c r="A23" s="41"/>
       <c r="B23" s="41" t="s">
         <v>381</v>
@@ -8058,7 +8062,7 @@
       <c r="F23" s="41"/>
       <c r="G23" s="41"/>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:8">
       <c r="A24" s="41"/>
       <c r="B24" s="41" t="s">
         <v>378</v>
@@ -8069,7 +8073,7 @@
       <c r="F24" s="41"/>
       <c r="G24" s="41"/>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:8">
       <c r="A25" s="41"/>
       <c r="B25" s="41"/>
       <c r="C25" s="41" t="s">
@@ -8080,7 +8084,7 @@
       <c r="F25" s="41"/>
       <c r="G25" s="41"/>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:8">
       <c r="A26" s="41"/>
       <c r="B26" s="41" t="s">
         <v>311</v>
@@ -8091,7 +8095,7 @@
       <c r="F26" s="41"/>
       <c r="G26" s="41"/>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:8">
       <c r="A27" s="41" t="s">
         <v>311</v>
       </c>
@@ -8102,7 +8106,7 @@
       <c r="F27" s="41"/>
       <c r="G27" s="41"/>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:8">
       <c r="A28" s="41"/>
       <c r="B28" s="41"/>
       <c r="C28" s="41"/>
@@ -8111,7 +8115,7 @@
       <c r="F28" s="41"/>
       <c r="G28" s="41"/>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:8">
       <c r="A29" s="41" t="s">
         <v>394</v>
       </c>
@@ -8125,7 +8129,7 @@
         <v>390</v>
       </c>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:8">
       <c r="A30" s="41" t="s">
         <v>378</v>
       </c>
@@ -8136,7 +8140,7 @@
       <c r="F30" s="41"/>
       <c r="G30" s="41"/>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:8">
       <c r="A31" s="41"/>
       <c r="B31" s="41" t="s">
         <v>395</v>
@@ -8147,7 +8151,7 @@
       <c r="F31" s="41"/>
       <c r="G31" s="41"/>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:8">
       <c r="A32" s="41"/>
       <c r="B32" s="41"/>
       <c r="C32" s="41"/>
@@ -8156,7 +8160,7 @@
       <c r="F32" s="41"/>
       <c r="G32" s="41"/>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:7">
       <c r="A33" s="41"/>
       <c r="B33" s="5" t="s">
         <v>396</v>
@@ -8167,7 +8171,7 @@
       <c r="F33" s="41"/>
       <c r="G33" s="41"/>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:7">
       <c r="A34" s="41"/>
       <c r="B34" s="41" t="s">
         <v>378</v>
@@ -8178,7 +8182,7 @@
       <c r="F34" s="41"/>
       <c r="G34" s="41"/>
     </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:7">
       <c r="A35" s="41"/>
       <c r="B35" s="41"/>
       <c r="C35" s="5" t="s">
@@ -8189,7 +8193,7 @@
       <c r="F35" s="41"/>
       <c r="G35" s="41"/>
     </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:7">
       <c r="A36" s="41"/>
       <c r="B36" s="41"/>
       <c r="C36" s="41" t="s">
@@ -8200,7 +8204,7 @@
       <c r="F36" s="41"/>
       <c r="G36" s="41"/>
     </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:7">
       <c r="A37" s="41"/>
       <c r="B37" s="41"/>
       <c r="C37" s="41"/>
@@ -8211,7 +8215,7 @@
       <c r="F37" s="41"/>
       <c r="G37" s="41"/>
     </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:7">
       <c r="A38" s="41"/>
       <c r="B38" s="41"/>
       <c r="C38" s="41" t="s">
@@ -8222,7 +8226,7 @@
       <c r="F38" s="41"/>
       <c r="G38" s="41"/>
     </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:7">
       <c r="A39" s="41"/>
       <c r="B39" s="41"/>
       <c r="C39" s="41" t="s">
@@ -8233,7 +8237,7 @@
       <c r="F39" s="41"/>
       <c r="G39" s="41"/>
     </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:7">
       <c r="A40" s="41"/>
       <c r="B40" s="41"/>
       <c r="C40" s="41" t="s">
@@ -8244,7 +8248,7 @@
       <c r="F40" s="41"/>
       <c r="G40" s="41"/>
     </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:7">
       <c r="A41" s="41"/>
       <c r="B41" s="41"/>
       <c r="C41" s="41"/>
@@ -8255,7 +8259,7 @@
       <c r="F41" s="41"/>
       <c r="G41" s="41"/>
     </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:7">
       <c r="A42" s="41"/>
       <c r="B42" s="41"/>
       <c r="C42" s="41" t="s">
@@ -8266,7 +8270,7 @@
       <c r="F42" s="41"/>
       <c r="G42" s="41"/>
     </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:7">
       <c r="A43" s="41"/>
       <c r="B43" s="41"/>
       <c r="C43" s="41" t="s">
@@ -8277,7 +8281,7 @@
       <c r="F43" s="41"/>
       <c r="G43" s="41"/>
     </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:7">
       <c r="A44" s="41"/>
       <c r="B44" s="41" t="s">
         <v>398</v>
@@ -8288,7 +8292,7 @@
       <c r="F44" s="41"/>
       <c r="G44" s="41"/>
     </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:7">
       <c r="A45" s="41"/>
       <c r="B45" s="41"/>
       <c r="C45" s="41"/>
@@ -8297,7 +8301,7 @@
       <c r="F45" s="41"/>
       <c r="G45" s="41"/>
     </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:7">
       <c r="A46" s="41"/>
       <c r="B46" s="41" t="s">
         <v>399</v>
@@ -8308,7 +8312,7 @@
       <c r="F46" s="41"/>
       <c r="G46" s="41"/>
     </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:7">
       <c r="A47" s="41"/>
       <c r="B47" s="41" t="s">
         <v>400</v>
@@ -8319,7 +8323,7 @@
       <c r="F47" s="41"/>
       <c r="G47" s="41"/>
     </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:7">
       <c r="A48" s="41"/>
       <c r="B48" s="41"/>
       <c r="C48" s="41" t="s">
@@ -8330,7 +8334,7 @@
       <c r="F48" s="41"/>
       <c r="G48" s="41"/>
     </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:7">
       <c r="A49" s="41"/>
       <c r="B49" s="41" t="s">
         <v>398</v>
@@ -8341,7 +8345,7 @@
       <c r="F49" s="41"/>
       <c r="G49" s="41"/>
     </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:7">
       <c r="A50" s="41"/>
       <c r="B50" s="41" t="s">
         <v>401</v>
@@ -8352,7 +8356,7 @@
       <c r="F50" s="41"/>
       <c r="G50" s="41"/>
     </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:7">
       <c r="A51" s="41"/>
       <c r="B51" s="41" t="s">
         <v>378</v>
@@ -8363,7 +8367,7 @@
       <c r="F51" s="41"/>
       <c r="G51" s="41"/>
     </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:7">
       <c r="A52" s="41"/>
       <c r="B52" s="41"/>
       <c r="C52" s="5" t="s">
@@ -8374,7 +8378,7 @@
       <c r="F52" s="41"/>
       <c r="G52" s="41"/>
     </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:7">
       <c r="A53" s="41"/>
       <c r="B53" s="41"/>
       <c r="C53" s="41" t="s">
@@ -8385,7 +8389,7 @@
       <c r="F53" s="41"/>
       <c r="G53" s="41"/>
     </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:7">
       <c r="A54" s="41"/>
       <c r="B54" s="41"/>
       <c r="C54" s="41"/>
@@ -8396,7 +8400,7 @@
       <c r="F54" s="41"/>
       <c r="G54" s="41"/>
     </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:7">
       <c r="A55" s="41"/>
       <c r="B55" s="41"/>
       <c r="C55" s="41"/>
@@ -8407,7 +8411,7 @@
       <c r="F55" s="41"/>
       <c r="G55" s="41"/>
     </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:7">
       <c r="A56" s="41"/>
       <c r="B56" s="41"/>
       <c r="C56" s="41" t="s">
@@ -8418,7 +8422,7 @@
       <c r="F56" s="41"/>
       <c r="G56" s="41"/>
     </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:7">
       <c r="A57" s="41"/>
       <c r="B57" s="41"/>
       <c r="C57" s="41" t="s">
@@ -8429,7 +8433,7 @@
       <c r="F57" s="41"/>
       <c r="G57" s="41"/>
     </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:7">
       <c r="A58" s="41"/>
       <c r="B58" s="41"/>
       <c r="C58" s="41" t="s">
@@ -8440,7 +8444,7 @@
       <c r="F58" s="41"/>
       <c r="G58" s="41"/>
     </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:7">
       <c r="A59" s="41"/>
       <c r="B59" s="41"/>
       <c r="C59" s="41"/>
@@ -8451,7 +8455,7 @@
       <c r="F59" s="41"/>
       <c r="G59" s="41"/>
     </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:7">
       <c r="A60" s="41"/>
       <c r="B60" s="41"/>
       <c r="C60" s="41"/>
@@ -8462,7 +8466,7 @@
       <c r="F60" s="41"/>
       <c r="G60" s="41"/>
     </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:7">
       <c r="A61" s="41"/>
       <c r="B61" s="41"/>
       <c r="C61" s="41"/>
@@ -8473,7 +8477,7 @@
       <c r="F61" s="41"/>
       <c r="G61" s="41"/>
     </row>
-    <row r="62" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:7">
       <c r="A62" s="41"/>
       <c r="B62" s="41"/>
       <c r="C62" s="41" t="s">
@@ -8484,7 +8488,7 @@
       <c r="F62" s="41"/>
       <c r="G62" s="41"/>
     </row>
-    <row r="63" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:7">
       <c r="A63" s="41"/>
       <c r="B63" s="41" t="s">
         <v>311</v>
@@ -8495,7 +8499,7 @@
       <c r="F63" s="41"/>
       <c r="G63" s="41"/>
     </row>
-    <row r="64" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:7">
       <c r="A64" s="41" t="s">
         <v>311</v>
       </c>
@@ -8506,7 +8510,7 @@
       <c r="F64" s="41"/>
       <c r="G64" s="41"/>
     </row>
-    <row r="65" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:8">
       <c r="A65" s="41"/>
       <c r="B65" s="41"/>
       <c r="C65" s="41"/>
@@ -8515,7 +8519,7 @@
       <c r="F65" s="41"/>
       <c r="G65" s="41"/>
     </row>
-    <row r="66" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:8">
       <c r="A66" s="41" t="s">
         <v>407</v>
       </c>
@@ -8529,7 +8533,7 @@
         <v>389</v>
       </c>
     </row>
-    <row r="67" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:8">
       <c r="A67" s="41" t="s">
         <v>378</v>
       </c>
@@ -8540,7 +8544,7 @@
       <c r="F67" s="41"/>
       <c r="G67" s="41"/>
     </row>
-    <row r="68" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:8">
       <c r="A68" s="41"/>
       <c r="B68" s="41" t="s">
         <v>376</v>
@@ -8551,7 +8555,7 @@
       <c r="F68" s="41"/>
       <c r="G68" s="41"/>
     </row>
-    <row r="69" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:8">
       <c r="A69" s="41"/>
       <c r="B69" s="41"/>
       <c r="C69" s="41"/>
@@ -8560,7 +8564,7 @@
       <c r="F69" s="41"/>
       <c r="G69" s="41"/>
     </row>
-    <row r="70" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:8">
       <c r="A70" s="41"/>
       <c r="B70" s="41" t="s">
         <v>377</v>
@@ -8571,7 +8575,7 @@
       <c r="F70" s="41"/>
       <c r="G70" s="41"/>
     </row>
-    <row r="71" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:8">
       <c r="A71" s="41"/>
       <c r="B71" s="41" t="s">
         <v>378</v>
@@ -8582,7 +8586,7 @@
       <c r="F71" s="41"/>
       <c r="G71" s="41"/>
     </row>
-    <row r="72" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:8">
       <c r="A72" s="41"/>
       <c r="B72" s="41"/>
       <c r="C72" s="5" t="s">
@@ -8593,7 +8597,7 @@
       <c r="F72" s="41"/>
       <c r="G72" s="41"/>
     </row>
-    <row r="73" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:8">
       <c r="A73" s="41"/>
       <c r="B73" s="41"/>
       <c r="C73" s="41" t="s">
@@ -8604,7 +8608,7 @@
       <c r="F73" s="41"/>
       <c r="G73" s="41"/>
     </row>
-    <row r="74" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:8">
       <c r="A74" s="41"/>
       <c r="B74" s="41"/>
       <c r="C74" s="41"/>
@@ -8615,7 +8619,7 @@
       <c r="F74" s="41"/>
       <c r="G74" s="41"/>
     </row>
-    <row r="75" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:8">
       <c r="A75" s="41"/>
       <c r="B75" s="41"/>
       <c r="C75" s="41" t="s">
@@ -8626,7 +8630,7 @@
       <c r="F75" s="41"/>
       <c r="G75" s="41"/>
     </row>
-    <row r="76" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:8">
       <c r="A76" s="41"/>
       <c r="B76" s="41"/>
       <c r="C76" s="41" t="s">
@@ -8637,7 +8641,7 @@
       <c r="F76" s="41"/>
       <c r="G76" s="41"/>
     </row>
-    <row r="77" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:8">
       <c r="A77" s="41"/>
       <c r="B77" s="41"/>
       <c r="C77" s="41" t="s">
@@ -8648,7 +8652,7 @@
       <c r="F77" s="41"/>
       <c r="G77" s="41"/>
     </row>
-    <row r="78" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:8">
       <c r="A78" s="41"/>
       <c r="B78" s="41"/>
       <c r="C78" s="41"/>
@@ -8659,7 +8663,7 @@
       <c r="F78" s="5"/>
       <c r="G78" s="41"/>
     </row>
-    <row r="79" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:8">
       <c r="A79" s="41"/>
       <c r="B79" s="41"/>
       <c r="C79" s="41"/>
@@ -8670,7 +8674,7 @@
       <c r="F79" s="41"/>
       <c r="G79" s="41"/>
     </row>
-    <row r="80" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:8">
       <c r="A80" s="41"/>
       <c r="B80" s="41"/>
       <c r="C80" s="41"/>
@@ -8681,7 +8685,7 @@
       <c r="F80" s="41"/>
       <c r="G80" s="41"/>
     </row>
-    <row r="81" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:7">
       <c r="A81" s="41"/>
       <c r="B81" s="41"/>
       <c r="C81" s="41"/>
@@ -8692,7 +8696,7 @@
       <c r="F81" s="41"/>
       <c r="G81" s="41"/>
     </row>
-    <row r="82" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:7">
       <c r="A82" s="41"/>
       <c r="B82" s="41"/>
       <c r="C82" s="41"/>
@@ -8703,7 +8707,7 @@
       <c r="F82" s="41"/>
       <c r="G82" s="41"/>
     </row>
-    <row r="83" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:7">
       <c r="A83" s="41"/>
       <c r="B83" s="41"/>
       <c r="C83" s="41"/>
@@ -8714,7 +8718,7 @@
       <c r="F83" s="41"/>
       <c r="G83" s="41"/>
     </row>
-    <row r="84" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:7">
       <c r="A84" s="41"/>
       <c r="B84" s="41"/>
       <c r="C84" s="41"/>
@@ -8725,7 +8729,7 @@
       <c r="F84" s="41"/>
       <c r="G84" s="41"/>
     </row>
-    <row r="85" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:7">
       <c r="A85" s="41"/>
       <c r="B85" s="41"/>
       <c r="C85" s="41"/>
@@ -8736,7 +8740,7 @@
       <c r="F85" s="41"/>
       <c r="G85" s="41"/>
     </row>
-    <row r="86" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:7">
       <c r="A86" s="41"/>
       <c r="B86" s="41"/>
       <c r="C86" s="41" t="s">
@@ -8747,7 +8751,7 @@
       <c r="F86" s="41"/>
       <c r="G86" s="41"/>
     </row>
-    <row r="87" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:7">
       <c r="A87" s="41"/>
       <c r="B87" s="41" t="s">
         <v>311</v>
@@ -8758,7 +8762,7 @@
       <c r="F87" s="41"/>
       <c r="G87" s="41"/>
     </row>
-    <row r="88" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:7">
       <c r="A88" s="41"/>
       <c r="B88" s="41" t="s">
         <v>381</v>
@@ -8769,7 +8773,7 @@
       <c r="F88" s="41"/>
       <c r="G88" s="41"/>
     </row>
-    <row r="89" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:7">
       <c r="A89" s="41"/>
       <c r="B89" s="41" t="s">
         <v>378</v>
@@ -8780,7 +8784,7 @@
       <c r="F89" s="41"/>
       <c r="G89" s="41"/>
     </row>
-    <row r="90" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:7">
       <c r="A90" s="41"/>
       <c r="B90" s="41"/>
       <c r="C90" s="41" t="s">
@@ -8791,7 +8795,7 @@
       <c r="F90" s="41"/>
       <c r="G90" s="41"/>
     </row>
-    <row r="91" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:7">
       <c r="A91" s="41"/>
       <c r="B91" s="41" t="s">
         <v>311</v>
@@ -8802,7 +8806,7 @@
       <c r="F91" s="41"/>
       <c r="G91" s="41"/>
     </row>
-    <row r="92" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:7">
       <c r="A92" s="41"/>
       <c r="B92" s="41"/>
       <c r="C92" s="41"/>
@@ -8811,7 +8815,7 @@
       <c r="F92" s="41"/>
       <c r="G92" s="41"/>
     </row>
-    <row r="93" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:7">
       <c r="A93" s="41"/>
       <c r="B93" s="41" t="s">
         <v>408</v>
@@ -8822,7 +8826,7 @@
       <c r="F93" s="41"/>
       <c r="G93" s="41"/>
     </row>
-    <row r="94" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:7">
       <c r="A94" s="41" t="s">
         <v>311</v>
       </c>
@@ -8833,7 +8837,7 @@
       <c r="F94" s="41"/>
       <c r="G94" s="41"/>
     </row>
-    <row r="97" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:11">
       <c r="A97" s="41"/>
       <c r="B97" s="41"/>
       <c r="C97" s="41"/>
@@ -8842,7 +8846,7 @@
       <c r="F97" s="41"/>
       <c r="G97" s="41"/>
     </row>
-    <row r="105" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:11">
       <c r="A105" s="41"/>
       <c r="B105" s="41"/>
       <c r="C105" s="41"/>

--- a/CFT4CUnitSrc/src/report/GAReport.xlsx
+++ b/CFT4CUnitSrc/src/report/GAReport.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="1125" windowWidth="14805" windowHeight="6780" tabRatio="940" activeTab="4"/>
@@ -13,12 +13,12 @@
     <sheet name="201612paper" sheetId="12" r:id="rId4"/>
     <sheet name="ThayHieu_report" sheetId="13" r:id="rId5"/>
   </sheets>
-  <calcPr calcId="125725" calcOnSave="0"/>
+  <calcPr calcId="145621" calcOnSave="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="533" uniqueCount="410">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="580" uniqueCount="443">
   <si>
     <t>Nhìn chung, để sinh test case cho một input program theo phương pháp GA thì có các bước sau</t>
   </si>
@@ -1207,9 +1207,6 @@
     <t>path1++;</t>
   </si>
   <si>
-    <t xml:space="preserve">Equal condition list: [x+y==1024] </t>
-  </si>
-  <si>
     <t xml:space="preserve">Equal condition list: [a==b||b==c||c==a] [a==b&amp;&amp;b==c] </t>
   </si>
   <si>
@@ -1271,16 +1268,118 @@
   </si>
   <si>
     <t>↓</t>
+  </si>
+  <si>
+    <t>public int index1;</t>
+  </si>
+  <si>
+    <t>public double index2;</t>
+  </si>
+  <si>
+    <t>this.index1 = index1;</t>
+  </si>
+  <si>
+    <t>this.index2 = index2;</t>
+  </si>
+  <si>
+    <t>So với paper mà em đã submit ngày trước thì em đã có những cải tiến như sau</t>
+  </si>
+  <si>
+    <t>①Xây dựng một construct chứa mối quan hệ giữa các input param cần điều chỉnh trong GA</t>
+  </si>
+  <si>
+    <t>public boolean bIsValue;</t>
+  </si>
+  <si>
+    <t>public double adjustvalue;</t>
+  </si>
+  <si>
+    <t>Adjust(int index1, boolean bIsValue, double index2, double adjustvalue)</t>
+  </si>
+  <si>
+    <t>this.bIsValue = bIsValue;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">this.adjustvalue = adjustvalue; </t>
+  </si>
+  <si>
+    <t>class Adjust</t>
+  </si>
+  <si>
+    <t>if (x - y == 1024)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Equal condition list: [x-y==1024] </t>
+  </si>
+  <si>
+    <t>param1 - param2=1024</t>
+  </si>
+  <si>
+    <t>param1 = 1024 + param2</t>
+  </si>
+  <si>
+    <t>for (int i = 0; i &lt; 10; i++)</t>
+  </si>
+  <si>
+    <t>if (adjustList[i].bIsValue)</t>
+  </si>
+  <si>
+    <t>// giả sử có 10 condition cần phải điều chỉnh</t>
+  </si>
+  <si>
+    <t>khởi tạo adjust list</t>
+  </si>
+  <si>
+    <t>adjust[0] =  Adjust(1, false, 2, 1024);</t>
+  </si>
+  <si>
+    <t>newPop[k].xreal[adjustList[i].index1] = adjustList[i].index2;</t>
+  </si>
+  <si>
+    <t>newPop[k].xreal[adjustList[i].index1] = newPop[k].xreal[(int) adjustList[i].index2] + adjustList[i].adjustvalue;</t>
+  </si>
+  <si>
+    <t>param1=0</t>
+  </si>
+  <si>
+    <t>param2=0</t>
+  </si>
+  <si>
+    <t>chỉ điều chỉnh được 2 condition này</t>
+  </si>
+  <si>
+    <t>adjust[0] =  Adjust(1, true, 0, 0);</t>
+  </si>
+  <si>
+    <t>adjust[1] =  Adjust(2, true, 0, 0);</t>
+  </si>
+  <si>
+    <t>②Thực hiện điều chỉnh trong GA</t>
+  </si>
+  <si>
+    <t>param1=param2</t>
+  </si>
+  <si>
+    <t>param2=param3</t>
+  </si>
+  <si>
+    <t>adjust[0] =  Adjust(1, false, 2, 0);</t>
+  </si>
+  <si>
+    <t>adjust[1] =  Adjust(2, false, 3, 0);</t>
+  </si>
+  <si>
+    <t>// index của input parametter</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.000000000"/>
   </numFmts>
-  <fonts count="6">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -4795,6 +4894,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -4829,6 +4929,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -5004,7 +5105,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:AP158"/>
   <sheetViews>
@@ -5012,29 +5113,29 @@
       <selection activeCell="F147" sqref="F147"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="10.7109375" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="10.140625" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="9.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" s="18">
         <v>42502</v>
       </c>
     </row>
-    <row r="2" spans="1:10">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
         <v>168</v>
       </c>
     </row>
-    <row r="3" spans="1:10">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="C3" t="s">
         <v>169</v>
       </c>
     </row>
-    <row r="4" spans="1:10">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="C4" t="s">
         <v>180</v>
       </c>
@@ -5042,17 +5143,17 @@
         <v>181</v>
       </c>
     </row>
-    <row r="5" spans="1:10">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="J5" t="s">
         <v>182</v>
       </c>
     </row>
-    <row r="6" spans="1:10">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
         <v>171</v>
       </c>
     </row>
-    <row r="7" spans="1:10">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
         <v>179</v>
       </c>
@@ -5060,7 +5161,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="8" spans="1:10">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
         <v>179</v>
       </c>
@@ -5068,32 +5169,32 @@
         <v>176</v>
       </c>
     </row>
-    <row r="9" spans="1:10">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="C9" t="s">
         <v>172</v>
       </c>
     </row>
-    <row r="10" spans="1:10">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="C10" t="s">
         <v>173</v>
       </c>
     </row>
-    <row r="11" spans="1:10">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="C11" t="s">
         <v>174</v>
       </c>
     </row>
-    <row r="13" spans="1:10">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="C13" s="1" t="s">
         <v>177</v>
       </c>
     </row>
-    <row r="14" spans="1:10">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="C14" s="1" t="s">
         <v>178</v>
       </c>
     </row>
-    <row r="17" spans="1:17">
+    <row r="17" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A17" s="18">
         <v>42499</v>
       </c>
@@ -5101,7 +5202,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:17">
+    <row r="18" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B18" t="s">
         <v>160</v>
       </c>
@@ -5109,7 +5210,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="19" spans="1:17">
+    <row r="19" spans="1:17" x14ac:dyDescent="0.25">
       <c r="C19" t="s">
         <v>161</v>
       </c>
@@ -5117,7 +5218,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="20" spans="1:17">
+    <row r="20" spans="1:17" x14ac:dyDescent="0.25">
       <c r="C20" t="s">
         <v>162</v>
       </c>
@@ -5125,12 +5226,12 @@
         <v>166</v>
       </c>
     </row>
-    <row r="21" spans="1:17">
+    <row r="21" spans="1:17" x14ac:dyDescent="0.25">
       <c r="C21" t="s">
         <v>167</v>
       </c>
     </row>
-    <row r="22" spans="1:17">
+    <row r="22" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B22" t="s">
         <v>164</v>
       </c>
@@ -5141,7 +5242,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="24" spans="1:17">
+    <row r="24" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A24" s="18">
         <v>42496</v>
       </c>
@@ -5155,7 +5256,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="25" spans="1:17">
+    <row r="25" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B25" t="s">
         <v>137</v>
       </c>
@@ -5163,7 +5264,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="26" spans="1:17">
+    <row r="26" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B26" t="s">
         <v>135</v>
       </c>
@@ -5174,7 +5275,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="28" spans="1:17">
+    <row r="28" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B28" t="s">
         <v>136</v>
       </c>
@@ -5185,12 +5286,12 @@
         <v>152</v>
       </c>
     </row>
-    <row r="29" spans="1:17">
+    <row r="29" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B29" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="30" spans="1:17">
+    <row r="30" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B30" t="s">
         <v>139</v>
       </c>
@@ -5198,12 +5299,12 @@
         <v>153</v>
       </c>
     </row>
-    <row r="32" spans="1:17">
+    <row r="32" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B32" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="33" spans="2:16">
+    <row r="33" spans="2:16" x14ac:dyDescent="0.25">
       <c r="C33" t="s">
         <v>140</v>
       </c>
@@ -5211,7 +5312,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="34" spans="2:16">
+    <row r="34" spans="2:16" x14ac:dyDescent="0.25">
       <c r="C34" t="s">
         <v>141</v>
       </c>
@@ -5219,7 +5320,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="36" spans="2:16">
+    <row r="36" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B36" t="s">
         <v>142</v>
       </c>
@@ -5227,47 +5328,47 @@
         <v>159</v>
       </c>
     </row>
-    <row r="38" spans="2:16">
+    <row r="38" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B38" t="s">
         <v>143</v>
       </c>
     </row>
-    <row r="39" spans="2:16">
+    <row r="39" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B39" t="s">
         <v>144</v>
       </c>
     </row>
-    <row r="41" spans="2:16">
+    <row r="41" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B41" t="s">
         <v>146</v>
       </c>
     </row>
-    <row r="42" spans="2:16">
+    <row r="42" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B42" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="43" spans="2:16">
+    <row r="43" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B43" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="45" spans="2:16">
+    <row r="45" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B45" t="s">
         <v>148</v>
       </c>
     </row>
-    <row r="50" spans="1:10">
+    <row r="50" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A50" s="18">
         <v>42494</v>
       </c>
     </row>
-    <row r="51" spans="1:10">
+    <row r="51" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B51" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="52" spans="1:10">
+    <row r="52" spans="1:10" x14ac:dyDescent="0.25">
       <c r="C52" t="s">
         <v>1</v>
       </c>
@@ -5275,7 +5376,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="54" spans="1:10">
+    <row r="54" spans="1:10" x14ac:dyDescent="0.25">
       <c r="C54" s="5" t="s">
         <v>3</v>
       </c>
@@ -5283,44 +5384,44 @@
         <v>123</v>
       </c>
     </row>
-    <row r="55" spans="1:10">
+    <row r="55" spans="1:10" x14ac:dyDescent="0.25">
       <c r="D55" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="56" spans="1:10">
+    <row r="56" spans="1:10" x14ac:dyDescent="0.25">
       <c r="E56" s="25" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="57" spans="1:10">
+    <row r="57" spans="1:10" x14ac:dyDescent="0.25">
       <c r="E57" s="25"/>
     </row>
-    <row r="58" spans="1:10">
+    <row r="58" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B58" s="5" t="s">
         <v>134</v>
       </c>
       <c r="E58" s="25"/>
     </row>
-    <row r="59" spans="1:10">
+    <row r="59" spans="1:10" x14ac:dyDescent="0.25">
       <c r="C59" t="s">
         <v>124</v>
       </c>
       <c r="E59" s="25"/>
     </row>
-    <row r="60" spans="1:10">
+    <row r="60" spans="1:10" x14ac:dyDescent="0.25">
       <c r="C60" t="s">
         <v>125</v>
       </c>
       <c r="E60" s="25"/>
     </row>
-    <row r="61" spans="1:10">
+    <row r="61" spans="1:10" x14ac:dyDescent="0.25">
       <c r="D61" t="s">
         <v>126</v>
       </c>
       <c r="E61" s="25"/>
     </row>
-    <row r="62" spans="1:10">
+    <row r="62" spans="1:10" x14ac:dyDescent="0.25">
       <c r="E62" s="26" t="s">
         <v>127</v>
       </c>
@@ -5331,7 +5432,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="63" spans="1:10">
+    <row r="63" spans="1:10" x14ac:dyDescent="0.25">
       <c r="E63" s="27">
         <v>1.1000000000000001</v>
       </c>
@@ -5342,7 +5443,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="64" spans="1:10">
+    <row r="64" spans="1:10" x14ac:dyDescent="0.25">
       <c r="E64" s="27">
         <v>1.1100000000000001</v>
       </c>
@@ -5359,7 +5460,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="65" spans="1:7">
+    <row r="65" spans="1:7" x14ac:dyDescent="0.25">
       <c r="E65" s="27">
         <v>1.3</v>
       </c>
@@ -5370,21 +5471,21 @@
         <v>1</v>
       </c>
     </row>
-    <row r="66" spans="1:7">
+    <row r="66" spans="1:7" x14ac:dyDescent="0.25">
       <c r="D66" t="s">
         <v>132</v>
       </c>
       <c r="E66" s="27"/>
     </row>
-    <row r="67" spans="1:7">
+    <row r="67" spans="1:7" x14ac:dyDescent="0.25">
       <c r="E67" s="27" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="68" spans="1:7">
+    <row r="68" spans="1:7" x14ac:dyDescent="0.25">
       <c r="E68" s="27"/>
     </row>
-    <row r="69" spans="1:7">
+    <row r="69" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C69" t="s">
         <v>5</v>
       </c>
@@ -5392,57 +5493,57 @@
         <v>116</v>
       </c>
     </row>
-    <row r="71" spans="1:7">
+    <row r="71" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B71" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="72" spans="1:7">
+    <row r="72" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B72" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="74" spans="1:7">
+    <row r="74" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B74" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="75" spans="1:7">
+    <row r="75" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B75" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="77" spans="1:7">
+    <row r="77" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A77" s="18">
         <v>42488</v>
       </c>
     </row>
-    <row r="78" spans="1:7">
+    <row r="78" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B78" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="79" spans="1:7">
+    <row r="79" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C79" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="80" spans="1:7">
+    <row r="80" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C80" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="81" spans="1:42">
+    <row r="81" spans="1:42" x14ac:dyDescent="0.25">
       <c r="C81" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="82" spans="1:42">
+    <row r="82" spans="1:42" x14ac:dyDescent="0.25">
       <c r="C82" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="83" spans="1:42">
+    <row r="83" spans="1:42" x14ac:dyDescent="0.25">
       <c r="B83" s="5" t="s">
         <v>113</v>
       </c>
@@ -5455,12 +5556,12 @@
       <c r="I83" s="5"/>
       <c r="J83" s="5"/>
     </row>
-    <row r="85" spans="1:42">
+    <row r="85" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="87" spans="1:42">
+    <row r="87" spans="1:42" x14ac:dyDescent="0.25">
       <c r="B87" t="s">
         <v>1</v>
       </c>
@@ -5468,7 +5569,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="89" spans="1:42">
+    <row r="89" spans="1:42" x14ac:dyDescent="0.25">
       <c r="B89" t="s">
         <v>3</v>
       </c>
@@ -5476,12 +5577,12 @@
         <v>6</v>
       </c>
     </row>
-    <row r="90" spans="1:42">
+    <row r="90" spans="1:42" x14ac:dyDescent="0.25">
       <c r="C90" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="92" spans="1:42">
+    <row r="92" spans="1:42" x14ac:dyDescent="0.25">
       <c r="B92" t="s">
         <v>5</v>
       </c>
@@ -5489,12 +5590,12 @@
         <v>8</v>
       </c>
     </row>
-    <row r="93" spans="1:42">
+    <row r="93" spans="1:42" x14ac:dyDescent="0.25">
       <c r="C93" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="94" spans="1:42">
+    <row r="94" spans="1:42" x14ac:dyDescent="0.25">
       <c r="C94" s="6" t="s">
         <v>52</v>
       </c>
@@ -5528,7 +5629,7 @@
         <v>42483</v>
       </c>
     </row>
-    <row r="95" spans="1:42">
+    <row r="95" spans="1:42" x14ac:dyDescent="0.25">
       <c r="C95" s="6" t="s">
         <v>53</v>
       </c>
@@ -5560,7 +5661,7 @@
       <c r="AO95" s="5"/>
       <c r="AP95" s="5"/>
     </row>
-    <row r="96" spans="1:42">
+    <row r="96" spans="1:42" x14ac:dyDescent="0.25">
       <c r="C96" t="s">
         <v>14</v>
       </c>
@@ -5574,29 +5675,29 @@
       <c r="AO96" s="5"/>
       <c r="AP96" s="5"/>
     </row>
-    <row r="97" spans="2:11">
+    <row r="97" spans="2:11" x14ac:dyDescent="0.25">
       <c r="C97" s="1"/>
       <c r="D97" s="1" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="98" spans="2:11">
+    <row r="98" spans="2:11" x14ac:dyDescent="0.25">
       <c r="C98" s="1"/>
       <c r="D98" s="1" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="100" spans="2:11">
+    <row r="100" spans="2:11" x14ac:dyDescent="0.25">
       <c r="C100" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="101" spans="2:11">
+    <row r="101" spans="2:11" x14ac:dyDescent="0.25">
       <c r="C101" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="103" spans="2:11">
+    <row r="103" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B103" t="s">
         <v>7</v>
       </c>
@@ -5604,12 +5705,12 @@
         <v>16</v>
       </c>
     </row>
-    <row r="105" spans="2:11">
+    <row r="105" spans="2:11" x14ac:dyDescent="0.25">
       <c r="C105" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="107" spans="2:11">
+    <row r="107" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B107" t="s">
         <v>17</v>
       </c>
@@ -5617,7 +5718,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="108" spans="2:11">
+    <row r="108" spans="2:11" x14ac:dyDescent="0.25">
       <c r="D108" s="5" t="s">
         <v>50</v>
       </c>
@@ -5635,7 +5736,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="109" spans="2:11">
+    <row r="109" spans="2:11" x14ac:dyDescent="0.25">
       <c r="C109" t="s">
         <v>19</v>
       </c>
@@ -5643,12 +5744,12 @@
         <v>20</v>
       </c>
     </row>
-    <row r="110" spans="2:11">
+    <row r="110" spans="2:11" x14ac:dyDescent="0.25">
       <c r="D110" s="3" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="112" spans="2:11">
+    <row r="112" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B112" t="s">
         <v>22</v>
       </c>
@@ -5656,12 +5757,12 @@
         <v>21</v>
       </c>
     </row>
-    <row r="114" spans="1:24">
+    <row r="114" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="115" spans="1:24">
+    <row r="115" spans="1:24" x14ac:dyDescent="0.25">
       <c r="B115" t="s">
         <v>48</v>
       </c>
@@ -5683,7 +5784,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="116" spans="1:24">
+    <row r="116" spans="1:24" x14ac:dyDescent="0.25">
       <c r="B116" t="s">
         <v>46</v>
       </c>
@@ -5697,7 +5798,7 @@
         <v>42480</v>
       </c>
     </row>
-    <row r="117" spans="1:24">
+    <row r="117" spans="1:24" x14ac:dyDescent="0.25">
       <c r="B117" t="s">
         <v>49</v>
       </c>
@@ -5711,14 +5812,14 @@
         <v>42480</v>
       </c>
     </row>
-    <row r="118" spans="1:24">
+    <row r="118" spans="1:24" x14ac:dyDescent="0.25">
       <c r="M118" s="6"/>
       <c r="N118" s="6"/>
       <c r="O118" s="6"/>
       <c r="P118" s="6"/>
       <c r="S118" s="8"/>
     </row>
-    <row r="119" spans="1:24">
+    <row r="119" spans="1:24" x14ac:dyDescent="0.25">
       <c r="F119" s="9" t="s">
         <v>69</v>
       </c>
@@ -5731,7 +5832,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="120" spans="1:24">
+    <row r="120" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
         <v>47</v>
       </c>
@@ -5754,7 +5855,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="121" spans="1:24">
+    <row r="121" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A121" s="4" t="s">
         <v>23</v>
       </c>
@@ -5774,7 +5875,7 @@
       <c r="O121" s="4"/>
       <c r="P121" s="4"/>
     </row>
-    <row r="122" spans="1:24">
+    <row r="122" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A122" s="4" t="s">
         <v>24</v>
       </c>
@@ -5794,7 +5895,7 @@
       <c r="O122" s="4"/>
       <c r="P122" s="4"/>
     </row>
-    <row r="123" spans="1:24">
+    <row r="123" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
         <v>25</v>
       </c>
@@ -5814,12 +5915,12 @@
       </c>
       <c r="V123" s="9"/>
     </row>
-    <row r="124" spans="1:24">
+    <row r="124" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="125" spans="1:24">
+    <row r="125" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A125" s="4" t="s">
         <v>42</v>
       </c>
@@ -5839,7 +5940,7 @@
       <c r="O125" s="4"/>
       <c r="P125" s="4"/>
     </row>
-    <row r="126" spans="1:24">
+    <row r="126" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A126" s="4" t="s">
         <v>27</v>
       </c>
@@ -5859,12 +5960,12 @@
       <c r="O126" s="4"/>
       <c r="P126" s="4"/>
     </row>
-    <row r="127" spans="1:24">
+    <row r="127" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="128" spans="1:24">
+    <row r="128" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A128" s="4" t="s">
         <v>45</v>
       </c>
@@ -5884,83 +5985,83 @@
       <c r="O128" s="4"/>
       <c r="P128" s="4"/>
     </row>
-    <row r="129" spans="1:2">
+    <row r="129" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="130" spans="1:2">
+    <row r="130" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="131" spans="1:2">
+    <row r="131" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="132" spans="1:2">
+    <row r="132" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="133" spans="1:2">
+    <row r="133" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="134" spans="1:2">
+    <row r="134" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="135" spans="1:2">
+    <row r="135" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="136" spans="1:2">
+    <row r="136" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="137" spans="1:2">
+    <row r="137" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="138" spans="1:2">
+    <row r="138" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="139" spans="1:2">
+    <row r="139" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="140" spans="1:2">
+    <row r="140" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="141" spans="1:2">
+    <row r="141" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="144" spans="1:2">
+    <row r="144" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A144" s="13" t="s">
         <v>70</v>
       </c>
       <c r="B144" s="13"/>
     </row>
-    <row r="145" spans="2:11">
+    <row r="145" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B145" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="146" spans="2:11">
+    <row r="146" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B146" s="5" t="s">
         <v>80</v>
       </c>
@@ -5970,32 +6071,32 @@
       <c r="D146" s="5"/>
       <c r="E146" s="5"/>
     </row>
-    <row r="147" spans="2:11">
+    <row r="147" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B147" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="148" spans="2:11">
+    <row r="148" spans="2:11" x14ac:dyDescent="0.25">
       <c r="C148" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="149" spans="2:11">
+    <row r="149" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B149" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="151" spans="2:11">
+    <row r="151" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B151" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="152" spans="2:11">
+    <row r="152" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B152" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="154" spans="2:11">
+    <row r="154" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B154" s="5" t="s">
         <v>84</v>
       </c>
@@ -6010,12 +6111,12 @@
         <v>42483</v>
       </c>
     </row>
-    <row r="157" spans="2:11">
+    <row r="157" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B157" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="158" spans="2:11">
+    <row r="158" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B158" t="s">
         <v>86</v>
       </c>
@@ -6030,7 +6131,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:R95"/>
   <sheetViews>
@@ -6038,7 +6139,7 @@
       <selection activeCell="H60" sqref="H60"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="5" style="10" customWidth="1"/>
     <col min="3" max="3" width="30.140625" bestFit="1" customWidth="1"/>
@@ -6053,7 +6154,7 @@
     <col min="12" max="12" width="14.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A1" s="7" t="s">
         <v>59</v>
       </c>
@@ -6062,7 +6163,7 @@
       <c r="D1" s="7"/>
       <c r="E1" s="11"/>
     </row>
-    <row r="2" spans="1:18">
+    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B2" s="17" t="s">
         <v>65</v>
       </c>
@@ -6100,7 +6201,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="3" spans="1:18">
+    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B3" s="14">
         <v>1</v>
       </c>
@@ -6144,7 +6245,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="4" spans="1:18">
+    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B4" s="14">
         <f>B3+1</f>
         <v>2</v>
@@ -6178,7 +6279,7 @@
       </c>
       <c r="L4" s="15"/>
     </row>
-    <row r="5" spans="1:18">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B5" s="14">
         <f t="shared" ref="B5:B19" si="0">B4+1</f>
         <v>3</v>
@@ -6212,7 +6313,7 @@
       </c>
       <c r="L5" s="15"/>
     </row>
-    <row r="6" spans="1:18">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B6" s="14">
         <f t="shared" si="0"/>
         <v>4</v>
@@ -6249,7 +6350,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="7" spans="1:18">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B7" s="14">
         <f t="shared" si="0"/>
         <v>5</v>
@@ -6290,7 +6391,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="8" spans="1:18">
+    <row r="8" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B8" s="14">
         <f t="shared" si="0"/>
         <v>6</v>
@@ -6332,7 +6433,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="9" spans="1:18">
+    <row r="9" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B9" s="14">
         <f t="shared" si="0"/>
         <v>7</v>
@@ -6372,7 +6473,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="10" spans="1:18">
+    <row r="10" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B10" s="14">
         <f t="shared" si="0"/>
         <v>8</v>
@@ -6412,7 +6513,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="11" spans="1:18">
+    <row r="11" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B11" s="14">
         <f t="shared" si="0"/>
         <v>9</v>
@@ -6428,7 +6529,7 @@
       <c r="K11" s="15"/>
       <c r="L11" s="15"/>
     </row>
-    <row r="12" spans="1:18">
+    <row r="12" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B12" s="14">
         <f t="shared" si="0"/>
         <v>10</v>
@@ -6444,7 +6545,7 @@
       <c r="K12" s="15"/>
       <c r="L12" s="15"/>
     </row>
-    <row r="13" spans="1:18">
+    <row r="13" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B13" s="14">
         <f t="shared" si="0"/>
         <v>11</v>
@@ -6460,7 +6561,7 @@
       <c r="K13" s="15"/>
       <c r="L13" s="15"/>
     </row>
-    <row r="14" spans="1:18">
+    <row r="14" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B14" s="14">
         <f t="shared" si="0"/>
         <v>12</v>
@@ -6476,7 +6577,7 @@
       <c r="K14" s="15"/>
       <c r="L14" s="15"/>
     </row>
-    <row r="15" spans="1:18">
+    <row r="15" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B15" s="14">
         <f t="shared" si="0"/>
         <v>13</v>
@@ -6492,7 +6593,7 @@
       <c r="K15" s="15"/>
       <c r="L15" s="15"/>
     </row>
-    <row r="16" spans="1:18">
+    <row r="16" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B16" s="14">
         <f t="shared" si="0"/>
         <v>14</v>
@@ -6508,7 +6609,7 @@
       <c r="K16" s="15"/>
       <c r="L16" s="15"/>
     </row>
-    <row r="17" spans="2:12">
+    <row r="17" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B17" s="14">
         <f t="shared" si="0"/>
         <v>15</v>
@@ -6524,7 +6625,7 @@
       <c r="K17" s="15"/>
       <c r="L17" s="15"/>
     </row>
-    <row r="18" spans="2:12">
+    <row r="18" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B18" s="14">
         <f t="shared" si="0"/>
         <v>16</v>
@@ -6540,7 +6641,7 @@
       <c r="K18" s="15"/>
       <c r="L18" s="15"/>
     </row>
-    <row r="19" spans="2:12">
+    <row r="19" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B19" s="14">
         <f t="shared" si="0"/>
         <v>17</v>
@@ -6556,12 +6657,12 @@
       <c r="K19" s="15"/>
       <c r="L19" s="15"/>
     </row>
-    <row r="22" spans="2:12">
+    <row r="22" spans="2:12" x14ac:dyDescent="0.25">
       <c r="C22" t="s">
         <v>183</v>
       </c>
     </row>
-    <row r="23" spans="2:12">
+    <row r="23" spans="2:12" x14ac:dyDescent="0.25">
       <c r="C23" t="s">
         <v>184</v>
       </c>
@@ -6580,7 +6681,7 @@
       </c>
       <c r="L23" s="47"/>
     </row>
-    <row r="24" spans="2:12">
+    <row r="24" spans="2:12" x14ac:dyDescent="0.25">
       <c r="G24" s="49"/>
       <c r="H24" s="51"/>
       <c r="I24" s="14" t="s">
@@ -6596,7 +6697,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="25" spans="2:12">
+    <row r="25" spans="2:12" x14ac:dyDescent="0.25">
       <c r="G25" s="33" t="s">
         <v>110</v>
       </c>
@@ -6612,7 +6713,7 @@
       <c r="K25" s="32"/>
       <c r="L25" s="32"/>
     </row>
-    <row r="26" spans="2:12">
+    <row r="26" spans="2:12" x14ac:dyDescent="0.25">
       <c r="G26" s="37"/>
       <c r="H26" s="38"/>
       <c r="I26" s="32">
@@ -6624,7 +6725,7 @@
       <c r="K26" s="32"/>
       <c r="L26" s="32"/>
     </row>
-    <row r="27" spans="2:12">
+    <row r="27" spans="2:12" x14ac:dyDescent="0.25">
       <c r="G27" s="37"/>
       <c r="H27" s="38"/>
       <c r="I27" s="32">
@@ -6636,7 +6737,7 @@
       <c r="K27" s="32"/>
       <c r="L27" s="32"/>
     </row>
-    <row r="28" spans="2:12">
+    <row r="28" spans="2:12" x14ac:dyDescent="0.25">
       <c r="G28" s="37"/>
       <c r="H28" s="38"/>
       <c r="I28" s="32">
@@ -6648,7 +6749,7 @@
       <c r="K28" s="32"/>
       <c r="L28" s="32"/>
     </row>
-    <row r="29" spans="2:12">
+    <row r="29" spans="2:12" x14ac:dyDescent="0.25">
       <c r="G29" s="37"/>
       <c r="H29" s="38"/>
       <c r="I29" s="32"/>
@@ -6656,7 +6757,7 @@
       <c r="K29" s="32"/>
       <c r="L29" s="32"/>
     </row>
-    <row r="30" spans="2:12">
+    <row r="30" spans="2:12" x14ac:dyDescent="0.25">
       <c r="G30" s="37"/>
       <c r="H30" s="38"/>
       <c r="I30" s="32"/>
@@ -6664,7 +6765,7 @@
       <c r="K30" s="32"/>
       <c r="L30" s="32"/>
     </row>
-    <row r="31" spans="2:12">
+    <row r="31" spans="2:12" x14ac:dyDescent="0.25">
       <c r="G31" s="35"/>
       <c r="H31" s="36"/>
       <c r="I31" s="32"/>
@@ -6672,7 +6773,7 @@
       <c r="K31" s="32"/>
       <c r="L31" s="32"/>
     </row>
-    <row r="32" spans="2:12">
+    <row r="32" spans="2:12" x14ac:dyDescent="0.25">
       <c r="G32" s="15" t="s">
         <v>109</v>
       </c>
@@ -6682,7 +6783,7 @@
       <c r="K32" s="32"/>
       <c r="L32" s="32"/>
     </row>
-    <row r="33" spans="1:12">
+    <row r="33" spans="1:12" x14ac:dyDescent="0.25">
       <c r="G33" s="15"/>
       <c r="H33" s="32"/>
       <c r="I33" s="32"/>
@@ -6690,7 +6791,7 @@
       <c r="K33" s="32"/>
       <c r="L33" s="32"/>
     </row>
-    <row r="34" spans="1:12">
+    <row r="34" spans="1:12" x14ac:dyDescent="0.25">
       <c r="G34" s="15"/>
       <c r="H34" s="32"/>
       <c r="I34" s="32"/>
@@ -6698,7 +6799,7 @@
       <c r="K34" s="32"/>
       <c r="L34" s="32"/>
     </row>
-    <row r="35" spans="1:12">
+    <row r="35" spans="1:12" x14ac:dyDescent="0.25">
       <c r="G35" s="15"/>
       <c r="H35" s="32"/>
       <c r="I35" s="32"/>
@@ -6706,7 +6807,7 @@
       <c r="K35" s="32"/>
       <c r="L35" s="32"/>
     </row>
-    <row r="36" spans="1:12">
+    <row r="36" spans="1:12" x14ac:dyDescent="0.25">
       <c r="G36" s="15" t="s">
         <v>195</v>
       </c>
@@ -6726,7 +6827,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="1:12">
+    <row r="37" spans="1:12" x14ac:dyDescent="0.25">
       <c r="G37" s="15"/>
       <c r="H37" s="32"/>
       <c r="I37" s="32">
@@ -6742,7 +6843,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="38" spans="1:12">
+    <row r="38" spans="1:12" x14ac:dyDescent="0.25">
       <c r="G38" s="15"/>
       <c r="H38" s="32"/>
       <c r="I38" s="32"/>
@@ -6754,7 +6855,7 @@
         <v>462</v>
       </c>
     </row>
-    <row r="39" spans="1:12">
+    <row r="39" spans="1:12" x14ac:dyDescent="0.25">
       <c r="G39" s="15"/>
       <c r="H39" s="32"/>
       <c r="I39" s="32"/>
@@ -6766,7 +6867,7 @@
         <v>57595</v>
       </c>
     </row>
-    <row r="40" spans="1:12">
+    <row r="40" spans="1:12" x14ac:dyDescent="0.25">
       <c r="G40" s="15" t="s">
         <v>111</v>
       </c>
@@ -6776,7 +6877,7 @@
       <c r="K40" s="32"/>
       <c r="L40" s="32"/>
     </row>
-    <row r="41" spans="1:12">
+    <row r="41" spans="1:12" x14ac:dyDescent="0.25">
       <c r="G41" s="15"/>
       <c r="H41" s="32"/>
       <c r="I41" s="32"/>
@@ -6784,14 +6885,14 @@
       <c r="K41" s="32"/>
       <c r="L41" s="32"/>
     </row>
-    <row r="42" spans="1:12">
+    <row r="42" spans="1:12" x14ac:dyDescent="0.25">
       <c r="H42" s="31"/>
       <c r="I42" s="31"/>
       <c r="J42" s="31"/>
       <c r="K42" s="31"/>
       <c r="L42" s="31"/>
     </row>
-    <row r="43" spans="1:12">
+    <row r="43" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>198</v>
       </c>
@@ -6801,7 +6902,7 @@
       <c r="K43" s="31"/>
       <c r="L43" s="31"/>
     </row>
-    <row r="44" spans="1:12">
+    <row r="44" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C44" t="s">
         <v>199</v>
       </c>
@@ -6811,7 +6912,7 @@
       <c r="K44" s="31"/>
       <c r="L44" s="31"/>
     </row>
-    <row r="45" spans="1:12">
+    <row r="45" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C45" t="s">
         <v>200</v>
       </c>
@@ -6822,7 +6923,7 @@
       <c r="I45" s="30"/>
       <c r="J45" s="30"/>
     </row>
-    <row r="46" spans="1:12">
+    <row r="46" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C46" t="s">
         <v>202</v>
       </c>
@@ -6830,7 +6931,7 @@
       <c r="I46" s="30"/>
       <c r="J46" s="30"/>
     </row>
-    <row r="47" spans="1:12">
+    <row r="47" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C47" t="s">
         <v>208</v>
       </c>
@@ -6841,17 +6942,17 @@
       <c r="I47" s="30"/>
       <c r="J47" s="30"/>
     </row>
-    <row r="48" spans="1:12">
+    <row r="48" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C48" t="s">
         <v>212</v>
       </c>
     </row>
-    <row r="50" spans="1:10">
+    <row r="50" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>203</v>
       </c>
     </row>
-    <row r="51" spans="1:10">
+    <row r="51" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>158</v>
       </c>
@@ -6859,7 +6960,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="52" spans="1:10">
+    <row r="52" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>158</v>
       </c>
@@ -6876,7 +6977,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="53" spans="1:10">
+    <row r="53" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B53" s="39" t="s">
         <v>206</v>
       </c>
@@ -6884,41 +6985,41 @@
         <v>211</v>
       </c>
     </row>
-    <row r="54" spans="1:10">
+    <row r="54" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B54" s="39" t="s">
         <v>213</v>
       </c>
     </row>
-    <row r="55" spans="1:10">
+    <row r="55" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B55" s="39" t="s">
         <v>214</v>
       </c>
     </row>
-    <row r="56" spans="1:10">
+    <row r="56" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B56" s="39"/>
       <c r="J56" s="40"/>
     </row>
-    <row r="57" spans="1:10">
+    <row r="57" spans="1:10" x14ac:dyDescent="0.25">
       <c r="J57" s="40"/>
     </row>
-    <row r="58" spans="1:10">
+    <row r="58" spans="1:10" x14ac:dyDescent="0.25">
       <c r="H58"/>
       <c r="J58" s="40"/>
     </row>
-    <row r="59" spans="1:10">
+    <row r="59" spans="1:10" x14ac:dyDescent="0.25">
       <c r="H59"/>
       <c r="J59" s="40"/>
     </row>
-    <row r="60" spans="1:10">
+    <row r="60" spans="1:10" x14ac:dyDescent="0.25">
       <c r="H60"/>
     </row>
-    <row r="61" spans="1:10">
+    <row r="61" spans="1:10" x14ac:dyDescent="0.25">
       <c r="H61"/>
     </row>
-    <row r="62" spans="1:10">
+    <row r="62" spans="1:10" x14ac:dyDescent="0.25">
       <c r="H62"/>
     </row>
-    <row r="95" spans="16:16">
+    <row r="95" spans="16:16" x14ac:dyDescent="0.25">
       <c r="P95" s="41"/>
     </row>
   </sheetData>
@@ -6935,7 +7036,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet3"/>
   <dimension ref="A1:AH18"/>
   <sheetViews>
@@ -6943,22 +7044,22 @@
       <selection activeCell="U24" sqref="U24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="16384" width="9.140625" style="42"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:34">
+    <row r="1" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A1" s="43" t="s">
         <v>219</v>
       </c>
     </row>
-    <row r="2" spans="1:34">
+    <row r="2" spans="1:34" x14ac:dyDescent="0.25">
       <c r="O2" s="42" t="s">
         <v>215</v>
       </c>
     </row>
-    <row r="3" spans="1:34">
+    <row r="3" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A3" s="42" t="s">
         <v>220</v>
       </c>
@@ -6966,7 +7067,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="4" spans="1:34">
+    <row r="4" spans="1:34" x14ac:dyDescent="0.25">
       <c r="P4" s="42" t="s">
         <v>218</v>
       </c>
@@ -6980,12 +7081,12 @@
       <c r="AG4" s="5"/>
       <c r="AH4" s="5"/>
     </row>
-    <row r="5" spans="1:34">
+    <row r="5" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A5" s="42" t="s">
         <v>221</v>
       </c>
     </row>
-    <row r="6" spans="1:34">
+    <row r="6" spans="1:34" x14ac:dyDescent="0.25">
       <c r="B6" s="42" t="s">
         <v>224</v>
       </c>
@@ -6993,42 +7094,42 @@
         <v>225</v>
       </c>
     </row>
-    <row r="7" spans="1:34">
+    <row r="7" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A7" s="42" t="s">
         <v>222</v>
       </c>
     </row>
-    <row r="8" spans="1:34">
+    <row r="8" spans="1:34" x14ac:dyDescent="0.25">
       <c r="B8" s="42" t="s">
         <v>223</v>
       </c>
     </row>
-    <row r="12" spans="1:34">
+    <row r="12" spans="1:34" x14ac:dyDescent="0.25">
       <c r="O12" s="42" t="s">
         <v>216</v>
       </c>
     </row>
-    <row r="13" spans="1:34">
+    <row r="13" spans="1:34" x14ac:dyDescent="0.25">
       <c r="P13" s="42" t="s">
         <v>217</v>
       </c>
     </row>
-    <row r="14" spans="1:34">
+    <row r="14" spans="1:34" x14ac:dyDescent="0.25">
       <c r="Q14" s="42" t="s">
         <v>226</v>
       </c>
     </row>
-    <row r="16" spans="1:34">
+    <row r="16" spans="1:34" x14ac:dyDescent="0.25">
       <c r="P16" s="42" t="s">
         <v>227</v>
       </c>
     </row>
-    <row r="17" spans="4:16">
+    <row r="17" spans="4:16" x14ac:dyDescent="0.25">
       <c r="P17" s="42" t="s">
         <v>228</v>
       </c>
     </row>
-    <row r="18" spans="4:16">
+    <row r="18" spans="4:16" x14ac:dyDescent="0.25">
       <c r="D18" s="44"/>
     </row>
   </sheetData>
@@ -7039,7 +7140,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet4"/>
   <dimension ref="A1:AF109"/>
   <sheetViews>
@@ -7047,14 +7148,14 @@
       <selection activeCell="G52" sqref="G52"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:31">
+    <row r="1" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>230</v>
       </c>
     </row>
-    <row r="2" spans="1:31">
+    <row r="2" spans="1:31" x14ac:dyDescent="0.25">
       <c r="B2" s="25" t="s">
         <v>229</v>
       </c>
@@ -7062,7 +7163,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="4" spans="1:31">
+    <row r="4" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>231</v>
       </c>
@@ -7070,7 +7171,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="7" spans="1:31">
+    <row r="7" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>234</v>
       </c>
@@ -7078,7 +7179,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="8" spans="1:31">
+    <row r="8" spans="1:31" x14ac:dyDescent="0.25">
       <c r="B8" s="25" t="s">
         <v>233</v>
       </c>
@@ -7094,7 +7195,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="9" spans="1:31">
+    <row r="9" spans="1:31" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
         <v>235</v>
       </c>
@@ -7108,7 +7209,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="10" spans="1:31">
+    <row r="10" spans="1:31" x14ac:dyDescent="0.25">
       <c r="C10" s="3" t="s">
         <v>236</v>
       </c>
@@ -7122,7 +7223,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="11" spans="1:31">
+    <row r="11" spans="1:31" x14ac:dyDescent="0.25">
       <c r="C11" s="3" t="s">
         <v>237</v>
       </c>
@@ -7140,7 +7241,7 @@
       </c>
       <c r="AE11" s="5"/>
     </row>
-    <row r="12" spans="1:31">
+    <row r="12" spans="1:31" x14ac:dyDescent="0.25">
       <c r="R12" t="s">
         <v>252</v>
       </c>
@@ -7151,7 +7252,7 @@
         <v>287</v>
       </c>
     </row>
-    <row r="13" spans="1:31">
+    <row r="13" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>239</v>
       </c>
@@ -7165,7 +7266,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="14" spans="1:31">
+    <row r="14" spans="1:31" x14ac:dyDescent="0.25">
       <c r="B14" s="4" t="s">
         <v>240</v>
       </c>
@@ -7188,7 +7289,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="15" spans="1:31">
+    <row r="15" spans="1:31" x14ac:dyDescent="0.25">
       <c r="C15" t="s">
         <v>244</v>
       </c>
@@ -7208,7 +7309,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="16" spans="1:31">
+    <row r="16" spans="1:31" x14ac:dyDescent="0.25">
       <c r="C16" t="s">
         <v>246</v>
       </c>
@@ -7225,7 +7326,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="17" spans="1:32">
+    <row r="17" spans="1:32" x14ac:dyDescent="0.25">
       <c r="B17" s="4" t="s">
         <v>241</v>
       </c>
@@ -7250,7 +7351,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="18" spans="1:32">
+    <row r="18" spans="1:32" x14ac:dyDescent="0.25">
       <c r="C18" t="s">
         <v>247</v>
       </c>
@@ -7264,7 +7365,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="19" spans="1:32">
+    <row r="19" spans="1:32" x14ac:dyDescent="0.25">
       <c r="R19" t="s">
         <v>259</v>
       </c>
@@ -7272,7 +7373,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="20" spans="1:32">
+    <row r="20" spans="1:32" x14ac:dyDescent="0.25">
       <c r="R20" t="s">
         <v>260</v>
       </c>
@@ -7283,12 +7384,12 @@
         <v>295</v>
       </c>
     </row>
-    <row r="21" spans="1:32">
+    <row r="21" spans="1:32" x14ac:dyDescent="0.25">
       <c r="R21" t="s">
         <v>261</v>
       </c>
     </row>
-    <row r="22" spans="1:32">
+    <row r="22" spans="1:32" x14ac:dyDescent="0.25">
       <c r="B22" t="s">
         <v>242</v>
       </c>
@@ -7302,7 +7403,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="23" spans="1:32">
+    <row r="23" spans="1:32" x14ac:dyDescent="0.25">
       <c r="R23" t="s">
         <v>263</v>
       </c>
@@ -7310,7 +7411,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="24" spans="1:32">
+    <row r="24" spans="1:32" x14ac:dyDescent="0.25">
       <c r="R24" t="s">
         <v>264</v>
       </c>
@@ -7318,7 +7419,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="25" spans="1:32">
+    <row r="25" spans="1:32" x14ac:dyDescent="0.25">
       <c r="R25" t="s">
         <v>265</v>
       </c>
@@ -7328,7 +7429,7 @@
       <c r="AE25" s="5"/>
       <c r="AF25" s="5"/>
     </row>
-    <row r="26" spans="1:32">
+    <row r="26" spans="1:32" x14ac:dyDescent="0.25">
       <c r="R26" t="s">
         <v>266</v>
       </c>
@@ -7336,7 +7437,7 @@
         <v>298</v>
       </c>
     </row>
-    <row r="27" spans="1:32">
+    <row r="27" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A27" s="13" t="s">
         <v>305</v>
       </c>
@@ -7352,7 +7453,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="28" spans="1:32">
+    <row r="28" spans="1:32" x14ac:dyDescent="0.25">
       <c r="B28" t="s">
         <v>306</v>
       </c>
@@ -7363,7 +7464,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="29" spans="1:32">
+    <row r="29" spans="1:32" x14ac:dyDescent="0.25">
       <c r="B29" t="s">
         <v>307</v>
       </c>
@@ -7374,7 +7475,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="30" spans="1:32">
+    <row r="30" spans="1:32" x14ac:dyDescent="0.25">
       <c r="B30" t="s">
         <v>308</v>
       </c>
@@ -7385,7 +7486,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="31" spans="1:32">
+    <row r="31" spans="1:32" x14ac:dyDescent="0.25">
       <c r="C31" t="s">
         <v>309</v>
       </c>
@@ -7393,7 +7494,7 @@
         <v>302</v>
       </c>
     </row>
-    <row r="32" spans="1:32">
+    <row r="32" spans="1:32" x14ac:dyDescent="0.25">
       <c r="C32" t="s">
         <v>310</v>
       </c>
@@ -7401,7 +7502,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="33" spans="1:30">
+    <row r="33" spans="1:30" x14ac:dyDescent="0.25">
       <c r="B33" t="s">
         <v>311</v>
       </c>
@@ -7409,7 +7510,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="34" spans="1:30">
+    <row r="34" spans="1:30" x14ac:dyDescent="0.25">
       <c r="B34" t="s">
         <v>312</v>
       </c>
@@ -7417,72 +7518,72 @@
         <v>295</v>
       </c>
     </row>
-    <row r="35" spans="1:30">
+    <row r="35" spans="1:30" x14ac:dyDescent="0.25">
       <c r="C35" t="s">
         <v>313</v>
       </c>
     </row>
-    <row r="36" spans="1:30">
+    <row r="36" spans="1:30" x14ac:dyDescent="0.25">
       <c r="D36" t="s">
         <v>314</v>
       </c>
     </row>
-    <row r="37" spans="1:30">
+    <row r="37" spans="1:30" x14ac:dyDescent="0.25">
       <c r="D37" t="s">
         <v>315</v>
       </c>
     </row>
-    <row r="38" spans="1:30">
+    <row r="38" spans="1:30" x14ac:dyDescent="0.25">
       <c r="C38" t="s">
         <v>311</v>
       </c>
     </row>
-    <row r="39" spans="1:30">
+    <row r="39" spans="1:30" x14ac:dyDescent="0.25">
       <c r="C39" t="s">
         <v>316</v>
       </c>
     </row>
-    <row r="40" spans="1:30">
+    <row r="40" spans="1:30" x14ac:dyDescent="0.25">
       <c r="D40" t="s">
         <v>314</v>
       </c>
     </row>
-    <row r="41" spans="1:30">
+    <row r="41" spans="1:30" x14ac:dyDescent="0.25">
       <c r="D41" t="s">
         <v>315</v>
       </c>
     </row>
-    <row r="42" spans="1:30">
+    <row r="42" spans="1:30" x14ac:dyDescent="0.25">
       <c r="C42" t="s">
         <v>311</v>
       </c>
     </row>
-    <row r="43" spans="1:30">
+    <row r="43" spans="1:30" x14ac:dyDescent="0.25">
       <c r="C43" t="s">
         <v>317</v>
       </c>
     </row>
-    <row r="44" spans="1:30">
+    <row r="44" spans="1:30" x14ac:dyDescent="0.25">
       <c r="C44" t="s">
         <v>318</v>
       </c>
     </row>
-    <row r="45" spans="1:30">
+    <row r="45" spans="1:30" x14ac:dyDescent="0.25">
       <c r="C45" t="s">
         <v>319</v>
       </c>
     </row>
-    <row r="46" spans="1:30">
+    <row r="46" spans="1:30" x14ac:dyDescent="0.25">
       <c r="B46" t="s">
         <v>311</v>
       </c>
     </row>
-    <row r="47" spans="1:30">
+    <row r="47" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>311</v>
       </c>
     </row>
-    <row r="49" spans="1:7">
+    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A49" s="13" t="s">
         <v>320</v>
       </c>
@@ -7492,17 +7593,17 @@
       <c r="E49" s="13"/>
       <c r="F49" s="13"/>
     </row>
-    <row r="50" spans="1:7">
+    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B50" t="s">
         <v>321</v>
       </c>
     </row>
-    <row r="51" spans="1:7">
+    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B51" t="s">
         <v>322</v>
       </c>
     </row>
-    <row r="52" spans="1:7">
+    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B52" s="5" t="s">
         <v>323</v>
       </c>
@@ -7511,32 +7612,32 @@
         <v>324</v>
       </c>
     </row>
-    <row r="53" spans="1:7">
+    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C53" t="s">
         <v>325</v>
       </c>
     </row>
-    <row r="54" spans="1:7">
+    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
       <c r="D54" t="s">
         <v>326</v>
       </c>
     </row>
-    <row r="55" spans="1:7">
+    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
       <c r="E55" t="s">
         <v>327</v>
       </c>
     </row>
-    <row r="56" spans="1:7">
+    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B56" t="s">
         <v>322</v>
       </c>
     </row>
-    <row r="57" spans="1:7">
+    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>311</v>
       </c>
     </row>
-    <row r="59" spans="1:7">
+    <row r="59" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A59" s="13" t="s">
         <v>328</v>
       </c>
@@ -7546,62 +7647,62 @@
       <c r="E59" s="13"/>
       <c r="F59" s="13"/>
     </row>
-    <row r="60" spans="1:7">
+    <row r="60" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>329</v>
       </c>
     </row>
-    <row r="61" spans="1:7">
+    <row r="61" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>330</v>
       </c>
     </row>
-    <row r="62" spans="1:7">
+    <row r="62" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>331</v>
       </c>
     </row>
-    <row r="63" spans="1:7">
+    <row r="63" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>332</v>
       </c>
     </row>
-    <row r="64" spans="1:7">
+    <row r="64" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>333</v>
       </c>
     </row>
-    <row r="65" spans="1:9">
+    <row r="65" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>334</v>
       </c>
     </row>
-    <row r="66" spans="1:9">
+    <row r="66" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>335</v>
       </c>
     </row>
-    <row r="67" spans="1:9">
+    <row r="67" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>334</v>
       </c>
     </row>
-    <row r="68" spans="1:9">
+    <row r="68" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>336</v>
       </c>
     </row>
-    <row r="69" spans="1:9">
+    <row r="69" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>337</v>
       </c>
     </row>
-    <row r="70" spans="1:9">
+    <row r="70" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>338</v>
       </c>
     </row>
-    <row r="71" spans="1:9">
+    <row r="71" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>339</v>
       </c>
@@ -7609,7 +7710,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="72" spans="1:9">
+    <row r="72" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>340</v>
       </c>
@@ -7617,182 +7718,182 @@
         <v>372</v>
       </c>
     </row>
-    <row r="73" spans="1:9">
+    <row r="73" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>341</v>
       </c>
     </row>
-    <row r="74" spans="1:9">
+    <row r="74" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>342</v>
       </c>
     </row>
-    <row r="75" spans="1:9">
+    <row r="75" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>343</v>
       </c>
     </row>
-    <row r="76" spans="1:9">
+    <row r="76" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>344</v>
       </c>
     </row>
-    <row r="77" spans="1:9">
+    <row r="77" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
         <v>345</v>
       </c>
     </row>
-    <row r="78" spans="1:9">
+    <row r="78" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
         <v>341</v>
       </c>
     </row>
-    <row r="79" spans="1:9">
+    <row r="79" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
         <v>346</v>
       </c>
     </row>
-    <row r="80" spans="1:9">
+    <row r="80" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
         <v>347</v>
       </c>
     </row>
-    <row r="81" spans="1:1">
+    <row r="81" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
         <v>348</v>
       </c>
     </row>
-    <row r="82" spans="1:1">
+    <row r="82" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
         <v>349</v>
       </c>
     </row>
-    <row r="83" spans="1:1">
+    <row r="83" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
         <v>350</v>
       </c>
     </row>
-    <row r="84" spans="1:1">
+    <row r="84" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
         <v>351</v>
       </c>
     </row>
-    <row r="85" spans="1:1">
+    <row r="85" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
         <v>352</v>
       </c>
     </row>
-    <row r="86" spans="1:1">
+    <row r="86" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
         <v>348</v>
       </c>
     </row>
-    <row r="87" spans="1:1">
+    <row r="87" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
         <v>353</v>
       </c>
     </row>
-    <row r="88" spans="1:1">
+    <row r="88" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
         <v>354</v>
       </c>
     </row>
-    <row r="89" spans="1:1">
+    <row r="89" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
         <v>355</v>
       </c>
     </row>
-    <row r="90" spans="1:1">
+    <row r="90" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
         <v>356</v>
       </c>
     </row>
-    <row r="91" spans="1:1">
+    <row r="91" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
         <v>357</v>
       </c>
     </row>
-    <row r="92" spans="1:1">
+    <row r="92" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
         <v>358</v>
       </c>
     </row>
-    <row r="93" spans="1:1">
+    <row r="93" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
         <v>359</v>
       </c>
     </row>
-    <row r="94" spans="1:1">
+    <row r="94" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
         <v>360</v>
       </c>
     </row>
-    <row r="95" spans="1:1">
+    <row r="95" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
         <v>361</v>
       </c>
     </row>
-    <row r="96" spans="1:1">
+    <row r="96" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
         <v>362</v>
       </c>
     </row>
-    <row r="97" spans="1:1">
+    <row r="97" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
         <v>363</v>
       </c>
     </row>
-    <row r="98" spans="1:1">
+    <row r="98" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
         <v>351</v>
       </c>
     </row>
-    <row r="99" spans="1:1">
+    <row r="99" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
         <v>344</v>
       </c>
     </row>
-    <row r="100" spans="1:1">
+    <row r="100" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
         <v>364</v>
       </c>
     </row>
-    <row r="101" spans="1:1">
+    <row r="101" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
         <v>365</v>
       </c>
     </row>
-    <row r="102" spans="1:1">
+    <row r="102" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
         <v>338</v>
       </c>
     </row>
-    <row r="103" spans="1:1">
+    <row r="103" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
         <v>366</v>
       </c>
     </row>
-    <row r="104" spans="1:1">
+    <row r="104" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
         <v>367</v>
       </c>
     </row>
-    <row r="105" spans="1:1">
+    <row r="105" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
         <v>364</v>
       </c>
     </row>
-    <row r="107" spans="1:1">
+    <row r="107" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
         <v>368</v>
       </c>
     </row>
-    <row r="108" spans="1:1">
+    <row r="108" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
         <v>369</v>
       </c>
     </row>
-    <row r="109" spans="1:1">
+    <row r="109" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
         <v>370</v>
       </c>
@@ -7807,16 +7908,16 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K105"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:K134"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H5" sqref="H5"/>
+      <selection activeCell="M11" sqref="M11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="46" t="s">
         <v>375</v>
       </c>
@@ -7825,541 +7926,369 @@
       <c r="D1" s="46"/>
       <c r="E1" s="46"/>
     </row>
-    <row r="3" spans="1:8">
-      <c r="A3" s="41" t="s">
-        <v>391</v>
-      </c>
-      <c r="B3" s="41"/>
-      <c r="C3" s="41"/>
-      <c r="D3" s="41"/>
-      <c r="E3" s="41"/>
-      <c r="F3" s="41"/>
-      <c r="G3" s="41"/>
-      <c r="H3" t="s">
-        <v>388</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8">
-      <c r="A4" s="41" t="s">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
         <v>378</v>
       </c>
-      <c r="B4" s="41"/>
-      <c r="C4" s="41"/>
-      <c r="D4" s="41"/>
-      <c r="E4" s="41"/>
-      <c r="F4" s="41"/>
-      <c r="G4" s="41"/>
-      <c r="H4" t="s">
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B8" t="s">
         <v>409</v>
       </c>
     </row>
-    <row r="5" spans="1:8">
-      <c r="A5" s="41"/>
-      <c r="B5" s="5" t="s">
-        <v>323</v>
-      </c>
-      <c r="C5" s="5"/>
-      <c r="D5" s="41"/>
-      <c r="E5" s="41"/>
-      <c r="F5" s="41"/>
-      <c r="G5" s="41"/>
-    </row>
-    <row r="6" spans="1:8">
-      <c r="A6" s="41"/>
-      <c r="B6" s="41" t="s">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B9" t="s">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B10" t="s">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B11" t="s">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B13" t="s">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B14" t="s">
         <v>378</v>
       </c>
-      <c r="C6" s="41"/>
-      <c r="D6" s="41"/>
-      <c r="E6" s="41"/>
-      <c r="F6" s="41"/>
-      <c r="G6" s="41"/>
-    </row>
-    <row r="7" spans="1:8">
-      <c r="A7" s="41"/>
-      <c r="B7" s="41"/>
-      <c r="C7" s="41" t="s">
-        <v>392</v>
-      </c>
-      <c r="D7" s="41"/>
-      <c r="E7" s="41"/>
-      <c r="F7" s="41"/>
-      <c r="G7" s="41"/>
-    </row>
-    <row r="8" spans="1:8">
-      <c r="A8" s="41"/>
-      <c r="B8" s="41"/>
-      <c r="C8" s="41" t="s">
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C15" t="s">
+        <v>411</v>
+      </c>
+      <c r="G15" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C16" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="C17" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="C18" t="s">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B19" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>425</v>
+      </c>
+      <c r="D23" t="s">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
         <v>378</v>
       </c>
-      <c r="D8" s="41"/>
-      <c r="E8" s="41"/>
-      <c r="F8" s="41"/>
-      <c r="G8" s="41"/>
-    </row>
-    <row r="9" spans="1:8">
-      <c r="A9" s="41"/>
-      <c r="B9" s="41"/>
-      <c r="C9" s="41"/>
-      <c r="D9" s="41" t="s">
-        <v>326</v>
-      </c>
-      <c r="E9" s="41"/>
-      <c r="F9" s="41"/>
-      <c r="G9" s="41"/>
-    </row>
-    <row r="10" spans="1:8">
-      <c r="A10" s="41"/>
-      <c r="B10" s="41"/>
-      <c r="C10" s="41"/>
-      <c r="D10" s="41" t="s">
-        <v>378</v>
-      </c>
-      <c r="E10" s="41"/>
-      <c r="F10" s="41"/>
-      <c r="G10" s="41"/>
-    </row>
-    <row r="11" spans="1:8">
-      <c r="A11" s="41"/>
-      <c r="B11" s="41"/>
-      <c r="C11" s="41"/>
-      <c r="D11" s="41"/>
-      <c r="E11" s="41" t="s">
-        <v>393</v>
-      </c>
-      <c r="F11" s="41"/>
-      <c r="G11" s="41"/>
-    </row>
-    <row r="12" spans="1:8">
-      <c r="A12" s="41"/>
-      <c r="B12" s="41"/>
-      <c r="C12" s="41"/>
-      <c r="D12" s="41" t="s">
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B25" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="C26" t="s">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B27" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="C28" t="s">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
         <v>311</v>
       </c>
-      <c r="E12" s="41"/>
-      <c r="F12" s="41"/>
-      <c r="G12" s="41"/>
-    </row>
-    <row r="13" spans="1:8">
-      <c r="A13" s="41"/>
-      <c r="B13" s="41"/>
-      <c r="C13" s="41"/>
-      <c r="D13" s="41" t="s">
-        <v>381</v>
-      </c>
-      <c r="E13" s="41"/>
-      <c r="F13" s="41"/>
-      <c r="G13" s="41"/>
-    </row>
-    <row r="14" spans="1:8">
-      <c r="A14" s="41"/>
-      <c r="B14" s="41"/>
-      <c r="C14" s="41"/>
-      <c r="D14" s="41" t="s">
-        <v>378</v>
-      </c>
-      <c r="E14" s="41"/>
-      <c r="F14" s="41"/>
-      <c r="G14" s="41"/>
-    </row>
-    <row r="15" spans="1:8">
-      <c r="A15" s="41"/>
-      <c r="B15" s="41"/>
-      <c r="C15" s="41"/>
-      <c r="D15" s="41"/>
-      <c r="E15" s="41" t="s">
-        <v>373</v>
-      </c>
-      <c r="F15" s="41"/>
-      <c r="G15" s="41"/>
-    </row>
-    <row r="16" spans="1:8">
-      <c r="A16" s="41"/>
-      <c r="B16" s="41"/>
-      <c r="C16" s="41"/>
-      <c r="D16" s="41" t="s">
-        <v>311</v>
-      </c>
-      <c r="E16" s="41"/>
-      <c r="F16" s="41"/>
-      <c r="G16" s="41"/>
-    </row>
-    <row r="17" spans="1:8">
-      <c r="A17" s="41"/>
-      <c r="B17" s="41"/>
-      <c r="C17" s="41" t="s">
-        <v>311</v>
-      </c>
-      <c r="D17" s="41"/>
-      <c r="E17" s="41"/>
-      <c r="F17" s="41"/>
-      <c r="G17" s="41"/>
-    </row>
-    <row r="18" spans="1:8">
-      <c r="A18" s="41"/>
-      <c r="B18" s="41"/>
-      <c r="C18" s="41" t="s">
-        <v>381</v>
-      </c>
-      <c r="D18" s="41"/>
-      <c r="E18" s="41"/>
-      <c r="F18" s="41"/>
-      <c r="G18" s="41"/>
-    </row>
-    <row r="19" spans="1:8">
-      <c r="A19" s="41"/>
-      <c r="B19" s="41"/>
-      <c r="C19" s="41" t="s">
-        <v>378</v>
-      </c>
-      <c r="D19" s="41"/>
-      <c r="E19" s="41"/>
-      <c r="F19" s="41"/>
-      <c r="G19" s="41"/>
-    </row>
-    <row r="20" spans="1:8">
-      <c r="A20" s="41"/>
-      <c r="B20" s="41"/>
-      <c r="C20" s="41"/>
-      <c r="D20" s="41" t="s">
-        <v>374</v>
-      </c>
-      <c r="E20" s="41"/>
-      <c r="F20" s="41"/>
-      <c r="G20" s="41"/>
-    </row>
-    <row r="21" spans="1:8">
-      <c r="A21" s="41"/>
-      <c r="B21" s="41"/>
-      <c r="C21" s="41" t="s">
-        <v>311</v>
-      </c>
-      <c r="D21" s="41"/>
-      <c r="E21" s="41"/>
-      <c r="F21" s="41"/>
-      <c r="G21" s="41"/>
-    </row>
-    <row r="22" spans="1:8">
-      <c r="A22" s="41"/>
-      <c r="B22" s="41" t="s">
-        <v>311</v>
-      </c>
-      <c r="C22" s="41"/>
-      <c r="D22" s="41"/>
-      <c r="E22" s="41"/>
-      <c r="F22" s="41"/>
-      <c r="G22" s="41"/>
-    </row>
-    <row r="23" spans="1:8">
-      <c r="A23" s="41"/>
-      <c r="B23" s="41" t="s">
-        <v>381</v>
-      </c>
-      <c r="C23" s="41"/>
-      <c r="D23" s="41"/>
-      <c r="E23" s="41"/>
-      <c r="F23" s="41"/>
-      <c r="G23" s="41"/>
-    </row>
-    <row r="24" spans="1:8">
-      <c r="A24" s="41"/>
-      <c r="B24" s="41" t="s">
-        <v>378</v>
-      </c>
-      <c r="C24" s="41"/>
-      <c r="D24" s="41"/>
-      <c r="E24" s="41"/>
-      <c r="F24" s="41"/>
-      <c r="G24" s="41"/>
-    </row>
-    <row r="25" spans="1:8">
-      <c r="A25" s="41"/>
-      <c r="B25" s="41"/>
-      <c r="C25" s="41" t="s">
-        <v>385</v>
-      </c>
-      <c r="D25" s="41"/>
-      <c r="E25" s="41"/>
-      <c r="F25" s="41"/>
-      <c r="G25" s="41"/>
-    </row>
-    <row r="26" spans="1:8">
-      <c r="A26" s="41"/>
-      <c r="B26" s="41" t="s">
-        <v>311</v>
-      </c>
-      <c r="C26" s="41"/>
-      <c r="D26" s="41"/>
-      <c r="E26" s="41"/>
-      <c r="F26" s="41"/>
-      <c r="G26" s="41"/>
-    </row>
-    <row r="27" spans="1:8">
-      <c r="A27" s="41" t="s">
-        <v>311</v>
-      </c>
-      <c r="B27" s="41"/>
-      <c r="C27" s="41"/>
-      <c r="D27" s="41"/>
-      <c r="E27" s="41"/>
-      <c r="F27" s="41"/>
-      <c r="G27" s="41"/>
-    </row>
-    <row r="28" spans="1:8">
-      <c r="A28" s="41"/>
-      <c r="B28" s="41"/>
-      <c r="C28" s="41"/>
-      <c r="D28" s="41"/>
-      <c r="E28" s="41"/>
-      <c r="F28" s="41"/>
-      <c r="G28" s="41"/>
-    </row>
-    <row r="29" spans="1:8">
-      <c r="A29" s="41" t="s">
-        <v>394</v>
-      </c>
-      <c r="B29" s="41"/>
-      <c r="C29" s="41"/>
-      <c r="D29" s="41"/>
-      <c r="E29" s="41"/>
-      <c r="F29" s="41"/>
-      <c r="G29" s="41"/>
-      <c r="H29" t="s">
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A32" s="41" t="s">
         <v>390</v>
       </c>
-    </row>
-    <row r="30" spans="1:8">
-      <c r="A30" s="41" t="s">
-        <v>378</v>
-      </c>
-      <c r="B30" s="41"/>
-      <c r="C30" s="41"/>
-      <c r="D30" s="41"/>
-      <c r="E30" s="41"/>
-      <c r="F30" s="41"/>
-      <c r="G30" s="41"/>
-    </row>
-    <row r="31" spans="1:8">
-      <c r="A31" s="41"/>
-      <c r="B31" s="41" t="s">
-        <v>395</v>
-      </c>
-      <c r="C31" s="41"/>
-      <c r="D31" s="41"/>
-      <c r="E31" s="41"/>
-      <c r="F31" s="41"/>
-      <c r="G31" s="41"/>
-    </row>
-    <row r="32" spans="1:8">
-      <c r="A32" s="41"/>
       <c r="B32" s="41"/>
       <c r="C32" s="41"/>
       <c r="D32" s="41"/>
       <c r="E32" s="41"/>
       <c r="F32" s="41"/>
       <c r="G32" s="41"/>
-    </row>
-    <row r="33" spans="1:7">
-      <c r="A33" s="41"/>
-      <c r="B33" s="5" t="s">
-        <v>396</v>
-      </c>
+      <c r="H32" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A33" s="41" t="s">
+        <v>378</v>
+      </c>
+      <c r="B33" s="41"/>
       <c r="C33" s="41"/>
       <c r="D33" s="41"/>
       <c r="E33" s="41"/>
       <c r="F33" s="41"/>
       <c r="G33" s="41"/>
-    </row>
-    <row r="34" spans="1:7">
+      <c r="H33" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A34" s="41"/>
-      <c r="B34" s="41" t="s">
-        <v>378</v>
-      </c>
-      <c r="C34" s="41"/>
+      <c r="B34" s="5" t="s">
+        <v>421</v>
+      </c>
+      <c r="C34" s="5"/>
       <c r="D34" s="41"/>
       <c r="E34" s="41"/>
       <c r="F34" s="41"/>
       <c r="G34" s="41"/>
-    </row>
-    <row r="35" spans="1:7">
+      <c r="H34" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A35" s="41"/>
-      <c r="B35" s="41"/>
-      <c r="C35" s="5" t="s">
-        <v>397</v>
-      </c>
+      <c r="B35" s="41" t="s">
+        <v>378</v>
+      </c>
+      <c r="C35" s="41"/>
       <c r="D35" s="41"/>
       <c r="E35" s="41"/>
       <c r="F35" s="41"/>
       <c r="G35" s="41"/>
-    </row>
-    <row r="36" spans="1:7">
+      <c r="H35" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A36" s="41"/>
       <c r="B36" s="41"/>
       <c r="C36" s="41" t="s">
-        <v>378</v>
+        <v>391</v>
       </c>
       <c r="D36" s="41"/>
       <c r="E36" s="41"/>
       <c r="F36" s="41"/>
       <c r="G36" s="41"/>
-    </row>
-    <row r="37" spans="1:7">
+      <c r="H36" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A37" s="41"/>
       <c r="B37" s="41"/>
-      <c r="C37" s="41"/>
-      <c r="D37" s="41" t="s">
-        <v>387</v>
-      </c>
+      <c r="C37" s="41" t="s">
+        <v>378</v>
+      </c>
+      <c r="D37" s="41"/>
       <c r="E37" s="41"/>
       <c r="F37" s="41"/>
       <c r="G37" s="41"/>
-    </row>
-    <row r="38" spans="1:7">
+      <c r="H37" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A38" s="41"/>
       <c r="B38" s="41"/>
-      <c r="C38" s="41" t="s">
-        <v>311</v>
-      </c>
-      <c r="D38" s="41"/>
+      <c r="C38" s="41"/>
+      <c r="D38" s="41" t="s">
+        <v>326</v>
+      </c>
       <c r="E38" s="41"/>
       <c r="F38" s="41"/>
       <c r="G38" s="41"/>
-    </row>
-    <row r="39" spans="1:7">
+      <c r="H38" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A39" s="41"/>
       <c r="B39" s="41"/>
-      <c r="C39" s="41" t="s">
-        <v>381</v>
-      </c>
-      <c r="D39" s="41"/>
+      <c r="C39" s="41"/>
+      <c r="D39" s="41" t="s">
+        <v>378</v>
+      </c>
       <c r="E39" s="41"/>
       <c r="F39" s="41"/>
       <c r="G39" s="41"/>
-    </row>
-    <row r="40" spans="1:7">
+      <c r="H39" t="s">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A40" s="41"/>
       <c r="B40" s="41"/>
-      <c r="C40" s="41" t="s">
-        <v>378</v>
-      </c>
+      <c r="C40" s="41"/>
       <c r="D40" s="41"/>
-      <c r="E40" s="41"/>
+      <c r="E40" s="41" t="s">
+        <v>392</v>
+      </c>
       <c r="F40" s="41"/>
       <c r="G40" s="41"/>
     </row>
-    <row r="41" spans="1:7">
+    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A41" s="41"/>
       <c r="B41" s="41"/>
       <c r="C41" s="41"/>
       <c r="D41" s="41" t="s">
-        <v>373</v>
+        <v>311</v>
       </c>
       <c r="E41" s="41"/>
       <c r="F41" s="41"/>
       <c r="G41" s="41"/>
     </row>
-    <row r="42" spans="1:7">
+    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A42" s="41"/>
       <c r="B42" s="41"/>
-      <c r="C42" s="41" t="s">
-        <v>311</v>
-      </c>
-      <c r="D42" s="41"/>
+      <c r="C42" s="41"/>
+      <c r="D42" s="41" t="s">
+        <v>381</v>
+      </c>
       <c r="E42" s="41"/>
       <c r="F42" s="41"/>
       <c r="G42" s="41"/>
     </row>
-    <row r="43" spans="1:7">
+    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A43" s="41"/>
       <c r="B43" s="41"/>
-      <c r="C43" s="41" t="s">
-        <v>315</v>
-      </c>
-      <c r="D43" s="41"/>
+      <c r="C43" s="41"/>
+      <c r="D43" s="41" t="s">
+        <v>378</v>
+      </c>
       <c r="E43" s="41"/>
       <c r="F43" s="41"/>
       <c r="G43" s="41"/>
     </row>
-    <row r="44" spans="1:7">
+    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A44" s="41"/>
-      <c r="B44" s="41" t="s">
-        <v>398</v>
-      </c>
+      <c r="B44" s="41"/>
       <c r="C44" s="41"/>
       <c r="D44" s="41"/>
-      <c r="E44" s="41"/>
+      <c r="E44" s="41" t="s">
+        <v>373</v>
+      </c>
       <c r="F44" s="41"/>
       <c r="G44" s="41"/>
     </row>
-    <row r="45" spans="1:7">
+    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A45" s="41"/>
       <c r="B45" s="41"/>
       <c r="C45" s="41"/>
-      <c r="D45" s="41"/>
+      <c r="D45" s="41" t="s">
+        <v>311</v>
+      </c>
       <c r="E45" s="41"/>
       <c r="F45" s="41"/>
       <c r="G45" s="41"/>
     </row>
-    <row r="46" spans="1:7">
+    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A46" s="41"/>
-      <c r="B46" s="41" t="s">
-        <v>399</v>
-      </c>
-      <c r="C46" s="41"/>
+      <c r="B46" s="41"/>
+      <c r="C46" s="41" t="s">
+        <v>311</v>
+      </c>
       <c r="D46" s="41"/>
       <c r="E46" s="41"/>
       <c r="F46" s="41"/>
       <c r="G46" s="41"/>
     </row>
-    <row r="47" spans="1:7">
+    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A47" s="41"/>
-      <c r="B47" s="41" t="s">
-        <v>400</v>
-      </c>
-      <c r="C47" s="41"/>
+      <c r="B47" s="41"/>
+      <c r="C47" s="41" t="s">
+        <v>381</v>
+      </c>
       <c r="D47" s="41"/>
       <c r="E47" s="41"/>
       <c r="F47" s="41"/>
       <c r="G47" s="41"/>
     </row>
-    <row r="48" spans="1:7">
+    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A48" s="41"/>
       <c r="B48" s="41"/>
       <c r="C48" s="41" t="s">
-        <v>374</v>
+        <v>378</v>
       </c>
       <c r="D48" s="41"/>
       <c r="E48" s="41"/>
       <c r="F48" s="41"/>
       <c r="G48" s="41"/>
     </row>
-    <row r="49" spans="1:7">
+    <row r="49" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A49" s="41"/>
-      <c r="B49" s="41" t="s">
-        <v>398</v>
-      </c>
+      <c r="B49" s="41"/>
       <c r="C49" s="41"/>
-      <c r="D49" s="41"/>
+      <c r="D49" s="41" t="s">
+        <v>374</v>
+      </c>
       <c r="E49" s="41"/>
       <c r="F49" s="41"/>
       <c r="G49" s="41"/>
     </row>
-    <row r="50" spans="1:7">
+    <row r="50" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A50" s="41"/>
-      <c r="B50" s="41" t="s">
-        <v>401</v>
-      </c>
-      <c r="C50" s="41"/>
+      <c r="B50" s="41"/>
+      <c r="C50" s="41" t="s">
+        <v>311</v>
+      </c>
       <c r="D50" s="41"/>
       <c r="E50" s="41"/>
       <c r="F50" s="41"/>
       <c r="G50" s="41"/>
     </row>
-    <row r="51" spans="1:7">
+    <row r="51" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A51" s="41"/>
       <c r="B51" s="41" t="s">
-        <v>378</v>
+        <v>311</v>
       </c>
       <c r="C51" s="41"/>
       <c r="D51" s="41"/>
@@ -8367,469 +8296,491 @@
       <c r="F51" s="41"/>
       <c r="G51" s="41"/>
     </row>
-    <row r="52" spans="1:7">
+    <row r="52" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A52" s="41"/>
-      <c r="B52" s="41"/>
-      <c r="C52" s="5" t="s">
-        <v>402</v>
-      </c>
-      <c r="D52" s="5"/>
-      <c r="E52" s="5"/>
+      <c r="B52" s="41" t="s">
+        <v>381</v>
+      </c>
+      <c r="C52" s="41"/>
+      <c r="D52" s="41"/>
+      <c r="E52" s="41"/>
       <c r="F52" s="41"/>
       <c r="G52" s="41"/>
     </row>
-    <row r="53" spans="1:7">
+    <row r="53" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A53" s="41"/>
-      <c r="B53" s="41"/>
-      <c r="C53" s="41" t="s">
+      <c r="B53" s="41" t="s">
         <v>378</v>
       </c>
+      <c r="C53" s="41"/>
       <c r="D53" s="41"/>
       <c r="E53" s="41"/>
       <c r="F53" s="41"/>
       <c r="G53" s="41"/>
     </row>
-    <row r="54" spans="1:7">
+    <row r="54" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A54" s="41"/>
       <c r="B54" s="41"/>
-      <c r="C54" s="41"/>
-      <c r="D54" s="41" t="s">
-        <v>403</v>
-      </c>
+      <c r="C54" s="41" t="s">
+        <v>385</v>
+      </c>
+      <c r="D54" s="41"/>
       <c r="E54" s="41"/>
       <c r="F54" s="41"/>
       <c r="G54" s="41"/>
     </row>
-    <row r="55" spans="1:7">
+    <row r="55" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A55" s="41"/>
-      <c r="B55" s="41"/>
+      <c r="B55" s="41" t="s">
+        <v>311</v>
+      </c>
       <c r="C55" s="41"/>
-      <c r="D55" s="41" t="s">
-        <v>385</v>
-      </c>
+      <c r="D55" s="41"/>
       <c r="E55" s="41"/>
       <c r="F55" s="41"/>
       <c r="G55" s="41"/>
     </row>
-    <row r="56" spans="1:7">
-      <c r="A56" s="41"/>
+    <row r="56" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A56" s="41" t="s">
+        <v>311</v>
+      </c>
       <c r="B56" s="41"/>
-      <c r="C56" s="41" t="s">
-        <v>311</v>
-      </c>
+      <c r="C56" s="41"/>
       <c r="D56" s="41"/>
       <c r="E56" s="41"/>
       <c r="F56" s="41"/>
       <c r="G56" s="41"/>
     </row>
-    <row r="57" spans="1:7">
+    <row r="57" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A57" s="41"/>
       <c r="B57" s="41"/>
-      <c r="C57" s="41" t="s">
-        <v>381</v>
-      </c>
+      <c r="C57" s="41"/>
       <c r="D57" s="41"/>
       <c r="E57" s="41"/>
       <c r="F57" s="41"/>
       <c r="G57" s="41"/>
     </row>
-    <row r="58" spans="1:7">
-      <c r="A58" s="41"/>
+    <row r="58" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A58" s="41" t="s">
+        <v>393</v>
+      </c>
       <c r="B58" s="41"/>
-      <c r="C58" s="41" t="s">
-        <v>378</v>
-      </c>
+      <c r="C58" s="41"/>
       <c r="D58" s="41"/>
       <c r="E58" s="41"/>
       <c r="F58" s="41"/>
       <c r="G58" s="41"/>
-    </row>
-    <row r="59" spans="1:7">
-      <c r="A59" s="41"/>
+      <c r="H58" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="59" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A59" s="41" t="s">
+        <v>378</v>
+      </c>
       <c r="B59" s="41"/>
       <c r="C59" s="41"/>
-      <c r="D59" s="41" t="s">
-        <v>404</v>
-      </c>
+      <c r="D59" s="41"/>
       <c r="E59" s="41"/>
       <c r="F59" s="41"/>
       <c r="G59" s="41"/>
-    </row>
-    <row r="60" spans="1:7">
+      <c r="H59" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="60" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A60" s="41"/>
-      <c r="B60" s="41"/>
+      <c r="B60" s="41" t="s">
+        <v>394</v>
+      </c>
       <c r="C60" s="41"/>
-      <c r="D60" s="41" t="s">
-        <v>405</v>
-      </c>
+      <c r="D60" s="41"/>
       <c r="E60" s="41"/>
       <c r="F60" s="41"/>
       <c r="G60" s="41"/>
-    </row>
-    <row r="61" spans="1:7">
+      <c r="H60" t="s">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="61" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A61" s="41"/>
       <c r="B61" s="41"/>
       <c r="C61" s="41"/>
-      <c r="D61" s="41" t="s">
-        <v>406</v>
-      </c>
+      <c r="D61" s="41"/>
       <c r="E61" s="41"/>
       <c r="F61" s="41"/>
       <c r="G61" s="41"/>
-    </row>
-    <row r="62" spans="1:7">
+      <c r="H61" t="s">
+        <v>433</v>
+      </c>
+      <c r="J61" t="s">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="62" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A62" s="41"/>
-      <c r="B62" s="41"/>
-      <c r="C62" s="41" t="s">
-        <v>311</v>
-      </c>
+      <c r="B62" s="5" t="s">
+        <v>395</v>
+      </c>
+      <c r="C62" s="41"/>
       <c r="D62" s="41"/>
       <c r="E62" s="41"/>
       <c r="F62" s="41"/>
       <c r="G62" s="41"/>
-    </row>
-    <row r="63" spans="1:7">
+      <c r="H62" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="63" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A63" s="41"/>
       <c r="B63" s="41" t="s">
-        <v>311</v>
+        <v>378</v>
       </c>
       <c r="C63" s="41"/>
       <c r="D63" s="41"/>
       <c r="E63" s="41"/>
       <c r="F63" s="41"/>
       <c r="G63" s="41"/>
-    </row>
-    <row r="64" spans="1:7">
-      <c r="A64" s="41" t="s">
-        <v>311</v>
-      </c>
+      <c r="H63" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="64" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A64" s="41"/>
       <c r="B64" s="41"/>
-      <c r="C64" s="41"/>
+      <c r="C64" s="5" t="s">
+        <v>396</v>
+      </c>
       <c r="D64" s="41"/>
       <c r="E64" s="41"/>
       <c r="F64" s="41"/>
       <c r="G64" s="41"/>
-    </row>
-    <row r="65" spans="1:8">
+      <c r="H64" t="s">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A65" s="41"/>
       <c r="B65" s="41"/>
-      <c r="C65" s="41"/>
+      <c r="C65" s="41" t="s">
+        <v>378</v>
+      </c>
       <c r="D65" s="41"/>
       <c r="E65" s="41"/>
       <c r="F65" s="41"/>
       <c r="G65" s="41"/>
-    </row>
-    <row r="66" spans="1:8">
-      <c r="A66" s="41" t="s">
-        <v>407</v>
-      </c>
+      <c r="H65" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A66" s="41"/>
       <c r="B66" s="41"/>
       <c r="C66" s="41"/>
-      <c r="D66" s="41"/>
+      <c r="D66" s="41" t="s">
+        <v>387</v>
+      </c>
       <c r="E66" s="41"/>
       <c r="F66" s="41"/>
       <c r="G66" s="41"/>
-      <c r="H66" t="s">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="67" spans="1:8">
-      <c r="A67" s="41" t="s">
-        <v>378</v>
-      </c>
+    </row>
+    <row r="67" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A67" s="41"/>
       <c r="B67" s="41"/>
-      <c r="C67" s="41"/>
+      <c r="C67" s="41" t="s">
+        <v>311</v>
+      </c>
       <c r="D67" s="41"/>
       <c r="E67" s="41"/>
       <c r="F67" s="41"/>
       <c r="G67" s="41"/>
     </row>
-    <row r="68" spans="1:8">
+    <row r="68" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A68" s="41"/>
-      <c r="B68" s="41" t="s">
-        <v>376</v>
-      </c>
-      <c r="C68" s="41"/>
+      <c r="B68" s="41"/>
+      <c r="C68" s="41" t="s">
+        <v>381</v>
+      </c>
       <c r="D68" s="41"/>
       <c r="E68" s="41"/>
       <c r="F68" s="41"/>
       <c r="G68" s="41"/>
     </row>
-    <row r="69" spans="1:8">
+    <row r="69" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A69" s="41"/>
       <c r="B69" s="41"/>
-      <c r="C69" s="41"/>
+      <c r="C69" s="41" t="s">
+        <v>378</v>
+      </c>
       <c r="D69" s="41"/>
       <c r="E69" s="41"/>
       <c r="F69" s="41"/>
       <c r="G69" s="41"/>
     </row>
-    <row r="70" spans="1:8">
+    <row r="70" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A70" s="41"/>
-      <c r="B70" s="41" t="s">
-        <v>377</v>
-      </c>
+      <c r="B70" s="41"/>
       <c r="C70" s="41"/>
-      <c r="D70" s="41"/>
+      <c r="D70" s="41" t="s">
+        <v>373</v>
+      </c>
       <c r="E70" s="41"/>
       <c r="F70" s="41"/>
       <c r="G70" s="41"/>
     </row>
-    <row r="71" spans="1:8">
+    <row r="71" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A71" s="41"/>
-      <c r="B71" s="41" t="s">
-        <v>378</v>
-      </c>
-      <c r="C71" s="41"/>
+      <c r="B71" s="41"/>
+      <c r="C71" s="41" t="s">
+        <v>311</v>
+      </c>
       <c r="D71" s="41"/>
       <c r="E71" s="41"/>
       <c r="F71" s="41"/>
       <c r="G71" s="41"/>
     </row>
-    <row r="72" spans="1:8">
+    <row r="72" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A72" s="41"/>
       <c r="B72" s="41"/>
-      <c r="C72" s="5" t="s">
-        <v>379</v>
-      </c>
-      <c r="D72" s="5"/>
+      <c r="C72" s="41" t="s">
+        <v>315</v>
+      </c>
+      <c r="D72" s="41"/>
       <c r="E72" s="41"/>
       <c r="F72" s="41"/>
       <c r="G72" s="41"/>
     </row>
-    <row r="73" spans="1:8">
+    <row r="73" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A73" s="41"/>
-      <c r="B73" s="41"/>
-      <c r="C73" s="41" t="s">
-        <v>378</v>
-      </c>
+      <c r="B73" s="41" t="s">
+        <v>397</v>
+      </c>
+      <c r="C73" s="41"/>
       <c r="D73" s="41"/>
       <c r="E73" s="41"/>
       <c r="F73" s="41"/>
       <c r="G73" s="41"/>
     </row>
-    <row r="74" spans="1:8">
+    <row r="74" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A74" s="41"/>
       <c r="B74" s="41"/>
       <c r="C74" s="41"/>
-      <c r="D74" s="41" t="s">
-        <v>380</v>
-      </c>
+      <c r="D74" s="41"/>
       <c r="E74" s="41"/>
       <c r="F74" s="41"/>
       <c r="G74" s="41"/>
     </row>
-    <row r="75" spans="1:8">
+    <row r="75" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A75" s="41"/>
-      <c r="B75" s="41"/>
-      <c r="C75" s="41" t="s">
-        <v>311</v>
-      </c>
+      <c r="B75" s="41" t="s">
+        <v>398</v>
+      </c>
+      <c r="C75" s="41"/>
       <c r="D75" s="41"/>
       <c r="E75" s="41"/>
       <c r="F75" s="41"/>
       <c r="G75" s="41"/>
     </row>
-    <row r="76" spans="1:8">
+    <row r="76" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A76" s="41"/>
-      <c r="B76" s="41"/>
-      <c r="C76" s="41" t="s">
-        <v>381</v>
-      </c>
+      <c r="B76" s="41" t="s">
+        <v>399</v>
+      </c>
+      <c r="C76" s="41"/>
       <c r="D76" s="41"/>
       <c r="E76" s="41"/>
       <c r="F76" s="41"/>
       <c r="G76" s="41"/>
     </row>
-    <row r="77" spans="1:8">
+    <row r="77" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A77" s="41"/>
       <c r="B77" s="41"/>
       <c r="C77" s="41" t="s">
-        <v>378</v>
+        <v>374</v>
       </c>
       <c r="D77" s="41"/>
       <c r="E77" s="41"/>
       <c r="F77" s="41"/>
       <c r="G77" s="41"/>
     </row>
-    <row r="78" spans="1:8">
+    <row r="78" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A78" s="41"/>
-      <c r="B78" s="41"/>
+      <c r="B78" s="41" t="s">
+        <v>397</v>
+      </c>
       <c r="C78" s="41"/>
-      <c r="D78" s="5" t="s">
-        <v>382</v>
-      </c>
-      <c r="E78" s="5"/>
-      <c r="F78" s="5"/>
+      <c r="D78" s="41"/>
+      <c r="E78" s="41"/>
+      <c r="F78" s="41"/>
       <c r="G78" s="41"/>
     </row>
-    <row r="79" spans="1:8">
+    <row r="79" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A79" s="41"/>
-      <c r="B79" s="41"/>
+      <c r="B79" s="41" t="s">
+        <v>400</v>
+      </c>
       <c r="C79" s="41"/>
-      <c r="D79" s="41" t="s">
-        <v>378</v>
-      </c>
+      <c r="D79" s="41"/>
       <c r="E79" s="41"/>
       <c r="F79" s="41"/>
       <c r="G79" s="41"/>
     </row>
-    <row r="80" spans="1:8">
+    <row r="80" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A80" s="41"/>
-      <c r="B80" s="41"/>
+      <c r="B80" s="41" t="s">
+        <v>378</v>
+      </c>
       <c r="C80" s="41"/>
       <c r="D80" s="41"/>
-      <c r="E80" s="41" t="s">
-        <v>383</v>
-      </c>
+      <c r="E80" s="41"/>
       <c r="F80" s="41"/>
       <c r="G80" s="41"/>
     </row>
-    <row r="81" spans="1:7">
+    <row r="81" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A81" s="41"/>
       <c r="B81" s="41"/>
-      <c r="C81" s="41"/>
-      <c r="D81" s="41" t="s">
-        <v>311</v>
-      </c>
-      <c r="E81" s="41"/>
+      <c r="C81" s="5" t="s">
+        <v>401</v>
+      </c>
+      <c r="D81" s="5"/>
+      <c r="E81" s="5"/>
       <c r="F81" s="41"/>
       <c r="G81" s="41"/>
     </row>
-    <row r="82" spans="1:7">
+    <row r="82" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A82" s="41"/>
       <c r="B82" s="41"/>
-      <c r="C82" s="41"/>
-      <c r="D82" s="41" t="s">
-        <v>381</v>
-      </c>
+      <c r="C82" s="41" t="s">
+        <v>378</v>
+      </c>
+      <c r="D82" s="41"/>
       <c r="E82" s="41"/>
       <c r="F82" s="41"/>
       <c r="G82" s="41"/>
     </row>
-    <row r="83" spans="1:7">
+    <row r="83" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A83" s="41"/>
       <c r="B83" s="41"/>
       <c r="C83" s="41"/>
       <c r="D83" s="41" t="s">
-        <v>378</v>
+        <v>402</v>
       </c>
       <c r="E83" s="41"/>
       <c r="F83" s="41"/>
       <c r="G83" s="41"/>
     </row>
-    <row r="84" spans="1:7">
+    <row r="84" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A84" s="41"/>
       <c r="B84" s="41"/>
       <c r="C84" s="41"/>
-      <c r="D84" s="41"/>
-      <c r="E84" s="41" t="s">
-        <v>384</v>
-      </c>
+      <c r="D84" s="41" t="s">
+        <v>385</v>
+      </c>
+      <c r="E84" s="41"/>
       <c r="F84" s="41"/>
       <c r="G84" s="41"/>
     </row>
-    <row r="85" spans="1:7">
+    <row r="85" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A85" s="41"/>
       <c r="B85" s="41"/>
-      <c r="C85" s="41"/>
-      <c r="D85" s="41" t="s">
+      <c r="C85" s="41" t="s">
         <v>311</v>
       </c>
+      <c r="D85" s="41"/>
       <c r="E85" s="41"/>
       <c r="F85" s="41"/>
       <c r="G85" s="41"/>
     </row>
-    <row r="86" spans="1:7">
+    <row r="86" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A86" s="41"/>
       <c r="B86" s="41"/>
       <c r="C86" s="41" t="s">
-        <v>311</v>
+        <v>381</v>
       </c>
       <c r="D86" s="41"/>
       <c r="E86" s="41"/>
       <c r="F86" s="41"/>
       <c r="G86" s="41"/>
     </row>
-    <row r="87" spans="1:7">
+    <row r="87" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A87" s="41"/>
-      <c r="B87" s="41" t="s">
-        <v>311</v>
-      </c>
-      <c r="C87" s="41"/>
+      <c r="B87" s="41"/>
+      <c r="C87" s="41" t="s">
+        <v>378</v>
+      </c>
       <c r="D87" s="41"/>
       <c r="E87" s="41"/>
       <c r="F87" s="41"/>
       <c r="G87" s="41"/>
     </row>
-    <row r="88" spans="1:7">
+    <row r="88" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A88" s="41"/>
-      <c r="B88" s="41" t="s">
-        <v>381</v>
-      </c>
+      <c r="B88" s="41"/>
       <c r="C88" s="41"/>
-      <c r="D88" s="41"/>
+      <c r="D88" s="41" t="s">
+        <v>403</v>
+      </c>
       <c r="E88" s="41"/>
       <c r="F88" s="41"/>
       <c r="G88" s="41"/>
     </row>
-    <row r="89" spans="1:7">
+    <row r="89" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A89" s="41"/>
-      <c r="B89" s="41" t="s">
-        <v>378</v>
-      </c>
+      <c r="B89" s="41"/>
       <c r="C89" s="41"/>
-      <c r="D89" s="41"/>
+      <c r="D89" s="41" t="s">
+        <v>404</v>
+      </c>
       <c r="E89" s="41"/>
       <c r="F89" s="41"/>
       <c r="G89" s="41"/>
     </row>
-    <row r="90" spans="1:7">
+    <row r="90" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A90" s="41"/>
       <c r="B90" s="41"/>
-      <c r="C90" s="41" t="s">
-        <v>386</v>
-      </c>
-      <c r="D90" s="41"/>
+      <c r="C90" s="41"/>
+      <c r="D90" s="41" t="s">
+        <v>405</v>
+      </c>
       <c r="E90" s="41"/>
       <c r="F90" s="41"/>
       <c r="G90" s="41"/>
     </row>
-    <row r="91" spans="1:7">
+    <row r="91" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A91" s="41"/>
-      <c r="B91" s="41" t="s">
+      <c r="B91" s="41"/>
+      <c r="C91" s="41" t="s">
         <v>311</v>
       </c>
-      <c r="C91" s="41"/>
       <c r="D91" s="41"/>
       <c r="E91" s="41"/>
       <c r="F91" s="41"/>
       <c r="G91" s="41"/>
     </row>
-    <row r="92" spans="1:7">
+    <row r="92" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A92" s="41"/>
-      <c r="B92" s="41"/>
+      <c r="B92" s="41" t="s">
+        <v>311</v>
+      </c>
       <c r="C92" s="41"/>
       <c r="D92" s="41"/>
       <c r="E92" s="41"/>
       <c r="F92" s="41"/>
       <c r="G92" s="41"/>
     </row>
-    <row r="93" spans="1:7">
-      <c r="A93" s="41"/>
-      <c r="B93" s="41" t="s">
-        <v>408</v>
-      </c>
+    <row r="93" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A93" s="41" t="s">
+        <v>311</v>
+      </c>
+      <c r="B93" s="41"/>
       <c r="C93" s="41"/>
       <c r="D93" s="41"/>
       <c r="E93" s="41"/>
       <c r="F93" s="41"/>
       <c r="G93" s="41"/>
     </row>
-    <row r="94" spans="1:7">
-      <c r="A94" s="41" t="s">
-        <v>311</v>
-      </c>
+    <row r="94" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A94" s="41"/>
       <c r="B94" s="41"/>
       <c r="C94" s="41"/>
       <c r="D94" s="41"/>
@@ -8837,27 +8788,366 @@
       <c r="F94" s="41"/>
       <c r="G94" s="41"/>
     </row>
-    <row r="97" spans="1:11">
+    <row r="95" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A95" s="41" t="s">
+        <v>406</v>
+      </c>
+      <c r="B95" s="41"/>
+      <c r="C95" s="41"/>
+      <c r="D95" s="41"/>
+      <c r="E95" s="41"/>
+      <c r="F95" s="41"/>
+      <c r="G95" s="41"/>
+      <c r="H95" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="96" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A96" s="41" t="s">
+        <v>378</v>
+      </c>
+      <c r="B96" s="41"/>
+      <c r="C96" s="41"/>
+      <c r="D96" s="41"/>
+      <c r="E96" s="41"/>
+      <c r="F96" s="41"/>
+      <c r="G96" s="41"/>
+      <c r="H96" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="97" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A97" s="41"/>
-      <c r="B97" s="41"/>
+      <c r="B97" s="41" t="s">
+        <v>376</v>
+      </c>
       <c r="C97" s="41"/>
       <c r="D97" s="41"/>
       <c r="E97" s="41"/>
       <c r="F97" s="41"/>
       <c r="G97" s="41"/>
-    </row>
-    <row r="105" spans="1:11">
+      <c r="H97" t="s">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="98" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A98" s="41"/>
+      <c r="B98" s="41"/>
+      <c r="C98" s="41"/>
+      <c r="D98" s="41"/>
+      <c r="E98" s="41"/>
+      <c r="F98" s="41"/>
+      <c r="G98" s="41"/>
+      <c r="H98" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="99" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A99" s="41"/>
+      <c r="B99" s="41" t="s">
+        <v>377</v>
+      </c>
+      <c r="C99" s="41"/>
+      <c r="D99" s="41"/>
+      <c r="E99" s="41"/>
+      <c r="F99" s="41"/>
+      <c r="G99" s="41"/>
+      <c r="H99" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="100" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A100" s="41"/>
+      <c r="B100" s="41" t="s">
+        <v>378</v>
+      </c>
+      <c r="C100" s="41"/>
+      <c r="D100" s="41"/>
+      <c r="E100" s="41"/>
+      <c r="F100" s="41"/>
+      <c r="G100" s="41"/>
+      <c r="H100" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="101" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A101" s="41"/>
+      <c r="B101" s="41"/>
+      <c r="C101" s="5" t="s">
+        <v>379</v>
+      </c>
+      <c r="D101" s="5"/>
+      <c r="E101" s="41"/>
+      <c r="F101" s="41"/>
+      <c r="G101" s="41"/>
+      <c r="H101" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="102" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A102" s="41"/>
+      <c r="B102" s="41"/>
+      <c r="C102" s="41" t="s">
+        <v>378</v>
+      </c>
+      <c r="D102" s="41"/>
+      <c r="E102" s="41"/>
+      <c r="F102" s="41"/>
+      <c r="G102" s="41"/>
+      <c r="H102" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="103" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A103" s="41"/>
+      <c r="B103" s="41"/>
+      <c r="C103" s="41"/>
+      <c r="D103" s="41" t="s">
+        <v>380</v>
+      </c>
+      <c r="E103" s="41"/>
+      <c r="F103" s="41"/>
+      <c r="G103" s="41"/>
+    </row>
+    <row r="104" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A104" s="41"/>
+      <c r="B104" s="41"/>
+      <c r="C104" s="41" t="s">
+        <v>311</v>
+      </c>
+      <c r="D104" s="41"/>
+      <c r="E104" s="41"/>
+      <c r="F104" s="41"/>
+      <c r="G104" s="41"/>
+    </row>
+    <row r="105" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A105" s="41"/>
       <c r="B105" s="41"/>
-      <c r="C105" s="41"/>
+      <c r="C105" s="41" t="s">
+        <v>381</v>
+      </c>
       <c r="D105" s="41"/>
       <c r="E105" s="41"/>
       <c r="F105" s="41"/>
       <c r="G105" s="41"/>
-      <c r="H105" s="41"/>
-      <c r="I105" s="41"/>
-      <c r="J105" s="41"/>
-      <c r="K105" s="41"/>
+    </row>
+    <row r="106" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A106" s="41"/>
+      <c r="B106" s="41"/>
+      <c r="C106" s="41" t="s">
+        <v>378</v>
+      </c>
+      <c r="D106" s="41"/>
+      <c r="E106" s="41"/>
+      <c r="F106" s="41"/>
+      <c r="G106" s="41"/>
+    </row>
+    <row r="107" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A107" s="41"/>
+      <c r="B107" s="41"/>
+      <c r="C107" s="41"/>
+      <c r="D107" s="5" t="s">
+        <v>382</v>
+      </c>
+      <c r="E107" s="5"/>
+      <c r="F107" s="5"/>
+      <c r="G107" s="41"/>
+    </row>
+    <row r="108" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A108" s="41"/>
+      <c r="B108" s="41"/>
+      <c r="C108" s="41"/>
+      <c r="D108" s="41" t="s">
+        <v>378</v>
+      </c>
+      <c r="E108" s="41"/>
+      <c r="F108" s="41"/>
+      <c r="G108" s="41"/>
+    </row>
+    <row r="109" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A109" s="41"/>
+      <c r="B109" s="41"/>
+      <c r="C109" s="41"/>
+      <c r="D109" s="41"/>
+      <c r="E109" s="41" t="s">
+        <v>383</v>
+      </c>
+      <c r="F109" s="41"/>
+      <c r="G109" s="41"/>
+    </row>
+    <row r="110" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A110" s="41"/>
+      <c r="B110" s="41"/>
+      <c r="C110" s="41"/>
+      <c r="D110" s="41" t="s">
+        <v>311</v>
+      </c>
+      <c r="E110" s="41"/>
+      <c r="F110" s="41"/>
+      <c r="G110" s="41"/>
+    </row>
+    <row r="111" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A111" s="41"/>
+      <c r="B111" s="41"/>
+      <c r="C111" s="41"/>
+      <c r="D111" s="41" t="s">
+        <v>381</v>
+      </c>
+      <c r="E111" s="41"/>
+      <c r="F111" s="41"/>
+      <c r="G111" s="41"/>
+    </row>
+    <row r="112" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A112" s="41"/>
+      <c r="B112" s="41"/>
+      <c r="C112" s="41"/>
+      <c r="D112" s="41" t="s">
+        <v>378</v>
+      </c>
+      <c r="E112" s="41"/>
+      <c r="F112" s="41"/>
+      <c r="G112" s="41"/>
+    </row>
+    <row r="113" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A113" s="41"/>
+      <c r="B113" s="41"/>
+      <c r="C113" s="41"/>
+      <c r="D113" s="41"/>
+      <c r="E113" s="41" t="s">
+        <v>384</v>
+      </c>
+      <c r="F113" s="41"/>
+      <c r="G113" s="41"/>
+    </row>
+    <row r="114" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A114" s="41"/>
+      <c r="B114" s="41"/>
+      <c r="C114" s="41"/>
+      <c r="D114" s="41" t="s">
+        <v>311</v>
+      </c>
+      <c r="E114" s="41"/>
+      <c r="F114" s="41"/>
+      <c r="G114" s="41"/>
+    </row>
+    <row r="115" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A115" s="41"/>
+      <c r="B115" s="41"/>
+      <c r="C115" s="41" t="s">
+        <v>311</v>
+      </c>
+      <c r="D115" s="41"/>
+      <c r="E115" s="41"/>
+      <c r="F115" s="41"/>
+      <c r="G115" s="41"/>
+    </row>
+    <row r="116" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A116" s="41"/>
+      <c r="B116" s="41" t="s">
+        <v>311</v>
+      </c>
+      <c r="C116" s="41"/>
+      <c r="D116" s="41"/>
+      <c r="E116" s="41"/>
+      <c r="F116" s="41"/>
+      <c r="G116" s="41"/>
+    </row>
+    <row r="117" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A117" s="41"/>
+      <c r="B117" s="41" t="s">
+        <v>381</v>
+      </c>
+      <c r="C117" s="41"/>
+      <c r="D117" s="41"/>
+      <c r="E117" s="41"/>
+      <c r="F117" s="41"/>
+      <c r="G117" s="41"/>
+    </row>
+    <row r="118" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A118" s="41"/>
+      <c r="B118" s="41" t="s">
+        <v>378</v>
+      </c>
+      <c r="C118" s="41"/>
+      <c r="D118" s="41"/>
+      <c r="E118" s="41"/>
+      <c r="F118" s="41"/>
+      <c r="G118" s="41"/>
+    </row>
+    <row r="119" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A119" s="41"/>
+      <c r="B119" s="41"/>
+      <c r="C119" s="41" t="s">
+        <v>386</v>
+      </c>
+      <c r="D119" s="41"/>
+      <c r="E119" s="41"/>
+      <c r="F119" s="41"/>
+      <c r="G119" s="41"/>
+    </row>
+    <row r="120" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A120" s="41"/>
+      <c r="B120" s="41" t="s">
+        <v>311</v>
+      </c>
+      <c r="C120" s="41"/>
+      <c r="D120" s="41"/>
+      <c r="E120" s="41"/>
+      <c r="F120" s="41"/>
+      <c r="G120" s="41"/>
+    </row>
+    <row r="121" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A121" s="41"/>
+      <c r="B121" s="41"/>
+      <c r="C121" s="41"/>
+      <c r="D121" s="41"/>
+      <c r="E121" s="41"/>
+      <c r="F121" s="41"/>
+      <c r="G121" s="41"/>
+    </row>
+    <row r="122" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A122" s="41"/>
+      <c r="B122" s="41" t="s">
+        <v>407</v>
+      </c>
+      <c r="C122" s="41"/>
+      <c r="D122" s="41"/>
+      <c r="E122" s="41"/>
+      <c r="F122" s="41"/>
+      <c r="G122" s="41"/>
+    </row>
+    <row r="123" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A123" s="41" t="s">
+        <v>311</v>
+      </c>
+      <c r="B123" s="41"/>
+      <c r="C123" s="41"/>
+      <c r="D123" s="41"/>
+      <c r="E123" s="41"/>
+      <c r="F123" s="41"/>
+      <c r="G123" s="41"/>
+    </row>
+    <row r="126" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A126" s="41"/>
+      <c r="B126" s="41"/>
+      <c r="C126" s="41"/>
+      <c r="D126" s="41"/>
+      <c r="E126" s="41"/>
+      <c r="F126" s="41"/>
+      <c r="G126" s="41"/>
+    </row>
+    <row r="134" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A134" s="41"/>
+      <c r="B134" s="41"/>
+      <c r="C134" s="41"/>
+      <c r="D134" s="41"/>
+      <c r="E134" s="41"/>
+      <c r="F134" s="41"/>
+      <c r="G134" s="41"/>
+      <c r="H134" s="41"/>
+      <c r="I134" s="41"/>
+      <c r="J134" s="41"/>
+      <c r="K134" s="41"/>
     </row>
   </sheetData>
   <pageMargins left="0" right="0" top="0.35433070866141736" bottom="0.35433070866141736" header="0.11811023622047245" footer="0.11811023622047245"/>

--- a/CFT4CUnitSrc/src/report/GAReport.xlsx
+++ b/CFT4CUnitSrc/src/report/GAReport.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="580" uniqueCount="443">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="583" uniqueCount="446">
   <si>
     <t>Nhìn chung, để sinh test case cho một input program theo phương pháp GA thì có các bước sau</t>
   </si>
@@ -1370,6 +1370,15 @@
   </si>
   <si>
     <t>// index của input parametter</t>
+  </si>
+  <si>
+    <t>// so sánh giữa các input parametter hay là với giá trị thực</t>
+  </si>
+  <si>
+    <t>// index của input parametter (nếu bIsValue = FALSE) or giá trị so sánh (nếu bIsValue = TRUE)</t>
+  </si>
+  <si>
+    <t>// giá trị cần điều chỉnh khi so sánh giữa 2 parametter</t>
   </si>
 </sst>
 </file>
@@ -7909,10 +7918,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K134"/>
+  <dimension ref="A1:K133"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M11" sqref="M11"/>
+    <sheetView tabSelected="1" topLeftCell="A52" workbookViewId="0">
+      <selection activeCell="I66" sqref="I66"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7988,16 +7997,25 @@
       <c r="C16" t="s">
         <v>418</v>
       </c>
+      <c r="G16" t="s">
+        <v>443</v>
+      </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C17" t="s">
         <v>412</v>
       </c>
+      <c r="G17" t="s">
+        <v>444</v>
+      </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C18" t="s">
         <v>419</v>
       </c>
+      <c r="G18" t="s">
+        <v>445</v>
+      </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B19" t="s">
@@ -8052,9 +8070,23 @@
         <v>311</v>
       </c>
     </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A31" s="41" t="s">
+        <v>390</v>
+      </c>
+      <c r="B31" s="41"/>
+      <c r="C31" s="41"/>
+      <c r="D31" s="41"/>
+      <c r="E31" s="41"/>
+      <c r="F31" s="41"/>
+      <c r="G31" s="41"/>
+      <c r="H31" t="s">
+        <v>422</v>
+      </c>
+    </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A32" s="41" t="s">
-        <v>390</v>
+        <v>378</v>
       </c>
       <c r="B32" s="41"/>
       <c r="C32" s="41"/>
@@ -8063,77 +8095,77 @@
       <c r="F32" s="41"/>
       <c r="G32" s="41"/>
       <c r="H32" t="s">
-        <v>422</v>
+        <v>408</v>
       </c>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A33" s="41" t="s">
-        <v>378</v>
-      </c>
-      <c r="B33" s="41"/>
-      <c r="C33" s="41"/>
+      <c r="A33" s="41"/>
+      <c r="B33" s="5" t="s">
+        <v>421</v>
+      </c>
+      <c r="C33" s="5"/>
       <c r="D33" s="41"/>
       <c r="E33" s="41"/>
       <c r="F33" s="41"/>
       <c r="G33" s="41"/>
       <c r="H33" t="s">
-        <v>408</v>
+        <v>423</v>
       </c>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A34" s="41"/>
-      <c r="B34" s="5" t="s">
-        <v>421</v>
-      </c>
-      <c r="C34" s="5"/>
+      <c r="B34" s="41" t="s">
+        <v>378</v>
+      </c>
+      <c r="C34" s="41"/>
       <c r="D34" s="41"/>
       <c r="E34" s="41"/>
       <c r="F34" s="41"/>
       <c r="G34" s="41"/>
       <c r="H34" t="s">
-        <v>423</v>
+        <v>408</v>
       </c>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A35" s="41"/>
-      <c r="B35" s="41" t="s">
-        <v>378</v>
-      </c>
-      <c r="C35" s="41"/>
+      <c r="B35" s="41"/>
+      <c r="C35" s="41" t="s">
+        <v>391</v>
+      </c>
       <c r="D35" s="41"/>
       <c r="E35" s="41"/>
       <c r="F35" s="41"/>
       <c r="G35" s="41"/>
       <c r="H35" t="s">
-        <v>408</v>
+        <v>424</v>
       </c>
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A36" s="41"/>
       <c r="B36" s="41"/>
       <c r="C36" s="41" t="s">
-        <v>391</v>
+        <v>378</v>
       </c>
       <c r="D36" s="41"/>
       <c r="E36" s="41"/>
       <c r="F36" s="41"/>
       <c r="G36" s="41"/>
       <c r="H36" t="s">
-        <v>424</v>
+        <v>408</v>
       </c>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A37" s="41"/>
       <c r="B37" s="41"/>
-      <c r="C37" s="41" t="s">
-        <v>378</v>
-      </c>
-      <c r="D37" s="41"/>
+      <c r="C37" s="41"/>
+      <c r="D37" s="41" t="s">
+        <v>326</v>
+      </c>
       <c r="E37" s="41"/>
       <c r="F37" s="41"/>
       <c r="G37" s="41"/>
       <c r="H37" t="s">
-        <v>408</v>
+        <v>428</v>
       </c>
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.25">
@@ -8141,37 +8173,34 @@
       <c r="B38" s="41"/>
       <c r="C38" s="41"/>
       <c r="D38" s="41" t="s">
-        <v>326</v>
+        <v>378</v>
       </c>
       <c r="E38" s="41"/>
       <c r="F38" s="41"/>
       <c r="G38" s="41"/>
       <c r="H38" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A39" s="41"/>
       <c r="B39" s="41"/>
       <c r="C39" s="41"/>
-      <c r="D39" s="41" t="s">
-        <v>378</v>
-      </c>
-      <c r="E39" s="41"/>
+      <c r="D39" s="41"/>
+      <c r="E39" s="41" t="s">
+        <v>392</v>
+      </c>
       <c r="F39" s="41"/>
       <c r="G39" s="41"/>
-      <c r="H39" t="s">
-        <v>429</v>
-      </c>
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A40" s="41"/>
       <c r="B40" s="41"/>
       <c r="C40" s="41"/>
-      <c r="D40" s="41"/>
-      <c r="E40" s="41" t="s">
-        <v>392</v>
-      </c>
+      <c r="D40" s="41" t="s">
+        <v>311</v>
+      </c>
+      <c r="E40" s="41"/>
       <c r="F40" s="41"/>
       <c r="G40" s="41"/>
     </row>
@@ -8180,7 +8209,7 @@
       <c r="B41" s="41"/>
       <c r="C41" s="41"/>
       <c r="D41" s="41" t="s">
-        <v>311</v>
+        <v>381</v>
       </c>
       <c r="E41" s="41"/>
       <c r="F41" s="41"/>
@@ -8191,7 +8220,7 @@
       <c r="B42" s="41"/>
       <c r="C42" s="41"/>
       <c r="D42" s="41" t="s">
-        <v>381</v>
+        <v>378</v>
       </c>
       <c r="E42" s="41"/>
       <c r="F42" s="41"/>
@@ -8201,10 +8230,10 @@
       <c r="A43" s="41"/>
       <c r="B43" s="41"/>
       <c r="C43" s="41"/>
-      <c r="D43" s="41" t="s">
-        <v>378</v>
-      </c>
-      <c r="E43" s="41"/>
+      <c r="D43" s="41"/>
+      <c r="E43" s="41" t="s">
+        <v>373</v>
+      </c>
       <c r="F43" s="41"/>
       <c r="G43" s="41"/>
     </row>
@@ -8212,20 +8241,20 @@
       <c r="A44" s="41"/>
       <c r="B44" s="41"/>
       <c r="C44" s="41"/>
-      <c r="D44" s="41"/>
-      <c r="E44" s="41" t="s">
-        <v>373</v>
-      </c>
+      <c r="D44" s="41" t="s">
+        <v>311</v>
+      </c>
+      <c r="E44" s="41"/>
       <c r="F44" s="41"/>
       <c r="G44" s="41"/>
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A45" s="41"/>
       <c r="B45" s="41"/>
-      <c r="C45" s="41"/>
-      <c r="D45" s="41" t="s">
+      <c r="C45" s="41" t="s">
         <v>311</v>
       </c>
+      <c r="D45" s="41"/>
       <c r="E45" s="41"/>
       <c r="F45" s="41"/>
       <c r="G45" s="41"/>
@@ -8234,7 +8263,7 @@
       <c r="A46" s="41"/>
       <c r="B46" s="41"/>
       <c r="C46" s="41" t="s">
-        <v>311</v>
+        <v>381</v>
       </c>
       <c r="D46" s="41"/>
       <c r="E46" s="41"/>
@@ -8245,7 +8274,7 @@
       <c r="A47" s="41"/>
       <c r="B47" s="41"/>
       <c r="C47" s="41" t="s">
-        <v>381</v>
+        <v>378</v>
       </c>
       <c r="D47" s="41"/>
       <c r="E47" s="41"/>
@@ -8255,10 +8284,10 @@
     <row r="48" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A48" s="41"/>
       <c r="B48" s="41"/>
-      <c r="C48" s="41" t="s">
-        <v>378</v>
-      </c>
-      <c r="D48" s="41"/>
+      <c r="C48" s="41"/>
+      <c r="D48" s="41" t="s">
+        <v>374</v>
+      </c>
       <c r="E48" s="41"/>
       <c r="F48" s="41"/>
       <c r="G48" s="41"/>
@@ -8266,20 +8295,20 @@
     <row r="49" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A49" s="41"/>
       <c r="B49" s="41"/>
-      <c r="C49" s="41"/>
-      <c r="D49" s="41" t="s">
-        <v>374</v>
-      </c>
+      <c r="C49" s="41" t="s">
+        <v>311</v>
+      </c>
+      <c r="D49" s="41"/>
       <c r="E49" s="41"/>
       <c r="F49" s="41"/>
       <c r="G49" s="41"/>
     </row>
     <row r="50" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A50" s="41"/>
-      <c r="B50" s="41"/>
-      <c r="C50" s="41" t="s">
+      <c r="B50" s="41" t="s">
         <v>311</v>
       </c>
+      <c r="C50" s="41"/>
       <c r="D50" s="41"/>
       <c r="E50" s="41"/>
       <c r="F50" s="41"/>
@@ -8288,7 +8317,7 @@
     <row r="51" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A51" s="41"/>
       <c r="B51" s="41" t="s">
-        <v>311</v>
+        <v>381</v>
       </c>
       <c r="C51" s="41"/>
       <c r="D51" s="41"/>
@@ -8299,7 +8328,7 @@
     <row r="52" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A52" s="41"/>
       <c r="B52" s="41" t="s">
-        <v>381</v>
+        <v>378</v>
       </c>
       <c r="C52" s="41"/>
       <c r="D52" s="41"/>
@@ -8309,10 +8338,10 @@
     </row>
     <row r="53" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A53" s="41"/>
-      <c r="B53" s="41" t="s">
-        <v>378</v>
-      </c>
-      <c r="C53" s="41"/>
+      <c r="B53" s="41"/>
+      <c r="C53" s="41" t="s">
+        <v>385</v>
+      </c>
       <c r="D53" s="41"/>
       <c r="E53" s="41"/>
       <c r="F53" s="41"/>
@@ -8320,20 +8349,20 @@
     </row>
     <row r="54" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A54" s="41"/>
-      <c r="B54" s="41"/>
-      <c r="C54" s="41" t="s">
-        <v>385</v>
-      </c>
+      <c r="B54" s="41" t="s">
+        <v>311</v>
+      </c>
+      <c r="C54" s="41"/>
       <c r="D54" s="41"/>
       <c r="E54" s="41"/>
       <c r="F54" s="41"/>
       <c r="G54" s="41"/>
     </row>
     <row r="55" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A55" s="41"/>
-      <c r="B55" s="41" t="s">
+      <c r="A55" s="41" t="s">
         <v>311</v>
       </c>
+      <c r="B55" s="41"/>
       <c r="C55" s="41"/>
       <c r="D55" s="41"/>
       <c r="E55" s="41"/>
@@ -8341,9 +8370,7 @@
       <c r="G55" s="41"/>
     </row>
     <row r="56" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A56" s="41" t="s">
-        <v>311</v>
-      </c>
+      <c r="A56" s="41"/>
       <c r="B56" s="41"/>
       <c r="C56" s="41"/>
       <c r="D56" s="41"/>
@@ -8352,17 +8379,22 @@
       <c r="G56" s="41"/>
     </row>
     <row r="57" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A57" s="41"/>
+      <c r="A57" s="41" t="s">
+        <v>393</v>
+      </c>
       <c r="B57" s="41"/>
       <c r="C57" s="41"/>
       <c r="D57" s="41"/>
       <c r="E57" s="41"/>
       <c r="F57" s="41"/>
       <c r="G57" s="41"/>
+      <c r="H57" t="s">
+        <v>389</v>
+      </c>
     </row>
     <row r="58" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A58" s="41" t="s">
-        <v>393</v>
+        <v>378</v>
       </c>
       <c r="B58" s="41"/>
       <c r="C58" s="41"/>
@@ -8371,56 +8403,56 @@
       <c r="F58" s="41"/>
       <c r="G58" s="41"/>
       <c r="H58" t="s">
-        <v>389</v>
+        <v>408</v>
       </c>
     </row>
     <row r="59" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A59" s="41" t="s">
-        <v>378</v>
-      </c>
-      <c r="B59" s="41"/>
+      <c r="A59" s="41"/>
+      <c r="B59" s="41" t="s">
+        <v>394</v>
+      </c>
       <c r="C59" s="41"/>
       <c r="D59" s="41"/>
       <c r="E59" s="41"/>
       <c r="F59" s="41"/>
       <c r="G59" s="41"/>
       <c r="H59" t="s">
-        <v>408</v>
+        <v>432</v>
       </c>
     </row>
     <row r="60" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A60" s="41"/>
-      <c r="B60" s="41" t="s">
-        <v>394</v>
-      </c>
+      <c r="B60" s="41"/>
       <c r="C60" s="41"/>
       <c r="D60" s="41"/>
       <c r="E60" s="41"/>
       <c r="F60" s="41"/>
       <c r="G60" s="41"/>
       <c r="H60" t="s">
-        <v>432</v>
+        <v>433</v>
+      </c>
+      <c r="J60" t="s">
+        <v>434</v>
       </c>
     </row>
     <row r="61" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A61" s="41"/>
-      <c r="B61" s="41"/>
+      <c r="B61" s="5" t="s">
+        <v>395</v>
+      </c>
       <c r="C61" s="41"/>
       <c r="D61" s="41"/>
       <c r="E61" s="41"/>
       <c r="F61" s="41"/>
       <c r="G61" s="41"/>
       <c r="H61" t="s">
-        <v>433</v>
-      </c>
-      <c r="J61" t="s">
-        <v>434</v>
+        <v>408</v>
       </c>
     </row>
     <row r="62" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A62" s="41"/>
-      <c r="B62" s="5" t="s">
-        <v>395</v>
+      <c r="B62" s="41" t="s">
+        <v>378</v>
       </c>
       <c r="C62" s="41"/>
       <c r="D62" s="41"/>
@@ -8428,152 +8460,149 @@
       <c r="F62" s="41"/>
       <c r="G62" s="41"/>
       <c r="H62" t="s">
-        <v>408</v>
+        <v>428</v>
       </c>
     </row>
     <row r="63" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A63" s="41"/>
-      <c r="B63" s="41" t="s">
-        <v>378</v>
-      </c>
-      <c r="C63" s="41"/>
+      <c r="B63" s="41"/>
+      <c r="C63" s="5" t="s">
+        <v>396</v>
+      </c>
       <c r="D63" s="41"/>
       <c r="E63" s="41"/>
       <c r="F63" s="41"/>
       <c r="G63" s="41"/>
       <c r="H63" t="s">
-        <v>428</v>
+        <v>435</v>
       </c>
     </row>
     <row r="64" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A64" s="41"/>
       <c r="B64" s="41"/>
-      <c r="C64" s="5" t="s">
-        <v>396</v>
+      <c r="C64" s="41" t="s">
+        <v>378</v>
       </c>
       <c r="D64" s="41"/>
       <c r="E64" s="41"/>
       <c r="F64" s="41"/>
       <c r="G64" s="41"/>
       <c r="H64" t="s">
-        <v>435</v>
-      </c>
-    </row>
-    <row r="65" spans="1:8" x14ac:dyDescent="0.25">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A65" s="41"/>
       <c r="B65" s="41"/>
-      <c r="C65" s="41" t="s">
-        <v>378</v>
-      </c>
-      <c r="D65" s="41"/>
+      <c r="C65" s="41"/>
+      <c r="D65" s="41" t="s">
+        <v>387</v>
+      </c>
       <c r="E65" s="41"/>
       <c r="F65" s="41"/>
       <c r="G65" s="41"/>
-      <c r="H65" t="s">
-        <v>436</v>
-      </c>
-    </row>
-    <row r="66" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="66" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A66" s="41"/>
       <c r="B66" s="41"/>
-      <c r="C66" s="41"/>
-      <c r="D66" s="41" t="s">
-        <v>387</v>
-      </c>
+      <c r="C66" s="41" t="s">
+        <v>311</v>
+      </c>
+      <c r="D66" s="41"/>
       <c r="E66" s="41"/>
       <c r="F66" s="41"/>
       <c r="G66" s="41"/>
     </row>
-    <row r="67" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A67" s="41"/>
       <c r="B67" s="41"/>
       <c r="C67" s="41" t="s">
-        <v>311</v>
+        <v>381</v>
       </c>
       <c r="D67" s="41"/>
       <c r="E67" s="41"/>
       <c r="F67" s="41"/>
       <c r="G67" s="41"/>
     </row>
-    <row r="68" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A68" s="41"/>
       <c r="B68" s="41"/>
       <c r="C68" s="41" t="s">
-        <v>381</v>
+        <v>378</v>
       </c>
       <c r="D68" s="41"/>
       <c r="E68" s="41"/>
       <c r="F68" s="41"/>
       <c r="G68" s="41"/>
     </row>
-    <row r="69" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A69" s="41"/>
       <c r="B69" s="41"/>
-      <c r="C69" s="41" t="s">
-        <v>378</v>
-      </c>
-      <c r="D69" s="41"/>
+      <c r="C69" s="41"/>
+      <c r="D69" s="41" t="s">
+        <v>373</v>
+      </c>
       <c r="E69" s="41"/>
       <c r="F69" s="41"/>
       <c r="G69" s="41"/>
     </row>
-    <row r="70" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A70" s="41"/>
       <c r="B70" s="41"/>
-      <c r="C70" s="41"/>
-      <c r="D70" s="41" t="s">
-        <v>373</v>
-      </c>
+      <c r="C70" s="41" t="s">
+        <v>311</v>
+      </c>
+      <c r="D70" s="41"/>
       <c r="E70" s="41"/>
       <c r="F70" s="41"/>
       <c r="G70" s="41"/>
     </row>
-    <row r="71" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A71" s="41"/>
       <c r="B71" s="41"/>
       <c r="C71" s="41" t="s">
-        <v>311</v>
+        <v>315</v>
       </c>
       <c r="D71" s="41"/>
       <c r="E71" s="41"/>
       <c r="F71" s="41"/>
       <c r="G71" s="41"/>
     </row>
-    <row r="72" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A72" s="41"/>
-      <c r="B72" s="41"/>
-      <c r="C72" s="41" t="s">
-        <v>315</v>
-      </c>
+      <c r="B72" s="41" t="s">
+        <v>397</v>
+      </c>
+      <c r="C72" s="41"/>
       <c r="D72" s="41"/>
       <c r="E72" s="41"/>
       <c r="F72" s="41"/>
       <c r="G72" s="41"/>
     </row>
-    <row r="73" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A73" s="41"/>
-      <c r="B73" s="41" t="s">
-        <v>397</v>
-      </c>
+      <c r="B73" s="41"/>
       <c r="C73" s="41"/>
       <c r="D73" s="41"/>
       <c r="E73" s="41"/>
       <c r="F73" s="41"/>
       <c r="G73" s="41"/>
     </row>
-    <row r="74" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A74" s="41"/>
-      <c r="B74" s="41"/>
+      <c r="B74" s="41" t="s">
+        <v>398</v>
+      </c>
       <c r="C74" s="41"/>
       <c r="D74" s="41"/>
       <c r="E74" s="41"/>
       <c r="F74" s="41"/>
       <c r="G74" s="41"/>
     </row>
-    <row r="75" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A75" s="41"/>
       <c r="B75" s="41" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="C75" s="41"/>
       <c r="D75" s="41"/>
@@ -8581,32 +8610,32 @@
       <c r="F75" s="41"/>
       <c r="G75" s="41"/>
     </row>
-    <row r="76" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A76" s="41"/>
-      <c r="B76" s="41" t="s">
-        <v>399</v>
-      </c>
-      <c r="C76" s="41"/>
+      <c r="B76" s="41"/>
+      <c r="C76" s="41" t="s">
+        <v>374</v>
+      </c>
       <c r="D76" s="41"/>
       <c r="E76" s="41"/>
       <c r="F76" s="41"/>
       <c r="G76" s="41"/>
     </row>
-    <row r="77" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A77" s="41"/>
-      <c r="B77" s="41"/>
-      <c r="C77" s="41" t="s">
-        <v>374</v>
-      </c>
+      <c r="B77" s="41" t="s">
+        <v>397</v>
+      </c>
+      <c r="C77" s="41"/>
       <c r="D77" s="41"/>
       <c r="E77" s="41"/>
       <c r="F77" s="41"/>
       <c r="G77" s="41"/>
     </row>
-    <row r="78" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A78" s="41"/>
       <c r="B78" s="41" t="s">
-        <v>397</v>
+        <v>400</v>
       </c>
       <c r="C78" s="41"/>
       <c r="D78" s="41"/>
@@ -8614,10 +8643,10 @@
       <c r="F78" s="41"/>
       <c r="G78" s="41"/>
     </row>
-    <row r="79" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A79" s="41"/>
       <c r="B79" s="41" t="s">
-        <v>400</v>
+        <v>378</v>
       </c>
       <c r="C79" s="41"/>
       <c r="D79" s="41"/>
@@ -8625,35 +8654,35 @@
       <c r="F79" s="41"/>
       <c r="G79" s="41"/>
     </row>
-    <row r="80" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A80" s="41"/>
-      <c r="B80" s="41" t="s">
-        <v>378</v>
-      </c>
-      <c r="C80" s="41"/>
-      <c r="D80" s="41"/>
-      <c r="E80" s="41"/>
+      <c r="B80" s="41"/>
+      <c r="C80" s="5" t="s">
+        <v>401</v>
+      </c>
+      <c r="D80" s="5"/>
+      <c r="E80" s="5"/>
       <c r="F80" s="41"/>
       <c r="G80" s="41"/>
     </row>
     <row r="81" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A81" s="41"/>
       <c r="B81" s="41"/>
-      <c r="C81" s="5" t="s">
-        <v>401</v>
-      </c>
-      <c r="D81" s="5"/>
-      <c r="E81" s="5"/>
+      <c r="C81" s="41" t="s">
+        <v>378</v>
+      </c>
+      <c r="D81" s="41"/>
+      <c r="E81" s="41"/>
       <c r="F81" s="41"/>
       <c r="G81" s="41"/>
     </row>
     <row r="82" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A82" s="41"/>
       <c r="B82" s="41"/>
-      <c r="C82" s="41" t="s">
-        <v>378</v>
-      </c>
-      <c r="D82" s="41"/>
+      <c r="C82" s="41"/>
+      <c r="D82" s="41" t="s">
+        <v>402</v>
+      </c>
       <c r="E82" s="41"/>
       <c r="F82" s="41"/>
       <c r="G82" s="41"/>
@@ -8663,7 +8692,7 @@
       <c r="B83" s="41"/>
       <c r="C83" s="41"/>
       <c r="D83" s="41" t="s">
-        <v>402</v>
+        <v>385</v>
       </c>
       <c r="E83" s="41"/>
       <c r="F83" s="41"/>
@@ -8672,10 +8701,10 @@
     <row r="84" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A84" s="41"/>
       <c r="B84" s="41"/>
-      <c r="C84" s="41"/>
-      <c r="D84" s="41" t="s">
-        <v>385</v>
-      </c>
+      <c r="C84" s="41" t="s">
+        <v>311</v>
+      </c>
+      <c r="D84" s="41"/>
       <c r="E84" s="41"/>
       <c r="F84" s="41"/>
       <c r="G84" s="41"/>
@@ -8684,7 +8713,7 @@
       <c r="A85" s="41"/>
       <c r="B85" s="41"/>
       <c r="C85" s="41" t="s">
-        <v>311</v>
+        <v>381</v>
       </c>
       <c r="D85" s="41"/>
       <c r="E85" s="41"/>
@@ -8695,7 +8724,7 @@
       <c r="A86" s="41"/>
       <c r="B86" s="41"/>
       <c r="C86" s="41" t="s">
-        <v>381</v>
+        <v>378</v>
       </c>
       <c r="D86" s="41"/>
       <c r="E86" s="41"/>
@@ -8705,10 +8734,10 @@
     <row r="87" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A87" s="41"/>
       <c r="B87" s="41"/>
-      <c r="C87" s="41" t="s">
-        <v>378</v>
-      </c>
-      <c r="D87" s="41"/>
+      <c r="C87" s="41"/>
+      <c r="D87" s="41" t="s">
+        <v>403</v>
+      </c>
       <c r="E87" s="41"/>
       <c r="F87" s="41"/>
       <c r="G87" s="41"/>
@@ -8718,7 +8747,7 @@
       <c r="B88" s="41"/>
       <c r="C88" s="41"/>
       <c r="D88" s="41" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="E88" s="41"/>
       <c r="F88" s="41"/>
@@ -8729,7 +8758,7 @@
       <c r="B89" s="41"/>
       <c r="C89" s="41"/>
       <c r="D89" s="41" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="E89" s="41"/>
       <c r="F89" s="41"/>
@@ -8738,30 +8767,30 @@
     <row r="90" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A90" s="41"/>
       <c r="B90" s="41"/>
-      <c r="C90" s="41"/>
-      <c r="D90" s="41" t="s">
-        <v>405</v>
-      </c>
+      <c r="C90" s="41" t="s">
+        <v>311</v>
+      </c>
+      <c r="D90" s="41"/>
       <c r="E90" s="41"/>
       <c r="F90" s="41"/>
       <c r="G90" s="41"/>
     </row>
     <row r="91" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A91" s="41"/>
-      <c r="B91" s="41"/>
-      <c r="C91" s="41" t="s">
+      <c r="B91" s="41" t="s">
         <v>311</v>
       </c>
+      <c r="C91" s="41"/>
       <c r="D91" s="41"/>
       <c r="E91" s="41"/>
       <c r="F91" s="41"/>
       <c r="G91" s="41"/>
     </row>
     <row r="92" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A92" s="41"/>
-      <c r="B92" s="41" t="s">
+      <c r="A92" s="41" t="s">
         <v>311</v>
       </c>
+      <c r="B92" s="41"/>
       <c r="C92" s="41"/>
       <c r="D92" s="41"/>
       <c r="E92" s="41"/>
@@ -8769,9 +8798,7 @@
       <c r="G92" s="41"/>
     </row>
     <row r="93" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A93" s="41" t="s">
-        <v>311</v>
-      </c>
+      <c r="A93" s="41"/>
       <c r="B93" s="41"/>
       <c r="C93" s="41"/>
       <c r="D93" s="41"/>
@@ -8780,17 +8807,22 @@
       <c r="G93" s="41"/>
     </row>
     <row r="94" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A94" s="41"/>
+      <c r="A94" s="41" t="s">
+        <v>406</v>
+      </c>
       <c r="B94" s="41"/>
       <c r="C94" s="41"/>
       <c r="D94" s="41"/>
       <c r="E94" s="41"/>
       <c r="F94" s="41"/>
       <c r="G94" s="41"/>
+      <c r="H94" t="s">
+        <v>388</v>
+      </c>
     </row>
     <row r="95" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A95" s="41" t="s">
-        <v>406</v>
+        <v>378</v>
       </c>
       <c r="B95" s="41"/>
       <c r="C95" s="41"/>
@@ -8799,53 +8831,53 @@
       <c r="F95" s="41"/>
       <c r="G95" s="41"/>
       <c r="H95" t="s">
-        <v>388</v>
+        <v>408</v>
       </c>
     </row>
     <row r="96" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A96" s="41" t="s">
-        <v>378</v>
-      </c>
-      <c r="B96" s="41"/>
+      <c r="A96" s="41"/>
+      <c r="B96" s="41" t="s">
+        <v>376</v>
+      </c>
       <c r="C96" s="41"/>
       <c r="D96" s="41"/>
       <c r="E96" s="41"/>
       <c r="F96" s="41"/>
       <c r="G96" s="41"/>
       <c r="H96" t="s">
-        <v>408</v>
+        <v>438</v>
       </c>
     </row>
     <row r="97" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A97" s="41"/>
-      <c r="B97" s="41" t="s">
-        <v>376</v>
-      </c>
+      <c r="B97" s="41"/>
       <c r="C97" s="41"/>
       <c r="D97" s="41"/>
       <c r="E97" s="41"/>
       <c r="F97" s="41"/>
       <c r="G97" s="41"/>
       <c r="H97" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
     </row>
     <row r="98" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A98" s="41"/>
-      <c r="B98" s="41"/>
+      <c r="B98" s="41" t="s">
+        <v>377</v>
+      </c>
       <c r="C98" s="41"/>
       <c r="D98" s="41"/>
       <c r="E98" s="41"/>
       <c r="F98" s="41"/>
       <c r="G98" s="41"/>
       <c r="H98" t="s">
-        <v>439</v>
+        <v>408</v>
       </c>
     </row>
     <row r="99" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A99" s="41"/>
       <c r="B99" s="41" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="C99" s="41"/>
       <c r="D99" s="41"/>
@@ -8853,58 +8885,55 @@
       <c r="F99" s="41"/>
       <c r="G99" s="41"/>
       <c r="H99" t="s">
-        <v>408</v>
+        <v>428</v>
       </c>
     </row>
     <row r="100" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A100" s="41"/>
-      <c r="B100" s="41" t="s">
-        <v>378</v>
-      </c>
-      <c r="C100" s="41"/>
-      <c r="D100" s="41"/>
+      <c r="B100" s="41"/>
+      <c r="C100" s="5" t="s">
+        <v>379</v>
+      </c>
+      <c r="D100" s="5"/>
       <c r="E100" s="41"/>
       <c r="F100" s="41"/>
       <c r="G100" s="41"/>
       <c r="H100" t="s">
-        <v>428</v>
+        <v>440</v>
       </c>
     </row>
     <row r="101" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A101" s="41"/>
       <c r="B101" s="41"/>
-      <c r="C101" s="5" t="s">
-        <v>379</v>
-      </c>
-      <c r="D101" s="5"/>
+      <c r="C101" s="41" t="s">
+        <v>378</v>
+      </c>
+      <c r="D101" s="41"/>
       <c r="E101" s="41"/>
       <c r="F101" s="41"/>
       <c r="G101" s="41"/>
       <c r="H101" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
     </row>
     <row r="102" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A102" s="41"/>
       <c r="B102" s="41"/>
-      <c r="C102" s="41" t="s">
-        <v>378</v>
-      </c>
-      <c r="D102" s="41"/>
+      <c r="C102" s="41"/>
+      <c r="D102" s="41" t="s">
+        <v>380</v>
+      </c>
       <c r="E102" s="41"/>
       <c r="F102" s="41"/>
       <c r="G102" s="41"/>
-      <c r="H102" t="s">
-        <v>441</v>
-      </c>
     </row>
     <row r="103" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A103" s="41"/>
       <c r="B103" s="41"/>
-      <c r="C103" s="41"/>
-      <c r="D103" s="41" t="s">
-        <v>380</v>
-      </c>
+      <c r="C103" s="41" t="s">
+        <v>311</v>
+      </c>
+      <c r="D103" s="41"/>
       <c r="E103" s="41"/>
       <c r="F103" s="41"/>
       <c r="G103" s="41"/>
@@ -8913,7 +8942,7 @@
       <c r="A104" s="41"/>
       <c r="B104" s="41"/>
       <c r="C104" s="41" t="s">
-        <v>311</v>
+        <v>381</v>
       </c>
       <c r="D104" s="41"/>
       <c r="E104" s="41"/>
@@ -8924,7 +8953,7 @@
       <c r="A105" s="41"/>
       <c r="B105" s="41"/>
       <c r="C105" s="41" t="s">
-        <v>381</v>
+        <v>378</v>
       </c>
       <c r="D105" s="41"/>
       <c r="E105" s="41"/>
@@ -8934,33 +8963,33 @@
     <row r="106" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A106" s="41"/>
       <c r="B106" s="41"/>
-      <c r="C106" s="41" t="s">
-        <v>378</v>
-      </c>
-      <c r="D106" s="41"/>
-      <c r="E106" s="41"/>
-      <c r="F106" s="41"/>
+      <c r="C106" s="41"/>
+      <c r="D106" s="5" t="s">
+        <v>382</v>
+      </c>
+      <c r="E106" s="5"/>
+      <c r="F106" s="5"/>
       <c r="G106" s="41"/>
     </row>
     <row r="107" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A107" s="41"/>
       <c r="B107" s="41"/>
       <c r="C107" s="41"/>
-      <c r="D107" s="5" t="s">
-        <v>382</v>
-      </c>
-      <c r="E107" s="5"/>
-      <c r="F107" s="5"/>
+      <c r="D107" s="41" t="s">
+        <v>378</v>
+      </c>
+      <c r="E107" s="41"/>
+      <c r="F107" s="41"/>
       <c r="G107" s="41"/>
     </row>
     <row r="108" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A108" s="41"/>
       <c r="B108" s="41"/>
       <c r="C108" s="41"/>
-      <c r="D108" s="41" t="s">
-        <v>378</v>
-      </c>
-      <c r="E108" s="41"/>
+      <c r="D108" s="41"/>
+      <c r="E108" s="41" t="s">
+        <v>383</v>
+      </c>
       <c r="F108" s="41"/>
       <c r="G108" s="41"/>
     </row>
@@ -8968,10 +8997,10 @@
       <c r="A109" s="41"/>
       <c r="B109" s="41"/>
       <c r="C109" s="41"/>
-      <c r="D109" s="41"/>
-      <c r="E109" s="41" t="s">
-        <v>383</v>
-      </c>
+      <c r="D109" s="41" t="s">
+        <v>311</v>
+      </c>
+      <c r="E109" s="41"/>
       <c r="F109" s="41"/>
       <c r="G109" s="41"/>
     </row>
@@ -8980,7 +9009,7 @@
       <c r="B110" s="41"/>
       <c r="C110" s="41"/>
       <c r="D110" s="41" t="s">
-        <v>311</v>
+        <v>381</v>
       </c>
       <c r="E110" s="41"/>
       <c r="F110" s="41"/>
@@ -8991,7 +9020,7 @@
       <c r="B111" s="41"/>
       <c r="C111" s="41"/>
       <c r="D111" s="41" t="s">
-        <v>381</v>
+        <v>378</v>
       </c>
       <c r="E111" s="41"/>
       <c r="F111" s="41"/>
@@ -9001,10 +9030,10 @@
       <c r="A112" s="41"/>
       <c r="B112" s="41"/>
       <c r="C112" s="41"/>
-      <c r="D112" s="41" t="s">
-        <v>378</v>
-      </c>
-      <c r="E112" s="41"/>
+      <c r="D112" s="41"/>
+      <c r="E112" s="41" t="s">
+        <v>384</v>
+      </c>
       <c r="F112" s="41"/>
       <c r="G112" s="41"/>
     </row>
@@ -9012,30 +9041,30 @@
       <c r="A113" s="41"/>
       <c r="B113" s="41"/>
       <c r="C113" s="41"/>
-      <c r="D113" s="41"/>
-      <c r="E113" s="41" t="s">
-        <v>384</v>
-      </c>
+      <c r="D113" s="41" t="s">
+        <v>311</v>
+      </c>
+      <c r="E113" s="41"/>
       <c r="F113" s="41"/>
       <c r="G113" s="41"/>
     </row>
     <row r="114" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A114" s="41"/>
       <c r="B114" s="41"/>
-      <c r="C114" s="41"/>
-      <c r="D114" s="41" t="s">
+      <c r="C114" s="41" t="s">
         <v>311</v>
       </c>
+      <c r="D114" s="41"/>
       <c r="E114" s="41"/>
       <c r="F114" s="41"/>
       <c r="G114" s="41"/>
     </row>
     <row r="115" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A115" s="41"/>
-      <c r="B115" s="41"/>
-      <c r="C115" s="41" t="s">
+      <c r="B115" s="41" t="s">
         <v>311</v>
       </c>
+      <c r="C115" s="41"/>
       <c r="D115" s="41"/>
       <c r="E115" s="41"/>
       <c r="F115" s="41"/>
@@ -9044,7 +9073,7 @@
     <row r="116" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A116" s="41"/>
       <c r="B116" s="41" t="s">
-        <v>311</v>
+        <v>381</v>
       </c>
       <c r="C116" s="41"/>
       <c r="D116" s="41"/>
@@ -9055,7 +9084,7 @@
     <row r="117" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A117" s="41"/>
       <c r="B117" s="41" t="s">
-        <v>381</v>
+        <v>378</v>
       </c>
       <c r="C117" s="41"/>
       <c r="D117" s="41"/>
@@ -9065,10 +9094,10 @@
     </row>
     <row r="118" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A118" s="41"/>
-      <c r="B118" s="41" t="s">
-        <v>378</v>
-      </c>
-      <c r="C118" s="41"/>
+      <c r="B118" s="41"/>
+      <c r="C118" s="41" t="s">
+        <v>386</v>
+      </c>
       <c r="D118" s="41"/>
       <c r="E118" s="41"/>
       <c r="F118" s="41"/>
@@ -9076,10 +9105,10 @@
     </row>
     <row r="119" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A119" s="41"/>
-      <c r="B119" s="41"/>
-      <c r="C119" s="41" t="s">
-        <v>386</v>
-      </c>
+      <c r="B119" s="41" t="s">
+        <v>311</v>
+      </c>
+      <c r="C119" s="41"/>
       <c r="D119" s="41"/>
       <c r="E119" s="41"/>
       <c r="F119" s="41"/>
@@ -9087,9 +9116,7 @@
     </row>
     <row r="120" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A120" s="41"/>
-      <c r="B120" s="41" t="s">
-        <v>311</v>
-      </c>
+      <c r="B120" s="41"/>
       <c r="C120" s="41"/>
       <c r="D120" s="41"/>
       <c r="E120" s="41"/>
@@ -9098,7 +9125,9 @@
     </row>
     <row r="121" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A121" s="41"/>
-      <c r="B121" s="41"/>
+      <c r="B121" s="41" t="s">
+        <v>407</v>
+      </c>
       <c r="C121" s="41"/>
       <c r="D121" s="41"/>
       <c r="E121" s="41"/>
@@ -9106,48 +9135,37 @@
       <c r="G121" s="41"/>
     </row>
     <row r="122" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A122" s="41"/>
-      <c r="B122" s="41" t="s">
-        <v>407</v>
-      </c>
+      <c r="A122" s="41" t="s">
+        <v>311</v>
+      </c>
+      <c r="B122" s="41"/>
       <c r="C122" s="41"/>
       <c r="D122" s="41"/>
       <c r="E122" s="41"/>
       <c r="F122" s="41"/>
       <c r="G122" s="41"/>
     </row>
-    <row r="123" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A123" s="41" t="s">
-        <v>311</v>
-      </c>
-      <c r="B123" s="41"/>
-      <c r="C123" s="41"/>
-      <c r="D123" s="41"/>
-      <c r="E123" s="41"/>
-      <c r="F123" s="41"/>
-      <c r="G123" s="41"/>
-    </row>
-    <row r="126" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A126" s="41"/>
-      <c r="B126" s="41"/>
-      <c r="C126" s="41"/>
-      <c r="D126" s="41"/>
-      <c r="E126" s="41"/>
-      <c r="F126" s="41"/>
-      <c r="G126" s="41"/>
-    </row>
-    <row r="134" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A134" s="41"/>
-      <c r="B134" s="41"/>
-      <c r="C134" s="41"/>
-      <c r="D134" s="41"/>
-      <c r="E134" s="41"/>
-      <c r="F134" s="41"/>
-      <c r="G134" s="41"/>
-      <c r="H134" s="41"/>
-      <c r="I134" s="41"/>
-      <c r="J134" s="41"/>
-      <c r="K134" s="41"/>
+    <row r="125" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A125" s="41"/>
+      <c r="B125" s="41"/>
+      <c r="C125" s="41"/>
+      <c r="D125" s="41"/>
+      <c r="E125" s="41"/>
+      <c r="F125" s="41"/>
+      <c r="G125" s="41"/>
+    </row>
+    <row r="133" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A133" s="41"/>
+      <c r="B133" s="41"/>
+      <c r="C133" s="41"/>
+      <c r="D133" s="41"/>
+      <c r="E133" s="41"/>
+      <c r="F133" s="41"/>
+      <c r="G133" s="41"/>
+      <c r="H133" s="41"/>
+      <c r="I133" s="41"/>
+      <c r="J133" s="41"/>
+      <c r="K133" s="41"/>
     </row>
   </sheetData>
   <pageMargins left="0" right="0" top="0.35433070866141736" bottom="0.35433070866141736" header="0.11811023622047245" footer="0.11811023622047245"/>

--- a/CFT4CUnitSrc/src/report/GAReport.xlsx
+++ b/CFT4CUnitSrc/src/report/GAReport.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="583" uniqueCount="446">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="587" uniqueCount="450">
   <si>
     <t>Nhìn chung, để sinh test case cho một input program theo phương pháp GA thì có các bước sau</t>
   </si>
@@ -1379,6 +1379,18 @@
   </si>
   <si>
     <t>// giá trị cần điều chỉnh khi so sánh giữa 2 parametter</t>
+  </si>
+  <si>
+    <t>Các condition đã được handle</t>
+  </si>
+  <si>
+    <t>①param1 == param2</t>
+  </si>
+  <si>
+    <t>②param1 op param2 == value</t>
+  </si>
+  <si>
+    <t>③param1 == param2 &amp;&amp; param2 == param3</t>
   </si>
 </sst>
 </file>
@@ -6144,7 +6156,7 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:R95"/>
   <sheetViews>
-    <sheetView topLeftCell="A65" workbookViewId="0">
+    <sheetView topLeftCell="A50" workbookViewId="0">
       <selection activeCell="H60" sqref="H60"/>
     </sheetView>
   </sheetViews>
@@ -7918,15 +7930,15 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K133"/>
+  <dimension ref="A1:R133"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A52" workbookViewId="0">
-      <selection activeCell="I66" sqref="I66"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="R9" sqref="R9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A1" s="46" t="s">
         <v>375</v>
       </c>
@@ -7935,57 +7947,69 @@
       <c r="D1" s="46"/>
       <c r="E1" s="46"/>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>413</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>414</v>
       </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="Q5" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>420</v>
       </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="R6" t="s">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>378</v>
       </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="R7" t="s">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
         <v>409</v>
       </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="R8" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
         <v>415</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B10" t="s">
         <v>410</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B11" t="s">
         <v>416</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B13" t="s">
         <v>417</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B14" t="s">
         <v>378</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:18" x14ac:dyDescent="0.25">
       <c r="C15" t="s">
         <v>411</v>
       </c>
@@ -7993,7 +8017,7 @@
         <v>442</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:18" x14ac:dyDescent="0.25">
       <c r="C16" t="s">
         <v>418</v>
       </c>

--- a/CFT4CUnitSrc/src/report/GAReport.xlsx
+++ b/CFT4CUnitSrc/src/report/GAReport.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="587" uniqueCount="450">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="588" uniqueCount="451">
   <si>
     <t>Nhìn chung, để sinh test case cho một input program theo phương pháp GA thì có các bước sau</t>
   </si>
@@ -1381,16 +1381,19 @@
     <t>// giá trị cần điều chỉnh khi so sánh giữa 2 parametter</t>
   </si>
   <si>
-    <t>Các condition đã được handle</t>
-  </si>
-  <si>
-    <t>①param1 == param2</t>
-  </si>
-  <si>
     <t>②param1 op param2 == value</t>
   </si>
   <si>
-    <t>③param1 == param2 &amp;&amp; param2 == param3</t>
+    <t>①param i == param j</t>
+  </si>
+  <si>
+    <t>Giả sử có danh sách các input parameter mà của program under test là param[i], i=0～n.</t>
+  </si>
+  <si>
+    <t>③param1 == param2 op param2 == param3</t>
+  </si>
+  <si>
+    <t>Các condition đã được hanlde ở đây là</t>
   </si>
 </sst>
 </file>
@@ -7933,7 +7936,7 @@
   <dimension ref="A1:R133"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="R9" sqref="R9"/>
+      <selection activeCell="R8" sqref="R8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7957,15 +7960,15 @@
         <v>414</v>
       </c>
       <c r="Q5" t="s">
-        <v>446</v>
+        <v>448</v>
       </c>
     </row>
     <row r="6" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>420</v>
       </c>
-      <c r="R6" t="s">
-        <v>447</v>
+      <c r="Q6" t="s">
+        <v>450</v>
       </c>
     </row>
     <row r="7" spans="1:18" x14ac:dyDescent="0.25">
@@ -7973,7 +7976,7 @@
         <v>378</v>
       </c>
       <c r="R7" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
     </row>
     <row r="8" spans="1:18" x14ac:dyDescent="0.25">
@@ -7981,12 +7984,15 @@
         <v>409</v>
       </c>
       <c r="R8" t="s">
-        <v>449</v>
+        <v>446</v>
       </c>
     </row>
     <row r="9" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
         <v>415</v>
+      </c>
+      <c r="R9" t="s">
+        <v>449</v>
       </c>
     </row>
     <row r="10" spans="1:18" x14ac:dyDescent="0.25">

--- a/CFT4CUnitSrc/src/report/GAReport.xlsx
+++ b/CFT4CUnitSrc/src/report/GAReport.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="1125" windowWidth="14805" windowHeight="6780" tabRatio="940" activeTab="4"/>
+    <workbookView xWindow="240" yWindow="1185" windowWidth="14805" windowHeight="6720" tabRatio="940" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="GA based TC generation" sheetId="2" r:id="rId1"/>
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="588" uniqueCount="451">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="591" uniqueCount="454">
   <si>
     <t>Nhìn chung, để sinh test case cho một input program theo phương pháp GA thì có các bước sau</t>
   </si>
@@ -1381,19 +1381,28 @@
     <t>// giá trị cần điều chỉnh khi so sánh giữa 2 parametter</t>
   </si>
   <si>
-    <t>②param1 op param2 == value</t>
-  </si>
-  <si>
-    <t>①param i == param j</t>
-  </si>
-  <si>
-    <t>Giả sử có danh sách các input parameter mà của program under test là param[i], i=0～n.</t>
-  </si>
-  <si>
-    <t>③param1 == param2 op param2 == param3</t>
-  </si>
-  <si>
-    <t>Các condition đã được hanlde ở đây là</t>
+    <t>Các condition đã được tự động identify ở đây bao gồm</t>
+  </si>
+  <si>
+    <t>①param[i] == param[j], i, j = 0～n.</t>
+  </si>
+  <si>
+    <t>Giả sử có danh sách các input parameter mà của program under test là param[i], i = 0～n.</t>
+  </si>
+  <si>
+    <t>②param[i] op param[j] == value, i, j = 0～n.</t>
+  </si>
+  <si>
+    <t>③param[i] == param[j] op param[j] == param[k],  i, j, k = 0～n.</t>
+  </si>
+  <si>
+    <t>Thế ngoài ra thì còn có thể có gì ở đây nhỉ?</t>
+  </si>
+  <si>
+    <t>op = {+, - , *, /}</t>
+  </si>
+  <si>
+    <t>op = {&amp;&amp;, ||}</t>
   </si>
 </sst>
 </file>
@@ -7933,15 +7942,15 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:R133"/>
+  <dimension ref="A1:Y133"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="R8" sqref="R8"/>
+      <selection activeCell="Q15" sqref="Q15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A1" s="46" t="s">
         <v>375</v>
       </c>
@@ -7950,12 +7959,12 @@
       <c r="D1" s="46"/>
       <c r="E1" s="46"/>
     </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>413</v>
       </c>
     </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>414</v>
       </c>
@@ -7963,15 +7972,15 @@
         <v>448</v>
       </c>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>420</v>
       </c>
       <c r="Q6" t="s">
-        <v>450</v>
-      </c>
-    </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="7" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>378</v>
       </c>
@@ -7979,43 +7988,52 @@
         <v>447</v>
       </c>
     </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
         <v>409</v>
       </c>
       <c r="R8" t="s">
-        <v>446</v>
-      </c>
-    </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.25">
+        <v>449</v>
+      </c>
+      <c r="Y8" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="9" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
         <v>415</v>
       </c>
       <c r="R9" t="s">
-        <v>449</v>
-      </c>
-    </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.25">
+        <v>450</v>
+      </c>
+      <c r="Y9" t="s">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="10" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B10" t="s">
         <v>410</v>
       </c>
     </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B11" t="s">
         <v>416</v>
       </c>
-    </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="Q11" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="13" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B13" t="s">
         <v>417</v>
       </c>
     </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B14" t="s">
         <v>378</v>
       </c>
     </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:25" x14ac:dyDescent="0.25">
       <c r="C15" t="s">
         <v>411</v>
       </c>
@@ -8023,7 +8041,7 @@
         <v>442</v>
       </c>
     </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:25" x14ac:dyDescent="0.25">
       <c r="C16" t="s">
         <v>418</v>
       </c>

--- a/CFT4CUnitSrc/src/report/GAReport.xlsx
+++ b/CFT4CUnitSrc/src/report/GAReport.xlsx
@@ -7945,7 +7945,7 @@
   <dimension ref="A1:Y133"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="Q15" sqref="Q15"/>
+      <selection activeCell="K17" sqref="K17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/CFT4CUnitSrc/src/report/GAReport.xlsx
+++ b/CFT4CUnitSrc/src/report/GAReport.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="591" uniqueCount="454">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="697" uniqueCount="495">
   <si>
     <t>Nhìn chung, để sinh test case cho một input program theo phương pháp GA thì có các bước sau</t>
   </si>
@@ -1403,6 +1403,129 @@
   </si>
   <si>
     <t>op = {&amp;&amp;, ||}</t>
+  </si>
+  <si>
+    <t>Ko làm gì</t>
+  </si>
+  <si>
+    <t>Objective call: 20847</t>
+  </si>
+  <si>
+    <t>path1 = 515</t>
+  </si>
+  <si>
+    <t>path2 = 1</t>
+  </si>
+  <si>
+    <t>path3 = 63</t>
+  </si>
+  <si>
+    <t>path4 = 20268</t>
+  </si>
+  <si>
+    <t>path5 = 0</t>
+  </si>
+  <si>
+    <t>Manual adjust</t>
+  </si>
+  <si>
+    <t>Objective call: 505</t>
+  </si>
+  <si>
+    <t>path1 = 176</t>
+  </si>
+  <si>
+    <t>path2 = 127</t>
+  </si>
+  <si>
+    <t>path3 = 1</t>
+  </si>
+  <si>
+    <t>path4 = 201</t>
+  </si>
+  <si>
+    <t>Objective call: 508</t>
+  </si>
+  <si>
+    <t>Automatic adjust</t>
+  </si>
+  <si>
+    <t>Run No. 2 :  Wait Please .........</t>
+  </si>
+  <si>
+    <t>Run No. 3 :  Wait Please .........</t>
+  </si>
+  <si>
+    <t>Run No. 4 :  Wait Please .........</t>
+  </si>
+  <si>
+    <t>Run No. 5 :  Wait Please .........</t>
+  </si>
+  <si>
+    <t>Objective call: 188755</t>
+  </si>
+  <si>
+    <t>path1 = 0</t>
+  </si>
+  <si>
+    <t>path2 = 0</t>
+  </si>
+  <si>
+    <t>path3 = 2853</t>
+  </si>
+  <si>
+    <t>path4 = 185902</t>
+  </si>
+  <si>
+    <t>Objective call: 346</t>
+  </si>
+  <si>
+    <t>path1 = 29</t>
+  </si>
+  <si>
+    <t>path3 = 18</t>
+  </si>
+  <si>
+    <t>path4 = 298</t>
+  </si>
+  <si>
+    <t>path1 = 16</t>
+  </si>
+  <si>
+    <t>path3 = 26</t>
+  </si>
+  <si>
+    <t>path4 = 303</t>
+  </si>
+  <si>
+    <t>path1 = 442</t>
+  </si>
+  <si>
+    <t>path3 = 32</t>
+  </si>
+  <si>
+    <t>path4 = 33</t>
+  </si>
+  <si>
+    <t>path3 = 185924</t>
+  </si>
+  <si>
+    <t>path4 = 0</t>
+  </si>
+  <si>
+    <t>path5 = 2831</t>
+  </si>
+  <si>
+    <t>path1 = 7086</t>
+  </si>
+  <si>
+    <t>path2 = 124338</t>
+  </si>
+  <si>
+    <t>path3 = 53569</t>
+  </si>
+  <si>
+    <t>path5 = 3762</t>
   </si>
 </sst>
 </file>
@@ -7942,10 +8065,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Y133"/>
+  <dimension ref="A1:Z133"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K17" sqref="K17"/>
+    <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
+      <selection activeCell="Z58" sqref="Z58:Z70"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8049,7 +8172,7 @@
         <v>443</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:26" x14ac:dyDescent="0.25">
       <c r="C17" t="s">
         <v>412</v>
       </c>
@@ -8057,7 +8180,7 @@
         <v>444</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:26" x14ac:dyDescent="0.25">
       <c r="C18" t="s">
         <v>419</v>
       </c>
@@ -8065,60 +8188,143 @@
         <v>445</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:26" x14ac:dyDescent="0.25">
       <c r="B19" t="s">
         <v>311</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>311</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>437</v>
       </c>
-    </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="O22" t="s">
+        <v>454</v>
+      </c>
+      <c r="T22" t="s">
+        <v>461</v>
+      </c>
+      <c r="Y22" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="23" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>425</v>
       </c>
       <c r="D23" t="s">
         <v>427</v>
       </c>
-    </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="P23" t="s">
+        <v>284</v>
+      </c>
+      <c r="U23" t="s">
+        <v>284</v>
+      </c>
+      <c r="Z23" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="24" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>378</v>
       </c>
-    </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="P24" t="s">
+        <v>285</v>
+      </c>
+      <c r="U24" t="s">
+        <v>285</v>
+      </c>
+      <c r="Z24" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="25" spans="1:26" x14ac:dyDescent="0.25">
       <c r="B25" t="s">
         <v>426</v>
       </c>
-    </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="P25" t="s">
+        <v>469</v>
+      </c>
+      <c r="U25" t="s">
+        <v>478</v>
+      </c>
+      <c r="Z25" t="s">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="26" spans="1:26" x14ac:dyDescent="0.25">
       <c r="C26" t="s">
         <v>430</v>
       </c>
-    </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="P26" t="s">
+        <v>470</v>
+      </c>
+      <c r="U26" t="s">
+        <v>479</v>
+      </c>
+      <c r="Z26" t="s">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="27" spans="1:26" x14ac:dyDescent="0.25">
       <c r="B27" t="s">
         <v>381</v>
       </c>
-    </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="P27" t="s">
+        <v>471</v>
+      </c>
+      <c r="U27" t="s">
+        <v>457</v>
+      </c>
+      <c r="Z27" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="28" spans="1:26" x14ac:dyDescent="0.25">
       <c r="C28" t="s">
         <v>431</v>
       </c>
-    </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="P28" t="s">
+        <v>472</v>
+      </c>
+      <c r="U28" t="s">
+        <v>480</v>
+      </c>
+      <c r="Z28" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="29" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>311</v>
       </c>
-    </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="P29" t="s">
+        <v>473</v>
+      </c>
+      <c r="U29" t="s">
+        <v>481</v>
+      </c>
+      <c r="Z29" t="s">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="30" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="P30" t="s">
+        <v>474</v>
+      </c>
+      <c r="U30" t="s">
+        <v>460</v>
+      </c>
+      <c r="Z30" t="s">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="31" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A31" s="41" t="s">
         <v>390</v>
       </c>
@@ -8131,8 +8337,17 @@
       <c r="H31" t="s">
         <v>422</v>
       </c>
-    </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="P31" t="s">
+        <v>475</v>
+      </c>
+      <c r="U31" t="s">
+        <v>295</v>
+      </c>
+      <c r="Z31" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="32" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A32" s="41" t="s">
         <v>378</v>
       </c>
@@ -8145,8 +8360,11 @@
       <c r="H32" t="s">
         <v>408</v>
       </c>
-    </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="P32" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="33" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A33" s="41"/>
       <c r="B33" s="5" t="s">
         <v>421</v>
@@ -8159,8 +8377,11 @@
       <c r="H33" t="s">
         <v>423</v>
       </c>
-    </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="P33" t="s">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="34" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A34" s="41"/>
       <c r="B34" s="41" t="s">
         <v>378</v>
@@ -8173,8 +8394,11 @@
       <c r="H34" t="s">
         <v>408</v>
       </c>
-    </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="P34" t="s">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="35" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A35" s="41"/>
       <c r="B35" s="41"/>
       <c r="C35" s="41" t="s">
@@ -8187,8 +8411,11 @@
       <c r="H35" t="s">
         <v>424</v>
       </c>
-    </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="P35" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="36" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A36" s="41"/>
       <c r="B36" s="41"/>
       <c r="C36" s="41" t="s">
@@ -8202,7 +8429,7 @@
         <v>408</v>
       </c>
     </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A37" s="41"/>
       <c r="B37" s="41"/>
       <c r="C37" s="41"/>
@@ -8216,7 +8443,7 @@
         <v>428</v>
       </c>
     </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A38" s="41"/>
       <c r="B38" s="41"/>
       <c r="C38" s="41"/>
@@ -8230,7 +8457,7 @@
         <v>429</v>
       </c>
     </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A39" s="41"/>
       <c r="B39" s="41"/>
       <c r="C39" s="41"/>
@@ -8241,7 +8468,7 @@
       <c r="F39" s="41"/>
       <c r="G39" s="41"/>
     </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A40" s="41"/>
       <c r="B40" s="41"/>
       <c r="C40" s="41"/>
@@ -8252,7 +8479,7 @@
       <c r="F40" s="41"/>
       <c r="G40" s="41"/>
     </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A41" s="41"/>
       <c r="B41" s="41"/>
       <c r="C41" s="41"/>
@@ -8263,7 +8490,7 @@
       <c r="F41" s="41"/>
       <c r="G41" s="41"/>
     </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A42" s="41"/>
       <c r="B42" s="41"/>
       <c r="C42" s="41"/>
@@ -8274,7 +8501,7 @@
       <c r="F42" s="41"/>
       <c r="G42" s="41"/>
     </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A43" s="41"/>
       <c r="B43" s="41"/>
       <c r="C43" s="41"/>
@@ -8285,7 +8512,7 @@
       <c r="F43" s="41"/>
       <c r="G43" s="41"/>
     </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A44" s="41"/>
       <c r="B44" s="41"/>
       <c r="C44" s="41"/>
@@ -8296,7 +8523,7 @@
       <c r="F44" s="41"/>
       <c r="G44" s="41"/>
     </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A45" s="41"/>
       <c r="B45" s="41"/>
       <c r="C45" s="41" t="s">
@@ -8307,7 +8534,7 @@
       <c r="F45" s="41"/>
       <c r="G45" s="41"/>
     </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A46" s="41"/>
       <c r="B46" s="41"/>
       <c r="C46" s="41" t="s">
@@ -8318,7 +8545,7 @@
       <c r="F46" s="41"/>
       <c r="G46" s="41"/>
     </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A47" s="41"/>
       <c r="B47" s="41"/>
       <c r="C47" s="41" t="s">
@@ -8329,7 +8556,7 @@
       <c r="F47" s="41"/>
       <c r="G47" s="41"/>
     </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A48" s="41"/>
       <c r="B48" s="41"/>
       <c r="C48" s="41"/>
@@ -8340,7 +8567,7 @@
       <c r="F48" s="41"/>
       <c r="G48" s="41"/>
     </row>
-    <row r="49" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A49" s="41"/>
       <c r="B49" s="41"/>
       <c r="C49" s="41" t="s">
@@ -8351,7 +8578,7 @@
       <c r="F49" s="41"/>
       <c r="G49" s="41"/>
     </row>
-    <row r="50" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A50" s="41"/>
       <c r="B50" s="41" t="s">
         <v>311</v>
@@ -8362,7 +8589,7 @@
       <c r="F50" s="41"/>
       <c r="G50" s="41"/>
     </row>
-    <row r="51" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A51" s="41"/>
       <c r="B51" s="41" t="s">
         <v>381</v>
@@ -8373,7 +8600,7 @@
       <c r="F51" s="41"/>
       <c r="G51" s="41"/>
     </row>
-    <row r="52" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A52" s="41"/>
       <c r="B52" s="41" t="s">
         <v>378</v>
@@ -8384,7 +8611,7 @@
       <c r="F52" s="41"/>
       <c r="G52" s="41"/>
     </row>
-    <row r="53" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A53" s="41"/>
       <c r="B53" s="41"/>
       <c r="C53" s="41" t="s">
@@ -8395,7 +8622,7 @@
       <c r="F53" s="41"/>
       <c r="G53" s="41"/>
     </row>
-    <row r="54" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A54" s="41"/>
       <c r="B54" s="41" t="s">
         <v>311</v>
@@ -8406,7 +8633,7 @@
       <c r="F54" s="41"/>
       <c r="G54" s="41"/>
     </row>
-    <row r="55" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A55" s="41" t="s">
         <v>311</v>
       </c>
@@ -8417,7 +8644,7 @@
       <c r="F55" s="41"/>
       <c r="G55" s="41"/>
     </row>
-    <row r="56" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A56" s="41"/>
       <c r="B56" s="41"/>
       <c r="C56" s="41"/>
@@ -8426,7 +8653,7 @@
       <c r="F56" s="41"/>
       <c r="G56" s="41"/>
     </row>
-    <row r="57" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A57" s="41" t="s">
         <v>393</v>
       </c>
@@ -8439,8 +8666,17 @@
       <c r="H57" t="s">
         <v>389</v>
       </c>
-    </row>
-    <row r="58" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="O57" t="s">
+        <v>454</v>
+      </c>
+      <c r="T57" t="s">
+        <v>461</v>
+      </c>
+      <c r="Y57" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="58" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A58" s="41" t="s">
         <v>378</v>
       </c>
@@ -8453,8 +8689,17 @@
       <c r="H58" t="s">
         <v>408</v>
       </c>
-    </row>
-    <row r="59" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="P58" t="s">
+        <v>284</v>
+      </c>
+      <c r="U58" t="s">
+        <v>284</v>
+      </c>
+      <c r="Z58" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="59" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A59" s="41"/>
       <c r="B59" s="41" t="s">
         <v>394</v>
@@ -8467,8 +8712,17 @@
       <c r="H59" t="s">
         <v>432</v>
       </c>
-    </row>
-    <row r="60" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="P59" t="s">
+        <v>285</v>
+      </c>
+      <c r="U59" t="s">
+        <v>285</v>
+      </c>
+      <c r="Z59" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="60" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A60" s="41"/>
       <c r="B60" s="41"/>
       <c r="C60" s="41"/>
@@ -8482,8 +8736,17 @@
       <c r="J60" t="s">
         <v>434</v>
       </c>
-    </row>
-    <row r="61" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="P60" t="s">
+        <v>469</v>
+      </c>
+      <c r="U60" t="s">
+        <v>469</v>
+      </c>
+      <c r="Z60" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="61" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A61" s="41"/>
       <c r="B61" s="5" t="s">
         <v>395</v>
@@ -8496,8 +8759,17 @@
       <c r="H61" t="s">
         <v>408</v>
       </c>
-    </row>
-    <row r="62" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="P61" t="s">
+        <v>470</v>
+      </c>
+      <c r="U61" t="s">
+        <v>470</v>
+      </c>
+      <c r="Z61" t="s">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="62" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A62" s="41"/>
       <c r="B62" s="41" t="s">
         <v>378</v>
@@ -8510,8 +8782,17 @@
       <c r="H62" t="s">
         <v>428</v>
       </c>
-    </row>
-    <row r="63" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="P62" t="s">
+        <v>471</v>
+      </c>
+      <c r="U62" t="s">
+        <v>471</v>
+      </c>
+      <c r="Z62" t="s">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="63" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A63" s="41"/>
       <c r="B63" s="41"/>
       <c r="C63" s="5" t="s">
@@ -8524,8 +8805,17 @@
       <c r="H63" t="s">
         <v>435</v>
       </c>
-    </row>
-    <row r="64" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="P63" t="s">
+        <v>472</v>
+      </c>
+      <c r="U63" t="s">
+        <v>472</v>
+      </c>
+      <c r="Z63" t="s">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="64" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A64" s="41"/>
       <c r="B64" s="41"/>
       <c r="C64" s="41" t="s">
@@ -8538,8 +8828,17 @@
       <c r="H64" t="s">
         <v>436</v>
       </c>
-    </row>
-    <row r="65" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="P64" t="s">
+        <v>473</v>
+      </c>
+      <c r="U64" t="s">
+        <v>473</v>
+      </c>
+      <c r="Z64" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="65" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A65" s="41"/>
       <c r="B65" s="41"/>
       <c r="C65" s="41"/>
@@ -8549,8 +8848,17 @@
       <c r="E65" s="41"/>
       <c r="F65" s="41"/>
       <c r="G65" s="41"/>
-    </row>
-    <row r="66" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="P65" t="s">
+        <v>474</v>
+      </c>
+      <c r="U65" t="s">
+        <v>491</v>
+      </c>
+      <c r="Z65" t="s">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="66" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A66" s="41"/>
       <c r="B66" s="41"/>
       <c r="C66" s="41" t="s">
@@ -8560,8 +8868,17 @@
       <c r="E66" s="41"/>
       <c r="F66" s="41"/>
       <c r="G66" s="41"/>
-    </row>
-    <row r="67" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="P66" t="s">
+        <v>475</v>
+      </c>
+      <c r="U66" t="s">
+        <v>492</v>
+      </c>
+      <c r="Z66" t="s">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="67" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A67" s="41"/>
       <c r="B67" s="41"/>
       <c r="C67" s="41" t="s">
@@ -8571,8 +8888,17 @@
       <c r="E67" s="41"/>
       <c r="F67" s="41"/>
       <c r="G67" s="41"/>
-    </row>
-    <row r="68" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="P67" t="s">
+        <v>488</v>
+      </c>
+      <c r="U67" t="s">
+        <v>493</v>
+      </c>
+      <c r="Z67" t="s">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="68" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A68" s="41"/>
       <c r="B68" s="41"/>
       <c r="C68" s="41" t="s">
@@ -8582,8 +8908,17 @@
       <c r="E68" s="41"/>
       <c r="F68" s="41"/>
       <c r="G68" s="41"/>
-    </row>
-    <row r="69" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="P68" t="s">
+        <v>489</v>
+      </c>
+      <c r="U68" t="s">
+        <v>489</v>
+      </c>
+      <c r="Z68" t="s">
+        <v>489</v>
+      </c>
+    </row>
+    <row r="69" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A69" s="41"/>
       <c r="B69" s="41"/>
       <c r="C69" s="41"/>
@@ -8593,8 +8928,17 @@
       <c r="E69" s="41"/>
       <c r="F69" s="41"/>
       <c r="G69" s="41"/>
-    </row>
-    <row r="70" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="P69" t="s">
+        <v>490</v>
+      </c>
+      <c r="U69" t="s">
+        <v>494</v>
+      </c>
+      <c r="Z69" t="s">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="70" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A70" s="41"/>
       <c r="B70" s="41"/>
       <c r="C70" s="41" t="s">
@@ -8604,8 +8948,17 @@
       <c r="E70" s="41"/>
       <c r="F70" s="41"/>
       <c r="G70" s="41"/>
-    </row>
-    <row r="71" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="P70" t="s">
+        <v>295</v>
+      </c>
+      <c r="U70" t="s">
+        <v>295</v>
+      </c>
+      <c r="Z70" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="71" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A71" s="41"/>
       <c r="B71" s="41"/>
       <c r="C71" s="41" t="s">
@@ -8616,7 +8969,7 @@
       <c r="F71" s="41"/>
       <c r="G71" s="41"/>
     </row>
-    <row r="72" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A72" s="41"/>
       <c r="B72" s="41" t="s">
         <v>397</v>
@@ -8627,7 +8980,7 @@
       <c r="F72" s="41"/>
       <c r="G72" s="41"/>
     </row>
-    <row r="73" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A73" s="41"/>
       <c r="B73" s="41"/>
       <c r="C73" s="41"/>
@@ -8636,7 +8989,7 @@
       <c r="F73" s="41"/>
       <c r="G73" s="41"/>
     </row>
-    <row r="74" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A74" s="41"/>
       <c r="B74" s="41" t="s">
         <v>398</v>
@@ -8647,7 +9000,7 @@
       <c r="F74" s="41"/>
       <c r="G74" s="41"/>
     </row>
-    <row r="75" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A75" s="41"/>
       <c r="B75" s="41" t="s">
         <v>399</v>
@@ -8658,7 +9011,7 @@
       <c r="F75" s="41"/>
       <c r="G75" s="41"/>
     </row>
-    <row r="76" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A76" s="41"/>
       <c r="B76" s="41"/>
       <c r="C76" s="41" t="s">
@@ -8669,7 +9022,7 @@
       <c r="F76" s="41"/>
       <c r="G76" s="41"/>
     </row>
-    <row r="77" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A77" s="41"/>
       <c r="B77" s="41" t="s">
         <v>397</v>
@@ -8680,7 +9033,7 @@
       <c r="F77" s="41"/>
       <c r="G77" s="41"/>
     </row>
-    <row r="78" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A78" s="41"/>
       <c r="B78" s="41" t="s">
         <v>400</v>
@@ -8691,7 +9044,7 @@
       <c r="F78" s="41"/>
       <c r="G78" s="41"/>
     </row>
-    <row r="79" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A79" s="41"/>
       <c r="B79" s="41" t="s">
         <v>378</v>
@@ -8702,7 +9055,7 @@
       <c r="F79" s="41"/>
       <c r="G79" s="41"/>
     </row>
-    <row r="80" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A80" s="41"/>
       <c r="B80" s="41"/>
       <c r="C80" s="5" t="s">
@@ -8713,7 +9066,7 @@
       <c r="F80" s="41"/>
       <c r="G80" s="41"/>
     </row>
-    <row r="81" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A81" s="41"/>
       <c r="B81" s="41"/>
       <c r="C81" s="41" t="s">
@@ -8724,7 +9077,7 @@
       <c r="F81" s="41"/>
       <c r="G81" s="41"/>
     </row>
-    <row r="82" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A82" s="41"/>
       <c r="B82" s="41"/>
       <c r="C82" s="41"/>
@@ -8735,7 +9088,7 @@
       <c r="F82" s="41"/>
       <c r="G82" s="41"/>
     </row>
-    <row r="83" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A83" s="41"/>
       <c r="B83" s="41"/>
       <c r="C83" s="41"/>
@@ -8746,7 +9099,7 @@
       <c r="F83" s="41"/>
       <c r="G83" s="41"/>
     </row>
-    <row r="84" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A84" s="41"/>
       <c r="B84" s="41"/>
       <c r="C84" s="41" t="s">
@@ -8757,7 +9110,7 @@
       <c r="F84" s="41"/>
       <c r="G84" s="41"/>
     </row>
-    <row r="85" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A85" s="41"/>
       <c r="B85" s="41"/>
       <c r="C85" s="41" t="s">
@@ -8768,7 +9121,7 @@
       <c r="F85" s="41"/>
       <c r="G85" s="41"/>
     </row>
-    <row r="86" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A86" s="41"/>
       <c r="B86" s="41"/>
       <c r="C86" s="41" t="s">
@@ -8779,7 +9132,7 @@
       <c r="F86" s="41"/>
       <c r="G86" s="41"/>
     </row>
-    <row r="87" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A87" s="41"/>
       <c r="B87" s="41"/>
       <c r="C87" s="41"/>
@@ -8790,7 +9143,7 @@
       <c r="F87" s="41"/>
       <c r="G87" s="41"/>
     </row>
-    <row r="88" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A88" s="41"/>
       <c r="B88" s="41"/>
       <c r="C88" s="41"/>
@@ -8801,7 +9154,7 @@
       <c r="F88" s="41"/>
       <c r="G88" s="41"/>
     </row>
-    <row r="89" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A89" s="41"/>
       <c r="B89" s="41"/>
       <c r="C89" s="41"/>
@@ -8812,7 +9165,7 @@
       <c r="F89" s="41"/>
       <c r="G89" s="41"/>
     </row>
-    <row r="90" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A90" s="41"/>
       <c r="B90" s="41"/>
       <c r="C90" s="41" t="s">
@@ -8823,7 +9176,7 @@
       <c r="F90" s="41"/>
       <c r="G90" s="41"/>
     </row>
-    <row r="91" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A91" s="41"/>
       <c r="B91" s="41" t="s">
         <v>311</v>
@@ -8834,7 +9187,7 @@
       <c r="F91" s="41"/>
       <c r="G91" s="41"/>
     </row>
-    <row r="92" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A92" s="41" t="s">
         <v>311</v>
       </c>
@@ -8845,7 +9198,7 @@
       <c r="F92" s="41"/>
       <c r="G92" s="41"/>
     </row>
-    <row r="93" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A93" s="41"/>
       <c r="B93" s="41"/>
       <c r="C93" s="41"/>
@@ -8854,7 +9207,7 @@
       <c r="F93" s="41"/>
       <c r="G93" s="41"/>
     </row>
-    <row r="94" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A94" s="41" t="s">
         <v>406</v>
       </c>
@@ -8867,8 +9220,17 @@
       <c r="H94" t="s">
         <v>388</v>
       </c>
-    </row>
-    <row r="95" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="O94" t="s">
+        <v>454</v>
+      </c>
+      <c r="T94" t="s">
+        <v>461</v>
+      </c>
+      <c r="Y94" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="95" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A95" s="41" t="s">
         <v>378</v>
       </c>
@@ -8881,8 +9243,17 @@
       <c r="H95" t="s">
         <v>408</v>
       </c>
-    </row>
-    <row r="96" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="P95" t="s">
+        <v>284</v>
+      </c>
+      <c r="U95" t="s">
+        <v>284</v>
+      </c>
+      <c r="Z95" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="96" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A96" s="41"/>
       <c r="B96" s="41" t="s">
         <v>376</v>
@@ -8895,8 +9266,17 @@
       <c r="H96" t="s">
         <v>438</v>
       </c>
-    </row>
-    <row r="97" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="P96" t="s">
+        <v>285</v>
+      </c>
+      <c r="U96" t="s">
+        <v>285</v>
+      </c>
+      <c r="Z96" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="97" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A97" s="41"/>
       <c r="B97" s="41"/>
       <c r="C97" s="41"/>
@@ -8907,8 +9287,17 @@
       <c r="H97" t="s">
         <v>439</v>
       </c>
-    </row>
-    <row r="98" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="P97" t="s">
+        <v>455</v>
+      </c>
+      <c r="U97" t="s">
+        <v>462</v>
+      </c>
+      <c r="Z97" t="s">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="98" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A98" s="41"/>
       <c r="B98" s="41" t="s">
         <v>377</v>
@@ -8921,8 +9310,17 @@
       <c r="H98" t="s">
         <v>408</v>
       </c>
-    </row>
-    <row r="99" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="P98" t="s">
+        <v>456</v>
+      </c>
+      <c r="U98" t="s">
+        <v>463</v>
+      </c>
+      <c r="Z98" t="s">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="99" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A99" s="41"/>
       <c r="B99" s="41" t="s">
         <v>378</v>
@@ -8935,8 +9333,17 @@
       <c r="H99" t="s">
         <v>428</v>
       </c>
-    </row>
-    <row r="100" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="P99" t="s">
+        <v>457</v>
+      </c>
+      <c r="U99" t="s">
+        <v>464</v>
+      </c>
+      <c r="Z99" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="100" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A100" s="41"/>
       <c r="B100" s="41"/>
       <c r="C100" s="5" t="s">
@@ -8949,8 +9356,17 @@
       <c r="H100" t="s">
         <v>440</v>
       </c>
-    </row>
-    <row r="101" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="P100" t="s">
+        <v>458</v>
+      </c>
+      <c r="U100" t="s">
+        <v>465</v>
+      </c>
+      <c r="Z100" t="s">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="101" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A101" s="41"/>
       <c r="B101" s="41"/>
       <c r="C101" s="41" t="s">
@@ -8963,8 +9379,17 @@
       <c r="H101" t="s">
         <v>441</v>
       </c>
-    </row>
-    <row r="102" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="P101" t="s">
+        <v>459</v>
+      </c>
+      <c r="U101" t="s">
+        <v>466</v>
+      </c>
+      <c r="Z101" t="s">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="102" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A102" s="41"/>
       <c r="B102" s="41"/>
       <c r="C102" s="41"/>
@@ -8974,8 +9399,17 @@
       <c r="E102" s="41"/>
       <c r="F102" s="41"/>
       <c r="G102" s="41"/>
-    </row>
-    <row r="103" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="P102" t="s">
+        <v>460</v>
+      </c>
+      <c r="U102" t="s">
+        <v>460</v>
+      </c>
+      <c r="Z102" t="s">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="103" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A103" s="41"/>
       <c r="B103" s="41"/>
       <c r="C103" s="41" t="s">
@@ -8985,8 +9419,17 @@
       <c r="E103" s="41"/>
       <c r="F103" s="41"/>
       <c r="G103" s="41"/>
-    </row>
-    <row r="104" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="P103" t="s">
+        <v>295</v>
+      </c>
+      <c r="U103" t="s">
+        <v>295</v>
+      </c>
+      <c r="Z103" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="104" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A104" s="41"/>
       <c r="B104" s="41"/>
       <c r="C104" s="41" t="s">
@@ -8997,7 +9440,7 @@
       <c r="F104" s="41"/>
       <c r="G104" s="41"/>
     </row>
-    <row r="105" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A105" s="41"/>
       <c r="B105" s="41"/>
       <c r="C105" s="41" t="s">
@@ -9008,7 +9451,7 @@
       <c r="F105" s="41"/>
       <c r="G105" s="41"/>
     </row>
-    <row r="106" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A106" s="41"/>
       <c r="B106" s="41"/>
       <c r="C106" s="41"/>
@@ -9019,7 +9462,7 @@
       <c r="F106" s="5"/>
       <c r="G106" s="41"/>
     </row>
-    <row r="107" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A107" s="41"/>
       <c r="B107" s="41"/>
       <c r="C107" s="41"/>
@@ -9030,7 +9473,7 @@
       <c r="F107" s="41"/>
       <c r="G107" s="41"/>
     </row>
-    <row r="108" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A108" s="41"/>
       <c r="B108" s="41"/>
       <c r="C108" s="41"/>
@@ -9041,7 +9484,7 @@
       <c r="F108" s="41"/>
       <c r="G108" s="41"/>
     </row>
-    <row r="109" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A109" s="41"/>
       <c r="B109" s="41"/>
       <c r="C109" s="41"/>
@@ -9052,7 +9495,7 @@
       <c r="F109" s="41"/>
       <c r="G109" s="41"/>
     </row>
-    <row r="110" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A110" s="41"/>
       <c r="B110" s="41"/>
       <c r="C110" s="41"/>
@@ -9063,7 +9506,7 @@
       <c r="F110" s="41"/>
       <c r="G110" s="41"/>
     </row>
-    <row r="111" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A111" s="41"/>
       <c r="B111" s="41"/>
       <c r="C111" s="41"/>
@@ -9074,7 +9517,7 @@
       <c r="F111" s="41"/>
       <c r="G111" s="41"/>
     </row>
-    <row r="112" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A112" s="41"/>
       <c r="B112" s="41"/>
       <c r="C112" s="41"/>

--- a/CFT4CUnitSrc/src/report/GAReport.xlsx
+++ b/CFT4CUnitSrc/src/report/GAReport.xlsx
@@ -8067,8 +8067,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Z133"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
-      <selection activeCell="Z58" sqref="Z58:Z70"/>
+    <sheetView tabSelected="1" topLeftCell="A46" workbookViewId="0">
+      <selection activeCell="O78" sqref="O78"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/CFT4CUnitSrc/src/report/GAReport.xlsx
+++ b/CFT4CUnitSrc/src/report/GAReport.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="1185" windowWidth="14805" windowHeight="6720" tabRatio="940" activeTab="4"/>
+    <workbookView xWindow="240" yWindow="1185" windowWidth="14805" windowHeight="6720" tabRatio="940" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="GA based TC generation" sheetId="2" r:id="rId1"/>
@@ -3214,13 +3214,13 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>18</xdr:col>
-      <xdr:colOff>190501</xdr:colOff>
+      <xdr:colOff>342900</xdr:colOff>
       <xdr:row>29</xdr:row>
       <xdr:rowOff>38100</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>24</xdr:col>
-      <xdr:colOff>488675</xdr:colOff>
+      <xdr:colOff>276225</xdr:colOff>
       <xdr:row>57</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
@@ -3231,8 +3231,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="11222936" y="5562600"/>
-          <a:ext cx="3975652" cy="5295900"/>
+          <a:off x="11315700" y="5562600"/>
+          <a:ext cx="3590925" cy="5295900"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3396,14 +3396,14 @@
     <xdr:from>
       <xdr:col>14</xdr:col>
       <xdr:colOff>312230</xdr:colOff>
-      <xdr:row>27</xdr:row>
-      <xdr:rowOff>108537</xdr:rowOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>17</xdr:col>
       <xdr:colOff>234463</xdr:colOff>
-      <xdr:row>32</xdr:row>
-      <xdr:rowOff>89487</xdr:rowOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>51387</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -3412,8 +3412,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8846630" y="5252037"/>
-          <a:ext cx="1751033" cy="933450"/>
+          <a:off x="8846630" y="6905625"/>
+          <a:ext cx="1751033" cy="765762"/>
         </a:xfrm>
         <a:prstGeom prst="flowChartDocument">
           <a:avLst/>
@@ -3444,16 +3444,6 @@
         <a:p>
           <a:pPr algn="ctr"/>
           <a:r>
-            <a:rPr lang="en-US" sz="1200">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-              <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
-              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
-            </a:rPr>
-            <a:t>Test</a:t>
-          </a:r>
-          <a:r>
             <a:rPr lang="en-US" sz="1200" baseline="0">
               <a:solidFill>
                 <a:sysClr val="windowText" lastClr="000000"/>
@@ -3461,7 +3451,7 @@
               <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
               <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
             </a:rPr>
-            <a:t> function</a:t>
+            <a:t>Program under test</a:t>
           </a:r>
           <a:endParaRPr lang="en-US" sz="1200">
             <a:solidFill>
@@ -3479,14 +3469,14 @@
     <xdr:from>
       <xdr:col>14</xdr:col>
       <xdr:colOff>302736</xdr:colOff>
-      <xdr:row>33</xdr:row>
-      <xdr:rowOff>149107</xdr:rowOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>130057</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>17</xdr:col>
       <xdr:colOff>262949</xdr:colOff>
-      <xdr:row>36</xdr:row>
-      <xdr:rowOff>15757</xdr:rowOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>187207</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -3495,7 +3485,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8837136" y="6435607"/>
+          <a:off x="8837136" y="7940557"/>
           <a:ext cx="1789013" cy="438150"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -3532,8 +3522,25 @@
               <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
               <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
             </a:rPr>
-            <a:t>CFG generation</a:t>
+            <a:t>Identify</a:t>
           </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1200" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            </a:rPr>
+            <a:t> equal conditions</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1200">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+            <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+          </a:endParaRPr>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -3543,14 +3550,14 @@
     <xdr:from>
       <xdr:col>14</xdr:col>
       <xdr:colOff>293151</xdr:colOff>
-      <xdr:row>37</xdr:row>
-      <xdr:rowOff>90293</xdr:rowOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>147443</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>17</xdr:col>
       <xdr:colOff>257175</xdr:colOff>
-      <xdr:row>40</xdr:row>
-      <xdr:rowOff>19051</xdr:rowOff>
+      <xdr:row>48</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -3559,8 +3566,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8827551" y="7138793"/>
-          <a:ext cx="1792824" cy="500258"/>
+          <a:off x="8827551" y="8719943"/>
+          <a:ext cx="1792824" cy="424057"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3596,7 +3603,7 @@
               <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
               <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
             </a:rPr>
-            <a:t>Target</a:t>
+            <a:t>Create</a:t>
           </a:r>
           <a:r>
             <a:rPr lang="en-US" sz="1200" baseline="0">
@@ -3606,152 +3613,7 @@
               <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
               <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
             </a:rPr>
-            <a:t> paths </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" sz="1200">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-              <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
-              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
-            </a:rPr>
-            <a:t>generation</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>295275</xdr:colOff>
-      <xdr:row>41</xdr:row>
-      <xdr:rowOff>101049</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>266700</xdr:colOff>
-      <xdr:row>44</xdr:row>
-      <xdr:rowOff>32909</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="9" name="Rectangle 8"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="8876058" y="7911549"/>
-          <a:ext cx="1810164" cy="503360"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr lang="en-US" altLang="ja-JP" sz="1200" baseline="0">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-              <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
-              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
-            </a:rPr>
-            <a:t>Identify difficult paths</a:t>
-          </a:r>
-          <a:endParaRPr lang="en-US" sz="1200">
-            <a:solidFill>
-              <a:sysClr val="windowText" lastClr="000000"/>
-            </a:solidFill>
-            <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
-            <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
-          </a:endParaRPr>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>302736</xdr:colOff>
-      <xdr:row>45</xdr:row>
-      <xdr:rowOff>111918</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>262949</xdr:colOff>
-      <xdr:row>48</xdr:row>
-      <xdr:rowOff>14471</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="10" name="Rectangle 9"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="8803799" y="8684418"/>
-          <a:ext cx="1781869" cy="474053"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr lang="en-US" sz="1200" baseline="0">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-              <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
-              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
-            </a:rPr>
-            <a:t>Identify path conditions</a:t>
+            <a:t> adjust list</a:t>
           </a:r>
           <a:endParaRPr lang="en-US" sz="1200">
             <a:solidFill>
@@ -3769,14 +3631,14 @@
     <xdr:from>
       <xdr:col>15</xdr:col>
       <xdr:colOff>578147</xdr:colOff>
-      <xdr:row>32</xdr:row>
-      <xdr:rowOff>27776</xdr:rowOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>762</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
       <xdr:colOff>587643</xdr:colOff>
-      <xdr:row>33</xdr:row>
-      <xdr:rowOff>149107</xdr:rowOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>130057</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -3788,8 +3650,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="9722147" y="6123776"/>
-          <a:ext cx="9496" cy="311831"/>
+          <a:off x="9722147" y="7620762"/>
+          <a:ext cx="9496" cy="319795"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -3819,14 +3681,14 @@
     <xdr:from>
       <xdr:col>15</xdr:col>
       <xdr:colOff>579963</xdr:colOff>
-      <xdr:row>36</xdr:row>
-      <xdr:rowOff>15757</xdr:rowOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>187207</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
       <xdr:colOff>587643</xdr:colOff>
-      <xdr:row>37</xdr:row>
-      <xdr:rowOff>90293</xdr:rowOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>147443</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -3838,108 +3700,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipH="1">
-          <a:off x="9723963" y="6873757"/>
-          <a:ext cx="7680" cy="265036"/>
-        </a:xfrm>
-        <a:prstGeom prst="straightConnector1">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln w="25400">
-          <a:tailEnd type="triangle"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>581620</xdr:colOff>
-      <xdr:row>40</xdr:row>
-      <xdr:rowOff>19051</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>587444</xdr:colOff>
-      <xdr:row>41</xdr:row>
-      <xdr:rowOff>101049</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="13" name="Straight Arrow Connector 12"/>
-        <xdr:cNvCxnSpPr>
-          <a:stCxn id="8" idx="2"/>
-          <a:endCxn id="9" idx="0"/>
-        </xdr:cNvCxnSpPr>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="9775316" y="7639051"/>
-          <a:ext cx="5824" cy="272498"/>
-        </a:xfrm>
-        <a:prstGeom prst="straightConnector1">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln w="25400">
-          <a:tailEnd type="triangle"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>587444</xdr:colOff>
-      <xdr:row>44</xdr:row>
-      <xdr:rowOff>32909</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>589299</xdr:colOff>
-      <xdr:row>45</xdr:row>
-      <xdr:rowOff>111918</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="14" name="Straight Arrow Connector 13"/>
-        <xdr:cNvCxnSpPr>
-          <a:stCxn id="9" idx="2"/>
-          <a:endCxn id="10" idx="0"/>
-        </xdr:cNvCxnSpPr>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="9781140" y="8414909"/>
-          <a:ext cx="1855" cy="269509"/>
+          <a:off x="9723963" y="8378707"/>
+          <a:ext cx="7680" cy="341236"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -4851,28 +4613,28 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>17</xdr:col>
-      <xdr:colOff>262949</xdr:colOff>
+      <xdr:colOff>257175</xdr:colOff>
       <xdr:row>46</xdr:row>
-      <xdr:rowOff>158445</xdr:rowOff>
+      <xdr:rowOff>166688</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>19</xdr:col>
       <xdr:colOff>336153</xdr:colOff>
       <xdr:row>46</xdr:row>
-      <xdr:rowOff>166688</xdr:rowOff>
+      <xdr:rowOff>168972</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
         <xdr:cNvPr id="29" name="Straight Arrow Connector 28"/>
         <xdr:cNvCxnSpPr>
-          <a:stCxn id="10" idx="3"/>
+          <a:stCxn id="8" idx="3"/>
           <a:endCxn id="27" idx="1"/>
         </xdr:cNvCxnSpPr>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
-        <a:xfrm>
-          <a:off x="10585668" y="8921445"/>
-          <a:ext cx="1287641" cy="8243"/>
+        <a:xfrm flipV="1">
+          <a:off x="10620375" y="8929688"/>
+          <a:ext cx="1298178" cy="2284"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -4902,13 +4664,13 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>21</xdr:col>
-      <xdr:colOff>486509</xdr:colOff>
+      <xdr:colOff>57884</xdr:colOff>
       <xdr:row>29</xdr:row>
       <xdr:rowOff>133350</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>24</xdr:col>
-      <xdr:colOff>342277</xdr:colOff>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>523252</xdr:colOff>
       <xdr:row>31</xdr:row>
       <xdr:rowOff>57150</xdr:rowOff>
     </xdr:to>
@@ -4919,8 +4681,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="13357683" y="5657850"/>
-          <a:ext cx="1694507" cy="304800"/>
+          <a:off x="12859484" y="5657850"/>
+          <a:ext cx="1684568" cy="304800"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -7196,8 +6958,8 @@
   <sheetPr codeName="Sheet3"/>
   <dimension ref="A1:AH18"/>
   <sheetViews>
-    <sheetView topLeftCell="F1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="U24" sqref="U24"/>
+    <sheetView tabSelected="1" topLeftCell="F25" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="AB46" sqref="AB46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8067,8 +7829,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Z133"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A46" workbookViewId="0">
-      <selection activeCell="O78" sqref="O78"/>
+    <sheetView topLeftCell="A40" workbookViewId="0">
+      <selection activeCell="U65" sqref="U65"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/CFT4CUnitSrc/src/report/GAReport.xlsx
+++ b/CFT4CUnitSrc/src/report/GAReport.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="1185" windowWidth="14805" windowHeight="6720" tabRatio="940" activeTab="2"/>
@@ -1531,11 +1531,11 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.000000000"/>
   </numFmts>
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="6">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -3730,15 +3730,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>19</xdr:col>
-      <xdr:colOff>317163</xdr:colOff>
-      <xdr:row>31</xdr:row>
-      <xdr:rowOff>171450</xdr:rowOff>
+      <xdr:colOff>597311</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>33617</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>22</xdr:col>
-      <xdr:colOff>505257</xdr:colOff>
+      <xdr:colOff>504266</xdr:colOff>
       <xdr:row>34</xdr:row>
-      <xdr:rowOff>28575</xdr:rowOff>
+      <xdr:rowOff>39780</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -3747,8 +3747,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="11899563" y="6076950"/>
-          <a:ext cx="2016894" cy="428625"/>
+          <a:off x="12094546" y="6129617"/>
+          <a:ext cx="1722308" cy="387163"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3803,13 +3803,13 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>19</xdr:col>
-      <xdr:colOff>317163</xdr:colOff>
+      <xdr:colOff>582707</xdr:colOff>
       <xdr:row>35</xdr:row>
       <xdr:rowOff>114300</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>22</xdr:col>
-      <xdr:colOff>514753</xdr:colOff>
+      <xdr:colOff>515471</xdr:colOff>
       <xdr:row>37</xdr:row>
       <xdr:rowOff>123825</xdr:rowOff>
     </xdr:to>
@@ -3820,8 +3820,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="11899563" y="6781800"/>
-          <a:ext cx="2026390" cy="390525"/>
+          <a:off x="12079942" y="6781800"/>
+          <a:ext cx="1748117" cy="390525"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3876,13 +3876,13 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>19</xdr:col>
-      <xdr:colOff>326658</xdr:colOff>
+      <xdr:colOff>582705</xdr:colOff>
       <xdr:row>39</xdr:row>
       <xdr:rowOff>9525</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>22</xdr:col>
-      <xdr:colOff>505256</xdr:colOff>
+      <xdr:colOff>537882</xdr:colOff>
       <xdr:row>41</xdr:row>
       <xdr:rowOff>19050</xdr:rowOff>
     </xdr:to>
@@ -3893,8 +3893,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="11909058" y="7439025"/>
-          <a:ext cx="2007398" cy="390525"/>
+          <a:off x="12079940" y="7439025"/>
+          <a:ext cx="1770530" cy="390525"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3949,15 +3949,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>19</xdr:col>
-      <xdr:colOff>336153</xdr:colOff>
+      <xdr:colOff>582707</xdr:colOff>
       <xdr:row>42</xdr:row>
-      <xdr:rowOff>95250</xdr:rowOff>
+      <xdr:rowOff>72838</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>22</xdr:col>
-      <xdr:colOff>505257</xdr:colOff>
+      <xdr:colOff>538875</xdr:colOff>
       <xdr:row>44</xdr:row>
-      <xdr:rowOff>104775</xdr:rowOff>
+      <xdr:rowOff>82363</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -3966,8 +3966,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="11918553" y="8096250"/>
-          <a:ext cx="1997904" cy="390525"/>
+          <a:off x="12079942" y="8073838"/>
+          <a:ext cx="1771521" cy="390525"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4034,13 +4034,13 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>21</xdr:col>
-      <xdr:colOff>106410</xdr:colOff>
+      <xdr:colOff>246530</xdr:colOff>
       <xdr:row>34</xdr:row>
-      <xdr:rowOff>28575</xdr:rowOff>
+      <xdr:rowOff>39780</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>21</xdr:col>
-      <xdr:colOff>111158</xdr:colOff>
+      <xdr:colOff>248229</xdr:colOff>
       <xdr:row>35</xdr:row>
       <xdr:rowOff>114300</xdr:rowOff>
     </xdr:to>
@@ -4053,9 +4053,9 @@
         </xdr:cNvCxnSpPr>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
-        <a:xfrm>
-          <a:off x="12908010" y="6505575"/>
-          <a:ext cx="4748" cy="276225"/>
+        <a:xfrm flipH="1">
+          <a:off x="12954001" y="6516780"/>
+          <a:ext cx="1699" cy="265020"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -4084,13 +4084,13 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>21</xdr:col>
-      <xdr:colOff>111157</xdr:colOff>
+      <xdr:colOff>246530</xdr:colOff>
       <xdr:row>37</xdr:row>
       <xdr:rowOff>123825</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>21</xdr:col>
-      <xdr:colOff>111158</xdr:colOff>
+      <xdr:colOff>257734</xdr:colOff>
       <xdr:row>39</xdr:row>
       <xdr:rowOff>9525</xdr:rowOff>
     </xdr:to>
@@ -4103,9 +4103,9 @@
         </xdr:cNvCxnSpPr>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
-        <a:xfrm flipH="1">
-          <a:off x="12912757" y="7172325"/>
-          <a:ext cx="1" cy="266700"/>
+        <a:xfrm>
+          <a:off x="12954001" y="7172325"/>
+          <a:ext cx="11204" cy="266700"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -4134,15 +4134,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>21</xdr:col>
-      <xdr:colOff>111157</xdr:colOff>
+      <xdr:colOff>257734</xdr:colOff>
       <xdr:row>41</xdr:row>
       <xdr:rowOff>19050</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>21</xdr:col>
-      <xdr:colOff>115905</xdr:colOff>
+      <xdr:colOff>258232</xdr:colOff>
       <xdr:row>42</xdr:row>
-      <xdr:rowOff>95250</xdr:rowOff>
+      <xdr:rowOff>72838</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -4154,8 +4154,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="12912757" y="7829550"/>
-          <a:ext cx="4748" cy="266700"/>
+          <a:off x="12965205" y="7829550"/>
+          <a:ext cx="498" cy="244288"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -4183,14 +4183,14 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>504502</xdr:colOff>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>190500</xdr:colOff>
       <xdr:row>49</xdr:row>
       <xdr:rowOff>38100</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>23</xdr:col>
-      <xdr:colOff>336910</xdr:colOff>
+      <xdr:colOff>336909</xdr:colOff>
       <xdr:row>51</xdr:row>
       <xdr:rowOff>123825</xdr:rowOff>
     </xdr:to>
@@ -4201,8 +4201,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="11477302" y="9372600"/>
-          <a:ext cx="2880408" cy="466725"/>
+          <a:off x="11687735" y="9372600"/>
+          <a:ext cx="2566880" cy="466725"/>
         </a:xfrm>
         <a:prstGeom prst="flowChartDecision">
           <a:avLst/>
@@ -4281,13 +4281,13 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>21</xdr:col>
-      <xdr:colOff>115905</xdr:colOff>
+      <xdr:colOff>258232</xdr:colOff>
       <xdr:row>44</xdr:row>
-      <xdr:rowOff>104775</xdr:rowOff>
+      <xdr:rowOff>82363</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>21</xdr:col>
-      <xdr:colOff>115905</xdr:colOff>
+      <xdr:colOff>263337</xdr:colOff>
       <xdr:row>45</xdr:row>
       <xdr:rowOff>161925</xdr:rowOff>
     </xdr:to>
@@ -4301,8 +4301,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="12917505" y="8486775"/>
-          <a:ext cx="0" cy="247650"/>
+          <a:off x="12965703" y="8464363"/>
+          <a:ext cx="5105" cy="270062"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -4331,13 +4331,13 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>22</xdr:col>
-      <xdr:colOff>514753</xdr:colOff>
+      <xdr:colOff>515471</xdr:colOff>
       <xdr:row>36</xdr:row>
       <xdr:rowOff>119063</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>23</xdr:col>
-      <xdr:colOff>336910</xdr:colOff>
+      <xdr:colOff>336909</xdr:colOff>
       <xdr:row>50</xdr:row>
       <xdr:rowOff>80963</xdr:rowOff>
     </xdr:to>
@@ -4351,12 +4351,12 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipH="1" flipV="1">
-          <a:off x="13925953" y="6977063"/>
-          <a:ext cx="431757" cy="2628900"/>
+          <a:off x="13828059" y="6977063"/>
+          <a:ext cx="426556" cy="2628900"/>
         </a:xfrm>
         <a:prstGeom prst="bentConnector3">
           <a:avLst>
-            <a:gd name="adj1" fmla="val -52946"/>
+            <a:gd name="adj1" fmla="val -53592"/>
           </a:avLst>
         </a:prstGeom>
         <a:ln w="25400">
@@ -4383,13 +4383,13 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>21</xdr:col>
-      <xdr:colOff>115906</xdr:colOff>
+      <xdr:colOff>122893</xdr:colOff>
       <xdr:row>51</xdr:row>
       <xdr:rowOff>123825</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>21</xdr:col>
-      <xdr:colOff>120653</xdr:colOff>
+      <xdr:colOff>263704</xdr:colOff>
       <xdr:row>53</xdr:row>
       <xdr:rowOff>57150</xdr:rowOff>
     </xdr:to>
@@ -4402,9 +4402,9 @@
         </xdr:cNvCxnSpPr>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
-        <a:xfrm>
-          <a:off x="12917506" y="9839325"/>
-          <a:ext cx="4747" cy="314325"/>
+        <a:xfrm flipH="1">
+          <a:off x="12830364" y="9839325"/>
+          <a:ext cx="140811" cy="314325"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -4497,13 +4497,13 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>19</xdr:col>
-      <xdr:colOff>336153</xdr:colOff>
+      <xdr:colOff>582703</xdr:colOff>
       <xdr:row>45</xdr:row>
       <xdr:rowOff>161925</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>22</xdr:col>
-      <xdr:colOff>505257</xdr:colOff>
+      <xdr:colOff>549089</xdr:colOff>
       <xdr:row>47</xdr:row>
       <xdr:rowOff>171450</xdr:rowOff>
     </xdr:to>
@@ -4514,8 +4514,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="11918553" y="8734425"/>
-          <a:ext cx="1997904" cy="390525"/>
+          <a:off x="12079938" y="8734425"/>
+          <a:ext cx="1781739" cy="390525"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4563,13 +4563,13 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>21</xdr:col>
-      <xdr:colOff>115905</xdr:colOff>
+      <xdr:colOff>263337</xdr:colOff>
       <xdr:row>47</xdr:row>
       <xdr:rowOff>171450</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>21</xdr:col>
-      <xdr:colOff>115906</xdr:colOff>
+      <xdr:colOff>263704</xdr:colOff>
       <xdr:row>49</xdr:row>
       <xdr:rowOff>38100</xdr:rowOff>
     </xdr:to>
@@ -4583,8 +4583,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="12917505" y="9124950"/>
-          <a:ext cx="1" cy="247650"/>
+          <a:off x="12970808" y="9124950"/>
+          <a:ext cx="367" cy="247650"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -4619,7 +4619,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>19</xdr:col>
-      <xdr:colOff>336153</xdr:colOff>
+      <xdr:colOff>582703</xdr:colOff>
       <xdr:row>46</xdr:row>
       <xdr:rowOff>168972</xdr:rowOff>
     </xdr:to>
@@ -4633,8 +4633,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipV="1">
-          <a:off x="10620375" y="8929688"/>
-          <a:ext cx="1298178" cy="2284"/>
+          <a:off x="10544175" y="8929688"/>
+          <a:ext cx="1535763" cy="2284"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -4734,6 +4734,70 @@
     </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>29</xdr:col>
+      <xdr:colOff>519868</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>6163</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="76" name="Rectangle 75"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="16548652" y="7239000"/>
+          <a:ext cx="1745694" cy="387163"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1200">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            </a:rPr>
+            <a:t>Korel formular</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -4812,7 +4876,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -4847,7 +4910,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -5023,7 +5085,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:AP158"/>
   <sheetViews>
@@ -5031,29 +5093,29 @@
       <selection activeCell="F147" sqref="F147"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="10.7109375" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="10.140625" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="9.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10">
       <c r="A1" s="18">
         <v>42502</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10">
       <c r="B2" t="s">
         <v>168</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10">
       <c r="C3" t="s">
         <v>169</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10">
       <c r="C4" t="s">
         <v>180</v>
       </c>
@@ -5061,17 +5123,17 @@
         <v>181</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10">
       <c r="J5" t="s">
         <v>182</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10">
       <c r="B6" t="s">
         <v>171</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10">
       <c r="B7" t="s">
         <v>179</v>
       </c>
@@ -5079,7 +5141,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:10">
       <c r="B8" t="s">
         <v>179</v>
       </c>
@@ -5087,32 +5149,32 @@
         <v>176</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:10">
       <c r="C9" t="s">
         <v>172</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:10">
       <c r="C10" t="s">
         <v>173</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:10">
       <c r="C11" t="s">
         <v>174</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:10">
       <c r="C13" s="1" t="s">
         <v>177</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:10">
       <c r="C14" s="1" t="s">
         <v>178</v>
       </c>
     </row>
-    <row r="17" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:17">
       <c r="A17" s="18">
         <v>42499</v>
       </c>
@@ -5120,7 +5182,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:17">
       <c r="B18" t="s">
         <v>160</v>
       </c>
@@ -5128,7 +5190,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="19" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:17">
       <c r="C19" t="s">
         <v>161</v>
       </c>
@@ -5136,7 +5198,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:17">
       <c r="C20" t="s">
         <v>162</v>
       </c>
@@ -5144,12 +5206,12 @@
         <v>166</v>
       </c>
     </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:17">
       <c r="C21" t="s">
         <v>167</v>
       </c>
     </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:17">
       <c r="B22" t="s">
         <v>164</v>
       </c>
@@ -5160,7 +5222,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="24" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:17">
       <c r="A24" s="18">
         <v>42496</v>
       </c>
@@ -5174,7 +5236,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:17">
       <c r="B25" t="s">
         <v>137</v>
       </c>
@@ -5182,7 +5244,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="26" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:17">
       <c r="B26" t="s">
         <v>135</v>
       </c>
@@ -5193,7 +5255,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="28" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:17">
       <c r="B28" t="s">
         <v>136</v>
       </c>
@@ -5204,12 +5266,12 @@
         <v>152</v>
       </c>
     </row>
-    <row r="29" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:17">
       <c r="B29" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="30" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:17">
       <c r="B30" t="s">
         <v>139</v>
       </c>
@@ -5217,12 +5279,12 @@
         <v>153</v>
       </c>
     </row>
-    <row r="32" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:17">
       <c r="B32" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="33" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:16">
       <c r="C33" t="s">
         <v>140</v>
       </c>
@@ -5230,7 +5292,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="34" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:16">
       <c r="C34" t="s">
         <v>141</v>
       </c>
@@ -5238,7 +5300,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="36" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:16">
       <c r="B36" t="s">
         <v>142</v>
       </c>
@@ -5246,47 +5308,47 @@
         <v>159</v>
       </c>
     </row>
-    <row r="38" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="38" spans="2:16">
       <c r="B38" t="s">
         <v>143</v>
       </c>
     </row>
-    <row r="39" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="39" spans="2:16">
       <c r="B39" t="s">
         <v>144</v>
       </c>
     </row>
-    <row r="41" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="41" spans="2:16">
       <c r="B41" t="s">
         <v>146</v>
       </c>
     </row>
-    <row r="42" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="42" spans="2:16">
       <c r="B42" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="43" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="43" spans="2:16">
       <c r="B43" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="45" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="45" spans="2:16">
       <c r="B45" t="s">
         <v>148</v>
       </c>
     </row>
-    <row r="50" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:10">
       <c r="A50" s="18">
         <v>42494</v>
       </c>
     </row>
-    <row r="51" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:10">
       <c r="B51" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="52" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:10">
       <c r="C52" t="s">
         <v>1</v>
       </c>
@@ -5294,7 +5356,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="54" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:10">
       <c r="C54" s="5" t="s">
         <v>3</v>
       </c>
@@ -5302,44 +5364,44 @@
         <v>123</v>
       </c>
     </row>
-    <row r="55" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:10">
       <c r="D55" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="56" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:10">
       <c r="E56" s="25" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="57" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:10">
       <c r="E57" s="25"/>
     </row>
-    <row r="58" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:10">
       <c r="B58" s="5" t="s">
         <v>134</v>
       </c>
       <c r="E58" s="25"/>
     </row>
-    <row r="59" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:10">
       <c r="C59" t="s">
         <v>124</v>
       </c>
       <c r="E59" s="25"/>
     </row>
-    <row r="60" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:10">
       <c r="C60" t="s">
         <v>125</v>
       </c>
       <c r="E60" s="25"/>
     </row>
-    <row r="61" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:10">
       <c r="D61" t="s">
         <v>126</v>
       </c>
       <c r="E61" s="25"/>
     </row>
-    <row r="62" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:10">
       <c r="E62" s="26" t="s">
         <v>127</v>
       </c>
@@ -5350,7 +5412,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="63" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:10">
       <c r="E63" s="27">
         <v>1.1000000000000001</v>
       </c>
@@ -5361,7 +5423,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="64" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:10">
       <c r="E64" s="27">
         <v>1.1100000000000001</v>
       </c>
@@ -5378,7 +5440,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="65" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:7">
       <c r="E65" s="27">
         <v>1.3</v>
       </c>
@@ -5389,21 +5451,21 @@
         <v>1</v>
       </c>
     </row>
-    <row r="66" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:7">
       <c r="D66" t="s">
         <v>132</v>
       </c>
       <c r="E66" s="27"/>
     </row>
-    <row r="67" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:7">
       <c r="E67" s="27" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="68" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:7">
       <c r="E68" s="27"/>
     </row>
-    <row r="69" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:7">
       <c r="C69" t="s">
         <v>5</v>
       </c>
@@ -5411,57 +5473,57 @@
         <v>116</v>
       </c>
     </row>
-    <row r="71" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:7">
       <c r="B71" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="72" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:7">
       <c r="B72" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="74" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:7">
       <c r="B74" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="75" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:7">
       <c r="B75" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="77" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:7">
       <c r="A77" s="18">
         <v>42488</v>
       </c>
     </row>
-    <row r="78" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:7">
       <c r="B78" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="79" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:7">
       <c r="C79" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="80" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:7">
       <c r="C80" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="81" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:42">
       <c r="C81" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="82" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:42">
       <c r="C82" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="83" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:42">
       <c r="B83" s="5" t="s">
         <v>113</v>
       </c>
@@ -5474,12 +5536,12 @@
       <c r="I83" s="5"/>
       <c r="J83" s="5"/>
     </row>
-    <row r="85" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:42">
       <c r="A85" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="87" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:42">
       <c r="B87" t="s">
         <v>1</v>
       </c>
@@ -5487,7 +5549,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="89" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:42">
       <c r="B89" t="s">
         <v>3</v>
       </c>
@@ -5495,12 +5557,12 @@
         <v>6</v>
       </c>
     </row>
-    <row r="90" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:42">
       <c r="C90" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="92" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:42">
       <c r="B92" t="s">
         <v>5</v>
       </c>
@@ -5508,12 +5570,12 @@
         <v>8</v>
       </c>
     </row>
-    <row r="93" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:42">
       <c r="C93" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="94" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:42">
       <c r="C94" s="6" t="s">
         <v>52</v>
       </c>
@@ -5547,7 +5609,7 @@
         <v>42483</v>
       </c>
     </row>
-    <row r="95" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:42">
       <c r="C95" s="6" t="s">
         <v>53</v>
       </c>
@@ -5579,7 +5641,7 @@
       <c r="AO95" s="5"/>
       <c r="AP95" s="5"/>
     </row>
-    <row r="96" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:42">
       <c r="C96" t="s">
         <v>14</v>
       </c>
@@ -5593,29 +5655,29 @@
       <c r="AO96" s="5"/>
       <c r="AP96" s="5"/>
     </row>
-    <row r="97" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="97" spans="2:11">
       <c r="C97" s="1"/>
       <c r="D97" s="1" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="98" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="98" spans="2:11">
       <c r="C98" s="1"/>
       <c r="D98" s="1" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="100" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="100" spans="2:11">
       <c r="C100" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="101" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="101" spans="2:11">
       <c r="C101" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="103" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="103" spans="2:11">
       <c r="B103" t="s">
         <v>7</v>
       </c>
@@ -5623,12 +5685,12 @@
         <v>16</v>
       </c>
     </row>
-    <row r="105" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="105" spans="2:11">
       <c r="C105" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="107" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="107" spans="2:11">
       <c r="B107" t="s">
         <v>17</v>
       </c>
@@ -5636,7 +5698,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="108" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="108" spans="2:11">
       <c r="D108" s="5" t="s">
         <v>50</v>
       </c>
@@ -5654,7 +5716,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="109" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="109" spans="2:11">
       <c r="C109" t="s">
         <v>19</v>
       </c>
@@ -5662,12 +5724,12 @@
         <v>20</v>
       </c>
     </row>
-    <row r="110" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="110" spans="2:11">
       <c r="D110" s="3" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="112" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="112" spans="2:11">
       <c r="B112" t="s">
         <v>22</v>
       </c>
@@ -5675,12 +5737,12 @@
         <v>21</v>
       </c>
     </row>
-    <row r="114" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:24">
       <c r="A114" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="115" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:24">
       <c r="B115" t="s">
         <v>48</v>
       </c>
@@ -5702,7 +5764,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="116" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:24">
       <c r="B116" t="s">
         <v>46</v>
       </c>
@@ -5716,7 +5778,7 @@
         <v>42480</v>
       </c>
     </row>
-    <row r="117" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:24">
       <c r="B117" t="s">
         <v>49</v>
       </c>
@@ -5730,14 +5792,14 @@
         <v>42480</v>
       </c>
     </row>
-    <row r="118" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:24">
       <c r="M118" s="6"/>
       <c r="N118" s="6"/>
       <c r="O118" s="6"/>
       <c r="P118" s="6"/>
       <c r="S118" s="8"/>
     </row>
-    <row r="119" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:24">
       <c r="F119" s="9" t="s">
         <v>69</v>
       </c>
@@ -5750,7 +5812,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="120" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:24">
       <c r="A120" t="s">
         <v>47</v>
       </c>
@@ -5773,7 +5835,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="121" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:24">
       <c r="A121" s="4" t="s">
         <v>23</v>
       </c>
@@ -5793,7 +5855,7 @@
       <c r="O121" s="4"/>
       <c r="P121" s="4"/>
     </row>
-    <row r="122" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:24">
       <c r="A122" s="4" t="s">
         <v>24</v>
       </c>
@@ -5813,7 +5875,7 @@
       <c r="O122" s="4"/>
       <c r="P122" s="4"/>
     </row>
-    <row r="123" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:24">
       <c r="A123" t="s">
         <v>25</v>
       </c>
@@ -5833,12 +5895,12 @@
       </c>
       <c r="V123" s="9"/>
     </row>
-    <row r="124" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:24">
       <c r="A124" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="125" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:24">
       <c r="A125" s="4" t="s">
         <v>42</v>
       </c>
@@ -5858,7 +5920,7 @@
       <c r="O125" s="4"/>
       <c r="P125" s="4"/>
     </row>
-    <row r="126" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:24">
       <c r="A126" s="4" t="s">
         <v>27</v>
       </c>
@@ -5878,12 +5940,12 @@
       <c r="O126" s="4"/>
       <c r="P126" s="4"/>
     </row>
-    <row r="127" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:24">
       <c r="A127" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="128" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:24">
       <c r="A128" s="4" t="s">
         <v>45</v>
       </c>
@@ -5903,83 +5965,83 @@
       <c r="O128" s="4"/>
       <c r="P128" s="4"/>
     </row>
-    <row r="129" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:2">
       <c r="A129" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="130" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:2">
       <c r="A130" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="131" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:2">
       <c r="A131" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="132" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:2">
       <c r="A132" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="133" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:2">
       <c r="A133" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="134" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:2">
       <c r="A134" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="135" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:2">
       <c r="A135" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="136" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:2">
       <c r="A136" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="137" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:2">
       <c r="A137" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="138" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:2">
       <c r="A138" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="139" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:2">
       <c r="A139" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="140" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:2">
       <c r="A140" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="141" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:2">
       <c r="A141" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="144" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:2">
       <c r="A144" s="13" t="s">
         <v>70</v>
       </c>
       <c r="B144" s="13"/>
     </row>
-    <row r="145" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="145" spans="2:11">
       <c r="B145" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="146" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="146" spans="2:11">
       <c r="B146" s="5" t="s">
         <v>80</v>
       </c>
@@ -5989,32 +6051,32 @@
       <c r="D146" s="5"/>
       <c r="E146" s="5"/>
     </row>
-    <row r="147" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="147" spans="2:11">
       <c r="B147" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="148" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="148" spans="2:11">
       <c r="C148" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="149" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="149" spans="2:11">
       <c r="B149" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="151" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="151" spans="2:11">
       <c r="B151" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="152" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="152" spans="2:11">
       <c r="B152" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="154" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="154" spans="2:11">
       <c r="B154" s="5" t="s">
         <v>84</v>
       </c>
@@ -6029,12 +6091,12 @@
         <v>42483</v>
       </c>
     </row>
-    <row r="157" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="157" spans="2:11">
       <c r="B157" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="158" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="158" spans="2:11">
       <c r="B158" t="s">
         <v>86</v>
       </c>
@@ -6049,7 +6111,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:R95"/>
   <sheetViews>
@@ -6057,7 +6119,7 @@
       <selection activeCell="H60" sqref="H60"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="2" max="2" width="5" style="10" customWidth="1"/>
     <col min="3" max="3" width="30.140625" bestFit="1" customWidth="1"/>
@@ -6072,7 +6134,7 @@
     <col min="12" max="12" width="14.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:18">
       <c r="A1" s="7" t="s">
         <v>59</v>
       </c>
@@ -6081,7 +6143,7 @@
       <c r="D1" s="7"/>
       <c r="E1" s="11"/>
     </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:18">
       <c r="B2" s="17" t="s">
         <v>65</v>
       </c>
@@ -6119,7 +6181,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:18">
       <c r="B3" s="14">
         <v>1</v>
       </c>
@@ -6163,7 +6225,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:18">
       <c r="B4" s="14">
         <f>B3+1</f>
         <v>2</v>
@@ -6197,7 +6259,7 @@
       </c>
       <c r="L4" s="15"/>
     </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:18">
       <c r="B5" s="14">
         <f t="shared" ref="B5:B19" si="0">B4+1</f>
         <v>3</v>
@@ -6231,7 +6293,7 @@
       </c>
       <c r="L5" s="15"/>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:18">
       <c r="B6" s="14">
         <f t="shared" si="0"/>
         <v>4</v>
@@ -6268,7 +6330,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:18">
       <c r="B7" s="14">
         <f t="shared" si="0"/>
         <v>5</v>
@@ -6309,7 +6371,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:18">
       <c r="B8" s="14">
         <f t="shared" si="0"/>
         <v>6</v>
@@ -6351,7 +6413,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:18">
       <c r="B9" s="14">
         <f t="shared" si="0"/>
         <v>7</v>
@@ -6391,7 +6453,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:18">
       <c r="B10" s="14">
         <f t="shared" si="0"/>
         <v>8</v>
@@ -6431,7 +6493,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:18">
       <c r="B11" s="14">
         <f t="shared" si="0"/>
         <v>9</v>
@@ -6447,7 +6509,7 @@
       <c r="K11" s="15"/>
       <c r="L11" s="15"/>
     </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:18">
       <c r="B12" s="14">
         <f t="shared" si="0"/>
         <v>10</v>
@@ -6463,7 +6525,7 @@
       <c r="K12" s="15"/>
       <c r="L12" s="15"/>
     </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:18">
       <c r="B13" s="14">
         <f t="shared" si="0"/>
         <v>11</v>
@@ -6479,7 +6541,7 @@
       <c r="K13" s="15"/>
       <c r="L13" s="15"/>
     </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:18">
       <c r="B14" s="14">
         <f t="shared" si="0"/>
         <v>12</v>
@@ -6495,7 +6557,7 @@
       <c r="K14" s="15"/>
       <c r="L14" s="15"/>
     </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:18">
       <c r="B15" s="14">
         <f t="shared" si="0"/>
         <v>13</v>
@@ -6511,7 +6573,7 @@
       <c r="K15" s="15"/>
       <c r="L15" s="15"/>
     </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:18">
       <c r="B16" s="14">
         <f t="shared" si="0"/>
         <v>14</v>
@@ -6527,7 +6589,7 @@
       <c r="K16" s="15"/>
       <c r="L16" s="15"/>
     </row>
-    <row r="17" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:12">
       <c r="B17" s="14">
         <f t="shared" si="0"/>
         <v>15</v>
@@ -6543,7 +6605,7 @@
       <c r="K17" s="15"/>
       <c r="L17" s="15"/>
     </row>
-    <row r="18" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:12">
       <c r="B18" s="14">
         <f t="shared" si="0"/>
         <v>16</v>
@@ -6559,7 +6621,7 @@
       <c r="K18" s="15"/>
       <c r="L18" s="15"/>
     </row>
-    <row r="19" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:12">
       <c r="B19" s="14">
         <f t="shared" si="0"/>
         <v>17</v>
@@ -6575,12 +6637,12 @@
       <c r="K19" s="15"/>
       <c r="L19" s="15"/>
     </row>
-    <row r="22" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:12">
       <c r="C22" t="s">
         <v>183</v>
       </c>
     </row>
-    <row r="23" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:12">
       <c r="C23" t="s">
         <v>184</v>
       </c>
@@ -6599,7 +6661,7 @@
       </c>
       <c r="L23" s="47"/>
     </row>
-    <row r="24" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:12">
       <c r="G24" s="49"/>
       <c r="H24" s="51"/>
       <c r="I24" s="14" t="s">
@@ -6615,7 +6677,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="25" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:12">
       <c r="G25" s="33" t="s">
         <v>110</v>
       </c>
@@ -6631,7 +6693,7 @@
       <c r="K25" s="32"/>
       <c r="L25" s="32"/>
     </row>
-    <row r="26" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:12">
       <c r="G26" s="37"/>
       <c r="H26" s="38"/>
       <c r="I26" s="32">
@@ -6643,7 +6705,7 @@
       <c r="K26" s="32"/>
       <c r="L26" s="32"/>
     </row>
-    <row r="27" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:12">
       <c r="G27" s="37"/>
       <c r="H27" s="38"/>
       <c r="I27" s="32">
@@ -6655,7 +6717,7 @@
       <c r="K27" s="32"/>
       <c r="L27" s="32"/>
     </row>
-    <row r="28" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:12">
       <c r="G28" s="37"/>
       <c r="H28" s="38"/>
       <c r="I28" s="32">
@@ -6667,7 +6729,7 @@
       <c r="K28" s="32"/>
       <c r="L28" s="32"/>
     </row>
-    <row r="29" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:12">
       <c r="G29" s="37"/>
       <c r="H29" s="38"/>
       <c r="I29" s="32"/>
@@ -6675,7 +6737,7 @@
       <c r="K29" s="32"/>
       <c r="L29" s="32"/>
     </row>
-    <row r="30" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:12">
       <c r="G30" s="37"/>
       <c r="H30" s="38"/>
       <c r="I30" s="32"/>
@@ -6683,7 +6745,7 @@
       <c r="K30" s="32"/>
       <c r="L30" s="32"/>
     </row>
-    <row r="31" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:12">
       <c r="G31" s="35"/>
       <c r="H31" s="36"/>
       <c r="I31" s="32"/>
@@ -6691,7 +6753,7 @@
       <c r="K31" s="32"/>
       <c r="L31" s="32"/>
     </row>
-    <row r="32" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:12">
       <c r="G32" s="15" t="s">
         <v>109</v>
       </c>
@@ -6701,7 +6763,7 @@
       <c r="K32" s="32"/>
       <c r="L32" s="32"/>
     </row>
-    <row r="33" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:12">
       <c r="G33" s="15"/>
       <c r="H33" s="32"/>
       <c r="I33" s="32"/>
@@ -6709,7 +6771,7 @@
       <c r="K33" s="32"/>
       <c r="L33" s="32"/>
     </row>
-    <row r="34" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:12">
       <c r="G34" s="15"/>
       <c r="H34" s="32"/>
       <c r="I34" s="32"/>
@@ -6717,7 +6779,7 @@
       <c r="K34" s="32"/>
       <c r="L34" s="32"/>
     </row>
-    <row r="35" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:12">
       <c r="G35" s="15"/>
       <c r="H35" s="32"/>
       <c r="I35" s="32"/>
@@ -6725,7 +6787,7 @@
       <c r="K35" s="32"/>
       <c r="L35" s="32"/>
     </row>
-    <row r="36" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:12">
       <c r="G36" s="15" t="s">
         <v>195</v>
       </c>
@@ -6745,7 +6807,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:12">
       <c r="G37" s="15"/>
       <c r="H37" s="32"/>
       <c r="I37" s="32">
@@ -6761,7 +6823,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="38" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:12">
       <c r="G38" s="15"/>
       <c r="H38" s="32"/>
       <c r="I38" s="32"/>
@@ -6773,7 +6835,7 @@
         <v>462</v>
       </c>
     </row>
-    <row r="39" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:12">
       <c r="G39" s="15"/>
       <c r="H39" s="32"/>
       <c r="I39" s="32"/>
@@ -6785,7 +6847,7 @@
         <v>57595</v>
       </c>
     </row>
-    <row r="40" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:12">
       <c r="G40" s="15" t="s">
         <v>111</v>
       </c>
@@ -6795,7 +6857,7 @@
       <c r="K40" s="32"/>
       <c r="L40" s="32"/>
     </row>
-    <row r="41" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:12">
       <c r="G41" s="15"/>
       <c r="H41" s="32"/>
       <c r="I41" s="32"/>
@@ -6803,14 +6865,14 @@
       <c r="K41" s="32"/>
       <c r="L41" s="32"/>
     </row>
-    <row r="42" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:12">
       <c r="H42" s="31"/>
       <c r="I42" s="31"/>
       <c r="J42" s="31"/>
       <c r="K42" s="31"/>
       <c r="L42" s="31"/>
     </row>
-    <row r="43" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:12">
       <c r="A43" t="s">
         <v>198</v>
       </c>
@@ -6820,7 +6882,7 @@
       <c r="K43" s="31"/>
       <c r="L43" s="31"/>
     </row>
-    <row r="44" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:12">
       <c r="C44" t="s">
         <v>199</v>
       </c>
@@ -6830,7 +6892,7 @@
       <c r="K44" s="31"/>
       <c r="L44" s="31"/>
     </row>
-    <row r="45" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:12">
       <c r="C45" t="s">
         <v>200</v>
       </c>
@@ -6841,7 +6903,7 @@
       <c r="I45" s="30"/>
       <c r="J45" s="30"/>
     </row>
-    <row r="46" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:12">
       <c r="C46" t="s">
         <v>202</v>
       </c>
@@ -6849,7 +6911,7 @@
       <c r="I46" s="30"/>
       <c r="J46" s="30"/>
     </row>
-    <row r="47" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:12">
       <c r="C47" t="s">
         <v>208</v>
       </c>
@@ -6860,17 +6922,17 @@
       <c r="I47" s="30"/>
       <c r="J47" s="30"/>
     </row>
-    <row r="48" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:12">
       <c r="C48" t="s">
         <v>212</v>
       </c>
     </row>
-    <row r="50" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:10">
       <c r="A50" t="s">
         <v>203</v>
       </c>
     </row>
-    <row r="51" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:10">
       <c r="A51" t="s">
         <v>158</v>
       </c>
@@ -6878,7 +6940,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="52" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:10">
       <c r="A52" t="s">
         <v>158</v>
       </c>
@@ -6895,7 +6957,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="53" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:10">
       <c r="B53" s="39" t="s">
         <v>206</v>
       </c>
@@ -6903,41 +6965,41 @@
         <v>211</v>
       </c>
     </row>
-    <row r="54" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:10">
       <c r="B54" s="39" t="s">
         <v>213</v>
       </c>
     </row>
-    <row r="55" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:10">
       <c r="B55" s="39" t="s">
         <v>214</v>
       </c>
     </row>
-    <row r="56" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:10">
       <c r="B56" s="39"/>
       <c r="J56" s="40"/>
     </row>
-    <row r="57" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:10">
       <c r="J57" s="40"/>
     </row>
-    <row r="58" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:10">
       <c r="H58"/>
       <c r="J58" s="40"/>
     </row>
-    <row r="59" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:10">
       <c r="H59"/>
       <c r="J59" s="40"/>
     </row>
-    <row r="60" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:10">
       <c r="H60"/>
     </row>
-    <row r="61" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:10">
       <c r="H61"/>
     </row>
-    <row r="62" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:10">
       <c r="H62"/>
     </row>
-    <row r="95" spans="16:16" x14ac:dyDescent="0.25">
+    <row r="95" spans="16:16">
       <c r="P95" s="41"/>
     </row>
   </sheetData>
@@ -6954,30 +7016,30 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr codeName="Sheet3"/>
   <dimension ref="A1:AH18"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F25" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="AB46" sqref="AB46"/>
+    <sheetView tabSelected="1" topLeftCell="M30" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="AC44" sqref="AC44"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="16384" width="9.140625" style="42"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:34">
       <c r="A1" s="43" t="s">
         <v>219</v>
       </c>
     </row>
-    <row r="2" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:34">
       <c r="O2" s="42" t="s">
         <v>215</v>
       </c>
     </row>
-    <row r="3" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:34">
       <c r="A3" s="42" t="s">
         <v>220</v>
       </c>
@@ -6985,7 +7047,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="4" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:34">
       <c r="P4" s="42" t="s">
         <v>218</v>
       </c>
@@ -6999,12 +7061,12 @@
       <c r="AG4" s="5"/>
       <c r="AH4" s="5"/>
     </row>
-    <row r="5" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:34">
       <c r="A5" s="42" t="s">
         <v>221</v>
       </c>
     </row>
-    <row r="6" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:34">
       <c r="B6" s="42" t="s">
         <v>224</v>
       </c>
@@ -7012,42 +7074,42 @@
         <v>225</v>
       </c>
     </row>
-    <row r="7" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:34">
       <c r="A7" s="42" t="s">
         <v>222</v>
       </c>
     </row>
-    <row r="8" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:34">
       <c r="B8" s="42" t="s">
         <v>223</v>
       </c>
     </row>
-    <row r="12" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:34">
       <c r="O12" s="42" t="s">
         <v>216</v>
       </c>
     </row>
-    <row r="13" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:34">
       <c r="P13" s="42" t="s">
         <v>217</v>
       </c>
     </row>
-    <row r="14" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:34">
       <c r="Q14" s="42" t="s">
         <v>226</v>
       </c>
     </row>
-    <row r="16" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:34">
       <c r="P16" s="42" t="s">
         <v>227</v>
       </c>
     </row>
-    <row r="17" spans="4:16" x14ac:dyDescent="0.25">
+    <row r="17" spans="4:16">
       <c r="P17" s="42" t="s">
         <v>228</v>
       </c>
     </row>
-    <row r="18" spans="4:16" x14ac:dyDescent="0.25">
+    <row r="18" spans="4:16">
       <c r="D18" s="44"/>
     </row>
   </sheetData>
@@ -7058,7 +7120,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr codeName="Sheet4"/>
   <dimension ref="A1:AF109"/>
   <sheetViews>
@@ -7066,14 +7128,14 @@
       <selection activeCell="G52" sqref="G52"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:31">
       <c r="A1" t="s">
         <v>230</v>
       </c>
     </row>
-    <row r="2" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:31">
       <c r="B2" s="25" t="s">
         <v>229</v>
       </c>
@@ -7081,7 +7143,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="4" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:31">
       <c r="A4" t="s">
         <v>231</v>
       </c>
@@ -7089,7 +7151,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="7" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:31">
       <c r="A7" t="s">
         <v>234</v>
       </c>
@@ -7097,7 +7159,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="8" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:31">
       <c r="B8" s="25" t="s">
         <v>233</v>
       </c>
@@ -7113,7 +7175,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="9" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:31">
       <c r="B9" t="s">
         <v>235</v>
       </c>
@@ -7127,7 +7189,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="10" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:31">
       <c r="C10" s="3" t="s">
         <v>236</v>
       </c>
@@ -7141,7 +7203,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="11" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:31">
       <c r="C11" s="3" t="s">
         <v>237</v>
       </c>
@@ -7159,7 +7221,7 @@
       </c>
       <c r="AE11" s="5"/>
     </row>
-    <row r="12" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:31">
       <c r="R12" t="s">
         <v>252</v>
       </c>
@@ -7170,7 +7232,7 @@
         <v>287</v>
       </c>
     </row>
-    <row r="13" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:31">
       <c r="A13" t="s">
         <v>239</v>
       </c>
@@ -7184,7 +7246,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="14" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:31">
       <c r="B14" s="4" t="s">
         <v>240</v>
       </c>
@@ -7207,7 +7269,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="15" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:31">
       <c r="C15" t="s">
         <v>244</v>
       </c>
@@ -7227,7 +7289,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="16" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:31">
       <c r="C16" t="s">
         <v>246</v>
       </c>
@@ -7244,7 +7306,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="17" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:32">
       <c r="B17" s="4" t="s">
         <v>241</v>
       </c>
@@ -7269,7 +7331,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="18" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:32">
       <c r="C18" t="s">
         <v>247</v>
       </c>
@@ -7283,7 +7345,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="19" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:32">
       <c r="R19" t="s">
         <v>259</v>
       </c>
@@ -7291,7 +7353,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="20" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:32">
       <c r="R20" t="s">
         <v>260</v>
       </c>
@@ -7302,12 +7364,12 @@
         <v>295</v>
       </c>
     </row>
-    <row r="21" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:32">
       <c r="R21" t="s">
         <v>261</v>
       </c>
     </row>
-    <row r="22" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:32">
       <c r="B22" t="s">
         <v>242</v>
       </c>
@@ -7321,7 +7383,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="23" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:32">
       <c r="R23" t="s">
         <v>263</v>
       </c>
@@ -7329,7 +7391,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="24" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:32">
       <c r="R24" t="s">
         <v>264</v>
       </c>
@@ -7337,7 +7399,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="25" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:32">
       <c r="R25" t="s">
         <v>265</v>
       </c>
@@ -7347,7 +7409,7 @@
       <c r="AE25" s="5"/>
       <c r="AF25" s="5"/>
     </row>
-    <row r="26" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:32">
       <c r="R26" t="s">
         <v>266</v>
       </c>
@@ -7355,7 +7417,7 @@
         <v>298</v>
       </c>
     </row>
-    <row r="27" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:32">
       <c r="A27" s="13" t="s">
         <v>305</v>
       </c>
@@ -7371,7 +7433,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="28" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:32">
       <c r="B28" t="s">
         <v>306</v>
       </c>
@@ -7382,7 +7444,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="29" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:32">
       <c r="B29" t="s">
         <v>307</v>
       </c>
@@ -7393,7 +7455,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="30" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:32">
       <c r="B30" t="s">
         <v>308</v>
       </c>
@@ -7404,7 +7466,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="31" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:32">
       <c r="C31" t="s">
         <v>309</v>
       </c>
@@ -7412,7 +7474,7 @@
         <v>302</v>
       </c>
     </row>
-    <row r="32" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:32">
       <c r="C32" t="s">
         <v>310</v>
       </c>
@@ -7420,7 +7482,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="33" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:30">
       <c r="B33" t="s">
         <v>311</v>
       </c>
@@ -7428,7 +7490,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="34" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:30">
       <c r="B34" t="s">
         <v>312</v>
       </c>
@@ -7436,72 +7498,72 @@
         <v>295</v>
       </c>
     </row>
-    <row r="35" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:30">
       <c r="C35" t="s">
         <v>313</v>
       </c>
     </row>
-    <row r="36" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:30">
       <c r="D36" t="s">
         <v>314</v>
       </c>
     </row>
-    <row r="37" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:30">
       <c r="D37" t="s">
         <v>315</v>
       </c>
     </row>
-    <row r="38" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:30">
       <c r="C38" t="s">
         <v>311</v>
       </c>
     </row>
-    <row r="39" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:30">
       <c r="C39" t="s">
         <v>316</v>
       </c>
     </row>
-    <row r="40" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:30">
       <c r="D40" t="s">
         <v>314</v>
       </c>
     </row>
-    <row r="41" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:30">
       <c r="D41" t="s">
         <v>315</v>
       </c>
     </row>
-    <row r="42" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:30">
       <c r="C42" t="s">
         <v>311</v>
       </c>
     </row>
-    <row r="43" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:30">
       <c r="C43" t="s">
         <v>317</v>
       </c>
     </row>
-    <row r="44" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:30">
       <c r="C44" t="s">
         <v>318</v>
       </c>
     </row>
-    <row r="45" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:30">
       <c r="C45" t="s">
         <v>319</v>
       </c>
     </row>
-    <row r="46" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:30">
       <c r="B46" t="s">
         <v>311</v>
       </c>
     </row>
-    <row r="47" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:30">
       <c r="A47" t="s">
         <v>311</v>
       </c>
     </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:7">
       <c r="A49" s="13" t="s">
         <v>320</v>
       </c>
@@ -7511,17 +7573,17 @@
       <c r="E49" s="13"/>
       <c r="F49" s="13"/>
     </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:7">
       <c r="B50" t="s">
         <v>321</v>
       </c>
     </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:7">
       <c r="B51" t="s">
         <v>322</v>
       </c>
     </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:7">
       <c r="B52" s="5" t="s">
         <v>323</v>
       </c>
@@ -7530,32 +7592,32 @@
         <v>324</v>
       </c>
     </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:7">
       <c r="C53" t="s">
         <v>325</v>
       </c>
     </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:7">
       <c r="D54" t="s">
         <v>326</v>
       </c>
     </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:7">
       <c r="E55" t="s">
         <v>327</v>
       </c>
     </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:7">
       <c r="B56" t="s">
         <v>322</v>
       </c>
     </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:7">
       <c r="A57" t="s">
         <v>311</v>
       </c>
     </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:7">
       <c r="A59" s="13" t="s">
         <v>328</v>
       </c>
@@ -7565,62 +7627,62 @@
       <c r="E59" s="13"/>
       <c r="F59" s="13"/>
     </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:7">
       <c r="A60" t="s">
         <v>329</v>
       </c>
     </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:7">
       <c r="A61" t="s">
         <v>330</v>
       </c>
     </row>
-    <row r="62" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:7">
       <c r="A62" t="s">
         <v>331</v>
       </c>
     </row>
-    <row r="63" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:7">
       <c r="A63" t="s">
         <v>332</v>
       </c>
     </row>
-    <row r="64" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:7">
       <c r="A64" t="s">
         <v>333</v>
       </c>
     </row>
-    <row r="65" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:9">
       <c r="A65" t="s">
         <v>334</v>
       </c>
     </row>
-    <row r="66" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:9">
       <c r="A66" t="s">
         <v>335</v>
       </c>
     </row>
-    <row r="67" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:9">
       <c r="A67" t="s">
         <v>334</v>
       </c>
     </row>
-    <row r="68" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:9">
       <c r="A68" t="s">
         <v>336</v>
       </c>
     </row>
-    <row r="69" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:9">
       <c r="A69" t="s">
         <v>337</v>
       </c>
     </row>
-    <row r="70" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:9">
       <c r="A70" t="s">
         <v>338</v>
       </c>
     </row>
-    <row r="71" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:9">
       <c r="A71" t="s">
         <v>339</v>
       </c>
@@ -7628,7 +7690,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="72" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:9">
       <c r="A72" t="s">
         <v>340</v>
       </c>
@@ -7636,182 +7698,182 @@
         <v>372</v>
       </c>
     </row>
-    <row r="73" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:9">
       <c r="A73" t="s">
         <v>341</v>
       </c>
     </row>
-    <row r="74" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:9">
       <c r="A74" t="s">
         <v>342</v>
       </c>
     </row>
-    <row r="75" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:9">
       <c r="A75" t="s">
         <v>343</v>
       </c>
     </row>
-    <row r="76" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:9">
       <c r="A76" t="s">
         <v>344</v>
       </c>
     </row>
-    <row r="77" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:9">
       <c r="A77" t="s">
         <v>345</v>
       </c>
     </row>
-    <row r="78" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:9">
       <c r="A78" t="s">
         <v>341</v>
       </c>
     </row>
-    <row r="79" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:9">
       <c r="A79" t="s">
         <v>346</v>
       </c>
     </row>
-    <row r="80" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:9">
       <c r="A80" t="s">
         <v>347</v>
       </c>
     </row>
-    <row r="81" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:1">
       <c r="A81" t="s">
         <v>348</v>
       </c>
     </row>
-    <row r="82" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:1">
       <c r="A82" t="s">
         <v>349</v>
       </c>
     </row>
-    <row r="83" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:1">
       <c r="A83" t="s">
         <v>350</v>
       </c>
     </row>
-    <row r="84" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:1">
       <c r="A84" t="s">
         <v>351</v>
       </c>
     </row>
-    <row r="85" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:1">
       <c r="A85" t="s">
         <v>352</v>
       </c>
     </row>
-    <row r="86" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:1">
       <c r="A86" t="s">
         <v>348</v>
       </c>
     </row>
-    <row r="87" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:1">
       <c r="A87" t="s">
         <v>353</v>
       </c>
     </row>
-    <row r="88" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:1">
       <c r="A88" t="s">
         <v>354</v>
       </c>
     </row>
-    <row r="89" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:1">
       <c r="A89" t="s">
         <v>355</v>
       </c>
     </row>
-    <row r="90" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:1">
       <c r="A90" t="s">
         <v>356</v>
       </c>
     </row>
-    <row r="91" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:1">
       <c r="A91" t="s">
         <v>357</v>
       </c>
     </row>
-    <row r="92" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:1">
       <c r="A92" t="s">
         <v>358</v>
       </c>
     </row>
-    <row r="93" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:1">
       <c r="A93" t="s">
         <v>359</v>
       </c>
     </row>
-    <row r="94" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:1">
       <c r="A94" t="s">
         <v>360</v>
       </c>
     </row>
-    <row r="95" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:1">
       <c r="A95" t="s">
         <v>361</v>
       </c>
     </row>
-    <row r="96" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:1">
       <c r="A96" t="s">
         <v>362</v>
       </c>
     </row>
-    <row r="97" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:1">
       <c r="A97" t="s">
         <v>363</v>
       </c>
     </row>
-    <row r="98" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:1">
       <c r="A98" t="s">
         <v>351</v>
       </c>
     </row>
-    <row r="99" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:1">
       <c r="A99" t="s">
         <v>344</v>
       </c>
     </row>
-    <row r="100" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:1">
       <c r="A100" t="s">
         <v>364</v>
       </c>
     </row>
-    <row r="101" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:1">
       <c r="A101" t="s">
         <v>365</v>
       </c>
     </row>
-    <row r="102" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:1">
       <c r="A102" t="s">
         <v>338</v>
       </c>
     </row>
-    <row r="103" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:1">
       <c r="A103" t="s">
         <v>366</v>
       </c>
     </row>
-    <row r="104" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:1">
       <c r="A104" t="s">
         <v>367</v>
       </c>
     </row>
-    <row r="105" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:1">
       <c r="A105" t="s">
         <v>364</v>
       </c>
     </row>
-    <row r="107" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:1">
       <c r="A107" t="s">
         <v>368</v>
       </c>
     </row>
-    <row r="108" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:1">
       <c r="A108" t="s">
         <v>369</v>
       </c>
     </row>
-    <row r="109" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:1">
       <c r="A109" t="s">
         <v>370</v>
       </c>
@@ -7826,16 +7888,16 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:Z133"/>
   <sheetViews>
     <sheetView topLeftCell="A40" workbookViewId="0">
       <selection activeCell="U65" sqref="U65"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:25">
       <c r="A1" s="46" t="s">
         <v>375</v>
       </c>
@@ -7844,12 +7906,12 @@
       <c r="D1" s="46"/>
       <c r="E1" s="46"/>
     </row>
-    <row r="3" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:25">
       <c r="A3" t="s">
         <v>413</v>
       </c>
     </row>
-    <row r="5" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:25">
       <c r="A5" t="s">
         <v>414</v>
       </c>
@@ -7857,7 +7919,7 @@
         <v>448</v>
       </c>
     </row>
-    <row r="6" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:25">
       <c r="A6" t="s">
         <v>420</v>
       </c>
@@ -7865,7 +7927,7 @@
         <v>446</v>
       </c>
     </row>
-    <row r="7" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:25">
       <c r="A7" t="s">
         <v>378</v>
       </c>
@@ -7873,7 +7935,7 @@
         <v>447</v>
       </c>
     </row>
-    <row r="8" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:25">
       <c r="B8" t="s">
         <v>409</v>
       </c>
@@ -7884,7 +7946,7 @@
         <v>452</v>
       </c>
     </row>
-    <row r="9" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:25">
       <c r="B9" t="s">
         <v>415</v>
       </c>
@@ -7895,12 +7957,12 @@
         <v>453</v>
       </c>
     </row>
-    <row r="10" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:25">
       <c r="B10" t="s">
         <v>410</v>
       </c>
     </row>
-    <row r="11" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:25">
       <c r="B11" t="s">
         <v>416</v>
       </c>
@@ -7908,17 +7970,17 @@
         <v>451</v>
       </c>
     </row>
-    <row r="13" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:25">
       <c r="B13" t="s">
         <v>417</v>
       </c>
     </row>
-    <row r="14" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:25">
       <c r="B14" t="s">
         <v>378</v>
       </c>
     </row>
-    <row r="15" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:25">
       <c r="C15" t="s">
         <v>411</v>
       </c>
@@ -7926,7 +7988,7 @@
         <v>442</v>
       </c>
     </row>
-    <row r="16" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:25">
       <c r="C16" t="s">
         <v>418</v>
       </c>
@@ -7934,7 +7996,7 @@
         <v>443</v>
       </c>
     </row>
-    <row r="17" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:26">
       <c r="C17" t="s">
         <v>412</v>
       </c>
@@ -7942,7 +8004,7 @@
         <v>444</v>
       </c>
     </row>
-    <row r="18" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:26">
       <c r="C18" t="s">
         <v>419</v>
       </c>
@@ -7950,17 +8012,17 @@
         <v>445</v>
       </c>
     </row>
-    <row r="19" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:26">
       <c r="B19" t="s">
         <v>311</v>
       </c>
     </row>
-    <row r="20" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:26">
       <c r="A20" t="s">
         <v>311</v>
       </c>
     </row>
-    <row r="22" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:26">
       <c r="A22" t="s">
         <v>437</v>
       </c>
@@ -7974,7 +8036,7 @@
         <v>468</v>
       </c>
     </row>
-    <row r="23" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:26">
       <c r="A23" t="s">
         <v>425</v>
       </c>
@@ -7991,7 +8053,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="24" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:26">
       <c r="A24" t="s">
         <v>378</v>
       </c>
@@ -8005,7 +8067,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="25" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:26">
       <c r="B25" t="s">
         <v>426</v>
       </c>
@@ -8019,7 +8081,7 @@
         <v>478</v>
       </c>
     </row>
-    <row r="26" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:26">
       <c r="C26" t="s">
         <v>430</v>
       </c>
@@ -8033,7 +8095,7 @@
         <v>482</v>
       </c>
     </row>
-    <row r="27" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:26">
       <c r="B27" t="s">
         <v>381</v>
       </c>
@@ -8047,7 +8109,7 @@
         <v>457</v>
       </c>
     </row>
-    <row r="28" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:26">
       <c r="C28" t="s">
         <v>431</v>
       </c>
@@ -8061,7 +8123,7 @@
         <v>483</v>
       </c>
     </row>
-    <row r="29" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:26">
       <c r="A29" t="s">
         <v>311</v>
       </c>
@@ -8075,7 +8137,7 @@
         <v>484</v>
       </c>
     </row>
-    <row r="30" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:26">
       <c r="P30" t="s">
         <v>474</v>
       </c>
@@ -8086,7 +8148,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="31" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:26">
       <c r="A31" s="41" t="s">
         <v>390</v>
       </c>
@@ -8109,7 +8171,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="32" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:26">
       <c r="A32" s="41" t="s">
         <v>378</v>
       </c>
@@ -8126,7 +8188,7 @@
         <v>476</v>
       </c>
     </row>
-    <row r="33" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:16">
       <c r="A33" s="41"/>
       <c r="B33" s="5" t="s">
         <v>421</v>
@@ -8143,7 +8205,7 @@
         <v>477</v>
       </c>
     </row>
-    <row r="34" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:16">
       <c r="A34" s="41"/>
       <c r="B34" s="41" t="s">
         <v>378</v>
@@ -8160,7 +8222,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="35" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:16">
       <c r="A35" s="41"/>
       <c r="B35" s="41"/>
       <c r="C35" s="41" t="s">
@@ -8177,7 +8239,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="36" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:16">
       <c r="A36" s="41"/>
       <c r="B36" s="41"/>
       <c r="C36" s="41" t="s">
@@ -8191,7 +8253,7 @@
         <v>408</v>
       </c>
     </row>
-    <row r="37" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:16">
       <c r="A37" s="41"/>
       <c r="B37" s="41"/>
       <c r="C37" s="41"/>
@@ -8205,7 +8267,7 @@
         <v>428</v>
       </c>
     </row>
-    <row r="38" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:16">
       <c r="A38" s="41"/>
       <c r="B38" s="41"/>
       <c r="C38" s="41"/>
@@ -8219,7 +8281,7 @@
         <v>429</v>
       </c>
     </row>
-    <row r="39" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:16">
       <c r="A39" s="41"/>
       <c r="B39" s="41"/>
       <c r="C39" s="41"/>
@@ -8230,7 +8292,7 @@
       <c r="F39" s="41"/>
       <c r="G39" s="41"/>
     </row>
-    <row r="40" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:16">
       <c r="A40" s="41"/>
       <c r="B40" s="41"/>
       <c r="C40" s="41"/>
@@ -8241,7 +8303,7 @@
       <c r="F40" s="41"/>
       <c r="G40" s="41"/>
     </row>
-    <row r="41" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:16">
       <c r="A41" s="41"/>
       <c r="B41" s="41"/>
       <c r="C41" s="41"/>
@@ -8252,7 +8314,7 @@
       <c r="F41" s="41"/>
       <c r="G41" s="41"/>
     </row>
-    <row r="42" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:16">
       <c r="A42" s="41"/>
       <c r="B42" s="41"/>
       <c r="C42" s="41"/>
@@ -8263,7 +8325,7 @@
       <c r="F42" s="41"/>
       <c r="G42" s="41"/>
     </row>
-    <row r="43" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:16">
       <c r="A43" s="41"/>
       <c r="B43" s="41"/>
       <c r="C43" s="41"/>
@@ -8274,7 +8336,7 @@
       <c r="F43" s="41"/>
       <c r="G43" s="41"/>
     </row>
-    <row r="44" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:16">
       <c r="A44" s="41"/>
       <c r="B44" s="41"/>
       <c r="C44" s="41"/>
@@ -8285,7 +8347,7 @@
       <c r="F44" s="41"/>
       <c r="G44" s="41"/>
     </row>
-    <row r="45" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:16">
       <c r="A45" s="41"/>
       <c r="B45" s="41"/>
       <c r="C45" s="41" t="s">
@@ -8296,7 +8358,7 @@
       <c r="F45" s="41"/>
       <c r="G45" s="41"/>
     </row>
-    <row r="46" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:16">
       <c r="A46" s="41"/>
       <c r="B46" s="41"/>
       <c r="C46" s="41" t="s">
@@ -8307,7 +8369,7 @@
       <c r="F46" s="41"/>
       <c r="G46" s="41"/>
     </row>
-    <row r="47" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:16">
       <c r="A47" s="41"/>
       <c r="B47" s="41"/>
       <c r="C47" s="41" t="s">
@@ -8318,7 +8380,7 @@
       <c r="F47" s="41"/>
       <c r="G47" s="41"/>
     </row>
-    <row r="48" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:16">
       <c r="A48" s="41"/>
       <c r="B48" s="41"/>
       <c r="C48" s="41"/>
@@ -8329,7 +8391,7 @@
       <c r="F48" s="41"/>
       <c r="G48" s="41"/>
     </row>
-    <row r="49" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:26">
       <c r="A49" s="41"/>
       <c r="B49" s="41"/>
       <c r="C49" s="41" t="s">
@@ -8340,7 +8402,7 @@
       <c r="F49" s="41"/>
       <c r="G49" s="41"/>
     </row>
-    <row r="50" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:26">
       <c r="A50" s="41"/>
       <c r="B50" s="41" t="s">
         <v>311</v>
@@ -8351,7 +8413,7 @@
       <c r="F50" s="41"/>
       <c r="G50" s="41"/>
     </row>
-    <row r="51" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:26">
       <c r="A51" s="41"/>
       <c r="B51" s="41" t="s">
         <v>381</v>
@@ -8362,7 +8424,7 @@
       <c r="F51" s="41"/>
       <c r="G51" s="41"/>
     </row>
-    <row r="52" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:26">
       <c r="A52" s="41"/>
       <c r="B52" s="41" t="s">
         <v>378</v>
@@ -8373,7 +8435,7 @@
       <c r="F52" s="41"/>
       <c r="G52" s="41"/>
     </row>
-    <row r="53" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:26">
       <c r="A53" s="41"/>
       <c r="B53" s="41"/>
       <c r="C53" s="41" t="s">
@@ -8384,7 +8446,7 @@
       <c r="F53" s="41"/>
       <c r="G53" s="41"/>
     </row>
-    <row r="54" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:26">
       <c r="A54" s="41"/>
       <c r="B54" s="41" t="s">
         <v>311</v>
@@ -8395,7 +8457,7 @@
       <c r="F54" s="41"/>
       <c r="G54" s="41"/>
     </row>
-    <row r="55" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:26">
       <c r="A55" s="41" t="s">
         <v>311</v>
       </c>
@@ -8406,7 +8468,7 @@
       <c r="F55" s="41"/>
       <c r="G55" s="41"/>
     </row>
-    <row r="56" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:26">
       <c r="A56" s="41"/>
       <c r="B56" s="41"/>
       <c r="C56" s="41"/>
@@ -8415,7 +8477,7 @@
       <c r="F56" s="41"/>
       <c r="G56" s="41"/>
     </row>
-    <row r="57" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:26">
       <c r="A57" s="41" t="s">
         <v>393</v>
       </c>
@@ -8438,7 +8500,7 @@
         <v>468</v>
       </c>
     </row>
-    <row r="58" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:26">
       <c r="A58" s="41" t="s">
         <v>378</v>
       </c>
@@ -8461,7 +8523,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="59" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:26">
       <c r="A59" s="41"/>
       <c r="B59" s="41" t="s">
         <v>394</v>
@@ -8484,7 +8546,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="60" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:26">
       <c r="A60" s="41"/>
       <c r="B60" s="41"/>
       <c r="C60" s="41"/>
@@ -8508,7 +8570,7 @@
         <v>469</v>
       </c>
     </row>
-    <row r="61" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:26">
       <c r="A61" s="41"/>
       <c r="B61" s="5" t="s">
         <v>395</v>
@@ -8531,7 +8593,7 @@
         <v>470</v>
       </c>
     </row>
-    <row r="62" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:26">
       <c r="A62" s="41"/>
       <c r="B62" s="41" t="s">
         <v>378</v>
@@ -8554,7 +8616,7 @@
         <v>471</v>
       </c>
     </row>
-    <row r="63" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:26">
       <c r="A63" s="41"/>
       <c r="B63" s="41"/>
       <c r="C63" s="5" t="s">
@@ -8577,7 +8639,7 @@
         <v>472</v>
       </c>
     </row>
-    <row r="64" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:26">
       <c r="A64" s="41"/>
       <c r="B64" s="41"/>
       <c r="C64" s="41" t="s">
@@ -8600,7 +8662,7 @@
         <v>473</v>
       </c>
     </row>
-    <row r="65" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:26">
       <c r="A65" s="41"/>
       <c r="B65" s="41"/>
       <c r="C65" s="41"/>
@@ -8620,7 +8682,7 @@
         <v>491</v>
       </c>
     </row>
-    <row r="66" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:26">
       <c r="A66" s="41"/>
       <c r="B66" s="41"/>
       <c r="C66" s="41" t="s">
@@ -8640,7 +8702,7 @@
         <v>492</v>
       </c>
     </row>
-    <row r="67" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:26">
       <c r="A67" s="41"/>
       <c r="B67" s="41"/>
       <c r="C67" s="41" t="s">
@@ -8660,7 +8722,7 @@
         <v>493</v>
       </c>
     </row>
-    <row r="68" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:26">
       <c r="A68" s="41"/>
       <c r="B68" s="41"/>
       <c r="C68" s="41" t="s">
@@ -8680,7 +8742,7 @@
         <v>489</v>
       </c>
     </row>
-    <row r="69" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:26">
       <c r="A69" s="41"/>
       <c r="B69" s="41"/>
       <c r="C69" s="41"/>
@@ -8700,7 +8762,7 @@
         <v>494</v>
       </c>
     </row>
-    <row r="70" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:26">
       <c r="A70" s="41"/>
       <c r="B70" s="41"/>
       <c r="C70" s="41" t="s">
@@ -8720,7 +8782,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="71" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:26">
       <c r="A71" s="41"/>
       <c r="B71" s="41"/>
       <c r="C71" s="41" t="s">
@@ -8731,7 +8793,7 @@
       <c r="F71" s="41"/>
       <c r="G71" s="41"/>
     </row>
-    <row r="72" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:26">
       <c r="A72" s="41"/>
       <c r="B72" s="41" t="s">
         <v>397</v>
@@ -8742,7 +8804,7 @@
       <c r="F72" s="41"/>
       <c r="G72" s="41"/>
     </row>
-    <row r="73" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:26">
       <c r="A73" s="41"/>
       <c r="B73" s="41"/>
       <c r="C73" s="41"/>
@@ -8751,7 +8813,7 @@
       <c r="F73" s="41"/>
       <c r="G73" s="41"/>
     </row>
-    <row r="74" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:26">
       <c r="A74" s="41"/>
       <c r="B74" s="41" t="s">
         <v>398</v>
@@ -8762,7 +8824,7 @@
       <c r="F74" s="41"/>
       <c r="G74" s="41"/>
     </row>
-    <row r="75" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:26">
       <c r="A75" s="41"/>
       <c r="B75" s="41" t="s">
         <v>399</v>
@@ -8773,7 +8835,7 @@
       <c r="F75" s="41"/>
       <c r="G75" s="41"/>
     </row>
-    <row r="76" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:26">
       <c r="A76" s="41"/>
       <c r="B76" s="41"/>
       <c r="C76" s="41" t="s">
@@ -8784,7 +8846,7 @@
       <c r="F76" s="41"/>
       <c r="G76" s="41"/>
     </row>
-    <row r="77" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:26">
       <c r="A77" s="41"/>
       <c r="B77" s="41" t="s">
         <v>397</v>
@@ -8795,7 +8857,7 @@
       <c r="F77" s="41"/>
       <c r="G77" s="41"/>
     </row>
-    <row r="78" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:26">
       <c r="A78" s="41"/>
       <c r="B78" s="41" t="s">
         <v>400</v>
@@ -8806,7 +8868,7 @@
       <c r="F78" s="41"/>
       <c r="G78" s="41"/>
     </row>
-    <row r="79" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:26">
       <c r="A79" s="41"/>
       <c r="B79" s="41" t="s">
         <v>378</v>
@@ -8817,7 +8879,7 @@
       <c r="F79" s="41"/>
       <c r="G79" s="41"/>
     </row>
-    <row r="80" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:26">
       <c r="A80" s="41"/>
       <c r="B80" s="41"/>
       <c r="C80" s="5" t="s">
@@ -8828,7 +8890,7 @@
       <c r="F80" s="41"/>
       <c r="G80" s="41"/>
     </row>
-    <row r="81" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:26">
       <c r="A81" s="41"/>
       <c r="B81" s="41"/>
       <c r="C81" s="41" t="s">
@@ -8839,7 +8901,7 @@
       <c r="F81" s="41"/>
       <c r="G81" s="41"/>
     </row>
-    <row r="82" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:26">
       <c r="A82" s="41"/>
       <c r="B82" s="41"/>
       <c r="C82" s="41"/>
@@ -8850,7 +8912,7 @@
       <c r="F82" s="41"/>
       <c r="G82" s="41"/>
     </row>
-    <row r="83" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:26">
       <c r="A83" s="41"/>
       <c r="B83" s="41"/>
       <c r="C83" s="41"/>
@@ -8861,7 +8923,7 @@
       <c r="F83" s="41"/>
       <c r="G83" s="41"/>
     </row>
-    <row r="84" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:26">
       <c r="A84" s="41"/>
       <c r="B84" s="41"/>
       <c r="C84" s="41" t="s">
@@ -8872,7 +8934,7 @@
       <c r="F84" s="41"/>
       <c r="G84" s="41"/>
     </row>
-    <row r="85" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:26">
       <c r="A85" s="41"/>
       <c r="B85" s="41"/>
       <c r="C85" s="41" t="s">
@@ -8883,7 +8945,7 @@
       <c r="F85" s="41"/>
       <c r="G85" s="41"/>
     </row>
-    <row r="86" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:26">
       <c r="A86" s="41"/>
       <c r="B86" s="41"/>
       <c r="C86" s="41" t="s">
@@ -8894,7 +8956,7 @@
       <c r="F86" s="41"/>
       <c r="G86" s="41"/>
     </row>
-    <row r="87" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:26">
       <c r="A87" s="41"/>
       <c r="B87" s="41"/>
       <c r="C87" s="41"/>
@@ -8905,7 +8967,7 @@
       <c r="F87" s="41"/>
       <c r="G87" s="41"/>
     </row>
-    <row r="88" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:26">
       <c r="A88" s="41"/>
       <c r="B88" s="41"/>
       <c r="C88" s="41"/>
@@ -8916,7 +8978,7 @@
       <c r="F88" s="41"/>
       <c r="G88" s="41"/>
     </row>
-    <row r="89" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:26">
       <c r="A89" s="41"/>
       <c r="B89" s="41"/>
       <c r="C89" s="41"/>
@@ -8927,7 +8989,7 @@
       <c r="F89" s="41"/>
       <c r="G89" s="41"/>
     </row>
-    <row r="90" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:26">
       <c r="A90" s="41"/>
       <c r="B90" s="41"/>
       <c r="C90" s="41" t="s">
@@ -8938,7 +9000,7 @@
       <c r="F90" s="41"/>
       <c r="G90" s="41"/>
     </row>
-    <row r="91" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:26">
       <c r="A91" s="41"/>
       <c r="B91" s="41" t="s">
         <v>311</v>
@@ -8949,7 +9011,7 @@
       <c r="F91" s="41"/>
       <c r="G91" s="41"/>
     </row>
-    <row r="92" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:26">
       <c r="A92" s="41" t="s">
         <v>311</v>
       </c>
@@ -8960,7 +9022,7 @@
       <c r="F92" s="41"/>
       <c r="G92" s="41"/>
     </row>
-    <row r="93" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:26">
       <c r="A93" s="41"/>
       <c r="B93" s="41"/>
       <c r="C93" s="41"/>
@@ -8969,7 +9031,7 @@
       <c r="F93" s="41"/>
       <c r="G93" s="41"/>
     </row>
-    <row r="94" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:26">
       <c r="A94" s="41" t="s">
         <v>406</v>
       </c>
@@ -8992,7 +9054,7 @@
         <v>468</v>
       </c>
     </row>
-    <row r="95" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:26">
       <c r="A95" s="41" t="s">
         <v>378</v>
       </c>
@@ -9015,7 +9077,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="96" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:26">
       <c r="A96" s="41"/>
       <c r="B96" s="41" t="s">
         <v>376</v>
@@ -9038,7 +9100,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="97" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:26">
       <c r="A97" s="41"/>
       <c r="B97" s="41"/>
       <c r="C97" s="41"/>
@@ -9059,7 +9121,7 @@
         <v>467</v>
       </c>
     </row>
-    <row r="98" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:26">
       <c r="A98" s="41"/>
       <c r="B98" s="41" t="s">
         <v>377</v>
@@ -9082,7 +9144,7 @@
         <v>485</v>
       </c>
     </row>
-    <row r="99" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:26">
       <c r="A99" s="41"/>
       <c r="B99" s="41" t="s">
         <v>378</v>
@@ -9105,7 +9167,7 @@
         <v>457</v>
       </c>
     </row>
-    <row r="100" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:26">
       <c r="A100" s="41"/>
       <c r="B100" s="41"/>
       <c r="C100" s="5" t="s">
@@ -9128,7 +9190,7 @@
         <v>486</v>
       </c>
     </row>
-    <row r="101" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:26">
       <c r="A101" s="41"/>
       <c r="B101" s="41"/>
       <c r="C101" s="41" t="s">
@@ -9151,7 +9213,7 @@
         <v>487</v>
       </c>
     </row>
-    <row r="102" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:26">
       <c r="A102" s="41"/>
       <c r="B102" s="41"/>
       <c r="C102" s="41"/>
@@ -9171,7 +9233,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="103" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:26">
       <c r="A103" s="41"/>
       <c r="B103" s="41"/>
       <c r="C103" s="41" t="s">
@@ -9191,7 +9253,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="104" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:26">
       <c r="A104" s="41"/>
       <c r="B104" s="41"/>
       <c r="C104" s="41" t="s">
@@ -9202,7 +9264,7 @@
       <c r="F104" s="41"/>
       <c r="G104" s="41"/>
     </row>
-    <row r="105" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:26">
       <c r="A105" s="41"/>
       <c r="B105" s="41"/>
       <c r="C105" s="41" t="s">
@@ -9213,7 +9275,7 @@
       <c r="F105" s="41"/>
       <c r="G105" s="41"/>
     </row>
-    <row r="106" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:26">
       <c r="A106" s="41"/>
       <c r="B106" s="41"/>
       <c r="C106" s="41"/>
@@ -9224,7 +9286,7 @@
       <c r="F106" s="5"/>
       <c r="G106" s="41"/>
     </row>
-    <row r="107" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:26">
       <c r="A107" s="41"/>
       <c r="B107" s="41"/>
       <c r="C107" s="41"/>
@@ -9235,7 +9297,7 @@
       <c r="F107" s="41"/>
       <c r="G107" s="41"/>
     </row>
-    <row r="108" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:26">
       <c r="A108" s="41"/>
       <c r="B108" s="41"/>
       <c r="C108" s="41"/>
@@ -9246,7 +9308,7 @@
       <c r="F108" s="41"/>
       <c r="G108" s="41"/>
     </row>
-    <row r="109" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:26">
       <c r="A109" s="41"/>
       <c r="B109" s="41"/>
       <c r="C109" s="41"/>
@@ -9257,7 +9319,7 @@
       <c r="F109" s="41"/>
       <c r="G109" s="41"/>
     </row>
-    <row r="110" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:26">
       <c r="A110" s="41"/>
       <c r="B110" s="41"/>
       <c r="C110" s="41"/>
@@ -9268,7 +9330,7 @@
       <c r="F110" s="41"/>
       <c r="G110" s="41"/>
     </row>
-    <row r="111" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:26">
       <c r="A111" s="41"/>
       <c r="B111" s="41"/>
       <c r="C111" s="41"/>
@@ -9279,7 +9341,7 @@
       <c r="F111" s="41"/>
       <c r="G111" s="41"/>
     </row>
-    <row r="112" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:26">
       <c r="A112" s="41"/>
       <c r="B112" s="41"/>
       <c r="C112" s="41"/>
@@ -9290,7 +9352,7 @@
       <c r="F112" s="41"/>
       <c r="G112" s="41"/>
     </row>
-    <row r="113" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:7">
       <c r="A113" s="41"/>
       <c r="B113" s="41"/>
       <c r="C113" s="41"/>
@@ -9301,7 +9363,7 @@
       <c r="F113" s="41"/>
       <c r="G113" s="41"/>
     </row>
-    <row r="114" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:7">
       <c r="A114" s="41"/>
       <c r="B114" s="41"/>
       <c r="C114" s="41" t="s">
@@ -9312,7 +9374,7 @@
       <c r="F114" s="41"/>
       <c r="G114" s="41"/>
     </row>
-    <row r="115" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:7">
       <c r="A115" s="41"/>
       <c r="B115" s="41" t="s">
         <v>311</v>
@@ -9323,7 +9385,7 @@
       <c r="F115" s="41"/>
       <c r="G115" s="41"/>
     </row>
-    <row r="116" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:7">
       <c r="A116" s="41"/>
       <c r="B116" s="41" t="s">
         <v>381</v>
@@ -9334,7 +9396,7 @@
       <c r="F116" s="41"/>
       <c r="G116" s="41"/>
     </row>
-    <row r="117" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:7">
       <c r="A117" s="41"/>
       <c r="B117" s="41" t="s">
         <v>378</v>
@@ -9345,7 +9407,7 @@
       <c r="F117" s="41"/>
       <c r="G117" s="41"/>
     </row>
-    <row r="118" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:7">
       <c r="A118" s="41"/>
       <c r="B118" s="41"/>
       <c r="C118" s="41" t="s">
@@ -9356,7 +9418,7 @@
       <c r="F118" s="41"/>
       <c r="G118" s="41"/>
     </row>
-    <row r="119" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:7">
       <c r="A119" s="41"/>
       <c r="B119" s="41" t="s">
         <v>311</v>
@@ -9367,7 +9429,7 @@
       <c r="F119" s="41"/>
       <c r="G119" s="41"/>
     </row>
-    <row r="120" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:7">
       <c r="A120" s="41"/>
       <c r="B120" s="41"/>
       <c r="C120" s="41"/>
@@ -9376,7 +9438,7 @@
       <c r="F120" s="41"/>
       <c r="G120" s="41"/>
     </row>
-    <row r="121" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:7">
       <c r="A121" s="41"/>
       <c r="B121" s="41" t="s">
         <v>407</v>
@@ -9387,7 +9449,7 @@
       <c r="F121" s="41"/>
       <c r="G121" s="41"/>
     </row>
-    <row r="122" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:7">
       <c r="A122" s="41" t="s">
         <v>311</v>
       </c>
@@ -9398,7 +9460,7 @@
       <c r="F122" s="41"/>
       <c r="G122" s="41"/>
     </row>
-    <row r="125" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:7">
       <c r="A125" s="41"/>
       <c r="B125" s="41"/>
       <c r="C125" s="41"/>
@@ -9407,7 +9469,7 @@
       <c r="F125" s="41"/>
       <c r="G125" s="41"/>
     </row>
-    <row r="133" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:11">
       <c r="A133" s="41"/>
       <c r="B133" s="41"/>
       <c r="C133" s="41"/>

--- a/CFT4CUnitSrc/src/report/GAReport.xlsx
+++ b/CFT4CUnitSrc/src/report/GAReport.xlsx
@@ -3214,13 +3214,13 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>18</xdr:col>
-      <xdr:colOff>342900</xdr:colOff>
+      <xdr:colOff>223630</xdr:colOff>
       <xdr:row>29</xdr:row>
       <xdr:rowOff>38100</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>24</xdr:col>
-      <xdr:colOff>276225</xdr:colOff>
+      <xdr:colOff>160263</xdr:colOff>
       <xdr:row>57</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
@@ -3231,8 +3231,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="11315700" y="5562600"/>
-          <a:ext cx="3590925" cy="5295900"/>
+          <a:off x="11256065" y="5562600"/>
+          <a:ext cx="3614111" cy="5295900"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3334,13 +3334,13 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>21</xdr:col>
-      <xdr:colOff>114300</xdr:colOff>
+      <xdr:colOff>304809</xdr:colOff>
       <xdr:row>51</xdr:row>
       <xdr:rowOff>152400</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>21</xdr:col>
-      <xdr:colOff>399026</xdr:colOff>
+      <xdr:colOff>589535</xdr:colOff>
       <xdr:row>53</xdr:row>
       <xdr:rowOff>22412</xdr:rowOff>
     </xdr:to>
@@ -3351,7 +3351,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="12915900" y="9867900"/>
+          <a:off x="13175983" y="9867900"/>
           <a:ext cx="284726" cy="251012"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -3394,16 +3394,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>312230</xdr:colOff>
-      <xdr:row>36</xdr:row>
-      <xdr:rowOff>47625</xdr:rowOff>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>72034</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>113875</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>234463</xdr:colOff>
-      <xdr:row>40</xdr:row>
-      <xdr:rowOff>51387</xdr:rowOff>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>607180</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>117637</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -3412,8 +3412,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8846630" y="6905625"/>
-          <a:ext cx="1751033" cy="765762"/>
+          <a:off x="8039904" y="6590875"/>
+          <a:ext cx="1760972" cy="765762"/>
         </a:xfrm>
         <a:prstGeom prst="flowChartDocument">
           <a:avLst/>
@@ -3467,16 +3467,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>302736</xdr:colOff>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>54217</xdr:colOff>
       <xdr:row>41</xdr:row>
-      <xdr:rowOff>130057</xdr:rowOff>
+      <xdr:rowOff>22378</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>262949</xdr:colOff>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>14430</xdr:colOff>
       <xdr:row>43</xdr:row>
-      <xdr:rowOff>187207</xdr:rowOff>
+      <xdr:rowOff>79528</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -3485,8 +3485,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8837136" y="7940557"/>
-          <a:ext cx="1789013" cy="438150"/>
+          <a:off x="8022087" y="7832878"/>
+          <a:ext cx="1798952" cy="438150"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3548,14 +3548,14 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>293151</xdr:colOff>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>52915</xdr:colOff>
       <xdr:row>45</xdr:row>
       <xdr:rowOff>147443</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>257175</xdr:colOff>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>16939</xdr:colOff>
       <xdr:row>48</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
@@ -3566,8 +3566,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8827551" y="8719943"/>
-          <a:ext cx="1792824" cy="424057"/>
+          <a:off x="8020785" y="8719943"/>
+          <a:ext cx="1802763" cy="424057"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3629,16 +3629,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>578147</xdr:colOff>
-      <xdr:row>40</xdr:row>
-      <xdr:rowOff>762</xdr:rowOff>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>339607</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>67012</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>587643</xdr:colOff>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>340780</xdr:colOff>
       <xdr:row>41</xdr:row>
-      <xdr:rowOff>130057</xdr:rowOff>
+      <xdr:rowOff>22378</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -3650,8 +3650,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="9722147" y="7620762"/>
-          <a:ext cx="9496" cy="319795"/>
+          <a:off x="8920390" y="7306012"/>
+          <a:ext cx="1173" cy="526866"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -3679,14 +3679,14 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>579963</xdr:colOff>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>340780</xdr:colOff>
       <xdr:row>43</xdr:row>
-      <xdr:rowOff>187207</xdr:rowOff>
+      <xdr:rowOff>79528</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>587643</xdr:colOff>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>341384</xdr:colOff>
       <xdr:row>45</xdr:row>
       <xdr:rowOff>147443</xdr:rowOff>
     </xdr:to>
@@ -3699,9 +3699,9 @@
         </xdr:cNvCxnSpPr>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
-        <a:xfrm flipH="1">
-          <a:off x="9723963" y="8378707"/>
-          <a:ext cx="7680" cy="341236"/>
+        <a:xfrm>
+          <a:off x="8921563" y="8271028"/>
+          <a:ext cx="604" cy="448915"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -4383,13 +4383,13 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>21</xdr:col>
-      <xdr:colOff>122893</xdr:colOff>
+      <xdr:colOff>263705</xdr:colOff>
       <xdr:row>51</xdr:row>
       <xdr:rowOff>123825</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>21</xdr:col>
-      <xdr:colOff>263704</xdr:colOff>
+      <xdr:colOff>268090</xdr:colOff>
       <xdr:row>53</xdr:row>
       <xdr:rowOff>57150</xdr:rowOff>
     </xdr:to>
@@ -4402,9 +4402,9 @@
         </xdr:cNvCxnSpPr>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
-        <a:xfrm flipH="1">
-          <a:off x="12830364" y="9839325"/>
-          <a:ext cx="140811" cy="314325"/>
+        <a:xfrm>
+          <a:off x="13134879" y="9839325"/>
+          <a:ext cx="4385" cy="314325"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -4433,15 +4433,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>19</xdr:col>
-      <xdr:colOff>336153</xdr:colOff>
+      <xdr:colOff>485247</xdr:colOff>
       <xdr:row>53</xdr:row>
       <xdr:rowOff>57150</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>22</xdr:col>
-      <xdr:colOff>514752</xdr:colOff>
-      <xdr:row>56</xdr:row>
-      <xdr:rowOff>28575</xdr:rowOff>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>50933</xdr:colOff>
+      <xdr:row>55</xdr:row>
+      <xdr:rowOff>99391</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -4450,8 +4450,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="11918553" y="10153650"/>
-          <a:ext cx="2007399" cy="542925"/>
+          <a:off x="12130595" y="10153650"/>
+          <a:ext cx="2017338" cy="423241"/>
         </a:xfrm>
         <a:prstGeom prst="flowChartTerminator">
           <a:avLst/>
@@ -4612,8 +4612,8 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>257175</xdr:colOff>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>16939</xdr:colOff>
       <xdr:row>46</xdr:row>
       <xdr:rowOff>166688</xdr:rowOff>
     </xdr:from>
@@ -4633,8 +4633,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipV="1">
-          <a:off x="10544175" y="8929688"/>
-          <a:ext cx="1535763" cy="2284"/>
+          <a:off x="9823548" y="8929688"/>
+          <a:ext cx="2404503" cy="2284"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -4736,16 +4736,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>27</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>38</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>364436</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>115957</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>29</xdr:col>
-      <xdr:colOff>519868</xdr:colOff>
-      <xdr:row>40</xdr:row>
-      <xdr:rowOff>6163</xdr:rowOff>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>198783</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>124239</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -4754,13 +4754,35 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="16548652" y="7239000"/>
-          <a:ext cx="1745694" cy="387163"/>
+          <a:off x="10171045" y="6783457"/>
+          <a:ext cx="1673086" cy="389282"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
         </a:prstGeom>
-        <a:noFill/>
+        <a:gradFill>
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="accent1">
+                <a:tint val="66000"/>
+                <a:satMod val="160000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="accent1">
+                <a:tint val="44500"/>
+                <a:satMod val="160000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="accent1">
+                <a:tint val="23500"/>
+                <a:satMod val="160000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
       </xdr:spPr>
       <xdr:style>
         <a:lnRef idx="2">
@@ -4784,18 +4806,126 @@
         <a:p>
           <a:pPr algn="ctr"/>
           <a:r>
-            <a:rPr lang="en-US" sz="1200">
+            <a:rPr lang="en-US" sz="1100" baseline="0" smtClean="0">
               <a:solidFill>
                 <a:sysClr val="windowText" lastClr="000000"/>
               </a:solidFill>
-              <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
-              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
             </a:rPr>
-            <a:t>Korel formular</a:t>
+            <a:t>Korel's distance function</a:t>
           </a:r>
+          <a:endParaRPr lang="en-US" sz="1200">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+            <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+          </a:endParaRPr>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>607180</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>115756</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>364436</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>120098</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="81" name="Straight Arrow Connector 80"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="6" idx="3"/>
+          <a:endCxn id="76" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9800876" y="6973756"/>
+          <a:ext cx="370169" cy="4342"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="25400">
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>198783</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>119063</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>582707</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>120098</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="84" name="Straight Arrow Connector 83"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="76" idx="3"/>
+          <a:endCxn id="16" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="11844131" y="6977063"/>
+          <a:ext cx="383924" cy="1035"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="25400">
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -7020,8 +7150,8 @@
   <sheetPr codeName="Sheet3"/>
   <dimension ref="A1:AH18"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="M30" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="AC44" sqref="AC44"/>
+    <sheetView tabSelected="1" topLeftCell="K28" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="AB45" sqref="AB45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>

--- a/CFT4CUnitSrc/src/report/GAReport.xlsx
+++ b/CFT4CUnitSrc/src/report/GAReport.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="1185" windowWidth="14805" windowHeight="6720" tabRatio="940" activeTab="2"/>
+    <workbookView xWindow="240" yWindow="1185" windowWidth="14805" windowHeight="6720" tabRatio="940" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="GA based TC generation" sheetId="2" r:id="rId1"/>
@@ -1531,11 +1531,11 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.000000000"/>
   </numFmts>
-  <fonts count="6">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -5006,6 +5006,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -5040,6 +5041,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -5215,7 +5217,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:AP158"/>
   <sheetViews>
@@ -5223,29 +5225,29 @@
       <selection activeCell="F147" sqref="F147"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="10.7109375" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="10.140625" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="9.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" s="18">
         <v>42502</v>
       </c>
     </row>
-    <row r="2" spans="1:10">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
         <v>168</v>
       </c>
     </row>
-    <row r="3" spans="1:10">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="C3" t="s">
         <v>169</v>
       </c>
     </row>
-    <row r="4" spans="1:10">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="C4" t="s">
         <v>180</v>
       </c>
@@ -5253,17 +5255,17 @@
         <v>181</v>
       </c>
     </row>
-    <row r="5" spans="1:10">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="J5" t="s">
         <v>182</v>
       </c>
     </row>
-    <row r="6" spans="1:10">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
         <v>171</v>
       </c>
     </row>
-    <row r="7" spans="1:10">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
         <v>179</v>
       </c>
@@ -5271,7 +5273,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="8" spans="1:10">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
         <v>179</v>
       </c>
@@ -5279,32 +5281,32 @@
         <v>176</v>
       </c>
     </row>
-    <row r="9" spans="1:10">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="C9" t="s">
         <v>172</v>
       </c>
     </row>
-    <row r="10" spans="1:10">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="C10" t="s">
         <v>173</v>
       </c>
     </row>
-    <row r="11" spans="1:10">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="C11" t="s">
         <v>174</v>
       </c>
     </row>
-    <row r="13" spans="1:10">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="C13" s="1" t="s">
         <v>177</v>
       </c>
     </row>
-    <row r="14" spans="1:10">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="C14" s="1" t="s">
         <v>178</v>
       </c>
     </row>
-    <row r="17" spans="1:17">
+    <row r="17" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A17" s="18">
         <v>42499</v>
       </c>
@@ -5312,7 +5314,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:17">
+    <row r="18" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B18" t="s">
         <v>160</v>
       </c>
@@ -5320,7 +5322,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="19" spans="1:17">
+    <row r="19" spans="1:17" x14ac:dyDescent="0.25">
       <c r="C19" t="s">
         <v>161</v>
       </c>
@@ -5328,7 +5330,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="20" spans="1:17">
+    <row r="20" spans="1:17" x14ac:dyDescent="0.25">
       <c r="C20" t="s">
         <v>162</v>
       </c>
@@ -5336,12 +5338,12 @@
         <v>166</v>
       </c>
     </row>
-    <row r="21" spans="1:17">
+    <row r="21" spans="1:17" x14ac:dyDescent="0.25">
       <c r="C21" t="s">
         <v>167</v>
       </c>
     </row>
-    <row r="22" spans="1:17">
+    <row r="22" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B22" t="s">
         <v>164</v>
       </c>
@@ -5352,7 +5354,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="24" spans="1:17">
+    <row r="24" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A24" s="18">
         <v>42496</v>
       </c>
@@ -5366,7 +5368,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="25" spans="1:17">
+    <row r="25" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B25" t="s">
         <v>137</v>
       </c>
@@ -5374,7 +5376,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="26" spans="1:17">
+    <row r="26" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B26" t="s">
         <v>135</v>
       </c>
@@ -5385,7 +5387,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="28" spans="1:17">
+    <row r="28" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B28" t="s">
         <v>136</v>
       </c>
@@ -5396,12 +5398,12 @@
         <v>152</v>
       </c>
     </row>
-    <row r="29" spans="1:17">
+    <row r="29" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B29" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="30" spans="1:17">
+    <row r="30" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B30" t="s">
         <v>139</v>
       </c>
@@ -5409,12 +5411,12 @@
         <v>153</v>
       </c>
     </row>
-    <row r="32" spans="1:17">
+    <row r="32" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B32" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="33" spans="2:16">
+    <row r="33" spans="2:16" x14ac:dyDescent="0.25">
       <c r="C33" t="s">
         <v>140</v>
       </c>
@@ -5422,7 +5424,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="34" spans="2:16">
+    <row r="34" spans="2:16" x14ac:dyDescent="0.25">
       <c r="C34" t="s">
         <v>141</v>
       </c>
@@ -5430,7 +5432,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="36" spans="2:16">
+    <row r="36" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B36" t="s">
         <v>142</v>
       </c>
@@ -5438,47 +5440,47 @@
         <v>159</v>
       </c>
     </row>
-    <row r="38" spans="2:16">
+    <row r="38" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B38" t="s">
         <v>143</v>
       </c>
     </row>
-    <row r="39" spans="2:16">
+    <row r="39" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B39" t="s">
         <v>144</v>
       </c>
     </row>
-    <row r="41" spans="2:16">
+    <row r="41" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B41" t="s">
         <v>146</v>
       </c>
     </row>
-    <row r="42" spans="2:16">
+    <row r="42" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B42" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="43" spans="2:16">
+    <row r="43" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B43" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="45" spans="2:16">
+    <row r="45" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B45" t="s">
         <v>148</v>
       </c>
     </row>
-    <row r="50" spans="1:10">
+    <row r="50" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A50" s="18">
         <v>42494</v>
       </c>
     </row>
-    <row r="51" spans="1:10">
+    <row r="51" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B51" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="52" spans="1:10">
+    <row r="52" spans="1:10" x14ac:dyDescent="0.25">
       <c r="C52" t="s">
         <v>1</v>
       </c>
@@ -5486,7 +5488,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="54" spans="1:10">
+    <row r="54" spans="1:10" x14ac:dyDescent="0.25">
       <c r="C54" s="5" t="s">
         <v>3</v>
       </c>
@@ -5494,44 +5496,44 @@
         <v>123</v>
       </c>
     </row>
-    <row r="55" spans="1:10">
+    <row r="55" spans="1:10" x14ac:dyDescent="0.25">
       <c r="D55" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="56" spans="1:10">
+    <row r="56" spans="1:10" x14ac:dyDescent="0.25">
       <c r="E56" s="25" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="57" spans="1:10">
+    <row r="57" spans="1:10" x14ac:dyDescent="0.25">
       <c r="E57" s="25"/>
     </row>
-    <row r="58" spans="1:10">
+    <row r="58" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B58" s="5" t="s">
         <v>134</v>
       </c>
       <c r="E58" s="25"/>
     </row>
-    <row r="59" spans="1:10">
+    <row r="59" spans="1:10" x14ac:dyDescent="0.25">
       <c r="C59" t="s">
         <v>124</v>
       </c>
       <c r="E59" s="25"/>
     </row>
-    <row r="60" spans="1:10">
+    <row r="60" spans="1:10" x14ac:dyDescent="0.25">
       <c r="C60" t="s">
         <v>125</v>
       </c>
       <c r="E60" s="25"/>
     </row>
-    <row r="61" spans="1:10">
+    <row r="61" spans="1:10" x14ac:dyDescent="0.25">
       <c r="D61" t="s">
         <v>126</v>
       </c>
       <c r="E61" s="25"/>
     </row>
-    <row r="62" spans="1:10">
+    <row r="62" spans="1:10" x14ac:dyDescent="0.25">
       <c r="E62" s="26" t="s">
         <v>127</v>
       </c>
@@ -5542,7 +5544,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="63" spans="1:10">
+    <row r="63" spans="1:10" x14ac:dyDescent="0.25">
       <c r="E63" s="27">
         <v>1.1000000000000001</v>
       </c>
@@ -5553,7 +5555,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="64" spans="1:10">
+    <row r="64" spans="1:10" x14ac:dyDescent="0.25">
       <c r="E64" s="27">
         <v>1.1100000000000001</v>
       </c>
@@ -5570,7 +5572,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="65" spans="1:7">
+    <row r="65" spans="1:7" x14ac:dyDescent="0.25">
       <c r="E65" s="27">
         <v>1.3</v>
       </c>
@@ -5581,21 +5583,21 @@
         <v>1</v>
       </c>
     </row>
-    <row r="66" spans="1:7">
+    <row r="66" spans="1:7" x14ac:dyDescent="0.25">
       <c r="D66" t="s">
         <v>132</v>
       </c>
       <c r="E66" s="27"/>
     </row>
-    <row r="67" spans="1:7">
+    <row r="67" spans="1:7" x14ac:dyDescent="0.25">
       <c r="E67" s="27" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="68" spans="1:7">
+    <row r="68" spans="1:7" x14ac:dyDescent="0.25">
       <c r="E68" s="27"/>
     </row>
-    <row r="69" spans="1:7">
+    <row r="69" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C69" t="s">
         <v>5</v>
       </c>
@@ -5603,57 +5605,57 @@
         <v>116</v>
       </c>
     </row>
-    <row r="71" spans="1:7">
+    <row r="71" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B71" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="72" spans="1:7">
+    <row r="72" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B72" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="74" spans="1:7">
+    <row r="74" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B74" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="75" spans="1:7">
+    <row r="75" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B75" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="77" spans="1:7">
+    <row r="77" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A77" s="18">
         <v>42488</v>
       </c>
     </row>
-    <row r="78" spans="1:7">
+    <row r="78" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B78" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="79" spans="1:7">
+    <row r="79" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C79" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="80" spans="1:7">
+    <row r="80" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C80" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="81" spans="1:42">
+    <row r="81" spans="1:42" x14ac:dyDescent="0.25">
       <c r="C81" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="82" spans="1:42">
+    <row r="82" spans="1:42" x14ac:dyDescent="0.25">
       <c r="C82" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="83" spans="1:42">
+    <row r="83" spans="1:42" x14ac:dyDescent="0.25">
       <c r="B83" s="5" t="s">
         <v>113</v>
       </c>
@@ -5666,12 +5668,12 @@
       <c r="I83" s="5"/>
       <c r="J83" s="5"/>
     </row>
-    <row r="85" spans="1:42">
+    <row r="85" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="87" spans="1:42">
+    <row r="87" spans="1:42" x14ac:dyDescent="0.25">
       <c r="B87" t="s">
         <v>1</v>
       </c>
@@ -5679,7 +5681,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="89" spans="1:42">
+    <row r="89" spans="1:42" x14ac:dyDescent="0.25">
       <c r="B89" t="s">
         <v>3</v>
       </c>
@@ -5687,12 +5689,12 @@
         <v>6</v>
       </c>
     </row>
-    <row r="90" spans="1:42">
+    <row r="90" spans="1:42" x14ac:dyDescent="0.25">
       <c r="C90" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="92" spans="1:42">
+    <row r="92" spans="1:42" x14ac:dyDescent="0.25">
       <c r="B92" t="s">
         <v>5</v>
       </c>
@@ -5700,12 +5702,12 @@
         <v>8</v>
       </c>
     </row>
-    <row r="93" spans="1:42">
+    <row r="93" spans="1:42" x14ac:dyDescent="0.25">
       <c r="C93" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="94" spans="1:42">
+    <row r="94" spans="1:42" x14ac:dyDescent="0.25">
       <c r="C94" s="6" t="s">
         <v>52</v>
       </c>
@@ -5739,7 +5741,7 @@
         <v>42483</v>
       </c>
     </row>
-    <row r="95" spans="1:42">
+    <row r="95" spans="1:42" x14ac:dyDescent="0.25">
       <c r="C95" s="6" t="s">
         <v>53</v>
       </c>
@@ -5771,7 +5773,7 @@
       <c r="AO95" s="5"/>
       <c r="AP95" s="5"/>
     </row>
-    <row r="96" spans="1:42">
+    <row r="96" spans="1:42" x14ac:dyDescent="0.25">
       <c r="C96" t="s">
         <v>14</v>
       </c>
@@ -5785,29 +5787,29 @@
       <c r="AO96" s="5"/>
       <c r="AP96" s="5"/>
     </row>
-    <row r="97" spans="2:11">
+    <row r="97" spans="2:11" x14ac:dyDescent="0.25">
       <c r="C97" s="1"/>
       <c r="D97" s="1" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="98" spans="2:11">
+    <row r="98" spans="2:11" x14ac:dyDescent="0.25">
       <c r="C98" s="1"/>
       <c r="D98" s="1" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="100" spans="2:11">
+    <row r="100" spans="2:11" x14ac:dyDescent="0.25">
       <c r="C100" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="101" spans="2:11">
+    <row r="101" spans="2:11" x14ac:dyDescent="0.25">
       <c r="C101" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="103" spans="2:11">
+    <row r="103" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B103" t="s">
         <v>7</v>
       </c>
@@ -5815,12 +5817,12 @@
         <v>16</v>
       </c>
     </row>
-    <row r="105" spans="2:11">
+    <row r="105" spans="2:11" x14ac:dyDescent="0.25">
       <c r="C105" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="107" spans="2:11">
+    <row r="107" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B107" t="s">
         <v>17</v>
       </c>
@@ -5828,7 +5830,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="108" spans="2:11">
+    <row r="108" spans="2:11" x14ac:dyDescent="0.25">
       <c r="D108" s="5" t="s">
         <v>50</v>
       </c>
@@ -5846,7 +5848,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="109" spans="2:11">
+    <row r="109" spans="2:11" x14ac:dyDescent="0.25">
       <c r="C109" t="s">
         <v>19</v>
       </c>
@@ -5854,12 +5856,12 @@
         <v>20</v>
       </c>
     </row>
-    <row r="110" spans="2:11">
+    <row r="110" spans="2:11" x14ac:dyDescent="0.25">
       <c r="D110" s="3" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="112" spans="2:11">
+    <row r="112" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B112" t="s">
         <v>22</v>
       </c>
@@ -5867,12 +5869,12 @@
         <v>21</v>
       </c>
     </row>
-    <row r="114" spans="1:24">
+    <row r="114" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="115" spans="1:24">
+    <row r="115" spans="1:24" x14ac:dyDescent="0.25">
       <c r="B115" t="s">
         <v>48</v>
       </c>
@@ -5894,7 +5896,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="116" spans="1:24">
+    <row r="116" spans="1:24" x14ac:dyDescent="0.25">
       <c r="B116" t="s">
         <v>46</v>
       </c>
@@ -5908,7 +5910,7 @@
         <v>42480</v>
       </c>
     </row>
-    <row r="117" spans="1:24">
+    <row r="117" spans="1:24" x14ac:dyDescent="0.25">
       <c r="B117" t="s">
         <v>49</v>
       </c>
@@ -5922,14 +5924,14 @@
         <v>42480</v>
       </c>
     </row>
-    <row r="118" spans="1:24">
+    <row r="118" spans="1:24" x14ac:dyDescent="0.25">
       <c r="M118" s="6"/>
       <c r="N118" s="6"/>
       <c r="O118" s="6"/>
       <c r="P118" s="6"/>
       <c r="S118" s="8"/>
     </row>
-    <row r="119" spans="1:24">
+    <row r="119" spans="1:24" x14ac:dyDescent="0.25">
       <c r="F119" s="9" t="s">
         <v>69</v>
       </c>
@@ -5942,7 +5944,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="120" spans="1:24">
+    <row r="120" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
         <v>47</v>
       </c>
@@ -5965,7 +5967,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="121" spans="1:24">
+    <row r="121" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A121" s="4" t="s">
         <v>23</v>
       </c>
@@ -5985,7 +5987,7 @@
       <c r="O121" s="4"/>
       <c r="P121" s="4"/>
     </row>
-    <row r="122" spans="1:24">
+    <row r="122" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A122" s="4" t="s">
         <v>24</v>
       </c>
@@ -6005,7 +6007,7 @@
       <c r="O122" s="4"/>
       <c r="P122" s="4"/>
     </row>
-    <row r="123" spans="1:24">
+    <row r="123" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
         <v>25</v>
       </c>
@@ -6025,12 +6027,12 @@
       </c>
       <c r="V123" s="9"/>
     </row>
-    <row r="124" spans="1:24">
+    <row r="124" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="125" spans="1:24">
+    <row r="125" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A125" s="4" t="s">
         <v>42</v>
       </c>
@@ -6050,7 +6052,7 @@
       <c r="O125" s="4"/>
       <c r="P125" s="4"/>
     </row>
-    <row r="126" spans="1:24">
+    <row r="126" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A126" s="4" t="s">
         <v>27</v>
       </c>
@@ -6070,12 +6072,12 @@
       <c r="O126" s="4"/>
       <c r="P126" s="4"/>
     </row>
-    <row r="127" spans="1:24">
+    <row r="127" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="128" spans="1:24">
+    <row r="128" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A128" s="4" t="s">
         <v>45</v>
       </c>
@@ -6095,83 +6097,83 @@
       <c r="O128" s="4"/>
       <c r="P128" s="4"/>
     </row>
-    <row r="129" spans="1:2">
+    <row r="129" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="130" spans="1:2">
+    <row r="130" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="131" spans="1:2">
+    <row r="131" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="132" spans="1:2">
+    <row r="132" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="133" spans="1:2">
+    <row r="133" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="134" spans="1:2">
+    <row r="134" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="135" spans="1:2">
+    <row r="135" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="136" spans="1:2">
+    <row r="136" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="137" spans="1:2">
+    <row r="137" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="138" spans="1:2">
+    <row r="138" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="139" spans="1:2">
+    <row r="139" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="140" spans="1:2">
+    <row r="140" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="141" spans="1:2">
+    <row r="141" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="144" spans="1:2">
+    <row r="144" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A144" s="13" t="s">
         <v>70</v>
       </c>
       <c r="B144" s="13"/>
     </row>
-    <row r="145" spans="2:11">
+    <row r="145" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B145" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="146" spans="2:11">
+    <row r="146" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B146" s="5" t="s">
         <v>80</v>
       </c>
@@ -6181,32 +6183,32 @@
       <c r="D146" s="5"/>
       <c r="E146" s="5"/>
     </row>
-    <row r="147" spans="2:11">
+    <row r="147" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B147" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="148" spans="2:11">
+    <row r="148" spans="2:11" x14ac:dyDescent="0.25">
       <c r="C148" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="149" spans="2:11">
+    <row r="149" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B149" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="151" spans="2:11">
+    <row r="151" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B151" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="152" spans="2:11">
+    <row r="152" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B152" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="154" spans="2:11">
+    <row r="154" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B154" s="5" t="s">
         <v>84</v>
       </c>
@@ -6221,12 +6223,12 @@
         <v>42483</v>
       </c>
     </row>
-    <row r="157" spans="2:11">
+    <row r="157" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B157" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="158" spans="2:11">
+    <row r="158" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B158" t="s">
         <v>86</v>
       </c>
@@ -6241,7 +6243,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:R95"/>
   <sheetViews>
@@ -6249,7 +6251,7 @@
       <selection activeCell="H60" sqref="H60"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="5" style="10" customWidth="1"/>
     <col min="3" max="3" width="30.140625" bestFit="1" customWidth="1"/>
@@ -6264,7 +6266,7 @@
     <col min="12" max="12" width="14.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A1" s="7" t="s">
         <v>59</v>
       </c>
@@ -6273,7 +6275,7 @@
       <c r="D1" s="7"/>
       <c r="E1" s="11"/>
     </row>
-    <row r="2" spans="1:18">
+    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B2" s="17" t="s">
         <v>65</v>
       </c>
@@ -6311,7 +6313,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="3" spans="1:18">
+    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B3" s="14">
         <v>1</v>
       </c>
@@ -6355,7 +6357,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="4" spans="1:18">
+    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B4" s="14">
         <f>B3+1</f>
         <v>2</v>
@@ -6389,7 +6391,7 @@
       </c>
       <c r="L4" s="15"/>
     </row>
-    <row r="5" spans="1:18">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B5" s="14">
         <f t="shared" ref="B5:B19" si="0">B4+1</f>
         <v>3</v>
@@ -6423,7 +6425,7 @@
       </c>
       <c r="L5" s="15"/>
     </row>
-    <row r="6" spans="1:18">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B6" s="14">
         <f t="shared" si="0"/>
         <v>4</v>
@@ -6460,7 +6462,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="7" spans="1:18">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B7" s="14">
         <f t="shared" si="0"/>
         <v>5</v>
@@ -6501,7 +6503,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="8" spans="1:18">
+    <row r="8" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B8" s="14">
         <f t="shared" si="0"/>
         <v>6</v>
@@ -6543,7 +6545,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="9" spans="1:18">
+    <row r="9" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B9" s="14">
         <f t="shared" si="0"/>
         <v>7</v>
@@ -6583,7 +6585,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="10" spans="1:18">
+    <row r="10" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B10" s="14">
         <f t="shared" si="0"/>
         <v>8</v>
@@ -6623,7 +6625,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="11" spans="1:18">
+    <row r="11" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B11" s="14">
         <f t="shared" si="0"/>
         <v>9</v>
@@ -6639,7 +6641,7 @@
       <c r="K11" s="15"/>
       <c r="L11" s="15"/>
     </row>
-    <row r="12" spans="1:18">
+    <row r="12" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B12" s="14">
         <f t="shared" si="0"/>
         <v>10</v>
@@ -6655,7 +6657,7 @@
       <c r="K12" s="15"/>
       <c r="L12" s="15"/>
     </row>
-    <row r="13" spans="1:18">
+    <row r="13" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B13" s="14">
         <f t="shared" si="0"/>
         <v>11</v>
@@ -6671,7 +6673,7 @@
       <c r="K13" s="15"/>
       <c r="L13" s="15"/>
     </row>
-    <row r="14" spans="1:18">
+    <row r="14" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B14" s="14">
         <f t="shared" si="0"/>
         <v>12</v>
@@ -6687,7 +6689,7 @@
       <c r="K14" s="15"/>
       <c r="L14" s="15"/>
     </row>
-    <row r="15" spans="1:18">
+    <row r="15" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B15" s="14">
         <f t="shared" si="0"/>
         <v>13</v>
@@ -6703,7 +6705,7 @@
       <c r="K15" s="15"/>
       <c r="L15" s="15"/>
     </row>
-    <row r="16" spans="1:18">
+    <row r="16" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B16" s="14">
         <f t="shared" si="0"/>
         <v>14</v>
@@ -6719,7 +6721,7 @@
       <c r="K16" s="15"/>
       <c r="L16" s="15"/>
     </row>
-    <row r="17" spans="2:12">
+    <row r="17" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B17" s="14">
         <f t="shared" si="0"/>
         <v>15</v>
@@ -6735,7 +6737,7 @@
       <c r="K17" s="15"/>
       <c r="L17" s="15"/>
     </row>
-    <row r="18" spans="2:12">
+    <row r="18" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B18" s="14">
         <f t="shared" si="0"/>
         <v>16</v>
@@ -6751,7 +6753,7 @@
       <c r="K18" s="15"/>
       <c r="L18" s="15"/>
     </row>
-    <row r="19" spans="2:12">
+    <row r="19" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B19" s="14">
         <f t="shared" si="0"/>
         <v>17</v>
@@ -6767,12 +6769,12 @@
       <c r="K19" s="15"/>
       <c r="L19" s="15"/>
     </row>
-    <row r="22" spans="2:12">
+    <row r="22" spans="2:12" x14ac:dyDescent="0.25">
       <c r="C22" t="s">
         <v>183</v>
       </c>
     </row>
-    <row r="23" spans="2:12">
+    <row r="23" spans="2:12" x14ac:dyDescent="0.25">
       <c r="C23" t="s">
         <v>184</v>
       </c>
@@ -6791,7 +6793,7 @@
       </c>
       <c r="L23" s="47"/>
     </row>
-    <row r="24" spans="2:12">
+    <row r="24" spans="2:12" x14ac:dyDescent="0.25">
       <c r="G24" s="49"/>
       <c r="H24" s="51"/>
       <c r="I24" s="14" t="s">
@@ -6807,7 +6809,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="25" spans="2:12">
+    <row r="25" spans="2:12" x14ac:dyDescent="0.25">
       <c r="G25" s="33" t="s">
         <v>110</v>
       </c>
@@ -6823,7 +6825,7 @@
       <c r="K25" s="32"/>
       <c r="L25" s="32"/>
     </row>
-    <row r="26" spans="2:12">
+    <row r="26" spans="2:12" x14ac:dyDescent="0.25">
       <c r="G26" s="37"/>
       <c r="H26" s="38"/>
       <c r="I26" s="32">
@@ -6835,7 +6837,7 @@
       <c r="K26" s="32"/>
       <c r="L26" s="32"/>
     </row>
-    <row r="27" spans="2:12">
+    <row r="27" spans="2:12" x14ac:dyDescent="0.25">
       <c r="G27" s="37"/>
       <c r="H27" s="38"/>
       <c r="I27" s="32">
@@ -6847,7 +6849,7 @@
       <c r="K27" s="32"/>
       <c r="L27" s="32"/>
     </row>
-    <row r="28" spans="2:12">
+    <row r="28" spans="2:12" x14ac:dyDescent="0.25">
       <c r="G28" s="37"/>
       <c r="H28" s="38"/>
       <c r="I28" s="32">
@@ -6859,7 +6861,7 @@
       <c r="K28" s="32"/>
       <c r="L28" s="32"/>
     </row>
-    <row r="29" spans="2:12">
+    <row r="29" spans="2:12" x14ac:dyDescent="0.25">
       <c r="G29" s="37"/>
       <c r="H29" s="38"/>
       <c r="I29" s="32"/>
@@ -6867,7 +6869,7 @@
       <c r="K29" s="32"/>
       <c r="L29" s="32"/>
     </row>
-    <row r="30" spans="2:12">
+    <row r="30" spans="2:12" x14ac:dyDescent="0.25">
       <c r="G30" s="37"/>
       <c r="H30" s="38"/>
       <c r="I30" s="32"/>
@@ -6875,7 +6877,7 @@
       <c r="K30" s="32"/>
       <c r="L30" s="32"/>
     </row>
-    <row r="31" spans="2:12">
+    <row r="31" spans="2:12" x14ac:dyDescent="0.25">
       <c r="G31" s="35"/>
       <c r="H31" s="36"/>
       <c r="I31" s="32"/>
@@ -6883,7 +6885,7 @@
       <c r="K31" s="32"/>
       <c r="L31" s="32"/>
     </row>
-    <row r="32" spans="2:12">
+    <row r="32" spans="2:12" x14ac:dyDescent="0.25">
       <c r="G32" s="15" t="s">
         <v>109</v>
       </c>
@@ -6893,7 +6895,7 @@
       <c r="K32" s="32"/>
       <c r="L32" s="32"/>
     </row>
-    <row r="33" spans="1:12">
+    <row r="33" spans="1:12" x14ac:dyDescent="0.25">
       <c r="G33" s="15"/>
       <c r="H33" s="32"/>
       <c r="I33" s="32"/>
@@ -6901,7 +6903,7 @@
       <c r="K33" s="32"/>
       <c r="L33" s="32"/>
     </row>
-    <row r="34" spans="1:12">
+    <row r="34" spans="1:12" x14ac:dyDescent="0.25">
       <c r="G34" s="15"/>
       <c r="H34" s="32"/>
       <c r="I34" s="32"/>
@@ -6909,7 +6911,7 @@
       <c r="K34" s="32"/>
       <c r="L34" s="32"/>
     </row>
-    <row r="35" spans="1:12">
+    <row r="35" spans="1:12" x14ac:dyDescent="0.25">
       <c r="G35" s="15"/>
       <c r="H35" s="32"/>
       <c r="I35" s="32"/>
@@ -6917,7 +6919,7 @@
       <c r="K35" s="32"/>
       <c r="L35" s="32"/>
     </row>
-    <row r="36" spans="1:12">
+    <row r="36" spans="1:12" x14ac:dyDescent="0.25">
       <c r="G36" s="15" t="s">
         <v>195</v>
       </c>
@@ -6937,7 +6939,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="1:12">
+    <row r="37" spans="1:12" x14ac:dyDescent="0.25">
       <c r="G37" s="15"/>
       <c r="H37" s="32"/>
       <c r="I37" s="32">
@@ -6953,7 +6955,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="38" spans="1:12">
+    <row r="38" spans="1:12" x14ac:dyDescent="0.25">
       <c r="G38" s="15"/>
       <c r="H38" s="32"/>
       <c r="I38" s="32"/>
@@ -6965,7 +6967,7 @@
         <v>462</v>
       </c>
     </row>
-    <row r="39" spans="1:12">
+    <row r="39" spans="1:12" x14ac:dyDescent="0.25">
       <c r="G39" s="15"/>
       <c r="H39" s="32"/>
       <c r="I39" s="32"/>
@@ -6977,7 +6979,7 @@
         <v>57595</v>
       </c>
     </row>
-    <row r="40" spans="1:12">
+    <row r="40" spans="1:12" x14ac:dyDescent="0.25">
       <c r="G40" s="15" t="s">
         <v>111</v>
       </c>
@@ -6987,7 +6989,7 @@
       <c r="K40" s="32"/>
       <c r="L40" s="32"/>
     </row>
-    <row r="41" spans="1:12">
+    <row r="41" spans="1:12" x14ac:dyDescent="0.25">
       <c r="G41" s="15"/>
       <c r="H41" s="32"/>
       <c r="I41" s="32"/>
@@ -6995,14 +6997,14 @@
       <c r="K41" s="32"/>
       <c r="L41" s="32"/>
     </row>
-    <row r="42" spans="1:12">
+    <row r="42" spans="1:12" x14ac:dyDescent="0.25">
       <c r="H42" s="31"/>
       <c r="I42" s="31"/>
       <c r="J42" s="31"/>
       <c r="K42" s="31"/>
       <c r="L42" s="31"/>
     </row>
-    <row r="43" spans="1:12">
+    <row r="43" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>198</v>
       </c>
@@ -7012,7 +7014,7 @@
       <c r="K43" s="31"/>
       <c r="L43" s="31"/>
     </row>
-    <row r="44" spans="1:12">
+    <row r="44" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C44" t="s">
         <v>199</v>
       </c>
@@ -7022,7 +7024,7 @@
       <c r="K44" s="31"/>
       <c r="L44" s="31"/>
     </row>
-    <row r="45" spans="1:12">
+    <row r="45" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C45" t="s">
         <v>200</v>
       </c>
@@ -7033,7 +7035,7 @@
       <c r="I45" s="30"/>
       <c r="J45" s="30"/>
     </row>
-    <row r="46" spans="1:12">
+    <row r="46" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C46" t="s">
         <v>202</v>
       </c>
@@ -7041,7 +7043,7 @@
       <c r="I46" s="30"/>
       <c r="J46" s="30"/>
     </row>
-    <row r="47" spans="1:12">
+    <row r="47" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C47" t="s">
         <v>208</v>
       </c>
@@ -7052,17 +7054,17 @@
       <c r="I47" s="30"/>
       <c r="J47" s="30"/>
     </row>
-    <row r="48" spans="1:12">
+    <row r="48" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C48" t="s">
         <v>212</v>
       </c>
     </row>
-    <row r="50" spans="1:10">
+    <row r="50" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>203</v>
       </c>
     </row>
-    <row r="51" spans="1:10">
+    <row r="51" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>158</v>
       </c>
@@ -7070,7 +7072,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="52" spans="1:10">
+    <row r="52" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>158</v>
       </c>
@@ -7087,7 +7089,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="53" spans="1:10">
+    <row r="53" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B53" s="39" t="s">
         <v>206</v>
       </c>
@@ -7095,41 +7097,41 @@
         <v>211</v>
       </c>
     </row>
-    <row r="54" spans="1:10">
+    <row r="54" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B54" s="39" t="s">
         <v>213</v>
       </c>
     </row>
-    <row r="55" spans="1:10">
+    <row r="55" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B55" s="39" t="s">
         <v>214</v>
       </c>
     </row>
-    <row r="56" spans="1:10">
+    <row r="56" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B56" s="39"/>
       <c r="J56" s="40"/>
     </row>
-    <row r="57" spans="1:10">
+    <row r="57" spans="1:10" x14ac:dyDescent="0.25">
       <c r="J57" s="40"/>
     </row>
-    <row r="58" spans="1:10">
+    <row r="58" spans="1:10" x14ac:dyDescent="0.25">
       <c r="H58"/>
       <c r="J58" s="40"/>
     </row>
-    <row r="59" spans="1:10">
+    <row r="59" spans="1:10" x14ac:dyDescent="0.25">
       <c r="H59"/>
       <c r="J59" s="40"/>
     </row>
-    <row r="60" spans="1:10">
+    <row r="60" spans="1:10" x14ac:dyDescent="0.25">
       <c r="H60"/>
     </row>
-    <row r="61" spans="1:10">
+    <row r="61" spans="1:10" x14ac:dyDescent="0.25">
       <c r="H61"/>
     </row>
-    <row r="62" spans="1:10">
+    <row r="62" spans="1:10" x14ac:dyDescent="0.25">
       <c r="H62"/>
     </row>
-    <row r="95" spans="16:16">
+    <row r="95" spans="16:16" x14ac:dyDescent="0.25">
       <c r="P95" s="41"/>
     </row>
   </sheetData>
@@ -7146,30 +7148,30 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet3"/>
   <dimension ref="A1:AH18"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="K28" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="K34" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="AB45" sqref="AB45"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="16384" width="9.140625" style="42"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:34">
+    <row r="1" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A1" s="43" t="s">
         <v>219</v>
       </c>
     </row>
-    <row r="2" spans="1:34">
+    <row r="2" spans="1:34" x14ac:dyDescent="0.25">
       <c r="O2" s="42" t="s">
         <v>215</v>
       </c>
     </row>
-    <row r="3" spans="1:34">
+    <row r="3" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A3" s="42" t="s">
         <v>220</v>
       </c>
@@ -7177,7 +7179,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="4" spans="1:34">
+    <row r="4" spans="1:34" x14ac:dyDescent="0.25">
       <c r="P4" s="42" t="s">
         <v>218</v>
       </c>
@@ -7191,12 +7193,12 @@
       <c r="AG4" s="5"/>
       <c r="AH4" s="5"/>
     </row>
-    <row r="5" spans="1:34">
+    <row r="5" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A5" s="42" t="s">
         <v>221</v>
       </c>
     </row>
-    <row r="6" spans="1:34">
+    <row r="6" spans="1:34" x14ac:dyDescent="0.25">
       <c r="B6" s="42" t="s">
         <v>224</v>
       </c>
@@ -7204,42 +7206,42 @@
         <v>225</v>
       </c>
     </row>
-    <row r="7" spans="1:34">
+    <row r="7" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A7" s="42" t="s">
         <v>222</v>
       </c>
     </row>
-    <row r="8" spans="1:34">
+    <row r="8" spans="1:34" x14ac:dyDescent="0.25">
       <c r="B8" s="42" t="s">
         <v>223</v>
       </c>
     </row>
-    <row r="12" spans="1:34">
+    <row r="12" spans="1:34" x14ac:dyDescent="0.25">
       <c r="O12" s="42" t="s">
         <v>216</v>
       </c>
     </row>
-    <row r="13" spans="1:34">
+    <row r="13" spans="1:34" x14ac:dyDescent="0.25">
       <c r="P13" s="42" t="s">
         <v>217</v>
       </c>
     </row>
-    <row r="14" spans="1:34">
+    <row r="14" spans="1:34" x14ac:dyDescent="0.25">
       <c r="Q14" s="42" t="s">
         <v>226</v>
       </c>
     </row>
-    <row r="16" spans="1:34">
+    <row r="16" spans="1:34" x14ac:dyDescent="0.25">
       <c r="P16" s="42" t="s">
         <v>227</v>
       </c>
     </row>
-    <row r="17" spans="4:16">
+    <row r="17" spans="4:16" x14ac:dyDescent="0.25">
       <c r="P17" s="42" t="s">
         <v>228</v>
       </c>
     </row>
-    <row r="18" spans="4:16">
+    <row r="18" spans="4:16" x14ac:dyDescent="0.25">
       <c r="D18" s="44"/>
     </row>
   </sheetData>
@@ -7250,7 +7252,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet4"/>
   <dimension ref="A1:AF109"/>
   <sheetViews>
@@ -7258,14 +7260,14 @@
       <selection activeCell="G52" sqref="G52"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:31">
+    <row r="1" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>230</v>
       </c>
     </row>
-    <row r="2" spans="1:31">
+    <row r="2" spans="1:31" x14ac:dyDescent="0.25">
       <c r="B2" s="25" t="s">
         <v>229</v>
       </c>
@@ -7273,7 +7275,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="4" spans="1:31">
+    <row r="4" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>231</v>
       </c>
@@ -7281,7 +7283,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="7" spans="1:31">
+    <row r="7" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>234</v>
       </c>
@@ -7289,7 +7291,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="8" spans="1:31">
+    <row r="8" spans="1:31" x14ac:dyDescent="0.25">
       <c r="B8" s="25" t="s">
         <v>233</v>
       </c>
@@ -7305,7 +7307,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="9" spans="1:31">
+    <row r="9" spans="1:31" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
         <v>235</v>
       </c>
@@ -7319,7 +7321,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="10" spans="1:31">
+    <row r="10" spans="1:31" x14ac:dyDescent="0.25">
       <c r="C10" s="3" t="s">
         <v>236</v>
       </c>
@@ -7333,7 +7335,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="11" spans="1:31">
+    <row r="11" spans="1:31" x14ac:dyDescent="0.25">
       <c r="C11" s="3" t="s">
         <v>237</v>
       </c>
@@ -7351,7 +7353,7 @@
       </c>
       <c r="AE11" s="5"/>
     </row>
-    <row r="12" spans="1:31">
+    <row r="12" spans="1:31" x14ac:dyDescent="0.25">
       <c r="R12" t="s">
         <v>252</v>
       </c>
@@ -7362,7 +7364,7 @@
         <v>287</v>
       </c>
     </row>
-    <row r="13" spans="1:31">
+    <row r="13" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>239</v>
       </c>
@@ -7376,7 +7378,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="14" spans="1:31">
+    <row r="14" spans="1:31" x14ac:dyDescent="0.25">
       <c r="B14" s="4" t="s">
         <v>240</v>
       </c>
@@ -7399,7 +7401,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="15" spans="1:31">
+    <row r="15" spans="1:31" x14ac:dyDescent="0.25">
       <c r="C15" t="s">
         <v>244</v>
       </c>
@@ -7419,7 +7421,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="16" spans="1:31">
+    <row r="16" spans="1:31" x14ac:dyDescent="0.25">
       <c r="C16" t="s">
         <v>246</v>
       </c>
@@ -7436,7 +7438,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="17" spans="1:32">
+    <row r="17" spans="1:32" x14ac:dyDescent="0.25">
       <c r="B17" s="4" t="s">
         <v>241</v>
       </c>
@@ -7461,7 +7463,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="18" spans="1:32">
+    <row r="18" spans="1:32" x14ac:dyDescent="0.25">
       <c r="C18" t="s">
         <v>247</v>
       </c>
@@ -7475,7 +7477,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="19" spans="1:32">
+    <row r="19" spans="1:32" x14ac:dyDescent="0.25">
       <c r="R19" t="s">
         <v>259</v>
       </c>
@@ -7483,7 +7485,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="20" spans="1:32">
+    <row r="20" spans="1:32" x14ac:dyDescent="0.25">
       <c r="R20" t="s">
         <v>260</v>
       </c>
@@ -7494,12 +7496,12 @@
         <v>295</v>
       </c>
     </row>
-    <row r="21" spans="1:32">
+    <row r="21" spans="1:32" x14ac:dyDescent="0.25">
       <c r="R21" t="s">
         <v>261</v>
       </c>
     </row>
-    <row r="22" spans="1:32">
+    <row r="22" spans="1:32" x14ac:dyDescent="0.25">
       <c r="B22" t="s">
         <v>242</v>
       </c>
@@ -7513,7 +7515,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="23" spans="1:32">
+    <row r="23" spans="1:32" x14ac:dyDescent="0.25">
       <c r="R23" t="s">
         <v>263</v>
       </c>
@@ -7521,7 +7523,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="24" spans="1:32">
+    <row r="24" spans="1:32" x14ac:dyDescent="0.25">
       <c r="R24" t="s">
         <v>264</v>
       </c>
@@ -7529,7 +7531,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="25" spans="1:32">
+    <row r="25" spans="1:32" x14ac:dyDescent="0.25">
       <c r="R25" t="s">
         <v>265</v>
       </c>
@@ -7539,7 +7541,7 @@
       <c r="AE25" s="5"/>
       <c r="AF25" s="5"/>
     </row>
-    <row r="26" spans="1:32">
+    <row r="26" spans="1:32" x14ac:dyDescent="0.25">
       <c r="R26" t="s">
         <v>266</v>
       </c>
@@ -7547,7 +7549,7 @@
         <v>298</v>
       </c>
     </row>
-    <row r="27" spans="1:32">
+    <row r="27" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A27" s="13" t="s">
         <v>305</v>
       </c>
@@ -7563,7 +7565,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="28" spans="1:32">
+    <row r="28" spans="1:32" x14ac:dyDescent="0.25">
       <c r="B28" t="s">
         <v>306</v>
       </c>
@@ -7574,7 +7576,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="29" spans="1:32">
+    <row r="29" spans="1:32" x14ac:dyDescent="0.25">
       <c r="B29" t="s">
         <v>307</v>
       </c>
@@ -7585,7 +7587,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="30" spans="1:32">
+    <row r="30" spans="1:32" x14ac:dyDescent="0.25">
       <c r="B30" t="s">
         <v>308</v>
       </c>
@@ -7596,7 +7598,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="31" spans="1:32">
+    <row r="31" spans="1:32" x14ac:dyDescent="0.25">
       <c r="C31" t="s">
         <v>309</v>
       </c>
@@ -7604,7 +7606,7 @@
         <v>302</v>
       </c>
     </row>
-    <row r="32" spans="1:32">
+    <row r="32" spans="1:32" x14ac:dyDescent="0.25">
       <c r="C32" t="s">
         <v>310</v>
       </c>
@@ -7612,7 +7614,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="33" spans="1:30">
+    <row r="33" spans="1:30" x14ac:dyDescent="0.25">
       <c r="B33" t="s">
         <v>311</v>
       </c>
@@ -7620,7 +7622,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="34" spans="1:30">
+    <row r="34" spans="1:30" x14ac:dyDescent="0.25">
       <c r="B34" t="s">
         <v>312</v>
       </c>
@@ -7628,72 +7630,72 @@
         <v>295</v>
       </c>
     </row>
-    <row r="35" spans="1:30">
+    <row r="35" spans="1:30" x14ac:dyDescent="0.25">
       <c r="C35" t="s">
         <v>313</v>
       </c>
     </row>
-    <row r="36" spans="1:30">
+    <row r="36" spans="1:30" x14ac:dyDescent="0.25">
       <c r="D36" t="s">
         <v>314</v>
       </c>
     </row>
-    <row r="37" spans="1:30">
+    <row r="37" spans="1:30" x14ac:dyDescent="0.25">
       <c r="D37" t="s">
         <v>315</v>
       </c>
     </row>
-    <row r="38" spans="1:30">
+    <row r="38" spans="1:30" x14ac:dyDescent="0.25">
       <c r="C38" t="s">
         <v>311</v>
       </c>
     </row>
-    <row r="39" spans="1:30">
+    <row r="39" spans="1:30" x14ac:dyDescent="0.25">
       <c r="C39" t="s">
         <v>316</v>
       </c>
     </row>
-    <row r="40" spans="1:30">
+    <row r="40" spans="1:30" x14ac:dyDescent="0.25">
       <c r="D40" t="s">
         <v>314</v>
       </c>
     </row>
-    <row r="41" spans="1:30">
+    <row r="41" spans="1:30" x14ac:dyDescent="0.25">
       <c r="D41" t="s">
         <v>315</v>
       </c>
     </row>
-    <row r="42" spans="1:30">
+    <row r="42" spans="1:30" x14ac:dyDescent="0.25">
       <c r="C42" t="s">
         <v>311</v>
       </c>
     </row>
-    <row r="43" spans="1:30">
+    <row r="43" spans="1:30" x14ac:dyDescent="0.25">
       <c r="C43" t="s">
         <v>317</v>
       </c>
     </row>
-    <row r="44" spans="1:30">
+    <row r="44" spans="1:30" x14ac:dyDescent="0.25">
       <c r="C44" t="s">
         <v>318</v>
       </c>
     </row>
-    <row r="45" spans="1:30">
+    <row r="45" spans="1:30" x14ac:dyDescent="0.25">
       <c r="C45" t="s">
         <v>319</v>
       </c>
     </row>
-    <row r="46" spans="1:30">
+    <row r="46" spans="1:30" x14ac:dyDescent="0.25">
       <c r="B46" t="s">
         <v>311</v>
       </c>
     </row>
-    <row r="47" spans="1:30">
+    <row r="47" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>311</v>
       </c>
     </row>
-    <row r="49" spans="1:7">
+    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A49" s="13" t="s">
         <v>320</v>
       </c>
@@ -7703,17 +7705,17 @@
       <c r="E49" s="13"/>
       <c r="F49" s="13"/>
     </row>
-    <row r="50" spans="1:7">
+    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B50" t="s">
         <v>321</v>
       </c>
     </row>
-    <row r="51" spans="1:7">
+    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B51" t="s">
         <v>322</v>
       </c>
     </row>
-    <row r="52" spans="1:7">
+    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B52" s="5" t="s">
         <v>323</v>
       </c>
@@ -7722,32 +7724,32 @@
         <v>324</v>
       </c>
     </row>
-    <row r="53" spans="1:7">
+    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C53" t="s">
         <v>325</v>
       </c>
     </row>
-    <row r="54" spans="1:7">
+    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
       <c r="D54" t="s">
         <v>326</v>
       </c>
     </row>
-    <row r="55" spans="1:7">
+    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
       <c r="E55" t="s">
         <v>327</v>
       </c>
     </row>
-    <row r="56" spans="1:7">
+    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B56" t="s">
         <v>322</v>
       </c>
     </row>
-    <row r="57" spans="1:7">
+    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>311</v>
       </c>
     </row>
-    <row r="59" spans="1:7">
+    <row r="59" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A59" s="13" t="s">
         <v>328</v>
       </c>
@@ -7757,62 +7759,62 @@
       <c r="E59" s="13"/>
       <c r="F59" s="13"/>
     </row>
-    <row r="60" spans="1:7">
+    <row r="60" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>329</v>
       </c>
     </row>
-    <row r="61" spans="1:7">
+    <row r="61" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>330</v>
       </c>
     </row>
-    <row r="62" spans="1:7">
+    <row r="62" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>331</v>
       </c>
     </row>
-    <row r="63" spans="1:7">
+    <row r="63" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>332</v>
       </c>
     </row>
-    <row r="64" spans="1:7">
+    <row r="64" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>333</v>
       </c>
     </row>
-    <row r="65" spans="1:9">
+    <row r="65" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>334</v>
       </c>
     </row>
-    <row r="66" spans="1:9">
+    <row r="66" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>335</v>
       </c>
     </row>
-    <row r="67" spans="1:9">
+    <row r="67" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>334</v>
       </c>
     </row>
-    <row r="68" spans="1:9">
+    <row r="68" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>336</v>
       </c>
     </row>
-    <row r="69" spans="1:9">
+    <row r="69" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>337</v>
       </c>
     </row>
-    <row r="70" spans="1:9">
+    <row r="70" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>338</v>
       </c>
     </row>
-    <row r="71" spans="1:9">
+    <row r="71" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>339</v>
       </c>
@@ -7820,7 +7822,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="72" spans="1:9">
+    <row r="72" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>340</v>
       </c>
@@ -7828,182 +7830,182 @@
         <v>372</v>
       </c>
     </row>
-    <row r="73" spans="1:9">
+    <row r="73" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>341</v>
       </c>
     </row>
-    <row r="74" spans="1:9">
+    <row r="74" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>342</v>
       </c>
     </row>
-    <row r="75" spans="1:9">
+    <row r="75" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>343</v>
       </c>
     </row>
-    <row r="76" spans="1:9">
+    <row r="76" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>344</v>
       </c>
     </row>
-    <row r="77" spans="1:9">
+    <row r="77" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
         <v>345</v>
       </c>
     </row>
-    <row r="78" spans="1:9">
+    <row r="78" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
         <v>341</v>
       </c>
     </row>
-    <row r="79" spans="1:9">
+    <row r="79" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
         <v>346</v>
       </c>
     </row>
-    <row r="80" spans="1:9">
+    <row r="80" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
         <v>347</v>
       </c>
     </row>
-    <row r="81" spans="1:1">
+    <row r="81" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
         <v>348</v>
       </c>
     </row>
-    <row r="82" spans="1:1">
+    <row r="82" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
         <v>349</v>
       </c>
     </row>
-    <row r="83" spans="1:1">
+    <row r="83" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
         <v>350</v>
       </c>
     </row>
-    <row r="84" spans="1:1">
+    <row r="84" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
         <v>351</v>
       </c>
     </row>
-    <row r="85" spans="1:1">
+    <row r="85" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
         <v>352</v>
       </c>
     </row>
-    <row r="86" spans="1:1">
+    <row r="86" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
         <v>348</v>
       </c>
     </row>
-    <row r="87" spans="1:1">
+    <row r="87" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
         <v>353</v>
       </c>
     </row>
-    <row r="88" spans="1:1">
+    <row r="88" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
         <v>354</v>
       </c>
     </row>
-    <row r="89" spans="1:1">
+    <row r="89" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
         <v>355</v>
       </c>
     </row>
-    <row r="90" spans="1:1">
+    <row r="90" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
         <v>356</v>
       </c>
     </row>
-    <row r="91" spans="1:1">
+    <row r="91" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
         <v>357</v>
       </c>
     </row>
-    <row r="92" spans="1:1">
+    <row r="92" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
         <v>358</v>
       </c>
     </row>
-    <row r="93" spans="1:1">
+    <row r="93" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
         <v>359</v>
       </c>
     </row>
-    <row r="94" spans="1:1">
+    <row r="94" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
         <v>360</v>
       </c>
     </row>
-    <row r="95" spans="1:1">
+    <row r="95" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
         <v>361</v>
       </c>
     </row>
-    <row r="96" spans="1:1">
+    <row r="96" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
         <v>362</v>
       </c>
     </row>
-    <row r="97" spans="1:1">
+    <row r="97" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
         <v>363</v>
       </c>
     </row>
-    <row r="98" spans="1:1">
+    <row r="98" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
         <v>351</v>
       </c>
     </row>
-    <row r="99" spans="1:1">
+    <row r="99" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
         <v>344</v>
       </c>
     </row>
-    <row r="100" spans="1:1">
+    <row r="100" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
         <v>364</v>
       </c>
     </row>
-    <row r="101" spans="1:1">
+    <row r="101" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
         <v>365</v>
       </c>
     </row>
-    <row r="102" spans="1:1">
+    <row r="102" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
         <v>338</v>
       </c>
     </row>
-    <row r="103" spans="1:1">
+    <row r="103" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
         <v>366</v>
       </c>
     </row>
-    <row r="104" spans="1:1">
+    <row r="104" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
         <v>367</v>
       </c>
     </row>
-    <row r="105" spans="1:1">
+    <row r="105" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
         <v>364</v>
       </c>
     </row>
-    <row r="107" spans="1:1">
+    <row r="107" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
         <v>368</v>
       </c>
     </row>
-    <row r="108" spans="1:1">
+    <row r="108" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
         <v>369</v>
       </c>
     </row>
-    <row r="109" spans="1:1">
+    <row r="109" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
         <v>370</v>
       </c>
@@ -8018,16 +8020,16 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Z133"/>
   <sheetViews>
-    <sheetView topLeftCell="A40" workbookViewId="0">
-      <selection activeCell="U65" sqref="U65"/>
+    <sheetView tabSelected="1" topLeftCell="A46" workbookViewId="0">
+      <selection activeCell="M70" sqref="M70"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:25">
+    <row r="1" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A1" s="46" t="s">
         <v>375</v>
       </c>
@@ -8036,12 +8038,12 @@
       <c r="D1" s="46"/>
       <c r="E1" s="46"/>
     </row>
-    <row r="3" spans="1:25">
+    <row r="3" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>413</v>
       </c>
     </row>
-    <row r="5" spans="1:25">
+    <row r="5" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>414</v>
       </c>
@@ -8049,7 +8051,7 @@
         <v>448</v>
       </c>
     </row>
-    <row r="6" spans="1:25">
+    <row r="6" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>420</v>
       </c>
@@ -8057,7 +8059,7 @@
         <v>446</v>
       </c>
     </row>
-    <row r="7" spans="1:25">
+    <row r="7" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>378</v>
       </c>
@@ -8065,7 +8067,7 @@
         <v>447</v>
       </c>
     </row>
-    <row r="8" spans="1:25">
+    <row r="8" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
         <v>409</v>
       </c>
@@ -8076,7 +8078,7 @@
         <v>452</v>
       </c>
     </row>
-    <row r="9" spans="1:25">
+    <row r="9" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
         <v>415</v>
       </c>
@@ -8087,12 +8089,12 @@
         <v>453</v>
       </c>
     </row>
-    <row r="10" spans="1:25">
+    <row r="10" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B10" t="s">
         <v>410</v>
       </c>
     </row>
-    <row r="11" spans="1:25">
+    <row r="11" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B11" t="s">
         <v>416</v>
       </c>
@@ -8100,17 +8102,17 @@
         <v>451</v>
       </c>
     </row>
-    <row r="13" spans="1:25">
+    <row r="13" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B13" t="s">
         <v>417</v>
       </c>
     </row>
-    <row r="14" spans="1:25">
+    <row r="14" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B14" t="s">
         <v>378</v>
       </c>
     </row>
-    <row r="15" spans="1:25">
+    <row r="15" spans="1:25" x14ac:dyDescent="0.25">
       <c r="C15" t="s">
         <v>411</v>
       </c>
@@ -8118,7 +8120,7 @@
         <v>442</v>
       </c>
     </row>
-    <row r="16" spans="1:25">
+    <row r="16" spans="1:25" x14ac:dyDescent="0.25">
       <c r="C16" t="s">
         <v>418</v>
       </c>
@@ -8126,7 +8128,7 @@
         <v>443</v>
       </c>
     </row>
-    <row r="17" spans="1:26">
+    <row r="17" spans="1:26" x14ac:dyDescent="0.25">
       <c r="C17" t="s">
         <v>412</v>
       </c>
@@ -8134,7 +8136,7 @@
         <v>444</v>
       </c>
     </row>
-    <row r="18" spans="1:26">
+    <row r="18" spans="1:26" x14ac:dyDescent="0.25">
       <c r="C18" t="s">
         <v>419</v>
       </c>
@@ -8142,17 +8144,17 @@
         <v>445</v>
       </c>
     </row>
-    <row r="19" spans="1:26">
+    <row r="19" spans="1:26" x14ac:dyDescent="0.25">
       <c r="B19" t="s">
         <v>311</v>
       </c>
     </row>
-    <row r="20" spans="1:26">
+    <row r="20" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>311</v>
       </c>
     </row>
-    <row r="22" spans="1:26">
+    <row r="22" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>437</v>
       </c>
@@ -8166,7 +8168,7 @@
         <v>468</v>
       </c>
     </row>
-    <row r="23" spans="1:26">
+    <row r="23" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>425</v>
       </c>
@@ -8183,7 +8185,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="24" spans="1:26">
+    <row r="24" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>378</v>
       </c>
@@ -8197,7 +8199,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="25" spans="1:26">
+    <row r="25" spans="1:26" x14ac:dyDescent="0.25">
       <c r="B25" t="s">
         <v>426</v>
       </c>
@@ -8211,7 +8213,7 @@
         <v>478</v>
       </c>
     </row>
-    <row r="26" spans="1:26">
+    <row r="26" spans="1:26" x14ac:dyDescent="0.25">
       <c r="C26" t="s">
         <v>430</v>
       </c>
@@ -8225,7 +8227,7 @@
         <v>482</v>
       </c>
     </row>
-    <row r="27" spans="1:26">
+    <row r="27" spans="1:26" x14ac:dyDescent="0.25">
       <c r="B27" t="s">
         <v>381</v>
       </c>
@@ -8239,7 +8241,7 @@
         <v>457</v>
       </c>
     </row>
-    <row r="28" spans="1:26">
+    <row r="28" spans="1:26" x14ac:dyDescent="0.25">
       <c r="C28" t="s">
         <v>431</v>
       </c>
@@ -8253,7 +8255,7 @@
         <v>483</v>
       </c>
     </row>
-    <row r="29" spans="1:26">
+    <row r="29" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>311</v>
       </c>
@@ -8267,7 +8269,7 @@
         <v>484</v>
       </c>
     </row>
-    <row r="30" spans="1:26">
+    <row r="30" spans="1:26" x14ac:dyDescent="0.25">
       <c r="P30" t="s">
         <v>474</v>
       </c>
@@ -8278,7 +8280,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="31" spans="1:26">
+    <row r="31" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A31" s="41" t="s">
         <v>390</v>
       </c>
@@ -8301,7 +8303,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="32" spans="1:26">
+    <row r="32" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A32" s="41" t="s">
         <v>378</v>
       </c>
@@ -8318,7 +8320,7 @@
         <v>476</v>
       </c>
     </row>
-    <row r="33" spans="1:16">
+    <row r="33" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A33" s="41"/>
       <c r="B33" s="5" t="s">
         <v>421</v>
@@ -8335,7 +8337,7 @@
         <v>477</v>
       </c>
     </row>
-    <row r="34" spans="1:16">
+    <row r="34" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A34" s="41"/>
       <c r="B34" s="41" t="s">
         <v>378</v>
@@ -8352,7 +8354,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="35" spans="1:16">
+    <row r="35" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A35" s="41"/>
       <c r="B35" s="41"/>
       <c r="C35" s="41" t="s">
@@ -8368,8 +8370,12 @@
       <c r="P35" t="s">
         <v>295</v>
       </c>
-    </row>
-    <row r="36" spans="1:16">
+      <c r="S35">
+        <f>150*250</f>
+        <v>37500</v>
+      </c>
+    </row>
+    <row r="36" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A36" s="41"/>
       <c r="B36" s="41"/>
       <c r="C36" s="41" t="s">
@@ -8383,7 +8389,7 @@
         <v>408</v>
       </c>
     </row>
-    <row r="37" spans="1:16">
+    <row r="37" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A37" s="41"/>
       <c r="B37" s="41"/>
       <c r="C37" s="41"/>
@@ -8397,7 +8403,7 @@
         <v>428</v>
       </c>
     </row>
-    <row r="38" spans="1:16">
+    <row r="38" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A38" s="41"/>
       <c r="B38" s="41"/>
       <c r="C38" s="41"/>
@@ -8411,7 +8417,7 @@
         <v>429</v>
       </c>
     </row>
-    <row r="39" spans="1:16">
+    <row r="39" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A39" s="41"/>
       <c r="B39" s="41"/>
       <c r="C39" s="41"/>
@@ -8422,7 +8428,7 @@
       <c r="F39" s="41"/>
       <c r="G39" s="41"/>
     </row>
-    <row r="40" spans="1:16">
+    <row r="40" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A40" s="41"/>
       <c r="B40" s="41"/>
       <c r="C40" s="41"/>
@@ -8433,7 +8439,7 @@
       <c r="F40" s="41"/>
       <c r="G40" s="41"/>
     </row>
-    <row r="41" spans="1:16">
+    <row r="41" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A41" s="41"/>
       <c r="B41" s="41"/>
       <c r="C41" s="41"/>
@@ -8444,7 +8450,7 @@
       <c r="F41" s="41"/>
       <c r="G41" s="41"/>
     </row>
-    <row r="42" spans="1:16">
+    <row r="42" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A42" s="41"/>
       <c r="B42" s="41"/>
       <c r="C42" s="41"/>
@@ -8455,7 +8461,7 @@
       <c r="F42" s="41"/>
       <c r="G42" s="41"/>
     </row>
-    <row r="43" spans="1:16">
+    <row r="43" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A43" s="41"/>
       <c r="B43" s="41"/>
       <c r="C43" s="41"/>
@@ -8466,7 +8472,7 @@
       <c r="F43" s="41"/>
       <c r="G43" s="41"/>
     </row>
-    <row r="44" spans="1:16">
+    <row r="44" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A44" s="41"/>
       <c r="B44" s="41"/>
       <c r="C44" s="41"/>
@@ -8477,7 +8483,7 @@
       <c r="F44" s="41"/>
       <c r="G44" s="41"/>
     </row>
-    <row r="45" spans="1:16">
+    <row r="45" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A45" s="41"/>
       <c r="B45" s="41"/>
       <c r="C45" s="41" t="s">
@@ -8488,7 +8494,7 @@
       <c r="F45" s="41"/>
       <c r="G45" s="41"/>
     </row>
-    <row r="46" spans="1:16">
+    <row r="46" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A46" s="41"/>
       <c r="B46" s="41"/>
       <c r="C46" s="41" t="s">
@@ -8499,7 +8505,7 @@
       <c r="F46" s="41"/>
       <c r="G46" s="41"/>
     </row>
-    <row r="47" spans="1:16">
+    <row r="47" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A47" s="41"/>
       <c r="B47" s="41"/>
       <c r="C47" s="41" t="s">
@@ -8510,7 +8516,7 @@
       <c r="F47" s="41"/>
       <c r="G47" s="41"/>
     </row>
-    <row r="48" spans="1:16">
+    <row r="48" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A48" s="41"/>
       <c r="B48" s="41"/>
       <c r="C48" s="41"/>
@@ -8521,7 +8527,7 @@
       <c r="F48" s="41"/>
       <c r="G48" s="41"/>
     </row>
-    <row r="49" spans="1:26">
+    <row r="49" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A49" s="41"/>
       <c r="B49" s="41"/>
       <c r="C49" s="41" t="s">
@@ -8532,7 +8538,7 @@
       <c r="F49" s="41"/>
       <c r="G49" s="41"/>
     </row>
-    <row r="50" spans="1:26">
+    <row r="50" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A50" s="41"/>
       <c r="B50" s="41" t="s">
         <v>311</v>
@@ -8543,7 +8549,7 @@
       <c r="F50" s="41"/>
       <c r="G50" s="41"/>
     </row>
-    <row r="51" spans="1:26">
+    <row r="51" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A51" s="41"/>
       <c r="B51" s="41" t="s">
         <v>381</v>
@@ -8554,7 +8560,7 @@
       <c r="F51" s="41"/>
       <c r="G51" s="41"/>
     </row>
-    <row r="52" spans="1:26">
+    <row r="52" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A52" s="41"/>
       <c r="B52" s="41" t="s">
         <v>378</v>
@@ -8565,7 +8571,7 @@
       <c r="F52" s="41"/>
       <c r="G52" s="41"/>
     </row>
-    <row r="53" spans="1:26">
+    <row r="53" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A53" s="41"/>
       <c r="B53" s="41"/>
       <c r="C53" s="41" t="s">
@@ -8576,7 +8582,7 @@
       <c r="F53" s="41"/>
       <c r="G53" s="41"/>
     </row>
-    <row r="54" spans="1:26">
+    <row r="54" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A54" s="41"/>
       <c r="B54" s="41" t="s">
         <v>311</v>
@@ -8587,7 +8593,7 @@
       <c r="F54" s="41"/>
       <c r="G54" s="41"/>
     </row>
-    <row r="55" spans="1:26">
+    <row r="55" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A55" s="41" t="s">
         <v>311</v>
       </c>
@@ -8598,7 +8604,7 @@
       <c r="F55" s="41"/>
       <c r="G55" s="41"/>
     </row>
-    <row r="56" spans="1:26">
+    <row r="56" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A56" s="41"/>
       <c r="B56" s="41"/>
       <c r="C56" s="41"/>
@@ -8607,7 +8613,7 @@
       <c r="F56" s="41"/>
       <c r="G56" s="41"/>
     </row>
-    <row r="57" spans="1:26">
+    <row r="57" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A57" s="41" t="s">
         <v>393</v>
       </c>
@@ -8630,7 +8636,7 @@
         <v>468</v>
       </c>
     </row>
-    <row r="58" spans="1:26">
+    <row r="58" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A58" s="41" t="s">
         <v>378</v>
       </c>
@@ -8653,7 +8659,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="59" spans="1:26">
+    <row r="59" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A59" s="41"/>
       <c r="B59" s="41" t="s">
         <v>394</v>
@@ -8676,7 +8682,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="60" spans="1:26">
+    <row r="60" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A60" s="41"/>
       <c r="B60" s="41"/>
       <c r="C60" s="41"/>
@@ -8700,7 +8706,7 @@
         <v>469</v>
       </c>
     </row>
-    <row r="61" spans="1:26">
+    <row r="61" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A61" s="41"/>
       <c r="B61" s="5" t="s">
         <v>395</v>
@@ -8723,7 +8729,7 @@
         <v>470</v>
       </c>
     </row>
-    <row r="62" spans="1:26">
+    <row r="62" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A62" s="41"/>
       <c r="B62" s="41" t="s">
         <v>378</v>
@@ -8746,7 +8752,7 @@
         <v>471</v>
       </c>
     </row>
-    <row r="63" spans="1:26">
+    <row r="63" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A63" s="41"/>
       <c r="B63" s="41"/>
       <c r="C63" s="5" t="s">
@@ -8769,7 +8775,7 @@
         <v>472</v>
       </c>
     </row>
-    <row r="64" spans="1:26">
+    <row r="64" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A64" s="41"/>
       <c r="B64" s="41"/>
       <c r="C64" s="41" t="s">
@@ -8792,7 +8798,7 @@
         <v>473</v>
       </c>
     </row>
-    <row r="65" spans="1:26">
+    <row r="65" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A65" s="41"/>
       <c r="B65" s="41"/>
       <c r="C65" s="41"/>
@@ -8812,7 +8818,7 @@
         <v>491</v>
       </c>
     </row>
-    <row r="66" spans="1:26">
+    <row r="66" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A66" s="41"/>
       <c r="B66" s="41"/>
       <c r="C66" s="41" t="s">
@@ -8832,7 +8838,7 @@
         <v>492</v>
       </c>
     </row>
-    <row r="67" spans="1:26">
+    <row r="67" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A67" s="41"/>
       <c r="B67" s="41"/>
       <c r="C67" s="41" t="s">
@@ -8852,7 +8858,7 @@
         <v>493</v>
       </c>
     </row>
-    <row r="68" spans="1:26">
+    <row r="68" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A68" s="41"/>
       <c r="B68" s="41"/>
       <c r="C68" s="41" t="s">
@@ -8872,7 +8878,7 @@
         <v>489</v>
       </c>
     </row>
-    <row r="69" spans="1:26">
+    <row r="69" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A69" s="41"/>
       <c r="B69" s="41"/>
       <c r="C69" s="41"/>
@@ -8892,7 +8898,7 @@
         <v>494</v>
       </c>
     </row>
-    <row r="70" spans="1:26">
+    <row r="70" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A70" s="41"/>
       <c r="B70" s="41"/>
       <c r="C70" s="41" t="s">
@@ -8912,7 +8918,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="71" spans="1:26">
+    <row r="71" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A71" s="41"/>
       <c r="B71" s="41"/>
       <c r="C71" s="41" t="s">
@@ -8923,7 +8929,7 @@
       <c r="F71" s="41"/>
       <c r="G71" s="41"/>
     </row>
-    <row r="72" spans="1:26">
+    <row r="72" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A72" s="41"/>
       <c r="B72" s="41" t="s">
         <v>397</v>
@@ -8934,7 +8940,7 @@
       <c r="F72" s="41"/>
       <c r="G72" s="41"/>
     </row>
-    <row r="73" spans="1:26">
+    <row r="73" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A73" s="41"/>
       <c r="B73" s="41"/>
       <c r="C73" s="41"/>
@@ -8943,7 +8949,7 @@
       <c r="F73" s="41"/>
       <c r="G73" s="41"/>
     </row>
-    <row r="74" spans="1:26">
+    <row r="74" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A74" s="41"/>
       <c r="B74" s="41" t="s">
         <v>398</v>
@@ -8954,7 +8960,7 @@
       <c r="F74" s="41"/>
       <c r="G74" s="41"/>
     </row>
-    <row r="75" spans="1:26">
+    <row r="75" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A75" s="41"/>
       <c r="B75" s="41" t="s">
         <v>399</v>
@@ -8965,7 +8971,7 @@
       <c r="F75" s="41"/>
       <c r="G75" s="41"/>
     </row>
-    <row r="76" spans="1:26">
+    <row r="76" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A76" s="41"/>
       <c r="B76" s="41"/>
       <c r="C76" s="41" t="s">
@@ -8976,7 +8982,7 @@
       <c r="F76" s="41"/>
       <c r="G76" s="41"/>
     </row>
-    <row r="77" spans="1:26">
+    <row r="77" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A77" s="41"/>
       <c r="B77" s="41" t="s">
         <v>397</v>
@@ -8987,7 +8993,7 @@
       <c r="F77" s="41"/>
       <c r="G77" s="41"/>
     </row>
-    <row r="78" spans="1:26">
+    <row r="78" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A78" s="41"/>
       <c r="B78" s="41" t="s">
         <v>400</v>
@@ -8998,7 +9004,7 @@
       <c r="F78" s="41"/>
       <c r="G78" s="41"/>
     </row>
-    <row r="79" spans="1:26">
+    <row r="79" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A79" s="41"/>
       <c r="B79" s="41" t="s">
         <v>378</v>
@@ -9009,7 +9015,7 @@
       <c r="F79" s="41"/>
       <c r="G79" s="41"/>
     </row>
-    <row r="80" spans="1:26">
+    <row r="80" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A80" s="41"/>
       <c r="B80" s="41"/>
       <c r="C80" s="5" t="s">
@@ -9020,7 +9026,7 @@
       <c r="F80" s="41"/>
       <c r="G80" s="41"/>
     </row>
-    <row r="81" spans="1:26">
+    <row r="81" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A81" s="41"/>
       <c r="B81" s="41"/>
       <c r="C81" s="41" t="s">
@@ -9031,7 +9037,7 @@
       <c r="F81" s="41"/>
       <c r="G81" s="41"/>
     </row>
-    <row r="82" spans="1:26">
+    <row r="82" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A82" s="41"/>
       <c r="B82" s="41"/>
       <c r="C82" s="41"/>
@@ -9042,7 +9048,7 @@
       <c r="F82" s="41"/>
       <c r="G82" s="41"/>
     </row>
-    <row r="83" spans="1:26">
+    <row r="83" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A83" s="41"/>
       <c r="B83" s="41"/>
       <c r="C83" s="41"/>
@@ -9053,7 +9059,7 @@
       <c r="F83" s="41"/>
       <c r="G83" s="41"/>
     </row>
-    <row r="84" spans="1:26">
+    <row r="84" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A84" s="41"/>
       <c r="B84" s="41"/>
       <c r="C84" s="41" t="s">
@@ -9064,7 +9070,7 @@
       <c r="F84" s="41"/>
       <c r="G84" s="41"/>
     </row>
-    <row r="85" spans="1:26">
+    <row r="85" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A85" s="41"/>
       <c r="B85" s="41"/>
       <c r="C85" s="41" t="s">
@@ -9075,7 +9081,7 @@
       <c r="F85" s="41"/>
       <c r="G85" s="41"/>
     </row>
-    <row r="86" spans="1:26">
+    <row r="86" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A86" s="41"/>
       <c r="B86" s="41"/>
       <c r="C86" s="41" t="s">
@@ -9086,7 +9092,7 @@
       <c r="F86" s="41"/>
       <c r="G86" s="41"/>
     </row>
-    <row r="87" spans="1:26">
+    <row r="87" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A87" s="41"/>
       <c r="B87" s="41"/>
       <c r="C87" s="41"/>
@@ -9097,7 +9103,7 @@
       <c r="F87" s="41"/>
       <c r="G87" s="41"/>
     </row>
-    <row r="88" spans="1:26">
+    <row r="88" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A88" s="41"/>
       <c r="B88" s="41"/>
       <c r="C88" s="41"/>
@@ -9108,7 +9114,7 @@
       <c r="F88" s="41"/>
       <c r="G88" s="41"/>
     </row>
-    <row r="89" spans="1:26">
+    <row r="89" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A89" s="41"/>
       <c r="B89" s="41"/>
       <c r="C89" s="41"/>
@@ -9119,7 +9125,7 @@
       <c r="F89" s="41"/>
       <c r="G89" s="41"/>
     </row>
-    <row r="90" spans="1:26">
+    <row r="90" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A90" s="41"/>
       <c r="B90" s="41"/>
       <c r="C90" s="41" t="s">
@@ -9130,7 +9136,7 @@
       <c r="F90" s="41"/>
       <c r="G90" s="41"/>
     </row>
-    <row r="91" spans="1:26">
+    <row r="91" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A91" s="41"/>
       <c r="B91" s="41" t="s">
         <v>311</v>
@@ -9141,7 +9147,7 @@
       <c r="F91" s="41"/>
       <c r="G91" s="41"/>
     </row>
-    <row r="92" spans="1:26">
+    <row r="92" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A92" s="41" t="s">
         <v>311</v>
       </c>
@@ -9152,7 +9158,7 @@
       <c r="F92" s="41"/>
       <c r="G92" s="41"/>
     </row>
-    <row r="93" spans="1:26">
+    <row r="93" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A93" s="41"/>
       <c r="B93" s="41"/>
       <c r="C93" s="41"/>
@@ -9161,7 +9167,7 @@
       <c r="F93" s="41"/>
       <c r="G93" s="41"/>
     </row>
-    <row r="94" spans="1:26">
+    <row r="94" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A94" s="41" t="s">
         <v>406</v>
       </c>
@@ -9184,7 +9190,7 @@
         <v>468</v>
       </c>
     </row>
-    <row r="95" spans="1:26">
+    <row r="95" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A95" s="41" t="s">
         <v>378</v>
       </c>
@@ -9207,7 +9213,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="96" spans="1:26">
+    <row r="96" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A96" s="41"/>
       <c r="B96" s="41" t="s">
         <v>376</v>
@@ -9230,7 +9236,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="97" spans="1:26">
+    <row r="97" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A97" s="41"/>
       <c r="B97" s="41"/>
       <c r="C97" s="41"/>
@@ -9251,7 +9257,7 @@
         <v>467</v>
       </c>
     </row>
-    <row r="98" spans="1:26">
+    <row r="98" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A98" s="41"/>
       <c r="B98" s="41" t="s">
         <v>377</v>
@@ -9274,7 +9280,7 @@
         <v>485</v>
       </c>
     </row>
-    <row r="99" spans="1:26">
+    <row r="99" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A99" s="41"/>
       <c r="B99" s="41" t="s">
         <v>378</v>
@@ -9297,7 +9303,7 @@
         <v>457</v>
       </c>
     </row>
-    <row r="100" spans="1:26">
+    <row r="100" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A100" s="41"/>
       <c r="B100" s="41"/>
       <c r="C100" s="5" t="s">
@@ -9320,7 +9326,7 @@
         <v>486</v>
       </c>
     </row>
-    <row r="101" spans="1:26">
+    <row r="101" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A101" s="41"/>
       <c r="B101" s="41"/>
       <c r="C101" s="41" t="s">
@@ -9343,7 +9349,7 @@
         <v>487</v>
       </c>
     </row>
-    <row r="102" spans="1:26">
+    <row r="102" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A102" s="41"/>
       <c r="B102" s="41"/>
       <c r="C102" s="41"/>
@@ -9363,7 +9369,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="103" spans="1:26">
+    <row r="103" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A103" s="41"/>
       <c r="B103" s="41"/>
       <c r="C103" s="41" t="s">
@@ -9383,7 +9389,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="104" spans="1:26">
+    <row r="104" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A104" s="41"/>
       <c r="B104" s="41"/>
       <c r="C104" s="41" t="s">
@@ -9394,7 +9400,7 @@
       <c r="F104" s="41"/>
       <c r="G104" s="41"/>
     </row>
-    <row r="105" spans="1:26">
+    <row r="105" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A105" s="41"/>
       <c r="B105" s="41"/>
       <c r="C105" s="41" t="s">
@@ -9405,7 +9411,7 @@
       <c r="F105" s="41"/>
       <c r="G105" s="41"/>
     </row>
-    <row r="106" spans="1:26">
+    <row r="106" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A106" s="41"/>
       <c r="B106" s="41"/>
       <c r="C106" s="41"/>
@@ -9416,7 +9422,7 @@
       <c r="F106" s="5"/>
       <c r="G106" s="41"/>
     </row>
-    <row r="107" spans="1:26">
+    <row r="107" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A107" s="41"/>
       <c r="B107" s="41"/>
       <c r="C107" s="41"/>
@@ -9427,7 +9433,7 @@
       <c r="F107" s="41"/>
       <c r="G107" s="41"/>
     </row>
-    <row r="108" spans="1:26">
+    <row r="108" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A108" s="41"/>
       <c r="B108" s="41"/>
       <c r="C108" s="41"/>
@@ -9438,7 +9444,7 @@
       <c r="F108" s="41"/>
       <c r="G108" s="41"/>
     </row>
-    <row r="109" spans="1:26">
+    <row r="109" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A109" s="41"/>
       <c r="B109" s="41"/>
       <c r="C109" s="41"/>
@@ -9449,7 +9455,7 @@
       <c r="F109" s="41"/>
       <c r="G109" s="41"/>
     </row>
-    <row r="110" spans="1:26">
+    <row r="110" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A110" s="41"/>
       <c r="B110" s="41"/>
       <c r="C110" s="41"/>
@@ -9460,7 +9466,7 @@
       <c r="F110" s="41"/>
       <c r="G110" s="41"/>
     </row>
-    <row r="111" spans="1:26">
+    <row r="111" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A111" s="41"/>
       <c r="B111" s="41"/>
       <c r="C111" s="41"/>
@@ -9471,7 +9477,7 @@
       <c r="F111" s="41"/>
       <c r="G111" s="41"/>
     </row>
-    <row r="112" spans="1:26">
+    <row r="112" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A112" s="41"/>
       <c r="B112" s="41"/>
       <c r="C112" s="41"/>
@@ -9482,7 +9488,7 @@
       <c r="F112" s="41"/>
       <c r="G112" s="41"/>
     </row>
-    <row r="113" spans="1:7">
+    <row r="113" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A113" s="41"/>
       <c r="B113" s="41"/>
       <c r="C113" s="41"/>
@@ -9493,7 +9499,7 @@
       <c r="F113" s="41"/>
       <c r="G113" s="41"/>
     </row>
-    <row r="114" spans="1:7">
+    <row r="114" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A114" s="41"/>
       <c r="B114" s="41"/>
       <c r="C114" s="41" t="s">
@@ -9504,7 +9510,7 @@
       <c r="F114" s="41"/>
       <c r="G114" s="41"/>
     </row>
-    <row r="115" spans="1:7">
+    <row r="115" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A115" s="41"/>
       <c r="B115" s="41" t="s">
         <v>311</v>
@@ -9515,7 +9521,7 @@
       <c r="F115" s="41"/>
       <c r="G115" s="41"/>
     </row>
-    <row r="116" spans="1:7">
+    <row r="116" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A116" s="41"/>
       <c r="B116" s="41" t="s">
         <v>381</v>
@@ -9526,7 +9532,7 @@
       <c r="F116" s="41"/>
       <c r="G116" s="41"/>
     </row>
-    <row r="117" spans="1:7">
+    <row r="117" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A117" s="41"/>
       <c r="B117" s="41" t="s">
         <v>378</v>
@@ -9537,7 +9543,7 @@
       <c r="F117" s="41"/>
       <c r="G117" s="41"/>
     </row>
-    <row r="118" spans="1:7">
+    <row r="118" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A118" s="41"/>
       <c r="B118" s="41"/>
       <c r="C118" s="41" t="s">
@@ -9548,7 +9554,7 @@
       <c r="F118" s="41"/>
       <c r="G118" s="41"/>
     </row>
-    <row r="119" spans="1:7">
+    <row r="119" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A119" s="41"/>
       <c r="B119" s="41" t="s">
         <v>311</v>
@@ -9559,7 +9565,7 @@
       <c r="F119" s="41"/>
       <c r="G119" s="41"/>
     </row>
-    <row r="120" spans="1:7">
+    <row r="120" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A120" s="41"/>
       <c r="B120" s="41"/>
       <c r="C120" s="41"/>
@@ -9568,7 +9574,7 @@
       <c r="F120" s="41"/>
       <c r="G120" s="41"/>
     </row>
-    <row r="121" spans="1:7">
+    <row r="121" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A121" s="41"/>
       <c r="B121" s="41" t="s">
         <v>407</v>
@@ -9579,7 +9585,7 @@
       <c r="F121" s="41"/>
       <c r="G121" s="41"/>
     </row>
-    <row r="122" spans="1:7">
+    <row r="122" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A122" s="41" t="s">
         <v>311</v>
       </c>
@@ -9590,7 +9596,7 @@
       <c r="F122" s="41"/>
       <c r="G122" s="41"/>
     </row>
-    <row r="125" spans="1:7">
+    <row r="125" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A125" s="41"/>
       <c r="B125" s="41"/>
       <c r="C125" s="41"/>
@@ -9599,7 +9605,7 @@
       <c r="F125" s="41"/>
       <c r="G125" s="41"/>
     </row>
-    <row r="133" spans="1:11">
+    <row r="133" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A133" s="41"/>
       <c r="B133" s="41"/>
       <c r="C133" s="41"/>

--- a/CFT4CUnitSrc/src/report/GAReport.xlsx
+++ b/CFT4CUnitSrc/src/report/GAReport.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="1185" windowWidth="14805" windowHeight="6720" tabRatio="940" activeTab="4"/>
+    <workbookView xWindow="240" yWindow="1185" windowWidth="14805" windowHeight="6720" tabRatio="940" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="GA based TC generation" sheetId="2" r:id="rId1"/>
@@ -1531,11 +1531,11 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.000000000"/>
   </numFmts>
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="6">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -3222,7 +3222,7 @@
       <xdr:col>24</xdr:col>
       <xdr:colOff>160263</xdr:colOff>
       <xdr:row>57</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:rowOff>56030</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -3231,8 +3231,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="11256065" y="5562600"/>
-          <a:ext cx="3614111" cy="5295900"/>
+          <a:off x="11115748" y="5562600"/>
+          <a:ext cx="3567339" cy="5351930"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3273,15 +3273,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>23</xdr:col>
-      <xdr:colOff>230335</xdr:colOff>
+      <xdr:colOff>201760</xdr:colOff>
       <xdr:row>49</xdr:row>
-      <xdr:rowOff>15688</xdr:rowOff>
+      <xdr:rowOff>187138</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>23</xdr:col>
-      <xdr:colOff>505946</xdr:colOff>
-      <xdr:row>50</xdr:row>
-      <xdr:rowOff>66676</xdr:rowOff>
+      <xdr:colOff>477371</xdr:colOff>
+      <xdr:row>51</xdr:row>
+      <xdr:rowOff>47626</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -3290,7 +3290,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="14251135" y="9350188"/>
+          <a:off x="14222560" y="9521638"/>
           <a:ext cx="275611" cy="241488"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -3334,15 +3334,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>21</xdr:col>
-      <xdr:colOff>304809</xdr:colOff>
-      <xdr:row>51</xdr:row>
-      <xdr:rowOff>152400</xdr:rowOff>
+      <xdr:colOff>276234</xdr:colOff>
+      <xdr:row>52</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>21</xdr:col>
-      <xdr:colOff>589535</xdr:colOff>
-      <xdr:row>53</xdr:row>
-      <xdr:rowOff>22412</xdr:rowOff>
+      <xdr:colOff>560960</xdr:colOff>
+      <xdr:row>54</xdr:row>
+      <xdr:rowOff>3362</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -3351,7 +3351,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="13175983" y="9867900"/>
+          <a:off x="13077834" y="10039350"/>
           <a:ext cx="284726" cy="251012"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -3469,14 +3469,14 @@
     <xdr:from>
       <xdr:col>13</xdr:col>
       <xdr:colOff>54217</xdr:colOff>
-      <xdr:row>41</xdr:row>
-      <xdr:rowOff>22378</xdr:rowOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>117628</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>16</xdr:col>
       <xdr:colOff>14430</xdr:colOff>
-      <xdr:row>43</xdr:row>
-      <xdr:rowOff>79528</xdr:rowOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>174778</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -3485,8 +3485,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8022087" y="7832878"/>
-          <a:ext cx="1798952" cy="438150"/>
+          <a:off x="7979017" y="7547128"/>
+          <a:ext cx="1789013" cy="438150"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3532,7 +3532,7 @@
               <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
               <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
             </a:rPr>
-            <a:t> equal conditions</a:t>
+            <a:t> path conditions</a:t>
           </a:r>
           <a:endParaRPr lang="en-US" sz="1200">
             <a:solidFill>
@@ -3550,14 +3550,14 @@
     <xdr:from>
       <xdr:col>13</xdr:col>
       <xdr:colOff>52915</xdr:colOff>
-      <xdr:row>45</xdr:row>
-      <xdr:rowOff>147443</xdr:rowOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>156968</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>16</xdr:col>
       <xdr:colOff>16939</xdr:colOff>
-      <xdr:row>48</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:row>49</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -3566,8 +3566,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8020785" y="8719943"/>
-          <a:ext cx="1802763" cy="424057"/>
+          <a:off x="7977715" y="8919968"/>
+          <a:ext cx="1792824" cy="424057"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3603,7 +3603,7 @@
               <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
               <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
             </a:rPr>
-            <a:t>Create</a:t>
+            <a:t>Store</a:t>
           </a:r>
           <a:r>
             <a:rPr lang="en-US" sz="1200" baseline="0">
@@ -3630,15 +3630,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>14</xdr:col>
-      <xdr:colOff>339607</xdr:colOff>
+      <xdr:colOff>339124</xdr:colOff>
       <xdr:row>38</xdr:row>
       <xdr:rowOff>67012</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>14</xdr:col>
-      <xdr:colOff>340780</xdr:colOff>
-      <xdr:row>41</xdr:row>
-      <xdr:rowOff>22378</xdr:rowOff>
+      <xdr:colOff>339607</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>117628</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -3649,9 +3649,9 @@
         </xdr:cNvCxnSpPr>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
-        <a:xfrm>
-          <a:off x="8920390" y="7306012"/>
-          <a:ext cx="1173" cy="526866"/>
+        <a:xfrm flipH="1">
+          <a:off x="8873524" y="7306012"/>
+          <a:ext cx="483" cy="241116"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -3680,28 +3680,28 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>14</xdr:col>
-      <xdr:colOff>340780</xdr:colOff>
-      <xdr:row>43</xdr:row>
-      <xdr:rowOff>79528</xdr:rowOff>
+      <xdr:colOff>334437</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>174778</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>14</xdr:col>
-      <xdr:colOff>341384</xdr:colOff>
-      <xdr:row>45</xdr:row>
-      <xdr:rowOff>147443</xdr:rowOff>
+      <xdr:colOff>339124</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
         <xdr:cNvPr id="12" name="Straight Arrow Connector 11"/>
         <xdr:cNvCxnSpPr>
           <a:stCxn id="7" idx="2"/>
-          <a:endCxn id="8" idx="0"/>
+          <a:endCxn id="31" idx="0"/>
         </xdr:cNvCxnSpPr>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
-        <a:xfrm>
-          <a:off x="8921563" y="8271028"/>
-          <a:ext cx="604" cy="448915"/>
+        <a:xfrm flipH="1">
+          <a:off x="8868837" y="7985278"/>
+          <a:ext cx="4687" cy="244322"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -3803,13 +3803,13 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>19</xdr:col>
-      <xdr:colOff>582707</xdr:colOff>
+      <xdr:colOff>592232</xdr:colOff>
       <xdr:row>35</xdr:row>
       <xdr:rowOff>114300</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>22</xdr:col>
-      <xdr:colOff>515471</xdr:colOff>
+      <xdr:colOff>524996</xdr:colOff>
       <xdr:row>37</xdr:row>
       <xdr:rowOff>123825</xdr:rowOff>
     </xdr:to>
@@ -3820,8 +3820,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="12079942" y="6781800"/>
-          <a:ext cx="1748117" cy="390525"/>
+          <a:off x="12174632" y="6781800"/>
+          <a:ext cx="1761564" cy="390525"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3878,13 +3878,13 @@
       <xdr:col>19</xdr:col>
       <xdr:colOff>582705</xdr:colOff>
       <xdr:row>39</xdr:row>
-      <xdr:rowOff>9525</xdr:rowOff>
+      <xdr:rowOff>104775</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>22</xdr:col>
       <xdr:colOff>537882</xdr:colOff>
       <xdr:row>41</xdr:row>
-      <xdr:rowOff>19050</xdr:rowOff>
+      <xdr:rowOff>114300</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -3893,8 +3893,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="12079940" y="7439025"/>
-          <a:ext cx="1770530" cy="390525"/>
+          <a:off x="12165105" y="7534275"/>
+          <a:ext cx="1783977" cy="390525"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3950,14 +3950,14 @@
     <xdr:from>
       <xdr:col>19</xdr:col>
       <xdr:colOff>582707</xdr:colOff>
-      <xdr:row>42</xdr:row>
-      <xdr:rowOff>72838</xdr:rowOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>53788</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>22</xdr:col>
       <xdr:colOff>538875</xdr:colOff>
-      <xdr:row>44</xdr:row>
-      <xdr:rowOff>82363</xdr:rowOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>63313</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -3966,8 +3966,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="12079942" y="8073838"/>
-          <a:ext cx="1771521" cy="390525"/>
+          <a:off x="12165107" y="8245288"/>
+          <a:ext cx="1784968" cy="390525"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4034,13 +4034,13 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>21</xdr:col>
-      <xdr:colOff>246530</xdr:colOff>
+      <xdr:colOff>245989</xdr:colOff>
       <xdr:row>34</xdr:row>
       <xdr:rowOff>39780</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>21</xdr:col>
-      <xdr:colOff>248229</xdr:colOff>
+      <xdr:colOff>253814</xdr:colOff>
       <xdr:row>35</xdr:row>
       <xdr:rowOff>114300</xdr:rowOff>
     </xdr:to>
@@ -4053,9 +4053,9 @@
         </xdr:cNvCxnSpPr>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
-        <a:xfrm flipH="1">
-          <a:off x="12954001" y="6516780"/>
-          <a:ext cx="1699" cy="265020"/>
+        <a:xfrm>
+          <a:off x="13047589" y="6516780"/>
+          <a:ext cx="7825" cy="265020"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -4084,15 +4084,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>21</xdr:col>
-      <xdr:colOff>246530</xdr:colOff>
+      <xdr:colOff>253814</xdr:colOff>
       <xdr:row>37</xdr:row>
       <xdr:rowOff>123825</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>21</xdr:col>
-      <xdr:colOff>257734</xdr:colOff>
+      <xdr:colOff>255494</xdr:colOff>
       <xdr:row>39</xdr:row>
-      <xdr:rowOff>9525</xdr:rowOff>
+      <xdr:rowOff>104775</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -4104,8 +4104,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="12954001" y="7172325"/>
-          <a:ext cx="11204" cy="266700"/>
+          <a:off x="13055414" y="7172325"/>
+          <a:ext cx="1680" cy="361950"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -4134,15 +4134,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>21</xdr:col>
-      <xdr:colOff>257734</xdr:colOff>
+      <xdr:colOff>255494</xdr:colOff>
       <xdr:row>41</xdr:row>
-      <xdr:rowOff>19050</xdr:rowOff>
+      <xdr:rowOff>114300</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>21</xdr:col>
-      <xdr:colOff>258232</xdr:colOff>
-      <xdr:row>42</xdr:row>
-      <xdr:rowOff>72838</xdr:rowOff>
+      <xdr:colOff>255991</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>53788</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -4154,8 +4154,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="12965205" y="7829550"/>
-          <a:ext cx="498" cy="244288"/>
+          <a:off x="13057094" y="7924800"/>
+          <a:ext cx="497" cy="320488"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -4185,14 +4185,14 @@
     <xdr:from>
       <xdr:col>19</xdr:col>
       <xdr:colOff>190500</xdr:colOff>
-      <xdr:row>49</xdr:row>
-      <xdr:rowOff>38100</xdr:rowOff>
+      <xdr:row>50</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>23</xdr:col>
       <xdr:colOff>336909</xdr:colOff>
-      <xdr:row>51</xdr:row>
-      <xdr:rowOff>123825</xdr:rowOff>
+      <xdr:row>52</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -4201,8 +4201,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="11687735" y="9372600"/>
-          <a:ext cx="2566880" cy="466725"/>
+          <a:off x="11772900" y="9572625"/>
+          <a:ext cx="2584809" cy="466725"/>
         </a:xfrm>
         <a:prstGeom prst="flowChartDecision">
           <a:avLst/>
@@ -4281,15 +4281,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>21</xdr:col>
-      <xdr:colOff>258232</xdr:colOff>
-      <xdr:row>44</xdr:row>
-      <xdr:rowOff>82363</xdr:rowOff>
+      <xdr:colOff>255991</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>63313</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>21</xdr:col>
-      <xdr:colOff>263337</xdr:colOff>
-      <xdr:row>45</xdr:row>
-      <xdr:rowOff>161925</xdr:rowOff>
+      <xdr:colOff>261096</xdr:colOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -4301,8 +4301,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="12965703" y="8464363"/>
-          <a:ext cx="5105" cy="270062"/>
+          <a:off x="13057591" y="8635813"/>
+          <a:ext cx="5105" cy="298637"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -4331,15 +4331,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>22</xdr:col>
-      <xdr:colOff>515471</xdr:colOff>
+      <xdr:colOff>524996</xdr:colOff>
       <xdr:row>36</xdr:row>
       <xdr:rowOff>119063</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>23</xdr:col>
       <xdr:colOff>336909</xdr:colOff>
-      <xdr:row>50</xdr:row>
-      <xdr:rowOff>80963</xdr:rowOff>
+      <xdr:row>51</xdr:row>
+      <xdr:rowOff>90488</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -4351,12 +4351,12 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipH="1" flipV="1">
-          <a:off x="13828059" y="6977063"/>
-          <a:ext cx="426556" cy="2628900"/>
+          <a:off x="13936196" y="6977063"/>
+          <a:ext cx="421513" cy="2828925"/>
         </a:xfrm>
         <a:prstGeom prst="bentConnector3">
           <a:avLst>
-            <a:gd name="adj1" fmla="val -53592"/>
+            <a:gd name="adj1" fmla="val -54233"/>
           </a:avLst>
         </a:prstGeom>
         <a:ln w="25400">
@@ -4384,14 +4384,14 @@
     <xdr:from>
       <xdr:col>21</xdr:col>
       <xdr:colOff>263705</xdr:colOff>
-      <xdr:row>51</xdr:row>
-      <xdr:rowOff>123825</xdr:rowOff>
+      <xdr:row>52</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>21</xdr:col>
       <xdr:colOff>268090</xdr:colOff>
-      <xdr:row>53</xdr:row>
-      <xdr:rowOff>57150</xdr:rowOff>
+      <xdr:row>54</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -4403,7 +4403,7 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="13134879" y="9839325"/>
+          <a:off x="13065305" y="10039350"/>
           <a:ext cx="4385" cy="314325"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
@@ -4434,14 +4434,14 @@
     <xdr:from>
       <xdr:col>19</xdr:col>
       <xdr:colOff>485247</xdr:colOff>
-      <xdr:row>53</xdr:row>
-      <xdr:rowOff>57150</xdr:rowOff>
+      <xdr:row>54</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>23</xdr:col>
       <xdr:colOff>50933</xdr:colOff>
-      <xdr:row>55</xdr:row>
-      <xdr:rowOff>99391</xdr:rowOff>
+      <xdr:row>56</xdr:row>
+      <xdr:rowOff>108916</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -4450,8 +4450,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="12130595" y="10153650"/>
-          <a:ext cx="2017338" cy="423241"/>
+          <a:off x="12067647" y="10353675"/>
+          <a:ext cx="2004086" cy="423241"/>
         </a:xfrm>
         <a:prstGeom prst="flowChartTerminator">
           <a:avLst/>
@@ -4498,14 +4498,14 @@
     <xdr:from>
       <xdr:col>19</xdr:col>
       <xdr:colOff>582703</xdr:colOff>
-      <xdr:row>45</xdr:row>
-      <xdr:rowOff>161925</xdr:rowOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>22</xdr:col>
       <xdr:colOff>549089</xdr:colOff>
-      <xdr:row>47</xdr:row>
-      <xdr:rowOff>171450</xdr:rowOff>
+      <xdr:row>48</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -4514,8 +4514,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="12079938" y="8734425"/>
-          <a:ext cx="1781739" cy="390525"/>
+          <a:off x="12165103" y="8934450"/>
+          <a:ext cx="1795186" cy="390525"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4563,15 +4563,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>21</xdr:col>
-      <xdr:colOff>263337</xdr:colOff>
-      <xdr:row>47</xdr:row>
-      <xdr:rowOff>171450</xdr:rowOff>
+      <xdr:colOff>261096</xdr:colOff>
+      <xdr:row>48</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>21</xdr:col>
-      <xdr:colOff>263704</xdr:colOff>
-      <xdr:row>49</xdr:row>
-      <xdr:rowOff>38100</xdr:rowOff>
+      <xdr:colOff>263705</xdr:colOff>
+      <xdr:row>50</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -4583,8 +4583,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="12970808" y="9124950"/>
-          <a:ext cx="367" cy="247650"/>
+          <a:off x="13062696" y="9324975"/>
+          <a:ext cx="2609" cy="247650"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -4614,14 +4614,14 @@
     <xdr:from>
       <xdr:col>16</xdr:col>
       <xdr:colOff>16939</xdr:colOff>
-      <xdr:row>46</xdr:row>
-      <xdr:rowOff>166688</xdr:rowOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>176213</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>19</xdr:col>
       <xdr:colOff>582703</xdr:colOff>
-      <xdr:row>46</xdr:row>
-      <xdr:rowOff>168972</xdr:rowOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>178497</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -4633,8 +4633,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipV="1">
-          <a:off x="9823548" y="8929688"/>
-          <a:ext cx="2404503" cy="2284"/>
+          <a:off x="9770539" y="9129713"/>
+          <a:ext cx="2394564" cy="2284"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -4887,7 +4887,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>19</xdr:col>
-      <xdr:colOff>582707</xdr:colOff>
+      <xdr:colOff>592232</xdr:colOff>
       <xdr:row>36</xdr:row>
       <xdr:rowOff>120098</xdr:rowOff>
     </xdr:to>
@@ -4901,8 +4901,142 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipV="1">
-          <a:off x="11844131" y="6977063"/>
-          <a:ext cx="383924" cy="1035"/>
+          <a:off x="11781183" y="6977063"/>
+          <a:ext cx="393449" cy="1035"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="25400">
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>47625</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>11649</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>81157</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="31" name="Rectangle 30"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7972425" y="8229600"/>
+          <a:ext cx="1792824" cy="424057"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1200">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            </a:rPr>
+            <a:t>Use</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1200" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            </a:rPr>
+            <a:t> constraint</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1200">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            </a:rPr>
+            <a:t> solver</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>334437</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>81157</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>339727</xdr:colOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>156968</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="36" name="Straight Arrow Connector 35"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="31" idx="2"/>
+          <a:endCxn id="8" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8868837" y="8653657"/>
+          <a:ext cx="5290" cy="266311"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -5006,7 +5140,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -5041,7 +5174,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -5217,7 +5349,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:AP158"/>
   <sheetViews>
@@ -5225,29 +5357,29 @@
       <selection activeCell="F147" sqref="F147"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="10.7109375" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="10.140625" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="9.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10">
       <c r="A1" s="18">
         <v>42502</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10">
       <c r="B2" t="s">
         <v>168</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10">
       <c r="C3" t="s">
         <v>169</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10">
       <c r="C4" t="s">
         <v>180</v>
       </c>
@@ -5255,17 +5387,17 @@
         <v>181</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10">
       <c r="J5" t="s">
         <v>182</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10">
       <c r="B6" t="s">
         <v>171</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10">
       <c r="B7" t="s">
         <v>179</v>
       </c>
@@ -5273,7 +5405,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:10">
       <c r="B8" t="s">
         <v>179</v>
       </c>
@@ -5281,32 +5413,32 @@
         <v>176</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:10">
       <c r="C9" t="s">
         <v>172</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:10">
       <c r="C10" t="s">
         <v>173</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:10">
       <c r="C11" t="s">
         <v>174</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:10">
       <c r="C13" s="1" t="s">
         <v>177</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:10">
       <c r="C14" s="1" t="s">
         <v>178</v>
       </c>
     </row>
-    <row r="17" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:17">
       <c r="A17" s="18">
         <v>42499</v>
       </c>
@@ -5314,7 +5446,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:17">
       <c r="B18" t="s">
         <v>160</v>
       </c>
@@ -5322,7 +5454,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="19" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:17">
       <c r="C19" t="s">
         <v>161</v>
       </c>
@@ -5330,7 +5462,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:17">
       <c r="C20" t="s">
         <v>162</v>
       </c>
@@ -5338,12 +5470,12 @@
         <v>166</v>
       </c>
     </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:17">
       <c r="C21" t="s">
         <v>167</v>
       </c>
     </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:17">
       <c r="B22" t="s">
         <v>164</v>
       </c>
@@ -5354,7 +5486,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="24" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:17">
       <c r="A24" s="18">
         <v>42496</v>
       </c>
@@ -5368,7 +5500,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:17">
       <c r="B25" t="s">
         <v>137</v>
       </c>
@@ -5376,7 +5508,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="26" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:17">
       <c r="B26" t="s">
         <v>135</v>
       </c>
@@ -5387,7 +5519,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="28" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:17">
       <c r="B28" t="s">
         <v>136</v>
       </c>
@@ -5398,12 +5530,12 @@
         <v>152</v>
       </c>
     </row>
-    <row r="29" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:17">
       <c r="B29" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="30" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:17">
       <c r="B30" t="s">
         <v>139</v>
       </c>
@@ -5411,12 +5543,12 @@
         <v>153</v>
       </c>
     </row>
-    <row r="32" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:17">
       <c r="B32" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="33" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:16">
       <c r="C33" t="s">
         <v>140</v>
       </c>
@@ -5424,7 +5556,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="34" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:16">
       <c r="C34" t="s">
         <v>141</v>
       </c>
@@ -5432,7 +5564,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="36" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:16">
       <c r="B36" t="s">
         <v>142</v>
       </c>
@@ -5440,47 +5572,47 @@
         <v>159</v>
       </c>
     </row>
-    <row r="38" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="38" spans="2:16">
       <c r="B38" t="s">
         <v>143</v>
       </c>
     </row>
-    <row r="39" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="39" spans="2:16">
       <c r="B39" t="s">
         <v>144</v>
       </c>
     </row>
-    <row r="41" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="41" spans="2:16">
       <c r="B41" t="s">
         <v>146</v>
       </c>
     </row>
-    <row r="42" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="42" spans="2:16">
       <c r="B42" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="43" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="43" spans="2:16">
       <c r="B43" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="45" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="45" spans="2:16">
       <c r="B45" t="s">
         <v>148</v>
       </c>
     </row>
-    <row r="50" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:10">
       <c r="A50" s="18">
         <v>42494</v>
       </c>
     </row>
-    <row r="51" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:10">
       <c r="B51" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="52" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:10">
       <c r="C52" t="s">
         <v>1</v>
       </c>
@@ -5488,7 +5620,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="54" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:10">
       <c r="C54" s="5" t="s">
         <v>3</v>
       </c>
@@ -5496,44 +5628,44 @@
         <v>123</v>
       </c>
     </row>
-    <row r="55" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:10">
       <c r="D55" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="56" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:10">
       <c r="E56" s="25" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="57" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:10">
       <c r="E57" s="25"/>
     </row>
-    <row r="58" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:10">
       <c r="B58" s="5" t="s">
         <v>134</v>
       </c>
       <c r="E58" s="25"/>
     </row>
-    <row r="59" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:10">
       <c r="C59" t="s">
         <v>124</v>
       </c>
       <c r="E59" s="25"/>
     </row>
-    <row r="60" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:10">
       <c r="C60" t="s">
         <v>125</v>
       </c>
       <c r="E60" s="25"/>
     </row>
-    <row r="61" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:10">
       <c r="D61" t="s">
         <v>126</v>
       </c>
       <c r="E61" s="25"/>
     </row>
-    <row r="62" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:10">
       <c r="E62" s="26" t="s">
         <v>127</v>
       </c>
@@ -5544,7 +5676,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="63" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:10">
       <c r="E63" s="27">
         <v>1.1000000000000001</v>
       </c>
@@ -5555,7 +5687,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="64" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:10">
       <c r="E64" s="27">
         <v>1.1100000000000001</v>
       </c>
@@ -5572,7 +5704,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="65" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:7">
       <c r="E65" s="27">
         <v>1.3</v>
       </c>
@@ -5583,21 +5715,21 @@
         <v>1</v>
       </c>
     </row>
-    <row r="66" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:7">
       <c r="D66" t="s">
         <v>132</v>
       </c>
       <c r="E66" s="27"/>
     </row>
-    <row r="67" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:7">
       <c r="E67" s="27" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="68" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:7">
       <c r="E68" s="27"/>
     </row>
-    <row r="69" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:7">
       <c r="C69" t="s">
         <v>5</v>
       </c>
@@ -5605,57 +5737,57 @@
         <v>116</v>
       </c>
     </row>
-    <row r="71" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:7">
       <c r="B71" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="72" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:7">
       <c r="B72" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="74" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:7">
       <c r="B74" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="75" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:7">
       <c r="B75" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="77" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:7">
       <c r="A77" s="18">
         <v>42488</v>
       </c>
     </row>
-    <row r="78" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:7">
       <c r="B78" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="79" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:7">
       <c r="C79" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="80" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:7">
       <c r="C80" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="81" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:42">
       <c r="C81" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="82" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:42">
       <c r="C82" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="83" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:42">
       <c r="B83" s="5" t="s">
         <v>113</v>
       </c>
@@ -5668,12 +5800,12 @@
       <c r="I83" s="5"/>
       <c r="J83" s="5"/>
     </row>
-    <row r="85" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:42">
       <c r="A85" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="87" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:42">
       <c r="B87" t="s">
         <v>1</v>
       </c>
@@ -5681,7 +5813,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="89" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:42">
       <c r="B89" t="s">
         <v>3</v>
       </c>
@@ -5689,12 +5821,12 @@
         <v>6</v>
       </c>
     </row>
-    <row r="90" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:42">
       <c r="C90" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="92" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:42">
       <c r="B92" t="s">
         <v>5</v>
       </c>
@@ -5702,12 +5834,12 @@
         <v>8</v>
       </c>
     </row>
-    <row r="93" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:42">
       <c r="C93" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="94" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:42">
       <c r="C94" s="6" t="s">
         <v>52</v>
       </c>
@@ -5741,7 +5873,7 @@
         <v>42483</v>
       </c>
     </row>
-    <row r="95" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:42">
       <c r="C95" s="6" t="s">
         <v>53</v>
       </c>
@@ -5773,7 +5905,7 @@
       <c r="AO95" s="5"/>
       <c r="AP95" s="5"/>
     </row>
-    <row r="96" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:42">
       <c r="C96" t="s">
         <v>14</v>
       </c>
@@ -5787,29 +5919,29 @@
       <c r="AO96" s="5"/>
       <c r="AP96" s="5"/>
     </row>
-    <row r="97" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="97" spans="2:11">
       <c r="C97" s="1"/>
       <c r="D97" s="1" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="98" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="98" spans="2:11">
       <c r="C98" s="1"/>
       <c r="D98" s="1" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="100" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="100" spans="2:11">
       <c r="C100" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="101" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="101" spans="2:11">
       <c r="C101" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="103" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="103" spans="2:11">
       <c r="B103" t="s">
         <v>7</v>
       </c>
@@ -5817,12 +5949,12 @@
         <v>16</v>
       </c>
     </row>
-    <row r="105" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="105" spans="2:11">
       <c r="C105" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="107" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="107" spans="2:11">
       <c r="B107" t="s">
         <v>17</v>
       </c>
@@ -5830,7 +5962,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="108" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="108" spans="2:11">
       <c r="D108" s="5" t="s">
         <v>50</v>
       </c>
@@ -5848,7 +5980,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="109" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="109" spans="2:11">
       <c r="C109" t="s">
         <v>19</v>
       </c>
@@ -5856,12 +5988,12 @@
         <v>20</v>
       </c>
     </row>
-    <row r="110" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="110" spans="2:11">
       <c r="D110" s="3" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="112" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="112" spans="2:11">
       <c r="B112" t="s">
         <v>22</v>
       </c>
@@ -5869,12 +6001,12 @@
         <v>21</v>
       </c>
     </row>
-    <row r="114" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:24">
       <c r="A114" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="115" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:24">
       <c r="B115" t="s">
         <v>48</v>
       </c>
@@ -5896,7 +6028,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="116" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:24">
       <c r="B116" t="s">
         <v>46</v>
       </c>
@@ -5910,7 +6042,7 @@
         <v>42480</v>
       </c>
     </row>
-    <row r="117" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:24">
       <c r="B117" t="s">
         <v>49</v>
       </c>
@@ -5924,14 +6056,14 @@
         <v>42480</v>
       </c>
     </row>
-    <row r="118" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:24">
       <c r="M118" s="6"/>
       <c r="N118" s="6"/>
       <c r="O118" s="6"/>
       <c r="P118" s="6"/>
       <c r="S118" s="8"/>
     </row>
-    <row r="119" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:24">
       <c r="F119" s="9" t="s">
         <v>69</v>
       </c>
@@ -5944,7 +6076,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="120" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:24">
       <c r="A120" t="s">
         <v>47</v>
       </c>
@@ -5967,7 +6099,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="121" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:24">
       <c r="A121" s="4" t="s">
         <v>23</v>
       </c>
@@ -5987,7 +6119,7 @@
       <c r="O121" s="4"/>
       <c r="P121" s="4"/>
     </row>
-    <row r="122" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:24">
       <c r="A122" s="4" t="s">
         <v>24</v>
       </c>
@@ -6007,7 +6139,7 @@
       <c r="O122" s="4"/>
       <c r="P122" s="4"/>
     </row>
-    <row r="123" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:24">
       <c r="A123" t="s">
         <v>25</v>
       </c>
@@ -6027,12 +6159,12 @@
       </c>
       <c r="V123" s="9"/>
     </row>
-    <row r="124" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:24">
       <c r="A124" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="125" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:24">
       <c r="A125" s="4" t="s">
         <v>42</v>
       </c>
@@ -6052,7 +6184,7 @@
       <c r="O125" s="4"/>
       <c r="P125" s="4"/>
     </row>
-    <row r="126" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:24">
       <c r="A126" s="4" t="s">
         <v>27</v>
       </c>
@@ -6072,12 +6204,12 @@
       <c r="O126" s="4"/>
       <c r="P126" s="4"/>
     </row>
-    <row r="127" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:24">
       <c r="A127" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="128" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:24">
       <c r="A128" s="4" t="s">
         <v>45</v>
       </c>
@@ -6097,83 +6229,83 @@
       <c r="O128" s="4"/>
       <c r="P128" s="4"/>
     </row>
-    <row r="129" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:2">
       <c r="A129" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="130" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:2">
       <c r="A130" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="131" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:2">
       <c r="A131" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="132" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:2">
       <c r="A132" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="133" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:2">
       <c r="A133" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="134" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:2">
       <c r="A134" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="135" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:2">
       <c r="A135" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="136" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:2">
       <c r="A136" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="137" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:2">
       <c r="A137" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="138" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:2">
       <c r="A138" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="139" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:2">
       <c r="A139" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="140" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:2">
       <c r="A140" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="141" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:2">
       <c r="A141" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="144" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:2">
       <c r="A144" s="13" t="s">
         <v>70</v>
       </c>
       <c r="B144" s="13"/>
     </row>
-    <row r="145" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="145" spans="2:11">
       <c r="B145" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="146" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="146" spans="2:11">
       <c r="B146" s="5" t="s">
         <v>80</v>
       </c>
@@ -6183,32 +6315,32 @@
       <c r="D146" s="5"/>
       <c r="E146" s="5"/>
     </row>
-    <row r="147" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="147" spans="2:11">
       <c r="B147" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="148" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="148" spans="2:11">
       <c r="C148" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="149" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="149" spans="2:11">
       <c r="B149" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="151" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="151" spans="2:11">
       <c r="B151" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="152" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="152" spans="2:11">
       <c r="B152" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="154" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="154" spans="2:11">
       <c r="B154" s="5" t="s">
         <v>84</v>
       </c>
@@ -6223,12 +6355,12 @@
         <v>42483</v>
       </c>
     </row>
-    <row r="157" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="157" spans="2:11">
       <c r="B157" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="158" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="158" spans="2:11">
       <c r="B158" t="s">
         <v>86</v>
       </c>
@@ -6243,7 +6375,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:R95"/>
   <sheetViews>
@@ -6251,7 +6383,7 @@
       <selection activeCell="H60" sqref="H60"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="2" max="2" width="5" style="10" customWidth="1"/>
     <col min="3" max="3" width="30.140625" bestFit="1" customWidth="1"/>
@@ -6266,7 +6398,7 @@
     <col min="12" max="12" width="14.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:18">
       <c r="A1" s="7" t="s">
         <v>59</v>
       </c>
@@ -6275,7 +6407,7 @@
       <c r="D1" s="7"/>
       <c r="E1" s="11"/>
     </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:18">
       <c r="B2" s="17" t="s">
         <v>65</v>
       </c>
@@ -6313,7 +6445,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:18">
       <c r="B3" s="14">
         <v>1</v>
       </c>
@@ -6357,7 +6489,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:18">
       <c r="B4" s="14">
         <f>B3+1</f>
         <v>2</v>
@@ -6391,7 +6523,7 @@
       </c>
       <c r="L4" s="15"/>
     </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:18">
       <c r="B5" s="14">
         <f t="shared" ref="B5:B19" si="0">B4+1</f>
         <v>3</v>
@@ -6425,7 +6557,7 @@
       </c>
       <c r="L5" s="15"/>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:18">
       <c r="B6" s="14">
         <f t="shared" si="0"/>
         <v>4</v>
@@ -6462,7 +6594,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:18">
       <c r="B7" s="14">
         <f t="shared" si="0"/>
         <v>5</v>
@@ -6503,7 +6635,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:18">
       <c r="B8" s="14">
         <f t="shared" si="0"/>
         <v>6</v>
@@ -6545,7 +6677,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:18">
       <c r="B9" s="14">
         <f t="shared" si="0"/>
         <v>7</v>
@@ -6585,7 +6717,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:18">
       <c r="B10" s="14">
         <f t="shared" si="0"/>
         <v>8</v>
@@ -6625,7 +6757,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:18">
       <c r="B11" s="14">
         <f t="shared" si="0"/>
         <v>9</v>
@@ -6641,7 +6773,7 @@
       <c r="K11" s="15"/>
       <c r="L11" s="15"/>
     </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:18">
       <c r="B12" s="14">
         <f t="shared" si="0"/>
         <v>10</v>
@@ -6657,7 +6789,7 @@
       <c r="K12" s="15"/>
       <c r="L12" s="15"/>
     </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:18">
       <c r="B13" s="14">
         <f t="shared" si="0"/>
         <v>11</v>
@@ -6673,7 +6805,7 @@
       <c r="K13" s="15"/>
       <c r="L13" s="15"/>
     </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:18">
       <c r="B14" s="14">
         <f t="shared" si="0"/>
         <v>12</v>
@@ -6689,7 +6821,7 @@
       <c r="K14" s="15"/>
       <c r="L14" s="15"/>
     </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:18">
       <c r="B15" s="14">
         <f t="shared" si="0"/>
         <v>13</v>
@@ -6705,7 +6837,7 @@
       <c r="K15" s="15"/>
       <c r="L15" s="15"/>
     </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:18">
       <c r="B16" s="14">
         <f t="shared" si="0"/>
         <v>14</v>
@@ -6721,7 +6853,7 @@
       <c r="K16" s="15"/>
       <c r="L16" s="15"/>
     </row>
-    <row r="17" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:12">
       <c r="B17" s="14">
         <f t="shared" si="0"/>
         <v>15</v>
@@ -6737,7 +6869,7 @@
       <c r="K17" s="15"/>
       <c r="L17" s="15"/>
     </row>
-    <row r="18" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:12">
       <c r="B18" s="14">
         <f t="shared" si="0"/>
         <v>16</v>
@@ -6753,7 +6885,7 @@
       <c r="K18" s="15"/>
       <c r="L18" s="15"/>
     </row>
-    <row r="19" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:12">
       <c r="B19" s="14">
         <f t="shared" si="0"/>
         <v>17</v>
@@ -6769,12 +6901,12 @@
       <c r="K19" s="15"/>
       <c r="L19" s="15"/>
     </row>
-    <row r="22" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:12">
       <c r="C22" t="s">
         <v>183</v>
       </c>
     </row>
-    <row r="23" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:12">
       <c r="C23" t="s">
         <v>184</v>
       </c>
@@ -6793,7 +6925,7 @@
       </c>
       <c r="L23" s="47"/>
     </row>
-    <row r="24" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:12">
       <c r="G24" s="49"/>
       <c r="H24" s="51"/>
       <c r="I24" s="14" t="s">
@@ -6809,7 +6941,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="25" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:12">
       <c r="G25" s="33" t="s">
         <v>110</v>
       </c>
@@ -6825,7 +6957,7 @@
       <c r="K25" s="32"/>
       <c r="L25" s="32"/>
     </row>
-    <row r="26" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:12">
       <c r="G26" s="37"/>
       <c r="H26" s="38"/>
       <c r="I26" s="32">
@@ -6837,7 +6969,7 @@
       <c r="K26" s="32"/>
       <c r="L26" s="32"/>
     </row>
-    <row r="27" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:12">
       <c r="G27" s="37"/>
       <c r="H27" s="38"/>
       <c r="I27" s="32">
@@ -6849,7 +6981,7 @@
       <c r="K27" s="32"/>
       <c r="L27" s="32"/>
     </row>
-    <row r="28" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:12">
       <c r="G28" s="37"/>
       <c r="H28" s="38"/>
       <c r="I28" s="32">
@@ -6861,7 +6993,7 @@
       <c r="K28" s="32"/>
       <c r="L28" s="32"/>
     </row>
-    <row r="29" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:12">
       <c r="G29" s="37"/>
       <c r="H29" s="38"/>
       <c r="I29" s="32"/>
@@ -6869,7 +7001,7 @@
       <c r="K29" s="32"/>
       <c r="L29" s="32"/>
     </row>
-    <row r="30" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:12">
       <c r="G30" s="37"/>
       <c r="H30" s="38"/>
       <c r="I30" s="32"/>
@@ -6877,7 +7009,7 @@
       <c r="K30" s="32"/>
       <c r="L30" s="32"/>
     </row>
-    <row r="31" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:12">
       <c r="G31" s="35"/>
       <c r="H31" s="36"/>
       <c r="I31" s="32"/>
@@ -6885,7 +7017,7 @@
       <c r="K31" s="32"/>
       <c r="L31" s="32"/>
     </row>
-    <row r="32" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:12">
       <c r="G32" s="15" t="s">
         <v>109</v>
       </c>
@@ -6895,7 +7027,7 @@
       <c r="K32" s="32"/>
       <c r="L32" s="32"/>
     </row>
-    <row r="33" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:12">
       <c r="G33" s="15"/>
       <c r="H33" s="32"/>
       <c r="I33" s="32"/>
@@ -6903,7 +7035,7 @@
       <c r="K33" s="32"/>
       <c r="L33" s="32"/>
     </row>
-    <row r="34" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:12">
       <c r="G34" s="15"/>
       <c r="H34" s="32"/>
       <c r="I34" s="32"/>
@@ -6911,7 +7043,7 @@
       <c r="K34" s="32"/>
       <c r="L34" s="32"/>
     </row>
-    <row r="35" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:12">
       <c r="G35" s="15"/>
       <c r="H35" s="32"/>
       <c r="I35" s="32"/>
@@ -6919,7 +7051,7 @@
       <c r="K35" s="32"/>
       <c r="L35" s="32"/>
     </row>
-    <row r="36" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:12">
       <c r="G36" s="15" t="s">
         <v>195</v>
       </c>
@@ -6939,7 +7071,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:12">
       <c r="G37" s="15"/>
       <c r="H37" s="32"/>
       <c r="I37" s="32">
@@ -6955,7 +7087,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="38" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:12">
       <c r="G38" s="15"/>
       <c r="H38" s="32"/>
       <c r="I38" s="32"/>
@@ -6967,7 +7099,7 @@
         <v>462</v>
       </c>
     </row>
-    <row r="39" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:12">
       <c r="G39" s="15"/>
       <c r="H39" s="32"/>
       <c r="I39" s="32"/>
@@ -6979,7 +7111,7 @@
         <v>57595</v>
       </c>
     </row>
-    <row r="40" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:12">
       <c r="G40" s="15" t="s">
         <v>111</v>
       </c>
@@ -6989,7 +7121,7 @@
       <c r="K40" s="32"/>
       <c r="L40" s="32"/>
     </row>
-    <row r="41" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:12">
       <c r="G41" s="15"/>
       <c r="H41" s="32"/>
       <c r="I41" s="32"/>
@@ -6997,14 +7129,14 @@
       <c r="K41" s="32"/>
       <c r="L41" s="32"/>
     </row>
-    <row r="42" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:12">
       <c r="H42" s="31"/>
       <c r="I42" s="31"/>
       <c r="J42" s="31"/>
       <c r="K42" s="31"/>
       <c r="L42" s="31"/>
     </row>
-    <row r="43" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:12">
       <c r="A43" t="s">
         <v>198</v>
       </c>
@@ -7014,7 +7146,7 @@
       <c r="K43" s="31"/>
       <c r="L43" s="31"/>
     </row>
-    <row r="44" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:12">
       <c r="C44" t="s">
         <v>199</v>
       </c>
@@ -7024,7 +7156,7 @@
       <c r="K44" s="31"/>
       <c r="L44" s="31"/>
     </row>
-    <row r="45" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:12">
       <c r="C45" t="s">
         <v>200</v>
       </c>
@@ -7035,7 +7167,7 @@
       <c r="I45" s="30"/>
       <c r="J45" s="30"/>
     </row>
-    <row r="46" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:12">
       <c r="C46" t="s">
         <v>202</v>
       </c>
@@ -7043,7 +7175,7 @@
       <c r="I46" s="30"/>
       <c r="J46" s="30"/>
     </row>
-    <row r="47" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:12">
       <c r="C47" t="s">
         <v>208</v>
       </c>
@@ -7054,17 +7186,17 @@
       <c r="I47" s="30"/>
       <c r="J47" s="30"/>
     </row>
-    <row r="48" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:12">
       <c r="C48" t="s">
         <v>212</v>
       </c>
     </row>
-    <row r="50" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:10">
       <c r="A50" t="s">
         <v>203</v>
       </c>
     </row>
-    <row r="51" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:10">
       <c r="A51" t="s">
         <v>158</v>
       </c>
@@ -7072,7 +7204,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="52" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:10">
       <c r="A52" t="s">
         <v>158</v>
       </c>
@@ -7089,7 +7221,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="53" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:10">
       <c r="B53" s="39" t="s">
         <v>206</v>
       </c>
@@ -7097,41 +7229,41 @@
         <v>211</v>
       </c>
     </row>
-    <row r="54" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:10">
       <c r="B54" s="39" t="s">
         <v>213</v>
       </c>
     </row>
-    <row r="55" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:10">
       <c r="B55" s="39" t="s">
         <v>214</v>
       </c>
     </row>
-    <row r="56" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:10">
       <c r="B56" s="39"/>
       <c r="J56" s="40"/>
     </row>
-    <row r="57" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:10">
       <c r="J57" s="40"/>
     </row>
-    <row r="58" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:10">
       <c r="H58"/>
       <c r="J58" s="40"/>
     </row>
-    <row r="59" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:10">
       <c r="H59"/>
       <c r="J59" s="40"/>
     </row>
-    <row r="60" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:10">
       <c r="H60"/>
     </row>
-    <row r="61" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:10">
       <c r="H61"/>
     </row>
-    <row r="62" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:10">
       <c r="H62"/>
     </row>
-    <row r="95" spans="16:16" x14ac:dyDescent="0.25">
+    <row r="95" spans="16:16">
       <c r="P95" s="41"/>
     </row>
   </sheetData>
@@ -7148,30 +7280,30 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr codeName="Sheet3"/>
   <dimension ref="A1:AH18"/>
   <sheetViews>
-    <sheetView topLeftCell="K34" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="AB45" sqref="AB45"/>
+    <sheetView tabSelected="1" topLeftCell="I29" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="AD44" sqref="AD44"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="16384" width="9.140625" style="42"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:34">
       <c r="A1" s="43" t="s">
         <v>219</v>
       </c>
     </row>
-    <row r="2" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:34">
       <c r="O2" s="42" t="s">
         <v>215</v>
       </c>
     </row>
-    <row r="3" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:34">
       <c r="A3" s="42" t="s">
         <v>220</v>
       </c>
@@ -7179,7 +7311,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="4" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:34">
       <c r="P4" s="42" t="s">
         <v>218</v>
       </c>
@@ -7193,12 +7325,12 @@
       <c r="AG4" s="5"/>
       <c r="AH4" s="5"/>
     </row>
-    <row r="5" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:34">
       <c r="A5" s="42" t="s">
         <v>221</v>
       </c>
     </row>
-    <row r="6" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:34">
       <c r="B6" s="42" t="s">
         <v>224</v>
       </c>
@@ -7206,42 +7338,42 @@
         <v>225</v>
       </c>
     </row>
-    <row r="7" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:34">
       <c r="A7" s="42" t="s">
         <v>222</v>
       </c>
     </row>
-    <row r="8" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:34">
       <c r="B8" s="42" t="s">
         <v>223</v>
       </c>
     </row>
-    <row r="12" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:34">
       <c r="O12" s="42" t="s">
         <v>216</v>
       </c>
     </row>
-    <row r="13" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:34">
       <c r="P13" s="42" t="s">
         <v>217</v>
       </c>
     </row>
-    <row r="14" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:34">
       <c r="Q14" s="42" t="s">
         <v>226</v>
       </c>
     </row>
-    <row r="16" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:34">
       <c r="P16" s="42" t="s">
         <v>227</v>
       </c>
     </row>
-    <row r="17" spans="4:16" x14ac:dyDescent="0.25">
+    <row r="17" spans="4:16">
       <c r="P17" s="42" t="s">
         <v>228</v>
       </c>
     </row>
-    <row r="18" spans="4:16" x14ac:dyDescent="0.25">
+    <row r="18" spans="4:16">
       <c r="D18" s="44"/>
     </row>
   </sheetData>
@@ -7252,22 +7384,22 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr codeName="Sheet4"/>
   <dimension ref="A1:AF109"/>
   <sheetViews>
-    <sheetView topLeftCell="A31" workbookViewId="0">
+    <sheetView topLeftCell="A73" workbookViewId="0">
       <selection activeCell="G52" sqref="G52"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:31">
       <c r="A1" t="s">
         <v>230</v>
       </c>
     </row>
-    <row r="2" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:31">
       <c r="B2" s="25" t="s">
         <v>229</v>
       </c>
@@ -7275,7 +7407,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="4" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:31">
       <c r="A4" t="s">
         <v>231</v>
       </c>
@@ -7283,7 +7415,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="7" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:31">
       <c r="A7" t="s">
         <v>234</v>
       </c>
@@ -7291,7 +7423,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="8" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:31">
       <c r="B8" s="25" t="s">
         <v>233</v>
       </c>
@@ -7307,7 +7439,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="9" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:31">
       <c r="B9" t="s">
         <v>235</v>
       </c>
@@ -7321,7 +7453,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="10" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:31">
       <c r="C10" s="3" t="s">
         <v>236</v>
       </c>
@@ -7335,7 +7467,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="11" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:31">
       <c r="C11" s="3" t="s">
         <v>237</v>
       </c>
@@ -7353,7 +7485,7 @@
       </c>
       <c r="AE11" s="5"/>
     </row>
-    <row r="12" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:31">
       <c r="R12" t="s">
         <v>252</v>
       </c>
@@ -7364,7 +7496,7 @@
         <v>287</v>
       </c>
     </row>
-    <row r="13" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:31">
       <c r="A13" t="s">
         <v>239</v>
       </c>
@@ -7378,7 +7510,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="14" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:31">
       <c r="B14" s="4" t="s">
         <v>240</v>
       </c>
@@ -7401,7 +7533,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="15" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:31">
       <c r="C15" t="s">
         <v>244</v>
       </c>
@@ -7421,7 +7553,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="16" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:31">
       <c r="C16" t="s">
         <v>246</v>
       </c>
@@ -7438,7 +7570,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="17" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:32">
       <c r="B17" s="4" t="s">
         <v>241</v>
       </c>
@@ -7463,7 +7595,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="18" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:32">
       <c r="C18" t="s">
         <v>247</v>
       </c>
@@ -7477,7 +7609,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="19" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:32">
       <c r="R19" t="s">
         <v>259</v>
       </c>
@@ -7485,7 +7617,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="20" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:32">
       <c r="R20" t="s">
         <v>260</v>
       </c>
@@ -7496,12 +7628,12 @@
         <v>295</v>
       </c>
     </row>
-    <row r="21" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:32">
       <c r="R21" t="s">
         <v>261</v>
       </c>
     </row>
-    <row r="22" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:32">
       <c r="B22" t="s">
         <v>242</v>
       </c>
@@ -7515,7 +7647,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="23" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:32">
       <c r="R23" t="s">
         <v>263</v>
       </c>
@@ -7523,7 +7655,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="24" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:32">
       <c r="R24" t="s">
         <v>264</v>
       </c>
@@ -7531,7 +7663,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="25" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:32">
       <c r="R25" t="s">
         <v>265</v>
       </c>
@@ -7541,7 +7673,7 @@
       <c r="AE25" s="5"/>
       <c r="AF25" s="5"/>
     </row>
-    <row r="26" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:32">
       <c r="R26" t="s">
         <v>266</v>
       </c>
@@ -7549,7 +7681,7 @@
         <v>298</v>
       </c>
     </row>
-    <row r="27" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:32">
       <c r="A27" s="13" t="s">
         <v>305</v>
       </c>
@@ -7565,7 +7697,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="28" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:32">
       <c r="B28" t="s">
         <v>306</v>
       </c>
@@ -7576,7 +7708,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="29" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:32">
       <c r="B29" t="s">
         <v>307</v>
       </c>
@@ -7587,7 +7719,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="30" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:32">
       <c r="B30" t="s">
         <v>308</v>
       </c>
@@ -7598,7 +7730,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="31" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:32">
       <c r="C31" t="s">
         <v>309</v>
       </c>
@@ -7606,7 +7738,7 @@
         <v>302</v>
       </c>
     </row>
-    <row r="32" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:32">
       <c r="C32" t="s">
         <v>310</v>
       </c>
@@ -7614,7 +7746,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="33" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:30">
       <c r="B33" t="s">
         <v>311</v>
       </c>
@@ -7622,7 +7754,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="34" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:30">
       <c r="B34" t="s">
         <v>312</v>
       </c>
@@ -7630,72 +7762,72 @@
         <v>295</v>
       </c>
     </row>
-    <row r="35" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:30">
       <c r="C35" t="s">
         <v>313</v>
       </c>
     </row>
-    <row r="36" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:30">
       <c r="D36" t="s">
         <v>314</v>
       </c>
     </row>
-    <row r="37" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:30">
       <c r="D37" t="s">
         <v>315</v>
       </c>
     </row>
-    <row r="38" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:30">
       <c r="C38" t="s">
         <v>311</v>
       </c>
     </row>
-    <row r="39" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:30">
       <c r="C39" t="s">
         <v>316</v>
       </c>
     </row>
-    <row r="40" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:30">
       <c r="D40" t="s">
         <v>314</v>
       </c>
     </row>
-    <row r="41" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:30">
       <c r="D41" t="s">
         <v>315</v>
       </c>
     </row>
-    <row r="42" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:30">
       <c r="C42" t="s">
         <v>311</v>
       </c>
     </row>
-    <row r="43" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:30">
       <c r="C43" t="s">
         <v>317</v>
       </c>
     </row>
-    <row r="44" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:30">
       <c r="C44" t="s">
         <v>318</v>
       </c>
     </row>
-    <row r="45" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:30">
       <c r="C45" t="s">
         <v>319</v>
       </c>
     </row>
-    <row r="46" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:30">
       <c r="B46" t="s">
         <v>311</v>
       </c>
     </row>
-    <row r="47" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:30">
       <c r="A47" t="s">
         <v>311</v>
       </c>
     </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:7">
       <c r="A49" s="13" t="s">
         <v>320</v>
       </c>
@@ -7705,17 +7837,17 @@
       <c r="E49" s="13"/>
       <c r="F49" s="13"/>
     </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:7">
       <c r="B50" t="s">
         <v>321</v>
       </c>
     </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:7">
       <c r="B51" t="s">
         <v>322</v>
       </c>
     </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:7">
       <c r="B52" s="5" t="s">
         <v>323</v>
       </c>
@@ -7724,32 +7856,32 @@
         <v>324</v>
       </c>
     </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:7">
       <c r="C53" t="s">
         <v>325</v>
       </c>
     </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:7">
       <c r="D54" t="s">
         <v>326</v>
       </c>
     </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:7">
       <c r="E55" t="s">
         <v>327</v>
       </c>
     </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:7">
       <c r="B56" t="s">
         <v>322</v>
       </c>
     </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:7">
       <c r="A57" t="s">
         <v>311</v>
       </c>
     </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:7">
       <c r="A59" s="13" t="s">
         <v>328</v>
       </c>
@@ -7759,62 +7891,62 @@
       <c r="E59" s="13"/>
       <c r="F59" s="13"/>
     </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:7">
       <c r="A60" t="s">
         <v>329</v>
       </c>
     </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:7">
       <c r="A61" t="s">
         <v>330</v>
       </c>
     </row>
-    <row r="62" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:7">
       <c r="A62" t="s">
         <v>331</v>
       </c>
     </row>
-    <row r="63" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:7">
       <c r="A63" t="s">
         <v>332</v>
       </c>
     </row>
-    <row r="64" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:7">
       <c r="A64" t="s">
         <v>333</v>
       </c>
     </row>
-    <row r="65" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:9">
       <c r="A65" t="s">
         <v>334</v>
       </c>
     </row>
-    <row r="66" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:9">
       <c r="A66" t="s">
         <v>335</v>
       </c>
     </row>
-    <row r="67" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:9">
       <c r="A67" t="s">
         <v>334</v>
       </c>
     </row>
-    <row r="68" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:9">
       <c r="A68" t="s">
         <v>336</v>
       </c>
     </row>
-    <row r="69" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:9">
       <c r="A69" t="s">
         <v>337</v>
       </c>
     </row>
-    <row r="70" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:9">
       <c r="A70" t="s">
         <v>338</v>
       </c>
     </row>
-    <row r="71" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:9">
       <c r="A71" t="s">
         <v>339</v>
       </c>
@@ -7822,7 +7954,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="72" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:9">
       <c r="A72" t="s">
         <v>340</v>
       </c>
@@ -7830,182 +7962,182 @@
         <v>372</v>
       </c>
     </row>
-    <row r="73" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:9">
       <c r="A73" t="s">
         <v>341</v>
       </c>
     </row>
-    <row r="74" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:9">
       <c r="A74" t="s">
         <v>342</v>
       </c>
     </row>
-    <row r="75" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:9">
       <c r="A75" t="s">
         <v>343</v>
       </c>
     </row>
-    <row r="76" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:9">
       <c r="A76" t="s">
         <v>344</v>
       </c>
     </row>
-    <row r="77" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:9">
       <c r="A77" t="s">
         <v>345</v>
       </c>
     </row>
-    <row r="78" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:9">
       <c r="A78" t="s">
         <v>341</v>
       </c>
     </row>
-    <row r="79" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:9">
       <c r="A79" t="s">
         <v>346</v>
       </c>
     </row>
-    <row r="80" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:9">
       <c r="A80" t="s">
         <v>347</v>
       </c>
     </row>
-    <row r="81" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:1">
       <c r="A81" t="s">
         <v>348</v>
       </c>
     </row>
-    <row r="82" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:1">
       <c r="A82" t="s">
         <v>349</v>
       </c>
     </row>
-    <row r="83" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:1">
       <c r="A83" t="s">
         <v>350</v>
       </c>
     </row>
-    <row r="84" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:1">
       <c r="A84" t="s">
         <v>351</v>
       </c>
     </row>
-    <row r="85" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:1">
       <c r="A85" t="s">
         <v>352</v>
       </c>
     </row>
-    <row r="86" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:1">
       <c r="A86" t="s">
         <v>348</v>
       </c>
     </row>
-    <row r="87" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:1">
       <c r="A87" t="s">
         <v>353</v>
       </c>
     </row>
-    <row r="88" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:1">
       <c r="A88" t="s">
         <v>354</v>
       </c>
     </row>
-    <row r="89" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:1">
       <c r="A89" t="s">
         <v>355</v>
       </c>
     </row>
-    <row r="90" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:1">
       <c r="A90" t="s">
         <v>356</v>
       </c>
     </row>
-    <row r="91" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:1">
       <c r="A91" t="s">
         <v>357</v>
       </c>
     </row>
-    <row r="92" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:1">
       <c r="A92" t="s">
         <v>358</v>
       </c>
     </row>
-    <row r="93" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:1">
       <c r="A93" t="s">
         <v>359</v>
       </c>
     </row>
-    <row r="94" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:1">
       <c r="A94" t="s">
         <v>360</v>
       </c>
     </row>
-    <row r="95" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:1">
       <c r="A95" t="s">
         <v>361</v>
       </c>
     </row>
-    <row r="96" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:1">
       <c r="A96" t="s">
         <v>362</v>
       </c>
     </row>
-    <row r="97" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:1">
       <c r="A97" t="s">
         <v>363</v>
       </c>
     </row>
-    <row r="98" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:1">
       <c r="A98" t="s">
         <v>351</v>
       </c>
     </row>
-    <row r="99" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:1">
       <c r="A99" t="s">
         <v>344</v>
       </c>
     </row>
-    <row r="100" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:1">
       <c r="A100" t="s">
         <v>364</v>
       </c>
     </row>
-    <row r="101" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:1">
       <c r="A101" t="s">
         <v>365</v>
       </c>
     </row>
-    <row r="102" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:1">
       <c r="A102" t="s">
         <v>338</v>
       </c>
     </row>
-    <row r="103" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:1">
       <c r="A103" t="s">
         <v>366</v>
       </c>
     </row>
-    <row r="104" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:1">
       <c r="A104" t="s">
         <v>367</v>
       </c>
     </row>
-    <row r="105" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:1">
       <c r="A105" t="s">
         <v>364</v>
       </c>
     </row>
-    <row r="107" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:1">
       <c r="A107" t="s">
         <v>368</v>
       </c>
     </row>
-    <row r="108" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:1">
       <c r="A108" t="s">
         <v>369</v>
       </c>
     </row>
-    <row r="109" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:1">
       <c r="A109" t="s">
         <v>370</v>
       </c>
@@ -8020,16 +8152,16 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:Z133"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A46" workbookViewId="0">
+    <sheetView topLeftCell="A19" workbookViewId="0">
       <selection activeCell="M70" sqref="M70"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:25">
       <c r="A1" s="46" t="s">
         <v>375</v>
       </c>
@@ -8038,12 +8170,12 @@
       <c r="D1" s="46"/>
       <c r="E1" s="46"/>
     </row>
-    <row r="3" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:25">
       <c r="A3" t="s">
         <v>413</v>
       </c>
     </row>
-    <row r="5" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:25">
       <c r="A5" t="s">
         <v>414</v>
       </c>
@@ -8051,7 +8183,7 @@
         <v>448</v>
       </c>
     </row>
-    <row r="6" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:25">
       <c r="A6" t="s">
         <v>420</v>
       </c>
@@ -8059,7 +8191,7 @@
         <v>446</v>
       </c>
     </row>
-    <row r="7" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:25">
       <c r="A7" t="s">
         <v>378</v>
       </c>
@@ -8067,7 +8199,7 @@
         <v>447</v>
       </c>
     </row>
-    <row r="8" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:25">
       <c r="B8" t="s">
         <v>409</v>
       </c>
@@ -8078,7 +8210,7 @@
         <v>452</v>
       </c>
     </row>
-    <row r="9" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:25">
       <c r="B9" t="s">
         <v>415</v>
       </c>
@@ -8089,12 +8221,12 @@
         <v>453</v>
       </c>
     </row>
-    <row r="10" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:25">
       <c r="B10" t="s">
         <v>410</v>
       </c>
     </row>
-    <row r="11" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:25">
       <c r="B11" t="s">
         <v>416</v>
       </c>
@@ -8102,17 +8234,17 @@
         <v>451</v>
       </c>
     </row>
-    <row r="13" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:25">
       <c r="B13" t="s">
         <v>417</v>
       </c>
     </row>
-    <row r="14" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:25">
       <c r="B14" t="s">
         <v>378</v>
       </c>
     </row>
-    <row r="15" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:25">
       <c r="C15" t="s">
         <v>411</v>
       </c>
@@ -8120,7 +8252,7 @@
         <v>442</v>
       </c>
     </row>
-    <row r="16" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:25">
       <c r="C16" t="s">
         <v>418</v>
       </c>
@@ -8128,7 +8260,7 @@
         <v>443</v>
       </c>
     </row>
-    <row r="17" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:26">
       <c r="C17" t="s">
         <v>412</v>
       </c>
@@ -8136,7 +8268,7 @@
         <v>444</v>
       </c>
     </row>
-    <row r="18" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:26">
       <c r="C18" t="s">
         <v>419</v>
       </c>
@@ -8144,17 +8276,17 @@
         <v>445</v>
       </c>
     </row>
-    <row r="19" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:26">
       <c r="B19" t="s">
         <v>311</v>
       </c>
     </row>
-    <row r="20" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:26">
       <c r="A20" t="s">
         <v>311</v>
       </c>
     </row>
-    <row r="22" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:26">
       <c r="A22" t="s">
         <v>437</v>
       </c>
@@ -8168,7 +8300,7 @@
         <v>468</v>
       </c>
     </row>
-    <row r="23" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:26">
       <c r="A23" t="s">
         <v>425</v>
       </c>
@@ -8185,7 +8317,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="24" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:26">
       <c r="A24" t="s">
         <v>378</v>
       </c>
@@ -8199,7 +8331,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="25" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:26">
       <c r="B25" t="s">
         <v>426</v>
       </c>
@@ -8213,7 +8345,7 @@
         <v>478</v>
       </c>
     </row>
-    <row r="26" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:26">
       <c r="C26" t="s">
         <v>430</v>
       </c>
@@ -8227,7 +8359,7 @@
         <v>482</v>
       </c>
     </row>
-    <row r="27" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:26">
       <c r="B27" t="s">
         <v>381</v>
       </c>
@@ -8241,7 +8373,7 @@
         <v>457</v>
       </c>
     </row>
-    <row r="28" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:26">
       <c r="C28" t="s">
         <v>431</v>
       </c>
@@ -8255,7 +8387,7 @@
         <v>483</v>
       </c>
     </row>
-    <row r="29" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:26">
       <c r="A29" t="s">
         <v>311</v>
       </c>
@@ -8269,7 +8401,7 @@
         <v>484</v>
       </c>
     </row>
-    <row r="30" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:26">
       <c r="P30" t="s">
         <v>474</v>
       </c>
@@ -8280,7 +8412,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="31" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:26">
       <c r="A31" s="41" t="s">
         <v>390</v>
       </c>
@@ -8303,7 +8435,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="32" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:26">
       <c r="A32" s="41" t="s">
         <v>378</v>
       </c>
@@ -8320,7 +8452,7 @@
         <v>476</v>
       </c>
     </row>
-    <row r="33" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:19">
       <c r="A33" s="41"/>
       <c r="B33" s="5" t="s">
         <v>421</v>
@@ -8337,7 +8469,7 @@
         <v>477</v>
       </c>
     </row>
-    <row r="34" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:19">
       <c r="A34" s="41"/>
       <c r="B34" s="41" t="s">
         <v>378</v>
@@ -8354,7 +8486,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="35" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:19">
       <c r="A35" s="41"/>
       <c r="B35" s="41"/>
       <c r="C35" s="41" t="s">
@@ -8375,7 +8507,7 @@
         <v>37500</v>
       </c>
     </row>
-    <row r="36" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:19">
       <c r="A36" s="41"/>
       <c r="B36" s="41"/>
       <c r="C36" s="41" t="s">
@@ -8389,7 +8521,7 @@
         <v>408</v>
       </c>
     </row>
-    <row r="37" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:19">
       <c r="A37" s="41"/>
       <c r="B37" s="41"/>
       <c r="C37" s="41"/>
@@ -8403,7 +8535,7 @@
         <v>428</v>
       </c>
     </row>
-    <row r="38" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:19">
       <c r="A38" s="41"/>
       <c r="B38" s="41"/>
       <c r="C38" s="41"/>
@@ -8417,7 +8549,7 @@
         <v>429</v>
       </c>
     </row>
-    <row r="39" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:19">
       <c r="A39" s="41"/>
       <c r="B39" s="41"/>
       <c r="C39" s="41"/>
@@ -8428,7 +8560,7 @@
       <c r="F39" s="41"/>
       <c r="G39" s="41"/>
     </row>
-    <row r="40" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:19">
       <c r="A40" s="41"/>
       <c r="B40" s="41"/>
       <c r="C40" s="41"/>
@@ -8439,7 +8571,7 @@
       <c r="F40" s="41"/>
       <c r="G40" s="41"/>
     </row>
-    <row r="41" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:19">
       <c r="A41" s="41"/>
       <c r="B41" s="41"/>
       <c r="C41" s="41"/>
@@ -8450,7 +8582,7 @@
       <c r="F41" s="41"/>
       <c r="G41" s="41"/>
     </row>
-    <row r="42" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:19">
       <c r="A42" s="41"/>
       <c r="B42" s="41"/>
       <c r="C42" s="41"/>
@@ -8461,7 +8593,7 @@
       <c r="F42" s="41"/>
       <c r="G42" s="41"/>
     </row>
-    <row r="43" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:19">
       <c r="A43" s="41"/>
       <c r="B43" s="41"/>
       <c r="C43" s="41"/>
@@ -8472,7 +8604,7 @@
       <c r="F43" s="41"/>
       <c r="G43" s="41"/>
     </row>
-    <row r="44" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:19">
       <c r="A44" s="41"/>
       <c r="B44" s="41"/>
       <c r="C44" s="41"/>
@@ -8483,7 +8615,7 @@
       <c r="F44" s="41"/>
       <c r="G44" s="41"/>
     </row>
-    <row r="45" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:19">
       <c r="A45" s="41"/>
       <c r="B45" s="41"/>
       <c r="C45" s="41" t="s">
@@ -8494,7 +8626,7 @@
       <c r="F45" s="41"/>
       <c r="G45" s="41"/>
     </row>
-    <row r="46" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:19">
       <c r="A46" s="41"/>
       <c r="B46" s="41"/>
       <c r="C46" s="41" t="s">
@@ -8505,7 +8637,7 @@
       <c r="F46" s="41"/>
       <c r="G46" s="41"/>
     </row>
-    <row r="47" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:19">
       <c r="A47" s="41"/>
       <c r="B47" s="41"/>
       <c r="C47" s="41" t="s">
@@ -8516,7 +8648,7 @@
       <c r="F47" s="41"/>
       <c r="G47" s="41"/>
     </row>
-    <row r="48" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:19">
       <c r="A48" s="41"/>
       <c r="B48" s="41"/>
       <c r="C48" s="41"/>
@@ -8527,7 +8659,7 @@
       <c r="F48" s="41"/>
       <c r="G48" s="41"/>
     </row>
-    <row r="49" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:26">
       <c r="A49" s="41"/>
       <c r="B49" s="41"/>
       <c r="C49" s="41" t="s">
@@ -8538,7 +8670,7 @@
       <c r="F49" s="41"/>
       <c r="G49" s="41"/>
     </row>
-    <row r="50" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:26">
       <c r="A50" s="41"/>
       <c r="B50" s="41" t="s">
         <v>311</v>
@@ -8549,7 +8681,7 @@
       <c r="F50" s="41"/>
       <c r="G50" s="41"/>
     </row>
-    <row r="51" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:26">
       <c r="A51" s="41"/>
       <c r="B51" s="41" t="s">
         <v>381</v>
@@ -8560,7 +8692,7 @@
       <c r="F51" s="41"/>
       <c r="G51" s="41"/>
     </row>
-    <row r="52" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:26">
       <c r="A52" s="41"/>
       <c r="B52" s="41" t="s">
         <v>378</v>
@@ -8571,7 +8703,7 @@
       <c r="F52" s="41"/>
       <c r="G52" s="41"/>
     </row>
-    <row r="53" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:26">
       <c r="A53" s="41"/>
       <c r="B53" s="41"/>
       <c r="C53" s="41" t="s">
@@ -8582,7 +8714,7 @@
       <c r="F53" s="41"/>
       <c r="G53" s="41"/>
     </row>
-    <row r="54" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:26">
       <c r="A54" s="41"/>
       <c r="B54" s="41" t="s">
         <v>311</v>
@@ -8593,7 +8725,7 @@
       <c r="F54" s="41"/>
       <c r="G54" s="41"/>
     </row>
-    <row r="55" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:26">
       <c r="A55" s="41" t="s">
         <v>311</v>
       </c>
@@ -8604,7 +8736,7 @@
       <c r="F55" s="41"/>
       <c r="G55" s="41"/>
     </row>
-    <row r="56" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:26">
       <c r="A56" s="41"/>
       <c r="B56" s="41"/>
       <c r="C56" s="41"/>
@@ -8613,7 +8745,7 @@
       <c r="F56" s="41"/>
       <c r="G56" s="41"/>
     </row>
-    <row r="57" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:26">
       <c r="A57" s="41" t="s">
         <v>393</v>
       </c>
@@ -8636,7 +8768,7 @@
         <v>468</v>
       </c>
     </row>
-    <row r="58" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:26">
       <c r="A58" s="41" t="s">
         <v>378</v>
       </c>
@@ -8659,7 +8791,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="59" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:26">
       <c r="A59" s="41"/>
       <c r="B59" s="41" t="s">
         <v>394</v>
@@ -8682,7 +8814,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="60" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:26">
       <c r="A60" s="41"/>
       <c r="B60" s="41"/>
       <c r="C60" s="41"/>
@@ -8706,7 +8838,7 @@
         <v>469</v>
       </c>
     </row>
-    <row r="61" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:26">
       <c r="A61" s="41"/>
       <c r="B61" s="5" t="s">
         <v>395</v>
@@ -8729,7 +8861,7 @@
         <v>470</v>
       </c>
     </row>
-    <row r="62" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:26">
       <c r="A62" s="41"/>
       <c r="B62" s="41" t="s">
         <v>378</v>
@@ -8752,7 +8884,7 @@
         <v>471</v>
       </c>
     </row>
-    <row r="63" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:26">
       <c r="A63" s="41"/>
       <c r="B63" s="41"/>
       <c r="C63" s="5" t="s">
@@ -8775,7 +8907,7 @@
         <v>472</v>
       </c>
     </row>
-    <row r="64" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:26">
       <c r="A64" s="41"/>
       <c r="B64" s="41"/>
       <c r="C64" s="41" t="s">
@@ -8798,7 +8930,7 @@
         <v>473</v>
       </c>
     </row>
-    <row r="65" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:26">
       <c r="A65" s="41"/>
       <c r="B65" s="41"/>
       <c r="C65" s="41"/>
@@ -8818,7 +8950,7 @@
         <v>491</v>
       </c>
     </row>
-    <row r="66" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:26">
       <c r="A66" s="41"/>
       <c r="B66" s="41"/>
       <c r="C66" s="41" t="s">
@@ -8838,7 +8970,7 @@
         <v>492</v>
       </c>
     </row>
-    <row r="67" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:26">
       <c r="A67" s="41"/>
       <c r="B67" s="41"/>
       <c r="C67" s="41" t="s">
@@ -8858,7 +8990,7 @@
         <v>493</v>
       </c>
     </row>
-    <row r="68" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:26">
       <c r="A68" s="41"/>
       <c r="B68" s="41"/>
       <c r="C68" s="41" t="s">
@@ -8878,7 +9010,7 @@
         <v>489</v>
       </c>
     </row>
-    <row r="69" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:26">
       <c r="A69" s="41"/>
       <c r="B69" s="41"/>
       <c r="C69" s="41"/>
@@ -8898,7 +9030,7 @@
         <v>494</v>
       </c>
     </row>
-    <row r="70" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:26">
       <c r="A70" s="41"/>
       <c r="B70" s="41"/>
       <c r="C70" s="41" t="s">
@@ -8918,7 +9050,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="71" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:26">
       <c r="A71" s="41"/>
       <c r="B71" s="41"/>
       <c r="C71" s="41" t="s">
@@ -8929,7 +9061,7 @@
       <c r="F71" s="41"/>
       <c r="G71" s="41"/>
     </row>
-    <row r="72" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:26">
       <c r="A72" s="41"/>
       <c r="B72" s="41" t="s">
         <v>397</v>
@@ -8940,7 +9072,7 @@
       <c r="F72" s="41"/>
       <c r="G72" s="41"/>
     </row>
-    <row r="73" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:26">
       <c r="A73" s="41"/>
       <c r="B73" s="41"/>
       <c r="C73" s="41"/>
@@ -8949,7 +9081,7 @@
       <c r="F73" s="41"/>
       <c r="G73" s="41"/>
     </row>
-    <row r="74" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:26">
       <c r="A74" s="41"/>
       <c r="B74" s="41" t="s">
         <v>398</v>
@@ -8960,7 +9092,7 @@
       <c r="F74" s="41"/>
       <c r="G74" s="41"/>
     </row>
-    <row r="75" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:26">
       <c r="A75" s="41"/>
       <c r="B75" s="41" t="s">
         <v>399</v>
@@ -8971,7 +9103,7 @@
       <c r="F75" s="41"/>
       <c r="G75" s="41"/>
     </row>
-    <row r="76" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:26">
       <c r="A76" s="41"/>
       <c r="B76" s="41"/>
       <c r="C76" s="41" t="s">
@@ -8982,7 +9114,7 @@
       <c r="F76" s="41"/>
       <c r="G76" s="41"/>
     </row>
-    <row r="77" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:26">
       <c r="A77" s="41"/>
       <c r="B77" s="41" t="s">
         <v>397</v>
@@ -8993,7 +9125,7 @@
       <c r="F77" s="41"/>
       <c r="G77" s="41"/>
     </row>
-    <row r="78" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:26">
       <c r="A78" s="41"/>
       <c r="B78" s="41" t="s">
         <v>400</v>
@@ -9004,7 +9136,7 @@
       <c r="F78" s="41"/>
       <c r="G78" s="41"/>
     </row>
-    <row r="79" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:26">
       <c r="A79" s="41"/>
       <c r="B79" s="41" t="s">
         <v>378</v>
@@ -9015,7 +9147,7 @@
       <c r="F79" s="41"/>
       <c r="G79" s="41"/>
     </row>
-    <row r="80" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:26">
       <c r="A80" s="41"/>
       <c r="B80" s="41"/>
       <c r="C80" s="5" t="s">
@@ -9026,7 +9158,7 @@
       <c r="F80" s="41"/>
       <c r="G80" s="41"/>
     </row>
-    <row r="81" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:26">
       <c r="A81" s="41"/>
       <c r="B81" s="41"/>
       <c r="C81" s="41" t="s">
@@ -9037,7 +9169,7 @@
       <c r="F81" s="41"/>
       <c r="G81" s="41"/>
     </row>
-    <row r="82" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:26">
       <c r="A82" s="41"/>
       <c r="B82" s="41"/>
       <c r="C82" s="41"/>
@@ -9048,7 +9180,7 @@
       <c r="F82" s="41"/>
       <c r="G82" s="41"/>
     </row>
-    <row r="83" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:26">
       <c r="A83" s="41"/>
       <c r="B83" s="41"/>
       <c r="C83" s="41"/>
@@ -9059,7 +9191,7 @@
       <c r="F83" s="41"/>
       <c r="G83" s="41"/>
     </row>
-    <row r="84" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:26">
       <c r="A84" s="41"/>
       <c r="B84" s="41"/>
       <c r="C84" s="41" t="s">
@@ -9070,7 +9202,7 @@
       <c r="F84" s="41"/>
       <c r="G84" s="41"/>
     </row>
-    <row r="85" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:26">
       <c r="A85" s="41"/>
       <c r="B85" s="41"/>
       <c r="C85" s="41" t="s">
@@ -9081,7 +9213,7 @@
       <c r="F85" s="41"/>
       <c r="G85" s="41"/>
     </row>
-    <row r="86" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:26">
       <c r="A86" s="41"/>
       <c r="B86" s="41"/>
       <c r="C86" s="41" t="s">
@@ -9092,7 +9224,7 @@
       <c r="F86" s="41"/>
       <c r="G86" s="41"/>
     </row>
-    <row r="87" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:26">
       <c r="A87" s="41"/>
       <c r="B87" s="41"/>
       <c r="C87" s="41"/>
@@ -9103,7 +9235,7 @@
       <c r="F87" s="41"/>
       <c r="G87" s="41"/>
     </row>
-    <row r="88" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:26">
       <c r="A88" s="41"/>
       <c r="B88" s="41"/>
       <c r="C88" s="41"/>
@@ -9114,7 +9246,7 @@
       <c r="F88" s="41"/>
       <c r="G88" s="41"/>
     </row>
-    <row r="89" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:26">
       <c r="A89" s="41"/>
       <c r="B89" s="41"/>
       <c r="C89" s="41"/>
@@ -9125,7 +9257,7 @@
       <c r="F89" s="41"/>
       <c r="G89" s="41"/>
     </row>
-    <row r="90" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:26">
       <c r="A90" s="41"/>
       <c r="B90" s="41"/>
       <c r="C90" s="41" t="s">
@@ -9136,7 +9268,7 @@
       <c r="F90" s="41"/>
       <c r="G90" s="41"/>
     </row>
-    <row r="91" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:26">
       <c r="A91" s="41"/>
       <c r="B91" s="41" t="s">
         <v>311</v>
@@ -9147,7 +9279,7 @@
       <c r="F91" s="41"/>
       <c r="G91" s="41"/>
     </row>
-    <row r="92" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:26">
       <c r="A92" s="41" t="s">
         <v>311</v>
       </c>
@@ -9158,7 +9290,7 @@
       <c r="F92" s="41"/>
       <c r="G92" s="41"/>
     </row>
-    <row r="93" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:26">
       <c r="A93" s="41"/>
       <c r="B93" s="41"/>
       <c r="C93" s="41"/>
@@ -9167,7 +9299,7 @@
       <c r="F93" s="41"/>
       <c r="G93" s="41"/>
     </row>
-    <row r="94" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:26">
       <c r="A94" s="41" t="s">
         <v>406</v>
       </c>
@@ -9190,7 +9322,7 @@
         <v>468</v>
       </c>
     </row>
-    <row r="95" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:26">
       <c r="A95" s="41" t="s">
         <v>378</v>
       </c>
@@ -9213,7 +9345,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="96" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:26">
       <c r="A96" s="41"/>
       <c r="B96" s="41" t="s">
         <v>376</v>
@@ -9236,7 +9368,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="97" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:26">
       <c r="A97" s="41"/>
       <c r="B97" s="41"/>
       <c r="C97" s="41"/>
@@ -9257,7 +9389,7 @@
         <v>467</v>
       </c>
     </row>
-    <row r="98" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:26">
       <c r="A98" s="41"/>
       <c r="B98" s="41" t="s">
         <v>377</v>
@@ -9280,7 +9412,7 @@
         <v>485</v>
       </c>
     </row>
-    <row r="99" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:26">
       <c r="A99" s="41"/>
       <c r="B99" s="41" t="s">
         <v>378</v>
@@ -9303,7 +9435,7 @@
         <v>457</v>
       </c>
     </row>
-    <row r="100" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:26">
       <c r="A100" s="41"/>
       <c r="B100" s="41"/>
       <c r="C100" s="5" t="s">
@@ -9326,7 +9458,7 @@
         <v>486</v>
       </c>
     </row>
-    <row r="101" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:26">
       <c r="A101" s="41"/>
       <c r="B101" s="41"/>
       <c r="C101" s="41" t="s">
@@ -9349,7 +9481,7 @@
         <v>487</v>
       </c>
     </row>
-    <row r="102" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:26">
       <c r="A102" s="41"/>
       <c r="B102" s="41"/>
       <c r="C102" s="41"/>
@@ -9369,7 +9501,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="103" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:26">
       <c r="A103" s="41"/>
       <c r="B103" s="41"/>
       <c r="C103" s="41" t="s">
@@ -9389,7 +9521,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="104" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:26">
       <c r="A104" s="41"/>
       <c r="B104" s="41"/>
       <c r="C104" s="41" t="s">
@@ -9400,7 +9532,7 @@
       <c r="F104" s="41"/>
       <c r="G104" s="41"/>
     </row>
-    <row r="105" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:26">
       <c r="A105" s="41"/>
       <c r="B105" s="41"/>
       <c r="C105" s="41" t="s">
@@ -9411,7 +9543,7 @@
       <c r="F105" s="41"/>
       <c r="G105" s="41"/>
     </row>
-    <row r="106" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:26">
       <c r="A106" s="41"/>
       <c r="B106" s="41"/>
       <c r="C106" s="41"/>
@@ -9422,7 +9554,7 @@
       <c r="F106" s="5"/>
       <c r="G106" s="41"/>
     </row>
-    <row r="107" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:26">
       <c r="A107" s="41"/>
       <c r="B107" s="41"/>
       <c r="C107" s="41"/>
@@ -9433,7 +9565,7 @@
       <c r="F107" s="41"/>
       <c r="G107" s="41"/>
     </row>
-    <row r="108" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:26">
       <c r="A108" s="41"/>
       <c r="B108" s="41"/>
       <c r="C108" s="41"/>
@@ -9444,7 +9576,7 @@
       <c r="F108" s="41"/>
       <c r="G108" s="41"/>
     </row>
-    <row r="109" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:26">
       <c r="A109" s="41"/>
       <c r="B109" s="41"/>
       <c r="C109" s="41"/>
@@ -9455,7 +9587,7 @@
       <c r="F109" s="41"/>
       <c r="G109" s="41"/>
     </row>
-    <row r="110" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:26">
       <c r="A110" s="41"/>
       <c r="B110" s="41"/>
       <c r="C110" s="41"/>
@@ -9466,7 +9598,7 @@
       <c r="F110" s="41"/>
       <c r="G110" s="41"/>
     </row>
-    <row r="111" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:26">
       <c r="A111" s="41"/>
       <c r="B111" s="41"/>
       <c r="C111" s="41"/>
@@ -9477,7 +9609,7 @@
       <c r="F111" s="41"/>
       <c r="G111" s="41"/>
     </row>
-    <row r="112" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:26">
       <c r="A112" s="41"/>
       <c r="B112" s="41"/>
       <c r="C112" s="41"/>
@@ -9488,7 +9620,7 @@
       <c r="F112" s="41"/>
       <c r="G112" s="41"/>
     </row>
-    <row r="113" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:7">
       <c r="A113" s="41"/>
       <c r="B113" s="41"/>
       <c r="C113" s="41"/>
@@ -9499,7 +9631,7 @@
       <c r="F113" s="41"/>
       <c r="G113" s="41"/>
     </row>
-    <row r="114" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:7">
       <c r="A114" s="41"/>
       <c r="B114" s="41"/>
       <c r="C114" s="41" t="s">
@@ -9510,7 +9642,7 @@
       <c r="F114" s="41"/>
       <c r="G114" s="41"/>
     </row>
-    <row r="115" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:7">
       <c r="A115" s="41"/>
       <c r="B115" s="41" t="s">
         <v>311</v>
@@ -9521,7 +9653,7 @@
       <c r="F115" s="41"/>
       <c r="G115" s="41"/>
     </row>
-    <row r="116" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:7">
       <c r="A116" s="41"/>
       <c r="B116" s="41" t="s">
         <v>381</v>
@@ -9532,7 +9664,7 @@
       <c r="F116" s="41"/>
       <c r="G116" s="41"/>
     </row>
-    <row r="117" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:7">
       <c r="A117" s="41"/>
       <c r="B117" s="41" t="s">
         <v>378</v>
@@ -9543,7 +9675,7 @@
       <c r="F117" s="41"/>
       <c r="G117" s="41"/>
     </row>
-    <row r="118" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:7">
       <c r="A118" s="41"/>
       <c r="B118" s="41"/>
       <c r="C118" s="41" t="s">
@@ -9554,7 +9686,7 @@
       <c r="F118" s="41"/>
       <c r="G118" s="41"/>
     </row>
-    <row r="119" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:7">
       <c r="A119" s="41"/>
       <c r="B119" s="41" t="s">
         <v>311</v>
@@ -9565,7 +9697,7 @@
       <c r="F119" s="41"/>
       <c r="G119" s="41"/>
     </row>
-    <row r="120" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:7">
       <c r="A120" s="41"/>
       <c r="B120" s="41"/>
       <c r="C120" s="41"/>
@@ -9574,7 +9706,7 @@
       <c r="F120" s="41"/>
       <c r="G120" s="41"/>
     </row>
-    <row r="121" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:7">
       <c r="A121" s="41"/>
       <c r="B121" s="41" t="s">
         <v>407</v>
@@ -9585,7 +9717,7 @@
       <c r="F121" s="41"/>
       <c r="G121" s="41"/>
     </row>
-    <row r="122" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:7">
       <c r="A122" s="41" t="s">
         <v>311</v>
       </c>
@@ -9596,7 +9728,7 @@
       <c r="F122" s="41"/>
       <c r="G122" s="41"/>
     </row>
-    <row r="125" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:7">
       <c r="A125" s="41"/>
       <c r="B125" s="41"/>
       <c r="C125" s="41"/>
@@ -9605,7 +9737,7 @@
       <c r="F125" s="41"/>
       <c r="G125" s="41"/>
     </row>
-    <row r="133" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:11">
       <c r="A133" s="41"/>
       <c r="B133" s="41"/>
       <c r="C133" s="41"/>

--- a/CFT4CUnitSrc/src/report/GAReport.xlsx
+++ b/CFT4CUnitSrc/src/report/GAReport.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="1185" windowWidth="14805" windowHeight="6720" tabRatio="940" activeTab="2"/>
+    <workbookView xWindow="240" yWindow="1185" windowWidth="14805" windowHeight="6720" tabRatio="940"/>
   </bookViews>
   <sheets>
     <sheet name="GA based TC generation" sheetId="2" r:id="rId1"/>
@@ -13,12 +13,12 @@
     <sheet name="201612paper" sheetId="12" r:id="rId4"/>
     <sheet name="ThayHieu_report" sheetId="13" r:id="rId5"/>
   </sheets>
-  <calcPr calcId="145621" calcOnSave="0"/>
+  <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="697" uniqueCount="495">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="698" uniqueCount="496">
   <si>
     <t>Nhìn chung, để sinh test case cho một input program theo phương pháp GA thì có các bước sau</t>
   </si>
@@ -1527,15 +1527,18 @@
   <si>
     <t>path5 = 3762</t>
   </si>
+  <si>
+    <t>https://conference.cs.cityu.edu.hk/icist/</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.000000000"/>
   </numFmts>
-  <fonts count="6">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -5140,6 +5143,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -5174,6 +5178,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -5349,869 +5354,849 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:AP158"/>
+  <dimension ref="A1:AP160"/>
   <sheetViews>
-    <sheetView topLeftCell="A121" workbookViewId="0">
-      <selection activeCell="F147" sqref="F147"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="10.7109375" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="10.140625" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="9.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10">
-      <c r="A1" s="18">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B1" s="25" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A3" s="18">
         <v>42502</v>
       </c>
     </row>
-    <row r="2" spans="1:10">
-      <c r="B2" t="s">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B4" t="s">
         <v>168</v>
       </c>
     </row>
-    <row r="3" spans="1:10">
-      <c r="C3" t="s">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="C5" t="s">
         <v>169</v>
       </c>
     </row>
-    <row r="4" spans="1:10">
-      <c r="C4" t="s">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="C6" t="s">
         <v>180</v>
       </c>
-      <c r="J4" t="s">
+      <c r="J6" t="s">
         <v>181</v>
       </c>
     </row>
-    <row r="5" spans="1:10">
-      <c r="J5" t="s">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="J7" t="s">
         <v>182</v>
       </c>
     </row>
-    <row r="6" spans="1:10">
-      <c r="B6" t="s">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B8" t="s">
         <v>171</v>
       </c>
     </row>
-    <row r="7" spans="1:10">
-      <c r="B7" t="s">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B9" t="s">
         <v>179</v>
       </c>
-      <c r="C7" t="s">
+      <c r="C9" t="s">
         <v>175</v>
       </c>
     </row>
-    <row r="8" spans="1:10">
-      <c r="B8" t="s">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B10" t="s">
         <v>179</v>
       </c>
-      <c r="C8" t="s">
+      <c r="C10" t="s">
         <v>176</v>
       </c>
     </row>
-    <row r="9" spans="1:10">
-      <c r="C9" t="s">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="C11" t="s">
         <v>172</v>
       </c>
     </row>
-    <row r="10" spans="1:10">
-      <c r="C10" t="s">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="C12" t="s">
         <v>173</v>
       </c>
     </row>
-    <row r="11" spans="1:10">
-      <c r="C11" t="s">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="C13" t="s">
         <v>174</v>
       </c>
     </row>
-    <row r="13" spans="1:10">
-      <c r="C13" s="1" t="s">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="C15" s="1" t="s">
         <v>177</v>
       </c>
     </row>
-    <row r="14" spans="1:10">
-      <c r="C14" s="1" t="s">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="C16" s="1" t="s">
         <v>178</v>
       </c>
     </row>
-    <row r="17" spans="1:17">
-      <c r="A17" s="18">
+    <row r="19" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A19" s="18">
         <v>42499</v>
       </c>
-      <c r="K17" t="s">
+      <c r="K19" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:17">
-      <c r="B18" t="s">
+    <row r="20" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="B20" t="s">
         <v>160</v>
       </c>
-      <c r="L18" t="s">
+      <c r="L20" t="s">
         <v>165</v>
       </c>
     </row>
-    <row r="19" spans="1:17">
-      <c r="C19" t="s">
+    <row r="21" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="C21" t="s">
         <v>161</v>
       </c>
-      <c r="K19" t="s">
+      <c r="K21" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="20" spans="1:17">
-      <c r="C20" t="s">
+    <row r="22" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="C22" t="s">
         <v>162</v>
       </c>
-      <c r="L20" t="s">
+      <c r="L22" t="s">
         <v>166</v>
       </c>
     </row>
-    <row r="21" spans="1:17">
-      <c r="C21" t="s">
+    <row r="23" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="C23" t="s">
         <v>167</v>
       </c>
     </row>
-    <row r="22" spans="1:17">
-      <c r="B22" t="s">
+    <row r="24" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="B24" t="s">
         <v>164</v>
       </c>
-      <c r="D22" t="s">
+      <c r="D24" t="s">
         <v>196</v>
       </c>
-      <c r="E22" t="s">
+      <c r="E24" t="s">
         <v>163</v>
       </c>
     </row>
-    <row r="24" spans="1:17">
-      <c r="A24" s="18">
+    <row r="26" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A26" s="18">
         <v>42496</v>
       </c>
-      <c r="O24" t="s">
+      <c r="O26" t="s">
         <v>158</v>
       </c>
-      <c r="P24" t="s">
+      <c r="P26" t="s">
         <v>1</v>
       </c>
-      <c r="Q24" t="s">
+      <c r="Q26" t="s">
         <v>149</v>
       </c>
     </row>
-    <row r="25" spans="1:17">
-      <c r="B25" t="s">
+    <row r="27" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="B27" t="s">
         <v>137</v>
       </c>
-      <c r="Q25" t="s">
+      <c r="Q27" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="26" spans="1:17">
-      <c r="B26" t="s">
+    <row r="28" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="B28" t="s">
         <v>135</v>
       </c>
-      <c r="P26" t="s">
+      <c r="P28" t="s">
         <v>3</v>
       </c>
-      <c r="Q26" t="s">
+      <c r="Q28" t="s">
         <v>150</v>
       </c>
     </row>
-    <row r="28" spans="1:17">
-      <c r="B28" t="s">
+    <row r="30" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="B30" t="s">
         <v>136</v>
       </c>
-      <c r="P28" t="s">
+      <c r="P30" t="s">
         <v>151</v>
       </c>
-      <c r="Q28" t="s">
+      <c r="Q30" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="29" spans="1:17">
-      <c r="B29" t="s">
+    <row r="31" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="B31" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="30" spans="1:17">
-      <c r="B30" t="s">
+    <row r="32" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="B32" t="s">
         <v>139</v>
       </c>
-      <c r="P30" t="s">
+      <c r="P32" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="32" spans="1:17">
-      <c r="B32" t="s">
+    <row r="34" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B34" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="33" spans="2:16">
-      <c r="C33" t="s">
+    <row r="35" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="C35" t="s">
         <v>140</v>
       </c>
-      <c r="K33" t="s">
+      <c r="K35" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="34" spans="2:16">
-      <c r="C34" t="s">
+    <row r="36" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="C36" t="s">
         <v>141</v>
       </c>
-      <c r="K34" t="s">
+      <c r="K36" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="36" spans="2:16">
-      <c r="B36" t="s">
+    <row r="38" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B38" t="s">
         <v>142</v>
       </c>
-      <c r="P36" t="s">
+      <c r="P38" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="38" spans="2:16">
-      <c r="B38" t="s">
+    <row r="40" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B40" t="s">
         <v>143</v>
       </c>
     </row>
-    <row r="39" spans="2:16">
-      <c r="B39" t="s">
+    <row r="41" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B41" t="s">
         <v>144</v>
       </c>
     </row>
-    <row r="41" spans="2:16">
-      <c r="B41" t="s">
+    <row r="43" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B43" t="s">
         <v>146</v>
       </c>
     </row>
-    <row r="42" spans="2:16">
-      <c r="B42" t="s">
+    <row r="44" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B44" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="43" spans="2:16">
-      <c r="B43" t="s">
+    <row r="45" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B45" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="45" spans="2:16">
-      <c r="B45" t="s">
+    <row r="47" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B47" t="s">
         <v>148</v>
       </c>
     </row>
-    <row r="50" spans="1:10">
-      <c r="A50" s="18">
+    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A52" s="18">
         <v>42494</v>
       </c>
     </row>
-    <row r="51" spans="1:10">
-      <c r="B51" t="s">
+    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B53" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="52" spans="1:10">
-      <c r="C52" t="s">
+    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C54" t="s">
         <v>1</v>
       </c>
-      <c r="D52" t="s">
+      <c r="D54" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="54" spans="1:10">
-      <c r="C54" s="5" t="s">
+    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C56" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="D54" t="s">
+      <c r="D56" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="55" spans="1:10">
-      <c r="D55" t="s">
+    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="D57" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="56" spans="1:10">
-      <c r="E56" s="25" t="s">
+    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="E58" s="25" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="57" spans="1:10">
-      <c r="E57" s="25"/>
-    </row>
-    <row r="58" spans="1:10">
-      <c r="B58" s="5" t="s">
+    <row r="59" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="E59" s="25"/>
+    </row>
+    <row r="60" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B60" s="5" t="s">
         <v>134</v>
       </c>
-      <c r="E58" s="25"/>
-    </row>
-    <row r="59" spans="1:10">
-      <c r="C59" t="s">
+      <c r="E60" s="25"/>
+    </row>
+    <row r="61" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C61" t="s">
         <v>124</v>
       </c>
-      <c r="E59" s="25"/>
-    </row>
-    <row r="60" spans="1:10">
-      <c r="C60" t="s">
+      <c r="E61" s="25"/>
+    </row>
+    <row r="62" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C62" t="s">
         <v>125</v>
       </c>
-      <c r="E60" s="25"/>
-    </row>
-    <row r="61" spans="1:10">
-      <c r="D61" t="s">
+      <c r="E62" s="25"/>
+    </row>
+    <row r="63" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="D63" t="s">
         <v>126</v>
       </c>
-      <c r="E61" s="25"/>
-    </row>
-    <row r="62" spans="1:10">
-      <c r="E62" s="26" t="s">
+      <c r="E63" s="25"/>
+    </row>
+    <row r="64" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="E64" s="26" t="s">
         <v>127</v>
       </c>
-      <c r="F62" s="10" t="s">
+      <c r="F64" s="10" t="s">
         <v>128</v>
       </c>
-      <c r="G62" s="10" t="s">
+      <c r="G64" s="10" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="63" spans="1:10">
-      <c r="E63" s="27">
+    <row r="65" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="E65" s="27">
         <v>1.1000000000000001</v>
       </c>
-      <c r="F63">
+      <c r="F65">
         <v>1.2</v>
       </c>
-      <c r="G63">
+      <c r="G65">
         <v>3</v>
       </c>
     </row>
-    <row r="64" spans="1:10">
-      <c r="E64" s="27">
+    <row r="66" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="E66" s="27">
         <v>1.1100000000000001</v>
       </c>
-      <c r="F64">
+      <c r="F66">
         <v>1.1200000000000001</v>
       </c>
-      <c r="G64">
+      <c r="G66">
         <v>2</v>
       </c>
-      <c r="I64" t="s">
+      <c r="I66" t="s">
         <v>130</v>
       </c>
-      <c r="J64" t="s">
+      <c r="J66" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="65" spans="1:7">
-      <c r="E65" s="27">
+    <row r="67" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="E67" s="27">
         <v>1.3</v>
       </c>
-      <c r="F65">
+      <c r="F67">
         <v>1.6</v>
       </c>
-      <c r="G65">
+      <c r="G67">
         <v>1</v>
       </c>
     </row>
-    <row r="66" spans="1:7">
-      <c r="D66" t="s">
+    <row r="68" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="D68" t="s">
         <v>132</v>
       </c>
-      <c r="E66" s="27"/>
-    </row>
-    <row r="67" spans="1:7">
-      <c r="E67" s="27" t="s">
+      <c r="E68" s="27"/>
+    </row>
+    <row r="69" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="E69" s="27" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="68" spans="1:7">
-      <c r="E68" s="27"/>
-    </row>
-    <row r="69" spans="1:7">
-      <c r="C69" t="s">
+    <row r="70" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="E70" s="27"/>
+    </row>
+    <row r="71" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="C71" t="s">
         <v>5</v>
       </c>
-      <c r="D69" t="s">
+      <c r="D71" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="71" spans="1:7">
-      <c r="B71" t="s">
+    <row r="73" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B73" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="72" spans="1:7">
-      <c r="B72" t="s">
+    <row r="74" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B74" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="74" spans="1:7">
-      <c r="B74" t="s">
+    <row r="76" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B76" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="75" spans="1:7">
-      <c r="B75" t="s">
+    <row r="77" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B77" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="77" spans="1:7">
-      <c r="A77" s="18">
+    <row r="79" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A79" s="18">
         <v>42488</v>
       </c>
     </row>
-    <row r="78" spans="1:7">
-      <c r="B78" t="s">
+    <row r="80" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B80" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="79" spans="1:7">
-      <c r="C79" t="s">
+    <row r="81" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="C81" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="80" spans="1:7">
-      <c r="C80" t="s">
+    <row r="82" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="C82" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="81" spans="1:42">
-      <c r="C81" t="s">
+    <row r="83" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="C83" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="82" spans="1:42">
-      <c r="C82" t="s">
+    <row r="84" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="C84" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="83" spans="1:42">
-      <c r="B83" s="5" t="s">
+    <row r="85" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="B85" s="5" t="s">
         <v>113</v>
       </c>
-      <c r="C83" s="5"/>
-      <c r="D83" s="5"/>
-      <c r="E83" s="5"/>
-      <c r="F83" s="5"/>
-      <c r="G83" s="5"/>
-      <c r="H83" s="5"/>
-      <c r="I83" s="5"/>
-      <c r="J83" s="5"/>
-    </row>
-    <row r="85" spans="1:42">
-      <c r="A85" t="s">
+      <c r="C85" s="5"/>
+      <c r="D85" s="5"/>
+      <c r="E85" s="5"/>
+      <c r="F85" s="5"/>
+      <c r="G85" s="5"/>
+      <c r="H85" s="5"/>
+      <c r="I85" s="5"/>
+      <c r="J85" s="5"/>
+    </row>
+    <row r="87" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="A87" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="87" spans="1:42">
-      <c r="B87" t="s">
+    <row r="89" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="B89" t="s">
         <v>1</v>
       </c>
-      <c r="C87" t="s">
+      <c r="C89" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="89" spans="1:42">
-      <c r="B89" t="s">
+    <row r="91" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="B91" t="s">
         <v>3</v>
       </c>
-      <c r="C89" t="s">
+      <c r="C91" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="90" spans="1:42">
-      <c r="C90" t="s">
+    <row r="92" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="C92" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="92" spans="1:42">
-      <c r="B92" t="s">
+    <row r="94" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="B94" t="s">
         <v>5</v>
       </c>
-      <c r="C92" t="s">
+      <c r="C94" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="93" spans="1:42">
-      <c r="C93" t="s">
+    <row r="95" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="C95" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="94" spans="1:42">
-      <c r="C94" s="6" t="s">
+    <row r="96" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="C96" s="6" t="s">
         <v>52</v>
       </c>
-      <c r="D94" s="6"/>
-      <c r="E94" s="6"/>
-      <c r="F94" s="6"/>
-      <c r="G94" s="6"/>
-      <c r="H94" s="6"/>
-      <c r="I94" s="6"/>
-      <c r="J94" s="6"/>
-      <c r="K94" s="6"/>
-      <c r="L94" s="6"/>
-      <c r="M94" s="8">
+      <c r="D96" s="6"/>
+      <c r="E96" s="6"/>
+      <c r="F96" s="6"/>
+      <c r="G96" s="6"/>
+      <c r="H96" s="6"/>
+      <c r="I96" s="6"/>
+      <c r="J96" s="6"/>
+      <c r="K96" s="6"/>
+      <c r="L96" s="6"/>
+      <c r="M96" s="8">
         <v>42480</v>
       </c>
-      <c r="N94" s="9" t="s">
+      <c r="N96" s="9" t="s">
         <v>66</v>
       </c>
-      <c r="O94" t="s">
+      <c r="O96" t="s">
         <v>67</v>
       </c>
-      <c r="AJ94" s="5" t="s">
+      <c r="AJ96" s="5" t="s">
         <v>81</v>
-      </c>
-      <c r="AK94" s="5"/>
-      <c r="AL94" s="5"/>
-      <c r="AM94" s="5"/>
-      <c r="AN94" s="5"/>
-      <c r="AO94" s="5"/>
-      <c r="AP94" s="8">
-        <v>42483</v>
-      </c>
-    </row>
-    <row r="95" spans="1:42">
-      <c r="C95" s="6" t="s">
-        <v>53</v>
-      </c>
-      <c r="D95" s="6"/>
-      <c r="E95" s="6"/>
-      <c r="F95" s="6"/>
-      <c r="G95" s="6"/>
-      <c r="H95" s="6"/>
-      <c r="I95" s="6"/>
-      <c r="J95" s="6"/>
-      <c r="K95" s="6"/>
-      <c r="L95" s="6"/>
-      <c r="M95" s="8">
-        <v>42480</v>
-      </c>
-      <c r="N95" s="9" t="s">
-        <v>66</v>
-      </c>
-      <c r="O95" t="s">
-        <v>67</v>
-      </c>
-      <c r="AJ95" s="5" t="s">
-        <v>82</v>
-      </c>
-      <c r="AK95" s="5"/>
-      <c r="AL95" s="5"/>
-      <c r="AM95" s="5"/>
-      <c r="AN95" s="5"/>
-      <c r="AO95" s="5"/>
-      <c r="AP95" s="5"/>
-    </row>
-    <row r="96" spans="1:42">
-      <c r="C96" t="s">
-        <v>14</v>
-      </c>
-      <c r="AJ96" s="5" t="s">
-        <v>83</v>
       </c>
       <c r="AK96" s="5"/>
       <c r="AL96" s="5"/>
       <c r="AM96" s="5"/>
       <c r="AN96" s="5"/>
       <c r="AO96" s="5"/>
-      <c r="AP96" s="5"/>
-    </row>
-    <row r="97" spans="2:11">
-      <c r="C97" s="1"/>
-      <c r="D97" s="1" t="s">
+      <c r="AP96" s="8">
+        <v>42483</v>
+      </c>
+    </row>
+    <row r="97" spans="2:42" x14ac:dyDescent="0.25">
+      <c r="C97" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="D97" s="6"/>
+      <c r="E97" s="6"/>
+      <c r="F97" s="6"/>
+      <c r="G97" s="6"/>
+      <c r="H97" s="6"/>
+      <c r="I97" s="6"/>
+      <c r="J97" s="6"/>
+      <c r="K97" s="6"/>
+      <c r="L97" s="6"/>
+      <c r="M97" s="8">
+        <v>42480</v>
+      </c>
+      <c r="N97" s="9" t="s">
+        <v>66</v>
+      </c>
+      <c r="O97" t="s">
+        <v>67</v>
+      </c>
+      <c r="AJ97" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="AK97" s="5"/>
+      <c r="AL97" s="5"/>
+      <c r="AM97" s="5"/>
+      <c r="AN97" s="5"/>
+      <c r="AO97" s="5"/>
+      <c r="AP97" s="5"/>
+    </row>
+    <row r="98" spans="2:42" x14ac:dyDescent="0.25">
+      <c r="C98" t="s">
+        <v>14</v>
+      </c>
+      <c r="AJ98" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="AK98" s="5"/>
+      <c r="AL98" s="5"/>
+      <c r="AM98" s="5"/>
+      <c r="AN98" s="5"/>
+      <c r="AO98" s="5"/>
+      <c r="AP98" s="5"/>
+    </row>
+    <row r="99" spans="2:42" x14ac:dyDescent="0.25">
+      <c r="C99" s="1"/>
+      <c r="D99" s="1" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="98" spans="2:11">
-      <c r="C98" s="1"/>
-      <c r="D98" s="1" t="s">
+    <row r="100" spans="2:42" x14ac:dyDescent="0.25">
+      <c r="C100" s="1"/>
+      <c r="D100" s="1" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="100" spans="2:11">
-      <c r="C100" t="s">
+    <row r="102" spans="2:42" x14ac:dyDescent="0.25">
+      <c r="C102" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="101" spans="2:11">
-      <c r="C101" t="s">
+    <row r="103" spans="2:42" x14ac:dyDescent="0.25">
+      <c r="C103" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="103" spans="2:11">
-      <c r="B103" t="s">
+    <row r="105" spans="2:42" x14ac:dyDescent="0.25">
+      <c r="B105" t="s">
         <v>7</v>
       </c>
-      <c r="C103" t="s">
+      <c r="C105" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="105" spans="2:11">
-      <c r="C105" t="s">
+    <row r="107" spans="2:42" x14ac:dyDescent="0.25">
+      <c r="C107" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="107" spans="2:11">
-      <c r="B107" t="s">
+    <row r="109" spans="2:42" x14ac:dyDescent="0.25">
+      <c r="B109" t="s">
         <v>17</v>
       </c>
-      <c r="C107" t="s">
+      <c r="C109" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="108" spans="2:11">
-      <c r="D108" s="5" t="s">
+    <row r="110" spans="2:42" x14ac:dyDescent="0.25">
+      <c r="D110" s="5" t="s">
         <v>50</v>
       </c>
-      <c r="E108" s="5"/>
-      <c r="F108" s="5"/>
-      <c r="G108" s="5"/>
-      <c r="H108" s="5"/>
-      <c r="I108" s="8">
+      <c r="E110" s="5"/>
+      <c r="F110" s="5"/>
+      <c r="G110" s="5"/>
+      <c r="H110" s="5"/>
+      <c r="I110" s="8">
         <v>42480</v>
       </c>
-      <c r="J108" s="9" t="s">
+      <c r="J110" s="9" t="s">
         <v>66</v>
       </c>
-      <c r="K108" t="s">
+      <c r="K110" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="109" spans="2:11">
-      <c r="C109" t="s">
+    <row r="111" spans="2:42" x14ac:dyDescent="0.25">
+      <c r="C111" t="s">
         <v>19</v>
       </c>
-      <c r="D109" s="2" t="s">
+      <c r="D111" s="2" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="110" spans="2:11">
-      <c r="D110" s="3" t="s">
+    <row r="112" spans="2:42" x14ac:dyDescent="0.25">
+      <c r="D112" s="3" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="112" spans="2:11">
-      <c r="B112" t="s">
+    <row r="114" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="B114" t="s">
         <v>22</v>
       </c>
-      <c r="C112" t="s">
+      <c r="C114" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="114" spans="1:24">
-      <c r="A114" t="s">
+    <row r="116" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A116" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="115" spans="1:24">
-      <c r="B115" t="s">
+    <row r="117" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="B117" t="s">
         <v>48</v>
       </c>
-      <c r="M115" s="6" t="s">
+      <c r="M117" s="6" t="s">
         <v>58</v>
-      </c>
-      <c r="N115" s="6"/>
-      <c r="O115" s="6"/>
-      <c r="P115" s="6"/>
-      <c r="Q115" s="5"/>
-      <c r="R115" s="5"/>
-      <c r="S115" s="8">
-        <v>42480</v>
-      </c>
-      <c r="T115" s="9" t="s">
-        <v>66</v>
-      </c>
-      <c r="U115" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="116" spans="1:24">
-      <c r="B116" t="s">
-        <v>46</v>
-      </c>
-      <c r="M116" s="6" t="s">
-        <v>54</v>
-      </c>
-      <c r="N116" s="6"/>
-      <c r="O116" s="6"/>
-      <c r="P116" s="6"/>
-      <c r="S116" s="8">
-        <v>42480</v>
-      </c>
-    </row>
-    <row r="117" spans="1:24">
-      <c r="B117" t="s">
-        <v>49</v>
-      </c>
-      <c r="M117" s="6" t="s">
-        <v>55</v>
       </c>
       <c r="N117" s="6"/>
       <c r="O117" s="6"/>
       <c r="P117" s="6"/>
+      <c r="Q117" s="5"/>
+      <c r="R117" s="5"/>
       <c r="S117" s="8">
         <v>42480</v>
       </c>
-    </row>
-    <row r="118" spans="1:24">
-      <c r="M118" s="6"/>
+      <c r="T117" s="9" t="s">
+        <v>66</v>
+      </c>
+      <c r="U117" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="118" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="B118" t="s">
+        <v>46</v>
+      </c>
+      <c r="M118" s="6" t="s">
+        <v>54</v>
+      </c>
       <c r="N118" s="6"/>
       <c r="O118" s="6"/>
       <c r="P118" s="6"/>
-      <c r="S118" s="8"/>
-    </row>
-    <row r="119" spans="1:24">
-      <c r="F119" s="9" t="s">
+      <c r="S118" s="8">
+        <v>42480</v>
+      </c>
+    </row>
+    <row r="119" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="B119" t="s">
+        <v>49</v>
+      </c>
+      <c r="M119" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="N119" s="6"/>
+      <c r="O119" s="6"/>
+      <c r="P119" s="6"/>
+      <c r="S119" s="8">
+        <v>42480</v>
+      </c>
+    </row>
+    <row r="120" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="M120" s="6"/>
+      <c r="N120" s="6"/>
+      <c r="O120" s="6"/>
+      <c r="P120" s="6"/>
+      <c r="S120" s="8"/>
+    </row>
+    <row r="121" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="F121" s="9" t="s">
         <v>69</v>
       </c>
-      <c r="G119" s="9"/>
-      <c r="H119" s="9"/>
-      <c r="I119" s="9" t="s">
+      <c r="G121" s="9"/>
+      <c r="H121" s="9"/>
+      <c r="I121" s="9" t="s">
         <v>66</v>
       </c>
-      <c r="J119" t="s">
+      <c r="J121" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="120" spans="1:24">
-      <c r="A120" t="s">
+    <row r="122" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A122" t="s">
         <v>47</v>
       </c>
-      <c r="F120" s="5" t="s">
+      <c r="F122" s="5" t="s">
         <v>51</v>
       </c>
-      <c r="G120" s="5"/>
-      <c r="H120" s="5"/>
-      <c r="I120" s="8">
+      <c r="G122" s="5"/>
+      <c r="H122" s="5"/>
+      <c r="I122" s="8">
         <v>42480</v>
       </c>
-      <c r="L120" s="7" t="s">
+      <c r="L122" s="7" t="s">
         <v>56</v>
       </c>
-      <c r="M120" s="7"/>
-      <c r="N120" s="7"/>
-      <c r="O120" s="7"/>
-      <c r="P120" s="7"/>
-      <c r="X120" t="s">
+      <c r="M122" s="7"/>
+      <c r="N122" s="7"/>
+      <c r="O122" s="7"/>
+      <c r="P122" s="7"/>
+      <c r="X122" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="121" spans="1:24">
-      <c r="A121" s="4" t="s">
+    <row r="123" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A123" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="B121" s="4"/>
-      <c r="C121" s="4"/>
-      <c r="D121" s="4"/>
-      <c r="E121" s="4"/>
-      <c r="F121" s="4"/>
-      <c r="G121" s="4"/>
-      <c r="H121" s="4"/>
-      <c r="I121" s="4"/>
-      <c r="J121" s="4"/>
-      <c r="K121" s="4"/>
-      <c r="L121" s="4"/>
-      <c r="M121" s="4"/>
-      <c r="N121" s="4"/>
-      <c r="O121" s="4"/>
-      <c r="P121" s="4"/>
-    </row>
-    <row r="122" spans="1:24">
-      <c r="A122" s="4" t="s">
+      <c r="B123" s="4"/>
+      <c r="C123" s="4"/>
+      <c r="D123" s="4"/>
+      <c r="E123" s="4"/>
+      <c r="F123" s="4"/>
+      <c r="G123" s="4"/>
+      <c r="H123" s="4"/>
+      <c r="I123" s="4"/>
+      <c r="J123" s="4"/>
+      <c r="K123" s="4"/>
+      <c r="L123" s="4"/>
+      <c r="M123" s="4"/>
+      <c r="N123" s="4"/>
+      <c r="O123" s="4"/>
+      <c r="P123" s="4"/>
+    </row>
+    <row r="124" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A124" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="B122" s="4"/>
-      <c r="C122" s="4"/>
-      <c r="D122" s="4"/>
-      <c r="E122" s="4"/>
-      <c r="F122" s="4"/>
-      <c r="G122" s="4"/>
-      <c r="H122" s="4"/>
-      <c r="I122" s="4"/>
-      <c r="J122" s="4"/>
-      <c r="K122" s="4"/>
-      <c r="L122" s="4"/>
-      <c r="M122" s="4"/>
-      <c r="N122" s="4"/>
-      <c r="O122" s="4"/>
-      <c r="P122" s="4"/>
-    </row>
-    <row r="123" spans="1:24">
-      <c r="A123" t="s">
+      <c r="B124" s="4"/>
+      <c r="C124" s="4"/>
+      <c r="D124" s="4"/>
+      <c r="E124" s="4"/>
+      <c r="F124" s="4"/>
+      <c r="G124" s="4"/>
+      <c r="H124" s="4"/>
+      <c r="I124" s="4"/>
+      <c r="J124" s="4"/>
+      <c r="K124" s="4"/>
+      <c r="L124" s="4"/>
+      <c r="M124" s="4"/>
+      <c r="N124" s="4"/>
+      <c r="O124" s="4"/>
+      <c r="P124" s="4"/>
+    </row>
+    <row r="125" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A125" t="s">
         <v>25</v>
       </c>
-      <c r="L123" s="7" t="s">
+      <c r="L125" s="7" t="s">
         <v>57</v>
       </c>
-      <c r="M123" s="7"/>
-      <c r="N123" s="7"/>
-      <c r="O123" s="7"/>
-      <c r="P123" s="7"/>
-      <c r="Q123" s="7"/>
-      <c r="R123" s="7"/>
-      <c r="S123" s="7"/>
-      <c r="T123" s="7"/>
-      <c r="U123" s="9" t="s">
+      <c r="M125" s="7"/>
+      <c r="N125" s="7"/>
+      <c r="O125" s="7"/>
+      <c r="P125" s="7"/>
+      <c r="Q125" s="7"/>
+      <c r="R125" s="7"/>
+      <c r="S125" s="7"/>
+      <c r="T125" s="7"/>
+      <c r="U125" s="9" t="s">
         <v>74</v>
       </c>
-      <c r="V123" s="9"/>
-    </row>
-    <row r="124" spans="1:24">
-      <c r="A124" t="s">
+      <c r="V125" s="9"/>
+    </row>
+    <row r="126" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A126" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="125" spans="1:24">
-      <c r="A125" s="4" t="s">
+    <row r="127" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A127" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="B125" s="4"/>
-      <c r="C125" s="4"/>
-      <c r="D125" s="4"/>
-      <c r="E125" s="4"/>
-      <c r="F125" s="4"/>
-      <c r="G125" s="4"/>
-      <c r="H125" s="4"/>
-      <c r="I125" s="4"/>
-      <c r="J125" s="4"/>
-      <c r="K125" s="4"/>
-      <c r="L125" s="4"/>
-      <c r="M125" s="4"/>
-      <c r="N125" s="4"/>
-      <c r="O125" s="4"/>
-      <c r="P125" s="4"/>
-    </row>
-    <row r="126" spans="1:24">
-      <c r="A126" s="4" t="s">
+      <c r="B127" s="4"/>
+      <c r="C127" s="4"/>
+      <c r="D127" s="4"/>
+      <c r="E127" s="4"/>
+      <c r="F127" s="4"/>
+      <c r="G127" s="4"/>
+      <c r="H127" s="4"/>
+      <c r="I127" s="4"/>
+      <c r="J127" s="4"/>
+      <c r="K127" s="4"/>
+      <c r="L127" s="4"/>
+      <c r="M127" s="4"/>
+      <c r="N127" s="4"/>
+      <c r="O127" s="4"/>
+      <c r="P127" s="4"/>
+    </row>
+    <row r="128" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A128" s="4" t="s">
         <v>27</v>
-      </c>
-      <c r="B126" s="4"/>
-      <c r="C126" s="4"/>
-      <c r="D126" s="4"/>
-      <c r="E126" s="4"/>
-      <c r="F126" s="4"/>
-      <c r="G126" s="4"/>
-      <c r="H126" s="4"/>
-      <c r="I126" s="4"/>
-      <c r="J126" s="4"/>
-      <c r="K126" s="4"/>
-      <c r="L126" s="4"/>
-      <c r="M126" s="4"/>
-      <c r="N126" s="4"/>
-      <c r="O126" s="4"/>
-      <c r="P126" s="4"/>
-    </row>
-    <row r="127" spans="1:24">
-      <c r="A127" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="128" spans="1:24">
-      <c r="A128" s="4" t="s">
-        <v>45</v>
       </c>
       <c r="B128" s="4"/>
       <c r="C128" s="4"/>
@@ -6229,153 +6214,179 @@
       <c r="O128" s="4"/>
       <c r="P128" s="4"/>
     </row>
-    <row r="129" spans="1:2">
+    <row r="129" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="130" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A130" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="B130" s="4"/>
+      <c r="C130" s="4"/>
+      <c r="D130" s="4"/>
+      <c r="E130" s="4"/>
+      <c r="F130" s="4"/>
+      <c r="G130" s="4"/>
+      <c r="H130" s="4"/>
+      <c r="I130" s="4"/>
+      <c r="J130" s="4"/>
+      <c r="K130" s="4"/>
+      <c r="L130" s="4"/>
+      <c r="M130" s="4"/>
+      <c r="N130" s="4"/>
+      <c r="O130" s="4"/>
+      <c r="P130" s="4"/>
+    </row>
+    <row r="131" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A131" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="130" spans="1:2">
-      <c r="A130" t="s">
+    <row r="132" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A132" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="131" spans="1:2">
-      <c r="A131" t="s">
+    <row r="133" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A133" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="132" spans="1:2">
-      <c r="A132" t="s">
+    <row r="134" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A134" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="133" spans="1:2">
-      <c r="A133" t="s">
+    <row r="135" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A135" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="134" spans="1:2">
-      <c r="A134" t="s">
+    <row r="136" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A136" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="135" spans="1:2">
-      <c r="A135" t="s">
+    <row r="137" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A137" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="136" spans="1:2">
-      <c r="A136" t="s">
+    <row r="138" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A138" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="137" spans="1:2">
-      <c r="A137" t="s">
+    <row r="139" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A139" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="138" spans="1:2">
-      <c r="A138" t="s">
+    <row r="140" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A140" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="139" spans="1:2">
-      <c r="A139" t="s">
+    <row r="141" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A141" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="140" spans="1:2">
-      <c r="A140" t="s">
+    <row r="142" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A142" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="141" spans="1:2">
-      <c r="A141" t="s">
+    <row r="143" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A143" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="144" spans="1:2">
-      <c r="A144" s="13" t="s">
+    <row r="146" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A146" s="13" t="s">
         <v>70</v>
       </c>
-      <c r="B144" s="13"/>
-    </row>
-    <row r="145" spans="2:11">
-      <c r="B145" t="s">
+      <c r="B146" s="13"/>
+    </row>
+    <row r="147" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B147" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="146" spans="2:11">
-      <c r="B146" s="5" t="s">
+    <row r="148" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B148" s="5" t="s">
         <v>80</v>
       </c>
-      <c r="C146" s="5" t="s">
+      <c r="C148" s="5" t="s">
         <v>87</v>
       </c>
-      <c r="D146" s="5"/>
-      <c r="E146" s="5"/>
-    </row>
-    <row r="147" spans="2:11">
-      <c r="B147" t="s">
+      <c r="D148" s="5"/>
+      <c r="E148" s="5"/>
+    </row>
+    <row r="149" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B149" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="148" spans="2:11">
-      <c r="C148" t="s">
+    <row r="150" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="C150" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="149" spans="2:11">
-      <c r="B149" t="s">
+    <row r="151" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B151" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="151" spans="2:11">
-      <c r="B151" t="s">
+    <row r="153" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B153" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="152" spans="2:11">
-      <c r="B152" t="s">
+    <row r="154" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B154" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="154" spans="2:11">
-      <c r="B154" s="5" t="s">
+    <row r="156" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B156" s="5" t="s">
         <v>84</v>
       </c>
-      <c r="C154" s="5"/>
-      <c r="D154" s="5"/>
-      <c r="E154" s="5"/>
-      <c r="F154" s="5"/>
-      <c r="G154" s="5"/>
-      <c r="H154" s="5"/>
-      <c r="I154" s="5"/>
-      <c r="K154" s="8">
+      <c r="C156" s="5"/>
+      <c r="D156" s="5"/>
+      <c r="E156" s="5"/>
+      <c r="F156" s="5"/>
+      <c r="G156" s="5"/>
+      <c r="H156" s="5"/>
+      <c r="I156" s="5"/>
+      <c r="K156" s="8">
         <v>42483</v>
       </c>
     </row>
-    <row r="157" spans="2:11">
-      <c r="B157" t="s">
+    <row r="159" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B159" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="158" spans="2:11">
-      <c r="B158" t="s">
+    <row r="160" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B160" t="s">
         <v>86</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="E56" r:id="rId1"/>
+    <hyperlink ref="E58" r:id="rId1"/>
+    <hyperlink ref="B1" r:id="rId2"/>
   </hyperlinks>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
-  <pageSetup paperSize="9" orientation="landscape" r:id="rId2"/>
+  <pageSetup paperSize="9" orientation="landscape" r:id="rId3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:R95"/>
   <sheetViews>
@@ -6383,7 +6394,7 @@
       <selection activeCell="H60" sqref="H60"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="5" style="10" customWidth="1"/>
     <col min="3" max="3" width="30.140625" bestFit="1" customWidth="1"/>
@@ -6398,7 +6409,7 @@
     <col min="12" max="12" width="14.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A1" s="7" t="s">
         <v>59</v>
       </c>
@@ -6407,7 +6418,7 @@
       <c r="D1" s="7"/>
       <c r="E1" s="11"/>
     </row>
-    <row r="2" spans="1:18">
+    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B2" s="17" t="s">
         <v>65</v>
       </c>
@@ -6445,7 +6456,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="3" spans="1:18">
+    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B3" s="14">
         <v>1</v>
       </c>
@@ -6489,7 +6500,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="4" spans="1:18">
+    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B4" s="14">
         <f>B3+1</f>
         <v>2</v>
@@ -6523,7 +6534,7 @@
       </c>
       <c r="L4" s="15"/>
     </row>
-    <row r="5" spans="1:18">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B5" s="14">
         <f t="shared" ref="B5:B19" si="0">B4+1</f>
         <v>3</v>
@@ -6557,7 +6568,7 @@
       </c>
       <c r="L5" s="15"/>
     </row>
-    <row r="6" spans="1:18">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B6" s="14">
         <f t="shared" si="0"/>
         <v>4</v>
@@ -6594,7 +6605,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="7" spans="1:18">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B7" s="14">
         <f t="shared" si="0"/>
         <v>5</v>
@@ -6635,7 +6646,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="8" spans="1:18">
+    <row r="8" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B8" s="14">
         <f t="shared" si="0"/>
         <v>6</v>
@@ -6677,7 +6688,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="9" spans="1:18">
+    <row r="9" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B9" s="14">
         <f t="shared" si="0"/>
         <v>7</v>
@@ -6717,7 +6728,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="10" spans="1:18">
+    <row r="10" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B10" s="14">
         <f t="shared" si="0"/>
         <v>8</v>
@@ -6757,7 +6768,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="11" spans="1:18">
+    <row r="11" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B11" s="14">
         <f t="shared" si="0"/>
         <v>9</v>
@@ -6773,7 +6784,7 @@
       <c r="K11" s="15"/>
       <c r="L11" s="15"/>
     </row>
-    <row r="12" spans="1:18">
+    <row r="12" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B12" s="14">
         <f t="shared" si="0"/>
         <v>10</v>
@@ -6789,7 +6800,7 @@
       <c r="K12" s="15"/>
       <c r="L12" s="15"/>
     </row>
-    <row r="13" spans="1:18">
+    <row r="13" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B13" s="14">
         <f t="shared" si="0"/>
         <v>11</v>
@@ -6805,7 +6816,7 @@
       <c r="K13" s="15"/>
       <c r="L13" s="15"/>
     </row>
-    <row r="14" spans="1:18">
+    <row r="14" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B14" s="14">
         <f t="shared" si="0"/>
         <v>12</v>
@@ -6821,7 +6832,7 @@
       <c r="K14" s="15"/>
       <c r="L14" s="15"/>
     </row>
-    <row r="15" spans="1:18">
+    <row r="15" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B15" s="14">
         <f t="shared" si="0"/>
         <v>13</v>
@@ -6837,7 +6848,7 @@
       <c r="K15" s="15"/>
       <c r="L15" s="15"/>
     </row>
-    <row r="16" spans="1:18">
+    <row r="16" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B16" s="14">
         <f t="shared" si="0"/>
         <v>14</v>
@@ -6853,7 +6864,7 @@
       <c r="K16" s="15"/>
       <c r="L16" s="15"/>
     </row>
-    <row r="17" spans="2:12">
+    <row r="17" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B17" s="14">
         <f t="shared" si="0"/>
         <v>15</v>
@@ -6869,7 +6880,7 @@
       <c r="K17" s="15"/>
       <c r="L17" s="15"/>
     </row>
-    <row r="18" spans="2:12">
+    <row r="18" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B18" s="14">
         <f t="shared" si="0"/>
         <v>16</v>
@@ -6885,7 +6896,7 @@
       <c r="K18" s="15"/>
       <c r="L18" s="15"/>
     </row>
-    <row r="19" spans="2:12">
+    <row r="19" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B19" s="14">
         <f t="shared" si="0"/>
         <v>17</v>
@@ -6901,12 +6912,12 @@
       <c r="K19" s="15"/>
       <c r="L19" s="15"/>
     </row>
-    <row r="22" spans="2:12">
+    <row r="22" spans="2:12" x14ac:dyDescent="0.25">
       <c r="C22" t="s">
         <v>183</v>
       </c>
     </row>
-    <row r="23" spans="2:12">
+    <row r="23" spans="2:12" x14ac:dyDescent="0.25">
       <c r="C23" t="s">
         <v>184</v>
       </c>
@@ -6925,7 +6936,7 @@
       </c>
       <c r="L23" s="47"/>
     </row>
-    <row r="24" spans="2:12">
+    <row r="24" spans="2:12" x14ac:dyDescent="0.25">
       <c r="G24" s="49"/>
       <c r="H24" s="51"/>
       <c r="I24" s="14" t="s">
@@ -6941,7 +6952,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="25" spans="2:12">
+    <row r="25" spans="2:12" x14ac:dyDescent="0.25">
       <c r="G25" s="33" t="s">
         <v>110</v>
       </c>
@@ -6957,7 +6968,7 @@
       <c r="K25" s="32"/>
       <c r="L25" s="32"/>
     </row>
-    <row r="26" spans="2:12">
+    <row r="26" spans="2:12" x14ac:dyDescent="0.25">
       <c r="G26" s="37"/>
       <c r="H26" s="38"/>
       <c r="I26" s="32">
@@ -6969,7 +6980,7 @@
       <c r="K26" s="32"/>
       <c r="L26" s="32"/>
     </row>
-    <row r="27" spans="2:12">
+    <row r="27" spans="2:12" x14ac:dyDescent="0.25">
       <c r="G27" s="37"/>
       <c r="H27" s="38"/>
       <c r="I27" s="32">
@@ -6981,7 +6992,7 @@
       <c r="K27" s="32"/>
       <c r="L27" s="32"/>
     </row>
-    <row r="28" spans="2:12">
+    <row r="28" spans="2:12" x14ac:dyDescent="0.25">
       <c r="G28" s="37"/>
       <c r="H28" s="38"/>
       <c r="I28" s="32">
@@ -6993,7 +7004,7 @@
       <c r="K28" s="32"/>
       <c r="L28" s="32"/>
     </row>
-    <row r="29" spans="2:12">
+    <row r="29" spans="2:12" x14ac:dyDescent="0.25">
       <c r="G29" s="37"/>
       <c r="H29" s="38"/>
       <c r="I29" s="32"/>
@@ -7001,7 +7012,7 @@
       <c r="K29" s="32"/>
       <c r="L29" s="32"/>
     </row>
-    <row r="30" spans="2:12">
+    <row r="30" spans="2:12" x14ac:dyDescent="0.25">
       <c r="G30" s="37"/>
       <c r="H30" s="38"/>
       <c r="I30" s="32"/>
@@ -7009,7 +7020,7 @@
       <c r="K30" s="32"/>
       <c r="L30" s="32"/>
     </row>
-    <row r="31" spans="2:12">
+    <row r="31" spans="2:12" x14ac:dyDescent="0.25">
       <c r="G31" s="35"/>
       <c r="H31" s="36"/>
       <c r="I31" s="32"/>
@@ -7017,7 +7028,7 @@
       <c r="K31" s="32"/>
       <c r="L31" s="32"/>
     </row>
-    <row r="32" spans="2:12">
+    <row r="32" spans="2:12" x14ac:dyDescent="0.25">
       <c r="G32" s="15" t="s">
         <v>109</v>
       </c>
@@ -7027,7 +7038,7 @@
       <c r="K32" s="32"/>
       <c r="L32" s="32"/>
     </row>
-    <row r="33" spans="1:12">
+    <row r="33" spans="1:12" x14ac:dyDescent="0.25">
       <c r="G33" s="15"/>
       <c r="H33" s="32"/>
       <c r="I33" s="32"/>
@@ -7035,7 +7046,7 @@
       <c r="K33" s="32"/>
       <c r="L33" s="32"/>
     </row>
-    <row r="34" spans="1:12">
+    <row r="34" spans="1:12" x14ac:dyDescent="0.25">
       <c r="G34" s="15"/>
       <c r="H34" s="32"/>
       <c r="I34" s="32"/>
@@ -7043,7 +7054,7 @@
       <c r="K34" s="32"/>
       <c r="L34" s="32"/>
     </row>
-    <row r="35" spans="1:12">
+    <row r="35" spans="1:12" x14ac:dyDescent="0.25">
       <c r="G35" s="15"/>
       <c r="H35" s="32"/>
       <c r="I35" s="32"/>
@@ -7051,7 +7062,7 @@
       <c r="K35" s="32"/>
       <c r="L35" s="32"/>
     </row>
-    <row r="36" spans="1:12">
+    <row r="36" spans="1:12" x14ac:dyDescent="0.25">
       <c r="G36" s="15" t="s">
         <v>195</v>
       </c>
@@ -7071,7 +7082,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="1:12">
+    <row r="37" spans="1:12" x14ac:dyDescent="0.25">
       <c r="G37" s="15"/>
       <c r="H37" s="32"/>
       <c r="I37" s="32">
@@ -7087,7 +7098,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="38" spans="1:12">
+    <row r="38" spans="1:12" x14ac:dyDescent="0.25">
       <c r="G38" s="15"/>
       <c r="H38" s="32"/>
       <c r="I38" s="32"/>
@@ -7099,7 +7110,7 @@
         <v>462</v>
       </c>
     </row>
-    <row r="39" spans="1:12">
+    <row r="39" spans="1:12" x14ac:dyDescent="0.25">
       <c r="G39" s="15"/>
       <c r="H39" s="32"/>
       <c r="I39" s="32"/>
@@ -7111,7 +7122,7 @@
         <v>57595</v>
       </c>
     </row>
-    <row r="40" spans="1:12">
+    <row r="40" spans="1:12" x14ac:dyDescent="0.25">
       <c r="G40" s="15" t="s">
         <v>111</v>
       </c>
@@ -7121,7 +7132,7 @@
       <c r="K40" s="32"/>
       <c r="L40" s="32"/>
     </row>
-    <row r="41" spans="1:12">
+    <row r="41" spans="1:12" x14ac:dyDescent="0.25">
       <c r="G41" s="15"/>
       <c r="H41" s="32"/>
       <c r="I41" s="32"/>
@@ -7129,14 +7140,14 @@
       <c r="K41" s="32"/>
       <c r="L41" s="32"/>
     </row>
-    <row r="42" spans="1:12">
+    <row r="42" spans="1:12" x14ac:dyDescent="0.25">
       <c r="H42" s="31"/>
       <c r="I42" s="31"/>
       <c r="J42" s="31"/>
       <c r="K42" s="31"/>
       <c r="L42" s="31"/>
     </row>
-    <row r="43" spans="1:12">
+    <row r="43" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>198</v>
       </c>
@@ -7146,7 +7157,7 @@
       <c r="K43" s="31"/>
       <c r="L43" s="31"/>
     </row>
-    <row r="44" spans="1:12">
+    <row r="44" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C44" t="s">
         <v>199</v>
       </c>
@@ -7156,7 +7167,7 @@
       <c r="K44" s="31"/>
       <c r="L44" s="31"/>
     </row>
-    <row r="45" spans="1:12">
+    <row r="45" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C45" t="s">
         <v>200</v>
       </c>
@@ -7167,7 +7178,7 @@
       <c r="I45" s="30"/>
       <c r="J45" s="30"/>
     </row>
-    <row r="46" spans="1:12">
+    <row r="46" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C46" t="s">
         <v>202</v>
       </c>
@@ -7175,7 +7186,7 @@
       <c r="I46" s="30"/>
       <c r="J46" s="30"/>
     </row>
-    <row r="47" spans="1:12">
+    <row r="47" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C47" t="s">
         <v>208</v>
       </c>
@@ -7186,17 +7197,17 @@
       <c r="I47" s="30"/>
       <c r="J47" s="30"/>
     </row>
-    <row r="48" spans="1:12">
+    <row r="48" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C48" t="s">
         <v>212</v>
       </c>
     </row>
-    <row r="50" spans="1:10">
+    <row r="50" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>203</v>
       </c>
     </row>
-    <row r="51" spans="1:10">
+    <row r="51" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>158</v>
       </c>
@@ -7204,7 +7215,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="52" spans="1:10">
+    <row r="52" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>158</v>
       </c>
@@ -7221,7 +7232,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="53" spans="1:10">
+    <row r="53" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B53" s="39" t="s">
         <v>206</v>
       </c>
@@ -7229,41 +7240,41 @@
         <v>211</v>
       </c>
     </row>
-    <row r="54" spans="1:10">
+    <row r="54" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B54" s="39" t="s">
         <v>213</v>
       </c>
     </row>
-    <row r="55" spans="1:10">
+    <row r="55" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B55" s="39" t="s">
         <v>214</v>
       </c>
     </row>
-    <row r="56" spans="1:10">
+    <row r="56" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B56" s="39"/>
       <c r="J56" s="40"/>
     </row>
-    <row r="57" spans="1:10">
+    <row r="57" spans="1:10" x14ac:dyDescent="0.25">
       <c r="J57" s="40"/>
     </row>
-    <row r="58" spans="1:10">
+    <row r="58" spans="1:10" x14ac:dyDescent="0.25">
       <c r="H58"/>
       <c r="J58" s="40"/>
     </row>
-    <row r="59" spans="1:10">
+    <row r="59" spans="1:10" x14ac:dyDescent="0.25">
       <c r="H59"/>
       <c r="J59" s="40"/>
     </row>
-    <row r="60" spans="1:10">
+    <row r="60" spans="1:10" x14ac:dyDescent="0.25">
       <c r="H60"/>
     </row>
-    <row r="61" spans="1:10">
+    <row r="61" spans="1:10" x14ac:dyDescent="0.25">
       <c r="H61"/>
     </row>
-    <row r="62" spans="1:10">
+    <row r="62" spans="1:10" x14ac:dyDescent="0.25">
       <c r="H62"/>
     </row>
-    <row r="95" spans="16:16">
+    <row r="95" spans="16:16" x14ac:dyDescent="0.25">
       <c r="P95" s="41"/>
     </row>
   </sheetData>
@@ -7280,30 +7291,30 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet3"/>
   <dimension ref="A1:AH18"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="I29" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="I38" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="AD44" sqref="AD44"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="16384" width="9.140625" style="42"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:34">
+    <row r="1" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A1" s="43" t="s">
         <v>219</v>
       </c>
     </row>
-    <row r="2" spans="1:34">
+    <row r="2" spans="1:34" x14ac:dyDescent="0.25">
       <c r="O2" s="42" t="s">
         <v>215</v>
       </c>
     </row>
-    <row r="3" spans="1:34">
+    <row r="3" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A3" s="42" t="s">
         <v>220</v>
       </c>
@@ -7311,7 +7322,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="4" spans="1:34">
+    <row r="4" spans="1:34" x14ac:dyDescent="0.25">
       <c r="P4" s="42" t="s">
         <v>218</v>
       </c>
@@ -7325,12 +7336,12 @@
       <c r="AG4" s="5"/>
       <c r="AH4" s="5"/>
     </row>
-    <row r="5" spans="1:34">
+    <row r="5" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A5" s="42" t="s">
         <v>221</v>
       </c>
     </row>
-    <row r="6" spans="1:34">
+    <row r="6" spans="1:34" x14ac:dyDescent="0.25">
       <c r="B6" s="42" t="s">
         <v>224</v>
       </c>
@@ -7338,42 +7349,42 @@
         <v>225</v>
       </c>
     </row>
-    <row r="7" spans="1:34">
+    <row r="7" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A7" s="42" t="s">
         <v>222</v>
       </c>
     </row>
-    <row r="8" spans="1:34">
+    <row r="8" spans="1:34" x14ac:dyDescent="0.25">
       <c r="B8" s="42" t="s">
         <v>223</v>
       </c>
     </row>
-    <row r="12" spans="1:34">
+    <row r="12" spans="1:34" x14ac:dyDescent="0.25">
       <c r="O12" s="42" t="s">
         <v>216</v>
       </c>
     </row>
-    <row r="13" spans="1:34">
+    <row r="13" spans="1:34" x14ac:dyDescent="0.25">
       <c r="P13" s="42" t="s">
         <v>217</v>
       </c>
     </row>
-    <row r="14" spans="1:34">
+    <row r="14" spans="1:34" x14ac:dyDescent="0.25">
       <c r="Q14" s="42" t="s">
         <v>226</v>
       </c>
     </row>
-    <row r="16" spans="1:34">
+    <row r="16" spans="1:34" x14ac:dyDescent="0.25">
       <c r="P16" s="42" t="s">
         <v>227</v>
       </c>
     </row>
-    <row r="17" spans="4:16">
+    <row r="17" spans="4:16" x14ac:dyDescent="0.25">
       <c r="P17" s="42" t="s">
         <v>228</v>
       </c>
     </row>
-    <row r="18" spans="4:16">
+    <row r="18" spans="4:16" x14ac:dyDescent="0.25">
       <c r="D18" s="44"/>
     </row>
   </sheetData>
@@ -7384,7 +7395,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet4"/>
   <dimension ref="A1:AF109"/>
   <sheetViews>
@@ -7392,14 +7403,14 @@
       <selection activeCell="G52" sqref="G52"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:31">
+    <row r="1" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>230</v>
       </c>
     </row>
-    <row r="2" spans="1:31">
+    <row r="2" spans="1:31" x14ac:dyDescent="0.25">
       <c r="B2" s="25" t="s">
         <v>229</v>
       </c>
@@ -7407,7 +7418,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="4" spans="1:31">
+    <row r="4" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>231</v>
       </c>
@@ -7415,7 +7426,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="7" spans="1:31">
+    <row r="7" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>234</v>
       </c>
@@ -7423,7 +7434,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="8" spans="1:31">
+    <row r="8" spans="1:31" x14ac:dyDescent="0.25">
       <c r="B8" s="25" t="s">
         <v>233</v>
       </c>
@@ -7439,7 +7450,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="9" spans="1:31">
+    <row r="9" spans="1:31" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
         <v>235</v>
       </c>
@@ -7453,7 +7464,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="10" spans="1:31">
+    <row r="10" spans="1:31" x14ac:dyDescent="0.25">
       <c r="C10" s="3" t="s">
         <v>236</v>
       </c>
@@ -7467,7 +7478,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="11" spans="1:31">
+    <row r="11" spans="1:31" x14ac:dyDescent="0.25">
       <c r="C11" s="3" t="s">
         <v>237</v>
       </c>
@@ -7485,7 +7496,7 @@
       </c>
       <c r="AE11" s="5"/>
     </row>
-    <row r="12" spans="1:31">
+    <row r="12" spans="1:31" x14ac:dyDescent="0.25">
       <c r="R12" t="s">
         <v>252</v>
       </c>
@@ -7496,7 +7507,7 @@
         <v>287</v>
       </c>
     </row>
-    <row r="13" spans="1:31">
+    <row r="13" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>239</v>
       </c>
@@ -7510,7 +7521,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="14" spans="1:31">
+    <row r="14" spans="1:31" x14ac:dyDescent="0.25">
       <c r="B14" s="4" t="s">
         <v>240</v>
       </c>
@@ -7533,7 +7544,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="15" spans="1:31">
+    <row r="15" spans="1:31" x14ac:dyDescent="0.25">
       <c r="C15" t="s">
         <v>244</v>
       </c>
@@ -7553,7 +7564,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="16" spans="1:31">
+    <row r="16" spans="1:31" x14ac:dyDescent="0.25">
       <c r="C16" t="s">
         <v>246</v>
       </c>
@@ -7570,7 +7581,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="17" spans="1:32">
+    <row r="17" spans="1:32" x14ac:dyDescent="0.25">
       <c r="B17" s="4" t="s">
         <v>241</v>
       </c>
@@ -7595,7 +7606,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="18" spans="1:32">
+    <row r="18" spans="1:32" x14ac:dyDescent="0.25">
       <c r="C18" t="s">
         <v>247</v>
       </c>
@@ -7609,7 +7620,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="19" spans="1:32">
+    <row r="19" spans="1:32" x14ac:dyDescent="0.25">
       <c r="R19" t="s">
         <v>259</v>
       </c>
@@ -7617,7 +7628,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="20" spans="1:32">
+    <row r="20" spans="1:32" x14ac:dyDescent="0.25">
       <c r="R20" t="s">
         <v>260</v>
       </c>
@@ -7628,12 +7639,12 @@
         <v>295</v>
       </c>
     </row>
-    <row r="21" spans="1:32">
+    <row r="21" spans="1:32" x14ac:dyDescent="0.25">
       <c r="R21" t="s">
         <v>261</v>
       </c>
     </row>
-    <row r="22" spans="1:32">
+    <row r="22" spans="1:32" x14ac:dyDescent="0.25">
       <c r="B22" t="s">
         <v>242</v>
       </c>
@@ -7647,7 +7658,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="23" spans="1:32">
+    <row r="23" spans="1:32" x14ac:dyDescent="0.25">
       <c r="R23" t="s">
         <v>263</v>
       </c>
@@ -7655,7 +7666,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="24" spans="1:32">
+    <row r="24" spans="1:32" x14ac:dyDescent="0.25">
       <c r="R24" t="s">
         <v>264</v>
       </c>
@@ -7663,7 +7674,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="25" spans="1:32">
+    <row r="25" spans="1:32" x14ac:dyDescent="0.25">
       <c r="R25" t="s">
         <v>265</v>
       </c>
@@ -7673,7 +7684,7 @@
       <c r="AE25" s="5"/>
       <c r="AF25" s="5"/>
     </row>
-    <row r="26" spans="1:32">
+    <row r="26" spans="1:32" x14ac:dyDescent="0.25">
       <c r="R26" t="s">
         <v>266</v>
       </c>
@@ -7681,7 +7692,7 @@
         <v>298</v>
       </c>
     </row>
-    <row r="27" spans="1:32">
+    <row r="27" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A27" s="13" t="s">
         <v>305</v>
       </c>
@@ -7697,7 +7708,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="28" spans="1:32">
+    <row r="28" spans="1:32" x14ac:dyDescent="0.25">
       <c r="B28" t="s">
         <v>306</v>
       </c>
@@ -7708,7 +7719,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="29" spans="1:32">
+    <row r="29" spans="1:32" x14ac:dyDescent="0.25">
       <c r="B29" t="s">
         <v>307</v>
       </c>
@@ -7719,7 +7730,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="30" spans="1:32">
+    <row r="30" spans="1:32" x14ac:dyDescent="0.25">
       <c r="B30" t="s">
         <v>308</v>
       </c>
@@ -7730,7 +7741,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="31" spans="1:32">
+    <row r="31" spans="1:32" x14ac:dyDescent="0.25">
       <c r="C31" t="s">
         <v>309</v>
       </c>
@@ -7738,7 +7749,7 @@
         <v>302</v>
       </c>
     </row>
-    <row r="32" spans="1:32">
+    <row r="32" spans="1:32" x14ac:dyDescent="0.25">
       <c r="C32" t="s">
         <v>310</v>
       </c>
@@ -7746,7 +7757,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="33" spans="1:30">
+    <row r="33" spans="1:30" x14ac:dyDescent="0.25">
       <c r="B33" t="s">
         <v>311</v>
       </c>
@@ -7754,7 +7765,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="34" spans="1:30">
+    <row r="34" spans="1:30" x14ac:dyDescent="0.25">
       <c r="B34" t="s">
         <v>312</v>
       </c>
@@ -7762,72 +7773,72 @@
         <v>295</v>
       </c>
     </row>
-    <row r="35" spans="1:30">
+    <row r="35" spans="1:30" x14ac:dyDescent="0.25">
       <c r="C35" t="s">
         <v>313</v>
       </c>
     </row>
-    <row r="36" spans="1:30">
+    <row r="36" spans="1:30" x14ac:dyDescent="0.25">
       <c r="D36" t="s">
         <v>314</v>
       </c>
     </row>
-    <row r="37" spans="1:30">
+    <row r="37" spans="1:30" x14ac:dyDescent="0.25">
       <c r="D37" t="s">
         <v>315</v>
       </c>
     </row>
-    <row r="38" spans="1:30">
+    <row r="38" spans="1:30" x14ac:dyDescent="0.25">
       <c r="C38" t="s">
         <v>311</v>
       </c>
     </row>
-    <row r="39" spans="1:30">
+    <row r="39" spans="1:30" x14ac:dyDescent="0.25">
       <c r="C39" t="s">
         <v>316</v>
       </c>
     </row>
-    <row r="40" spans="1:30">
+    <row r="40" spans="1:30" x14ac:dyDescent="0.25">
       <c r="D40" t="s">
         <v>314</v>
       </c>
     </row>
-    <row r="41" spans="1:30">
+    <row r="41" spans="1:30" x14ac:dyDescent="0.25">
       <c r="D41" t="s">
         <v>315</v>
       </c>
     </row>
-    <row r="42" spans="1:30">
+    <row r="42" spans="1:30" x14ac:dyDescent="0.25">
       <c r="C42" t="s">
         <v>311</v>
       </c>
     </row>
-    <row r="43" spans="1:30">
+    <row r="43" spans="1:30" x14ac:dyDescent="0.25">
       <c r="C43" t="s">
         <v>317</v>
       </c>
     </row>
-    <row r="44" spans="1:30">
+    <row r="44" spans="1:30" x14ac:dyDescent="0.25">
       <c r="C44" t="s">
         <v>318</v>
       </c>
     </row>
-    <row r="45" spans="1:30">
+    <row r="45" spans="1:30" x14ac:dyDescent="0.25">
       <c r="C45" t="s">
         <v>319</v>
       </c>
     </row>
-    <row r="46" spans="1:30">
+    <row r="46" spans="1:30" x14ac:dyDescent="0.25">
       <c r="B46" t="s">
         <v>311</v>
       </c>
     </row>
-    <row r="47" spans="1:30">
+    <row r="47" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>311</v>
       </c>
     </row>
-    <row r="49" spans="1:7">
+    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A49" s="13" t="s">
         <v>320</v>
       </c>
@@ -7837,17 +7848,17 @@
       <c r="E49" s="13"/>
       <c r="F49" s="13"/>
     </row>
-    <row r="50" spans="1:7">
+    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B50" t="s">
         <v>321</v>
       </c>
     </row>
-    <row r="51" spans="1:7">
+    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B51" t="s">
         <v>322</v>
       </c>
     </row>
-    <row r="52" spans="1:7">
+    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B52" s="5" t="s">
         <v>323</v>
       </c>
@@ -7856,32 +7867,32 @@
         <v>324</v>
       </c>
     </row>
-    <row r="53" spans="1:7">
+    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C53" t="s">
         <v>325</v>
       </c>
     </row>
-    <row r="54" spans="1:7">
+    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
       <c r="D54" t="s">
         <v>326</v>
       </c>
     </row>
-    <row r="55" spans="1:7">
+    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
       <c r="E55" t="s">
         <v>327</v>
       </c>
     </row>
-    <row r="56" spans="1:7">
+    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B56" t="s">
         <v>322</v>
       </c>
     </row>
-    <row r="57" spans="1:7">
+    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>311</v>
       </c>
     </row>
-    <row r="59" spans="1:7">
+    <row r="59" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A59" s="13" t="s">
         <v>328</v>
       </c>
@@ -7891,62 +7902,62 @@
       <c r="E59" s="13"/>
       <c r="F59" s="13"/>
     </row>
-    <row r="60" spans="1:7">
+    <row r="60" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>329</v>
       </c>
     </row>
-    <row r="61" spans="1:7">
+    <row r="61" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>330</v>
       </c>
     </row>
-    <row r="62" spans="1:7">
+    <row r="62" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>331</v>
       </c>
     </row>
-    <row r="63" spans="1:7">
+    <row r="63" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>332</v>
       </c>
     </row>
-    <row r="64" spans="1:7">
+    <row r="64" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>333</v>
       </c>
     </row>
-    <row r="65" spans="1:9">
+    <row r="65" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>334</v>
       </c>
     </row>
-    <row r="66" spans="1:9">
+    <row r="66" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>335</v>
       </c>
     </row>
-    <row r="67" spans="1:9">
+    <row r="67" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>334</v>
       </c>
     </row>
-    <row r="68" spans="1:9">
+    <row r="68" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>336</v>
       </c>
     </row>
-    <row r="69" spans="1:9">
+    <row r="69" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>337</v>
       </c>
     </row>
-    <row r="70" spans="1:9">
+    <row r="70" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>338</v>
       </c>
     </row>
-    <row r="71" spans="1:9">
+    <row r="71" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>339</v>
       </c>
@@ -7954,7 +7965,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="72" spans="1:9">
+    <row r="72" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>340</v>
       </c>
@@ -7962,182 +7973,182 @@
         <v>372</v>
       </c>
     </row>
-    <row r="73" spans="1:9">
+    <row r="73" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>341</v>
       </c>
     </row>
-    <row r="74" spans="1:9">
+    <row r="74" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>342</v>
       </c>
     </row>
-    <row r="75" spans="1:9">
+    <row r="75" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>343</v>
       </c>
     </row>
-    <row r="76" spans="1:9">
+    <row r="76" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>344</v>
       </c>
     </row>
-    <row r="77" spans="1:9">
+    <row r="77" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
         <v>345</v>
       </c>
     </row>
-    <row r="78" spans="1:9">
+    <row r="78" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
         <v>341</v>
       </c>
     </row>
-    <row r="79" spans="1:9">
+    <row r="79" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
         <v>346</v>
       </c>
     </row>
-    <row r="80" spans="1:9">
+    <row r="80" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
         <v>347</v>
       </c>
     </row>
-    <row r="81" spans="1:1">
+    <row r="81" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
         <v>348</v>
       </c>
     </row>
-    <row r="82" spans="1:1">
+    <row r="82" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
         <v>349</v>
       </c>
     </row>
-    <row r="83" spans="1:1">
+    <row r="83" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
         <v>350</v>
       </c>
     </row>
-    <row r="84" spans="1:1">
+    <row r="84" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
         <v>351</v>
       </c>
     </row>
-    <row r="85" spans="1:1">
+    <row r="85" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
         <v>352</v>
       </c>
     </row>
-    <row r="86" spans="1:1">
+    <row r="86" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
         <v>348</v>
       </c>
     </row>
-    <row r="87" spans="1:1">
+    <row r="87" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
         <v>353</v>
       </c>
     </row>
-    <row r="88" spans="1:1">
+    <row r="88" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
         <v>354</v>
       </c>
     </row>
-    <row r="89" spans="1:1">
+    <row r="89" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
         <v>355</v>
       </c>
     </row>
-    <row r="90" spans="1:1">
+    <row r="90" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
         <v>356</v>
       </c>
     </row>
-    <row r="91" spans="1:1">
+    <row r="91" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
         <v>357</v>
       </c>
     </row>
-    <row r="92" spans="1:1">
+    <row r="92" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
         <v>358</v>
       </c>
     </row>
-    <row r="93" spans="1:1">
+    <row r="93" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
         <v>359</v>
       </c>
     </row>
-    <row r="94" spans="1:1">
+    <row r="94" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
         <v>360</v>
       </c>
     </row>
-    <row r="95" spans="1:1">
+    <row r="95" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
         <v>361</v>
       </c>
     </row>
-    <row r="96" spans="1:1">
+    <row r="96" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
         <v>362</v>
       </c>
     </row>
-    <row r="97" spans="1:1">
+    <row r="97" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
         <v>363</v>
       </c>
     </row>
-    <row r="98" spans="1:1">
+    <row r="98" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
         <v>351</v>
       </c>
     </row>
-    <row r="99" spans="1:1">
+    <row r="99" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
         <v>344</v>
       </c>
     </row>
-    <row r="100" spans="1:1">
+    <row r="100" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
         <v>364</v>
       </c>
     </row>
-    <row r="101" spans="1:1">
+    <row r="101" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
         <v>365</v>
       </c>
     </row>
-    <row r="102" spans="1:1">
+    <row r="102" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
         <v>338</v>
       </c>
     </row>
-    <row r="103" spans="1:1">
+    <row r="103" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
         <v>366</v>
       </c>
     </row>
-    <row r="104" spans="1:1">
+    <row r="104" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
         <v>367</v>
       </c>
     </row>
-    <row r="105" spans="1:1">
+    <row r="105" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
         <v>364</v>
       </c>
     </row>
-    <row r="107" spans="1:1">
+    <row r="107" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
         <v>368</v>
       </c>
     </row>
-    <row r="108" spans="1:1">
+    <row r="108" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
         <v>369</v>
       </c>
     </row>
-    <row r="109" spans="1:1">
+    <row r="109" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
         <v>370</v>
       </c>
@@ -8152,16 +8163,16 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Z133"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="M70" sqref="M70"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:25">
+    <row r="1" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A1" s="46" t="s">
         <v>375</v>
       </c>
@@ -8170,12 +8181,12 @@
       <c r="D1" s="46"/>
       <c r="E1" s="46"/>
     </row>
-    <row r="3" spans="1:25">
+    <row r="3" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>413</v>
       </c>
     </row>
-    <row r="5" spans="1:25">
+    <row r="5" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>414</v>
       </c>
@@ -8183,7 +8194,7 @@
         <v>448</v>
       </c>
     </row>
-    <row r="6" spans="1:25">
+    <row r="6" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>420</v>
       </c>
@@ -8191,7 +8202,7 @@
         <v>446</v>
       </c>
     </row>
-    <row r="7" spans="1:25">
+    <row r="7" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>378</v>
       </c>
@@ -8199,7 +8210,7 @@
         <v>447</v>
       </c>
     </row>
-    <row r="8" spans="1:25">
+    <row r="8" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
         <v>409</v>
       </c>
@@ -8210,7 +8221,7 @@
         <v>452</v>
       </c>
     </row>
-    <row r="9" spans="1:25">
+    <row r="9" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
         <v>415</v>
       </c>
@@ -8221,12 +8232,12 @@
         <v>453</v>
       </c>
     </row>
-    <row r="10" spans="1:25">
+    <row r="10" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B10" t="s">
         <v>410</v>
       </c>
     </row>
-    <row r="11" spans="1:25">
+    <row r="11" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B11" t="s">
         <v>416</v>
       </c>
@@ -8234,17 +8245,17 @@
         <v>451</v>
       </c>
     </row>
-    <row r="13" spans="1:25">
+    <row r="13" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B13" t="s">
         <v>417</v>
       </c>
     </row>
-    <row r="14" spans="1:25">
+    <row r="14" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B14" t="s">
         <v>378</v>
       </c>
     </row>
-    <row r="15" spans="1:25">
+    <row r="15" spans="1:25" x14ac:dyDescent="0.25">
       <c r="C15" t="s">
         <v>411</v>
       </c>
@@ -8252,7 +8263,7 @@
         <v>442</v>
       </c>
     </row>
-    <row r="16" spans="1:25">
+    <row r="16" spans="1:25" x14ac:dyDescent="0.25">
       <c r="C16" t="s">
         <v>418</v>
       </c>
@@ -8260,7 +8271,7 @@
         <v>443</v>
       </c>
     </row>
-    <row r="17" spans="1:26">
+    <row r="17" spans="1:26" x14ac:dyDescent="0.25">
       <c r="C17" t="s">
         <v>412</v>
       </c>
@@ -8268,7 +8279,7 @@
         <v>444</v>
       </c>
     </row>
-    <row r="18" spans="1:26">
+    <row r="18" spans="1:26" x14ac:dyDescent="0.25">
       <c r="C18" t="s">
         <v>419</v>
       </c>
@@ -8276,17 +8287,17 @@
         <v>445</v>
       </c>
     </row>
-    <row r="19" spans="1:26">
+    <row r="19" spans="1:26" x14ac:dyDescent="0.25">
       <c r="B19" t="s">
         <v>311</v>
       </c>
     </row>
-    <row r="20" spans="1:26">
+    <row r="20" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>311</v>
       </c>
     </row>
-    <row r="22" spans="1:26">
+    <row r="22" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>437</v>
       </c>
@@ -8300,7 +8311,7 @@
         <v>468</v>
       </c>
     </row>
-    <row r="23" spans="1:26">
+    <row r="23" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>425</v>
       </c>
@@ -8317,7 +8328,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="24" spans="1:26">
+    <row r="24" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>378</v>
       </c>
@@ -8331,7 +8342,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="25" spans="1:26">
+    <row r="25" spans="1:26" x14ac:dyDescent="0.25">
       <c r="B25" t="s">
         <v>426</v>
       </c>
@@ -8345,7 +8356,7 @@
         <v>478</v>
       </c>
     </row>
-    <row r="26" spans="1:26">
+    <row r="26" spans="1:26" x14ac:dyDescent="0.25">
       <c r="C26" t="s">
         <v>430</v>
       </c>
@@ -8359,7 +8370,7 @@
         <v>482</v>
       </c>
     </row>
-    <row r="27" spans="1:26">
+    <row r="27" spans="1:26" x14ac:dyDescent="0.25">
       <c r="B27" t="s">
         <v>381</v>
       </c>
@@ -8373,7 +8384,7 @@
         <v>457</v>
       </c>
     </row>
-    <row r="28" spans="1:26">
+    <row r="28" spans="1:26" x14ac:dyDescent="0.25">
       <c r="C28" t="s">
         <v>431</v>
       </c>
@@ -8387,7 +8398,7 @@
         <v>483</v>
       </c>
     </row>
-    <row r="29" spans="1:26">
+    <row r="29" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>311</v>
       </c>
@@ -8401,7 +8412,7 @@
         <v>484</v>
       </c>
     </row>
-    <row r="30" spans="1:26">
+    <row r="30" spans="1:26" x14ac:dyDescent="0.25">
       <c r="P30" t="s">
         <v>474</v>
       </c>
@@ -8412,7 +8423,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="31" spans="1:26">
+    <row r="31" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A31" s="41" t="s">
         <v>390</v>
       </c>
@@ -8435,7 +8446,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="32" spans="1:26">
+    <row r="32" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A32" s="41" t="s">
         <v>378</v>
       </c>
@@ -8452,7 +8463,7 @@
         <v>476</v>
       </c>
     </row>
-    <row r="33" spans="1:19">
+    <row r="33" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A33" s="41"/>
       <c r="B33" s="5" t="s">
         <v>421</v>
@@ -8469,7 +8480,7 @@
         <v>477</v>
       </c>
     </row>
-    <row r="34" spans="1:19">
+    <row r="34" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A34" s="41"/>
       <c r="B34" s="41" t="s">
         <v>378</v>
@@ -8486,7 +8497,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="35" spans="1:19">
+    <row r="35" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A35" s="41"/>
       <c r="B35" s="41"/>
       <c r="C35" s="41" t="s">
@@ -8507,7 +8518,7 @@
         <v>37500</v>
       </c>
     </row>
-    <row r="36" spans="1:19">
+    <row r="36" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A36" s="41"/>
       <c r="B36" s="41"/>
       <c r="C36" s="41" t="s">
@@ -8521,7 +8532,7 @@
         <v>408</v>
       </c>
     </row>
-    <row r="37" spans="1:19">
+    <row r="37" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A37" s="41"/>
       <c r="B37" s="41"/>
       <c r="C37" s="41"/>
@@ -8535,7 +8546,7 @@
         <v>428</v>
       </c>
     </row>
-    <row r="38" spans="1:19">
+    <row r="38" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A38" s="41"/>
       <c r="B38" s="41"/>
       <c r="C38" s="41"/>
@@ -8549,7 +8560,7 @@
         <v>429</v>
       </c>
     </row>
-    <row r="39" spans="1:19">
+    <row r="39" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A39" s="41"/>
       <c r="B39" s="41"/>
       <c r="C39" s="41"/>
@@ -8560,7 +8571,7 @@
       <c r="F39" s="41"/>
       <c r="G39" s="41"/>
     </row>
-    <row r="40" spans="1:19">
+    <row r="40" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A40" s="41"/>
       <c r="B40" s="41"/>
       <c r="C40" s="41"/>
@@ -8571,7 +8582,7 @@
       <c r="F40" s="41"/>
       <c r="G40" s="41"/>
     </row>
-    <row r="41" spans="1:19">
+    <row r="41" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A41" s="41"/>
       <c r="B41" s="41"/>
       <c r="C41" s="41"/>
@@ -8582,7 +8593,7 @@
       <c r="F41" s="41"/>
       <c r="G41" s="41"/>
     </row>
-    <row r="42" spans="1:19">
+    <row r="42" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A42" s="41"/>
       <c r="B42" s="41"/>
       <c r="C42" s="41"/>
@@ -8593,7 +8604,7 @@
       <c r="F42" s="41"/>
       <c r="G42" s="41"/>
     </row>
-    <row r="43" spans="1:19">
+    <row r="43" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A43" s="41"/>
       <c r="B43" s="41"/>
       <c r="C43" s="41"/>
@@ -8604,7 +8615,7 @@
       <c r="F43" s="41"/>
       <c r="G43" s="41"/>
     </row>
-    <row r="44" spans="1:19">
+    <row r="44" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A44" s="41"/>
       <c r="B44" s="41"/>
       <c r="C44" s="41"/>
@@ -8615,7 +8626,7 @@
       <c r="F44" s="41"/>
       <c r="G44" s="41"/>
     </row>
-    <row r="45" spans="1:19">
+    <row r="45" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A45" s="41"/>
       <c r="B45" s="41"/>
       <c r="C45" s="41" t="s">
@@ -8626,7 +8637,7 @@
       <c r="F45" s="41"/>
       <c r="G45" s="41"/>
     </row>
-    <row r="46" spans="1:19">
+    <row r="46" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A46" s="41"/>
       <c r="B46" s="41"/>
       <c r="C46" s="41" t="s">
@@ -8637,7 +8648,7 @@
       <c r="F46" s="41"/>
       <c r="G46" s="41"/>
     </row>
-    <row r="47" spans="1:19">
+    <row r="47" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A47" s="41"/>
       <c r="B47" s="41"/>
       <c r="C47" s="41" t="s">
@@ -8648,7 +8659,7 @@
       <c r="F47" s="41"/>
       <c r="G47" s="41"/>
     </row>
-    <row r="48" spans="1:19">
+    <row r="48" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A48" s="41"/>
       <c r="B48" s="41"/>
       <c r="C48" s="41"/>
@@ -8659,7 +8670,7 @@
       <c r="F48" s="41"/>
       <c r="G48" s="41"/>
     </row>
-    <row r="49" spans="1:26">
+    <row r="49" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A49" s="41"/>
       <c r="B49" s="41"/>
       <c r="C49" s="41" t="s">
@@ -8670,7 +8681,7 @@
       <c r="F49" s="41"/>
       <c r="G49" s="41"/>
     </row>
-    <row r="50" spans="1:26">
+    <row r="50" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A50" s="41"/>
       <c r="B50" s="41" t="s">
         <v>311</v>
@@ -8681,7 +8692,7 @@
       <c r="F50" s="41"/>
       <c r="G50" s="41"/>
     </row>
-    <row r="51" spans="1:26">
+    <row r="51" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A51" s="41"/>
       <c r="B51" s="41" t="s">
         <v>381</v>
@@ -8692,7 +8703,7 @@
       <c r="F51" s="41"/>
       <c r="G51" s="41"/>
     </row>
-    <row r="52" spans="1:26">
+    <row r="52" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A52" s="41"/>
       <c r="B52" s="41" t="s">
         <v>378</v>
@@ -8703,7 +8714,7 @@
       <c r="F52" s="41"/>
       <c r="G52" s="41"/>
     </row>
-    <row r="53" spans="1:26">
+    <row r="53" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A53" s="41"/>
       <c r="B53" s="41"/>
       <c r="C53" s="41" t="s">
@@ -8714,7 +8725,7 @@
       <c r="F53" s="41"/>
       <c r="G53" s="41"/>
     </row>
-    <row r="54" spans="1:26">
+    <row r="54" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A54" s="41"/>
       <c r="B54" s="41" t="s">
         <v>311</v>
@@ -8725,7 +8736,7 @@
       <c r="F54" s="41"/>
       <c r="G54" s="41"/>
     </row>
-    <row r="55" spans="1:26">
+    <row r="55" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A55" s="41" t="s">
         <v>311</v>
       </c>
@@ -8736,7 +8747,7 @@
       <c r="F55" s="41"/>
       <c r="G55" s="41"/>
     </row>
-    <row r="56" spans="1:26">
+    <row r="56" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A56" s="41"/>
       <c r="B56" s="41"/>
       <c r="C56" s="41"/>
@@ -8745,7 +8756,7 @@
       <c r="F56" s="41"/>
       <c r="G56" s="41"/>
     </row>
-    <row r="57" spans="1:26">
+    <row r="57" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A57" s="41" t="s">
         <v>393</v>
       </c>
@@ -8768,7 +8779,7 @@
         <v>468</v>
       </c>
     </row>
-    <row r="58" spans="1:26">
+    <row r="58" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A58" s="41" t="s">
         <v>378</v>
       </c>
@@ -8791,7 +8802,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="59" spans="1:26">
+    <row r="59" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A59" s="41"/>
       <c r="B59" s="41" t="s">
         <v>394</v>
@@ -8814,7 +8825,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="60" spans="1:26">
+    <row r="60" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A60" s="41"/>
       <c r="B60" s="41"/>
       <c r="C60" s="41"/>
@@ -8838,7 +8849,7 @@
         <v>469</v>
       </c>
     </row>
-    <row r="61" spans="1:26">
+    <row r="61" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A61" s="41"/>
       <c r="B61" s="5" t="s">
         <v>395</v>
@@ -8861,7 +8872,7 @@
         <v>470</v>
       </c>
     </row>
-    <row r="62" spans="1:26">
+    <row r="62" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A62" s="41"/>
       <c r="B62" s="41" t="s">
         <v>378</v>
@@ -8884,7 +8895,7 @@
         <v>471</v>
       </c>
     </row>
-    <row r="63" spans="1:26">
+    <row r="63" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A63" s="41"/>
       <c r="B63" s="41"/>
       <c r="C63" s="5" t="s">
@@ -8907,7 +8918,7 @@
         <v>472</v>
       </c>
     </row>
-    <row r="64" spans="1:26">
+    <row r="64" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A64" s="41"/>
       <c r="B64" s="41"/>
       <c r="C64" s="41" t="s">
@@ -8930,7 +8941,7 @@
         <v>473</v>
       </c>
     </row>
-    <row r="65" spans="1:26">
+    <row r="65" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A65" s="41"/>
       <c r="B65" s="41"/>
       <c r="C65" s="41"/>
@@ -8950,7 +8961,7 @@
         <v>491</v>
       </c>
     </row>
-    <row r="66" spans="1:26">
+    <row r="66" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A66" s="41"/>
       <c r="B66" s="41"/>
       <c r="C66" s="41" t="s">
@@ -8970,7 +8981,7 @@
         <v>492</v>
       </c>
     </row>
-    <row r="67" spans="1:26">
+    <row r="67" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A67" s="41"/>
       <c r="B67" s="41"/>
       <c r="C67" s="41" t="s">
@@ -8990,7 +9001,7 @@
         <v>493</v>
       </c>
     </row>
-    <row r="68" spans="1:26">
+    <row r="68" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A68" s="41"/>
       <c r="B68" s="41"/>
       <c r="C68" s="41" t="s">
@@ -9010,7 +9021,7 @@
         <v>489</v>
       </c>
     </row>
-    <row r="69" spans="1:26">
+    <row r="69" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A69" s="41"/>
       <c r="B69" s="41"/>
       <c r="C69" s="41"/>
@@ -9030,7 +9041,7 @@
         <v>494</v>
       </c>
     </row>
-    <row r="70" spans="1:26">
+    <row r="70" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A70" s="41"/>
       <c r="B70" s="41"/>
       <c r="C70" s="41" t="s">
@@ -9050,7 +9061,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="71" spans="1:26">
+    <row r="71" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A71" s="41"/>
       <c r="B71" s="41"/>
       <c r="C71" s="41" t="s">
@@ -9061,7 +9072,7 @@
       <c r="F71" s="41"/>
       <c r="G71" s="41"/>
     </row>
-    <row r="72" spans="1:26">
+    <row r="72" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A72" s="41"/>
       <c r="B72" s="41" t="s">
         <v>397</v>
@@ -9072,7 +9083,7 @@
       <c r="F72" s="41"/>
       <c r="G72" s="41"/>
     </row>
-    <row r="73" spans="1:26">
+    <row r="73" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A73" s="41"/>
       <c r="B73" s="41"/>
       <c r="C73" s="41"/>
@@ -9081,7 +9092,7 @@
       <c r="F73" s="41"/>
       <c r="G73" s="41"/>
     </row>
-    <row r="74" spans="1:26">
+    <row r="74" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A74" s="41"/>
       <c r="B74" s="41" t="s">
         <v>398</v>
@@ -9092,7 +9103,7 @@
       <c r="F74" s="41"/>
       <c r="G74" s="41"/>
     </row>
-    <row r="75" spans="1:26">
+    <row r="75" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A75" s="41"/>
       <c r="B75" s="41" t="s">
         <v>399</v>
@@ -9103,7 +9114,7 @@
       <c r="F75" s="41"/>
       <c r="G75" s="41"/>
     </row>
-    <row r="76" spans="1:26">
+    <row r="76" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A76" s="41"/>
       <c r="B76" s="41"/>
       <c r="C76" s="41" t="s">
@@ -9114,7 +9125,7 @@
       <c r="F76" s="41"/>
       <c r="G76" s="41"/>
     </row>
-    <row r="77" spans="1:26">
+    <row r="77" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A77" s="41"/>
       <c r="B77" s="41" t="s">
         <v>397</v>
@@ -9125,7 +9136,7 @@
       <c r="F77" s="41"/>
       <c r="G77" s="41"/>
     </row>
-    <row r="78" spans="1:26">
+    <row r="78" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A78" s="41"/>
       <c r="B78" s="41" t="s">
         <v>400</v>
@@ -9136,7 +9147,7 @@
       <c r="F78" s="41"/>
       <c r="G78" s="41"/>
     </row>
-    <row r="79" spans="1:26">
+    <row r="79" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A79" s="41"/>
       <c r="B79" s="41" t="s">
         <v>378</v>
@@ -9147,7 +9158,7 @@
       <c r="F79" s="41"/>
       <c r="G79" s="41"/>
     </row>
-    <row r="80" spans="1:26">
+    <row r="80" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A80" s="41"/>
       <c r="B80" s="41"/>
       <c r="C80" s="5" t="s">
@@ -9158,7 +9169,7 @@
       <c r="F80" s="41"/>
       <c r="G80" s="41"/>
     </row>
-    <row r="81" spans="1:26">
+    <row r="81" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A81" s="41"/>
       <c r="B81" s="41"/>
       <c r="C81" s="41" t="s">
@@ -9169,7 +9180,7 @@
       <c r="F81" s="41"/>
       <c r="G81" s="41"/>
     </row>
-    <row r="82" spans="1:26">
+    <row r="82" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A82" s="41"/>
       <c r="B82" s="41"/>
       <c r="C82" s="41"/>
@@ -9180,7 +9191,7 @@
       <c r="F82" s="41"/>
       <c r="G82" s="41"/>
     </row>
-    <row r="83" spans="1:26">
+    <row r="83" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A83" s="41"/>
       <c r="B83" s="41"/>
       <c r="C83" s="41"/>
@@ -9191,7 +9202,7 @@
       <c r="F83" s="41"/>
       <c r="G83" s="41"/>
     </row>
-    <row r="84" spans="1:26">
+    <row r="84" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A84" s="41"/>
       <c r="B84" s="41"/>
       <c r="C84" s="41" t="s">
@@ -9202,7 +9213,7 @@
       <c r="F84" s="41"/>
       <c r="G84" s="41"/>
     </row>
-    <row r="85" spans="1:26">
+    <row r="85" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A85" s="41"/>
       <c r="B85" s="41"/>
       <c r="C85" s="41" t="s">
@@ -9213,7 +9224,7 @@
       <c r="F85" s="41"/>
       <c r="G85" s="41"/>
     </row>
-    <row r="86" spans="1:26">
+    <row r="86" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A86" s="41"/>
       <c r="B86" s="41"/>
       <c r="C86" s="41" t="s">
@@ -9224,7 +9235,7 @@
       <c r="F86" s="41"/>
       <c r="G86" s="41"/>
     </row>
-    <row r="87" spans="1:26">
+    <row r="87" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A87" s="41"/>
       <c r="B87" s="41"/>
       <c r="C87" s="41"/>
@@ -9235,7 +9246,7 @@
       <c r="F87" s="41"/>
       <c r="G87" s="41"/>
     </row>
-    <row r="88" spans="1:26">
+    <row r="88" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A88" s="41"/>
       <c r="B88" s="41"/>
       <c r="C88" s="41"/>
@@ -9246,7 +9257,7 @@
       <c r="F88" s="41"/>
       <c r="G88" s="41"/>
     </row>
-    <row r="89" spans="1:26">
+    <row r="89" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A89" s="41"/>
       <c r="B89" s="41"/>
       <c r="C89" s="41"/>
@@ -9257,7 +9268,7 @@
       <c r="F89" s="41"/>
       <c r="G89" s="41"/>
     </row>
-    <row r="90" spans="1:26">
+    <row r="90" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A90" s="41"/>
       <c r="B90" s="41"/>
       <c r="C90" s="41" t="s">
@@ -9268,7 +9279,7 @@
       <c r="F90" s="41"/>
       <c r="G90" s="41"/>
     </row>
-    <row r="91" spans="1:26">
+    <row r="91" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A91" s="41"/>
       <c r="B91" s="41" t="s">
         <v>311</v>
@@ -9279,7 +9290,7 @@
       <c r="F91" s="41"/>
       <c r="G91" s="41"/>
     </row>
-    <row r="92" spans="1:26">
+    <row r="92" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A92" s="41" t="s">
         <v>311</v>
       </c>
@@ -9290,7 +9301,7 @@
       <c r="F92" s="41"/>
       <c r="G92" s="41"/>
     </row>
-    <row r="93" spans="1:26">
+    <row r="93" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A93" s="41"/>
       <c r="B93" s="41"/>
       <c r="C93" s="41"/>
@@ -9299,7 +9310,7 @@
       <c r="F93" s="41"/>
       <c r="G93" s="41"/>
     </row>
-    <row r="94" spans="1:26">
+    <row r="94" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A94" s="41" t="s">
         <v>406</v>
       </c>
@@ -9322,7 +9333,7 @@
         <v>468</v>
       </c>
     </row>
-    <row r="95" spans="1:26">
+    <row r="95" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A95" s="41" t="s">
         <v>378</v>
       </c>
@@ -9345,7 +9356,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="96" spans="1:26">
+    <row r="96" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A96" s="41"/>
       <c r="B96" s="41" t="s">
         <v>376</v>
@@ -9368,7 +9379,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="97" spans="1:26">
+    <row r="97" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A97" s="41"/>
       <c r="B97" s="41"/>
       <c r="C97" s="41"/>
@@ -9389,7 +9400,7 @@
         <v>467</v>
       </c>
     </row>
-    <row r="98" spans="1:26">
+    <row r="98" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A98" s="41"/>
       <c r="B98" s="41" t="s">
         <v>377</v>
@@ -9412,7 +9423,7 @@
         <v>485</v>
       </c>
     </row>
-    <row r="99" spans="1:26">
+    <row r="99" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A99" s="41"/>
       <c r="B99" s="41" t="s">
         <v>378</v>
@@ -9435,7 +9446,7 @@
         <v>457</v>
       </c>
     </row>
-    <row r="100" spans="1:26">
+    <row r="100" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A100" s="41"/>
       <c r="B100" s="41"/>
       <c r="C100" s="5" t="s">
@@ -9458,7 +9469,7 @@
         <v>486</v>
       </c>
     </row>
-    <row r="101" spans="1:26">
+    <row r="101" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A101" s="41"/>
       <c r="B101" s="41"/>
       <c r="C101" s="41" t="s">
@@ -9481,7 +9492,7 @@
         <v>487</v>
       </c>
     </row>
-    <row r="102" spans="1:26">
+    <row r="102" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A102" s="41"/>
       <c r="B102" s="41"/>
       <c r="C102" s="41"/>
@@ -9501,7 +9512,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="103" spans="1:26">
+    <row r="103" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A103" s="41"/>
       <c r="B103" s="41"/>
       <c r="C103" s="41" t="s">
@@ -9521,7 +9532,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="104" spans="1:26">
+    <row r="104" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A104" s="41"/>
       <c r="B104" s="41"/>
       <c r="C104" s="41" t="s">
@@ -9532,7 +9543,7 @@
       <c r="F104" s="41"/>
       <c r="G104" s="41"/>
     </row>
-    <row r="105" spans="1:26">
+    <row r="105" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A105" s="41"/>
       <c r="B105" s="41"/>
       <c r="C105" s="41" t="s">
@@ -9543,7 +9554,7 @@
       <c r="F105" s="41"/>
       <c r="G105" s="41"/>
     </row>
-    <row r="106" spans="1:26">
+    <row r="106" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A106" s="41"/>
       <c r="B106" s="41"/>
       <c r="C106" s="41"/>
@@ -9554,7 +9565,7 @@
       <c r="F106" s="5"/>
       <c r="G106" s="41"/>
     </row>
-    <row r="107" spans="1:26">
+    <row r="107" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A107" s="41"/>
       <c r="B107" s="41"/>
       <c r="C107" s="41"/>
@@ -9565,7 +9576,7 @@
       <c r="F107" s="41"/>
       <c r="G107" s="41"/>
     </row>
-    <row r="108" spans="1:26">
+    <row r="108" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A108" s="41"/>
       <c r="B108" s="41"/>
       <c r="C108" s="41"/>
@@ -9576,7 +9587,7 @@
       <c r="F108" s="41"/>
       <c r="G108" s="41"/>
     </row>
-    <row r="109" spans="1:26">
+    <row r="109" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A109" s="41"/>
       <c r="B109" s="41"/>
       <c r="C109" s="41"/>
@@ -9587,7 +9598,7 @@
       <c r="F109" s="41"/>
       <c r="G109" s="41"/>
     </row>
-    <row r="110" spans="1:26">
+    <row r="110" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A110" s="41"/>
       <c r="B110" s="41"/>
       <c r="C110" s="41"/>
@@ -9598,7 +9609,7 @@
       <c r="F110" s="41"/>
       <c r="G110" s="41"/>
     </row>
-    <row r="111" spans="1:26">
+    <row r="111" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A111" s="41"/>
       <c r="B111" s="41"/>
       <c r="C111" s="41"/>
@@ -9609,7 +9620,7 @@
       <c r="F111" s="41"/>
       <c r="G111" s="41"/>
     </row>
-    <row r="112" spans="1:26">
+    <row r="112" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A112" s="41"/>
       <c r="B112" s="41"/>
       <c r="C112" s="41"/>
@@ -9620,7 +9631,7 @@
       <c r="F112" s="41"/>
       <c r="G112" s="41"/>
     </row>
-    <row r="113" spans="1:7">
+    <row r="113" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A113" s="41"/>
       <c r="B113" s="41"/>
       <c r="C113" s="41"/>
@@ -9631,7 +9642,7 @@
       <c r="F113" s="41"/>
       <c r="G113" s="41"/>
     </row>
-    <row r="114" spans="1:7">
+    <row r="114" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A114" s="41"/>
       <c r="B114" s="41"/>
       <c r="C114" s="41" t="s">
@@ -9642,7 +9653,7 @@
       <c r="F114" s="41"/>
       <c r="G114" s="41"/>
     </row>
-    <row r="115" spans="1:7">
+    <row r="115" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A115" s="41"/>
       <c r="B115" s="41" t="s">
         <v>311</v>
@@ -9653,7 +9664,7 @@
       <c r="F115" s="41"/>
       <c r="G115" s="41"/>
     </row>
-    <row r="116" spans="1:7">
+    <row r="116" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A116" s="41"/>
       <c r="B116" s="41" t="s">
         <v>381</v>
@@ -9664,7 +9675,7 @@
       <c r="F116" s="41"/>
       <c r="G116" s="41"/>
     </row>
-    <row r="117" spans="1:7">
+    <row r="117" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A117" s="41"/>
       <c r="B117" s="41" t="s">
         <v>378</v>
@@ -9675,7 +9686,7 @@
       <c r="F117" s="41"/>
       <c r="G117" s="41"/>
     </row>
-    <row r="118" spans="1:7">
+    <row r="118" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A118" s="41"/>
       <c r="B118" s="41"/>
       <c r="C118" s="41" t="s">
@@ -9686,7 +9697,7 @@
       <c r="F118" s="41"/>
       <c r="G118" s="41"/>
     </row>
-    <row r="119" spans="1:7">
+    <row r="119" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A119" s="41"/>
       <c r="B119" s="41" t="s">
         <v>311</v>
@@ -9697,7 +9708,7 @@
       <c r="F119" s="41"/>
       <c r="G119" s="41"/>
     </row>
-    <row r="120" spans="1:7">
+    <row r="120" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A120" s="41"/>
       <c r="B120" s="41"/>
       <c r="C120" s="41"/>
@@ -9706,7 +9717,7 @@
       <c r="F120" s="41"/>
       <c r="G120" s="41"/>
     </row>
-    <row r="121" spans="1:7">
+    <row r="121" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A121" s="41"/>
       <c r="B121" s="41" t="s">
         <v>407</v>
@@ -9717,7 +9728,7 @@
       <c r="F121" s="41"/>
       <c r="G121" s="41"/>
     </row>
-    <row r="122" spans="1:7">
+    <row r="122" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A122" s="41" t="s">
         <v>311</v>
       </c>
@@ -9728,7 +9739,7 @@
       <c r="F122" s="41"/>
       <c r="G122" s="41"/>
     </row>
-    <row r="125" spans="1:7">
+    <row r="125" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A125" s="41"/>
       <c r="B125" s="41"/>
       <c r="C125" s="41"/>
@@ -9737,7 +9748,7 @@
       <c r="F125" s="41"/>
       <c r="G125" s="41"/>
     </row>
-    <row r="133" spans="1:11">
+    <row r="133" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A133" s="41"/>
       <c r="B133" s="41"/>
       <c r="C133" s="41"/>

--- a/CFT4CUnitSrc/src/report/GAReport.xlsx
+++ b/CFT4CUnitSrc/src/report/GAReport.xlsx
@@ -7,18 +7,19 @@
     <workbookView xWindow="240" yWindow="1185" windowWidth="14805" windowHeight="6720" tabRatio="940"/>
   </bookViews>
   <sheets>
-    <sheet name="GA based TC generation" sheetId="2" r:id="rId1"/>
-    <sheet name="Report" sheetId="9" r:id="rId2"/>
-    <sheet name="icta2016" sheetId="11" r:id="rId3"/>
-    <sheet name="201612paper" sheetId="12" r:id="rId4"/>
-    <sheet name="ThayHieu_report" sheetId="13" r:id="rId5"/>
+    <sheet name="ICIST2017" sheetId="14" r:id="rId1"/>
+    <sheet name="GA based TC generation" sheetId="2" r:id="rId2"/>
+    <sheet name="Report" sheetId="9" r:id="rId3"/>
+    <sheet name="icta2016" sheetId="11" r:id="rId4"/>
+    <sheet name="201612paper" sheetId="12" r:id="rId5"/>
+    <sheet name="ThayHieu_report" sheetId="13" r:id="rId6"/>
   </sheets>
   <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="698" uniqueCount="496">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="702" uniqueCount="500">
   <si>
     <t>Nhìn chung, để sinh test case cho một input program theo phương pháp GA thì có các bước sau</t>
   </si>
@@ -1529,6 +1530,18 @@
   </si>
   <si>
     <t>https://conference.cs.cityu.edu.hk/icist/</t>
+  </si>
+  <si>
+    <t>Exploring Very Large State Spaces Using Genetic Algorithms.pdf</t>
+  </si>
+  <si>
+    <t>Chapter of</t>
+  </si>
+  <si>
+    <t>Tools and Algorithms for the Construction and Analysis of Systems</t>
+  </si>
+  <si>
+    <t>8th International Conference, TACAS 2002, Held as Part of the Joint European Conferences on Theory and Practice of Software, ETAPS 2002, Grenoble, France, April 8-12, 2002. Proceedings</t>
   </si>
 </sst>
 </file>
@@ -1802,6 +1815,66 @@
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>266700</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>295275</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="266700" y="295275"/>
+          <a:ext cx="7953375" cy="2924175"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
@@ -3212,7 +3285,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -5355,11 +5428,47 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B19:C22"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L29" sqref="L29"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="19" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B19" t="s">
+        <v>496</v>
+      </c>
+    </row>
+    <row r="20" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C20" t="s">
+        <v>497</v>
+      </c>
+    </row>
+    <row r="21" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C21" t="s">
+        <v>498</v>
+      </c>
+    </row>
+    <row r="22" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C22" t="s">
+        <v>499</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:AP160"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView topLeftCell="A76" workbookViewId="0">
+      <selection activeCell="L67" sqref="L67"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6385,7 +6494,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:R95"/>
@@ -7290,7 +7399,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet3"/>
   <dimension ref="A1:AH18"/>
@@ -7394,7 +7503,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet4"/>
   <dimension ref="A1:AF109"/>
@@ -8162,7 +8271,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Z133"/>
   <sheetViews>

--- a/CFT4CUnitSrc/src/report/GAReport.xlsx
+++ b/CFT4CUnitSrc/src/report/GAReport.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="702" uniqueCount="500">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="703" uniqueCount="501">
   <si>
     <t>Nhìn chung, để sinh test case cho một input program theo phương pháp GA thì có các bước sau</t>
   </si>
@@ -1542,6 +1542,9 @@
   </si>
   <si>
     <t>8th International Conference, TACAS 2002, Held as Part of the Joint European Conferences on Theory and Practice of Software, ETAPS 2002, Grenoble, France, April 8-12, 2002. Proceedings</t>
+  </si>
+  <si>
+    <t>Cũng được. Nhưng trước mắt, tốt nhất là đọc paper và tìm hướng để làm tiếp sau phần việc vừa rồi.</t>
   </si>
 </sst>
 </file>
@@ -5428,32 +5431,37 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B19:C22"/>
+  <dimension ref="A19:C24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L29" sqref="L29"/>
+      <selection activeCell="A25" sqref="A25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="19" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B19" t="s">
         <v>496</v>
       </c>
     </row>
-    <row r="20" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C20" t="s">
         <v>497</v>
       </c>
     </row>
-    <row r="21" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C21" t="s">
         <v>498</v>
       </c>
     </row>
-    <row r="22" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C22" t="s">
         <v>499</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>500</v>
       </c>
     </row>
   </sheetData>

--- a/CFT4CUnitSrc/src/report/GAReport.xlsx
+++ b/CFT4CUnitSrc/src/report/GAReport.xlsx
@@ -4,10 +4,10 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="1185" windowWidth="14805" windowHeight="6720" tabRatio="940"/>
+    <workbookView xWindow="240" yWindow="1245" windowWidth="14805" windowHeight="6600" tabRatio="940"/>
   </bookViews>
   <sheets>
-    <sheet name="ICIST2017" sheetId="14" r:id="rId1"/>
+    <sheet name="GA memo" sheetId="14" r:id="rId1"/>
     <sheet name="GA based TC generation" sheetId="2" r:id="rId2"/>
     <sheet name="Report" sheetId="9" r:id="rId3"/>
     <sheet name="icta2016" sheetId="11" r:id="rId4"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="703" uniqueCount="501">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="706" uniqueCount="504">
   <si>
     <t>Nhìn chung, để sinh test case cho một input program theo phương pháp GA thì có các bước sau</t>
   </si>
@@ -1544,7 +1544,16 @@
     <t>8th International Conference, TACAS 2002, Held as Part of the Joint European Conferences on Theory and Practice of Software, ETAPS 2002, Grenoble, France, April 8-12, 2002. Proceedings</t>
   </si>
   <si>
-    <t>Cũng được. Nhưng trước mắt, tốt nhất là đọc paper và tìm hướng để làm tiếp sau phần việc vừa rồi.</t>
+    <t>1, Có paper này khá hay về cách chuyển hóa việc sinh test data sang GA</t>
+  </si>
+  <si>
+    <t>Genetic Algorithms and the Automatic Generation of Test Data.pdf</t>
+  </si>
+  <si>
+    <t>Trong này nhấn mạnh việc phải xem mỗi gen là một thể hiện của test case</t>
+  </si>
+  <si>
+    <t>Combining Genetic Algorithms and Test Data Generation</t>
   </si>
 </sst>
 </file>
@@ -1713,7 +1722,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="52">
+  <cellXfs count="53">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
@@ -1802,6 +1811,7 @@
     <xf numFmtId="2" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1818,66 +1828,6 @@
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>266700</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>104775</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>295275</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>171450</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Picture 1"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:srcRect/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="266700" y="295275"/>
-          <a:ext cx="7953375" cy="2924175"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:extLst>
-          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-              <a:solidFill>
-                <a:srgbClr val="FFFFFF"/>
-              </a:solidFill>
-            </a14:hiddenFill>
-          </a:ext>
-        </a:extLst>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
-</file>
-
-<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
@@ -3288,7 +3238,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -5431,7 +5381,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A19:C24"/>
+  <dimension ref="A1:C23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A25" sqref="A25"/>
@@ -5439,34 +5389,50 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B19" t="s">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B2" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B3" s="52"/>
+      <c r="C3" s="52" t="s">
+        <v>503</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C4" t="s">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="20" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B20" t="s">
         <v>496</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="C20" t="s">
+    <row r="21" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C21" t="s">
         <v>497</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="C21" t="s">
+    <row r="22" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C22" t="s">
         <v>498</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="C22" t="s">
+    <row r="23" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C23" t="s">
         <v>499</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
-        <v>500</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 

--- a/CFT4CUnitSrc/src/report/GAReport.xlsx
+++ b/CFT4CUnitSrc/src/report/GAReport.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="1245" windowWidth="14805" windowHeight="6600" tabRatio="940"/>
+    <workbookView xWindow="240" yWindow="1305" windowWidth="14805" windowHeight="6540" tabRatio="940"/>
   </bookViews>
   <sheets>
     <sheet name="GA memo" sheetId="14" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="706" uniqueCount="504">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="709" uniqueCount="507">
   <si>
     <t>Nhìn chung, để sinh test case cho một input program theo phương pháp GA thì có các bước sau</t>
   </si>
@@ -1554,6 +1554,15 @@
   </si>
   <si>
     <t>Combining Genetic Algorithms and Test Data Generation</t>
+  </si>
+  <si>
+    <t>có câu này rất hay: "Each loop in a program is iterated zero, one, and two times in execution"</t>
+  </si>
+  <si>
+    <t>có nghĩa là với mỗi program mà có loop thì các loop đó sẽ được thực thi với 0, 1, 2 lần cố định thôi.</t>
+  </si>
+  <si>
+    <t>2, Automatic Generation of Data Flow Test Paths using a Genetic Algorithm</t>
   </si>
 </sst>
 </file>
@@ -1796,6 +1805,7 @@
     </xf>
     <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1811,7 +1821,6 @@
     <xf numFmtId="2" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -5381,10 +5390,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C23"/>
+  <dimension ref="A1:C22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A25" sqref="A25"/>
+      <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5400,8 +5409,8 @@
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B3" s="52"/>
-      <c r="C3" s="52" t="s">
+      <c r="B3" s="47"/>
+      <c r="C3" s="47" t="s">
         <v>503</v>
       </c>
     </row>
@@ -5410,23 +5419,38 @@
         <v>502</v>
       </c>
     </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B7" t="s">
+        <v>504</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B8" t="s">
+        <v>505</v>
+      </c>
+    </row>
+    <row r="19" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B19" t="s">
+        <v>496</v>
+      </c>
+    </row>
     <row r="20" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B20" t="s">
-        <v>496</v>
+      <c r="C20" t="s">
+        <v>497</v>
       </c>
     </row>
     <row r="21" spans="2:3" x14ac:dyDescent="0.25">
       <c r="C21" t="s">
-        <v>497</v>
+        <v>498</v>
       </c>
     </row>
     <row r="22" spans="2:3" x14ac:dyDescent="0.25">
       <c r="C22" t="s">
-        <v>498</v>
-      </c>
-    </row>
-    <row r="23" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="C23" t="s">
         <v>499</v>
       </c>
     </row>
@@ -7004,24 +7028,24 @@
       <c r="C23" t="s">
         <v>184</v>
       </c>
-      <c r="G23" s="48" t="s">
+      <c r="G23" s="49" t="s">
         <v>197</v>
       </c>
-      <c r="H23" s="50" t="s">
+      <c r="H23" s="51" t="s">
         <v>75</v>
       </c>
-      <c r="I23" s="47" t="s">
+      <c r="I23" s="48" t="s">
         <v>191</v>
       </c>
-      <c r="J23" s="47"/>
-      <c r="K23" s="47" t="s">
+      <c r="J23" s="48"/>
+      <c r="K23" s="48" t="s">
         <v>192</v>
       </c>
-      <c r="L23" s="47"/>
+      <c r="L23" s="48"/>
     </row>
     <row r="24" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="G24" s="49"/>
-      <c r="H24" s="51"/>
+      <c r="G24" s="50"/>
+      <c r="H24" s="52"/>
       <c r="I24" s="14" t="s">
         <v>193</v>
       </c>

--- a/CFT4CUnitSrc/src/report/GAReport.xlsx
+++ b/CFT4CUnitSrc/src/report/GAReport.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="1305" windowWidth="14805" windowHeight="6540" tabRatio="940"/>
+    <workbookView xWindow="240" yWindow="1305" windowWidth="14805" windowHeight="6540" tabRatio="940" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="GA memo" sheetId="14" r:id="rId1"/>
@@ -13,13 +13,14 @@
     <sheet name="icta2016" sheetId="11" r:id="rId4"/>
     <sheet name="201612paper" sheetId="12" r:id="rId5"/>
     <sheet name="ThayHieu_report" sheetId="13" r:id="rId6"/>
+    <sheet name="PSOReport" sheetId="15" r:id="rId7"/>
   </sheets>
   <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="709" uniqueCount="507">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="788" uniqueCount="523">
   <si>
     <t>Nhìn chung, để sinh test case cho một input program theo phương pháp GA thì có các bước sau</t>
   </si>
@@ -1564,6 +1565,54 @@
   <si>
     <t>2, Automatic Generation of Data Flow Test Paths using a Genetic Algorithm</t>
   </si>
+  <si>
+    <t>1, Cả 2 paper mình submit vừa rồi, đều dùng static program analysis kết hợp với GA.</t>
+  </si>
+  <si>
+    <t>Tuy nhiên static program analysis chưa bao giờ là việc dễ dàng.</t>
+  </si>
+  <si>
+    <t>Còn GA thì lại KO có khả năng hội tụ với một số hàm tối ưu.</t>
+  </si>
+  <si>
+    <t>2, Nghĩ đến PSO (Particle Swarm Optimization - giải thuật tối ưu hóa bầy đàn)</t>
+  </si>
+  <si>
+    <t>Nói cách khác, mỗi cá thể trong quần thể cập nhật vị trí của nó theo vị trí tốt nhất của nó và của cá thể trong quần thể tính tới thời điểm hiện tại.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Giá trị thứ nhất là nghiệm tốt nhất đạt được cho tới thời điểm hiện tại, gọi là Pbest. Một nghiệm tối ưu khác mà cá thể này bám theo là nghiệm tối ưu toàn cục Gbest, </t>
+  </si>
+  <si>
+    <t xml:space="preserve">đó là nghiệm tốt nhất mà cá thể lân cận cá thể này đạt được cho tới thời điểm hiện tại. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">PSO được khởi tạo bằng một nhóm cá thể(nghiệm) ngẫu nhiên và sau đó tìm nghiệm tối ưu bằng cách cập nhật các thế hệ. Trong mỗi thế hệ, </t>
+  </si>
+  <si>
+    <t xml:space="preserve">mỗi cá thể được cập nhật theo hai giá trị tốt nhất. </t>
+  </si>
+  <si>
+    <t>3, Em đã thực hiện survey thì thấy hiện tại, PSO chưa được áp dụng nhiều (ko có nhiều paper) trong bài toán automatic testdata generation</t>
+  </si>
+  <si>
+    <t>4, Ứng dụng như thế nào: xem xét 2 samples dưới đây</t>
+  </si>
+  <si>
+    <t>⇒</t>
+  </si>
+  <si>
+    <t>f  = |(b*b) - (4*a*c)|</t>
+  </si>
+  <si>
+    <t>GA KO cho ra được kết quả ở đây.</t>
+  </si>
+  <si>
+    <t>PSO có thể cho ra được kết quả.</t>
+  </si>
+  <si>
+    <t>f = |a - b| + |b - c|</t>
+  </si>
 </sst>
 </file>
 
@@ -1572,7 +1621,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.000000000"/>
   </numFmts>
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1614,6 +1663,13 @@
     <font>
       <sz val="11"/>
       <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF222222"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -1731,7 +1787,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="53">
+  <cellXfs count="54">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
@@ -1820,6 +1876,9 @@
     </xf>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -5392,8 +5451,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A9" sqref="A9"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B25" sqref="B25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8273,8 +8332,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Z133"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="M70" sqref="M70"/>
+    <sheetView topLeftCell="A70" workbookViewId="0">
+      <selection activeCell="A57" sqref="A57:F122"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9872,4 +9931,751 @@
   <pageMargins left="0" right="0" top="0.35433070866141736" bottom="0.35433070866141736" header="0.11811023622047245" footer="0.11811023622047245"/>
   <pageSetup paperSize="9" scale="85" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:J81"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
+      <selection activeCell="H50" sqref="H50"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>507</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>509</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>510</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6" s="53" t="s">
+        <v>514</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7" s="53" t="s">
+        <v>515</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>511</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>516</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>517</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A16" s="41" t="s">
+        <v>393</v>
+      </c>
+      <c r="B16" s="41"/>
+      <c r="C16" s="41"/>
+      <c r="D16" s="41"/>
+      <c r="E16" s="41"/>
+      <c r="F16" s="41"/>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A17" s="41" t="s">
+        <v>378</v>
+      </c>
+      <c r="B17" s="41"/>
+      <c r="C17" s="41"/>
+      <c r="D17" s="41"/>
+      <c r="E17" s="41"/>
+      <c r="F17" s="41"/>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A18" s="41"/>
+      <c r="B18" s="41" t="s">
+        <v>394</v>
+      </c>
+      <c r="C18" s="41"/>
+      <c r="D18" s="41"/>
+      <c r="E18" s="41"/>
+      <c r="F18" s="41"/>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A19" s="41"/>
+      <c r="B19" s="41"/>
+      <c r="C19" s="41"/>
+      <c r="D19" s="41"/>
+      <c r="E19" s="41"/>
+      <c r="F19" s="41"/>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A20" s="41"/>
+      <c r="B20" s="41" t="s">
+        <v>395</v>
+      </c>
+      <c r="C20" s="41"/>
+      <c r="D20" s="41"/>
+      <c r="E20" s="41"/>
+      <c r="F20" s="41"/>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A21" s="41"/>
+      <c r="B21" s="41" t="s">
+        <v>378</v>
+      </c>
+      <c r="C21" s="41"/>
+      <c r="D21" s="41"/>
+      <c r="E21" s="41"/>
+      <c r="F21" s="41"/>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A22" s="41"/>
+      <c r="B22" s="41"/>
+      <c r="C22" s="41" t="s">
+        <v>396</v>
+      </c>
+      <c r="D22" s="41"/>
+      <c r="E22" s="41"/>
+      <c r="F22" s="41"/>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A23" s="41"/>
+      <c r="B23" s="41"/>
+      <c r="C23" s="41" t="s">
+        <v>378</v>
+      </c>
+      <c r="D23" s="41"/>
+      <c r="E23" s="41"/>
+      <c r="F23" s="41"/>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A24" s="41"/>
+      <c r="B24" s="41"/>
+      <c r="C24" s="41"/>
+      <c r="D24" s="41" t="s">
+        <v>387</v>
+      </c>
+      <c r="E24" s="41"/>
+      <c r="F24" s="41"/>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A25" s="41"/>
+      <c r="B25" s="41"/>
+      <c r="C25" s="41" t="s">
+        <v>311</v>
+      </c>
+      <c r="D25" s="41"/>
+      <c r="E25" s="41"/>
+      <c r="F25" s="41"/>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A26" s="41"/>
+      <c r="B26" s="41"/>
+      <c r="C26" s="41" t="s">
+        <v>381</v>
+      </c>
+      <c r="D26" s="41"/>
+      <c r="E26" s="41"/>
+      <c r="F26" s="41"/>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A27" s="41"/>
+      <c r="B27" s="41"/>
+      <c r="C27" s="41" t="s">
+        <v>378</v>
+      </c>
+      <c r="D27" s="41"/>
+      <c r="E27" s="41"/>
+      <c r="F27" s="41"/>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A28" s="41"/>
+      <c r="B28" s="41"/>
+      <c r="C28" s="41"/>
+      <c r="D28" s="41" t="s">
+        <v>373</v>
+      </c>
+      <c r="E28" s="41"/>
+      <c r="F28" s="41"/>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A29" s="41"/>
+      <c r="B29" s="41"/>
+      <c r="C29" s="41" t="s">
+        <v>311</v>
+      </c>
+      <c r="D29" s="41"/>
+      <c r="E29" s="41"/>
+      <c r="F29" s="41"/>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A30" s="41"/>
+      <c r="B30" s="41"/>
+      <c r="C30" s="41" t="s">
+        <v>315</v>
+      </c>
+      <c r="D30" s="41"/>
+      <c r="E30" s="41"/>
+      <c r="F30" s="41"/>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A31" s="41"/>
+      <c r="B31" s="41" t="s">
+        <v>397</v>
+      </c>
+      <c r="C31" s="41"/>
+      <c r="D31" s="41"/>
+      <c r="E31" s="41"/>
+      <c r="F31" s="41"/>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A32" s="41"/>
+      <c r="B32" s="41"/>
+      <c r="C32" s="41"/>
+      <c r="D32" s="41"/>
+      <c r="E32" s="41"/>
+      <c r="F32" s="41"/>
+    </row>
+    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A33" s="41"/>
+      <c r="B33" s="41" t="s">
+        <v>398</v>
+      </c>
+      <c r="C33" s="41"/>
+      <c r="D33" s="41"/>
+      <c r="E33" s="41"/>
+      <c r="F33" s="41"/>
+    </row>
+    <row r="34" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A34" s="41"/>
+      <c r="B34" s="41" t="s">
+        <v>399</v>
+      </c>
+      <c r="C34" s="41"/>
+      <c r="D34" s="41"/>
+      <c r="E34" s="41"/>
+      <c r="F34" s="41"/>
+    </row>
+    <row r="35" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A35" s="41"/>
+      <c r="B35" s="41"/>
+      <c r="C35" s="41" t="s">
+        <v>374</v>
+      </c>
+      <c r="D35" s="41"/>
+      <c r="E35" s="41"/>
+      <c r="F35" s="41"/>
+    </row>
+    <row r="36" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A36" s="41"/>
+      <c r="B36" s="41" t="s">
+        <v>397</v>
+      </c>
+      <c r="C36" s="41"/>
+      <c r="D36" s="41"/>
+      <c r="E36" s="41"/>
+      <c r="F36" s="41"/>
+    </row>
+    <row r="37" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A37" s="41"/>
+      <c r="B37" s="41" t="s">
+        <v>400</v>
+      </c>
+      <c r="C37" s="41"/>
+      <c r="D37" s="41"/>
+      <c r="E37" s="41"/>
+      <c r="F37" s="41"/>
+    </row>
+    <row r="38" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A38" s="41"/>
+      <c r="B38" s="41" t="s">
+        <v>378</v>
+      </c>
+      <c r="C38" s="41"/>
+      <c r="D38" s="41"/>
+      <c r="E38" s="41"/>
+      <c r="F38" s="41"/>
+    </row>
+    <row r="39" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A39" s="41"/>
+      <c r="B39" s="41"/>
+      <c r="C39" s="5" t="s">
+        <v>401</v>
+      </c>
+      <c r="D39" s="5"/>
+      <c r="E39" s="5"/>
+      <c r="F39" s="41"/>
+      <c r="G39" t="s">
+        <v>518</v>
+      </c>
+      <c r="H39" s="9" t="s">
+        <v>519</v>
+      </c>
+      <c r="I39" s="9"/>
+      <c r="J39" s="9"/>
+    </row>
+    <row r="40" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A40" s="41"/>
+      <c r="B40" s="41"/>
+      <c r="C40" s="41" t="s">
+        <v>378</v>
+      </c>
+      <c r="D40" s="41"/>
+      <c r="E40" s="41"/>
+      <c r="F40" s="41"/>
+      <c r="H40" t="s">
+        <v>520</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A41" s="41"/>
+      <c r="B41" s="41"/>
+      <c r="C41" s="41"/>
+      <c r="D41" s="41" t="s">
+        <v>402</v>
+      </c>
+      <c r="E41" s="41"/>
+      <c r="F41" s="41"/>
+      <c r="H41" t="s">
+        <v>521</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A42" s="41"/>
+      <c r="B42" s="41"/>
+      <c r="C42" s="41"/>
+      <c r="D42" s="41" t="s">
+        <v>385</v>
+      </c>
+      <c r="E42" s="41"/>
+      <c r="F42" s="41"/>
+    </row>
+    <row r="43" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A43" s="41"/>
+      <c r="B43" s="41"/>
+      <c r="C43" s="41" t="s">
+        <v>311</v>
+      </c>
+      <c r="D43" s="41"/>
+      <c r="E43" s="41"/>
+      <c r="F43" s="41"/>
+    </row>
+    <row r="44" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A44" s="41"/>
+      <c r="B44" s="41"/>
+      <c r="C44" s="41" t="s">
+        <v>381</v>
+      </c>
+      <c r="D44" s="41"/>
+      <c r="E44" s="41"/>
+      <c r="F44" s="41"/>
+    </row>
+    <row r="45" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A45" s="41"/>
+      <c r="B45" s="41"/>
+      <c r="C45" s="41" t="s">
+        <v>378</v>
+      </c>
+      <c r="D45" s="41"/>
+      <c r="E45" s="41"/>
+      <c r="F45" s="41"/>
+    </row>
+    <row r="46" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A46" s="41"/>
+      <c r="B46" s="41"/>
+      <c r="C46" s="41"/>
+      <c r="D46" s="41" t="s">
+        <v>403</v>
+      </c>
+      <c r="E46" s="41"/>
+      <c r="F46" s="41"/>
+    </row>
+    <row r="47" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A47" s="41"/>
+      <c r="B47" s="41"/>
+      <c r="C47" s="41"/>
+      <c r="D47" s="41" t="s">
+        <v>404</v>
+      </c>
+      <c r="E47" s="41"/>
+      <c r="F47" s="41"/>
+    </row>
+    <row r="48" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A48" s="41"/>
+      <c r="B48" s="41"/>
+      <c r="C48" s="41"/>
+      <c r="D48" s="41" t="s">
+        <v>405</v>
+      </c>
+      <c r="E48" s="41"/>
+      <c r="F48" s="41"/>
+    </row>
+    <row r="49" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A49" s="41"/>
+      <c r="B49" s="41"/>
+      <c r="C49" s="41" t="s">
+        <v>311</v>
+      </c>
+      <c r="D49" s="41"/>
+      <c r="E49" s="41"/>
+      <c r="F49" s="41"/>
+    </row>
+    <row r="50" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A50" s="41"/>
+      <c r="B50" s="41" t="s">
+        <v>311</v>
+      </c>
+      <c r="C50" s="41"/>
+      <c r="D50" s="41"/>
+      <c r="E50" s="41"/>
+      <c r="F50" s="41"/>
+    </row>
+    <row r="51" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A51" s="41" t="s">
+        <v>311</v>
+      </c>
+      <c r="B51" s="41"/>
+      <c r="C51" s="41"/>
+      <c r="D51" s="41"/>
+      <c r="E51" s="41"/>
+      <c r="F51" s="41"/>
+    </row>
+    <row r="52" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A52" s="41"/>
+      <c r="B52" s="41"/>
+      <c r="C52" s="41"/>
+      <c r="D52" s="41"/>
+      <c r="E52" s="41"/>
+      <c r="F52" s="41"/>
+    </row>
+    <row r="53" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A53" s="41" t="s">
+        <v>406</v>
+      </c>
+      <c r="B53" s="41"/>
+      <c r="C53" s="41"/>
+      <c r="D53" s="41"/>
+      <c r="E53" s="41"/>
+      <c r="F53" s="41"/>
+    </row>
+    <row r="54" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A54" s="41" t="s">
+        <v>378</v>
+      </c>
+      <c r="B54" s="41"/>
+      <c r="C54" s="41"/>
+      <c r="D54" s="41"/>
+      <c r="E54" s="41"/>
+      <c r="F54" s="41"/>
+    </row>
+    <row r="55" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A55" s="41"/>
+      <c r="B55" s="41" t="s">
+        <v>376</v>
+      </c>
+      <c r="C55" s="41"/>
+      <c r="D55" s="41"/>
+      <c r="E55" s="41"/>
+      <c r="F55" s="41"/>
+    </row>
+    <row r="56" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A56" s="41"/>
+      <c r="B56" s="41"/>
+      <c r="C56" s="41"/>
+      <c r="D56" s="41"/>
+      <c r="E56" s="41"/>
+      <c r="F56" s="41"/>
+    </row>
+    <row r="57" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A57" s="41"/>
+      <c r="B57" s="41" t="s">
+        <v>377</v>
+      </c>
+      <c r="C57" s="41"/>
+      <c r="D57" s="41"/>
+      <c r="E57" s="41"/>
+      <c r="F57" s="41"/>
+    </row>
+    <row r="58" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A58" s="41"/>
+      <c r="B58" s="41" t="s">
+        <v>378</v>
+      </c>
+      <c r="C58" s="41"/>
+      <c r="D58" s="41"/>
+      <c r="E58" s="41"/>
+      <c r="F58" s="41"/>
+    </row>
+    <row r="59" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A59" s="41"/>
+      <c r="B59" s="41"/>
+      <c r="C59" s="5" t="s">
+        <v>379</v>
+      </c>
+      <c r="D59" s="5"/>
+      <c r="E59" s="41"/>
+      <c r="F59" s="41"/>
+      <c r="H59" s="9" t="s">
+        <v>522</v>
+      </c>
+      <c r="I59" s="9"/>
+      <c r="J59" s="9"/>
+    </row>
+    <row r="60" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A60" s="41"/>
+      <c r="B60" s="41"/>
+      <c r="C60" s="41" t="s">
+        <v>378</v>
+      </c>
+      <c r="D60" s="41"/>
+      <c r="E60" s="41"/>
+      <c r="F60" s="41"/>
+      <c r="H60" t="s">
+        <v>520</v>
+      </c>
+    </row>
+    <row r="61" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A61" s="41"/>
+      <c r="B61" s="41"/>
+      <c r="C61" s="41"/>
+      <c r="D61" s="41" t="s">
+        <v>380</v>
+      </c>
+      <c r="E61" s="41"/>
+      <c r="F61" s="41"/>
+      <c r="H61" t="s">
+        <v>521</v>
+      </c>
+    </row>
+    <row r="62" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A62" s="41"/>
+      <c r="B62" s="41"/>
+      <c r="C62" s="41" t="s">
+        <v>311</v>
+      </c>
+      <c r="D62" s="41"/>
+      <c r="E62" s="41"/>
+      <c r="F62" s="41"/>
+    </row>
+    <row r="63" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A63" s="41"/>
+      <c r="B63" s="41"/>
+      <c r="C63" s="41" t="s">
+        <v>381</v>
+      </c>
+      <c r="D63" s="41"/>
+      <c r="E63" s="41"/>
+      <c r="F63" s="41"/>
+    </row>
+    <row r="64" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A64" s="41"/>
+      <c r="B64" s="41"/>
+      <c r="C64" s="41" t="s">
+        <v>378</v>
+      </c>
+      <c r="D64" s="41"/>
+      <c r="E64" s="41"/>
+      <c r="F64" s="41"/>
+    </row>
+    <row r="65" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A65" s="41"/>
+      <c r="B65" s="41"/>
+      <c r="C65" s="41"/>
+      <c r="D65" s="41" t="s">
+        <v>382</v>
+      </c>
+      <c r="E65" s="41"/>
+      <c r="F65" s="41"/>
+      <c r="G65" s="41"/>
+    </row>
+    <row r="66" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A66" s="41"/>
+      <c r="B66" s="41"/>
+      <c r="C66" s="41"/>
+      <c r="D66" s="41" t="s">
+        <v>378</v>
+      </c>
+      <c r="E66" s="41"/>
+      <c r="F66" s="41"/>
+    </row>
+    <row r="67" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A67" s="41"/>
+      <c r="B67" s="41"/>
+      <c r="C67" s="41"/>
+      <c r="D67" s="41"/>
+      <c r="E67" s="41" t="s">
+        <v>383</v>
+      </c>
+      <c r="F67" s="41"/>
+    </row>
+    <row r="68" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A68" s="41"/>
+      <c r="B68" s="41"/>
+      <c r="C68" s="41"/>
+      <c r="D68" s="41" t="s">
+        <v>311</v>
+      </c>
+      <c r="E68" s="41"/>
+      <c r="F68" s="41"/>
+    </row>
+    <row r="69" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A69" s="41"/>
+      <c r="B69" s="41"/>
+      <c r="C69" s="41"/>
+      <c r="D69" s="41" t="s">
+        <v>381</v>
+      </c>
+      <c r="E69" s="41"/>
+      <c r="F69" s="41"/>
+    </row>
+    <row r="70" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A70" s="41"/>
+      <c r="B70" s="41"/>
+      <c r="C70" s="41"/>
+      <c r="D70" s="41" t="s">
+        <v>378</v>
+      </c>
+      <c r="E70" s="41"/>
+      <c r="F70" s="41"/>
+    </row>
+    <row r="71" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A71" s="41"/>
+      <c r="B71" s="41"/>
+      <c r="C71" s="41"/>
+      <c r="D71" s="41"/>
+      <c r="E71" s="41" t="s">
+        <v>384</v>
+      </c>
+      <c r="F71" s="41"/>
+    </row>
+    <row r="72" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A72" s="41"/>
+      <c r="B72" s="41"/>
+      <c r="C72" s="41"/>
+      <c r="D72" s="41" t="s">
+        <v>311</v>
+      </c>
+      <c r="E72" s="41"/>
+      <c r="F72" s="41"/>
+    </row>
+    <row r="73" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A73" s="41"/>
+      <c r="B73" s="41"/>
+      <c r="C73" s="41" t="s">
+        <v>311</v>
+      </c>
+      <c r="D73" s="41"/>
+      <c r="E73" s="41"/>
+      <c r="F73" s="41"/>
+    </row>
+    <row r="74" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A74" s="41"/>
+      <c r="B74" s="41" t="s">
+        <v>311</v>
+      </c>
+      <c r="C74" s="41"/>
+      <c r="D74" s="41"/>
+      <c r="E74" s="41"/>
+      <c r="F74" s="41"/>
+    </row>
+    <row r="75" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A75" s="41"/>
+      <c r="B75" s="41" t="s">
+        <v>381</v>
+      </c>
+      <c r="C75" s="41"/>
+      <c r="D75" s="41"/>
+      <c r="E75" s="41"/>
+      <c r="F75" s="41"/>
+    </row>
+    <row r="76" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A76" s="41"/>
+      <c r="B76" s="41" t="s">
+        <v>378</v>
+      </c>
+      <c r="C76" s="41"/>
+      <c r="D76" s="41"/>
+      <c r="E76" s="41"/>
+      <c r="F76" s="41"/>
+    </row>
+    <row r="77" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A77" s="41"/>
+      <c r="B77" s="41"/>
+      <c r="C77" s="41" t="s">
+        <v>386</v>
+      </c>
+      <c r="D77" s="41"/>
+      <c r="E77" s="41"/>
+      <c r="F77" s="41"/>
+    </row>
+    <row r="78" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A78" s="41"/>
+      <c r="B78" s="41" t="s">
+        <v>311</v>
+      </c>
+      <c r="C78" s="41"/>
+      <c r="D78" s="41"/>
+      <c r="E78" s="41"/>
+      <c r="F78" s="41"/>
+    </row>
+    <row r="79" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A79" s="41"/>
+      <c r="B79" s="41"/>
+      <c r="C79" s="41"/>
+      <c r="D79" s="41"/>
+      <c r="E79" s="41"/>
+      <c r="F79" s="41"/>
+    </row>
+    <row r="80" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A80" s="41"/>
+      <c r="B80" s="41" t="s">
+        <v>407</v>
+      </c>
+      <c r="C80" s="41"/>
+      <c r="D80" s="41"/>
+      <c r="E80" s="41"/>
+      <c r="F80" s="41"/>
+    </row>
+    <row r="81" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A81" s="41" t="s">
+        <v>311</v>
+      </c>
+      <c r="B81" s="41"/>
+      <c r="C81" s="41"/>
+      <c r="D81" s="41"/>
+      <c r="E81" s="41"/>
+      <c r="F81" s="41"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0" right="0" top="0.35433070866141736" bottom="0.35433070866141736" header="0.11811023622047245" footer="0.11811023622047245"/>
+  <pageSetup paperSize="9" scale="90" orientation="landscape" r:id="rId1"/>
+</worksheet>
 </file>
--- a/CFT4CUnitSrc/src/report/GAReport.xlsx
+++ b/CFT4CUnitSrc/src/report/GAReport.xlsx
@@ -1862,6 +1862,9 @@
     <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1876,9 +1879,6 @@
     </xf>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -7087,24 +7087,24 @@
       <c r="C23" t="s">
         <v>184</v>
       </c>
-      <c r="G23" s="49" t="s">
+      <c r="G23" s="50" t="s">
         <v>197</v>
       </c>
-      <c r="H23" s="51" t="s">
+      <c r="H23" s="52" t="s">
         <v>75</v>
       </c>
-      <c r="I23" s="48" t="s">
+      <c r="I23" s="49" t="s">
         <v>191</v>
       </c>
-      <c r="J23" s="48"/>
-      <c r="K23" s="48" t="s">
+      <c r="J23" s="49"/>
+      <c r="K23" s="49" t="s">
         <v>192</v>
       </c>
-      <c r="L23" s="48"/>
+      <c r="L23" s="49"/>
     </row>
     <row r="24" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="G24" s="50"/>
-      <c r="H24" s="52"/>
+      <c r="G24" s="51"/>
+      <c r="H24" s="53"/>
       <c r="I24" s="14" t="s">
         <v>193</v>
       </c>
@@ -9937,8 +9937,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J81"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
-      <selection activeCell="H50" sqref="H50"/>
+    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="G46" sqref="G46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9964,12 +9964,12 @@
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A6" s="53" t="s">
+      <c r="A6" s="48" t="s">
         <v>514</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A7" s="53" t="s">
+      <c r="A7" s="48" t="s">
         <v>515</v>
       </c>
     </row>

--- a/CFT4CUnitSrc/src/report/GAReport.xlsx
+++ b/CFT4CUnitSrc/src/report/GAReport.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="788" uniqueCount="523">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="794" uniqueCount="529">
   <si>
     <t>Nhìn chung, để sinh test case cho một input program theo phương pháp GA thì có các bước sau</t>
   </si>
@@ -1612,6 +1612,24 @@
   </si>
   <si>
     <t>f = |a - b| + |b - c|</t>
+  </si>
+  <si>
+    <t>Thầy Hiếu 11/17: có 2 câu hỏi cần phải trả lời</t>
+  </si>
+  <si>
+    <t>1, Cái paper đã submitted ở ACIIDS thì đã đến tới hạn chưa, có làm được gì thêm nữa ko?</t>
+  </si>
+  <si>
+    <t>2, Hãy survey đến PSO trong software testing</t>
+  </si>
+  <si>
+    <t>Em nghĩ là đã đến tới hạn, vì thật sự phân tích 1 condition rồi tách các biểu thức trong condition đó, giải nó bằng Z3 và cho vào GA là một công việc khó.</t>
+  </si>
+  <si>
+    <t>Đưa ra một ví dụ ở đây.</t>
+  </si>
+  <si>
+    <t>Cần phải survey đến một paper nào mà đang dùng các kỹ thuật này trong software testing.</t>
   </si>
 </sst>
 </file>
@@ -9935,10 +9953,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J81"/>
+  <dimension ref="A1:L81"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="G46" sqref="G46"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L23" sqref="L23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10008,7 +10026,7 @@
       <c r="E16" s="41"/>
       <c r="F16" s="41"/>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A17" s="41" t="s">
         <v>378</v>
       </c>
@@ -10017,8 +10035,11 @@
       <c r="D17" s="41"/>
       <c r="E17" s="41"/>
       <c r="F17" s="41"/>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="K17" t="s">
+        <v>523</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A18" s="41"/>
       <c r="B18" s="41" t="s">
         <v>394</v>
@@ -10027,16 +10048,22 @@
       <c r="D18" s="41"/>
       <c r="E18" s="41"/>
       <c r="F18" s="41"/>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="K18" t="s">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A19" s="41"/>
       <c r="B19" s="41"/>
       <c r="C19" s="41"/>
       <c r="D19" s="41"/>
       <c r="E19" s="41"/>
       <c r="F19" s="41"/>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="L19" t="s">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A20" s="41"/>
       <c r="B20" s="41" t="s">
         <v>395</v>
@@ -10045,8 +10072,11 @@
       <c r="D20" s="41"/>
       <c r="E20" s="41"/>
       <c r="F20" s="41"/>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="L20" t="s">
+        <v>527</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A21" s="41"/>
       <c r="B21" s="41" t="s">
         <v>378</v>
@@ -10056,7 +10086,7 @@
       <c r="E21" s="41"/>
       <c r="F21" s="41"/>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A22" s="41"/>
       <c r="B22" s="41"/>
       <c r="C22" s="41" t="s">
@@ -10065,8 +10095,11 @@
       <c r="D22" s="41"/>
       <c r="E22" s="41"/>
       <c r="F22" s="41"/>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="K22" t="s">
+        <v>525</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A23" s="41"/>
       <c r="B23" s="41"/>
       <c r="C23" s="41" t="s">
@@ -10075,8 +10108,11 @@
       <c r="D23" s="41"/>
       <c r="E23" s="41"/>
       <c r="F23" s="41"/>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="L23" t="s">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A24" s="41"/>
       <c r="B24" s="41"/>
       <c r="C24" s="41"/>
@@ -10086,7 +10122,7 @@
       <c r="E24" s="41"/>
       <c r="F24" s="41"/>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A25" s="41"/>
       <c r="B25" s="41"/>
       <c r="C25" s="41" t="s">
@@ -10096,7 +10132,7 @@
       <c r="E25" s="41"/>
       <c r="F25" s="41"/>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A26" s="41"/>
       <c r="B26" s="41"/>
       <c r="C26" s="41" t="s">
@@ -10106,7 +10142,7 @@
       <c r="E26" s="41"/>
       <c r="F26" s="41"/>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A27" s="41"/>
       <c r="B27" s="41"/>
       <c r="C27" s="41" t="s">
@@ -10116,7 +10152,7 @@
       <c r="E27" s="41"/>
       <c r="F27" s="41"/>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A28" s="41"/>
       <c r="B28" s="41"/>
       <c r="C28" s="41"/>
@@ -10126,7 +10162,7 @@
       <c r="E28" s="41"/>
       <c r="F28" s="41"/>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A29" s="41"/>
       <c r="B29" s="41"/>
       <c r="C29" s="41" t="s">
@@ -10136,7 +10172,7 @@
       <c r="E29" s="41"/>
       <c r="F29" s="41"/>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A30" s="41"/>
       <c r="B30" s="41"/>
       <c r="C30" s="41" t="s">
@@ -10146,7 +10182,7 @@
       <c r="E30" s="41"/>
       <c r="F30" s="41"/>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A31" s="41"/>
       <c r="B31" s="41" t="s">
         <v>397</v>
@@ -10156,7 +10192,7 @@
       <c r="E31" s="41"/>
       <c r="F31" s="41"/>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A32" s="41"/>
       <c r="B32" s="41"/>
       <c r="C32" s="41"/>

--- a/CFT4CUnitSrc/src/report/GAReport.xlsx
+++ b/CFT4CUnitSrc/src/report/GAReport.xlsx
@@ -4,23 +4,24 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="1305" windowWidth="14805" windowHeight="6540" tabRatio="940" activeTab="6"/>
+    <workbookView xWindow="240" yWindow="1305" windowWidth="14805" windowHeight="6540" tabRatio="940"/>
   </bookViews>
   <sheets>
-    <sheet name="GA memo" sheetId="14" r:id="rId1"/>
-    <sheet name="GA based TC generation" sheetId="2" r:id="rId2"/>
-    <sheet name="Report" sheetId="9" r:id="rId3"/>
-    <sheet name="icta2016" sheetId="11" r:id="rId4"/>
-    <sheet name="201612paper" sheetId="12" r:id="rId5"/>
-    <sheet name="ThayHieu_report" sheetId="13" r:id="rId6"/>
-    <sheet name="PSOReport" sheetId="15" r:id="rId7"/>
+    <sheet name="PSOsurvey" sheetId="16" r:id="rId1"/>
+    <sheet name="GA memo" sheetId="14" r:id="rId2"/>
+    <sheet name="GA based TC generation" sheetId="2" r:id="rId3"/>
+    <sheet name="Report" sheetId="9" r:id="rId4"/>
+    <sheet name="icta2016" sheetId="11" r:id="rId5"/>
+    <sheet name="201612paper" sheetId="12" r:id="rId6"/>
+    <sheet name="ThayHieu_report" sheetId="13" r:id="rId7"/>
+    <sheet name="PSOReport" sheetId="15" r:id="rId8"/>
   </sheets>
   <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="794" uniqueCount="529">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="796" uniqueCount="531">
   <si>
     <t>Nhìn chung, để sinh test case cho một input program theo phương pháp GA thì có các bước sau</t>
   </si>
@@ -1630,6 +1631,17 @@
   </si>
   <si>
     <t>Cần phải survey đến một paper nào mà đang dùng các kỹ thuật này trong software testing.</t>
+  </si>
+  <si>
+    <t>Automatic Test Data Generation for Data Flow
+Testing Using Particle Swarm Optimization</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Narmada Nayak and Durga Prasad Mohapatra
+Department of Computer Science and Engineering
+National Institute of Technology Rourkela,
+Orissa-769008, India
+</t>
   </si>
 </sst>
 </file>
@@ -1805,7 +1817,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="54">
+  <cellXfs count="56">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
@@ -1897,6 +1909,12 @@
     </xf>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -5467,6 +5485,34 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C22" sqref="C22"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="46.7109375" style="55" customWidth="1"/>
+    <col min="2" max="2" width="60.7109375" style="55" customWidth="1"/>
+    <col min="3" max="16384" width="9.140625" style="55"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" ht="75" x14ac:dyDescent="0.25">
+      <c r="A1" s="54" t="s">
+        <v>529</v>
+      </c>
+      <c r="B1" s="54" t="s">
+        <v>530</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5537,7 +5583,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:AP160"/>
@@ -6569,7 +6615,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:R95"/>
@@ -7474,7 +7520,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet3"/>
   <dimension ref="A1:AH18"/>
@@ -7578,7 +7624,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet4"/>
   <dimension ref="A1:AF109"/>
@@ -8346,7 +8392,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Z133"/>
   <sheetViews>
@@ -9951,11 +9997,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L81"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="L23" sqref="L23"/>
     </sheetView>
   </sheetViews>

--- a/CFT4CUnitSrc/src/report/GAReport.xlsx
+++ b/CFT4CUnitSrc/src/report/GAReport.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="1305" windowWidth="14805" windowHeight="6540" tabRatio="940"/>
+    <workbookView xWindow="240" yWindow="1365" windowWidth="14805" windowHeight="6480" tabRatio="940"/>
   </bookViews>
   <sheets>
     <sheet name="PSOsurvey" sheetId="16" r:id="rId1"/>
@@ -1895,6 +1895,12 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1909,12 +1915,6 @@
     </xf>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1932,6 +1932,781 @@
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>3031665</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>141508</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3" name="Flowchart: Multidocument 2"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6146340" y="1714500"/>
+          <a:ext cx="1767568" cy="1590675"/>
+        </a:xfrm>
+        <a:prstGeom prst="flowChartMultidocument">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>182335</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>66651</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>127907</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="22" name="Group 21"/>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="3116036" y="4754335"/>
+          <a:ext cx="15755686" cy="2231572"/>
+          <a:chOff x="3116036" y="4754335"/>
+          <a:chExt cx="15755686" cy="2231572"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="21" name="TextBox 20"/>
+          <xdr:cNvSpPr txBox="1"/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="15552964" y="5483680"/>
+            <a:ext cx="1183821" cy="517071"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:schemeClr val="lt1"/>
+          </a:solidFill>
+          <a:ln w="9525" cmpd="sng">
+            <a:noFill/>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="dk1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:r>
+              <a:rPr lang="en-US" sz="2000">
+                <a:latin typeface="Times" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              </a:rPr>
+              <a:t>generates</a:t>
+            </a:r>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="20" name="TextBox 19"/>
+          <xdr:cNvSpPr txBox="1"/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="12178394" y="5524500"/>
+            <a:ext cx="1156606" cy="517071"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:schemeClr val="lt1"/>
+          </a:solidFill>
+          <a:ln w="9525" cmpd="sng">
+            <a:noFill/>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="dk1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:r>
+              <a:rPr lang="en-US" sz="2000">
+                <a:latin typeface="Times" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              </a:rPr>
+              <a:t>executes</a:t>
+            </a:r>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="19" name="TextBox 18"/>
+          <xdr:cNvSpPr txBox="1"/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="8323483" y="5529943"/>
+            <a:ext cx="1709057" cy="810985"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:schemeClr val="lt1"/>
+          </a:solidFill>
+          <a:ln w="9525" cmpd="sng">
+            <a:noFill/>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="dk1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:r>
+              <a:rPr lang="en-US" sz="2000">
+                <a:latin typeface="Times" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              </a:rPr>
+              <a:t>creates</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" sz="2000" baseline="0">
+                <a:latin typeface="Times" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              </a:rPr>
+              <a:t> fitness functions</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US" sz="2000">
+              <a:latin typeface="Times" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            </a:endParaRPr>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="2" name="TextBox 1"/>
+          <xdr:cNvSpPr txBox="1"/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="4966602" y="5529943"/>
+            <a:ext cx="1238250" cy="857250"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:schemeClr val="lt1"/>
+          </a:solidFill>
+          <a:ln w="9525" cmpd="sng">
+            <a:noFill/>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="dk1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:r>
+              <a:rPr lang="en-US" sz="2000">
+                <a:latin typeface="Times" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              </a:rPr>
+              <a:t>statistical</a:t>
+            </a:r>
+          </a:p>
+          <a:p>
+            <a:r>
+              <a:rPr lang="en-US" sz="2000">
+                <a:latin typeface="Times" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              </a:rPr>
+              <a:t>analysis</a:t>
+            </a:r>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:grpSp>
+        <xdr:nvGrpSpPr>
+          <xdr:cNvPr id="4" name="Group 3"/>
+          <xdr:cNvGrpSpPr/>
+        </xdr:nvGrpSpPr>
+        <xdr:grpSpPr>
+          <a:xfrm>
+            <a:off x="3116036" y="4781550"/>
+            <a:ext cx="1619250" cy="2190750"/>
+            <a:chOff x="4966607" y="8817429"/>
+            <a:chExt cx="1619250" cy="2190750"/>
+          </a:xfrm>
+        </xdr:grpSpPr>
+        <xdr:pic>
+          <xdr:nvPicPr>
+            <xdr:cNvPr id="5" name="Picture 4"/>
+            <xdr:cNvPicPr>
+              <a:picLocks noChangeAspect="1"/>
+            </xdr:cNvPicPr>
+          </xdr:nvPicPr>
+          <xdr:blipFill>
+            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+            <a:stretch>
+              <a:fillRect/>
+            </a:stretch>
+          </xdr:blipFill>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="5048250" y="8871857"/>
+              <a:ext cx="1453426" cy="1864179"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+        </xdr:pic>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="6" name="Folded Corner 5"/>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="4966607" y="8817429"/>
+              <a:ext cx="1619250" cy="2190750"/>
+            </a:xfrm>
+            <a:prstGeom prst="foldedCorner">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="2">
+              <a:schemeClr val="accent1">
+                <a:shade val="50000"/>
+              </a:schemeClr>
+            </a:lnRef>
+            <a:fillRef idx="1">
+              <a:schemeClr val="accent1"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="lt1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr algn="l"/>
+              <a:endParaRPr lang="en-US" sz="1100"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </xdr:grpSp>
+      <xdr:grpSp>
+        <xdr:nvGrpSpPr>
+          <xdr:cNvPr id="7" name="Group 6"/>
+          <xdr:cNvGrpSpPr/>
+        </xdr:nvGrpSpPr>
+        <xdr:grpSpPr>
+          <a:xfrm>
+            <a:off x="6463380" y="4754335"/>
+            <a:ext cx="1655989" cy="2231571"/>
+            <a:chOff x="10409463" y="4993821"/>
+            <a:chExt cx="3483429" cy="2530929"/>
+          </a:xfrm>
+        </xdr:grpSpPr>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="8" name="Rectangle 7"/>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="10409463" y="4993821"/>
+              <a:ext cx="3483429" cy="2530929"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="2">
+              <a:schemeClr val="accent1">
+                <a:shade val="50000"/>
+              </a:schemeClr>
+            </a:lnRef>
+            <a:fillRef idx="1">
+              <a:schemeClr val="accent1"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="lt1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr algn="l"/>
+              <a:endParaRPr lang="en-US" sz="1100"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+        <xdr:pic>
+          <xdr:nvPicPr>
+            <xdr:cNvPr id="9" name="Picture 8"/>
+            <xdr:cNvPicPr>
+              <a:picLocks noChangeAspect="1"/>
+            </xdr:cNvPicPr>
+          </xdr:nvPicPr>
+          <xdr:blipFill>
+            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+            <a:stretch>
+              <a:fillRect/>
+            </a:stretch>
+          </xdr:blipFill>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="10491108" y="4993822"/>
+              <a:ext cx="3323810" cy="2449285"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+        </xdr:pic>
+      </xdr:grpSp>
+      <xdr:grpSp>
+        <xdr:nvGrpSpPr>
+          <xdr:cNvPr id="10" name="Group 9"/>
+          <xdr:cNvGrpSpPr/>
+        </xdr:nvGrpSpPr>
+        <xdr:grpSpPr>
+          <a:xfrm>
+            <a:off x="10307390" y="4754336"/>
+            <a:ext cx="1695451" cy="2231571"/>
+            <a:chOff x="7130143" y="5320393"/>
+            <a:chExt cx="1687286" cy="2231571"/>
+          </a:xfrm>
+        </xdr:grpSpPr>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="11" name="Rectangle 10"/>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="7130143" y="5320393"/>
+              <a:ext cx="1687286" cy="2231571"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="2">
+              <a:schemeClr val="accent1">
+                <a:shade val="50000"/>
+              </a:schemeClr>
+            </a:lnRef>
+            <a:fillRef idx="1">
+              <a:schemeClr val="accent1"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="lt1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr algn="l"/>
+              <a:endParaRPr lang="en-US" sz="1100"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+        <xdr:pic>
+          <xdr:nvPicPr>
+            <xdr:cNvPr id="12" name="Picture 11"/>
+            <xdr:cNvPicPr>
+              <a:picLocks noChangeAspect="1"/>
+            </xdr:cNvPicPr>
+          </xdr:nvPicPr>
+          <xdr:blipFill>
+            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+            <a:stretch>
+              <a:fillRect/>
+            </a:stretch>
+          </xdr:blipFill>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="7170963" y="5361213"/>
+              <a:ext cx="1619251" cy="2149930"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+        </xdr:pic>
+      </xdr:grpSp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="13" name="Rectangle 12"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="13475126" y="4754336"/>
+            <a:ext cx="1940380" cy="2231571"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="ctr"/>
+            <a:r>
+              <a:rPr lang="en-US" sz="2500">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+                <a:latin typeface="Times" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              </a:rPr>
+              <a:t>Parallel Particle Swarm Optimization</a:t>
+            </a:r>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:cxnSp macro="">
+        <xdr:nvCxnSpPr>
+          <xdr:cNvPr id="14" name="Straight Arrow Connector 13"/>
+          <xdr:cNvCxnSpPr>
+            <a:stCxn id="6" idx="3"/>
+            <a:endCxn id="8" idx="1"/>
+          </xdr:cNvCxnSpPr>
+        </xdr:nvCxnSpPr>
+        <xdr:spPr>
+          <a:xfrm flipV="1">
+            <a:off x="4735286" y="5870121"/>
+            <a:ext cx="1728094" cy="6804"/>
+          </a:xfrm>
+          <a:prstGeom prst="straightConnector1">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:ln w="25400">
+            <a:tailEnd type="triangle"/>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="tx1"/>
+          </a:fontRef>
+        </xdr:style>
+      </xdr:cxnSp>
+      <xdr:cxnSp macro="">
+        <xdr:nvCxnSpPr>
+          <xdr:cNvPr id="15" name="Straight Arrow Connector 14"/>
+          <xdr:cNvCxnSpPr>
+            <a:stCxn id="8" idx="3"/>
+            <a:endCxn id="11" idx="1"/>
+          </xdr:cNvCxnSpPr>
+        </xdr:nvCxnSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="8119369" y="5870121"/>
+            <a:ext cx="2188021" cy="1"/>
+          </a:xfrm>
+          <a:prstGeom prst="straightConnector1">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:ln w="25400">
+            <a:tailEnd type="triangle"/>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="tx1"/>
+          </a:fontRef>
+        </xdr:style>
+      </xdr:cxnSp>
+      <xdr:cxnSp macro="">
+        <xdr:nvCxnSpPr>
+          <xdr:cNvPr id="16" name="Straight Arrow Connector 15"/>
+          <xdr:cNvCxnSpPr>
+            <a:stCxn id="11" idx="3"/>
+            <a:endCxn id="13" idx="1"/>
+          </xdr:cNvCxnSpPr>
+        </xdr:nvCxnSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="12002841" y="5870122"/>
+            <a:ext cx="1472285" cy="0"/>
+          </a:xfrm>
+          <a:prstGeom prst="straightConnector1">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:ln w="25400">
+            <a:tailEnd type="triangle"/>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="tx1"/>
+          </a:fontRef>
+        </xdr:style>
+      </xdr:cxnSp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="17" name="Flowchart: Multidocument 16"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="16944943" y="4958441"/>
+            <a:ext cx="1926779" cy="1809750"/>
+          </a:xfrm>
+          <a:prstGeom prst="flowChartMultidocument">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="ctr"/>
+            <a:r>
+              <a:rPr lang="en-US" sz="2500">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+                <a:latin typeface="Times" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              </a:rPr>
+              <a:t>Test</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" sz="2500" baseline="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+                <a:latin typeface="Times" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              </a:rPr>
+              <a:t> Data</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US" sz="2500">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Times" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            </a:endParaRPr>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:cxnSp macro="">
+        <xdr:nvCxnSpPr>
+          <xdr:cNvPr id="18" name="Straight Arrow Connector 17"/>
+          <xdr:cNvCxnSpPr>
+            <a:stCxn id="13" idx="3"/>
+            <a:endCxn id="17" idx="1"/>
+          </xdr:cNvCxnSpPr>
+        </xdr:nvCxnSpPr>
+        <xdr:spPr>
+          <a:xfrm flipV="1">
+            <a:off x="15415506" y="5863316"/>
+            <a:ext cx="1529437" cy="6806"/>
+          </a:xfrm>
+          <a:prstGeom prst="straightConnector1">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:ln w="25400">
+            <a:tailEnd type="triangle"/>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="tx1"/>
+          </a:fontRef>
+        </xdr:style>
+      </xdr:cxnSp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
@@ -3342,7 +4117,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -5487,27 +6262,28 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C22" sqref="C22"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="L9" sqref="L9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="46.7109375" style="55" customWidth="1"/>
-    <col min="2" max="2" width="60.7109375" style="55" customWidth="1"/>
-    <col min="3" max="16384" width="9.140625" style="55"/>
+    <col min="1" max="1" width="46.7109375" style="50" customWidth="1"/>
+    <col min="2" max="2" width="60.7109375" style="50" customWidth="1"/>
+    <col min="3" max="16384" width="9.140625" style="50"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="75" x14ac:dyDescent="0.25">
-      <c r="A1" s="54" t="s">
+      <c r="A1" s="49" t="s">
         <v>529</v>
       </c>
-      <c r="B1" s="54" t="s">
+      <c r="B1" s="49" t="s">
         <v>530</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -7151,24 +7927,24 @@
       <c r="C23" t="s">
         <v>184</v>
       </c>
-      <c r="G23" s="50" t="s">
+      <c r="G23" s="52" t="s">
         <v>197</v>
       </c>
-      <c r="H23" s="52" t="s">
+      <c r="H23" s="54" t="s">
         <v>75</v>
       </c>
-      <c r="I23" s="49" t="s">
+      <c r="I23" s="51" t="s">
         <v>191</v>
       </c>
-      <c r="J23" s="49"/>
-      <c r="K23" s="49" t="s">
+      <c r="J23" s="51"/>
+      <c r="K23" s="51" t="s">
         <v>192</v>
       </c>
-      <c r="L23" s="49"/>
+      <c r="L23" s="51"/>
     </row>
     <row r="24" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="G24" s="51"/>
-      <c r="H24" s="53"/>
+      <c r="G24" s="53"/>
+      <c r="H24" s="55"/>
       <c r="I24" s="14" t="s">
         <v>193</v>
       </c>

--- a/CFT4CUnitSrc/src/report/GAReport.xlsx
+++ b/CFT4CUnitSrc/src/report/GAReport.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="1365" windowWidth="14805" windowHeight="6480" tabRatio="940"/>
@@ -1647,11 +1647,11 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.000000000"/>
   </numFmts>
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="7">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1936,60 +1936,6 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>3031665</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>141508</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>66675</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="3" name="Flowchart: Multidocument 2"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="6146340" y="1714500"/>
-          <a:ext cx="1767568" cy="1590675"/>
-        </a:xfrm>
-        <a:prstGeom prst="flowChartMultidocument">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr lang="en-US" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>1</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>20</xdr:row>
       <xdr:rowOff>182335</xdr:rowOff>
@@ -2007,8 +1953,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="3116036" y="4754335"/>
-          <a:ext cx="15755686" cy="2231572"/>
+          <a:off x="3115235" y="4754335"/>
+          <a:ext cx="15609210" cy="2231572"/>
           <a:chOff x="3116036" y="4754335"/>
           <a:chExt cx="15755686" cy="2231572"/>
         </a:xfrm>
@@ -2239,7 +2185,7 @@
             </xdr:cNvPicPr>
           </xdr:nvPicPr>
           <xdr:blipFill>
-            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print"/>
             <a:stretch>
               <a:fillRect/>
             </a:stretch>
@@ -2356,7 +2302,7 @@
             </xdr:cNvPicPr>
           </xdr:nvPicPr>
           <xdr:blipFill>
-            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2" cstate="print"/>
             <a:stretch>
               <a:fillRect/>
             </a:stretch>
@@ -2433,7 +2379,7 @@
             </xdr:cNvPicPr>
           </xdr:nvPicPr>
           <xdr:blipFill>
-            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3" cstate="print"/>
             <a:stretch>
               <a:fillRect/>
             </a:stretch>
@@ -2701,6 +2647,53 @@
         </xdr:style>
       </xdr:cxnSp>
     </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>276225</xdr:colOff>
+      <xdr:row>62</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="1025" name="Picture 1"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4" cstate="print"/>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="3114675" y="8001000"/>
+          <a:ext cx="6762750" cy="4705350"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="1">
+          <a:noFill/>
+          <a:miter lim="800000"/>
+          <a:headEnd/>
+          <a:tailEnd type="none" w="med" len="med"/>
+        </a:ln>
+        <a:effectLst/>
+      </xdr:spPr>
+    </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -6048,7 +6041,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -6083,7 +6075,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -6259,21 +6250,21 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:B1"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="L9" sqref="L9"/>
+    <sheetView tabSelected="1" topLeftCell="A35" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="M57" sqref="M57"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="46.7109375" style="50" customWidth="1"/>
     <col min="2" max="2" width="60.7109375" style="50" customWidth="1"/>
     <col min="3" max="16384" width="9.140625" style="50"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" ht="75">
       <c r="A1" s="49" t="s">
         <v>529</v>
       </c>
@@ -6288,67 +6279,67 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:C22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B25" sqref="B25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3">
       <c r="A1" t="s">
         <v>500</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3">
       <c r="B2" t="s">
         <v>501</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3">
       <c r="B3" s="47"/>
       <c r="C3" s="47" t="s">
         <v>503</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3">
       <c r="C4" t="s">
         <v>502</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3">
       <c r="A6" t="s">
         <v>506</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3">
       <c r="B7" t="s">
         <v>504</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3">
       <c r="B8" t="s">
         <v>505</v>
       </c>
     </row>
-    <row r="19" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:3">
       <c r="B19" t="s">
         <v>496</v>
       </c>
     </row>
-    <row r="20" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:3">
       <c r="C20" t="s">
         <v>497</v>
       </c>
     </row>
-    <row r="21" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:3">
       <c r="C21" t="s">
         <v>498</v>
       </c>
     </row>
-    <row r="22" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:3">
       <c r="C22" t="s">
         <v>499</v>
       </c>
@@ -6360,7 +6351,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:AP160"/>
   <sheetViews>
@@ -6368,34 +6359,34 @@
       <selection activeCell="L67" sqref="L67"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="10.7109375" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="10.140625" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="9.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10">
       <c r="B1" s="25" t="s">
         <v>495</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10">
       <c r="A3" s="18">
         <v>42502</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10">
       <c r="B4" t="s">
         <v>168</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10">
       <c r="C5" t="s">
         <v>169</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10">
       <c r="C6" t="s">
         <v>180</v>
       </c>
@@ -6403,17 +6394,17 @@
         <v>181</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10">
       <c r="J7" t="s">
         <v>182</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:10">
       <c r="B8" t="s">
         <v>171</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:10">
       <c r="B9" t="s">
         <v>179</v>
       </c>
@@ -6421,7 +6412,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:10">
       <c r="B10" t="s">
         <v>179</v>
       </c>
@@ -6429,32 +6420,32 @@
         <v>176</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:10">
       <c r="C11" t="s">
         <v>172</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:10">
       <c r="C12" t="s">
         <v>173</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:10">
       <c r="C13" t="s">
         <v>174</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:10">
       <c r="C15" s="1" t="s">
         <v>177</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:10">
       <c r="C16" s="1" t="s">
         <v>178</v>
       </c>
     </row>
-    <row r="19" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:17">
       <c r="A19" s="18">
         <v>42499</v>
       </c>
@@ -6462,7 +6453,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:17">
       <c r="B20" t="s">
         <v>160</v>
       </c>
@@ -6470,7 +6461,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:17">
       <c r="C21" t="s">
         <v>161</v>
       </c>
@@ -6478,7 +6469,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:17">
       <c r="C22" t="s">
         <v>162</v>
       </c>
@@ -6486,12 +6477,12 @@
         <v>166</v>
       </c>
     </row>
-    <row r="23" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:17">
       <c r="C23" t="s">
         <v>167</v>
       </c>
     </row>
-    <row r="24" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:17">
       <c r="B24" t="s">
         <v>164</v>
       </c>
@@ -6502,7 +6493,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="26" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:17">
       <c r="A26" s="18">
         <v>42496</v>
       </c>
@@ -6516,7 +6507,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="27" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:17">
       <c r="B27" t="s">
         <v>137</v>
       </c>
@@ -6524,7 +6515,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="28" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:17">
       <c r="B28" t="s">
         <v>135</v>
       </c>
@@ -6535,7 +6526,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="30" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:17">
       <c r="B30" t="s">
         <v>136</v>
       </c>
@@ -6546,12 +6537,12 @@
         <v>152</v>
       </c>
     </row>
-    <row r="31" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:17">
       <c r="B31" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="32" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:17">
       <c r="B32" t="s">
         <v>139</v>
       </c>
@@ -6559,12 +6550,12 @@
         <v>153</v>
       </c>
     </row>
-    <row r="34" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:16">
       <c r="B34" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="35" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:16">
       <c r="C35" t="s">
         <v>140</v>
       </c>
@@ -6572,7 +6563,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="36" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:16">
       <c r="C36" t="s">
         <v>141</v>
       </c>
@@ -6580,7 +6571,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="38" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="38" spans="2:16">
       <c r="B38" t="s">
         <v>142</v>
       </c>
@@ -6588,47 +6579,47 @@
         <v>159</v>
       </c>
     </row>
-    <row r="40" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="40" spans="2:16">
       <c r="B40" t="s">
         <v>143</v>
       </c>
     </row>
-    <row r="41" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="41" spans="2:16">
       <c r="B41" t="s">
         <v>144</v>
       </c>
     </row>
-    <row r="43" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="43" spans="2:16">
       <c r="B43" t="s">
         <v>146</v>
       </c>
     </row>
-    <row r="44" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="44" spans="2:16">
       <c r="B44" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="45" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="45" spans="2:16">
       <c r="B45" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="47" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="47" spans="2:16">
       <c r="B47" t="s">
         <v>148</v>
       </c>
     </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:7">
       <c r="A52" s="18">
         <v>42494</v>
       </c>
     </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:7">
       <c r="B53" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:7">
       <c r="C54" t="s">
         <v>1</v>
       </c>
@@ -6636,7 +6627,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:7">
       <c r="C56" s="5" t="s">
         <v>3</v>
       </c>
@@ -6644,44 +6635,44 @@
         <v>123</v>
       </c>
     </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:7">
       <c r="D57" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:7">
       <c r="E58" s="25" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:7">
       <c r="E59" s="25"/>
     </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:7">
       <c r="B60" s="5" t="s">
         <v>134</v>
       </c>
       <c r="E60" s="25"/>
     </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:7">
       <c r="C61" t="s">
         <v>124</v>
       </c>
       <c r="E61" s="25"/>
     </row>
-    <row r="62" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:7">
       <c r="C62" t="s">
         <v>125</v>
       </c>
       <c r="E62" s="25"/>
     </row>
-    <row r="63" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:7">
       <c r="D63" t="s">
         <v>126</v>
       </c>
       <c r="E63" s="25"/>
     </row>
-    <row r="64" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:7">
       <c r="E64" s="26" t="s">
         <v>127</v>
       </c>
@@ -6692,7 +6683,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="65" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:10">
       <c r="E65" s="27">
         <v>1.1000000000000001</v>
       </c>
@@ -6703,7 +6694,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="66" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:10">
       <c r="E66" s="27">
         <v>1.1100000000000001</v>
       </c>
@@ -6720,7 +6711,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="67" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:10">
       <c r="E67" s="27">
         <v>1.3</v>
       </c>
@@ -6731,21 +6722,21 @@
         <v>1</v>
       </c>
     </row>
-    <row r="68" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:10">
       <c r="D68" t="s">
         <v>132</v>
       </c>
       <c r="E68" s="27"/>
     </row>
-    <row r="69" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:10">
       <c r="E69" s="27" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="70" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:10">
       <c r="E70" s="27"/>
     </row>
-    <row r="71" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:10">
       <c r="C71" t="s">
         <v>5</v>
       </c>
@@ -6753,57 +6744,57 @@
         <v>116</v>
       </c>
     </row>
-    <row r="73" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:10">
       <c r="B73" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="74" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:10">
       <c r="B74" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="76" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:10">
       <c r="B76" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="77" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:10">
       <c r="B77" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="79" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:10">
       <c r="A79" s="18">
         <v>42488</v>
       </c>
     </row>
-    <row r="80" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:10">
       <c r="B80" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="81" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:42">
       <c r="C81" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="82" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:42">
       <c r="C82" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="83" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:42">
       <c r="C83" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="84" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:42">
       <c r="C84" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="85" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:42">
       <c r="B85" s="5" t="s">
         <v>113</v>
       </c>
@@ -6816,12 +6807,12 @@
       <c r="I85" s="5"/>
       <c r="J85" s="5"/>
     </row>
-    <row r="87" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:42">
       <c r="A87" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="89" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:42">
       <c r="B89" t="s">
         <v>1</v>
       </c>
@@ -6829,7 +6820,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="91" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:42">
       <c r="B91" t="s">
         <v>3</v>
       </c>
@@ -6837,12 +6828,12 @@
         <v>6</v>
       </c>
     </row>
-    <row r="92" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:42">
       <c r="C92" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="94" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:42">
       <c r="B94" t="s">
         <v>5</v>
       </c>
@@ -6850,12 +6841,12 @@
         <v>8</v>
       </c>
     </row>
-    <row r="95" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:42">
       <c r="C95" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="96" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:42">
       <c r="C96" s="6" t="s">
         <v>52</v>
       </c>
@@ -6889,7 +6880,7 @@
         <v>42483</v>
       </c>
     </row>
-    <row r="97" spans="2:42" x14ac:dyDescent="0.25">
+    <row r="97" spans="2:42">
       <c r="C97" s="6" t="s">
         <v>53</v>
       </c>
@@ -6921,7 +6912,7 @@
       <c r="AO97" s="5"/>
       <c r="AP97" s="5"/>
     </row>
-    <row r="98" spans="2:42" x14ac:dyDescent="0.25">
+    <row r="98" spans="2:42">
       <c r="C98" t="s">
         <v>14</v>
       </c>
@@ -6935,29 +6926,29 @@
       <c r="AO98" s="5"/>
       <c r="AP98" s="5"/>
     </row>
-    <row r="99" spans="2:42" x14ac:dyDescent="0.25">
+    <row r="99" spans="2:42">
       <c r="C99" s="1"/>
       <c r="D99" s="1" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="100" spans="2:42" x14ac:dyDescent="0.25">
+    <row r="100" spans="2:42">
       <c r="C100" s="1"/>
       <c r="D100" s="1" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="102" spans="2:42" x14ac:dyDescent="0.25">
+    <row r="102" spans="2:42">
       <c r="C102" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="103" spans="2:42" x14ac:dyDescent="0.25">
+    <row r="103" spans="2:42">
       <c r="C103" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="105" spans="2:42" x14ac:dyDescent="0.25">
+    <row r="105" spans="2:42">
       <c r="B105" t="s">
         <v>7</v>
       </c>
@@ -6965,12 +6956,12 @@
         <v>16</v>
       </c>
     </row>
-    <row r="107" spans="2:42" x14ac:dyDescent="0.25">
+    <row r="107" spans="2:42">
       <c r="C107" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="109" spans="2:42" x14ac:dyDescent="0.25">
+    <row r="109" spans="2:42">
       <c r="B109" t="s">
         <v>17</v>
       </c>
@@ -6978,7 +6969,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="110" spans="2:42" x14ac:dyDescent="0.25">
+    <row r="110" spans="2:42">
       <c r="D110" s="5" t="s">
         <v>50</v>
       </c>
@@ -6996,7 +6987,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="111" spans="2:42" x14ac:dyDescent="0.25">
+    <row r="111" spans="2:42">
       <c r="C111" t="s">
         <v>19</v>
       </c>
@@ -7004,12 +6995,12 @@
         <v>20</v>
       </c>
     </row>
-    <row r="112" spans="2:42" x14ac:dyDescent="0.25">
+    <row r="112" spans="2:42">
       <c r="D112" s="3" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="114" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:24">
       <c r="B114" t="s">
         <v>22</v>
       </c>
@@ -7017,12 +7008,12 @@
         <v>21</v>
       </c>
     </row>
-    <row r="116" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:24">
       <c r="A116" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="117" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:24">
       <c r="B117" t="s">
         <v>48</v>
       </c>
@@ -7044,7 +7035,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="118" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:24">
       <c r="B118" t="s">
         <v>46</v>
       </c>
@@ -7058,7 +7049,7 @@
         <v>42480</v>
       </c>
     </row>
-    <row r="119" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:24">
       <c r="B119" t="s">
         <v>49</v>
       </c>
@@ -7072,14 +7063,14 @@
         <v>42480</v>
       </c>
     </row>
-    <row r="120" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:24">
       <c r="M120" s="6"/>
       <c r="N120" s="6"/>
       <c r="O120" s="6"/>
       <c r="P120" s="6"/>
       <c r="S120" s="8"/>
     </row>
-    <row r="121" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:24">
       <c r="F121" s="9" t="s">
         <v>69</v>
       </c>
@@ -7092,7 +7083,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="122" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:24">
       <c r="A122" t="s">
         <v>47</v>
       </c>
@@ -7115,7 +7106,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="123" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:24">
       <c r="A123" s="4" t="s">
         <v>23</v>
       </c>
@@ -7135,7 +7126,7 @@
       <c r="O123" s="4"/>
       <c r="P123" s="4"/>
     </row>
-    <row r="124" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:24">
       <c r="A124" s="4" t="s">
         <v>24</v>
       </c>
@@ -7155,7 +7146,7 @@
       <c r="O124" s="4"/>
       <c r="P124" s="4"/>
     </row>
-    <row r="125" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:24">
       <c r="A125" t="s">
         <v>25</v>
       </c>
@@ -7175,12 +7166,12 @@
       </c>
       <c r="V125" s="9"/>
     </row>
-    <row r="126" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:24">
       <c r="A126" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="127" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:24">
       <c r="A127" s="4" t="s">
         <v>42</v>
       </c>
@@ -7200,7 +7191,7 @@
       <c r="O127" s="4"/>
       <c r="P127" s="4"/>
     </row>
-    <row r="128" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:24">
       <c r="A128" s="4" t="s">
         <v>27</v>
       </c>
@@ -7220,12 +7211,12 @@
       <c r="O128" s="4"/>
       <c r="P128" s="4"/>
     </row>
-    <row r="129" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:16">
       <c r="A129" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="130" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:16">
       <c r="A130" s="4" t="s">
         <v>45</v>
       </c>
@@ -7245,83 +7236,83 @@
       <c r="O130" s="4"/>
       <c r="P130" s="4"/>
     </row>
-    <row r="131" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:16">
       <c r="A131" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="132" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:16">
       <c r="A132" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="133" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:16">
       <c r="A133" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="134" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:16">
       <c r="A134" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="135" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:16">
       <c r="A135" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="136" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:16">
       <c r="A136" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="137" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:16">
       <c r="A137" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="138" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:16">
       <c r="A138" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="139" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:16">
       <c r="A139" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="140" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:16">
       <c r="A140" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="141" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:16">
       <c r="A141" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="142" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:16">
       <c r="A142" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="143" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:16">
       <c r="A143" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="146" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:11">
       <c r="A146" s="13" t="s">
         <v>70</v>
       </c>
       <c r="B146" s="13"/>
     </row>
-    <row r="147" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:11">
       <c r="B147" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="148" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:11">
       <c r="B148" s="5" t="s">
         <v>80</v>
       </c>
@@ -7331,32 +7322,32 @@
       <c r="D148" s="5"/>
       <c r="E148" s="5"/>
     </row>
-    <row r="149" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:11">
       <c r="B149" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="150" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:11">
       <c r="C150" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="151" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:11">
       <c r="B151" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="153" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:11">
       <c r="B153" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="154" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:11">
       <c r="B154" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="156" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:11">
       <c r="B156" s="5" t="s">
         <v>84</v>
       </c>
@@ -7371,12 +7362,12 @@
         <v>42483</v>
       </c>
     </row>
-    <row r="159" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:11">
       <c r="B159" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="160" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:11">
       <c r="B160" t="s">
         <v>86</v>
       </c>
@@ -7392,7 +7383,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:R95"/>
   <sheetViews>
@@ -7400,7 +7391,7 @@
       <selection activeCell="H60" sqref="H60"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="2" max="2" width="5" style="10" customWidth="1"/>
     <col min="3" max="3" width="30.140625" bestFit="1" customWidth="1"/>
@@ -7415,7 +7406,7 @@
     <col min="12" max="12" width="14.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:18">
       <c r="A1" s="7" t="s">
         <v>59</v>
       </c>
@@ -7424,7 +7415,7 @@
       <c r="D1" s="7"/>
       <c r="E1" s="11"/>
     </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:18">
       <c r="B2" s="17" t="s">
         <v>65</v>
       </c>
@@ -7462,7 +7453,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:18">
       <c r="B3" s="14">
         <v>1</v>
       </c>
@@ -7506,7 +7497,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:18">
       <c r="B4" s="14">
         <f>B3+1</f>
         <v>2</v>
@@ -7540,7 +7531,7 @@
       </c>
       <c r="L4" s="15"/>
     </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:18">
       <c r="B5" s="14">
         <f t="shared" ref="B5:B19" si="0">B4+1</f>
         <v>3</v>
@@ -7574,7 +7565,7 @@
       </c>
       <c r="L5" s="15"/>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:18">
       <c r="B6" s="14">
         <f t="shared" si="0"/>
         <v>4</v>
@@ -7611,7 +7602,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:18">
       <c r="B7" s="14">
         <f t="shared" si="0"/>
         <v>5</v>
@@ -7652,7 +7643,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:18">
       <c r="B8" s="14">
         <f t="shared" si="0"/>
         <v>6</v>
@@ -7694,7 +7685,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:18">
       <c r="B9" s="14">
         <f t="shared" si="0"/>
         <v>7</v>
@@ -7734,7 +7725,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:18">
       <c r="B10" s="14">
         <f t="shared" si="0"/>
         <v>8</v>
@@ -7774,7 +7765,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:18">
       <c r="B11" s="14">
         <f t="shared" si="0"/>
         <v>9</v>
@@ -7790,7 +7781,7 @@
       <c r="K11" s="15"/>
       <c r="L11" s="15"/>
     </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:18">
       <c r="B12" s="14">
         <f t="shared" si="0"/>
         <v>10</v>
@@ -7806,7 +7797,7 @@
       <c r="K12" s="15"/>
       <c r="L12" s="15"/>
     </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:18">
       <c r="B13" s="14">
         <f t="shared" si="0"/>
         <v>11</v>
@@ -7822,7 +7813,7 @@
       <c r="K13" s="15"/>
       <c r="L13" s="15"/>
     </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:18">
       <c r="B14" s="14">
         <f t="shared" si="0"/>
         <v>12</v>
@@ -7838,7 +7829,7 @@
       <c r="K14" s="15"/>
       <c r="L14" s="15"/>
     </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:18">
       <c r="B15" s="14">
         <f t="shared" si="0"/>
         <v>13</v>
@@ -7854,7 +7845,7 @@
       <c r="K15" s="15"/>
       <c r="L15" s="15"/>
     </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:18">
       <c r="B16" s="14">
         <f t="shared" si="0"/>
         <v>14</v>
@@ -7870,7 +7861,7 @@
       <c r="K16" s="15"/>
       <c r="L16" s="15"/>
     </row>
-    <row r="17" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:12">
       <c r="B17" s="14">
         <f t="shared" si="0"/>
         <v>15</v>
@@ -7886,7 +7877,7 @@
       <c r="K17" s="15"/>
       <c r="L17" s="15"/>
     </row>
-    <row r="18" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:12">
       <c r="B18" s="14">
         <f t="shared" si="0"/>
         <v>16</v>
@@ -7902,7 +7893,7 @@
       <c r="K18" s="15"/>
       <c r="L18" s="15"/>
     </row>
-    <row r="19" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:12">
       <c r="B19" s="14">
         <f t="shared" si="0"/>
         <v>17</v>
@@ -7918,12 +7909,12 @@
       <c r="K19" s="15"/>
       <c r="L19" s="15"/>
     </row>
-    <row r="22" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:12">
       <c r="C22" t="s">
         <v>183</v>
       </c>
     </row>
-    <row r="23" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:12">
       <c r="C23" t="s">
         <v>184</v>
       </c>
@@ -7942,7 +7933,7 @@
       </c>
       <c r="L23" s="51"/>
     </row>
-    <row r="24" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:12">
       <c r="G24" s="53"/>
       <c r="H24" s="55"/>
       <c r="I24" s="14" t="s">
@@ -7958,7 +7949,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="25" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:12">
       <c r="G25" s="33" t="s">
         <v>110</v>
       </c>
@@ -7974,7 +7965,7 @@
       <c r="K25" s="32"/>
       <c r="L25" s="32"/>
     </row>
-    <row r="26" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:12">
       <c r="G26" s="37"/>
       <c r="H26" s="38"/>
       <c r="I26" s="32">
@@ -7986,7 +7977,7 @@
       <c r="K26" s="32"/>
       <c r="L26" s="32"/>
     </row>
-    <row r="27" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:12">
       <c r="G27" s="37"/>
       <c r="H27" s="38"/>
       <c r="I27" s="32">
@@ -7998,7 +7989,7 @@
       <c r="K27" s="32"/>
       <c r="L27" s="32"/>
     </row>
-    <row r="28" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:12">
       <c r="G28" s="37"/>
       <c r="H28" s="38"/>
       <c r="I28" s="32">
@@ -8010,7 +8001,7 @@
       <c r="K28" s="32"/>
       <c r="L28" s="32"/>
     </row>
-    <row r="29" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:12">
       <c r="G29" s="37"/>
       <c r="H29" s="38"/>
       <c r="I29" s="32"/>
@@ -8018,7 +8009,7 @@
       <c r="K29" s="32"/>
       <c r="L29" s="32"/>
     </row>
-    <row r="30" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:12">
       <c r="G30" s="37"/>
       <c r="H30" s="38"/>
       <c r="I30" s="32"/>
@@ -8026,7 +8017,7 @@
       <c r="K30" s="32"/>
       <c r="L30" s="32"/>
     </row>
-    <row r="31" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:12">
       <c r="G31" s="35"/>
       <c r="H31" s="36"/>
       <c r="I31" s="32"/>
@@ -8034,7 +8025,7 @@
       <c r="K31" s="32"/>
       <c r="L31" s="32"/>
     </row>
-    <row r="32" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:12">
       <c r="G32" s="15" t="s">
         <v>109</v>
       </c>
@@ -8044,7 +8035,7 @@
       <c r="K32" s="32"/>
       <c r="L32" s="32"/>
     </row>
-    <row r="33" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:12">
       <c r="G33" s="15"/>
       <c r="H33" s="32"/>
       <c r="I33" s="32"/>
@@ -8052,7 +8043,7 @@
       <c r="K33" s="32"/>
       <c r="L33" s="32"/>
     </row>
-    <row r="34" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:12">
       <c r="G34" s="15"/>
       <c r="H34" s="32"/>
       <c r="I34" s="32"/>
@@ -8060,7 +8051,7 @@
       <c r="K34" s="32"/>
       <c r="L34" s="32"/>
     </row>
-    <row r="35" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:12">
       <c r="G35" s="15"/>
       <c r="H35" s="32"/>
       <c r="I35" s="32"/>
@@ -8068,7 +8059,7 @@
       <c r="K35" s="32"/>
       <c r="L35" s="32"/>
     </row>
-    <row r="36" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:12">
       <c r="G36" s="15" t="s">
         <v>195</v>
       </c>
@@ -8088,7 +8079,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:12">
       <c r="G37" s="15"/>
       <c r="H37" s="32"/>
       <c r="I37" s="32">
@@ -8104,7 +8095,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="38" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:12">
       <c r="G38" s="15"/>
       <c r="H38" s="32"/>
       <c r="I38" s="32"/>
@@ -8116,7 +8107,7 @@
         <v>462</v>
       </c>
     </row>
-    <row r="39" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:12">
       <c r="G39" s="15"/>
       <c r="H39" s="32"/>
       <c r="I39" s="32"/>
@@ -8128,7 +8119,7 @@
         <v>57595</v>
       </c>
     </row>
-    <row r="40" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:12">
       <c r="G40" s="15" t="s">
         <v>111</v>
       </c>
@@ -8138,7 +8129,7 @@
       <c r="K40" s="32"/>
       <c r="L40" s="32"/>
     </row>
-    <row r="41" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:12">
       <c r="G41" s="15"/>
       <c r="H41" s="32"/>
       <c r="I41" s="32"/>
@@ -8146,14 +8137,14 @@
       <c r="K41" s="32"/>
       <c r="L41" s="32"/>
     </row>
-    <row r="42" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:12">
       <c r="H42" s="31"/>
       <c r="I42" s="31"/>
       <c r="J42" s="31"/>
       <c r="K42" s="31"/>
       <c r="L42" s="31"/>
     </row>
-    <row r="43" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:12">
       <c r="A43" t="s">
         <v>198</v>
       </c>
@@ -8163,7 +8154,7 @@
       <c r="K43" s="31"/>
       <c r="L43" s="31"/>
     </row>
-    <row r="44" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:12">
       <c r="C44" t="s">
         <v>199</v>
       </c>
@@ -8173,7 +8164,7 @@
       <c r="K44" s="31"/>
       <c r="L44" s="31"/>
     </row>
-    <row r="45" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:12">
       <c r="C45" t="s">
         <v>200</v>
       </c>
@@ -8184,7 +8175,7 @@
       <c r="I45" s="30"/>
       <c r="J45" s="30"/>
     </row>
-    <row r="46" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:12">
       <c r="C46" t="s">
         <v>202</v>
       </c>
@@ -8192,7 +8183,7 @@
       <c r="I46" s="30"/>
       <c r="J46" s="30"/>
     </row>
-    <row r="47" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:12">
       <c r="C47" t="s">
         <v>208</v>
       </c>
@@ -8203,17 +8194,17 @@
       <c r="I47" s="30"/>
       <c r="J47" s="30"/>
     </row>
-    <row r="48" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:12">
       <c r="C48" t="s">
         <v>212</v>
       </c>
     </row>
-    <row r="50" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:10">
       <c r="A50" t="s">
         <v>203</v>
       </c>
     </row>
-    <row r="51" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:10">
       <c r="A51" t="s">
         <v>158</v>
       </c>
@@ -8221,7 +8212,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="52" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:10">
       <c r="A52" t="s">
         <v>158</v>
       </c>
@@ -8238,7 +8229,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="53" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:10">
       <c r="B53" s="39" t="s">
         <v>206</v>
       </c>
@@ -8246,41 +8237,41 @@
         <v>211</v>
       </c>
     </row>
-    <row r="54" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:10">
       <c r="B54" s="39" t="s">
         <v>213</v>
       </c>
     </row>
-    <row r="55" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:10">
       <c r="B55" s="39" t="s">
         <v>214</v>
       </c>
     </row>
-    <row r="56" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:10">
       <c r="B56" s="39"/>
       <c r="J56" s="40"/>
     </row>
-    <row r="57" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:10">
       <c r="J57" s="40"/>
     </row>
-    <row r="58" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:10">
       <c r="H58"/>
       <c r="J58" s="40"/>
     </row>
-    <row r="59" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:10">
       <c r="H59"/>
       <c r="J59" s="40"/>
     </row>
-    <row r="60" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:10">
       <c r="H60"/>
     </row>
-    <row r="61" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:10">
       <c r="H61"/>
     </row>
-    <row r="62" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:10">
       <c r="H62"/>
     </row>
-    <row r="95" spans="16:16" x14ac:dyDescent="0.25">
+    <row r="95" spans="16:16">
       <c r="P95" s="41"/>
     </row>
   </sheetData>
@@ -8297,7 +8288,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr codeName="Sheet3"/>
   <dimension ref="A1:AH18"/>
   <sheetViews>
@@ -8305,22 +8296,22 @@
       <selection activeCell="AD44" sqref="AD44"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="16384" width="9.140625" style="42"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:34">
       <c r="A1" s="43" t="s">
         <v>219</v>
       </c>
     </row>
-    <row r="2" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:34">
       <c r="O2" s="42" t="s">
         <v>215</v>
       </c>
     </row>
-    <row r="3" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:34">
       <c r="A3" s="42" t="s">
         <v>220</v>
       </c>
@@ -8328,7 +8319,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="4" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:34">
       <c r="P4" s="42" t="s">
         <v>218</v>
       </c>
@@ -8342,12 +8333,12 @@
       <c r="AG4" s="5"/>
       <c r="AH4" s="5"/>
     </row>
-    <row r="5" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:34">
       <c r="A5" s="42" t="s">
         <v>221</v>
       </c>
     </row>
-    <row r="6" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:34">
       <c r="B6" s="42" t="s">
         <v>224</v>
       </c>
@@ -8355,42 +8346,42 @@
         <v>225</v>
       </c>
     </row>
-    <row r="7" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:34">
       <c r="A7" s="42" t="s">
         <v>222</v>
       </c>
     </row>
-    <row r="8" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:34">
       <c r="B8" s="42" t="s">
         <v>223</v>
       </c>
     </row>
-    <row r="12" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:34">
       <c r="O12" s="42" t="s">
         <v>216</v>
       </c>
     </row>
-    <row r="13" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:34">
       <c r="P13" s="42" t="s">
         <v>217</v>
       </c>
     </row>
-    <row r="14" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:34">
       <c r="Q14" s="42" t="s">
         <v>226</v>
       </c>
     </row>
-    <row r="16" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:34">
       <c r="P16" s="42" t="s">
         <v>227</v>
       </c>
     </row>
-    <row r="17" spans="4:16" x14ac:dyDescent="0.25">
+    <row r="17" spans="4:16">
       <c r="P17" s="42" t="s">
         <v>228</v>
       </c>
     </row>
-    <row r="18" spans="4:16" x14ac:dyDescent="0.25">
+    <row r="18" spans="4:16">
       <c r="D18" s="44"/>
     </row>
   </sheetData>
@@ -8401,7 +8392,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr codeName="Sheet4"/>
   <dimension ref="A1:AF109"/>
   <sheetViews>
@@ -8409,14 +8400,14 @@
       <selection activeCell="G52" sqref="G52"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:31">
       <c r="A1" t="s">
         <v>230</v>
       </c>
     </row>
-    <row r="2" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:31">
       <c r="B2" s="25" t="s">
         <v>229</v>
       </c>
@@ -8424,7 +8415,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="4" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:31">
       <c r="A4" t="s">
         <v>231</v>
       </c>
@@ -8432,7 +8423,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="7" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:31">
       <c r="A7" t="s">
         <v>234</v>
       </c>
@@ -8440,7 +8431,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="8" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:31">
       <c r="B8" s="25" t="s">
         <v>233</v>
       </c>
@@ -8456,7 +8447,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="9" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:31">
       <c r="B9" t="s">
         <v>235</v>
       </c>
@@ -8470,7 +8461,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="10" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:31">
       <c r="C10" s="3" t="s">
         <v>236</v>
       </c>
@@ -8484,7 +8475,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="11" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:31">
       <c r="C11" s="3" t="s">
         <v>237</v>
       </c>
@@ -8502,7 +8493,7 @@
       </c>
       <c r="AE11" s="5"/>
     </row>
-    <row r="12" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:31">
       <c r="R12" t="s">
         <v>252</v>
       </c>
@@ -8513,7 +8504,7 @@
         <v>287</v>
       </c>
     </row>
-    <row r="13" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:31">
       <c r="A13" t="s">
         <v>239</v>
       </c>
@@ -8527,7 +8518,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="14" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:31">
       <c r="B14" s="4" t="s">
         <v>240</v>
       </c>
@@ -8550,7 +8541,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="15" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:31">
       <c r="C15" t="s">
         <v>244</v>
       </c>
@@ -8570,7 +8561,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="16" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:31">
       <c r="C16" t="s">
         <v>246</v>
       </c>
@@ -8587,7 +8578,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="17" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:32">
       <c r="B17" s="4" t="s">
         <v>241</v>
       </c>
@@ -8612,7 +8603,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="18" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:32">
       <c r="C18" t="s">
         <v>247</v>
       </c>
@@ -8626,7 +8617,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="19" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:32">
       <c r="R19" t="s">
         <v>259</v>
       </c>
@@ -8634,7 +8625,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="20" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:32">
       <c r="R20" t="s">
         <v>260</v>
       </c>
@@ -8645,12 +8636,12 @@
         <v>295</v>
       </c>
     </row>
-    <row r="21" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:32">
       <c r="R21" t="s">
         <v>261</v>
       </c>
     </row>
-    <row r="22" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:32">
       <c r="B22" t="s">
         <v>242</v>
       </c>
@@ -8664,7 +8655,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="23" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:32">
       <c r="R23" t="s">
         <v>263</v>
       </c>
@@ -8672,7 +8663,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="24" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:32">
       <c r="R24" t="s">
         <v>264</v>
       </c>
@@ -8680,7 +8671,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="25" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:32">
       <c r="R25" t="s">
         <v>265</v>
       </c>
@@ -8690,7 +8681,7 @@
       <c r="AE25" s="5"/>
       <c r="AF25" s="5"/>
     </row>
-    <row r="26" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:32">
       <c r="R26" t="s">
         <v>266</v>
       </c>
@@ -8698,7 +8689,7 @@
         <v>298</v>
       </c>
     </row>
-    <row r="27" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:32">
       <c r="A27" s="13" t="s">
         <v>305</v>
       </c>
@@ -8714,7 +8705,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="28" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:32">
       <c r="B28" t="s">
         <v>306</v>
       </c>
@@ -8725,7 +8716,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="29" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:32">
       <c r="B29" t="s">
         <v>307</v>
       </c>
@@ -8736,7 +8727,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="30" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:32">
       <c r="B30" t="s">
         <v>308</v>
       </c>
@@ -8747,7 +8738,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="31" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:32">
       <c r="C31" t="s">
         <v>309</v>
       </c>
@@ -8755,7 +8746,7 @@
         <v>302</v>
       </c>
     </row>
-    <row r="32" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:32">
       <c r="C32" t="s">
         <v>310</v>
       </c>
@@ -8763,7 +8754,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="33" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:30">
       <c r="B33" t="s">
         <v>311</v>
       </c>
@@ -8771,7 +8762,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="34" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:30">
       <c r="B34" t="s">
         <v>312</v>
       </c>
@@ -8779,72 +8770,72 @@
         <v>295</v>
       </c>
     </row>
-    <row r="35" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:30">
       <c r="C35" t="s">
         <v>313</v>
       </c>
     </row>
-    <row r="36" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:30">
       <c r="D36" t="s">
         <v>314</v>
       </c>
     </row>
-    <row r="37" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:30">
       <c r="D37" t="s">
         <v>315</v>
       </c>
     </row>
-    <row r="38" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:30">
       <c r="C38" t="s">
         <v>311</v>
       </c>
     </row>
-    <row r="39" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:30">
       <c r="C39" t="s">
         <v>316</v>
       </c>
     </row>
-    <row r="40" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:30">
       <c r="D40" t="s">
         <v>314</v>
       </c>
     </row>
-    <row r="41" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:30">
       <c r="D41" t="s">
         <v>315</v>
       </c>
     </row>
-    <row r="42" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:30">
       <c r="C42" t="s">
         <v>311</v>
       </c>
     </row>
-    <row r="43" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:30">
       <c r="C43" t="s">
         <v>317</v>
       </c>
     </row>
-    <row r="44" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:30">
       <c r="C44" t="s">
         <v>318</v>
       </c>
     </row>
-    <row r="45" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:30">
       <c r="C45" t="s">
         <v>319</v>
       </c>
     </row>
-    <row r="46" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:30">
       <c r="B46" t="s">
         <v>311</v>
       </c>
     </row>
-    <row r="47" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:30">
       <c r="A47" t="s">
         <v>311</v>
       </c>
     </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:7">
       <c r="A49" s="13" t="s">
         <v>320</v>
       </c>
@@ -8854,17 +8845,17 @@
       <c r="E49" s="13"/>
       <c r="F49" s="13"/>
     </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:7">
       <c r="B50" t="s">
         <v>321</v>
       </c>
     </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:7">
       <c r="B51" t="s">
         <v>322</v>
       </c>
     </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:7">
       <c r="B52" s="5" t="s">
         <v>323</v>
       </c>
@@ -8873,32 +8864,32 @@
         <v>324</v>
       </c>
     </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:7">
       <c r="C53" t="s">
         <v>325</v>
       </c>
     </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:7">
       <c r="D54" t="s">
         <v>326</v>
       </c>
     </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:7">
       <c r="E55" t="s">
         <v>327</v>
       </c>
     </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:7">
       <c r="B56" t="s">
         <v>322</v>
       </c>
     </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:7">
       <c r="A57" t="s">
         <v>311</v>
       </c>
     </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:7">
       <c r="A59" s="13" t="s">
         <v>328</v>
       </c>
@@ -8908,62 +8899,62 @@
       <c r="E59" s="13"/>
       <c r="F59" s="13"/>
     </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:7">
       <c r="A60" t="s">
         <v>329</v>
       </c>
     </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:7">
       <c r="A61" t="s">
         <v>330</v>
       </c>
     </row>
-    <row r="62" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:7">
       <c r="A62" t="s">
         <v>331</v>
       </c>
     </row>
-    <row r="63" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:7">
       <c r="A63" t="s">
         <v>332</v>
       </c>
     </row>
-    <row r="64" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:7">
       <c r="A64" t="s">
         <v>333</v>
       </c>
     </row>
-    <row r="65" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:9">
       <c r="A65" t="s">
         <v>334</v>
       </c>
     </row>
-    <row r="66" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:9">
       <c r="A66" t="s">
         <v>335</v>
       </c>
     </row>
-    <row r="67" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:9">
       <c r="A67" t="s">
         <v>334</v>
       </c>
     </row>
-    <row r="68" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:9">
       <c r="A68" t="s">
         <v>336</v>
       </c>
     </row>
-    <row r="69" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:9">
       <c r="A69" t="s">
         <v>337</v>
       </c>
     </row>
-    <row r="70" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:9">
       <c r="A70" t="s">
         <v>338</v>
       </c>
     </row>
-    <row r="71" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:9">
       <c r="A71" t="s">
         <v>339</v>
       </c>
@@ -8971,7 +8962,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="72" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:9">
       <c r="A72" t="s">
         <v>340</v>
       </c>
@@ -8979,182 +8970,182 @@
         <v>372</v>
       </c>
     </row>
-    <row r="73" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:9">
       <c r="A73" t="s">
         <v>341</v>
       </c>
     </row>
-    <row r="74" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:9">
       <c r="A74" t="s">
         <v>342</v>
       </c>
     </row>
-    <row r="75" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:9">
       <c r="A75" t="s">
         <v>343</v>
       </c>
     </row>
-    <row r="76" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:9">
       <c r="A76" t="s">
         <v>344</v>
       </c>
     </row>
-    <row r="77" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:9">
       <c r="A77" t="s">
         <v>345</v>
       </c>
     </row>
-    <row r="78" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:9">
       <c r="A78" t="s">
         <v>341</v>
       </c>
     </row>
-    <row r="79" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:9">
       <c r="A79" t="s">
         <v>346</v>
       </c>
     </row>
-    <row r="80" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:9">
       <c r="A80" t="s">
         <v>347</v>
       </c>
     </row>
-    <row r="81" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:1">
       <c r="A81" t="s">
         <v>348</v>
       </c>
     </row>
-    <row r="82" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:1">
       <c r="A82" t="s">
         <v>349</v>
       </c>
     </row>
-    <row r="83" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:1">
       <c r="A83" t="s">
         <v>350</v>
       </c>
     </row>
-    <row r="84" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:1">
       <c r="A84" t="s">
         <v>351</v>
       </c>
     </row>
-    <row r="85" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:1">
       <c r="A85" t="s">
         <v>352</v>
       </c>
     </row>
-    <row r="86" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:1">
       <c r="A86" t="s">
         <v>348</v>
       </c>
     </row>
-    <row r="87" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:1">
       <c r="A87" t="s">
         <v>353</v>
       </c>
     </row>
-    <row r="88" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:1">
       <c r="A88" t="s">
         <v>354</v>
       </c>
     </row>
-    <row r="89" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:1">
       <c r="A89" t="s">
         <v>355</v>
       </c>
     </row>
-    <row r="90" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:1">
       <c r="A90" t="s">
         <v>356</v>
       </c>
     </row>
-    <row r="91" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:1">
       <c r="A91" t="s">
         <v>357</v>
       </c>
     </row>
-    <row r="92" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:1">
       <c r="A92" t="s">
         <v>358</v>
       </c>
     </row>
-    <row r="93" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:1">
       <c r="A93" t="s">
         <v>359</v>
       </c>
     </row>
-    <row r="94" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:1">
       <c r="A94" t="s">
         <v>360</v>
       </c>
     </row>
-    <row r="95" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:1">
       <c r="A95" t="s">
         <v>361</v>
       </c>
     </row>
-    <row r="96" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:1">
       <c r="A96" t="s">
         <v>362</v>
       </c>
     </row>
-    <row r="97" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:1">
       <c r="A97" t="s">
         <v>363</v>
       </c>
     </row>
-    <row r="98" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:1">
       <c r="A98" t="s">
         <v>351</v>
       </c>
     </row>
-    <row r="99" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:1">
       <c r="A99" t="s">
         <v>344</v>
       </c>
     </row>
-    <row r="100" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:1">
       <c r="A100" t="s">
         <v>364</v>
       </c>
     </row>
-    <row r="101" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:1">
       <c r="A101" t="s">
         <v>365</v>
       </c>
     </row>
-    <row r="102" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:1">
       <c r="A102" t="s">
         <v>338</v>
       </c>
     </row>
-    <row r="103" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:1">
       <c r="A103" t="s">
         <v>366</v>
       </c>
     </row>
-    <row r="104" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:1">
       <c r="A104" t="s">
         <v>367</v>
       </c>
     </row>
-    <row r="105" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:1">
       <c r="A105" t="s">
         <v>364</v>
       </c>
     </row>
-    <row r="107" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:1">
       <c r="A107" t="s">
         <v>368</v>
       </c>
     </row>
-    <row r="108" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:1">
       <c r="A108" t="s">
         <v>369</v>
       </c>
     </row>
-    <row r="109" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:1">
       <c r="A109" t="s">
         <v>370</v>
       </c>
@@ -9169,16 +9160,16 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:Z133"/>
   <sheetViews>
     <sheetView topLeftCell="A70" workbookViewId="0">
       <selection activeCell="A57" sqref="A57:F122"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:25">
       <c r="A1" s="46" t="s">
         <v>375</v>
       </c>
@@ -9187,12 +9178,12 @@
       <c r="D1" s="46"/>
       <c r="E1" s="46"/>
     </row>
-    <row r="3" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:25">
       <c r="A3" t="s">
         <v>413</v>
       </c>
     </row>
-    <row r="5" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:25">
       <c r="A5" t="s">
         <v>414</v>
       </c>
@@ -9200,7 +9191,7 @@
         <v>448</v>
       </c>
     </row>
-    <row r="6" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:25">
       <c r="A6" t="s">
         <v>420</v>
       </c>
@@ -9208,7 +9199,7 @@
         <v>446</v>
       </c>
     </row>
-    <row r="7" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:25">
       <c r="A7" t="s">
         <v>378</v>
       </c>
@@ -9216,7 +9207,7 @@
         <v>447</v>
       </c>
     </row>
-    <row r="8" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:25">
       <c r="B8" t="s">
         <v>409</v>
       </c>
@@ -9227,7 +9218,7 @@
         <v>452</v>
       </c>
     </row>
-    <row r="9" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:25">
       <c r="B9" t="s">
         <v>415</v>
       </c>
@@ -9238,12 +9229,12 @@
         <v>453</v>
       </c>
     </row>
-    <row r="10" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:25">
       <c r="B10" t="s">
         <v>410</v>
       </c>
     </row>
-    <row r="11" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:25">
       <c r="B11" t="s">
         <v>416</v>
       </c>
@@ -9251,17 +9242,17 @@
         <v>451</v>
       </c>
     </row>
-    <row r="13" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:25">
       <c r="B13" t="s">
         <v>417</v>
       </c>
     </row>
-    <row r="14" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:25">
       <c r="B14" t="s">
         <v>378</v>
       </c>
     </row>
-    <row r="15" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:25">
       <c r="C15" t="s">
         <v>411</v>
       </c>
@@ -9269,7 +9260,7 @@
         <v>442</v>
       </c>
     </row>
-    <row r="16" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:25">
       <c r="C16" t="s">
         <v>418</v>
       </c>
@@ -9277,7 +9268,7 @@
         <v>443</v>
       </c>
     </row>
-    <row r="17" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:26">
       <c r="C17" t="s">
         <v>412</v>
       </c>
@@ -9285,7 +9276,7 @@
         <v>444</v>
       </c>
     </row>
-    <row r="18" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:26">
       <c r="C18" t="s">
         <v>419</v>
       </c>
@@ -9293,17 +9284,17 @@
         <v>445</v>
       </c>
     </row>
-    <row r="19" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:26">
       <c r="B19" t="s">
         <v>311</v>
       </c>
     </row>
-    <row r="20" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:26">
       <c r="A20" t="s">
         <v>311</v>
       </c>
     </row>
-    <row r="22" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:26">
       <c r="A22" t="s">
         <v>437</v>
       </c>
@@ -9317,7 +9308,7 @@
         <v>468</v>
       </c>
     </row>
-    <row r="23" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:26">
       <c r="A23" t="s">
         <v>425</v>
       </c>
@@ -9334,7 +9325,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="24" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:26">
       <c r="A24" t="s">
         <v>378</v>
       </c>
@@ -9348,7 +9339,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="25" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:26">
       <c r="B25" t="s">
         <v>426</v>
       </c>
@@ -9362,7 +9353,7 @@
         <v>478</v>
       </c>
     </row>
-    <row r="26" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:26">
       <c r="C26" t="s">
         <v>430</v>
       </c>
@@ -9376,7 +9367,7 @@
         <v>482</v>
       </c>
     </row>
-    <row r="27" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:26">
       <c r="B27" t="s">
         <v>381</v>
       </c>
@@ -9390,7 +9381,7 @@
         <v>457</v>
       </c>
     </row>
-    <row r="28" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:26">
       <c r="C28" t="s">
         <v>431</v>
       </c>
@@ -9404,7 +9395,7 @@
         <v>483</v>
       </c>
     </row>
-    <row r="29" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:26">
       <c r="A29" t="s">
         <v>311</v>
       </c>
@@ -9418,7 +9409,7 @@
         <v>484</v>
       </c>
     </row>
-    <row r="30" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:26">
       <c r="P30" t="s">
         <v>474</v>
       </c>
@@ -9429,7 +9420,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="31" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:26">
       <c r="A31" s="41" t="s">
         <v>390</v>
       </c>
@@ -9452,7 +9443,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="32" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:26">
       <c r="A32" s="41" t="s">
         <v>378</v>
       </c>
@@ -9469,7 +9460,7 @@
         <v>476</v>
       </c>
     </row>
-    <row r="33" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:19">
       <c r="A33" s="41"/>
       <c r="B33" s="5" t="s">
         <v>421</v>
@@ -9486,7 +9477,7 @@
         <v>477</v>
       </c>
     </row>
-    <row r="34" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:19">
       <c r="A34" s="41"/>
       <c r="B34" s="41" t="s">
         <v>378</v>
@@ -9503,7 +9494,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="35" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:19">
       <c r="A35" s="41"/>
       <c r="B35" s="41"/>
       <c r="C35" s="41" t="s">
@@ -9524,7 +9515,7 @@
         <v>37500</v>
       </c>
     </row>
-    <row r="36" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:19">
       <c r="A36" s="41"/>
       <c r="B36" s="41"/>
       <c r="C36" s="41" t="s">
@@ -9538,7 +9529,7 @@
         <v>408</v>
       </c>
     </row>
-    <row r="37" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:19">
       <c r="A37" s="41"/>
       <c r="B37" s="41"/>
       <c r="C37" s="41"/>
@@ -9552,7 +9543,7 @@
         <v>428</v>
       </c>
     </row>
-    <row r="38" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:19">
       <c r="A38" s="41"/>
       <c r="B38" s="41"/>
       <c r="C38" s="41"/>
@@ -9566,7 +9557,7 @@
         <v>429</v>
       </c>
     </row>
-    <row r="39" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:19">
       <c r="A39" s="41"/>
       <c r="B39" s="41"/>
       <c r="C39" s="41"/>
@@ -9577,7 +9568,7 @@
       <c r="F39" s="41"/>
       <c r="G39" s="41"/>
     </row>
-    <row r="40" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:19">
       <c r="A40" s="41"/>
       <c r="B40" s="41"/>
       <c r="C40" s="41"/>
@@ -9588,7 +9579,7 @@
       <c r="F40" s="41"/>
       <c r="G40" s="41"/>
     </row>
-    <row r="41" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:19">
       <c r="A41" s="41"/>
       <c r="B41" s="41"/>
       <c r="C41" s="41"/>
@@ -9599,7 +9590,7 @@
       <c r="F41" s="41"/>
       <c r="G41" s="41"/>
     </row>
-    <row r="42" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:19">
       <c r="A42" s="41"/>
       <c r="B42" s="41"/>
       <c r="C42" s="41"/>
@@ -9610,7 +9601,7 @@
       <c r="F42" s="41"/>
       <c r="G42" s="41"/>
     </row>
-    <row r="43" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:19">
       <c r="A43" s="41"/>
       <c r="B43" s="41"/>
       <c r="C43" s="41"/>
@@ -9621,7 +9612,7 @@
       <c r="F43" s="41"/>
       <c r="G43" s="41"/>
     </row>
-    <row r="44" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:19">
       <c r="A44" s="41"/>
       <c r="B44" s="41"/>
       <c r="C44" s="41"/>
@@ -9632,7 +9623,7 @@
       <c r="F44" s="41"/>
       <c r="G44" s="41"/>
     </row>
-    <row r="45" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:19">
       <c r="A45" s="41"/>
       <c r="B45" s="41"/>
       <c r="C45" s="41" t="s">
@@ -9643,7 +9634,7 @@
       <c r="F45" s="41"/>
       <c r="G45" s="41"/>
     </row>
-    <row r="46" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:19">
       <c r="A46" s="41"/>
       <c r="B46" s="41"/>
       <c r="C46" s="41" t="s">
@@ -9654,7 +9645,7 @@
       <c r="F46" s="41"/>
       <c r="G46" s="41"/>
     </row>
-    <row r="47" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:19">
       <c r="A47" s="41"/>
       <c r="B47" s="41"/>
       <c r="C47" s="41" t="s">
@@ -9665,7 +9656,7 @@
       <c r="F47" s="41"/>
       <c r="G47" s="41"/>
     </row>
-    <row r="48" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:19">
       <c r="A48" s="41"/>
       <c r="B48" s="41"/>
       <c r="C48" s="41"/>
@@ -9676,7 +9667,7 @@
       <c r="F48" s="41"/>
       <c r="G48" s="41"/>
     </row>
-    <row r="49" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:26">
       <c r="A49" s="41"/>
       <c r="B49" s="41"/>
       <c r="C49" s="41" t="s">
@@ -9687,7 +9678,7 @@
       <c r="F49" s="41"/>
       <c r="G49" s="41"/>
     </row>
-    <row r="50" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:26">
       <c r="A50" s="41"/>
       <c r="B50" s="41" t="s">
         <v>311</v>
@@ -9698,7 +9689,7 @@
       <c r="F50" s="41"/>
       <c r="G50" s="41"/>
     </row>
-    <row r="51" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:26">
       <c r="A51" s="41"/>
       <c r="B51" s="41" t="s">
         <v>381</v>
@@ -9709,7 +9700,7 @@
       <c r="F51" s="41"/>
       <c r="G51" s="41"/>
     </row>
-    <row r="52" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:26">
       <c r="A52" s="41"/>
       <c r="B52" s="41" t="s">
         <v>378</v>
@@ -9720,7 +9711,7 @@
       <c r="F52" s="41"/>
       <c r="G52" s="41"/>
     </row>
-    <row r="53" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:26">
       <c r="A53" s="41"/>
       <c r="B53" s="41"/>
       <c r="C53" s="41" t="s">
@@ -9731,7 +9722,7 @@
       <c r="F53" s="41"/>
       <c r="G53" s="41"/>
     </row>
-    <row r="54" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:26">
       <c r="A54" s="41"/>
       <c r="B54" s="41" t="s">
         <v>311</v>
@@ -9742,7 +9733,7 @@
       <c r="F54" s="41"/>
       <c r="G54" s="41"/>
     </row>
-    <row r="55" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:26">
       <c r="A55" s="41" t="s">
         <v>311</v>
       </c>
@@ -9753,7 +9744,7 @@
       <c r="F55" s="41"/>
       <c r="G55" s="41"/>
     </row>
-    <row r="56" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:26">
       <c r="A56" s="41"/>
       <c r="B56" s="41"/>
       <c r="C56" s="41"/>
@@ -9762,7 +9753,7 @@
       <c r="F56" s="41"/>
       <c r="G56" s="41"/>
     </row>
-    <row r="57" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:26">
       <c r="A57" s="41" t="s">
         <v>393</v>
       </c>
@@ -9785,7 +9776,7 @@
         <v>468</v>
       </c>
     </row>
-    <row r="58" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:26">
       <c r="A58" s="41" t="s">
         <v>378</v>
       </c>
@@ -9808,7 +9799,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="59" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:26">
       <c r="A59" s="41"/>
       <c r="B59" s="41" t="s">
         <v>394</v>
@@ -9831,7 +9822,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="60" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:26">
       <c r="A60" s="41"/>
       <c r="B60" s="41"/>
       <c r="C60" s="41"/>
@@ -9855,7 +9846,7 @@
         <v>469</v>
       </c>
     </row>
-    <row r="61" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:26">
       <c r="A61" s="41"/>
       <c r="B61" s="5" t="s">
         <v>395</v>
@@ -9878,7 +9869,7 @@
         <v>470</v>
       </c>
     </row>
-    <row r="62" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:26">
       <c r="A62" s="41"/>
       <c r="B62" s="41" t="s">
         <v>378</v>
@@ -9901,7 +9892,7 @@
         <v>471</v>
       </c>
     </row>
-    <row r="63" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:26">
       <c r="A63" s="41"/>
       <c r="B63" s="41"/>
       <c r="C63" s="5" t="s">
@@ -9924,7 +9915,7 @@
         <v>472</v>
       </c>
     </row>
-    <row r="64" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:26">
       <c r="A64" s="41"/>
       <c r="B64" s="41"/>
       <c r="C64" s="41" t="s">
@@ -9947,7 +9938,7 @@
         <v>473</v>
       </c>
     </row>
-    <row r="65" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:26">
       <c r="A65" s="41"/>
       <c r="B65" s="41"/>
       <c r="C65" s="41"/>
@@ -9967,7 +9958,7 @@
         <v>491</v>
       </c>
     </row>
-    <row r="66" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:26">
       <c r="A66" s="41"/>
       <c r="B66" s="41"/>
       <c r="C66" s="41" t="s">
@@ -9987,7 +9978,7 @@
         <v>492</v>
       </c>
     </row>
-    <row r="67" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:26">
       <c r="A67" s="41"/>
       <c r="B67" s="41"/>
       <c r="C67" s="41" t="s">
@@ -10007,7 +9998,7 @@
         <v>493</v>
       </c>
     </row>
-    <row r="68" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:26">
       <c r="A68" s="41"/>
       <c r="B68" s="41"/>
       <c r="C68" s="41" t="s">
@@ -10027,7 +10018,7 @@
         <v>489</v>
       </c>
     </row>
-    <row r="69" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:26">
       <c r="A69" s="41"/>
       <c r="B69" s="41"/>
       <c r="C69" s="41"/>
@@ -10047,7 +10038,7 @@
         <v>494</v>
       </c>
     </row>
-    <row r="70" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:26">
       <c r="A70" s="41"/>
       <c r="B70" s="41"/>
       <c r="C70" s="41" t="s">
@@ -10067,7 +10058,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="71" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:26">
       <c r="A71" s="41"/>
       <c r="B71" s="41"/>
       <c r="C71" s="41" t="s">
@@ -10078,7 +10069,7 @@
       <c r="F71" s="41"/>
       <c r="G71" s="41"/>
     </row>
-    <row r="72" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:26">
       <c r="A72" s="41"/>
       <c r="B72" s="41" t="s">
         <v>397</v>
@@ -10089,7 +10080,7 @@
       <c r="F72" s="41"/>
       <c r="G72" s="41"/>
     </row>
-    <row r="73" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:26">
       <c r="A73" s="41"/>
       <c r="B73" s="41"/>
       <c r="C73" s="41"/>
@@ -10098,7 +10089,7 @@
       <c r="F73" s="41"/>
       <c r="G73" s="41"/>
     </row>
-    <row r="74" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:26">
       <c r="A74" s="41"/>
       <c r="B74" s="41" t="s">
         <v>398</v>
@@ -10109,7 +10100,7 @@
       <c r="F74" s="41"/>
       <c r="G74" s="41"/>
     </row>
-    <row r="75" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:26">
       <c r="A75" s="41"/>
       <c r="B75" s="41" t="s">
         <v>399</v>
@@ -10120,7 +10111,7 @@
       <c r="F75" s="41"/>
       <c r="G75" s="41"/>
     </row>
-    <row r="76" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:26">
       <c r="A76" s="41"/>
       <c r="B76" s="41"/>
       <c r="C76" s="41" t="s">
@@ -10131,7 +10122,7 @@
       <c r="F76" s="41"/>
       <c r="G76" s="41"/>
     </row>
-    <row r="77" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:26">
       <c r="A77" s="41"/>
       <c r="B77" s="41" t="s">
         <v>397</v>
@@ -10142,7 +10133,7 @@
       <c r="F77" s="41"/>
       <c r="G77" s="41"/>
     </row>
-    <row r="78" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:26">
       <c r="A78" s="41"/>
       <c r="B78" s="41" t="s">
         <v>400</v>
@@ -10153,7 +10144,7 @@
       <c r="F78" s="41"/>
       <c r="G78" s="41"/>
     </row>
-    <row r="79" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:26">
       <c r="A79" s="41"/>
       <c r="B79" s="41" t="s">
         <v>378</v>
@@ -10164,7 +10155,7 @@
       <c r="F79" s="41"/>
       <c r="G79" s="41"/>
     </row>
-    <row r="80" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:26">
       <c r="A80" s="41"/>
       <c r="B80" s="41"/>
       <c r="C80" s="5" t="s">
@@ -10175,7 +10166,7 @@
       <c r="F80" s="41"/>
       <c r="G80" s="41"/>
     </row>
-    <row r="81" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:26">
       <c r="A81" s="41"/>
       <c r="B81" s="41"/>
       <c r="C81" s="41" t="s">
@@ -10186,7 +10177,7 @@
       <c r="F81" s="41"/>
       <c r="G81" s="41"/>
     </row>
-    <row r="82" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:26">
       <c r="A82" s="41"/>
       <c r="B82" s="41"/>
       <c r="C82" s="41"/>
@@ -10197,7 +10188,7 @@
       <c r="F82" s="41"/>
       <c r="G82" s="41"/>
     </row>
-    <row r="83" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:26">
       <c r="A83" s="41"/>
       <c r="B83" s="41"/>
       <c r="C83" s="41"/>
@@ -10208,7 +10199,7 @@
       <c r="F83" s="41"/>
       <c r="G83" s="41"/>
     </row>
-    <row r="84" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:26">
       <c r="A84" s="41"/>
       <c r="B84" s="41"/>
       <c r="C84" s="41" t="s">
@@ -10219,7 +10210,7 @@
       <c r="F84" s="41"/>
       <c r="G84" s="41"/>
     </row>
-    <row r="85" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:26">
       <c r="A85" s="41"/>
       <c r="B85" s="41"/>
       <c r="C85" s="41" t="s">
@@ -10230,7 +10221,7 @@
       <c r="F85" s="41"/>
       <c r="G85" s="41"/>
     </row>
-    <row r="86" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:26">
       <c r="A86" s="41"/>
       <c r="B86" s="41"/>
       <c r="C86" s="41" t="s">
@@ -10241,7 +10232,7 @@
       <c r="F86" s="41"/>
       <c r="G86" s="41"/>
     </row>
-    <row r="87" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:26">
       <c r="A87" s="41"/>
       <c r="B87" s="41"/>
       <c r="C87" s="41"/>
@@ -10252,7 +10243,7 @@
       <c r="F87" s="41"/>
       <c r="G87" s="41"/>
     </row>
-    <row r="88" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:26">
       <c r="A88" s="41"/>
       <c r="B88" s="41"/>
       <c r="C88" s="41"/>
@@ -10263,7 +10254,7 @@
       <c r="F88" s="41"/>
       <c r="G88" s="41"/>
     </row>
-    <row r="89" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:26">
       <c r="A89" s="41"/>
       <c r="B89" s="41"/>
       <c r="C89" s="41"/>
@@ -10274,7 +10265,7 @@
       <c r="F89" s="41"/>
       <c r="G89" s="41"/>
     </row>
-    <row r="90" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:26">
       <c r="A90" s="41"/>
       <c r="B90" s="41"/>
       <c r="C90" s="41" t="s">
@@ -10285,7 +10276,7 @@
       <c r="F90" s="41"/>
       <c r="G90" s="41"/>
     </row>
-    <row r="91" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:26">
       <c r="A91" s="41"/>
       <c r="B91" s="41" t="s">
         <v>311</v>
@@ -10296,7 +10287,7 @@
       <c r="F91" s="41"/>
       <c r="G91" s="41"/>
     </row>
-    <row r="92" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:26">
       <c r="A92" s="41" t="s">
         <v>311</v>
       </c>
@@ -10307,7 +10298,7 @@
       <c r="F92" s="41"/>
       <c r="G92" s="41"/>
     </row>
-    <row r="93" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:26">
       <c r="A93" s="41"/>
       <c r="B93" s="41"/>
       <c r="C93" s="41"/>
@@ -10316,7 +10307,7 @@
       <c r="F93" s="41"/>
       <c r="G93" s="41"/>
     </row>
-    <row r="94" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:26">
       <c r="A94" s="41" t="s">
         <v>406</v>
       </c>
@@ -10339,7 +10330,7 @@
         <v>468</v>
       </c>
     </row>
-    <row r="95" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:26">
       <c r="A95" s="41" t="s">
         <v>378</v>
       </c>
@@ -10362,7 +10353,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="96" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:26">
       <c r="A96" s="41"/>
       <c r="B96" s="41" t="s">
         <v>376</v>
@@ -10385,7 +10376,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="97" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:26">
       <c r="A97" s="41"/>
       <c r="B97" s="41"/>
       <c r="C97" s="41"/>
@@ -10406,7 +10397,7 @@
         <v>467</v>
       </c>
     </row>
-    <row r="98" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:26">
       <c r="A98" s="41"/>
       <c r="B98" s="41" t="s">
         <v>377</v>
@@ -10429,7 +10420,7 @@
         <v>485</v>
       </c>
     </row>
-    <row r="99" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:26">
       <c r="A99" s="41"/>
       <c r="B99" s="41" t="s">
         <v>378</v>
@@ -10452,7 +10443,7 @@
         <v>457</v>
       </c>
     </row>
-    <row r="100" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:26">
       <c r="A100" s="41"/>
       <c r="B100" s="41"/>
       <c r="C100" s="5" t="s">
@@ -10475,7 +10466,7 @@
         <v>486</v>
       </c>
     </row>
-    <row r="101" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:26">
       <c r="A101" s="41"/>
       <c r="B101" s="41"/>
       <c r="C101" s="41" t="s">
@@ -10498,7 +10489,7 @@
         <v>487</v>
       </c>
     </row>
-    <row r="102" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:26">
       <c r="A102" s="41"/>
       <c r="B102" s="41"/>
       <c r="C102" s="41"/>
@@ -10518,7 +10509,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="103" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:26">
       <c r="A103" s="41"/>
       <c r="B103" s="41"/>
       <c r="C103" s="41" t="s">
@@ -10538,7 +10529,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="104" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:26">
       <c r="A104" s="41"/>
       <c r="B104" s="41"/>
       <c r="C104" s="41" t="s">
@@ -10549,7 +10540,7 @@
       <c r="F104" s="41"/>
       <c r="G104" s="41"/>
     </row>
-    <row r="105" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:26">
       <c r="A105" s="41"/>
       <c r="B105" s="41"/>
       <c r="C105" s="41" t="s">
@@ -10560,7 +10551,7 @@
       <c r="F105" s="41"/>
       <c r="G105" s="41"/>
     </row>
-    <row r="106" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:26">
       <c r="A106" s="41"/>
       <c r="B106" s="41"/>
       <c r="C106" s="41"/>
@@ -10571,7 +10562,7 @@
       <c r="F106" s="5"/>
       <c r="G106" s="41"/>
     </row>
-    <row r="107" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:26">
       <c r="A107" s="41"/>
       <c r="B107" s="41"/>
       <c r="C107" s="41"/>
@@ -10582,7 +10573,7 @@
       <c r="F107" s="41"/>
       <c r="G107" s="41"/>
     </row>
-    <row r="108" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:26">
       <c r="A108" s="41"/>
       <c r="B108" s="41"/>
       <c r="C108" s="41"/>
@@ -10593,7 +10584,7 @@
       <c r="F108" s="41"/>
       <c r="G108" s="41"/>
     </row>
-    <row r="109" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:26">
       <c r="A109" s="41"/>
       <c r="B109" s="41"/>
       <c r="C109" s="41"/>
@@ -10604,7 +10595,7 @@
       <c r="F109" s="41"/>
       <c r="G109" s="41"/>
     </row>
-    <row r="110" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:26">
       <c r="A110" s="41"/>
       <c r="B110" s="41"/>
       <c r="C110" s="41"/>
@@ -10615,7 +10606,7 @@
       <c r="F110" s="41"/>
       <c r="G110" s="41"/>
     </row>
-    <row r="111" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:26">
       <c r="A111" s="41"/>
       <c r="B111" s="41"/>
       <c r="C111" s="41"/>
@@ -10626,7 +10617,7 @@
       <c r="F111" s="41"/>
       <c r="G111" s="41"/>
     </row>
-    <row r="112" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:26">
       <c r="A112" s="41"/>
       <c r="B112" s="41"/>
       <c r="C112" s="41"/>
@@ -10637,7 +10628,7 @@
       <c r="F112" s="41"/>
       <c r="G112" s="41"/>
     </row>
-    <row r="113" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:7">
       <c r="A113" s="41"/>
       <c r="B113" s="41"/>
       <c r="C113" s="41"/>
@@ -10648,7 +10639,7 @@
       <c r="F113" s="41"/>
       <c r="G113" s="41"/>
     </row>
-    <row r="114" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:7">
       <c r="A114" s="41"/>
       <c r="B114" s="41"/>
       <c r="C114" s="41" t="s">
@@ -10659,7 +10650,7 @@
       <c r="F114" s="41"/>
       <c r="G114" s="41"/>
     </row>
-    <row r="115" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:7">
       <c r="A115" s="41"/>
       <c r="B115" s="41" t="s">
         <v>311</v>
@@ -10670,7 +10661,7 @@
       <c r="F115" s="41"/>
       <c r="G115" s="41"/>
     </row>
-    <row r="116" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:7">
       <c r="A116" s="41"/>
       <c r="B116" s="41" t="s">
         <v>381</v>
@@ -10681,7 +10672,7 @@
       <c r="F116" s="41"/>
       <c r="G116" s="41"/>
     </row>
-    <row r="117" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:7">
       <c r="A117" s="41"/>
       <c r="B117" s="41" t="s">
         <v>378</v>
@@ -10692,7 +10683,7 @@
       <c r="F117" s="41"/>
       <c r="G117" s="41"/>
     </row>
-    <row r="118" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:7">
       <c r="A118" s="41"/>
       <c r="B118" s="41"/>
       <c r="C118" s="41" t="s">
@@ -10703,7 +10694,7 @@
       <c r="F118" s="41"/>
       <c r="G118" s="41"/>
     </row>
-    <row r="119" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:7">
       <c r="A119" s="41"/>
       <c r="B119" s="41" t="s">
         <v>311</v>
@@ -10714,7 +10705,7 @@
       <c r="F119" s="41"/>
       <c r="G119" s="41"/>
     </row>
-    <row r="120" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:7">
       <c r="A120" s="41"/>
       <c r="B120" s="41"/>
       <c r="C120" s="41"/>
@@ -10723,7 +10714,7 @@
       <c r="F120" s="41"/>
       <c r="G120" s="41"/>
     </row>
-    <row r="121" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:7">
       <c r="A121" s="41"/>
       <c r="B121" s="41" t="s">
         <v>407</v>
@@ -10734,7 +10725,7 @@
       <c r="F121" s="41"/>
       <c r="G121" s="41"/>
     </row>
-    <row r="122" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:7">
       <c r="A122" s="41" t="s">
         <v>311</v>
       </c>
@@ -10745,7 +10736,7 @@
       <c r="F122" s="41"/>
       <c r="G122" s="41"/>
     </row>
-    <row r="125" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:7">
       <c r="A125" s="41"/>
       <c r="B125" s="41"/>
       <c r="C125" s="41"/>
@@ -10754,7 +10745,7 @@
       <c r="F125" s="41"/>
       <c r="G125" s="41"/>
     </row>
-    <row r="133" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:11">
       <c r="A133" s="41"/>
       <c r="B133" s="41"/>
       <c r="C133" s="41"/>
@@ -10774,71 +10765,71 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:L81"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="L23" sqref="L23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6">
       <c r="A1" t="s">
         <v>507</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6">
       <c r="A2" t="s">
         <v>508</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6">
       <c r="A3" t="s">
         <v>509</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6">
       <c r="A5" t="s">
         <v>510</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6">
       <c r="A6" s="48" t="s">
         <v>514</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6">
       <c r="A7" s="48" t="s">
         <v>515</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6">
       <c r="A8" t="s">
         <v>512</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6">
       <c r="A9" t="s">
         <v>513</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6">
       <c r="A10" t="s">
         <v>511</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6">
       <c r="A12" t="s">
         <v>516</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6">
       <c r="A14" t="s">
         <v>517</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6">
       <c r="A16" s="41" t="s">
         <v>393</v>
       </c>
@@ -10848,7 +10839,7 @@
       <c r="E16" s="41"/>
       <c r="F16" s="41"/>
     </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:12">
       <c r="A17" s="41" t="s">
         <v>378</v>
       </c>
@@ -10861,7 +10852,7 @@
         <v>523</v>
       </c>
     </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:12">
       <c r="A18" s="41"/>
       <c r="B18" s="41" t="s">
         <v>394</v>
@@ -10874,7 +10865,7 @@
         <v>524</v>
       </c>
     </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:12">
       <c r="A19" s="41"/>
       <c r="B19" s="41"/>
       <c r="C19" s="41"/>
@@ -10885,7 +10876,7 @@
         <v>526</v>
       </c>
     </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:12">
       <c r="A20" s="41"/>
       <c r="B20" s="41" t="s">
         <v>395</v>
@@ -10898,7 +10889,7 @@
         <v>527</v>
       </c>
     </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:12">
       <c r="A21" s="41"/>
       <c r="B21" s="41" t="s">
         <v>378</v>
@@ -10908,7 +10899,7 @@
       <c r="E21" s="41"/>
       <c r="F21" s="41"/>
     </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:12">
       <c r="A22" s="41"/>
       <c r="B22" s="41"/>
       <c r="C22" s="41" t="s">
@@ -10921,7 +10912,7 @@
         <v>525</v>
       </c>
     </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:12">
       <c r="A23" s="41"/>
       <c r="B23" s="41"/>
       <c r="C23" s="41" t="s">
@@ -10934,7 +10925,7 @@
         <v>528</v>
       </c>
     </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:12">
       <c r="A24" s="41"/>
       <c r="B24" s="41"/>
       <c r="C24" s="41"/>
@@ -10944,7 +10935,7 @@
       <c r="E24" s="41"/>
       <c r="F24" s="41"/>
     </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:12">
       <c r="A25" s="41"/>
       <c r="B25" s="41"/>
       <c r="C25" s="41" t="s">
@@ -10954,7 +10945,7 @@
       <c r="E25" s="41"/>
       <c r="F25" s="41"/>
     </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:12">
       <c r="A26" s="41"/>
       <c r="B26" s="41"/>
       <c r="C26" s="41" t="s">
@@ -10964,7 +10955,7 @@
       <c r="E26" s="41"/>
       <c r="F26" s="41"/>
     </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:12">
       <c r="A27" s="41"/>
       <c r="B27" s="41"/>
       <c r="C27" s="41" t="s">
@@ -10974,7 +10965,7 @@
       <c r="E27" s="41"/>
       <c r="F27" s="41"/>
     </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:12">
       <c r="A28" s="41"/>
       <c r="B28" s="41"/>
       <c r="C28" s="41"/>
@@ -10984,7 +10975,7 @@
       <c r="E28" s="41"/>
       <c r="F28" s="41"/>
     </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:12">
       <c r="A29" s="41"/>
       <c r="B29" s="41"/>
       <c r="C29" s="41" t="s">
@@ -10994,7 +10985,7 @@
       <c r="E29" s="41"/>
       <c r="F29" s="41"/>
     </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:12">
       <c r="A30" s="41"/>
       <c r="B30" s="41"/>
       <c r="C30" s="41" t="s">
@@ -11004,7 +10995,7 @@
       <c r="E30" s="41"/>
       <c r="F30" s="41"/>
     </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:12">
       <c r="A31" s="41"/>
       <c r="B31" s="41" t="s">
         <v>397</v>
@@ -11014,7 +11005,7 @@
       <c r="E31" s="41"/>
       <c r="F31" s="41"/>
     </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:12">
       <c r="A32" s="41"/>
       <c r="B32" s="41"/>
       <c r="C32" s="41"/>
@@ -11022,7 +11013,7 @@
       <c r="E32" s="41"/>
       <c r="F32" s="41"/>
     </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:10">
       <c r="A33" s="41"/>
       <c r="B33" s="41" t="s">
         <v>398</v>
@@ -11032,7 +11023,7 @@
       <c r="E33" s="41"/>
       <c r="F33" s="41"/>
     </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:10">
       <c r="A34" s="41"/>
       <c r="B34" s="41" t="s">
         <v>399</v>
@@ -11042,7 +11033,7 @@
       <c r="E34" s="41"/>
       <c r="F34" s="41"/>
     </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:10">
       <c r="A35" s="41"/>
       <c r="B35" s="41"/>
       <c r="C35" s="41" t="s">
@@ -11052,7 +11043,7 @@
       <c r="E35" s="41"/>
       <c r="F35" s="41"/>
     </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:10">
       <c r="A36" s="41"/>
       <c r="B36" s="41" t="s">
         <v>397</v>
@@ -11062,7 +11053,7 @@
       <c r="E36" s="41"/>
       <c r="F36" s="41"/>
     </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:10">
       <c r="A37" s="41"/>
       <c r="B37" s="41" t="s">
         <v>400</v>
@@ -11072,7 +11063,7 @@
       <c r="E37" s="41"/>
       <c r="F37" s="41"/>
     </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:10">
       <c r="A38" s="41"/>
       <c r="B38" s="41" t="s">
         <v>378</v>
@@ -11082,7 +11073,7 @@
       <c r="E38" s="41"/>
       <c r="F38" s="41"/>
     </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:10">
       <c r="A39" s="41"/>
       <c r="B39" s="41"/>
       <c r="C39" s="5" t="s">
@@ -11100,7 +11091,7 @@
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
     </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:10">
       <c r="A40" s="41"/>
       <c r="B40" s="41"/>
       <c r="C40" s="41" t="s">
@@ -11113,7 +11104,7 @@
         <v>520</v>
       </c>
     </row>
-    <row r="41" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:10">
       <c r="A41" s="41"/>
       <c r="B41" s="41"/>
       <c r="C41" s="41"/>
@@ -11126,7 +11117,7 @@
         <v>521</v>
       </c>
     </row>
-    <row r="42" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:10">
       <c r="A42" s="41"/>
       <c r="B42" s="41"/>
       <c r="C42" s="41"/>
@@ -11136,7 +11127,7 @@
       <c r="E42" s="41"/>
       <c r="F42" s="41"/>
     </row>
-    <row r="43" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:10">
       <c r="A43" s="41"/>
       <c r="B43" s="41"/>
       <c r="C43" s="41" t="s">
@@ -11146,7 +11137,7 @@
       <c r="E43" s="41"/>
       <c r="F43" s="41"/>
     </row>
-    <row r="44" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:10">
       <c r="A44" s="41"/>
       <c r="B44" s="41"/>
       <c r="C44" s="41" t="s">
@@ -11156,7 +11147,7 @@
       <c r="E44" s="41"/>
       <c r="F44" s="41"/>
     </row>
-    <row r="45" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:10">
       <c r="A45" s="41"/>
       <c r="B45" s="41"/>
       <c r="C45" s="41" t="s">
@@ -11166,7 +11157,7 @@
       <c r="E45" s="41"/>
       <c r="F45" s="41"/>
     </row>
-    <row r="46" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:10">
       <c r="A46" s="41"/>
       <c r="B46" s="41"/>
       <c r="C46" s="41"/>
@@ -11176,7 +11167,7 @@
       <c r="E46" s="41"/>
       <c r="F46" s="41"/>
     </row>
-    <row r="47" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:10">
       <c r="A47" s="41"/>
       <c r="B47" s="41"/>
       <c r="C47" s="41"/>
@@ -11186,7 +11177,7 @@
       <c r="E47" s="41"/>
       <c r="F47" s="41"/>
     </row>
-    <row r="48" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:10">
       <c r="A48" s="41"/>
       <c r="B48" s="41"/>
       <c r="C48" s="41"/>
@@ -11196,7 +11187,7 @@
       <c r="E48" s="41"/>
       <c r="F48" s="41"/>
     </row>
-    <row r="49" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:10">
       <c r="A49" s="41"/>
       <c r="B49" s="41"/>
       <c r="C49" s="41" t="s">
@@ -11206,7 +11197,7 @@
       <c r="E49" s="41"/>
       <c r="F49" s="41"/>
     </row>
-    <row r="50" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:10">
       <c r="A50" s="41"/>
       <c r="B50" s="41" t="s">
         <v>311</v>
@@ -11216,7 +11207,7 @@
       <c r="E50" s="41"/>
       <c r="F50" s="41"/>
     </row>
-    <row r="51" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:10">
       <c r="A51" s="41" t="s">
         <v>311</v>
       </c>
@@ -11226,7 +11217,7 @@
       <c r="E51" s="41"/>
       <c r="F51" s="41"/>
     </row>
-    <row r="52" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:10">
       <c r="A52" s="41"/>
       <c r="B52" s="41"/>
       <c r="C52" s="41"/>
@@ -11234,7 +11225,7 @@
       <c r="E52" s="41"/>
       <c r="F52" s="41"/>
     </row>
-    <row r="53" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:10">
       <c r="A53" s="41" t="s">
         <v>406</v>
       </c>
@@ -11244,7 +11235,7 @@
       <c r="E53" s="41"/>
       <c r="F53" s="41"/>
     </row>
-    <row r="54" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:10">
       <c r="A54" s="41" t="s">
         <v>378</v>
       </c>
@@ -11254,7 +11245,7 @@
       <c r="E54" s="41"/>
       <c r="F54" s="41"/>
     </row>
-    <row r="55" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:10">
       <c r="A55" s="41"/>
       <c r="B55" s="41" t="s">
         <v>376</v>
@@ -11264,7 +11255,7 @@
       <c r="E55" s="41"/>
       <c r="F55" s="41"/>
     </row>
-    <row r="56" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:10">
       <c r="A56" s="41"/>
       <c r="B56" s="41"/>
       <c r="C56" s="41"/>
@@ -11272,7 +11263,7 @@
       <c r="E56" s="41"/>
       <c r="F56" s="41"/>
     </row>
-    <row r="57" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:10">
       <c r="A57" s="41"/>
       <c r="B57" s="41" t="s">
         <v>377</v>
@@ -11282,7 +11273,7 @@
       <c r="E57" s="41"/>
       <c r="F57" s="41"/>
     </row>
-    <row r="58" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:10">
       <c r="A58" s="41"/>
       <c r="B58" s="41" t="s">
         <v>378</v>
@@ -11292,7 +11283,7 @@
       <c r="E58" s="41"/>
       <c r="F58" s="41"/>
     </row>
-    <row r="59" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:10">
       <c r="A59" s="41"/>
       <c r="B59" s="41"/>
       <c r="C59" s="5" t="s">
@@ -11307,7 +11298,7 @@
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
     </row>
-    <row r="60" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:10">
       <c r="A60" s="41"/>
       <c r="B60" s="41"/>
       <c r="C60" s="41" t="s">
@@ -11320,7 +11311,7 @@
         <v>520</v>
       </c>
     </row>
-    <row r="61" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:10">
       <c r="A61" s="41"/>
       <c r="B61" s="41"/>
       <c r="C61" s="41"/>
@@ -11333,7 +11324,7 @@
         <v>521</v>
       </c>
     </row>
-    <row r="62" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:10">
       <c r="A62" s="41"/>
       <c r="B62" s="41"/>
       <c r="C62" s="41" t="s">
@@ -11343,7 +11334,7 @@
       <c r="E62" s="41"/>
       <c r="F62" s="41"/>
     </row>
-    <row r="63" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:10">
       <c r="A63" s="41"/>
       <c r="B63" s="41"/>
       <c r="C63" s="41" t="s">
@@ -11353,7 +11344,7 @@
       <c r="E63" s="41"/>
       <c r="F63" s="41"/>
     </row>
-    <row r="64" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:10">
       <c r="A64" s="41"/>
       <c r="B64" s="41"/>
       <c r="C64" s="41" t="s">
@@ -11363,7 +11354,7 @@
       <c r="E64" s="41"/>
       <c r="F64" s="41"/>
     </row>
-    <row r="65" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:7">
       <c r="A65" s="41"/>
       <c r="B65" s="41"/>
       <c r="C65" s="41"/>
@@ -11374,7 +11365,7 @@
       <c r="F65" s="41"/>
       <c r="G65" s="41"/>
     </row>
-    <row r="66" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:7">
       <c r="A66" s="41"/>
       <c r="B66" s="41"/>
       <c r="C66" s="41"/>
@@ -11384,7 +11375,7 @@
       <c r="E66" s="41"/>
       <c r="F66" s="41"/>
     </row>
-    <row r="67" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:7">
       <c r="A67" s="41"/>
       <c r="B67" s="41"/>
       <c r="C67" s="41"/>
@@ -11394,7 +11385,7 @@
       </c>
       <c r="F67" s="41"/>
     </row>
-    <row r="68" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:7">
       <c r="A68" s="41"/>
       <c r="B68" s="41"/>
       <c r="C68" s="41"/>
@@ -11404,7 +11395,7 @@
       <c r="E68" s="41"/>
       <c r="F68" s="41"/>
     </row>
-    <row r="69" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:7">
       <c r="A69" s="41"/>
       <c r="B69" s="41"/>
       <c r="C69" s="41"/>
@@ -11414,7 +11405,7 @@
       <c r="E69" s="41"/>
       <c r="F69" s="41"/>
     </row>
-    <row r="70" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:7">
       <c r="A70" s="41"/>
       <c r="B70" s="41"/>
       <c r="C70" s="41"/>
@@ -11424,7 +11415,7 @@
       <c r="E70" s="41"/>
       <c r="F70" s="41"/>
     </row>
-    <row r="71" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:7">
       <c r="A71" s="41"/>
       <c r="B71" s="41"/>
       <c r="C71" s="41"/>
@@ -11434,7 +11425,7 @@
       </c>
       <c r="F71" s="41"/>
     </row>
-    <row r="72" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:7">
       <c r="A72" s="41"/>
       <c r="B72" s="41"/>
       <c r="C72" s="41"/>
@@ -11444,7 +11435,7 @@
       <c r="E72" s="41"/>
       <c r="F72" s="41"/>
     </row>
-    <row r="73" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:7">
       <c r="A73" s="41"/>
       <c r="B73" s="41"/>
       <c r="C73" s="41" t="s">
@@ -11454,7 +11445,7 @@
       <c r="E73" s="41"/>
       <c r="F73" s="41"/>
     </row>
-    <row r="74" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:7">
       <c r="A74" s="41"/>
       <c r="B74" s="41" t="s">
         <v>311</v>
@@ -11464,7 +11455,7 @@
       <c r="E74" s="41"/>
       <c r="F74" s="41"/>
     </row>
-    <row r="75" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:7">
       <c r="A75" s="41"/>
       <c r="B75" s="41" t="s">
         <v>381</v>
@@ -11474,7 +11465,7 @@
       <c r="E75" s="41"/>
       <c r="F75" s="41"/>
     </row>
-    <row r="76" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:7">
       <c r="A76" s="41"/>
       <c r="B76" s="41" t="s">
         <v>378</v>
@@ -11484,7 +11475,7 @@
       <c r="E76" s="41"/>
       <c r="F76" s="41"/>
     </row>
-    <row r="77" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:7">
       <c r="A77" s="41"/>
       <c r="B77" s="41"/>
       <c r="C77" s="41" t="s">
@@ -11494,7 +11485,7 @@
       <c r="E77" s="41"/>
       <c r="F77" s="41"/>
     </row>
-    <row r="78" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:7">
       <c r="A78" s="41"/>
       <c r="B78" s="41" t="s">
         <v>311</v>
@@ -11504,7 +11495,7 @@
       <c r="E78" s="41"/>
       <c r="F78" s="41"/>
     </row>
-    <row r="79" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:7">
       <c r="A79" s="41"/>
       <c r="B79" s="41"/>
       <c r="C79" s="41"/>
@@ -11512,7 +11503,7 @@
       <c r="E79" s="41"/>
       <c r="F79" s="41"/>
     </row>
-    <row r="80" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:7">
       <c r="A80" s="41"/>
       <c r="B80" s="41" t="s">
         <v>407</v>
@@ -11522,7 +11513,7 @@
       <c r="E80" s="41"/>
       <c r="F80" s="41"/>
     </row>
-    <row r="81" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:6">
       <c r="A81" s="41" t="s">
         <v>311</v>
       </c>

--- a/CFT4CUnitSrc/src/report/GAReport.xlsx
+++ b/CFT4CUnitSrc/src/report/GAReport.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="1365" windowWidth="14805" windowHeight="6480" tabRatio="940"/>
@@ -1647,11 +1647,11 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.000000000"/>
   </numFmts>
-  <fonts count="7">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -6041,6 +6041,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -6075,6 +6076,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -6250,21 +6252,21 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B1"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A35" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="M57" sqref="M57"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="46.7109375" style="50" customWidth="1"/>
     <col min="2" max="2" width="60.7109375" style="50" customWidth="1"/>
     <col min="3" max="16384" width="9.140625" style="50"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="75">
+    <row r="1" spans="1:2" ht="75" x14ac:dyDescent="0.25">
       <c r="A1" s="49" t="s">
         <v>529</v>
       </c>
@@ -6279,67 +6281,67 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B25" sqref="B25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>500</v>
       </c>
     </row>
-    <row r="2" spans="1:3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
         <v>501</v>
       </c>
     </row>
-    <row r="3" spans="1:3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B3" s="47"/>
       <c r="C3" s="47" t="s">
         <v>503</v>
       </c>
     </row>
-    <row r="4" spans="1:3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C4" t="s">
         <v>502</v>
       </c>
     </row>
-    <row r="6" spans="1:3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>506</v>
       </c>
     </row>
-    <row r="7" spans="1:3">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
         <v>504</v>
       </c>
     </row>
-    <row r="8" spans="1:3">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
         <v>505</v>
       </c>
     </row>
-    <row r="19" spans="2:3">
+    <row r="19" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B19" t="s">
         <v>496</v>
       </c>
     </row>
-    <row r="20" spans="2:3">
+    <row r="20" spans="2:3" x14ac:dyDescent="0.25">
       <c r="C20" t="s">
         <v>497</v>
       </c>
     </row>
-    <row r="21" spans="2:3">
+    <row r="21" spans="2:3" x14ac:dyDescent="0.25">
       <c r="C21" t="s">
         <v>498</v>
       </c>
     </row>
-    <row r="22" spans="2:3">
+    <row r="22" spans="2:3" x14ac:dyDescent="0.25">
       <c r="C22" t="s">
         <v>499</v>
       </c>
@@ -6351,7 +6353,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:AP160"/>
   <sheetViews>
@@ -6359,34 +6361,34 @@
       <selection activeCell="L67" sqref="L67"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="10.7109375" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="10.140625" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="9.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B1" s="25" t="s">
         <v>495</v>
       </c>
     </row>
-    <row r="3" spans="1:10">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" s="18">
         <v>42502</v>
       </c>
     </row>
-    <row r="4" spans="1:10">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
         <v>168</v>
       </c>
     </row>
-    <row r="5" spans="1:10">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="C5" t="s">
         <v>169</v>
       </c>
     </row>
-    <row r="6" spans="1:10">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="C6" t="s">
         <v>180</v>
       </c>
@@ -6394,17 +6396,17 @@
         <v>181</v>
       </c>
     </row>
-    <row r="7" spans="1:10">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="J7" t="s">
         <v>182</v>
       </c>
     </row>
-    <row r="8" spans="1:10">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
         <v>171</v>
       </c>
     </row>
-    <row r="9" spans="1:10">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
         <v>179</v>
       </c>
@@ -6412,7 +6414,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="10" spans="1:10">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B10" t="s">
         <v>179</v>
       </c>
@@ -6420,32 +6422,32 @@
         <v>176</v>
       </c>
     </row>
-    <row r="11" spans="1:10">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="C11" t="s">
         <v>172</v>
       </c>
     </row>
-    <row r="12" spans="1:10">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="C12" t="s">
         <v>173</v>
       </c>
     </row>
-    <row r="13" spans="1:10">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="C13" t="s">
         <v>174</v>
       </c>
     </row>
-    <row r="15" spans="1:10">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="C15" s="1" t="s">
         <v>177</v>
       </c>
     </row>
-    <row r="16" spans="1:10">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="C16" s="1" t="s">
         <v>178</v>
       </c>
     </row>
-    <row r="19" spans="1:17">
+    <row r="19" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A19" s="18">
         <v>42499</v>
       </c>
@@ -6453,7 +6455,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:17">
+    <row r="20" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B20" t="s">
         <v>160</v>
       </c>
@@ -6461,7 +6463,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="21" spans="1:17">
+    <row r="21" spans="1:17" x14ac:dyDescent="0.25">
       <c r="C21" t="s">
         <v>161</v>
       </c>
@@ -6469,7 +6471,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="22" spans="1:17">
+    <row r="22" spans="1:17" x14ac:dyDescent="0.25">
       <c r="C22" t="s">
         <v>162</v>
       </c>
@@ -6477,12 +6479,12 @@
         <v>166</v>
       </c>
     </row>
-    <row r="23" spans="1:17">
+    <row r="23" spans="1:17" x14ac:dyDescent="0.25">
       <c r="C23" t="s">
         <v>167</v>
       </c>
     </row>
-    <row r="24" spans="1:17">
+    <row r="24" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B24" t="s">
         <v>164</v>
       </c>
@@ -6493,7 +6495,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="26" spans="1:17">
+    <row r="26" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A26" s="18">
         <v>42496</v>
       </c>
@@ -6507,7 +6509,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="27" spans="1:17">
+    <row r="27" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B27" t="s">
         <v>137</v>
       </c>
@@ -6515,7 +6517,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="28" spans="1:17">
+    <row r="28" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B28" t="s">
         <v>135</v>
       </c>
@@ -6526,7 +6528,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="30" spans="1:17">
+    <row r="30" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B30" t="s">
         <v>136</v>
       </c>
@@ -6537,12 +6539,12 @@
         <v>152</v>
       </c>
     </row>
-    <row r="31" spans="1:17">
+    <row r="31" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B31" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="32" spans="1:17">
+    <row r="32" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B32" t="s">
         <v>139</v>
       </c>
@@ -6550,12 +6552,12 @@
         <v>153</v>
       </c>
     </row>
-    <row r="34" spans="2:16">
+    <row r="34" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B34" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="35" spans="2:16">
+    <row r="35" spans="2:16" x14ac:dyDescent="0.25">
       <c r="C35" t="s">
         <v>140</v>
       </c>
@@ -6563,7 +6565,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="36" spans="2:16">
+    <row r="36" spans="2:16" x14ac:dyDescent="0.25">
       <c r="C36" t="s">
         <v>141</v>
       </c>
@@ -6571,7 +6573,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="38" spans="2:16">
+    <row r="38" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B38" t="s">
         <v>142</v>
       </c>
@@ -6579,47 +6581,47 @@
         <v>159</v>
       </c>
     </row>
-    <row r="40" spans="2:16">
+    <row r="40" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B40" t="s">
         <v>143</v>
       </c>
     </row>
-    <row r="41" spans="2:16">
+    <row r="41" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B41" t="s">
         <v>144</v>
       </c>
     </row>
-    <row r="43" spans="2:16">
+    <row r="43" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B43" t="s">
         <v>146</v>
       </c>
     </row>
-    <row r="44" spans="2:16">
+    <row r="44" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B44" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="45" spans="2:16">
+    <row r="45" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B45" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="47" spans="2:16">
+    <row r="47" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B47" t="s">
         <v>148</v>
       </c>
     </row>
-    <row r="52" spans="1:7">
+    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A52" s="18">
         <v>42494</v>
       </c>
     </row>
-    <row r="53" spans="1:7">
+    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B53" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="54" spans="1:7">
+    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C54" t="s">
         <v>1</v>
       </c>
@@ -6627,7 +6629,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="56" spans="1:7">
+    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C56" s="5" t="s">
         <v>3</v>
       </c>
@@ -6635,44 +6637,44 @@
         <v>123</v>
       </c>
     </row>
-    <row r="57" spans="1:7">
+    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
       <c r="D57" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="58" spans="1:7">
+    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
       <c r="E58" s="25" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="59" spans="1:7">
+    <row r="59" spans="1:7" x14ac:dyDescent="0.25">
       <c r="E59" s="25"/>
     </row>
-    <row r="60" spans="1:7">
+    <row r="60" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B60" s="5" t="s">
         <v>134</v>
       </c>
       <c r="E60" s="25"/>
     </row>
-    <row r="61" spans="1:7">
+    <row r="61" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C61" t="s">
         <v>124</v>
       </c>
       <c r="E61" s="25"/>
     </row>
-    <row r="62" spans="1:7">
+    <row r="62" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C62" t="s">
         <v>125</v>
       </c>
       <c r="E62" s="25"/>
     </row>
-    <row r="63" spans="1:7">
+    <row r="63" spans="1:7" x14ac:dyDescent="0.25">
       <c r="D63" t="s">
         <v>126</v>
       </c>
       <c r="E63" s="25"/>
     </row>
-    <row r="64" spans="1:7">
+    <row r="64" spans="1:7" x14ac:dyDescent="0.25">
       <c r="E64" s="26" t="s">
         <v>127</v>
       </c>
@@ -6683,7 +6685,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="65" spans="1:10">
+    <row r="65" spans="1:10" x14ac:dyDescent="0.25">
       <c r="E65" s="27">
         <v>1.1000000000000001</v>
       </c>
@@ -6694,7 +6696,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="66" spans="1:10">
+    <row r="66" spans="1:10" x14ac:dyDescent="0.25">
       <c r="E66" s="27">
         <v>1.1100000000000001</v>
       </c>
@@ -6711,7 +6713,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="67" spans="1:10">
+    <row r="67" spans="1:10" x14ac:dyDescent="0.25">
       <c r="E67" s="27">
         <v>1.3</v>
       </c>
@@ -6722,21 +6724,21 @@
         <v>1</v>
       </c>
     </row>
-    <row r="68" spans="1:10">
+    <row r="68" spans="1:10" x14ac:dyDescent="0.25">
       <c r="D68" t="s">
         <v>132</v>
       </c>
       <c r="E68" s="27"/>
     </row>
-    <row r="69" spans="1:10">
+    <row r="69" spans="1:10" x14ac:dyDescent="0.25">
       <c r="E69" s="27" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="70" spans="1:10">
+    <row r="70" spans="1:10" x14ac:dyDescent="0.25">
       <c r="E70" s="27"/>
     </row>
-    <row r="71" spans="1:10">
+    <row r="71" spans="1:10" x14ac:dyDescent="0.25">
       <c r="C71" t="s">
         <v>5</v>
       </c>
@@ -6744,57 +6746,57 @@
         <v>116</v>
       </c>
     </row>
-    <row r="73" spans="1:10">
+    <row r="73" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B73" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="74" spans="1:10">
+    <row r="74" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B74" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="76" spans="1:10">
+    <row r="76" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B76" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="77" spans="1:10">
+    <row r="77" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B77" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="79" spans="1:10">
+    <row r="79" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A79" s="18">
         <v>42488</v>
       </c>
     </row>
-    <row r="80" spans="1:10">
+    <row r="80" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B80" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="81" spans="1:42">
+    <row r="81" spans="1:42" x14ac:dyDescent="0.25">
       <c r="C81" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="82" spans="1:42">
+    <row r="82" spans="1:42" x14ac:dyDescent="0.25">
       <c r="C82" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="83" spans="1:42">
+    <row r="83" spans="1:42" x14ac:dyDescent="0.25">
       <c r="C83" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="84" spans="1:42">
+    <row r="84" spans="1:42" x14ac:dyDescent="0.25">
       <c r="C84" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="85" spans="1:42">
+    <row r="85" spans="1:42" x14ac:dyDescent="0.25">
       <c r="B85" s="5" t="s">
         <v>113</v>
       </c>
@@ -6807,12 +6809,12 @@
       <c r="I85" s="5"/>
       <c r="J85" s="5"/>
     </row>
-    <row r="87" spans="1:42">
+    <row r="87" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="89" spans="1:42">
+    <row r="89" spans="1:42" x14ac:dyDescent="0.25">
       <c r="B89" t="s">
         <v>1</v>
       </c>
@@ -6820,7 +6822,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="91" spans="1:42">
+    <row r="91" spans="1:42" x14ac:dyDescent="0.25">
       <c r="B91" t="s">
         <v>3</v>
       </c>
@@ -6828,12 +6830,12 @@
         <v>6</v>
       </c>
     </row>
-    <row r="92" spans="1:42">
+    <row r="92" spans="1:42" x14ac:dyDescent="0.25">
       <c r="C92" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="94" spans="1:42">
+    <row r="94" spans="1:42" x14ac:dyDescent="0.25">
       <c r="B94" t="s">
         <v>5</v>
       </c>
@@ -6841,12 +6843,12 @@
         <v>8</v>
       </c>
     </row>
-    <row r="95" spans="1:42">
+    <row r="95" spans="1:42" x14ac:dyDescent="0.25">
       <c r="C95" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="96" spans="1:42">
+    <row r="96" spans="1:42" x14ac:dyDescent="0.25">
       <c r="C96" s="6" t="s">
         <v>52</v>
       </c>
@@ -6880,7 +6882,7 @@
         <v>42483</v>
       </c>
     </row>
-    <row r="97" spans="2:42">
+    <row r="97" spans="2:42" x14ac:dyDescent="0.25">
       <c r="C97" s="6" t="s">
         <v>53</v>
       </c>
@@ -6912,7 +6914,7 @@
       <c r="AO97" s="5"/>
       <c r="AP97" s="5"/>
     </row>
-    <row r="98" spans="2:42">
+    <row r="98" spans="2:42" x14ac:dyDescent="0.25">
       <c r="C98" t="s">
         <v>14</v>
       </c>
@@ -6926,29 +6928,29 @@
       <c r="AO98" s="5"/>
       <c r="AP98" s="5"/>
     </row>
-    <row r="99" spans="2:42">
+    <row r="99" spans="2:42" x14ac:dyDescent="0.25">
       <c r="C99" s="1"/>
       <c r="D99" s="1" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="100" spans="2:42">
+    <row r="100" spans="2:42" x14ac:dyDescent="0.25">
       <c r="C100" s="1"/>
       <c r="D100" s="1" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="102" spans="2:42">
+    <row r="102" spans="2:42" x14ac:dyDescent="0.25">
       <c r="C102" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="103" spans="2:42">
+    <row r="103" spans="2:42" x14ac:dyDescent="0.25">
       <c r="C103" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="105" spans="2:42">
+    <row r="105" spans="2:42" x14ac:dyDescent="0.25">
       <c r="B105" t="s">
         <v>7</v>
       </c>
@@ -6956,12 +6958,12 @@
         <v>16</v>
       </c>
     </row>
-    <row r="107" spans="2:42">
+    <row r="107" spans="2:42" x14ac:dyDescent="0.25">
       <c r="C107" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="109" spans="2:42">
+    <row r="109" spans="2:42" x14ac:dyDescent="0.25">
       <c r="B109" t="s">
         <v>17</v>
       </c>
@@ -6969,7 +6971,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="110" spans="2:42">
+    <row r="110" spans="2:42" x14ac:dyDescent="0.25">
       <c r="D110" s="5" t="s">
         <v>50</v>
       </c>
@@ -6987,7 +6989,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="111" spans="2:42">
+    <row r="111" spans="2:42" x14ac:dyDescent="0.25">
       <c r="C111" t="s">
         <v>19</v>
       </c>
@@ -6995,12 +6997,12 @@
         <v>20</v>
       </c>
     </row>
-    <row r="112" spans="2:42">
+    <row r="112" spans="2:42" x14ac:dyDescent="0.25">
       <c r="D112" s="3" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="114" spans="1:24">
+    <row r="114" spans="1:24" x14ac:dyDescent="0.25">
       <c r="B114" t="s">
         <v>22</v>
       </c>
@@ -7008,12 +7010,12 @@
         <v>21</v>
       </c>
     </row>
-    <row r="116" spans="1:24">
+    <row r="116" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="117" spans="1:24">
+    <row r="117" spans="1:24" x14ac:dyDescent="0.25">
       <c r="B117" t="s">
         <v>48</v>
       </c>
@@ -7035,7 +7037,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="118" spans="1:24">
+    <row r="118" spans="1:24" x14ac:dyDescent="0.25">
       <c r="B118" t="s">
         <v>46</v>
       </c>
@@ -7049,7 +7051,7 @@
         <v>42480</v>
       </c>
     </row>
-    <row r="119" spans="1:24">
+    <row r="119" spans="1:24" x14ac:dyDescent="0.25">
       <c r="B119" t="s">
         <v>49</v>
       </c>
@@ -7063,14 +7065,14 @@
         <v>42480</v>
       </c>
     </row>
-    <row r="120" spans="1:24">
+    <row r="120" spans="1:24" x14ac:dyDescent="0.25">
       <c r="M120" s="6"/>
       <c r="N120" s="6"/>
       <c r="O120" s="6"/>
       <c r="P120" s="6"/>
       <c r="S120" s="8"/>
     </row>
-    <row r="121" spans="1:24">
+    <row r="121" spans="1:24" x14ac:dyDescent="0.25">
       <c r="F121" s="9" t="s">
         <v>69</v>
       </c>
@@ -7083,7 +7085,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="122" spans="1:24">
+    <row r="122" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
         <v>47</v>
       </c>
@@ -7106,7 +7108,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="123" spans="1:24">
+    <row r="123" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A123" s="4" t="s">
         <v>23</v>
       </c>
@@ -7126,7 +7128,7 @@
       <c r="O123" s="4"/>
       <c r="P123" s="4"/>
     </row>
-    <row r="124" spans="1:24">
+    <row r="124" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A124" s="4" t="s">
         <v>24</v>
       </c>
@@ -7146,7 +7148,7 @@
       <c r="O124" s="4"/>
       <c r="P124" s="4"/>
     </row>
-    <row r="125" spans="1:24">
+    <row r="125" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
         <v>25</v>
       </c>
@@ -7166,12 +7168,12 @@
       </c>
       <c r="V125" s="9"/>
     </row>
-    <row r="126" spans="1:24">
+    <row r="126" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="127" spans="1:24">
+    <row r="127" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A127" s="4" t="s">
         <v>42</v>
       </c>
@@ -7191,7 +7193,7 @@
       <c r="O127" s="4"/>
       <c r="P127" s="4"/>
     </row>
-    <row r="128" spans="1:24">
+    <row r="128" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A128" s="4" t="s">
         <v>27</v>
       </c>
@@ -7211,12 +7213,12 @@
       <c r="O128" s="4"/>
       <c r="P128" s="4"/>
     </row>
-    <row r="129" spans="1:16">
+    <row r="129" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="130" spans="1:16">
+    <row r="130" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A130" s="4" t="s">
         <v>45</v>
       </c>
@@ -7236,83 +7238,83 @@
       <c r="O130" s="4"/>
       <c r="P130" s="4"/>
     </row>
-    <row r="131" spans="1:16">
+    <row r="131" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="132" spans="1:16">
+    <row r="132" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="133" spans="1:16">
+    <row r="133" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="134" spans="1:16">
+    <row r="134" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="135" spans="1:16">
+    <row r="135" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="136" spans="1:16">
+    <row r="136" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="137" spans="1:16">
+    <row r="137" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="138" spans="1:16">
+    <row r="138" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="139" spans="1:16">
+    <row r="139" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="140" spans="1:16">
+    <row r="140" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="141" spans="1:16">
+    <row r="141" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="142" spans="1:16">
+    <row r="142" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="143" spans="1:16">
+    <row r="143" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="146" spans="1:11">
+    <row r="146" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A146" s="13" t="s">
         <v>70</v>
       </c>
       <c r="B146" s="13"/>
     </row>
-    <row r="147" spans="1:11">
+    <row r="147" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B147" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="148" spans="1:11">
+    <row r="148" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B148" s="5" t="s">
         <v>80</v>
       </c>
@@ -7322,32 +7324,32 @@
       <c r="D148" s="5"/>
       <c r="E148" s="5"/>
     </row>
-    <row r="149" spans="1:11">
+    <row r="149" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B149" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="150" spans="1:11">
+    <row r="150" spans="1:11" x14ac:dyDescent="0.25">
       <c r="C150" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="151" spans="1:11">
+    <row r="151" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B151" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="153" spans="1:11">
+    <row r="153" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B153" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="154" spans="1:11">
+    <row r="154" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B154" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="156" spans="1:11">
+    <row r="156" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B156" s="5" t="s">
         <v>84</v>
       </c>
@@ -7362,12 +7364,12 @@
         <v>42483</v>
       </c>
     </row>
-    <row r="159" spans="1:11">
+    <row r="159" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B159" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="160" spans="1:11">
+    <row r="160" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B160" t="s">
         <v>86</v>
       </c>
@@ -7383,7 +7385,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:R95"/>
   <sheetViews>
@@ -7391,7 +7393,7 @@
       <selection activeCell="H60" sqref="H60"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="5" style="10" customWidth="1"/>
     <col min="3" max="3" width="30.140625" bestFit="1" customWidth="1"/>
@@ -7406,7 +7408,7 @@
     <col min="12" max="12" width="14.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A1" s="7" t="s">
         <v>59</v>
       </c>
@@ -7415,7 +7417,7 @@
       <c r="D1" s="7"/>
       <c r="E1" s="11"/>
     </row>
-    <row r="2" spans="1:18">
+    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B2" s="17" t="s">
         <v>65</v>
       </c>
@@ -7453,7 +7455,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="3" spans="1:18">
+    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B3" s="14">
         <v>1</v>
       </c>
@@ -7497,7 +7499,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="4" spans="1:18">
+    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B4" s="14">
         <f>B3+1</f>
         <v>2</v>
@@ -7531,7 +7533,7 @@
       </c>
       <c r="L4" s="15"/>
     </row>
-    <row r="5" spans="1:18">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B5" s="14">
         <f t="shared" ref="B5:B19" si="0">B4+1</f>
         <v>3</v>
@@ -7565,7 +7567,7 @@
       </c>
       <c r="L5" s="15"/>
     </row>
-    <row r="6" spans="1:18">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B6" s="14">
         <f t="shared" si="0"/>
         <v>4</v>
@@ -7602,7 +7604,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="7" spans="1:18">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B7" s="14">
         <f t="shared" si="0"/>
         <v>5</v>
@@ -7643,7 +7645,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="8" spans="1:18">
+    <row r="8" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B8" s="14">
         <f t="shared" si="0"/>
         <v>6</v>
@@ -7685,7 +7687,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="9" spans="1:18">
+    <row r="9" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B9" s="14">
         <f t="shared" si="0"/>
         <v>7</v>
@@ -7725,7 +7727,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="10" spans="1:18">
+    <row r="10" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B10" s="14">
         <f t="shared" si="0"/>
         <v>8</v>
@@ -7765,7 +7767,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="11" spans="1:18">
+    <row r="11" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B11" s="14">
         <f t="shared" si="0"/>
         <v>9</v>
@@ -7781,7 +7783,7 @@
       <c r="K11" s="15"/>
       <c r="L11" s="15"/>
     </row>
-    <row r="12" spans="1:18">
+    <row r="12" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B12" s="14">
         <f t="shared" si="0"/>
         <v>10</v>
@@ -7797,7 +7799,7 @@
       <c r="K12" s="15"/>
       <c r="L12" s="15"/>
     </row>
-    <row r="13" spans="1:18">
+    <row r="13" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B13" s="14">
         <f t="shared" si="0"/>
         <v>11</v>
@@ -7813,7 +7815,7 @@
       <c r="K13" s="15"/>
       <c r="L13" s="15"/>
     </row>
-    <row r="14" spans="1:18">
+    <row r="14" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B14" s="14">
         <f t="shared" si="0"/>
         <v>12</v>
@@ -7829,7 +7831,7 @@
       <c r="K14" s="15"/>
       <c r="L14" s="15"/>
     </row>
-    <row r="15" spans="1:18">
+    <row r="15" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B15" s="14">
         <f t="shared" si="0"/>
         <v>13</v>
@@ -7845,7 +7847,7 @@
       <c r="K15" s="15"/>
       <c r="L15" s="15"/>
     </row>
-    <row r="16" spans="1:18">
+    <row r="16" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B16" s="14">
         <f t="shared" si="0"/>
         <v>14</v>
@@ -7861,7 +7863,7 @@
       <c r="K16" s="15"/>
       <c r="L16" s="15"/>
     </row>
-    <row r="17" spans="2:12">
+    <row r="17" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B17" s="14">
         <f t="shared" si="0"/>
         <v>15</v>
@@ -7877,7 +7879,7 @@
       <c r="K17" s="15"/>
       <c r="L17" s="15"/>
     </row>
-    <row r="18" spans="2:12">
+    <row r="18" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B18" s="14">
         <f t="shared" si="0"/>
         <v>16</v>
@@ -7893,7 +7895,7 @@
       <c r="K18" s="15"/>
       <c r="L18" s="15"/>
     </row>
-    <row r="19" spans="2:12">
+    <row r="19" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B19" s="14">
         <f t="shared" si="0"/>
         <v>17</v>
@@ -7909,12 +7911,12 @@
       <c r="K19" s="15"/>
       <c r="L19" s="15"/>
     </row>
-    <row r="22" spans="2:12">
+    <row r="22" spans="2:12" x14ac:dyDescent="0.25">
       <c r="C22" t="s">
         <v>183</v>
       </c>
     </row>
-    <row r="23" spans="2:12">
+    <row r="23" spans="2:12" x14ac:dyDescent="0.25">
       <c r="C23" t="s">
         <v>184</v>
       </c>
@@ -7933,7 +7935,7 @@
       </c>
       <c r="L23" s="51"/>
     </row>
-    <row r="24" spans="2:12">
+    <row r="24" spans="2:12" x14ac:dyDescent="0.25">
       <c r="G24" s="53"/>
       <c r="H24" s="55"/>
       <c r="I24" s="14" t="s">
@@ -7949,7 +7951,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="25" spans="2:12">
+    <row r="25" spans="2:12" x14ac:dyDescent="0.25">
       <c r="G25" s="33" t="s">
         <v>110</v>
       </c>
@@ -7965,7 +7967,7 @@
       <c r="K25" s="32"/>
       <c r="L25" s="32"/>
     </row>
-    <row r="26" spans="2:12">
+    <row r="26" spans="2:12" x14ac:dyDescent="0.25">
       <c r="G26" s="37"/>
       <c r="H26" s="38"/>
       <c r="I26" s="32">
@@ -7977,7 +7979,7 @@
       <c r="K26" s="32"/>
       <c r="L26" s="32"/>
     </row>
-    <row r="27" spans="2:12">
+    <row r="27" spans="2:12" x14ac:dyDescent="0.25">
       <c r="G27" s="37"/>
       <c r="H27" s="38"/>
       <c r="I27" s="32">
@@ -7989,7 +7991,7 @@
       <c r="K27" s="32"/>
       <c r="L27" s="32"/>
     </row>
-    <row r="28" spans="2:12">
+    <row r="28" spans="2:12" x14ac:dyDescent="0.25">
       <c r="G28" s="37"/>
       <c r="H28" s="38"/>
       <c r="I28" s="32">
@@ -8001,7 +8003,7 @@
       <c r="K28" s="32"/>
       <c r="L28" s="32"/>
     </row>
-    <row r="29" spans="2:12">
+    <row r="29" spans="2:12" x14ac:dyDescent="0.25">
       <c r="G29" s="37"/>
       <c r="H29" s="38"/>
       <c r="I29" s="32"/>
@@ -8009,7 +8011,7 @@
       <c r="K29" s="32"/>
       <c r="L29" s="32"/>
     </row>
-    <row r="30" spans="2:12">
+    <row r="30" spans="2:12" x14ac:dyDescent="0.25">
       <c r="G30" s="37"/>
       <c r="H30" s="38"/>
       <c r="I30" s="32"/>
@@ -8017,7 +8019,7 @@
       <c r="K30" s="32"/>
       <c r="L30" s="32"/>
     </row>
-    <row r="31" spans="2:12">
+    <row r="31" spans="2:12" x14ac:dyDescent="0.25">
       <c r="G31" s="35"/>
       <c r="H31" s="36"/>
       <c r="I31" s="32"/>
@@ -8025,7 +8027,7 @@
       <c r="K31" s="32"/>
       <c r="L31" s="32"/>
     </row>
-    <row r="32" spans="2:12">
+    <row r="32" spans="2:12" x14ac:dyDescent="0.25">
       <c r="G32" s="15" t="s">
         <v>109</v>
       </c>
@@ -8035,7 +8037,7 @@
       <c r="K32" s="32"/>
       <c r="L32" s="32"/>
     </row>
-    <row r="33" spans="1:12">
+    <row r="33" spans="1:12" x14ac:dyDescent="0.25">
       <c r="G33" s="15"/>
       <c r="H33" s="32"/>
       <c r="I33" s="32"/>
@@ -8043,7 +8045,7 @@
       <c r="K33" s="32"/>
       <c r="L33" s="32"/>
     </row>
-    <row r="34" spans="1:12">
+    <row r="34" spans="1:12" x14ac:dyDescent="0.25">
       <c r="G34" s="15"/>
       <c r="H34" s="32"/>
       <c r="I34" s="32"/>
@@ -8051,7 +8053,7 @@
       <c r="K34" s="32"/>
       <c r="L34" s="32"/>
     </row>
-    <row r="35" spans="1:12">
+    <row r="35" spans="1:12" x14ac:dyDescent="0.25">
       <c r="G35" s="15"/>
       <c r="H35" s="32"/>
       <c r="I35" s="32"/>
@@ -8059,7 +8061,7 @@
       <c r="K35" s="32"/>
       <c r="L35" s="32"/>
     </row>
-    <row r="36" spans="1:12">
+    <row r="36" spans="1:12" x14ac:dyDescent="0.25">
       <c r="G36" s="15" t="s">
         <v>195</v>
       </c>
@@ -8079,7 +8081,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="1:12">
+    <row r="37" spans="1:12" x14ac:dyDescent="0.25">
       <c r="G37" s="15"/>
       <c r="H37" s="32"/>
       <c r="I37" s="32">
@@ -8095,7 +8097,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="38" spans="1:12">
+    <row r="38" spans="1:12" x14ac:dyDescent="0.25">
       <c r="G38" s="15"/>
       <c r="H38" s="32"/>
       <c r="I38" s="32"/>
@@ -8107,7 +8109,7 @@
         <v>462</v>
       </c>
     </row>
-    <row r="39" spans="1:12">
+    <row r="39" spans="1:12" x14ac:dyDescent="0.25">
       <c r="G39" s="15"/>
       <c r="H39" s="32"/>
       <c r="I39" s="32"/>
@@ -8119,7 +8121,7 @@
         <v>57595</v>
       </c>
     </row>
-    <row r="40" spans="1:12">
+    <row r="40" spans="1:12" x14ac:dyDescent="0.25">
       <c r="G40" s="15" t="s">
         <v>111</v>
       </c>
@@ -8129,7 +8131,7 @@
       <c r="K40" s="32"/>
       <c r="L40" s="32"/>
     </row>
-    <row r="41" spans="1:12">
+    <row r="41" spans="1:12" x14ac:dyDescent="0.25">
       <c r="G41" s="15"/>
       <c r="H41" s="32"/>
       <c r="I41" s="32"/>
@@ -8137,14 +8139,14 @@
       <c r="K41" s="32"/>
       <c r="L41" s="32"/>
     </row>
-    <row r="42" spans="1:12">
+    <row r="42" spans="1:12" x14ac:dyDescent="0.25">
       <c r="H42" s="31"/>
       <c r="I42" s="31"/>
       <c r="J42" s="31"/>
       <c r="K42" s="31"/>
       <c r="L42" s="31"/>
     </row>
-    <row r="43" spans="1:12">
+    <row r="43" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>198</v>
       </c>
@@ -8154,7 +8156,7 @@
       <c r="K43" s="31"/>
       <c r="L43" s="31"/>
     </row>
-    <row r="44" spans="1:12">
+    <row r="44" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C44" t="s">
         <v>199</v>
       </c>
@@ -8164,7 +8166,7 @@
       <c r="K44" s="31"/>
       <c r="L44" s="31"/>
     </row>
-    <row r="45" spans="1:12">
+    <row r="45" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C45" t="s">
         <v>200</v>
       </c>
@@ -8175,7 +8177,7 @@
       <c r="I45" s="30"/>
       <c r="J45" s="30"/>
     </row>
-    <row r="46" spans="1:12">
+    <row r="46" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C46" t="s">
         <v>202</v>
       </c>
@@ -8183,7 +8185,7 @@
       <c r="I46" s="30"/>
       <c r="J46" s="30"/>
     </row>
-    <row r="47" spans="1:12">
+    <row r="47" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C47" t="s">
         <v>208</v>
       </c>
@@ -8194,17 +8196,17 @@
       <c r="I47" s="30"/>
       <c r="J47" s="30"/>
     </row>
-    <row r="48" spans="1:12">
+    <row r="48" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C48" t="s">
         <v>212</v>
       </c>
     </row>
-    <row r="50" spans="1:10">
+    <row r="50" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>203</v>
       </c>
     </row>
-    <row r="51" spans="1:10">
+    <row r="51" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>158</v>
       </c>
@@ -8212,7 +8214,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="52" spans="1:10">
+    <row r="52" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>158</v>
       </c>
@@ -8229,7 +8231,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="53" spans="1:10">
+    <row r="53" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B53" s="39" t="s">
         <v>206</v>
       </c>
@@ -8237,41 +8239,41 @@
         <v>211</v>
       </c>
     </row>
-    <row r="54" spans="1:10">
+    <row r="54" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B54" s="39" t="s">
         <v>213</v>
       </c>
     </row>
-    <row r="55" spans="1:10">
+    <row r="55" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B55" s="39" t="s">
         <v>214</v>
       </c>
     </row>
-    <row r="56" spans="1:10">
+    <row r="56" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B56" s="39"/>
       <c r="J56" s="40"/>
     </row>
-    <row r="57" spans="1:10">
+    <row r="57" spans="1:10" x14ac:dyDescent="0.25">
       <c r="J57" s="40"/>
     </row>
-    <row r="58" spans="1:10">
+    <row r="58" spans="1:10" x14ac:dyDescent="0.25">
       <c r="H58"/>
       <c r="J58" s="40"/>
     </row>
-    <row r="59" spans="1:10">
+    <row r="59" spans="1:10" x14ac:dyDescent="0.25">
       <c r="H59"/>
       <c r="J59" s="40"/>
     </row>
-    <row r="60" spans="1:10">
+    <row r="60" spans="1:10" x14ac:dyDescent="0.25">
       <c r="H60"/>
     </row>
-    <row r="61" spans="1:10">
+    <row r="61" spans="1:10" x14ac:dyDescent="0.25">
       <c r="H61"/>
     </row>
-    <row r="62" spans="1:10">
+    <row r="62" spans="1:10" x14ac:dyDescent="0.25">
       <c r="H62"/>
     </row>
-    <row r="95" spans="16:16">
+    <row r="95" spans="16:16" x14ac:dyDescent="0.25">
       <c r="P95" s="41"/>
     </row>
   </sheetData>
@@ -8288,7 +8290,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet3"/>
   <dimension ref="A1:AH18"/>
   <sheetViews>
@@ -8296,22 +8298,22 @@
       <selection activeCell="AD44" sqref="AD44"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="16384" width="9.140625" style="42"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:34">
+    <row r="1" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A1" s="43" t="s">
         <v>219</v>
       </c>
     </row>
-    <row r="2" spans="1:34">
+    <row r="2" spans="1:34" x14ac:dyDescent="0.25">
       <c r="O2" s="42" t="s">
         <v>215</v>
       </c>
     </row>
-    <row r="3" spans="1:34">
+    <row r="3" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A3" s="42" t="s">
         <v>220</v>
       </c>
@@ -8319,7 +8321,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="4" spans="1:34">
+    <row r="4" spans="1:34" x14ac:dyDescent="0.25">
       <c r="P4" s="42" t="s">
         <v>218</v>
       </c>
@@ -8333,12 +8335,12 @@
       <c r="AG4" s="5"/>
       <c r="AH4" s="5"/>
     </row>
-    <row r="5" spans="1:34">
+    <row r="5" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A5" s="42" t="s">
         <v>221</v>
       </c>
     </row>
-    <row r="6" spans="1:34">
+    <row r="6" spans="1:34" x14ac:dyDescent="0.25">
       <c r="B6" s="42" t="s">
         <v>224</v>
       </c>
@@ -8346,42 +8348,42 @@
         <v>225</v>
       </c>
     </row>
-    <row r="7" spans="1:34">
+    <row r="7" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A7" s="42" t="s">
         <v>222</v>
       </c>
     </row>
-    <row r="8" spans="1:34">
+    <row r="8" spans="1:34" x14ac:dyDescent="0.25">
       <c r="B8" s="42" t="s">
         <v>223</v>
       </c>
     </row>
-    <row r="12" spans="1:34">
+    <row r="12" spans="1:34" x14ac:dyDescent="0.25">
       <c r="O12" s="42" t="s">
         <v>216</v>
       </c>
     </row>
-    <row r="13" spans="1:34">
+    <row r="13" spans="1:34" x14ac:dyDescent="0.25">
       <c r="P13" s="42" t="s">
         <v>217</v>
       </c>
     </row>
-    <row r="14" spans="1:34">
+    <row r="14" spans="1:34" x14ac:dyDescent="0.25">
       <c r="Q14" s="42" t="s">
         <v>226</v>
       </c>
     </row>
-    <row r="16" spans="1:34">
+    <row r="16" spans="1:34" x14ac:dyDescent="0.25">
       <c r="P16" s="42" t="s">
         <v>227</v>
       </c>
     </row>
-    <row r="17" spans="4:16">
+    <row r="17" spans="4:16" x14ac:dyDescent="0.25">
       <c r="P17" s="42" t="s">
         <v>228</v>
       </c>
     </row>
-    <row r="18" spans="4:16">
+    <row r="18" spans="4:16" x14ac:dyDescent="0.25">
       <c r="D18" s="44"/>
     </row>
   </sheetData>
@@ -8392,7 +8394,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet4"/>
   <dimension ref="A1:AF109"/>
   <sheetViews>
@@ -8400,14 +8402,14 @@
       <selection activeCell="G52" sqref="G52"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:31">
+    <row r="1" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>230</v>
       </c>
     </row>
-    <row r="2" spans="1:31">
+    <row r="2" spans="1:31" x14ac:dyDescent="0.25">
       <c r="B2" s="25" t="s">
         <v>229</v>
       </c>
@@ -8415,7 +8417,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="4" spans="1:31">
+    <row r="4" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>231</v>
       </c>
@@ -8423,7 +8425,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="7" spans="1:31">
+    <row r="7" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>234</v>
       </c>
@@ -8431,7 +8433,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="8" spans="1:31">
+    <row r="8" spans="1:31" x14ac:dyDescent="0.25">
       <c r="B8" s="25" t="s">
         <v>233</v>
       </c>
@@ -8447,7 +8449,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="9" spans="1:31">
+    <row r="9" spans="1:31" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
         <v>235</v>
       </c>
@@ -8461,7 +8463,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="10" spans="1:31">
+    <row r="10" spans="1:31" x14ac:dyDescent="0.25">
       <c r="C10" s="3" t="s">
         <v>236</v>
       </c>
@@ -8475,7 +8477,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="11" spans="1:31">
+    <row r="11" spans="1:31" x14ac:dyDescent="0.25">
       <c r="C11" s="3" t="s">
         <v>237</v>
       </c>
@@ -8493,7 +8495,7 @@
       </c>
       <c r="AE11" s="5"/>
     </row>
-    <row r="12" spans="1:31">
+    <row r="12" spans="1:31" x14ac:dyDescent="0.25">
       <c r="R12" t="s">
         <v>252</v>
       </c>
@@ -8504,7 +8506,7 @@
         <v>287</v>
       </c>
     </row>
-    <row r="13" spans="1:31">
+    <row r="13" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>239</v>
       </c>
@@ -8518,7 +8520,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="14" spans="1:31">
+    <row r="14" spans="1:31" x14ac:dyDescent="0.25">
       <c r="B14" s="4" t="s">
         <v>240</v>
       </c>
@@ -8541,7 +8543,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="15" spans="1:31">
+    <row r="15" spans="1:31" x14ac:dyDescent="0.25">
       <c r="C15" t="s">
         <v>244</v>
       </c>
@@ -8561,7 +8563,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="16" spans="1:31">
+    <row r="16" spans="1:31" x14ac:dyDescent="0.25">
       <c r="C16" t="s">
         <v>246</v>
       </c>
@@ -8578,7 +8580,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="17" spans="1:32">
+    <row r="17" spans="1:32" x14ac:dyDescent="0.25">
       <c r="B17" s="4" t="s">
         <v>241</v>
       </c>
@@ -8603,7 +8605,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="18" spans="1:32">
+    <row r="18" spans="1:32" x14ac:dyDescent="0.25">
       <c r="C18" t="s">
         <v>247</v>
       </c>
@@ -8617,7 +8619,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="19" spans="1:32">
+    <row r="19" spans="1:32" x14ac:dyDescent="0.25">
       <c r="R19" t="s">
         <v>259</v>
       </c>
@@ -8625,7 +8627,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="20" spans="1:32">
+    <row r="20" spans="1:32" x14ac:dyDescent="0.25">
       <c r="R20" t="s">
         <v>260</v>
       </c>
@@ -8636,12 +8638,12 @@
         <v>295</v>
       </c>
     </row>
-    <row r="21" spans="1:32">
+    <row r="21" spans="1:32" x14ac:dyDescent="0.25">
       <c r="R21" t="s">
         <v>261</v>
       </c>
     </row>
-    <row r="22" spans="1:32">
+    <row r="22" spans="1:32" x14ac:dyDescent="0.25">
       <c r="B22" t="s">
         <v>242</v>
       </c>
@@ -8655,7 +8657,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="23" spans="1:32">
+    <row r="23" spans="1:32" x14ac:dyDescent="0.25">
       <c r="R23" t="s">
         <v>263</v>
       </c>
@@ -8663,7 +8665,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="24" spans="1:32">
+    <row r="24" spans="1:32" x14ac:dyDescent="0.25">
       <c r="R24" t="s">
         <v>264</v>
       </c>
@@ -8671,7 +8673,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="25" spans="1:32">
+    <row r="25" spans="1:32" x14ac:dyDescent="0.25">
       <c r="R25" t="s">
         <v>265</v>
       </c>
@@ -8681,7 +8683,7 @@
       <c r="AE25" s="5"/>
       <c r="AF25" s="5"/>
     </row>
-    <row r="26" spans="1:32">
+    <row r="26" spans="1:32" x14ac:dyDescent="0.25">
       <c r="R26" t="s">
         <v>266</v>
       </c>
@@ -8689,7 +8691,7 @@
         <v>298</v>
       </c>
     </row>
-    <row r="27" spans="1:32">
+    <row r="27" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A27" s="13" t="s">
         <v>305</v>
       </c>
@@ -8705,7 +8707,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="28" spans="1:32">
+    <row r="28" spans="1:32" x14ac:dyDescent="0.25">
       <c r="B28" t="s">
         <v>306</v>
       </c>
@@ -8716,7 +8718,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="29" spans="1:32">
+    <row r="29" spans="1:32" x14ac:dyDescent="0.25">
       <c r="B29" t="s">
         <v>307</v>
       </c>
@@ -8727,7 +8729,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="30" spans="1:32">
+    <row r="30" spans="1:32" x14ac:dyDescent="0.25">
       <c r="B30" t="s">
         <v>308</v>
       </c>
@@ -8738,7 +8740,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="31" spans="1:32">
+    <row r="31" spans="1:32" x14ac:dyDescent="0.25">
       <c r="C31" t="s">
         <v>309</v>
       </c>
@@ -8746,7 +8748,7 @@
         <v>302</v>
       </c>
     </row>
-    <row r="32" spans="1:32">
+    <row r="32" spans="1:32" x14ac:dyDescent="0.25">
       <c r="C32" t="s">
         <v>310</v>
       </c>
@@ -8754,7 +8756,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="33" spans="1:30">
+    <row r="33" spans="1:30" x14ac:dyDescent="0.25">
       <c r="B33" t="s">
         <v>311</v>
       </c>
@@ -8762,7 +8764,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="34" spans="1:30">
+    <row r="34" spans="1:30" x14ac:dyDescent="0.25">
       <c r="B34" t="s">
         <v>312</v>
       </c>
@@ -8770,72 +8772,72 @@
         <v>295</v>
       </c>
     </row>
-    <row r="35" spans="1:30">
+    <row r="35" spans="1:30" x14ac:dyDescent="0.25">
       <c r="C35" t="s">
         <v>313</v>
       </c>
     </row>
-    <row r="36" spans="1:30">
+    <row r="36" spans="1:30" x14ac:dyDescent="0.25">
       <c r="D36" t="s">
         <v>314</v>
       </c>
     </row>
-    <row r="37" spans="1:30">
+    <row r="37" spans="1:30" x14ac:dyDescent="0.25">
       <c r="D37" t="s">
         <v>315</v>
       </c>
     </row>
-    <row r="38" spans="1:30">
+    <row r="38" spans="1:30" x14ac:dyDescent="0.25">
       <c r="C38" t="s">
         <v>311</v>
       </c>
     </row>
-    <row r="39" spans="1:30">
+    <row r="39" spans="1:30" x14ac:dyDescent="0.25">
       <c r="C39" t="s">
         <v>316</v>
       </c>
     </row>
-    <row r="40" spans="1:30">
+    <row r="40" spans="1:30" x14ac:dyDescent="0.25">
       <c r="D40" t="s">
         <v>314</v>
       </c>
     </row>
-    <row r="41" spans="1:30">
+    <row r="41" spans="1:30" x14ac:dyDescent="0.25">
       <c r="D41" t="s">
         <v>315</v>
       </c>
     </row>
-    <row r="42" spans="1:30">
+    <row r="42" spans="1:30" x14ac:dyDescent="0.25">
       <c r="C42" t="s">
         <v>311</v>
       </c>
     </row>
-    <row r="43" spans="1:30">
+    <row r="43" spans="1:30" x14ac:dyDescent="0.25">
       <c r="C43" t="s">
         <v>317</v>
       </c>
     </row>
-    <row r="44" spans="1:30">
+    <row r="44" spans="1:30" x14ac:dyDescent="0.25">
       <c r="C44" t="s">
         <v>318</v>
       </c>
     </row>
-    <row r="45" spans="1:30">
+    <row r="45" spans="1:30" x14ac:dyDescent="0.25">
       <c r="C45" t="s">
         <v>319</v>
       </c>
     </row>
-    <row r="46" spans="1:30">
+    <row r="46" spans="1:30" x14ac:dyDescent="0.25">
       <c r="B46" t="s">
         <v>311</v>
       </c>
     </row>
-    <row r="47" spans="1:30">
+    <row r="47" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>311</v>
       </c>
     </row>
-    <row r="49" spans="1:7">
+    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A49" s="13" t="s">
         <v>320</v>
       </c>
@@ -8845,17 +8847,17 @@
       <c r="E49" s="13"/>
       <c r="F49" s="13"/>
     </row>
-    <row r="50" spans="1:7">
+    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B50" t="s">
         <v>321</v>
       </c>
     </row>
-    <row r="51" spans="1:7">
+    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B51" t="s">
         <v>322</v>
       </c>
     </row>
-    <row r="52" spans="1:7">
+    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B52" s="5" t="s">
         <v>323</v>
       </c>
@@ -8864,32 +8866,32 @@
         <v>324</v>
       </c>
     </row>
-    <row r="53" spans="1:7">
+    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C53" t="s">
         <v>325</v>
       </c>
     </row>
-    <row r="54" spans="1:7">
+    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
       <c r="D54" t="s">
         <v>326</v>
       </c>
     </row>
-    <row r="55" spans="1:7">
+    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
       <c r="E55" t="s">
         <v>327</v>
       </c>
     </row>
-    <row r="56" spans="1:7">
+    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B56" t="s">
         <v>322</v>
       </c>
     </row>
-    <row r="57" spans="1:7">
+    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>311</v>
       </c>
     </row>
-    <row r="59" spans="1:7">
+    <row r="59" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A59" s="13" t="s">
         <v>328</v>
       </c>
@@ -8899,62 +8901,62 @@
       <c r="E59" s="13"/>
       <c r="F59" s="13"/>
     </row>
-    <row r="60" spans="1:7">
+    <row r="60" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>329</v>
       </c>
     </row>
-    <row r="61" spans="1:7">
+    <row r="61" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>330</v>
       </c>
     </row>
-    <row r="62" spans="1:7">
+    <row r="62" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>331</v>
       </c>
     </row>
-    <row r="63" spans="1:7">
+    <row r="63" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>332</v>
       </c>
     </row>
-    <row r="64" spans="1:7">
+    <row r="64" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>333</v>
       </c>
     </row>
-    <row r="65" spans="1:9">
+    <row r="65" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>334</v>
       </c>
     </row>
-    <row r="66" spans="1:9">
+    <row r="66" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>335</v>
       </c>
     </row>
-    <row r="67" spans="1:9">
+    <row r="67" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>334</v>
       </c>
     </row>
-    <row r="68" spans="1:9">
+    <row r="68" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>336</v>
       </c>
     </row>
-    <row r="69" spans="1:9">
+    <row r="69" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>337</v>
       </c>
     </row>
-    <row r="70" spans="1:9">
+    <row r="70" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>338</v>
       </c>
     </row>
-    <row r="71" spans="1:9">
+    <row r="71" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>339</v>
       </c>
@@ -8962,7 +8964,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="72" spans="1:9">
+    <row r="72" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>340</v>
       </c>
@@ -8970,182 +8972,182 @@
         <v>372</v>
       </c>
     </row>
-    <row r="73" spans="1:9">
+    <row r="73" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>341</v>
       </c>
     </row>
-    <row r="74" spans="1:9">
+    <row r="74" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>342</v>
       </c>
     </row>
-    <row r="75" spans="1:9">
+    <row r="75" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>343</v>
       </c>
     </row>
-    <row r="76" spans="1:9">
+    <row r="76" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>344</v>
       </c>
     </row>
-    <row r="77" spans="1:9">
+    <row r="77" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
         <v>345</v>
       </c>
     </row>
-    <row r="78" spans="1:9">
+    <row r="78" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
         <v>341</v>
       </c>
     </row>
-    <row r="79" spans="1:9">
+    <row r="79" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
         <v>346</v>
       </c>
     </row>
-    <row r="80" spans="1:9">
+    <row r="80" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
         <v>347</v>
       </c>
     </row>
-    <row r="81" spans="1:1">
+    <row r="81" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
         <v>348</v>
       </c>
     </row>
-    <row r="82" spans="1:1">
+    <row r="82" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
         <v>349</v>
       </c>
     </row>
-    <row r="83" spans="1:1">
+    <row r="83" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
         <v>350</v>
       </c>
     </row>
-    <row r="84" spans="1:1">
+    <row r="84" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
         <v>351</v>
       </c>
     </row>
-    <row r="85" spans="1:1">
+    <row r="85" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
         <v>352</v>
       </c>
     </row>
-    <row r="86" spans="1:1">
+    <row r="86" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
         <v>348</v>
       </c>
     </row>
-    <row r="87" spans="1:1">
+    <row r="87" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
         <v>353</v>
       </c>
     </row>
-    <row r="88" spans="1:1">
+    <row r="88" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
         <v>354</v>
       </c>
     </row>
-    <row r="89" spans="1:1">
+    <row r="89" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
         <v>355</v>
       </c>
     </row>
-    <row r="90" spans="1:1">
+    <row r="90" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
         <v>356</v>
       </c>
     </row>
-    <row r="91" spans="1:1">
+    <row r="91" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
         <v>357</v>
       </c>
     </row>
-    <row r="92" spans="1:1">
+    <row r="92" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
         <v>358</v>
       </c>
     </row>
-    <row r="93" spans="1:1">
+    <row r="93" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
         <v>359</v>
       </c>
     </row>
-    <row r="94" spans="1:1">
+    <row r="94" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
         <v>360</v>
       </c>
     </row>
-    <row r="95" spans="1:1">
+    <row r="95" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
         <v>361</v>
       </c>
     </row>
-    <row r="96" spans="1:1">
+    <row r="96" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
         <v>362</v>
       </c>
     </row>
-    <row r="97" spans="1:1">
+    <row r="97" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
         <v>363</v>
       </c>
     </row>
-    <row r="98" spans="1:1">
+    <row r="98" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
         <v>351</v>
       </c>
     </row>
-    <row r="99" spans="1:1">
+    <row r="99" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
         <v>344</v>
       </c>
     </row>
-    <row r="100" spans="1:1">
+    <row r="100" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
         <v>364</v>
       </c>
     </row>
-    <row r="101" spans="1:1">
+    <row r="101" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
         <v>365</v>
       </c>
     </row>
-    <row r="102" spans="1:1">
+    <row r="102" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
         <v>338</v>
       </c>
     </row>
-    <row r="103" spans="1:1">
+    <row r="103" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
         <v>366</v>
       </c>
     </row>
-    <row r="104" spans="1:1">
+    <row r="104" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
         <v>367</v>
       </c>
     </row>
-    <row r="105" spans="1:1">
+    <row r="105" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
         <v>364</v>
       </c>
     </row>
-    <row r="107" spans="1:1">
+    <row r="107" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
         <v>368</v>
       </c>
     </row>
-    <row r="108" spans="1:1">
+    <row r="108" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
         <v>369</v>
       </c>
     </row>
-    <row r="109" spans="1:1">
+    <row r="109" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
         <v>370</v>
       </c>
@@ -9160,16 +9162,16 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Z133"/>
   <sheetViews>
     <sheetView topLeftCell="A70" workbookViewId="0">
       <selection activeCell="A57" sqref="A57:F122"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:25">
+    <row r="1" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A1" s="46" t="s">
         <v>375</v>
       </c>
@@ -9178,12 +9180,12 @@
       <c r="D1" s="46"/>
       <c r="E1" s="46"/>
     </row>
-    <row r="3" spans="1:25">
+    <row r="3" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>413</v>
       </c>
     </row>
-    <row r="5" spans="1:25">
+    <row r="5" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>414</v>
       </c>
@@ -9191,7 +9193,7 @@
         <v>448</v>
       </c>
     </row>
-    <row r="6" spans="1:25">
+    <row r="6" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>420</v>
       </c>
@@ -9199,7 +9201,7 @@
         <v>446</v>
       </c>
     </row>
-    <row r="7" spans="1:25">
+    <row r="7" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>378</v>
       </c>
@@ -9207,7 +9209,7 @@
         <v>447</v>
       </c>
     </row>
-    <row r="8" spans="1:25">
+    <row r="8" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
         <v>409</v>
       </c>
@@ -9218,7 +9220,7 @@
         <v>452</v>
       </c>
     </row>
-    <row r="9" spans="1:25">
+    <row r="9" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
         <v>415</v>
       </c>
@@ -9229,12 +9231,12 @@
         <v>453</v>
       </c>
     </row>
-    <row r="10" spans="1:25">
+    <row r="10" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B10" t="s">
         <v>410</v>
       </c>
     </row>
-    <row r="11" spans="1:25">
+    <row r="11" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B11" t="s">
         <v>416</v>
       </c>
@@ -9242,17 +9244,17 @@
         <v>451</v>
       </c>
     </row>
-    <row r="13" spans="1:25">
+    <row r="13" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B13" t="s">
         <v>417</v>
       </c>
     </row>
-    <row r="14" spans="1:25">
+    <row r="14" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B14" t="s">
         <v>378</v>
       </c>
     </row>
-    <row r="15" spans="1:25">
+    <row r="15" spans="1:25" x14ac:dyDescent="0.25">
       <c r="C15" t="s">
         <v>411</v>
       </c>
@@ -9260,7 +9262,7 @@
         <v>442</v>
       </c>
     </row>
-    <row r="16" spans="1:25">
+    <row r="16" spans="1:25" x14ac:dyDescent="0.25">
       <c r="C16" t="s">
         <v>418</v>
       </c>
@@ -9268,7 +9270,7 @@
         <v>443</v>
       </c>
     </row>
-    <row r="17" spans="1:26">
+    <row r="17" spans="1:26" x14ac:dyDescent="0.25">
       <c r="C17" t="s">
         <v>412</v>
       </c>
@@ -9276,7 +9278,7 @@
         <v>444</v>
       </c>
     </row>
-    <row r="18" spans="1:26">
+    <row r="18" spans="1:26" x14ac:dyDescent="0.25">
       <c r="C18" t="s">
         <v>419</v>
       </c>
@@ -9284,17 +9286,17 @@
         <v>445</v>
       </c>
     </row>
-    <row r="19" spans="1:26">
+    <row r="19" spans="1:26" x14ac:dyDescent="0.25">
       <c r="B19" t="s">
         <v>311</v>
       </c>
     </row>
-    <row r="20" spans="1:26">
+    <row r="20" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>311</v>
       </c>
     </row>
-    <row r="22" spans="1:26">
+    <row r="22" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>437</v>
       </c>
@@ -9308,7 +9310,7 @@
         <v>468</v>
       </c>
     </row>
-    <row r="23" spans="1:26">
+    <row r="23" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>425</v>
       </c>
@@ -9325,7 +9327,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="24" spans="1:26">
+    <row r="24" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>378</v>
       </c>
@@ -9339,7 +9341,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="25" spans="1:26">
+    <row r="25" spans="1:26" x14ac:dyDescent="0.25">
       <c r="B25" t="s">
         <v>426</v>
       </c>
@@ -9353,7 +9355,7 @@
         <v>478</v>
       </c>
     </row>
-    <row r="26" spans="1:26">
+    <row r="26" spans="1:26" x14ac:dyDescent="0.25">
       <c r="C26" t="s">
         <v>430</v>
       </c>
@@ -9367,7 +9369,7 @@
         <v>482</v>
       </c>
     </row>
-    <row r="27" spans="1:26">
+    <row r="27" spans="1:26" x14ac:dyDescent="0.25">
       <c r="B27" t="s">
         <v>381</v>
       </c>
@@ -9381,7 +9383,7 @@
         <v>457</v>
       </c>
     </row>
-    <row r="28" spans="1:26">
+    <row r="28" spans="1:26" x14ac:dyDescent="0.25">
       <c r="C28" t="s">
         <v>431</v>
       </c>
@@ -9395,7 +9397,7 @@
         <v>483</v>
       </c>
     </row>
-    <row r="29" spans="1:26">
+    <row r="29" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>311</v>
       </c>
@@ -9409,7 +9411,7 @@
         <v>484</v>
       </c>
     </row>
-    <row r="30" spans="1:26">
+    <row r="30" spans="1:26" x14ac:dyDescent="0.25">
       <c r="P30" t="s">
         <v>474</v>
       </c>
@@ -9420,7 +9422,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="31" spans="1:26">
+    <row r="31" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A31" s="41" t="s">
         <v>390</v>
       </c>
@@ -9443,7 +9445,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="32" spans="1:26">
+    <row r="32" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A32" s="41" t="s">
         <v>378</v>
       </c>
@@ -9460,7 +9462,7 @@
         <v>476</v>
       </c>
     </row>
-    <row r="33" spans="1:19">
+    <row r="33" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A33" s="41"/>
       <c r="B33" s="5" t="s">
         <v>421</v>
@@ -9477,7 +9479,7 @@
         <v>477</v>
       </c>
     </row>
-    <row r="34" spans="1:19">
+    <row r="34" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A34" s="41"/>
       <c r="B34" s="41" t="s">
         <v>378</v>
@@ -9494,7 +9496,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="35" spans="1:19">
+    <row r="35" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A35" s="41"/>
       <c r="B35" s="41"/>
       <c r="C35" s="41" t="s">
@@ -9515,7 +9517,7 @@
         <v>37500</v>
       </c>
     </row>
-    <row r="36" spans="1:19">
+    <row r="36" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A36" s="41"/>
       <c r="B36" s="41"/>
       <c r="C36" s="41" t="s">
@@ -9529,7 +9531,7 @@
         <v>408</v>
       </c>
     </row>
-    <row r="37" spans="1:19">
+    <row r="37" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A37" s="41"/>
       <c r="B37" s="41"/>
       <c r="C37" s="41"/>
@@ -9543,7 +9545,7 @@
         <v>428</v>
       </c>
     </row>
-    <row r="38" spans="1:19">
+    <row r="38" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A38" s="41"/>
       <c r="B38" s="41"/>
       <c r="C38" s="41"/>
@@ -9557,7 +9559,7 @@
         <v>429</v>
       </c>
     </row>
-    <row r="39" spans="1:19">
+    <row r="39" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A39" s="41"/>
       <c r="B39" s="41"/>
       <c r="C39" s="41"/>
@@ -9568,7 +9570,7 @@
       <c r="F39" s="41"/>
       <c r="G39" s="41"/>
     </row>
-    <row r="40" spans="1:19">
+    <row r="40" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A40" s="41"/>
       <c r="B40" s="41"/>
       <c r="C40" s="41"/>
@@ -9579,7 +9581,7 @@
       <c r="F40" s="41"/>
       <c r="G40" s="41"/>
     </row>
-    <row r="41" spans="1:19">
+    <row r="41" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A41" s="41"/>
       <c r="B41" s="41"/>
       <c r="C41" s="41"/>
@@ -9590,7 +9592,7 @@
       <c r="F41" s="41"/>
       <c r="G41" s="41"/>
     </row>
-    <row r="42" spans="1:19">
+    <row r="42" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A42" s="41"/>
       <c r="B42" s="41"/>
       <c r="C42" s="41"/>
@@ -9601,7 +9603,7 @@
       <c r="F42" s="41"/>
       <c r="G42" s="41"/>
     </row>
-    <row r="43" spans="1:19">
+    <row r="43" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A43" s="41"/>
       <c r="B43" s="41"/>
       <c r="C43" s="41"/>
@@ -9612,7 +9614,7 @@
       <c r="F43" s="41"/>
       <c r="G43" s="41"/>
     </row>
-    <row r="44" spans="1:19">
+    <row r="44" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A44" s="41"/>
       <c r="B44" s="41"/>
       <c r="C44" s="41"/>
@@ -9623,7 +9625,7 @@
       <c r="F44" s="41"/>
       <c r="G44" s="41"/>
     </row>
-    <row r="45" spans="1:19">
+    <row r="45" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A45" s="41"/>
       <c r="B45" s="41"/>
       <c r="C45" s="41" t="s">
@@ -9634,7 +9636,7 @@
       <c r="F45" s="41"/>
       <c r="G45" s="41"/>
     </row>
-    <row r="46" spans="1:19">
+    <row r="46" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A46" s="41"/>
       <c r="B46" s="41"/>
       <c r="C46" s="41" t="s">
@@ -9645,7 +9647,7 @@
       <c r="F46" s="41"/>
       <c r="G46" s="41"/>
     </row>
-    <row r="47" spans="1:19">
+    <row r="47" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A47" s="41"/>
       <c r="B47" s="41"/>
       <c r="C47" s="41" t="s">
@@ -9656,7 +9658,7 @@
       <c r="F47" s="41"/>
       <c r="G47" s="41"/>
     </row>
-    <row r="48" spans="1:19">
+    <row r="48" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A48" s="41"/>
       <c r="B48" s="41"/>
       <c r="C48" s="41"/>
@@ -9667,7 +9669,7 @@
       <c r="F48" s="41"/>
       <c r="G48" s="41"/>
     </row>
-    <row r="49" spans="1:26">
+    <row r="49" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A49" s="41"/>
       <c r="B49" s="41"/>
       <c r="C49" s="41" t="s">
@@ -9678,7 +9680,7 @@
       <c r="F49" s="41"/>
       <c r="G49" s="41"/>
     </row>
-    <row r="50" spans="1:26">
+    <row r="50" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A50" s="41"/>
       <c r="B50" s="41" t="s">
         <v>311</v>
@@ -9689,7 +9691,7 @@
       <c r="F50" s="41"/>
       <c r="G50" s="41"/>
     </row>
-    <row r="51" spans="1:26">
+    <row r="51" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A51" s="41"/>
       <c r="B51" s="41" t="s">
         <v>381</v>
@@ -9700,7 +9702,7 @@
       <c r="F51" s="41"/>
       <c r="G51" s="41"/>
     </row>
-    <row r="52" spans="1:26">
+    <row r="52" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A52" s="41"/>
       <c r="B52" s="41" t="s">
         <v>378</v>
@@ -9711,7 +9713,7 @@
       <c r="F52" s="41"/>
       <c r="G52" s="41"/>
     </row>
-    <row r="53" spans="1:26">
+    <row r="53" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A53" s="41"/>
       <c r="B53" s="41"/>
       <c r="C53" s="41" t="s">
@@ -9722,7 +9724,7 @@
       <c r="F53" s="41"/>
       <c r="G53" s="41"/>
     </row>
-    <row r="54" spans="1:26">
+    <row r="54" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A54" s="41"/>
       <c r="B54" s="41" t="s">
         <v>311</v>
@@ -9733,7 +9735,7 @@
       <c r="F54" s="41"/>
       <c r="G54" s="41"/>
     </row>
-    <row r="55" spans="1:26">
+    <row r="55" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A55" s="41" t="s">
         <v>311</v>
       </c>
@@ -9744,7 +9746,7 @@
       <c r="F55" s="41"/>
       <c r="G55" s="41"/>
     </row>
-    <row r="56" spans="1:26">
+    <row r="56" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A56" s="41"/>
       <c r="B56" s="41"/>
       <c r="C56" s="41"/>
@@ -9753,7 +9755,7 @@
       <c r="F56" s="41"/>
       <c r="G56" s="41"/>
     </row>
-    <row r="57" spans="1:26">
+    <row r="57" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A57" s="41" t="s">
         <v>393</v>
       </c>
@@ -9776,7 +9778,7 @@
         <v>468</v>
       </c>
     </row>
-    <row r="58" spans="1:26">
+    <row r="58" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A58" s="41" t="s">
         <v>378</v>
       </c>
@@ -9799,7 +9801,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="59" spans="1:26">
+    <row r="59" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A59" s="41"/>
       <c r="B59" s="41" t="s">
         <v>394</v>
@@ -9822,7 +9824,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="60" spans="1:26">
+    <row r="60" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A60" s="41"/>
       <c r="B60" s="41"/>
       <c r="C60" s="41"/>
@@ -9846,7 +9848,7 @@
         <v>469</v>
       </c>
     </row>
-    <row r="61" spans="1:26">
+    <row r="61" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A61" s="41"/>
       <c r="B61" s="5" t="s">
         <v>395</v>
@@ -9869,7 +9871,7 @@
         <v>470</v>
       </c>
     </row>
-    <row r="62" spans="1:26">
+    <row r="62" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A62" s="41"/>
       <c r="B62" s="41" t="s">
         <v>378</v>
@@ -9892,7 +9894,7 @@
         <v>471</v>
       </c>
     </row>
-    <row r="63" spans="1:26">
+    <row r="63" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A63" s="41"/>
       <c r="B63" s="41"/>
       <c r="C63" s="5" t="s">
@@ -9915,7 +9917,7 @@
         <v>472</v>
       </c>
     </row>
-    <row r="64" spans="1:26">
+    <row r="64" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A64" s="41"/>
       <c r="B64" s="41"/>
       <c r="C64" s="41" t="s">
@@ -9938,7 +9940,7 @@
         <v>473</v>
       </c>
     </row>
-    <row r="65" spans="1:26">
+    <row r="65" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A65" s="41"/>
       <c r="B65" s="41"/>
       <c r="C65" s="41"/>
@@ -9958,7 +9960,7 @@
         <v>491</v>
       </c>
     </row>
-    <row r="66" spans="1:26">
+    <row r="66" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A66" s="41"/>
       <c r="B66" s="41"/>
       <c r="C66" s="41" t="s">
@@ -9978,7 +9980,7 @@
         <v>492</v>
       </c>
     </row>
-    <row r="67" spans="1:26">
+    <row r="67" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A67" s="41"/>
       <c r="B67" s="41"/>
       <c r="C67" s="41" t="s">
@@ -9998,7 +10000,7 @@
         <v>493</v>
       </c>
     </row>
-    <row r="68" spans="1:26">
+    <row r="68" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A68" s="41"/>
       <c r="B68" s="41"/>
       <c r="C68" s="41" t="s">
@@ -10018,7 +10020,7 @@
         <v>489</v>
       </c>
     </row>
-    <row r="69" spans="1:26">
+    <row r="69" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A69" s="41"/>
       <c r="B69" s="41"/>
       <c r="C69" s="41"/>
@@ -10038,7 +10040,7 @@
         <v>494</v>
       </c>
     </row>
-    <row r="70" spans="1:26">
+    <row r="70" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A70" s="41"/>
       <c r="B70" s="41"/>
       <c r="C70" s="41" t="s">
@@ -10058,7 +10060,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="71" spans="1:26">
+    <row r="71" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A71" s="41"/>
       <c r="B71" s="41"/>
       <c r="C71" s="41" t="s">
@@ -10069,7 +10071,7 @@
       <c r="F71" s="41"/>
       <c r="G71" s="41"/>
     </row>
-    <row r="72" spans="1:26">
+    <row r="72" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A72" s="41"/>
       <c r="B72" s="41" t="s">
         <v>397</v>
@@ -10080,7 +10082,7 @@
       <c r="F72" s="41"/>
       <c r="G72" s="41"/>
     </row>
-    <row r="73" spans="1:26">
+    <row r="73" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A73" s="41"/>
       <c r="B73" s="41"/>
       <c r="C73" s="41"/>
@@ -10089,7 +10091,7 @@
       <c r="F73" s="41"/>
       <c r="G73" s="41"/>
     </row>
-    <row r="74" spans="1:26">
+    <row r="74" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A74" s="41"/>
       <c r="B74" s="41" t="s">
         <v>398</v>
@@ -10100,7 +10102,7 @@
       <c r="F74" s="41"/>
       <c r="G74" s="41"/>
     </row>
-    <row r="75" spans="1:26">
+    <row r="75" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A75" s="41"/>
       <c r="B75" s="41" t="s">
         <v>399</v>
@@ -10111,7 +10113,7 @@
       <c r="F75" s="41"/>
       <c r="G75" s="41"/>
     </row>
-    <row r="76" spans="1:26">
+    <row r="76" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A76" s="41"/>
       <c r="B76" s="41"/>
       <c r="C76" s="41" t="s">
@@ -10122,7 +10124,7 @@
       <c r="F76" s="41"/>
       <c r="G76" s="41"/>
     </row>
-    <row r="77" spans="1:26">
+    <row r="77" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A77" s="41"/>
       <c r="B77" s="41" t="s">
         <v>397</v>
@@ -10133,7 +10135,7 @@
       <c r="F77" s="41"/>
       <c r="G77" s="41"/>
     </row>
-    <row r="78" spans="1:26">
+    <row r="78" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A78" s="41"/>
       <c r="B78" s="41" t="s">
         <v>400</v>
@@ -10144,7 +10146,7 @@
       <c r="F78" s="41"/>
       <c r="G78" s="41"/>
     </row>
-    <row r="79" spans="1:26">
+    <row r="79" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A79" s="41"/>
       <c r="B79" s="41" t="s">
         <v>378</v>
@@ -10155,7 +10157,7 @@
       <c r="F79" s="41"/>
       <c r="G79" s="41"/>
     </row>
-    <row r="80" spans="1:26">
+    <row r="80" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A80" s="41"/>
       <c r="B80" s="41"/>
       <c r="C80" s="5" t="s">
@@ -10166,7 +10168,7 @@
       <c r="F80" s="41"/>
       <c r="G80" s="41"/>
     </row>
-    <row r="81" spans="1:26">
+    <row r="81" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A81" s="41"/>
       <c r="B81" s="41"/>
       <c r="C81" s="41" t="s">
@@ -10177,7 +10179,7 @@
       <c r="F81" s="41"/>
       <c r="G81" s="41"/>
     </row>
-    <row r="82" spans="1:26">
+    <row r="82" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A82" s="41"/>
       <c r="B82" s="41"/>
       <c r="C82" s="41"/>
@@ -10188,7 +10190,7 @@
       <c r="F82" s="41"/>
       <c r="G82" s="41"/>
     </row>
-    <row r="83" spans="1:26">
+    <row r="83" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A83" s="41"/>
       <c r="B83" s="41"/>
       <c r="C83" s="41"/>
@@ -10199,7 +10201,7 @@
       <c r="F83" s="41"/>
       <c r="G83" s="41"/>
     </row>
-    <row r="84" spans="1:26">
+    <row r="84" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A84" s="41"/>
       <c r="B84" s="41"/>
       <c r="C84" s="41" t="s">
@@ -10210,7 +10212,7 @@
       <c r="F84" s="41"/>
       <c r="G84" s="41"/>
     </row>
-    <row r="85" spans="1:26">
+    <row r="85" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A85" s="41"/>
       <c r="B85" s="41"/>
       <c r="C85" s="41" t="s">
@@ -10221,7 +10223,7 @@
       <c r="F85" s="41"/>
       <c r="G85" s="41"/>
     </row>
-    <row r="86" spans="1:26">
+    <row r="86" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A86" s="41"/>
       <c r="B86" s="41"/>
       <c r="C86" s="41" t="s">
@@ -10232,7 +10234,7 @@
       <c r="F86" s="41"/>
       <c r="G86" s="41"/>
     </row>
-    <row r="87" spans="1:26">
+    <row r="87" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A87" s="41"/>
       <c r="B87" s="41"/>
       <c r="C87" s="41"/>
@@ -10243,7 +10245,7 @@
       <c r="F87" s="41"/>
       <c r="G87" s="41"/>
     </row>
-    <row r="88" spans="1:26">
+    <row r="88" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A88" s="41"/>
       <c r="B88" s="41"/>
       <c r="C88" s="41"/>
@@ -10254,7 +10256,7 @@
       <c r="F88" s="41"/>
       <c r="G88" s="41"/>
     </row>
-    <row r="89" spans="1:26">
+    <row r="89" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A89" s="41"/>
       <c r="B89" s="41"/>
       <c r="C89" s="41"/>
@@ -10265,7 +10267,7 @@
       <c r="F89" s="41"/>
       <c r="G89" s="41"/>
     </row>
-    <row r="90" spans="1:26">
+    <row r="90" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A90" s="41"/>
       <c r="B90" s="41"/>
       <c r="C90" s="41" t="s">
@@ -10276,7 +10278,7 @@
       <c r="F90" s="41"/>
       <c r="G90" s="41"/>
     </row>
-    <row r="91" spans="1:26">
+    <row r="91" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A91" s="41"/>
       <c r="B91" s="41" t="s">
         <v>311</v>
@@ -10287,7 +10289,7 @@
       <c r="F91" s="41"/>
       <c r="G91" s="41"/>
     </row>
-    <row r="92" spans="1:26">
+    <row r="92" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A92" s="41" t="s">
         <v>311</v>
       </c>
@@ -10298,7 +10300,7 @@
       <c r="F92" s="41"/>
       <c r="G92" s="41"/>
     </row>
-    <row r="93" spans="1:26">
+    <row r="93" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A93" s="41"/>
       <c r="B93" s="41"/>
       <c r="C93" s="41"/>
@@ -10307,7 +10309,7 @@
       <c r="F93" s="41"/>
       <c r="G93" s="41"/>
     </row>
-    <row r="94" spans="1:26">
+    <row r="94" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A94" s="41" t="s">
         <v>406</v>
       </c>
@@ -10330,7 +10332,7 @@
         <v>468</v>
       </c>
     </row>
-    <row r="95" spans="1:26">
+    <row r="95" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A95" s="41" t="s">
         <v>378</v>
       </c>
@@ -10353,7 +10355,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="96" spans="1:26">
+    <row r="96" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A96" s="41"/>
       <c r="B96" s="41" t="s">
         <v>376</v>
@@ -10376,7 +10378,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="97" spans="1:26">
+    <row r="97" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A97" s="41"/>
       <c r="B97" s="41"/>
       <c r="C97" s="41"/>
@@ -10397,7 +10399,7 @@
         <v>467</v>
       </c>
     </row>
-    <row r="98" spans="1:26">
+    <row r="98" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A98" s="41"/>
       <c r="B98" s="41" t="s">
         <v>377</v>
@@ -10420,7 +10422,7 @@
         <v>485</v>
       </c>
     </row>
-    <row r="99" spans="1:26">
+    <row r="99" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A99" s="41"/>
       <c r="B99" s="41" t="s">
         <v>378</v>
@@ -10443,7 +10445,7 @@
         <v>457</v>
       </c>
     </row>
-    <row r="100" spans="1:26">
+    <row r="100" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A100" s="41"/>
       <c r="B100" s="41"/>
       <c r="C100" s="5" t="s">
@@ -10466,7 +10468,7 @@
         <v>486</v>
       </c>
     </row>
-    <row r="101" spans="1:26">
+    <row r="101" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A101" s="41"/>
       <c r="B101" s="41"/>
       <c r="C101" s="41" t="s">
@@ -10489,7 +10491,7 @@
         <v>487</v>
       </c>
     </row>
-    <row r="102" spans="1:26">
+    <row r="102" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A102" s="41"/>
       <c r="B102" s="41"/>
       <c r="C102" s="41"/>
@@ -10509,7 +10511,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="103" spans="1:26">
+    <row r="103" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A103" s="41"/>
       <c r="B103" s="41"/>
       <c r="C103" s="41" t="s">
@@ -10529,7 +10531,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="104" spans="1:26">
+    <row r="104" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A104" s="41"/>
       <c r="B104" s="41"/>
       <c r="C104" s="41" t="s">
@@ -10540,7 +10542,7 @@
       <c r="F104" s="41"/>
       <c r="G104" s="41"/>
     </row>
-    <row r="105" spans="1:26">
+    <row r="105" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A105" s="41"/>
       <c r="B105" s="41"/>
       <c r="C105" s="41" t="s">
@@ -10551,7 +10553,7 @@
       <c r="F105" s="41"/>
       <c r="G105" s="41"/>
     </row>
-    <row r="106" spans="1:26">
+    <row r="106" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A106" s="41"/>
       <c r="B106" s="41"/>
       <c r="C106" s="41"/>
@@ -10562,7 +10564,7 @@
       <c r="F106" s="5"/>
       <c r="G106" s="41"/>
     </row>
-    <row r="107" spans="1:26">
+    <row r="107" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A107" s="41"/>
       <c r="B107" s="41"/>
       <c r="C107" s="41"/>
@@ -10573,7 +10575,7 @@
       <c r="F107" s="41"/>
       <c r="G107" s="41"/>
     </row>
-    <row r="108" spans="1:26">
+    <row r="108" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A108" s="41"/>
       <c r="B108" s="41"/>
       <c r="C108" s="41"/>
@@ -10584,7 +10586,7 @@
       <c r="F108" s="41"/>
       <c r="G108" s="41"/>
     </row>
-    <row r="109" spans="1:26">
+    <row r="109" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A109" s="41"/>
       <c r="B109" s="41"/>
       <c r="C109" s="41"/>
@@ -10595,7 +10597,7 @@
       <c r="F109" s="41"/>
       <c r="G109" s="41"/>
     </row>
-    <row r="110" spans="1:26">
+    <row r="110" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A110" s="41"/>
       <c r="B110" s="41"/>
       <c r="C110" s="41"/>
@@ -10606,7 +10608,7 @@
       <c r="F110" s="41"/>
       <c r="G110" s="41"/>
     </row>
-    <row r="111" spans="1:26">
+    <row r="111" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A111" s="41"/>
       <c r="B111" s="41"/>
       <c r="C111" s="41"/>
@@ -10617,7 +10619,7 @@
       <c r="F111" s="41"/>
       <c r="G111" s="41"/>
     </row>
-    <row r="112" spans="1:26">
+    <row r="112" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A112" s="41"/>
       <c r="B112" s="41"/>
       <c r="C112" s="41"/>
@@ -10628,7 +10630,7 @@
       <c r="F112" s="41"/>
       <c r="G112" s="41"/>
     </row>
-    <row r="113" spans="1:7">
+    <row r="113" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A113" s="41"/>
       <c r="B113" s="41"/>
       <c r="C113" s="41"/>
@@ -10639,7 +10641,7 @@
       <c r="F113" s="41"/>
       <c r="G113" s="41"/>
     </row>
-    <row r="114" spans="1:7">
+    <row r="114" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A114" s="41"/>
       <c r="B114" s="41"/>
       <c r="C114" s="41" t="s">
@@ -10650,7 +10652,7 @@
       <c r="F114" s="41"/>
       <c r="G114" s="41"/>
     </row>
-    <row r="115" spans="1:7">
+    <row r="115" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A115" s="41"/>
       <c r="B115" s="41" t="s">
         <v>311</v>
@@ -10661,7 +10663,7 @@
       <c r="F115" s="41"/>
       <c r="G115" s="41"/>
     </row>
-    <row r="116" spans="1:7">
+    <row r="116" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A116" s="41"/>
       <c r="B116" s="41" t="s">
         <v>381</v>
@@ -10672,7 +10674,7 @@
       <c r="F116" s="41"/>
       <c r="G116" s="41"/>
     </row>
-    <row r="117" spans="1:7">
+    <row r="117" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A117" s="41"/>
       <c r="B117" s="41" t="s">
         <v>378</v>
@@ -10683,7 +10685,7 @@
       <c r="F117" s="41"/>
       <c r="G117" s="41"/>
     </row>
-    <row r="118" spans="1:7">
+    <row r="118" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A118" s="41"/>
       <c r="B118" s="41"/>
       <c r="C118" s="41" t="s">
@@ -10694,7 +10696,7 @@
       <c r="F118" s="41"/>
       <c r="G118" s="41"/>
     </row>
-    <row r="119" spans="1:7">
+    <row r="119" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A119" s="41"/>
       <c r="B119" s="41" t="s">
         <v>311</v>
@@ -10705,7 +10707,7 @@
       <c r="F119" s="41"/>
       <c r="G119" s="41"/>
     </row>
-    <row r="120" spans="1:7">
+    <row r="120" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A120" s="41"/>
       <c r="B120" s="41"/>
       <c r="C120" s="41"/>
@@ -10714,7 +10716,7 @@
       <c r="F120" s="41"/>
       <c r="G120" s="41"/>
     </row>
-    <row r="121" spans="1:7">
+    <row r="121" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A121" s="41"/>
       <c r="B121" s="41" t="s">
         <v>407</v>
@@ -10725,7 +10727,7 @@
       <c r="F121" s="41"/>
       <c r="G121" s="41"/>
     </row>
-    <row r="122" spans="1:7">
+    <row r="122" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A122" s="41" t="s">
         <v>311</v>
       </c>
@@ -10736,7 +10738,7 @@
       <c r="F122" s="41"/>
       <c r="G122" s="41"/>
     </row>
-    <row r="125" spans="1:7">
+    <row r="125" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A125" s="41"/>
       <c r="B125" s="41"/>
       <c r="C125" s="41"/>
@@ -10745,7 +10747,7 @@
       <c r="F125" s="41"/>
       <c r="G125" s="41"/>
     </row>
-    <row r="133" spans="1:11">
+    <row r="133" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A133" s="41"/>
       <c r="B133" s="41"/>
       <c r="C133" s="41"/>
@@ -10765,71 +10767,71 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L81"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="L23" sqref="L23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>507</v>
       </c>
     </row>
-    <row r="2" spans="1:6">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>508</v>
       </c>
     </row>
-    <row r="3" spans="1:6">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>509</v>
       </c>
     </row>
-    <row r="5" spans="1:6">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>510</v>
       </c>
     </row>
-    <row r="6" spans="1:6">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="48" t="s">
         <v>514</v>
       </c>
     </row>
-    <row r="7" spans="1:6">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="48" t="s">
         <v>515</v>
       </c>
     </row>
-    <row r="8" spans="1:6">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>512</v>
       </c>
     </row>
-    <row r="9" spans="1:6">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>513</v>
       </c>
     </row>
-    <row r="10" spans="1:6">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>511</v>
       </c>
     </row>
-    <row r="12" spans="1:6">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>516</v>
       </c>
     </row>
-    <row r="14" spans="1:6">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>517</v>
       </c>
     </row>
-    <row r="16" spans="1:6">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" s="41" t="s">
         <v>393</v>
       </c>
@@ -10839,7 +10841,7 @@
       <c r="E16" s="41"/>
       <c r="F16" s="41"/>
     </row>
-    <row r="17" spans="1:12">
+    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A17" s="41" t="s">
         <v>378</v>
       </c>
@@ -10852,7 +10854,7 @@
         <v>523</v>
       </c>
     </row>
-    <row r="18" spans="1:12">
+    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A18" s="41"/>
       <c r="B18" s="41" t="s">
         <v>394</v>
@@ -10865,7 +10867,7 @@
         <v>524</v>
       </c>
     </row>
-    <row r="19" spans="1:12">
+    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A19" s="41"/>
       <c r="B19" s="41"/>
       <c r="C19" s="41"/>
@@ -10876,7 +10878,7 @@
         <v>526</v>
       </c>
     </row>
-    <row r="20" spans="1:12">
+    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A20" s="41"/>
       <c r="B20" s="41" t="s">
         <v>395</v>
@@ -10889,7 +10891,7 @@
         <v>527</v>
       </c>
     </row>
-    <row r="21" spans="1:12">
+    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A21" s="41"/>
       <c r="B21" s="41" t="s">
         <v>378</v>
@@ -10899,7 +10901,7 @@
       <c r="E21" s="41"/>
       <c r="F21" s="41"/>
     </row>
-    <row r="22" spans="1:12">
+    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A22" s="41"/>
       <c r="B22" s="41"/>
       <c r="C22" s="41" t="s">
@@ -10912,7 +10914,7 @@
         <v>525</v>
       </c>
     </row>
-    <row r="23" spans="1:12">
+    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A23" s="41"/>
       <c r="B23" s="41"/>
       <c r="C23" s="41" t="s">
@@ -10925,7 +10927,7 @@
         <v>528</v>
       </c>
     </row>
-    <row r="24" spans="1:12">
+    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A24" s="41"/>
       <c r="B24" s="41"/>
       <c r="C24" s="41"/>
@@ -10935,7 +10937,7 @@
       <c r="E24" s="41"/>
       <c r="F24" s="41"/>
     </row>
-    <row r="25" spans="1:12">
+    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A25" s="41"/>
       <c r="B25" s="41"/>
       <c r="C25" s="41" t="s">
@@ -10945,7 +10947,7 @@
       <c r="E25" s="41"/>
       <c r="F25" s="41"/>
     </row>
-    <row r="26" spans="1:12">
+    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A26" s="41"/>
       <c r="B26" s="41"/>
       <c r="C26" s="41" t="s">
@@ -10955,7 +10957,7 @@
       <c r="E26" s="41"/>
       <c r="F26" s="41"/>
     </row>
-    <row r="27" spans="1:12">
+    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A27" s="41"/>
       <c r="B27" s="41"/>
       <c r="C27" s="41" t="s">
@@ -10965,7 +10967,7 @@
       <c r="E27" s="41"/>
       <c r="F27" s="41"/>
     </row>
-    <row r="28" spans="1:12">
+    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A28" s="41"/>
       <c r="B28" s="41"/>
       <c r="C28" s="41"/>
@@ -10975,7 +10977,7 @@
       <c r="E28" s="41"/>
       <c r="F28" s="41"/>
     </row>
-    <row r="29" spans="1:12">
+    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A29" s="41"/>
       <c r="B29" s="41"/>
       <c r="C29" s="41" t="s">
@@ -10985,7 +10987,7 @@
       <c r="E29" s="41"/>
       <c r="F29" s="41"/>
     </row>
-    <row r="30" spans="1:12">
+    <row r="30" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A30" s="41"/>
       <c r="B30" s="41"/>
       <c r="C30" s="41" t="s">
@@ -10995,7 +10997,7 @@
       <c r="E30" s="41"/>
       <c r="F30" s="41"/>
     </row>
-    <row r="31" spans="1:12">
+    <row r="31" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A31" s="41"/>
       <c r="B31" s="41" t="s">
         <v>397</v>
@@ -11005,7 +11007,7 @@
       <c r="E31" s="41"/>
       <c r="F31" s="41"/>
     </row>
-    <row r="32" spans="1:12">
+    <row r="32" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A32" s="41"/>
       <c r="B32" s="41"/>
       <c r="C32" s="41"/>
@@ -11013,7 +11015,7 @@
       <c r="E32" s="41"/>
       <c r="F32" s="41"/>
     </row>
-    <row r="33" spans="1:10">
+    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A33" s="41"/>
       <c r="B33" s="41" t="s">
         <v>398</v>
@@ -11023,7 +11025,7 @@
       <c r="E33" s="41"/>
       <c r="F33" s="41"/>
     </row>
-    <row r="34" spans="1:10">
+    <row r="34" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A34" s="41"/>
       <c r="B34" s="41" t="s">
         <v>399</v>
@@ -11033,7 +11035,7 @@
       <c r="E34" s="41"/>
       <c r="F34" s="41"/>
     </row>
-    <row r="35" spans="1:10">
+    <row r="35" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A35" s="41"/>
       <c r="B35" s="41"/>
       <c r="C35" s="41" t="s">
@@ -11043,7 +11045,7 @@
       <c r="E35" s="41"/>
       <c r="F35" s="41"/>
     </row>
-    <row r="36" spans="1:10">
+    <row r="36" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A36" s="41"/>
       <c r="B36" s="41" t="s">
         <v>397</v>
@@ -11053,7 +11055,7 @@
       <c r="E36" s="41"/>
       <c r="F36" s="41"/>
     </row>
-    <row r="37" spans="1:10">
+    <row r="37" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A37" s="41"/>
       <c r="B37" s="41" t="s">
         <v>400</v>
@@ -11063,7 +11065,7 @@
       <c r="E37" s="41"/>
       <c r="F37" s="41"/>
     </row>
-    <row r="38" spans="1:10">
+    <row r="38" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A38" s="41"/>
       <c r="B38" s="41" t="s">
         <v>378</v>
@@ -11073,7 +11075,7 @@
       <c r="E38" s="41"/>
       <c r="F38" s="41"/>
     </row>
-    <row r="39" spans="1:10">
+    <row r="39" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A39" s="41"/>
       <c r="B39" s="41"/>
       <c r="C39" s="5" t="s">
@@ -11091,7 +11093,7 @@
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
     </row>
-    <row r="40" spans="1:10">
+    <row r="40" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A40" s="41"/>
       <c r="B40" s="41"/>
       <c r="C40" s="41" t="s">
@@ -11104,7 +11106,7 @@
         <v>520</v>
       </c>
     </row>
-    <row r="41" spans="1:10">
+    <row r="41" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A41" s="41"/>
       <c r="B41" s="41"/>
       <c r="C41" s="41"/>
@@ -11117,7 +11119,7 @@
         <v>521</v>
       </c>
     </row>
-    <row r="42" spans="1:10">
+    <row r="42" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A42" s="41"/>
       <c r="B42" s="41"/>
       <c r="C42" s="41"/>
@@ -11127,7 +11129,7 @@
       <c r="E42" s="41"/>
       <c r="F42" s="41"/>
     </row>
-    <row r="43" spans="1:10">
+    <row r="43" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A43" s="41"/>
       <c r="B43" s="41"/>
       <c r="C43" s="41" t="s">
@@ -11137,7 +11139,7 @@
       <c r="E43" s="41"/>
       <c r="F43" s="41"/>
     </row>
-    <row r="44" spans="1:10">
+    <row r="44" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A44" s="41"/>
       <c r="B44" s="41"/>
       <c r="C44" s="41" t="s">
@@ -11147,7 +11149,7 @@
       <c r="E44" s="41"/>
       <c r="F44" s="41"/>
     </row>
-    <row r="45" spans="1:10">
+    <row r="45" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A45" s="41"/>
       <c r="B45" s="41"/>
       <c r="C45" s="41" t="s">
@@ -11157,7 +11159,7 @@
       <c r="E45" s="41"/>
       <c r="F45" s="41"/>
     </row>
-    <row r="46" spans="1:10">
+    <row r="46" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A46" s="41"/>
       <c r="B46" s="41"/>
       <c r="C46" s="41"/>
@@ -11167,7 +11169,7 @@
       <c r="E46" s="41"/>
       <c r="F46" s="41"/>
     </row>
-    <row r="47" spans="1:10">
+    <row r="47" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A47" s="41"/>
       <c r="B47" s="41"/>
       <c r="C47" s="41"/>
@@ -11177,7 +11179,7 @@
       <c r="E47" s="41"/>
       <c r="F47" s="41"/>
     </row>
-    <row r="48" spans="1:10">
+    <row r="48" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A48" s="41"/>
       <c r="B48" s="41"/>
       <c r="C48" s="41"/>
@@ -11187,7 +11189,7 @@
       <c r="E48" s="41"/>
       <c r="F48" s="41"/>
     </row>
-    <row r="49" spans="1:10">
+    <row r="49" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A49" s="41"/>
       <c r="B49" s="41"/>
       <c r="C49" s="41" t="s">
@@ -11197,7 +11199,7 @@
       <c r="E49" s="41"/>
       <c r="F49" s="41"/>
     </row>
-    <row r="50" spans="1:10">
+    <row r="50" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A50" s="41"/>
       <c r="B50" s="41" t="s">
         <v>311</v>
@@ -11207,7 +11209,7 @@
       <c r="E50" s="41"/>
       <c r="F50" s="41"/>
     </row>
-    <row r="51" spans="1:10">
+    <row r="51" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A51" s="41" t="s">
         <v>311</v>
       </c>
@@ -11217,7 +11219,7 @@
       <c r="E51" s="41"/>
       <c r="F51" s="41"/>
     </row>
-    <row r="52" spans="1:10">
+    <row r="52" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A52" s="41"/>
       <c r="B52" s="41"/>
       <c r="C52" s="41"/>
@@ -11225,7 +11227,7 @@
       <c r="E52" s="41"/>
       <c r="F52" s="41"/>
     </row>
-    <row r="53" spans="1:10">
+    <row r="53" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A53" s="41" t="s">
         <v>406</v>
       </c>
@@ -11235,7 +11237,7 @@
       <c r="E53" s="41"/>
       <c r="F53" s="41"/>
     </row>
-    <row r="54" spans="1:10">
+    <row r="54" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A54" s="41" t="s">
         <v>378</v>
       </c>
@@ -11245,7 +11247,7 @@
       <c r="E54" s="41"/>
       <c r="F54" s="41"/>
     </row>
-    <row r="55" spans="1:10">
+    <row r="55" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A55" s="41"/>
       <c r="B55" s="41" t="s">
         <v>376</v>
@@ -11255,7 +11257,7 @@
       <c r="E55" s="41"/>
       <c r="F55" s="41"/>
     </row>
-    <row r="56" spans="1:10">
+    <row r="56" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A56" s="41"/>
       <c r="B56" s="41"/>
       <c r="C56" s="41"/>
@@ -11263,7 +11265,7 @@
       <c r="E56" s="41"/>
       <c r="F56" s="41"/>
     </row>
-    <row r="57" spans="1:10">
+    <row r="57" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A57" s="41"/>
       <c r="B57" s="41" t="s">
         <v>377</v>
@@ -11273,7 +11275,7 @@
       <c r="E57" s="41"/>
       <c r="F57" s="41"/>
     </row>
-    <row r="58" spans="1:10">
+    <row r="58" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A58" s="41"/>
       <c r="B58" s="41" t="s">
         <v>378</v>
@@ -11283,7 +11285,7 @@
       <c r="E58" s="41"/>
       <c r="F58" s="41"/>
     </row>
-    <row r="59" spans="1:10">
+    <row r="59" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A59" s="41"/>
       <c r="B59" s="41"/>
       <c r="C59" s="5" t="s">
@@ -11298,7 +11300,7 @@
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
     </row>
-    <row r="60" spans="1:10">
+    <row r="60" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A60" s="41"/>
       <c r="B60" s="41"/>
       <c r="C60" s="41" t="s">
@@ -11311,7 +11313,7 @@
         <v>520</v>
       </c>
     </row>
-    <row r="61" spans="1:10">
+    <row r="61" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A61" s="41"/>
       <c r="B61" s="41"/>
       <c r="C61" s="41"/>
@@ -11324,7 +11326,7 @@
         <v>521</v>
       </c>
     </row>
-    <row r="62" spans="1:10">
+    <row r="62" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A62" s="41"/>
       <c r="B62" s="41"/>
       <c r="C62" s="41" t="s">
@@ -11334,7 +11336,7 @@
       <c r="E62" s="41"/>
       <c r="F62" s="41"/>
     </row>
-    <row r="63" spans="1:10">
+    <row r="63" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A63" s="41"/>
       <c r="B63" s="41"/>
       <c r="C63" s="41" t="s">
@@ -11344,7 +11346,7 @@
       <c r="E63" s="41"/>
       <c r="F63" s="41"/>
     </row>
-    <row r="64" spans="1:10">
+    <row r="64" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A64" s="41"/>
       <c r="B64" s="41"/>
       <c r="C64" s="41" t="s">
@@ -11354,7 +11356,7 @@
       <c r="E64" s="41"/>
       <c r="F64" s="41"/>
     </row>
-    <row r="65" spans="1:7">
+    <row r="65" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A65" s="41"/>
       <c r="B65" s="41"/>
       <c r="C65" s="41"/>
@@ -11365,7 +11367,7 @@
       <c r="F65" s="41"/>
       <c r="G65" s="41"/>
     </row>
-    <row r="66" spans="1:7">
+    <row r="66" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A66" s="41"/>
       <c r="B66" s="41"/>
       <c r="C66" s="41"/>
@@ -11375,7 +11377,7 @@
       <c r="E66" s="41"/>
       <c r="F66" s="41"/>
     </row>
-    <row r="67" spans="1:7">
+    <row r="67" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A67" s="41"/>
       <c r="B67" s="41"/>
       <c r="C67" s="41"/>
@@ -11385,7 +11387,7 @@
       </c>
       <c r="F67" s="41"/>
     </row>
-    <row r="68" spans="1:7">
+    <row r="68" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A68" s="41"/>
       <c r="B68" s="41"/>
       <c r="C68" s="41"/>
@@ -11395,7 +11397,7 @@
       <c r="E68" s="41"/>
       <c r="F68" s="41"/>
     </row>
-    <row r="69" spans="1:7">
+    <row r="69" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A69" s="41"/>
       <c r="B69" s="41"/>
       <c r="C69" s="41"/>
@@ -11405,7 +11407,7 @@
       <c r="E69" s="41"/>
       <c r="F69" s="41"/>
     </row>
-    <row r="70" spans="1:7">
+    <row r="70" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A70" s="41"/>
       <c r="B70" s="41"/>
       <c r="C70" s="41"/>
@@ -11415,7 +11417,7 @@
       <c r="E70" s="41"/>
       <c r="F70" s="41"/>
     </row>
-    <row r="71" spans="1:7">
+    <row r="71" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A71" s="41"/>
       <c r="B71" s="41"/>
       <c r="C71" s="41"/>
@@ -11425,7 +11427,7 @@
       </c>
       <c r="F71" s="41"/>
     </row>
-    <row r="72" spans="1:7">
+    <row r="72" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A72" s="41"/>
       <c r="B72" s="41"/>
       <c r="C72" s="41"/>
@@ -11435,7 +11437,7 @@
       <c r="E72" s="41"/>
       <c r="F72" s="41"/>
     </row>
-    <row r="73" spans="1:7">
+    <row r="73" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A73" s="41"/>
       <c r="B73" s="41"/>
       <c r="C73" s="41" t="s">
@@ -11445,7 +11447,7 @@
       <c r="E73" s="41"/>
       <c r="F73" s="41"/>
     </row>
-    <row r="74" spans="1:7">
+    <row r="74" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A74" s="41"/>
       <c r="B74" s="41" t="s">
         <v>311</v>
@@ -11455,7 +11457,7 @@
       <c r="E74" s="41"/>
       <c r="F74" s="41"/>
     </row>
-    <row r="75" spans="1:7">
+    <row r="75" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A75" s="41"/>
       <c r="B75" s="41" t="s">
         <v>381</v>
@@ -11465,7 +11467,7 @@
       <c r="E75" s="41"/>
       <c r="F75" s="41"/>
     </row>
-    <row r="76" spans="1:7">
+    <row r="76" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A76" s="41"/>
       <c r="B76" s="41" t="s">
         <v>378</v>
@@ -11475,7 +11477,7 @@
       <c r="E76" s="41"/>
       <c r="F76" s="41"/>
     </row>
-    <row r="77" spans="1:7">
+    <row r="77" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A77" s="41"/>
       <c r="B77" s="41"/>
       <c r="C77" s="41" t="s">
@@ -11485,7 +11487,7 @@
       <c r="E77" s="41"/>
       <c r="F77" s="41"/>
     </row>
-    <row r="78" spans="1:7">
+    <row r="78" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A78" s="41"/>
       <c r="B78" s="41" t="s">
         <v>311</v>
@@ -11495,7 +11497,7 @@
       <c r="E78" s="41"/>
       <c r="F78" s="41"/>
     </row>
-    <row r="79" spans="1:7">
+    <row r="79" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A79" s="41"/>
       <c r="B79" s="41"/>
       <c r="C79" s="41"/>
@@ -11503,7 +11505,7 @@
       <c r="E79" s="41"/>
       <c r="F79" s="41"/>
     </row>
-    <row r="80" spans="1:7">
+    <row r="80" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A80" s="41"/>
       <c r="B80" s="41" t="s">
         <v>407</v>
@@ -11513,7 +11515,7 @@
       <c r="E80" s="41"/>
       <c r="F80" s="41"/>
     </row>
-    <row r="81" spans="1:6">
+    <row r="81" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A81" s="41" t="s">
         <v>311</v>
       </c>

--- a/CFT4CUnitSrc/src/report/GAReport.xlsx
+++ b/CFT4CUnitSrc/src/report/GAReport.xlsx
@@ -1,27 +1,28 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="1365" windowWidth="14805" windowHeight="6480" tabRatio="940"/>
   </bookViews>
   <sheets>
-    <sheet name="PSOsurvey" sheetId="16" r:id="rId1"/>
-    <sheet name="GA memo" sheetId="14" r:id="rId2"/>
-    <sheet name="GA based TC generation" sheetId="2" r:id="rId3"/>
-    <sheet name="Report" sheetId="9" r:id="rId4"/>
-    <sheet name="icta2016" sheetId="11" r:id="rId5"/>
-    <sheet name="201612paper" sheetId="12" r:id="rId6"/>
-    <sheet name="ThayHieu_report" sheetId="13" r:id="rId7"/>
-    <sheet name="PSOReport" sheetId="15" r:id="rId8"/>
+    <sheet name="PhDThesis" sheetId="17" r:id="rId1"/>
+    <sheet name="PSOsurvey" sheetId="16" r:id="rId2"/>
+    <sheet name="GA memo" sheetId="14" r:id="rId3"/>
+    <sheet name="GA based TC generation" sheetId="2" r:id="rId4"/>
+    <sheet name="Report" sheetId="9" r:id="rId5"/>
+    <sheet name="icta2016" sheetId="11" r:id="rId6"/>
+    <sheet name="201612paper" sheetId="12" r:id="rId7"/>
+    <sheet name="ThayHieu_report" sheetId="13" r:id="rId8"/>
+    <sheet name="PSOReport" sheetId="15" r:id="rId9"/>
   </sheets>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="796" uniqueCount="531">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="799" uniqueCount="534">
   <si>
     <t>Nhìn chung, để sinh test case cho một input program theo phương pháp GA thì có các bước sau</t>
   </si>
@@ -1643,15 +1644,24 @@
 Orissa-769008, India
 </t>
   </si>
+  <si>
+    <t>Path Testing using Genetic Algorithm_Irman Hermadi_PhDThesis</t>
+  </si>
+  <si>
+    <t>Phần tổng quan</t>
+  </si>
+  <si>
+    <t>Search Based Software Engineering - Trends, Techniques and Applications</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.000000000"/>
   </numFmts>
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="7">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -6041,7 +6051,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -6076,7 +6085,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -6252,21 +6260,51 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:B3"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="A1" t="s">
+        <v>532</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="B2" t="s">
+        <v>531</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="B3" t="s">
+        <v>533</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:B1"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="46.7109375" style="50" customWidth="1"/>
     <col min="2" max="2" width="60.7109375" style="50" customWidth="1"/>
     <col min="3" max="16384" width="9.140625" style="50"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" ht="75">
       <c r="A1" s="49" t="s">
         <v>529</v>
       </c>
@@ -6280,68 +6318,68 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:C22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B25" sqref="B25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3">
       <c r="A1" t="s">
         <v>500</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3">
       <c r="B2" t="s">
         <v>501</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3">
       <c r="B3" s="47"/>
       <c r="C3" s="47" t="s">
         <v>503</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3">
       <c r="C4" t="s">
         <v>502</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3">
       <c r="A6" t="s">
         <v>506</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3">
       <c r="B7" t="s">
         <v>504</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3">
       <c r="B8" t="s">
         <v>505</v>
       </c>
     </row>
-    <row r="19" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:3">
       <c r="B19" t="s">
         <v>496</v>
       </c>
     </row>
-    <row r="20" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:3">
       <c r="C20" t="s">
         <v>497</v>
       </c>
     </row>
-    <row r="21" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:3">
       <c r="C21" t="s">
         <v>498</v>
       </c>
     </row>
-    <row r="22" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:3">
       <c r="C22" t="s">
         <v>499</v>
       </c>
@@ -6352,8 +6390,8 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:AP160"/>
   <sheetViews>
@@ -6361,34 +6399,34 @@
       <selection activeCell="L67" sqref="L67"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="10.7109375" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="10.140625" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="9.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10">
       <c r="B1" s="25" t="s">
         <v>495</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10">
       <c r="A3" s="18">
         <v>42502</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10">
       <c r="B4" t="s">
         <v>168</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10">
       <c r="C5" t="s">
         <v>169</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10">
       <c r="C6" t="s">
         <v>180</v>
       </c>
@@ -6396,17 +6434,17 @@
         <v>181</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10">
       <c r="J7" t="s">
         <v>182</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:10">
       <c r="B8" t="s">
         <v>171</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:10">
       <c r="B9" t="s">
         <v>179</v>
       </c>
@@ -6414,7 +6452,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:10">
       <c r="B10" t="s">
         <v>179</v>
       </c>
@@ -6422,32 +6460,32 @@
         <v>176</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:10">
       <c r="C11" t="s">
         <v>172</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:10">
       <c r="C12" t="s">
         <v>173</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:10">
       <c r="C13" t="s">
         <v>174</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:10">
       <c r="C15" s="1" t="s">
         <v>177</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:10">
       <c r="C16" s="1" t="s">
         <v>178</v>
       </c>
     </row>
-    <row r="19" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:17">
       <c r="A19" s="18">
         <v>42499</v>
       </c>
@@ -6455,7 +6493,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:17">
       <c r="B20" t="s">
         <v>160</v>
       </c>
@@ -6463,7 +6501,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:17">
       <c r="C21" t="s">
         <v>161</v>
       </c>
@@ -6471,7 +6509,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:17">
       <c r="C22" t="s">
         <v>162</v>
       </c>
@@ -6479,12 +6517,12 @@
         <v>166</v>
       </c>
     </row>
-    <row r="23" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:17">
       <c r="C23" t="s">
         <v>167</v>
       </c>
     </row>
-    <row r="24" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:17">
       <c r="B24" t="s">
         <v>164</v>
       </c>
@@ -6495,7 +6533,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="26" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:17">
       <c r="A26" s="18">
         <v>42496</v>
       </c>
@@ -6509,7 +6547,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="27" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:17">
       <c r="B27" t="s">
         <v>137</v>
       </c>
@@ -6517,7 +6555,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="28" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:17">
       <c r="B28" t="s">
         <v>135</v>
       </c>
@@ -6528,7 +6566,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="30" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:17">
       <c r="B30" t="s">
         <v>136</v>
       </c>
@@ -6539,12 +6577,12 @@
         <v>152</v>
       </c>
     </row>
-    <row r="31" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:17">
       <c r="B31" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="32" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:17">
       <c r="B32" t="s">
         <v>139</v>
       </c>
@@ -6552,12 +6590,12 @@
         <v>153</v>
       </c>
     </row>
-    <row r="34" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:16">
       <c r="B34" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="35" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:16">
       <c r="C35" t="s">
         <v>140</v>
       </c>
@@ -6565,7 +6603,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="36" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:16">
       <c r="C36" t="s">
         <v>141</v>
       </c>
@@ -6573,7 +6611,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="38" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="38" spans="2:16">
       <c r="B38" t="s">
         <v>142</v>
       </c>
@@ -6581,47 +6619,47 @@
         <v>159</v>
       </c>
     </row>
-    <row r="40" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="40" spans="2:16">
       <c r="B40" t="s">
         <v>143</v>
       </c>
     </row>
-    <row r="41" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="41" spans="2:16">
       <c r="B41" t="s">
         <v>144</v>
       </c>
     </row>
-    <row r="43" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="43" spans="2:16">
       <c r="B43" t="s">
         <v>146</v>
       </c>
     </row>
-    <row r="44" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="44" spans="2:16">
       <c r="B44" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="45" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="45" spans="2:16">
       <c r="B45" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="47" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="47" spans="2:16">
       <c r="B47" t="s">
         <v>148</v>
       </c>
     </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:7">
       <c r="A52" s="18">
         <v>42494</v>
       </c>
     </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:7">
       <c r="B53" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:7">
       <c r="C54" t="s">
         <v>1</v>
       </c>
@@ -6629,7 +6667,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:7">
       <c r="C56" s="5" t="s">
         <v>3</v>
       </c>
@@ -6637,44 +6675,44 @@
         <v>123</v>
       </c>
     </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:7">
       <c r="D57" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:7">
       <c r="E58" s="25" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:7">
       <c r="E59" s="25"/>
     </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:7">
       <c r="B60" s="5" t="s">
         <v>134</v>
       </c>
       <c r="E60" s="25"/>
     </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:7">
       <c r="C61" t="s">
         <v>124</v>
       </c>
       <c r="E61" s="25"/>
     </row>
-    <row r="62" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:7">
       <c r="C62" t="s">
         <v>125</v>
       </c>
       <c r="E62" s="25"/>
     </row>
-    <row r="63" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:7">
       <c r="D63" t="s">
         <v>126</v>
       </c>
       <c r="E63" s="25"/>
     </row>
-    <row r="64" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:7">
       <c r="E64" s="26" t="s">
         <v>127</v>
       </c>
@@ -6685,7 +6723,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="65" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:10">
       <c r="E65" s="27">
         <v>1.1000000000000001</v>
       </c>
@@ -6696,7 +6734,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="66" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:10">
       <c r="E66" s="27">
         <v>1.1100000000000001</v>
       </c>
@@ -6713,7 +6751,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="67" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:10">
       <c r="E67" s="27">
         <v>1.3</v>
       </c>
@@ -6724,21 +6762,21 @@
         <v>1</v>
       </c>
     </row>
-    <row r="68" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:10">
       <c r="D68" t="s">
         <v>132</v>
       </c>
       <c r="E68" s="27"/>
     </row>
-    <row r="69" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:10">
       <c r="E69" s="27" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="70" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:10">
       <c r="E70" s="27"/>
     </row>
-    <row r="71" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:10">
       <c r="C71" t="s">
         <v>5</v>
       </c>
@@ -6746,57 +6784,57 @@
         <v>116</v>
       </c>
     </row>
-    <row r="73" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:10">
       <c r="B73" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="74" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:10">
       <c r="B74" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="76" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:10">
       <c r="B76" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="77" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:10">
       <c r="B77" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="79" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:10">
       <c r="A79" s="18">
         <v>42488</v>
       </c>
     </row>
-    <row r="80" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:10">
       <c r="B80" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="81" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:42">
       <c r="C81" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="82" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:42">
       <c r="C82" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="83" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:42">
       <c r="C83" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="84" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:42">
       <c r="C84" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="85" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:42">
       <c r="B85" s="5" t="s">
         <v>113</v>
       </c>
@@ -6809,12 +6847,12 @@
       <c r="I85" s="5"/>
       <c r="J85" s="5"/>
     </row>
-    <row r="87" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:42">
       <c r="A87" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="89" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:42">
       <c r="B89" t="s">
         <v>1</v>
       </c>
@@ -6822,7 +6860,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="91" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:42">
       <c r="B91" t="s">
         <v>3</v>
       </c>
@@ -6830,12 +6868,12 @@
         <v>6</v>
       </c>
     </row>
-    <row r="92" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:42">
       <c r="C92" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="94" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:42">
       <c r="B94" t="s">
         <v>5</v>
       </c>
@@ -6843,12 +6881,12 @@
         <v>8</v>
       </c>
     </row>
-    <row r="95" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:42">
       <c r="C95" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="96" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:42">
       <c r="C96" s="6" t="s">
         <v>52</v>
       </c>
@@ -6882,7 +6920,7 @@
         <v>42483</v>
       </c>
     </row>
-    <row r="97" spans="2:42" x14ac:dyDescent="0.25">
+    <row r="97" spans="2:42">
       <c r="C97" s="6" t="s">
         <v>53</v>
       </c>
@@ -6914,7 +6952,7 @@
       <c r="AO97" s="5"/>
       <c r="AP97" s="5"/>
     </row>
-    <row r="98" spans="2:42" x14ac:dyDescent="0.25">
+    <row r="98" spans="2:42">
       <c r="C98" t="s">
         <v>14</v>
       </c>
@@ -6928,29 +6966,29 @@
       <c r="AO98" s="5"/>
       <c r="AP98" s="5"/>
     </row>
-    <row r="99" spans="2:42" x14ac:dyDescent="0.25">
+    <row r="99" spans="2:42">
       <c r="C99" s="1"/>
       <c r="D99" s="1" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="100" spans="2:42" x14ac:dyDescent="0.25">
+    <row r="100" spans="2:42">
       <c r="C100" s="1"/>
       <c r="D100" s="1" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="102" spans="2:42" x14ac:dyDescent="0.25">
+    <row r="102" spans="2:42">
       <c r="C102" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="103" spans="2:42" x14ac:dyDescent="0.25">
+    <row r="103" spans="2:42">
       <c r="C103" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="105" spans="2:42" x14ac:dyDescent="0.25">
+    <row r="105" spans="2:42">
       <c r="B105" t="s">
         <v>7</v>
       </c>
@@ -6958,12 +6996,12 @@
         <v>16</v>
       </c>
     </row>
-    <row r="107" spans="2:42" x14ac:dyDescent="0.25">
+    <row r="107" spans="2:42">
       <c r="C107" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="109" spans="2:42" x14ac:dyDescent="0.25">
+    <row r="109" spans="2:42">
       <c r="B109" t="s">
         <v>17</v>
       </c>
@@ -6971,7 +7009,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="110" spans="2:42" x14ac:dyDescent="0.25">
+    <row r="110" spans="2:42">
       <c r="D110" s="5" t="s">
         <v>50</v>
       </c>
@@ -6989,7 +7027,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="111" spans="2:42" x14ac:dyDescent="0.25">
+    <row r="111" spans="2:42">
       <c r="C111" t="s">
         <v>19</v>
       </c>
@@ -6997,12 +7035,12 @@
         <v>20</v>
       </c>
     </row>
-    <row r="112" spans="2:42" x14ac:dyDescent="0.25">
+    <row r="112" spans="2:42">
       <c r="D112" s="3" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="114" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:24">
       <c r="B114" t="s">
         <v>22</v>
       </c>
@@ -7010,12 +7048,12 @@
         <v>21</v>
       </c>
     </row>
-    <row r="116" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:24">
       <c r="A116" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="117" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:24">
       <c r="B117" t="s">
         <v>48</v>
       </c>
@@ -7037,7 +7075,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="118" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:24">
       <c r="B118" t="s">
         <v>46</v>
       </c>
@@ -7051,7 +7089,7 @@
         <v>42480</v>
       </c>
     </row>
-    <row r="119" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:24">
       <c r="B119" t="s">
         <v>49</v>
       </c>
@@ -7065,14 +7103,14 @@
         <v>42480</v>
       </c>
     </row>
-    <row r="120" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:24">
       <c r="M120" s="6"/>
       <c r="N120" s="6"/>
       <c r="O120" s="6"/>
       <c r="P120" s="6"/>
       <c r="S120" s="8"/>
     </row>
-    <row r="121" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:24">
       <c r="F121" s="9" t="s">
         <v>69</v>
       </c>
@@ -7085,7 +7123,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="122" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:24">
       <c r="A122" t="s">
         <v>47</v>
       </c>
@@ -7108,7 +7146,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="123" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:24">
       <c r="A123" s="4" t="s">
         <v>23</v>
       </c>
@@ -7128,7 +7166,7 @@
       <c r="O123" s="4"/>
       <c r="P123" s="4"/>
     </row>
-    <row r="124" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:24">
       <c r="A124" s="4" t="s">
         <v>24</v>
       </c>
@@ -7148,7 +7186,7 @@
       <c r="O124" s="4"/>
       <c r="P124" s="4"/>
     </row>
-    <row r="125" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:24">
       <c r="A125" t="s">
         <v>25</v>
       </c>
@@ -7168,12 +7206,12 @@
       </c>
       <c r="V125" s="9"/>
     </row>
-    <row r="126" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:24">
       <c r="A126" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="127" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:24">
       <c r="A127" s="4" t="s">
         <v>42</v>
       </c>
@@ -7193,7 +7231,7 @@
       <c r="O127" s="4"/>
       <c r="P127" s="4"/>
     </row>
-    <row r="128" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:24">
       <c r="A128" s="4" t="s">
         <v>27</v>
       </c>
@@ -7213,12 +7251,12 @@
       <c r="O128" s="4"/>
       <c r="P128" s="4"/>
     </row>
-    <row r="129" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:16">
       <c r="A129" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="130" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:16">
       <c r="A130" s="4" t="s">
         <v>45</v>
       </c>
@@ -7238,83 +7276,83 @@
       <c r="O130" s="4"/>
       <c r="P130" s="4"/>
     </row>
-    <row r="131" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:16">
       <c r="A131" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="132" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:16">
       <c r="A132" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="133" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:16">
       <c r="A133" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="134" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:16">
       <c r="A134" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="135" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:16">
       <c r="A135" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="136" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:16">
       <c r="A136" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="137" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:16">
       <c r="A137" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="138" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:16">
       <c r="A138" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="139" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:16">
       <c r="A139" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="140" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:16">
       <c r="A140" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="141" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:16">
       <c r="A141" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="142" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:16">
       <c r="A142" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="143" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:16">
       <c r="A143" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="146" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:11">
       <c r="A146" s="13" t="s">
         <v>70</v>
       </c>
       <c r="B146" s="13"/>
     </row>
-    <row r="147" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:11">
       <c r="B147" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="148" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:11">
       <c r="B148" s="5" t="s">
         <v>80</v>
       </c>
@@ -7324,32 +7362,32 @@
       <c r="D148" s="5"/>
       <c r="E148" s="5"/>
     </row>
-    <row r="149" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:11">
       <c r="B149" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="150" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:11">
       <c r="C150" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="151" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:11">
       <c r="B151" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="153" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:11">
       <c r="B153" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="154" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:11">
       <c r="B154" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="156" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:11">
       <c r="B156" s="5" t="s">
         <v>84</v>
       </c>
@@ -7364,12 +7402,12 @@
         <v>42483</v>
       </c>
     </row>
-    <row r="159" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:11">
       <c r="B159" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="160" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:11">
       <c r="B160" t="s">
         <v>86</v>
       </c>
@@ -7384,8 +7422,8 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:R95"/>
   <sheetViews>
@@ -7393,7 +7431,7 @@
       <selection activeCell="H60" sqref="H60"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="2" max="2" width="5" style="10" customWidth="1"/>
     <col min="3" max="3" width="30.140625" bestFit="1" customWidth="1"/>
@@ -7408,7 +7446,7 @@
     <col min="12" max="12" width="14.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:18">
       <c r="A1" s="7" t="s">
         <v>59</v>
       </c>
@@ -7417,7 +7455,7 @@
       <c r="D1" s="7"/>
       <c r="E1" s="11"/>
     </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:18">
       <c r="B2" s="17" t="s">
         <v>65</v>
       </c>
@@ -7455,7 +7493,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:18">
       <c r="B3" s="14">
         <v>1</v>
       </c>
@@ -7499,7 +7537,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:18">
       <c r="B4" s="14">
         <f>B3+1</f>
         <v>2</v>
@@ -7533,7 +7571,7 @@
       </c>
       <c r="L4" s="15"/>
     </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:18">
       <c r="B5" s="14">
         <f t="shared" ref="B5:B19" si="0">B4+1</f>
         <v>3</v>
@@ -7567,7 +7605,7 @@
       </c>
       <c r="L5" s="15"/>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:18">
       <c r="B6" s="14">
         <f t="shared" si="0"/>
         <v>4</v>
@@ -7604,7 +7642,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:18">
       <c r="B7" s="14">
         <f t="shared" si="0"/>
         <v>5</v>
@@ -7645,7 +7683,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:18">
       <c r="B8" s="14">
         <f t="shared" si="0"/>
         <v>6</v>
@@ -7687,7 +7725,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:18">
       <c r="B9" s="14">
         <f t="shared" si="0"/>
         <v>7</v>
@@ -7727,7 +7765,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:18">
       <c r="B10" s="14">
         <f t="shared" si="0"/>
         <v>8</v>
@@ -7767,7 +7805,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:18">
       <c r="B11" s="14">
         <f t="shared" si="0"/>
         <v>9</v>
@@ -7783,7 +7821,7 @@
       <c r="K11" s="15"/>
       <c r="L11" s="15"/>
     </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:18">
       <c r="B12" s="14">
         <f t="shared" si="0"/>
         <v>10</v>
@@ -7799,7 +7837,7 @@
       <c r="K12" s="15"/>
       <c r="L12" s="15"/>
     </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:18">
       <c r="B13" s="14">
         <f t="shared" si="0"/>
         <v>11</v>
@@ -7815,7 +7853,7 @@
       <c r="K13" s="15"/>
       <c r="L13" s="15"/>
     </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:18">
       <c r="B14" s="14">
         <f t="shared" si="0"/>
         <v>12</v>
@@ -7831,7 +7869,7 @@
       <c r="K14" s="15"/>
       <c r="L14" s="15"/>
     </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:18">
       <c r="B15" s="14">
         <f t="shared" si="0"/>
         <v>13</v>
@@ -7847,7 +7885,7 @@
       <c r="K15" s="15"/>
       <c r="L15" s="15"/>
     </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:18">
       <c r="B16" s="14">
         <f t="shared" si="0"/>
         <v>14</v>
@@ -7863,7 +7901,7 @@
       <c r="K16" s="15"/>
       <c r="L16" s="15"/>
     </row>
-    <row r="17" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:12">
       <c r="B17" s="14">
         <f t="shared" si="0"/>
         <v>15</v>
@@ -7879,7 +7917,7 @@
       <c r="K17" s="15"/>
       <c r="L17" s="15"/>
     </row>
-    <row r="18" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:12">
       <c r="B18" s="14">
         <f t="shared" si="0"/>
         <v>16</v>
@@ -7895,7 +7933,7 @@
       <c r="K18" s="15"/>
       <c r="L18" s="15"/>
     </row>
-    <row r="19" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:12">
       <c r="B19" s="14">
         <f t="shared" si="0"/>
         <v>17</v>
@@ -7911,12 +7949,12 @@
       <c r="K19" s="15"/>
       <c r="L19" s="15"/>
     </row>
-    <row r="22" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:12">
       <c r="C22" t="s">
         <v>183</v>
       </c>
     </row>
-    <row r="23" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:12">
       <c r="C23" t="s">
         <v>184</v>
       </c>
@@ -7935,7 +7973,7 @@
       </c>
       <c r="L23" s="51"/>
     </row>
-    <row r="24" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:12">
       <c r="G24" s="53"/>
       <c r="H24" s="55"/>
       <c r="I24" s="14" t="s">
@@ -7951,7 +7989,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="25" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:12">
       <c r="G25" s="33" t="s">
         <v>110</v>
       </c>
@@ -7967,7 +8005,7 @@
       <c r="K25" s="32"/>
       <c r="L25" s="32"/>
     </row>
-    <row r="26" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:12">
       <c r="G26" s="37"/>
       <c r="H26" s="38"/>
       <c r="I26" s="32">
@@ -7979,7 +8017,7 @@
       <c r="K26" s="32"/>
       <c r="L26" s="32"/>
     </row>
-    <row r="27" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:12">
       <c r="G27" s="37"/>
       <c r="H27" s="38"/>
       <c r="I27" s="32">
@@ -7991,7 +8029,7 @@
       <c r="K27" s="32"/>
       <c r="L27" s="32"/>
     </row>
-    <row r="28" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:12">
       <c r="G28" s="37"/>
       <c r="H28" s="38"/>
       <c r="I28" s="32">
@@ -8003,7 +8041,7 @@
       <c r="K28" s="32"/>
       <c r="L28" s="32"/>
     </row>
-    <row r="29" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:12">
       <c r="G29" s="37"/>
       <c r="H29" s="38"/>
       <c r="I29" s="32"/>
@@ -8011,7 +8049,7 @@
       <c r="K29" s="32"/>
       <c r="L29" s="32"/>
     </row>
-    <row r="30" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:12">
       <c r="G30" s="37"/>
       <c r="H30" s="38"/>
       <c r="I30" s="32"/>
@@ -8019,7 +8057,7 @@
       <c r="K30" s="32"/>
       <c r="L30" s="32"/>
     </row>
-    <row r="31" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:12">
       <c r="G31" s="35"/>
       <c r="H31" s="36"/>
       <c r="I31" s="32"/>
@@ -8027,7 +8065,7 @@
       <c r="K31" s="32"/>
       <c r="L31" s="32"/>
     </row>
-    <row r="32" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:12">
       <c r="G32" s="15" t="s">
         <v>109</v>
       </c>
@@ -8037,7 +8075,7 @@
       <c r="K32" s="32"/>
       <c r="L32" s="32"/>
     </row>
-    <row r="33" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:12">
       <c r="G33" s="15"/>
       <c r="H33" s="32"/>
       <c r="I33" s="32"/>
@@ -8045,7 +8083,7 @@
       <c r="K33" s="32"/>
       <c r="L33" s="32"/>
     </row>
-    <row r="34" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:12">
       <c r="G34" s="15"/>
       <c r="H34" s="32"/>
       <c r="I34" s="32"/>
@@ -8053,7 +8091,7 @@
       <c r="K34" s="32"/>
       <c r="L34" s="32"/>
     </row>
-    <row r="35" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:12">
       <c r="G35" s="15"/>
       <c r="H35" s="32"/>
       <c r="I35" s="32"/>
@@ -8061,7 +8099,7 @@
       <c r="K35" s="32"/>
       <c r="L35" s="32"/>
     </row>
-    <row r="36" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:12">
       <c r="G36" s="15" t="s">
         <v>195</v>
       </c>
@@ -8081,7 +8119,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:12">
       <c r="G37" s="15"/>
       <c r="H37" s="32"/>
       <c r="I37" s="32">
@@ -8097,7 +8135,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="38" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:12">
       <c r="G38" s="15"/>
       <c r="H38" s="32"/>
       <c r="I38" s="32"/>
@@ -8109,7 +8147,7 @@
         <v>462</v>
       </c>
     </row>
-    <row r="39" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:12">
       <c r="G39" s="15"/>
       <c r="H39" s="32"/>
       <c r="I39" s="32"/>
@@ -8121,7 +8159,7 @@
         <v>57595</v>
       </c>
     </row>
-    <row r="40" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:12">
       <c r="G40" s="15" t="s">
         <v>111</v>
       </c>
@@ -8131,7 +8169,7 @@
       <c r="K40" s="32"/>
       <c r="L40" s="32"/>
     </row>
-    <row r="41" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:12">
       <c r="G41" s="15"/>
       <c r="H41" s="32"/>
       <c r="I41" s="32"/>
@@ -8139,14 +8177,14 @@
       <c r="K41" s="32"/>
       <c r="L41" s="32"/>
     </row>
-    <row r="42" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:12">
       <c r="H42" s="31"/>
       <c r="I42" s="31"/>
       <c r="J42" s="31"/>
       <c r="K42" s="31"/>
       <c r="L42" s="31"/>
     </row>
-    <row r="43" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:12">
       <c r="A43" t="s">
         <v>198</v>
       </c>
@@ -8156,7 +8194,7 @@
       <c r="K43" s="31"/>
       <c r="L43" s="31"/>
     </row>
-    <row r="44" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:12">
       <c r="C44" t="s">
         <v>199</v>
       </c>
@@ -8166,7 +8204,7 @@
       <c r="K44" s="31"/>
       <c r="L44" s="31"/>
     </row>
-    <row r="45" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:12">
       <c r="C45" t="s">
         <v>200</v>
       </c>
@@ -8177,7 +8215,7 @@
       <c r="I45" s="30"/>
       <c r="J45" s="30"/>
     </row>
-    <row r="46" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:12">
       <c r="C46" t="s">
         <v>202</v>
       </c>
@@ -8185,7 +8223,7 @@
       <c r="I46" s="30"/>
       <c r="J46" s="30"/>
     </row>
-    <row r="47" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:12">
       <c r="C47" t="s">
         <v>208</v>
       </c>
@@ -8196,17 +8234,17 @@
       <c r="I47" s="30"/>
       <c r="J47" s="30"/>
     </row>
-    <row r="48" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:12">
       <c r="C48" t="s">
         <v>212</v>
       </c>
     </row>
-    <row r="50" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:10">
       <c r="A50" t="s">
         <v>203</v>
       </c>
     </row>
-    <row r="51" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:10">
       <c r="A51" t="s">
         <v>158</v>
       </c>
@@ -8214,7 +8252,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="52" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:10">
       <c r="A52" t="s">
         <v>158</v>
       </c>
@@ -8231,7 +8269,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="53" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:10">
       <c r="B53" s="39" t="s">
         <v>206</v>
       </c>
@@ -8239,41 +8277,41 @@
         <v>211</v>
       </c>
     </row>
-    <row r="54" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:10">
       <c r="B54" s="39" t="s">
         <v>213</v>
       </c>
     </row>
-    <row r="55" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:10">
       <c r="B55" s="39" t="s">
         <v>214</v>
       </c>
     </row>
-    <row r="56" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:10">
       <c r="B56" s="39"/>
       <c r="J56" s="40"/>
     </row>
-    <row r="57" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:10">
       <c r="J57" s="40"/>
     </row>
-    <row r="58" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:10">
       <c r="H58"/>
       <c r="J58" s="40"/>
     </row>
-    <row r="59" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:10">
       <c r="H59"/>
       <c r="J59" s="40"/>
     </row>
-    <row r="60" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:10">
       <c r="H60"/>
     </row>
-    <row r="61" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:10">
       <c r="H61"/>
     </row>
-    <row r="62" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:10">
       <c r="H62"/>
     </row>
-    <row r="95" spans="16:16" x14ac:dyDescent="0.25">
+    <row r="95" spans="16:16">
       <c r="P95" s="41"/>
     </row>
   </sheetData>
@@ -8289,8 +8327,8 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr codeName="Sheet3"/>
   <dimension ref="A1:AH18"/>
   <sheetViews>
@@ -8298,22 +8336,22 @@
       <selection activeCell="AD44" sqref="AD44"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="16384" width="9.140625" style="42"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:34">
       <c r="A1" s="43" t="s">
         <v>219</v>
       </c>
     </row>
-    <row r="2" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:34">
       <c r="O2" s="42" t="s">
         <v>215</v>
       </c>
     </row>
-    <row r="3" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:34">
       <c r="A3" s="42" t="s">
         <v>220</v>
       </c>
@@ -8321,7 +8359,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="4" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:34">
       <c r="P4" s="42" t="s">
         <v>218</v>
       </c>
@@ -8335,12 +8373,12 @@
       <c r="AG4" s="5"/>
       <c r="AH4" s="5"/>
     </row>
-    <row r="5" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:34">
       <c r="A5" s="42" t="s">
         <v>221</v>
       </c>
     </row>
-    <row r="6" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:34">
       <c r="B6" s="42" t="s">
         <v>224</v>
       </c>
@@ -8348,42 +8386,42 @@
         <v>225</v>
       </c>
     </row>
-    <row r="7" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:34">
       <c r="A7" s="42" t="s">
         <v>222</v>
       </c>
     </row>
-    <row r="8" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:34">
       <c r="B8" s="42" t="s">
         <v>223</v>
       </c>
     </row>
-    <row r="12" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:34">
       <c r="O12" s="42" t="s">
         <v>216</v>
       </c>
     </row>
-    <row r="13" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:34">
       <c r="P13" s="42" t="s">
         <v>217</v>
       </c>
     </row>
-    <row r="14" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:34">
       <c r="Q14" s="42" t="s">
         <v>226</v>
       </c>
     </row>
-    <row r="16" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:34">
       <c r="P16" s="42" t="s">
         <v>227</v>
       </c>
     </row>
-    <row r="17" spans="4:16" x14ac:dyDescent="0.25">
+    <row r="17" spans="4:16">
       <c r="P17" s="42" t="s">
         <v>228</v>
       </c>
     </row>
-    <row r="18" spans="4:16" x14ac:dyDescent="0.25">
+    <row r="18" spans="4:16">
       <c r="D18" s="44"/>
     </row>
   </sheetData>
@@ -8393,8 +8431,8 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr codeName="Sheet4"/>
   <dimension ref="A1:AF109"/>
   <sheetViews>
@@ -8402,14 +8440,14 @@
       <selection activeCell="G52" sqref="G52"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:31">
       <c r="A1" t="s">
         <v>230</v>
       </c>
     </row>
-    <row r="2" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:31">
       <c r="B2" s="25" t="s">
         <v>229</v>
       </c>
@@ -8417,7 +8455,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="4" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:31">
       <c r="A4" t="s">
         <v>231</v>
       </c>
@@ -8425,7 +8463,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="7" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:31">
       <c r="A7" t="s">
         <v>234</v>
       </c>
@@ -8433,7 +8471,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="8" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:31">
       <c r="B8" s="25" t="s">
         <v>233</v>
       </c>
@@ -8449,7 +8487,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="9" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:31">
       <c r="B9" t="s">
         <v>235</v>
       </c>
@@ -8463,7 +8501,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="10" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:31">
       <c r="C10" s="3" t="s">
         <v>236</v>
       </c>
@@ -8477,7 +8515,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="11" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:31">
       <c r="C11" s="3" t="s">
         <v>237</v>
       </c>
@@ -8495,7 +8533,7 @@
       </c>
       <c r="AE11" s="5"/>
     </row>
-    <row r="12" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:31">
       <c r="R12" t="s">
         <v>252</v>
       </c>
@@ -8506,7 +8544,7 @@
         <v>287</v>
       </c>
     </row>
-    <row r="13" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:31">
       <c r="A13" t="s">
         <v>239</v>
       </c>
@@ -8520,7 +8558,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="14" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:31">
       <c r="B14" s="4" t="s">
         <v>240</v>
       </c>
@@ -8543,7 +8581,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="15" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:31">
       <c r="C15" t="s">
         <v>244</v>
       </c>
@@ -8563,7 +8601,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="16" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:31">
       <c r="C16" t="s">
         <v>246</v>
       </c>
@@ -8580,7 +8618,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="17" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:32">
       <c r="B17" s="4" t="s">
         <v>241</v>
       </c>
@@ -8605,7 +8643,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="18" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:32">
       <c r="C18" t="s">
         <v>247</v>
       </c>
@@ -8619,7 +8657,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="19" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:32">
       <c r="R19" t="s">
         <v>259</v>
       </c>
@@ -8627,7 +8665,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="20" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:32">
       <c r="R20" t="s">
         <v>260</v>
       </c>
@@ -8638,12 +8676,12 @@
         <v>295</v>
       </c>
     </row>
-    <row r="21" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:32">
       <c r="R21" t="s">
         <v>261</v>
       </c>
     </row>
-    <row r="22" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:32">
       <c r="B22" t="s">
         <v>242</v>
       </c>
@@ -8657,7 +8695,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="23" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:32">
       <c r="R23" t="s">
         <v>263</v>
       </c>
@@ -8665,7 +8703,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="24" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:32">
       <c r="R24" t="s">
         <v>264</v>
       </c>
@@ -8673,7 +8711,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="25" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:32">
       <c r="R25" t="s">
         <v>265</v>
       </c>
@@ -8683,7 +8721,7 @@
       <c r="AE25" s="5"/>
       <c r="AF25" s="5"/>
     </row>
-    <row r="26" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:32">
       <c r="R26" t="s">
         <v>266</v>
       </c>
@@ -8691,7 +8729,7 @@
         <v>298</v>
       </c>
     </row>
-    <row r="27" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:32">
       <c r="A27" s="13" t="s">
         <v>305</v>
       </c>
@@ -8707,7 +8745,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="28" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:32">
       <c r="B28" t="s">
         <v>306</v>
       </c>
@@ -8718,7 +8756,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="29" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:32">
       <c r="B29" t="s">
         <v>307</v>
       </c>
@@ -8729,7 +8767,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="30" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:32">
       <c r="B30" t="s">
         <v>308</v>
       </c>
@@ -8740,7 +8778,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="31" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:32">
       <c r="C31" t="s">
         <v>309</v>
       </c>
@@ -8748,7 +8786,7 @@
         <v>302</v>
       </c>
     </row>
-    <row r="32" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:32">
       <c r="C32" t="s">
         <v>310</v>
       </c>
@@ -8756,7 +8794,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="33" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:30">
       <c r="B33" t="s">
         <v>311</v>
       </c>
@@ -8764,7 +8802,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="34" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:30">
       <c r="B34" t="s">
         <v>312</v>
       </c>
@@ -8772,72 +8810,72 @@
         <v>295</v>
       </c>
     </row>
-    <row r="35" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:30">
       <c r="C35" t="s">
         <v>313</v>
       </c>
     </row>
-    <row r="36" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:30">
       <c r="D36" t="s">
         <v>314</v>
       </c>
     </row>
-    <row r="37" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:30">
       <c r="D37" t="s">
         <v>315</v>
       </c>
     </row>
-    <row r="38" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:30">
       <c r="C38" t="s">
         <v>311</v>
       </c>
     </row>
-    <row r="39" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:30">
       <c r="C39" t="s">
         <v>316</v>
       </c>
     </row>
-    <row r="40" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:30">
       <c r="D40" t="s">
         <v>314</v>
       </c>
     </row>
-    <row r="41" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:30">
       <c r="D41" t="s">
         <v>315</v>
       </c>
     </row>
-    <row r="42" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:30">
       <c r="C42" t="s">
         <v>311</v>
       </c>
     </row>
-    <row r="43" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:30">
       <c r="C43" t="s">
         <v>317</v>
       </c>
     </row>
-    <row r="44" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:30">
       <c r="C44" t="s">
         <v>318</v>
       </c>
     </row>
-    <row r="45" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:30">
       <c r="C45" t="s">
         <v>319</v>
       </c>
     </row>
-    <row r="46" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:30">
       <c r="B46" t="s">
         <v>311</v>
       </c>
     </row>
-    <row r="47" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:30">
       <c r="A47" t="s">
         <v>311</v>
       </c>
     </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:7">
       <c r="A49" s="13" t="s">
         <v>320</v>
       </c>
@@ -8847,17 +8885,17 @@
       <c r="E49" s="13"/>
       <c r="F49" s="13"/>
     </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:7">
       <c r="B50" t="s">
         <v>321</v>
       </c>
     </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:7">
       <c r="B51" t="s">
         <v>322</v>
       </c>
     </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:7">
       <c r="B52" s="5" t="s">
         <v>323</v>
       </c>
@@ -8866,32 +8904,32 @@
         <v>324</v>
       </c>
     </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:7">
       <c r="C53" t="s">
         <v>325</v>
       </c>
     </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:7">
       <c r="D54" t="s">
         <v>326</v>
       </c>
     </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:7">
       <c r="E55" t="s">
         <v>327</v>
       </c>
     </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:7">
       <c r="B56" t="s">
         <v>322</v>
       </c>
     </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:7">
       <c r="A57" t="s">
         <v>311</v>
       </c>
     </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:7">
       <c r="A59" s="13" t="s">
         <v>328</v>
       </c>
@@ -8901,62 +8939,62 @@
       <c r="E59" s="13"/>
       <c r="F59" s="13"/>
     </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:7">
       <c r="A60" t="s">
         <v>329</v>
       </c>
     </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:7">
       <c r="A61" t="s">
         <v>330</v>
       </c>
     </row>
-    <row r="62" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:7">
       <c r="A62" t="s">
         <v>331</v>
       </c>
     </row>
-    <row r="63" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:7">
       <c r="A63" t="s">
         <v>332</v>
       </c>
     </row>
-    <row r="64" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:7">
       <c r="A64" t="s">
         <v>333</v>
       </c>
     </row>
-    <row r="65" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:9">
       <c r="A65" t="s">
         <v>334</v>
       </c>
     </row>
-    <row r="66" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:9">
       <c r="A66" t="s">
         <v>335</v>
       </c>
     </row>
-    <row r="67" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:9">
       <c r="A67" t="s">
         <v>334</v>
       </c>
     </row>
-    <row r="68" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:9">
       <c r="A68" t="s">
         <v>336</v>
       </c>
     </row>
-    <row r="69" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:9">
       <c r="A69" t="s">
         <v>337</v>
       </c>
     </row>
-    <row r="70" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:9">
       <c r="A70" t="s">
         <v>338</v>
       </c>
     </row>
-    <row r="71" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:9">
       <c r="A71" t="s">
         <v>339</v>
       </c>
@@ -8964,7 +9002,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="72" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:9">
       <c r="A72" t="s">
         <v>340</v>
       </c>
@@ -8972,182 +9010,182 @@
         <v>372</v>
       </c>
     </row>
-    <row r="73" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:9">
       <c r="A73" t="s">
         <v>341</v>
       </c>
     </row>
-    <row r="74" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:9">
       <c r="A74" t="s">
         <v>342</v>
       </c>
     </row>
-    <row r="75" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:9">
       <c r="A75" t="s">
         <v>343</v>
       </c>
     </row>
-    <row r="76" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:9">
       <c r="A76" t="s">
         <v>344</v>
       </c>
     </row>
-    <row r="77" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:9">
       <c r="A77" t="s">
         <v>345</v>
       </c>
     </row>
-    <row r="78" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:9">
       <c r="A78" t="s">
         <v>341</v>
       </c>
     </row>
-    <row r="79" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:9">
       <c r="A79" t="s">
         <v>346</v>
       </c>
     </row>
-    <row r="80" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:9">
       <c r="A80" t="s">
         <v>347</v>
       </c>
     </row>
-    <row r="81" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:1">
       <c r="A81" t="s">
         <v>348</v>
       </c>
     </row>
-    <row r="82" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:1">
       <c r="A82" t="s">
         <v>349</v>
       </c>
     </row>
-    <row r="83" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:1">
       <c r="A83" t="s">
         <v>350</v>
       </c>
     </row>
-    <row r="84" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:1">
       <c r="A84" t="s">
         <v>351</v>
       </c>
     </row>
-    <row r="85" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:1">
       <c r="A85" t="s">
         <v>352</v>
       </c>
     </row>
-    <row r="86" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:1">
       <c r="A86" t="s">
         <v>348</v>
       </c>
     </row>
-    <row r="87" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:1">
       <c r="A87" t="s">
         <v>353</v>
       </c>
     </row>
-    <row r="88" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:1">
       <c r="A88" t="s">
         <v>354</v>
       </c>
     </row>
-    <row r="89" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:1">
       <c r="A89" t="s">
         <v>355</v>
       </c>
     </row>
-    <row r="90" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:1">
       <c r="A90" t="s">
         <v>356</v>
       </c>
     </row>
-    <row r="91" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:1">
       <c r="A91" t="s">
         <v>357</v>
       </c>
     </row>
-    <row r="92" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:1">
       <c r="A92" t="s">
         <v>358</v>
       </c>
     </row>
-    <row r="93" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:1">
       <c r="A93" t="s">
         <v>359</v>
       </c>
     </row>
-    <row r="94" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:1">
       <c r="A94" t="s">
         <v>360</v>
       </c>
     </row>
-    <row r="95" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:1">
       <c r="A95" t="s">
         <v>361</v>
       </c>
     </row>
-    <row r="96" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:1">
       <c r="A96" t="s">
         <v>362</v>
       </c>
     </row>
-    <row r="97" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:1">
       <c r="A97" t="s">
         <v>363</v>
       </c>
     </row>
-    <row r="98" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:1">
       <c r="A98" t="s">
         <v>351</v>
       </c>
     </row>
-    <row r="99" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:1">
       <c r="A99" t="s">
         <v>344</v>
       </c>
     </row>
-    <row r="100" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:1">
       <c r="A100" t="s">
         <v>364</v>
       </c>
     </row>
-    <row r="101" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:1">
       <c r="A101" t="s">
         <v>365</v>
       </c>
     </row>
-    <row r="102" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:1">
       <c r="A102" t="s">
         <v>338</v>
       </c>
     </row>
-    <row r="103" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:1">
       <c r="A103" t="s">
         <v>366</v>
       </c>
     </row>
-    <row r="104" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:1">
       <c r="A104" t="s">
         <v>367</v>
       </c>
     </row>
-    <row r="105" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:1">
       <c r="A105" t="s">
         <v>364</v>
       </c>
     </row>
-    <row r="107" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:1">
       <c r="A107" t="s">
         <v>368</v>
       </c>
     </row>
-    <row r="108" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:1">
       <c r="A108" t="s">
         <v>369</v>
       </c>
     </row>
-    <row r="109" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:1">
       <c r="A109" t="s">
         <v>370</v>
       </c>
@@ -9161,17 +9199,17 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:Z133"/>
   <sheetViews>
     <sheetView topLeftCell="A70" workbookViewId="0">
       <selection activeCell="A57" sqref="A57:F122"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:25">
       <c r="A1" s="46" t="s">
         <v>375</v>
       </c>
@@ -9180,12 +9218,12 @@
       <c r="D1" s="46"/>
       <c r="E1" s="46"/>
     </row>
-    <row r="3" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:25">
       <c r="A3" t="s">
         <v>413</v>
       </c>
     </row>
-    <row r="5" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:25">
       <c r="A5" t="s">
         <v>414</v>
       </c>
@@ -9193,7 +9231,7 @@
         <v>448</v>
       </c>
     </row>
-    <row r="6" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:25">
       <c r="A6" t="s">
         <v>420</v>
       </c>
@@ -9201,7 +9239,7 @@
         <v>446</v>
       </c>
     </row>
-    <row r="7" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:25">
       <c r="A7" t="s">
         <v>378</v>
       </c>
@@ -9209,7 +9247,7 @@
         <v>447</v>
       </c>
     </row>
-    <row r="8" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:25">
       <c r="B8" t="s">
         <v>409</v>
       </c>
@@ -9220,7 +9258,7 @@
         <v>452</v>
       </c>
     </row>
-    <row r="9" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:25">
       <c r="B9" t="s">
         <v>415</v>
       </c>
@@ -9231,12 +9269,12 @@
         <v>453</v>
       </c>
     </row>
-    <row r="10" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:25">
       <c r="B10" t="s">
         <v>410</v>
       </c>
     </row>
-    <row r="11" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:25">
       <c r="B11" t="s">
         <v>416</v>
       </c>
@@ -9244,17 +9282,17 @@
         <v>451</v>
       </c>
     </row>
-    <row r="13" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:25">
       <c r="B13" t="s">
         <v>417</v>
       </c>
     </row>
-    <row r="14" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:25">
       <c r="B14" t="s">
         <v>378</v>
       </c>
     </row>
-    <row r="15" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:25">
       <c r="C15" t="s">
         <v>411</v>
       </c>
@@ -9262,7 +9300,7 @@
         <v>442</v>
       </c>
     </row>
-    <row r="16" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:25">
       <c r="C16" t="s">
         <v>418</v>
       </c>
@@ -9270,7 +9308,7 @@
         <v>443</v>
       </c>
     </row>
-    <row r="17" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:26">
       <c r="C17" t="s">
         <v>412</v>
       </c>
@@ -9278,7 +9316,7 @@
         <v>444</v>
       </c>
     </row>
-    <row r="18" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:26">
       <c r="C18" t="s">
         <v>419</v>
       </c>
@@ -9286,17 +9324,17 @@
         <v>445</v>
       </c>
     </row>
-    <row r="19" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:26">
       <c r="B19" t="s">
         <v>311</v>
       </c>
     </row>
-    <row r="20" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:26">
       <c r="A20" t="s">
         <v>311</v>
       </c>
     </row>
-    <row r="22" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:26">
       <c r="A22" t="s">
         <v>437</v>
       </c>
@@ -9310,7 +9348,7 @@
         <v>468</v>
       </c>
     </row>
-    <row r="23" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:26">
       <c r="A23" t="s">
         <v>425</v>
       </c>
@@ -9327,7 +9365,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="24" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:26">
       <c r="A24" t="s">
         <v>378</v>
       </c>
@@ -9341,7 +9379,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="25" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:26">
       <c r="B25" t="s">
         <v>426</v>
       </c>
@@ -9355,7 +9393,7 @@
         <v>478</v>
       </c>
     </row>
-    <row r="26" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:26">
       <c r="C26" t="s">
         <v>430</v>
       </c>
@@ -9369,7 +9407,7 @@
         <v>482</v>
       </c>
     </row>
-    <row r="27" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:26">
       <c r="B27" t="s">
         <v>381</v>
       </c>
@@ -9383,7 +9421,7 @@
         <v>457</v>
       </c>
     </row>
-    <row r="28" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:26">
       <c r="C28" t="s">
         <v>431</v>
       </c>
@@ -9397,7 +9435,7 @@
         <v>483</v>
       </c>
     </row>
-    <row r="29" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:26">
       <c r="A29" t="s">
         <v>311</v>
       </c>
@@ -9411,7 +9449,7 @@
         <v>484</v>
       </c>
     </row>
-    <row r="30" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:26">
       <c r="P30" t="s">
         <v>474</v>
       </c>
@@ -9422,7 +9460,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="31" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:26">
       <c r="A31" s="41" t="s">
         <v>390</v>
       </c>
@@ -9445,7 +9483,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="32" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:26">
       <c r="A32" s="41" t="s">
         <v>378</v>
       </c>
@@ -9462,7 +9500,7 @@
         <v>476</v>
       </c>
     </row>
-    <row r="33" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:19">
       <c r="A33" s="41"/>
       <c r="B33" s="5" t="s">
         <v>421</v>
@@ -9479,7 +9517,7 @@
         <v>477</v>
       </c>
     </row>
-    <row r="34" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:19">
       <c r="A34" s="41"/>
       <c r="B34" s="41" t="s">
         <v>378</v>
@@ -9496,7 +9534,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="35" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:19">
       <c r="A35" s="41"/>
       <c r="B35" s="41"/>
       <c r="C35" s="41" t="s">
@@ -9517,7 +9555,7 @@
         <v>37500</v>
       </c>
     </row>
-    <row r="36" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:19">
       <c r="A36" s="41"/>
       <c r="B36" s="41"/>
       <c r="C36" s="41" t="s">
@@ -9531,7 +9569,7 @@
         <v>408</v>
       </c>
     </row>
-    <row r="37" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:19">
       <c r="A37" s="41"/>
       <c r="B37" s="41"/>
       <c r="C37" s="41"/>
@@ -9545,7 +9583,7 @@
         <v>428</v>
       </c>
     </row>
-    <row r="38" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:19">
       <c r="A38" s="41"/>
       <c r="B38" s="41"/>
       <c r="C38" s="41"/>
@@ -9559,7 +9597,7 @@
         <v>429</v>
       </c>
     </row>
-    <row r="39" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:19">
       <c r="A39" s="41"/>
       <c r="B39" s="41"/>
       <c r="C39" s="41"/>
@@ -9570,7 +9608,7 @@
       <c r="F39" s="41"/>
       <c r="G39" s="41"/>
     </row>
-    <row r="40" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:19">
       <c r="A40" s="41"/>
       <c r="B40" s="41"/>
       <c r="C40" s="41"/>
@@ -9581,7 +9619,7 @@
       <c r="F40" s="41"/>
       <c r="G40" s="41"/>
     </row>
-    <row r="41" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:19">
       <c r="A41" s="41"/>
       <c r="B41" s="41"/>
       <c r="C41" s="41"/>
@@ -9592,7 +9630,7 @@
       <c r="F41" s="41"/>
       <c r="G41" s="41"/>
     </row>
-    <row r="42" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:19">
       <c r="A42" s="41"/>
       <c r="B42" s="41"/>
       <c r="C42" s="41"/>
@@ -9603,7 +9641,7 @@
       <c r="F42" s="41"/>
       <c r="G42" s="41"/>
     </row>
-    <row r="43" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:19">
       <c r="A43" s="41"/>
       <c r="B43" s="41"/>
       <c r="C43" s="41"/>
@@ -9614,7 +9652,7 @@
       <c r="F43" s="41"/>
       <c r="G43" s="41"/>
     </row>
-    <row r="44" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:19">
       <c r="A44" s="41"/>
       <c r="B44" s="41"/>
       <c r="C44" s="41"/>
@@ -9625,7 +9663,7 @@
       <c r="F44" s="41"/>
       <c r="G44" s="41"/>
     </row>
-    <row r="45" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:19">
       <c r="A45" s="41"/>
       <c r="B45" s="41"/>
       <c r="C45" s="41" t="s">
@@ -9636,7 +9674,7 @@
       <c r="F45" s="41"/>
       <c r="G45" s="41"/>
     </row>
-    <row r="46" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:19">
       <c r="A46" s="41"/>
       <c r="B46" s="41"/>
       <c r="C46" s="41" t="s">
@@ -9647,7 +9685,7 @@
       <c r="F46" s="41"/>
       <c r="G46" s="41"/>
     </row>
-    <row r="47" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:19">
       <c r="A47" s="41"/>
       <c r="B47" s="41"/>
       <c r="C47" s="41" t="s">
@@ -9658,7 +9696,7 @@
       <c r="F47" s="41"/>
       <c r="G47" s="41"/>
     </row>
-    <row r="48" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:19">
       <c r="A48" s="41"/>
       <c r="B48" s="41"/>
       <c r="C48" s="41"/>
@@ -9669,7 +9707,7 @@
       <c r="F48" s="41"/>
       <c r="G48" s="41"/>
     </row>
-    <row r="49" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:26">
       <c r="A49" s="41"/>
       <c r="B49" s="41"/>
       <c r="C49" s="41" t="s">
@@ -9680,7 +9718,7 @@
       <c r="F49" s="41"/>
       <c r="G49" s="41"/>
     </row>
-    <row r="50" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:26">
       <c r="A50" s="41"/>
       <c r="B50" s="41" t="s">
         <v>311</v>
@@ -9691,7 +9729,7 @@
       <c r="F50" s="41"/>
       <c r="G50" s="41"/>
     </row>
-    <row r="51" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:26">
       <c r="A51" s="41"/>
       <c r="B51" s="41" t="s">
         <v>381</v>
@@ -9702,7 +9740,7 @@
       <c r="F51" s="41"/>
       <c r="G51" s="41"/>
     </row>
-    <row r="52" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:26">
       <c r="A52" s="41"/>
       <c r="B52" s="41" t="s">
         <v>378</v>
@@ -9713,7 +9751,7 @@
       <c r="F52" s="41"/>
       <c r="G52" s="41"/>
     </row>
-    <row r="53" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:26">
       <c r="A53" s="41"/>
       <c r="B53" s="41"/>
       <c r="C53" s="41" t="s">
@@ -9724,7 +9762,7 @@
       <c r="F53" s="41"/>
       <c r="G53" s="41"/>
     </row>
-    <row r="54" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:26">
       <c r="A54" s="41"/>
       <c r="B54" s="41" t="s">
         <v>311</v>
@@ -9735,7 +9773,7 @@
       <c r="F54" s="41"/>
       <c r="G54" s="41"/>
     </row>
-    <row r="55" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:26">
       <c r="A55" s="41" t="s">
         <v>311</v>
       </c>
@@ -9746,7 +9784,7 @@
       <c r="F55" s="41"/>
       <c r="G55" s="41"/>
     </row>
-    <row r="56" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:26">
       <c r="A56" s="41"/>
       <c r="B56" s="41"/>
       <c r="C56" s="41"/>
@@ -9755,7 +9793,7 @@
       <c r="F56" s="41"/>
       <c r="G56" s="41"/>
     </row>
-    <row r="57" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:26">
       <c r="A57" s="41" t="s">
         <v>393</v>
       </c>
@@ -9778,7 +9816,7 @@
         <v>468</v>
       </c>
     </row>
-    <row r="58" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:26">
       <c r="A58" s="41" t="s">
         <v>378</v>
       </c>
@@ -9801,7 +9839,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="59" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:26">
       <c r="A59" s="41"/>
       <c r="B59" s="41" t="s">
         <v>394</v>
@@ -9824,7 +9862,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="60" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:26">
       <c r="A60" s="41"/>
       <c r="B60" s="41"/>
       <c r="C60" s="41"/>
@@ -9848,7 +9886,7 @@
         <v>469</v>
       </c>
     </row>
-    <row r="61" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:26">
       <c r="A61" s="41"/>
       <c r="B61" s="5" t="s">
         <v>395</v>
@@ -9871,7 +9909,7 @@
         <v>470</v>
       </c>
     </row>
-    <row r="62" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:26">
       <c r="A62" s="41"/>
       <c r="B62" s="41" t="s">
         <v>378</v>
@@ -9894,7 +9932,7 @@
         <v>471</v>
       </c>
     </row>
-    <row r="63" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:26">
       <c r="A63" s="41"/>
       <c r="B63" s="41"/>
       <c r="C63" s="5" t="s">
@@ -9917,7 +9955,7 @@
         <v>472</v>
       </c>
     </row>
-    <row r="64" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:26">
       <c r="A64" s="41"/>
       <c r="B64" s="41"/>
       <c r="C64" s="41" t="s">
@@ -9940,7 +9978,7 @@
         <v>473</v>
       </c>
     </row>
-    <row r="65" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:26">
       <c r="A65" s="41"/>
       <c r="B65" s="41"/>
       <c r="C65" s="41"/>
@@ -9960,7 +9998,7 @@
         <v>491</v>
       </c>
     </row>
-    <row r="66" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:26">
       <c r="A66" s="41"/>
       <c r="B66" s="41"/>
       <c r="C66" s="41" t="s">
@@ -9980,7 +10018,7 @@
         <v>492</v>
       </c>
     </row>
-    <row r="67" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:26">
       <c r="A67" s="41"/>
       <c r="B67" s="41"/>
       <c r="C67" s="41" t="s">
@@ -10000,7 +10038,7 @@
         <v>493</v>
       </c>
     </row>
-    <row r="68" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:26">
       <c r="A68" s="41"/>
       <c r="B68" s="41"/>
       <c r="C68" s="41" t="s">
@@ -10020,7 +10058,7 @@
         <v>489</v>
       </c>
     </row>
-    <row r="69" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:26">
       <c r="A69" s="41"/>
       <c r="B69" s="41"/>
       <c r="C69" s="41"/>
@@ -10040,7 +10078,7 @@
         <v>494</v>
       </c>
     </row>
-    <row r="70" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:26">
       <c r="A70" s="41"/>
       <c r="B70" s="41"/>
       <c r="C70" s="41" t="s">
@@ -10060,7 +10098,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="71" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:26">
       <c r="A71" s="41"/>
       <c r="B71" s="41"/>
       <c r="C71" s="41" t="s">
@@ -10071,7 +10109,7 @@
       <c r="F71" s="41"/>
       <c r="G71" s="41"/>
     </row>
-    <row r="72" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:26">
       <c r="A72" s="41"/>
       <c r="B72" s="41" t="s">
         <v>397</v>
@@ -10082,7 +10120,7 @@
       <c r="F72" s="41"/>
       <c r="G72" s="41"/>
     </row>
-    <row r="73" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:26">
       <c r="A73" s="41"/>
       <c r="B73" s="41"/>
       <c r="C73" s="41"/>
@@ -10091,7 +10129,7 @@
       <c r="F73" s="41"/>
       <c r="G73" s="41"/>
     </row>
-    <row r="74" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:26">
       <c r="A74" s="41"/>
       <c r="B74" s="41" t="s">
         <v>398</v>
@@ -10102,7 +10140,7 @@
       <c r="F74" s="41"/>
       <c r="G74" s="41"/>
     </row>
-    <row r="75" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:26">
       <c r="A75" s="41"/>
       <c r="B75" s="41" t="s">
         <v>399</v>
@@ -10113,7 +10151,7 @@
       <c r="F75" s="41"/>
       <c r="G75" s="41"/>
     </row>
-    <row r="76" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:26">
       <c r="A76" s="41"/>
       <c r="B76" s="41"/>
       <c r="C76" s="41" t="s">
@@ -10124,7 +10162,7 @@
       <c r="F76" s="41"/>
       <c r="G76" s="41"/>
     </row>
-    <row r="77" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:26">
       <c r="A77" s="41"/>
       <c r="B77" s="41" t="s">
         <v>397</v>
@@ -10135,7 +10173,7 @@
       <c r="F77" s="41"/>
       <c r="G77" s="41"/>
     </row>
-    <row r="78" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:26">
       <c r="A78" s="41"/>
       <c r="B78" s="41" t="s">
         <v>400</v>
@@ -10146,7 +10184,7 @@
       <c r="F78" s="41"/>
       <c r="G78" s="41"/>
     </row>
-    <row r="79" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:26">
       <c r="A79" s="41"/>
       <c r="B79" s="41" t="s">
         <v>378</v>
@@ -10157,7 +10195,7 @@
       <c r="F79" s="41"/>
       <c r="G79" s="41"/>
     </row>
-    <row r="80" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:26">
       <c r="A80" s="41"/>
       <c r="B80" s="41"/>
       <c r="C80" s="5" t="s">
@@ -10168,7 +10206,7 @@
       <c r="F80" s="41"/>
       <c r="G80" s="41"/>
     </row>
-    <row r="81" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:26">
       <c r="A81" s="41"/>
       <c r="B81" s="41"/>
       <c r="C81" s="41" t="s">
@@ -10179,7 +10217,7 @@
       <c r="F81" s="41"/>
       <c r="G81" s="41"/>
     </row>
-    <row r="82" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:26">
       <c r="A82" s="41"/>
       <c r="B82" s="41"/>
       <c r="C82" s="41"/>
@@ -10190,7 +10228,7 @@
       <c r="F82" s="41"/>
       <c r="G82" s="41"/>
     </row>
-    <row r="83" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:26">
       <c r="A83" s="41"/>
       <c r="B83" s="41"/>
       <c r="C83" s="41"/>
@@ -10201,7 +10239,7 @@
       <c r="F83" s="41"/>
       <c r="G83" s="41"/>
     </row>
-    <row r="84" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:26">
       <c r="A84" s="41"/>
       <c r="B84" s="41"/>
       <c r="C84" s="41" t="s">
@@ -10212,7 +10250,7 @@
       <c r="F84" s="41"/>
       <c r="G84" s="41"/>
     </row>
-    <row r="85" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:26">
       <c r="A85" s="41"/>
       <c r="B85" s="41"/>
       <c r="C85" s="41" t="s">
@@ -10223,7 +10261,7 @@
       <c r="F85" s="41"/>
       <c r="G85" s="41"/>
     </row>
-    <row r="86" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:26">
       <c r="A86" s="41"/>
       <c r="B86" s="41"/>
       <c r="C86" s="41" t="s">
@@ -10234,7 +10272,7 @@
       <c r="F86" s="41"/>
       <c r="G86" s="41"/>
     </row>
-    <row r="87" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:26">
       <c r="A87" s="41"/>
       <c r="B87" s="41"/>
       <c r="C87" s="41"/>
@@ -10245,7 +10283,7 @@
       <c r="F87" s="41"/>
       <c r="G87" s="41"/>
     </row>
-    <row r="88" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:26">
       <c r="A88" s="41"/>
       <c r="B88" s="41"/>
       <c r="C88" s="41"/>
@@ -10256,7 +10294,7 @@
       <c r="F88" s="41"/>
       <c r="G88" s="41"/>
     </row>
-    <row r="89" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:26">
       <c r="A89" s="41"/>
       <c r="B89" s="41"/>
       <c r="C89" s="41"/>
@@ -10267,7 +10305,7 @@
       <c r="F89" s="41"/>
       <c r="G89" s="41"/>
     </row>
-    <row r="90" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:26">
       <c r="A90" s="41"/>
       <c r="B90" s="41"/>
       <c r="C90" s="41" t="s">
@@ -10278,7 +10316,7 @@
       <c r="F90" s="41"/>
       <c r="G90" s="41"/>
     </row>
-    <row r="91" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:26">
       <c r="A91" s="41"/>
       <c r="B91" s="41" t="s">
         <v>311</v>
@@ -10289,7 +10327,7 @@
       <c r="F91" s="41"/>
       <c r="G91" s="41"/>
     </row>
-    <row r="92" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:26">
       <c r="A92" s="41" t="s">
         <v>311</v>
       </c>
@@ -10300,7 +10338,7 @@
       <c r="F92" s="41"/>
       <c r="G92" s="41"/>
     </row>
-    <row r="93" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:26">
       <c r="A93" s="41"/>
       <c r="B93" s="41"/>
       <c r="C93" s="41"/>
@@ -10309,7 +10347,7 @@
       <c r="F93" s="41"/>
       <c r="G93" s="41"/>
     </row>
-    <row r="94" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:26">
       <c r="A94" s="41" t="s">
         <v>406</v>
       </c>
@@ -10332,7 +10370,7 @@
         <v>468</v>
       </c>
     </row>
-    <row r="95" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:26">
       <c r="A95" s="41" t="s">
         <v>378</v>
       </c>
@@ -10355,7 +10393,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="96" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:26">
       <c r="A96" s="41"/>
       <c r="B96" s="41" t="s">
         <v>376</v>
@@ -10378,7 +10416,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="97" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:26">
       <c r="A97" s="41"/>
       <c r="B97" s="41"/>
       <c r="C97" s="41"/>
@@ -10399,7 +10437,7 @@
         <v>467</v>
       </c>
     </row>
-    <row r="98" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:26">
       <c r="A98" s="41"/>
       <c r="B98" s="41" t="s">
         <v>377</v>
@@ -10422,7 +10460,7 @@
         <v>485</v>
       </c>
     </row>
-    <row r="99" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:26">
       <c r="A99" s="41"/>
       <c r="B99" s="41" t="s">
         <v>378</v>
@@ -10445,7 +10483,7 @@
         <v>457</v>
       </c>
     </row>
-    <row r="100" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:26">
       <c r="A100" s="41"/>
       <c r="B100" s="41"/>
       <c r="C100" s="5" t="s">
@@ -10468,7 +10506,7 @@
         <v>486</v>
       </c>
     </row>
-    <row r="101" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:26">
       <c r="A101" s="41"/>
       <c r="B101" s="41"/>
       <c r="C101" s="41" t="s">
@@ -10491,7 +10529,7 @@
         <v>487</v>
       </c>
     </row>
-    <row r="102" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:26">
       <c r="A102" s="41"/>
       <c r="B102" s="41"/>
       <c r="C102" s="41"/>
@@ -10511,7 +10549,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="103" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:26">
       <c r="A103" s="41"/>
       <c r="B103" s="41"/>
       <c r="C103" s="41" t="s">
@@ -10531,7 +10569,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="104" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:26">
       <c r="A104" s="41"/>
       <c r="B104" s="41"/>
       <c r="C104" s="41" t="s">
@@ -10542,7 +10580,7 @@
       <c r="F104" s="41"/>
       <c r="G104" s="41"/>
     </row>
-    <row r="105" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:26">
       <c r="A105" s="41"/>
       <c r="B105" s="41"/>
       <c r="C105" s="41" t="s">
@@ -10553,7 +10591,7 @@
       <c r="F105" s="41"/>
       <c r="G105" s="41"/>
     </row>
-    <row r="106" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:26">
       <c r="A106" s="41"/>
       <c r="B106" s="41"/>
       <c r="C106" s="41"/>
@@ -10564,7 +10602,7 @@
       <c r="F106" s="5"/>
       <c r="G106" s="41"/>
     </row>
-    <row r="107" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:26">
       <c r="A107" s="41"/>
       <c r="B107" s="41"/>
       <c r="C107" s="41"/>
@@ -10575,7 +10613,7 @@
       <c r="F107" s="41"/>
       <c r="G107" s="41"/>
     </row>
-    <row r="108" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:26">
       <c r="A108" s="41"/>
       <c r="B108" s="41"/>
       <c r="C108" s="41"/>
@@ -10586,7 +10624,7 @@
       <c r="F108" s="41"/>
       <c r="G108" s="41"/>
     </row>
-    <row r="109" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:26">
       <c r="A109" s="41"/>
       <c r="B109" s="41"/>
       <c r="C109" s="41"/>
@@ -10597,7 +10635,7 @@
       <c r="F109" s="41"/>
       <c r="G109" s="41"/>
     </row>
-    <row r="110" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:26">
       <c r="A110" s="41"/>
       <c r="B110" s="41"/>
       <c r="C110" s="41"/>
@@ -10608,7 +10646,7 @@
       <c r="F110" s="41"/>
       <c r="G110" s="41"/>
     </row>
-    <row r="111" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:26">
       <c r="A111" s="41"/>
       <c r="B111" s="41"/>
       <c r="C111" s="41"/>
@@ -10619,7 +10657,7 @@
       <c r="F111" s="41"/>
       <c r="G111" s="41"/>
     </row>
-    <row r="112" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:26">
       <c r="A112" s="41"/>
       <c r="B112" s="41"/>
       <c r="C112" s="41"/>
@@ -10630,7 +10668,7 @@
       <c r="F112" s="41"/>
       <c r="G112" s="41"/>
     </row>
-    <row r="113" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:7">
       <c r="A113" s="41"/>
       <c r="B113" s="41"/>
       <c r="C113" s="41"/>
@@ -10641,7 +10679,7 @@
       <c r="F113" s="41"/>
       <c r="G113" s="41"/>
     </row>
-    <row r="114" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:7">
       <c r="A114" s="41"/>
       <c r="B114" s="41"/>
       <c r="C114" s="41" t="s">
@@ -10652,7 +10690,7 @@
       <c r="F114" s="41"/>
       <c r="G114" s="41"/>
     </row>
-    <row r="115" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:7">
       <c r="A115" s="41"/>
       <c r="B115" s="41" t="s">
         <v>311</v>
@@ -10663,7 +10701,7 @@
       <c r="F115" s="41"/>
       <c r="G115" s="41"/>
     </row>
-    <row r="116" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:7">
       <c r="A116" s="41"/>
       <c r="B116" s="41" t="s">
         <v>381</v>
@@ -10674,7 +10712,7 @@
       <c r="F116" s="41"/>
       <c r="G116" s="41"/>
     </row>
-    <row r="117" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:7">
       <c r="A117" s="41"/>
       <c r="B117" s="41" t="s">
         <v>378</v>
@@ -10685,7 +10723,7 @@
       <c r="F117" s="41"/>
       <c r="G117" s="41"/>
     </row>
-    <row r="118" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:7">
       <c r="A118" s="41"/>
       <c r="B118" s="41"/>
       <c r="C118" s="41" t="s">
@@ -10696,7 +10734,7 @@
       <c r="F118" s="41"/>
       <c r="G118" s="41"/>
     </row>
-    <row r="119" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:7">
       <c r="A119" s="41"/>
       <c r="B119" s="41" t="s">
         <v>311</v>
@@ -10707,7 +10745,7 @@
       <c r="F119" s="41"/>
       <c r="G119" s="41"/>
     </row>
-    <row r="120" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:7">
       <c r="A120" s="41"/>
       <c r="B120" s="41"/>
       <c r="C120" s="41"/>
@@ -10716,7 +10754,7 @@
       <c r="F120" s="41"/>
       <c r="G120" s="41"/>
     </row>
-    <row r="121" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:7">
       <c r="A121" s="41"/>
       <c r="B121" s="41" t="s">
         <v>407</v>
@@ -10727,7 +10765,7 @@
       <c r="F121" s="41"/>
       <c r="G121" s="41"/>
     </row>
-    <row r="122" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:7">
       <c r="A122" s="41" t="s">
         <v>311</v>
       </c>
@@ -10738,7 +10776,7 @@
       <c r="F122" s="41"/>
       <c r="G122" s="41"/>
     </row>
-    <row r="125" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:7">
       <c r="A125" s="41"/>
       <c r="B125" s="41"/>
       <c r="C125" s="41"/>
@@ -10747,7 +10785,7 @@
       <c r="F125" s="41"/>
       <c r="G125" s="41"/>
     </row>
-    <row r="133" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:11">
       <c r="A133" s="41"/>
       <c r="B133" s="41"/>
       <c r="C133" s="41"/>
@@ -10766,72 +10804,72 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:L81"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="L23" sqref="L23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6">
       <c r="A1" t="s">
         <v>507</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6">
       <c r="A2" t="s">
         <v>508</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6">
       <c r="A3" t="s">
         <v>509</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6">
       <c r="A5" t="s">
         <v>510</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6">
       <c r="A6" s="48" t="s">
         <v>514</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6">
       <c r="A7" s="48" t="s">
         <v>515</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6">
       <c r="A8" t="s">
         <v>512</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6">
       <c r="A9" t="s">
         <v>513</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6">
       <c r="A10" t="s">
         <v>511</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6">
       <c r="A12" t="s">
         <v>516</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6">
       <c r="A14" t="s">
         <v>517</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6">
       <c r="A16" s="41" t="s">
         <v>393</v>
       </c>
@@ -10841,7 +10879,7 @@
       <c r="E16" s="41"/>
       <c r="F16" s="41"/>
     </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:12">
       <c r="A17" s="41" t="s">
         <v>378</v>
       </c>
@@ -10854,7 +10892,7 @@
         <v>523</v>
       </c>
     </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:12">
       <c r="A18" s="41"/>
       <c r="B18" s="41" t="s">
         <v>394</v>
@@ -10867,7 +10905,7 @@
         <v>524</v>
       </c>
     </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:12">
       <c r="A19" s="41"/>
       <c r="B19" s="41"/>
       <c r="C19" s="41"/>
@@ -10878,7 +10916,7 @@
         <v>526</v>
       </c>
     </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:12">
       <c r="A20" s="41"/>
       <c r="B20" s="41" t="s">
         <v>395</v>
@@ -10891,7 +10929,7 @@
         <v>527</v>
       </c>
     </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:12">
       <c r="A21" s="41"/>
       <c r="B21" s="41" t="s">
         <v>378</v>
@@ -10901,7 +10939,7 @@
       <c r="E21" s="41"/>
       <c r="F21" s="41"/>
     </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:12">
       <c r="A22" s="41"/>
       <c r="B22" s="41"/>
       <c r="C22" s="41" t="s">
@@ -10914,7 +10952,7 @@
         <v>525</v>
       </c>
     </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:12">
       <c r="A23" s="41"/>
       <c r="B23" s="41"/>
       <c r="C23" s="41" t="s">
@@ -10927,7 +10965,7 @@
         <v>528</v>
       </c>
     </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:12">
       <c r="A24" s="41"/>
       <c r="B24" s="41"/>
       <c r="C24" s="41"/>
@@ -10937,7 +10975,7 @@
       <c r="E24" s="41"/>
       <c r="F24" s="41"/>
     </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:12">
       <c r="A25" s="41"/>
       <c r="B25" s="41"/>
       <c r="C25" s="41" t="s">
@@ -10947,7 +10985,7 @@
       <c r="E25" s="41"/>
       <c r="F25" s="41"/>
     </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:12">
       <c r="A26" s="41"/>
       <c r="B26" s="41"/>
       <c r="C26" s="41" t="s">
@@ -10957,7 +10995,7 @@
       <c r="E26" s="41"/>
       <c r="F26" s="41"/>
     </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:12">
       <c r="A27" s="41"/>
       <c r="B27" s="41"/>
       <c r="C27" s="41" t="s">
@@ -10967,7 +11005,7 @@
       <c r="E27" s="41"/>
       <c r="F27" s="41"/>
     </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:12">
       <c r="A28" s="41"/>
       <c r="B28" s="41"/>
       <c r="C28" s="41"/>
@@ -10977,7 +11015,7 @@
       <c r="E28" s="41"/>
       <c r="F28" s="41"/>
     </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:12">
       <c r="A29" s="41"/>
       <c r="B29" s="41"/>
       <c r="C29" s="41" t="s">
@@ -10987,7 +11025,7 @@
       <c r="E29" s="41"/>
       <c r="F29" s="41"/>
     </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:12">
       <c r="A30" s="41"/>
       <c r="B30" s="41"/>
       <c r="C30" s="41" t="s">
@@ -10997,7 +11035,7 @@
       <c r="E30" s="41"/>
       <c r="F30" s="41"/>
     </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:12">
       <c r="A31" s="41"/>
       <c r="B31" s="41" t="s">
         <v>397</v>
@@ -11007,7 +11045,7 @@
       <c r="E31" s="41"/>
       <c r="F31" s="41"/>
     </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:12">
       <c r="A32" s="41"/>
       <c r="B32" s="41"/>
       <c r="C32" s="41"/>
@@ -11015,7 +11053,7 @@
       <c r="E32" s="41"/>
       <c r="F32" s="41"/>
     </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:10">
       <c r="A33" s="41"/>
       <c r="B33" s="41" t="s">
         <v>398</v>
@@ -11025,7 +11063,7 @@
       <c r="E33" s="41"/>
       <c r="F33" s="41"/>
     </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:10">
       <c r="A34" s="41"/>
       <c r="B34" s="41" t="s">
         <v>399</v>
@@ -11035,7 +11073,7 @@
       <c r="E34" s="41"/>
       <c r="F34" s="41"/>
     </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:10">
       <c r="A35" s="41"/>
       <c r="B35" s="41"/>
       <c r="C35" s="41" t="s">
@@ -11045,7 +11083,7 @@
       <c r="E35" s="41"/>
       <c r="F35" s="41"/>
     </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:10">
       <c r="A36" s="41"/>
       <c r="B36" s="41" t="s">
         <v>397</v>
@@ -11055,7 +11093,7 @@
       <c r="E36" s="41"/>
       <c r="F36" s="41"/>
     </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:10">
       <c r="A37" s="41"/>
       <c r="B37" s="41" t="s">
         <v>400</v>
@@ -11065,7 +11103,7 @@
       <c r="E37" s="41"/>
       <c r="F37" s="41"/>
     </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:10">
       <c r="A38" s="41"/>
       <c r="B38" s="41" t="s">
         <v>378</v>
@@ -11075,7 +11113,7 @@
       <c r="E38" s="41"/>
       <c r="F38" s="41"/>
     </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:10">
       <c r="A39" s="41"/>
       <c r="B39" s="41"/>
       <c r="C39" s="5" t="s">
@@ -11093,7 +11131,7 @@
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
     </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:10">
       <c r="A40" s="41"/>
       <c r="B40" s="41"/>
       <c r="C40" s="41" t="s">
@@ -11106,7 +11144,7 @@
         <v>520</v>
       </c>
     </row>
-    <row r="41" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:10">
       <c r="A41" s="41"/>
       <c r="B41" s="41"/>
       <c r="C41" s="41"/>
@@ -11119,7 +11157,7 @@
         <v>521</v>
       </c>
     </row>
-    <row r="42" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:10">
       <c r="A42" s="41"/>
       <c r="B42" s="41"/>
       <c r="C42" s="41"/>
@@ -11129,7 +11167,7 @@
       <c r="E42" s="41"/>
       <c r="F42" s="41"/>
     </row>
-    <row r="43" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:10">
       <c r="A43" s="41"/>
       <c r="B43" s="41"/>
       <c r="C43" s="41" t="s">
@@ -11139,7 +11177,7 @@
       <c r="E43" s="41"/>
       <c r="F43" s="41"/>
     </row>
-    <row r="44" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:10">
       <c r="A44" s="41"/>
       <c r="B44" s="41"/>
       <c r="C44" s="41" t="s">
@@ -11149,7 +11187,7 @@
       <c r="E44" s="41"/>
       <c r="F44" s="41"/>
     </row>
-    <row r="45" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:10">
       <c r="A45" s="41"/>
       <c r="B45" s="41"/>
       <c r="C45" s="41" t="s">
@@ -11159,7 +11197,7 @@
       <c r="E45" s="41"/>
       <c r="F45" s="41"/>
     </row>
-    <row r="46" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:10">
       <c r="A46" s="41"/>
       <c r="B46" s="41"/>
       <c r="C46" s="41"/>
@@ -11169,7 +11207,7 @@
       <c r="E46" s="41"/>
       <c r="F46" s="41"/>
     </row>
-    <row r="47" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:10">
       <c r="A47" s="41"/>
       <c r="B47" s="41"/>
       <c r="C47" s="41"/>
@@ -11179,7 +11217,7 @@
       <c r="E47" s="41"/>
       <c r="F47" s="41"/>
     </row>
-    <row r="48" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:10">
       <c r="A48" s="41"/>
       <c r="B48" s="41"/>
       <c r="C48" s="41"/>
@@ -11189,7 +11227,7 @@
       <c r="E48" s="41"/>
       <c r="F48" s="41"/>
     </row>
-    <row r="49" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:10">
       <c r="A49" s="41"/>
       <c r="B49" s="41"/>
       <c r="C49" s="41" t="s">
@@ -11199,7 +11237,7 @@
       <c r="E49" s="41"/>
       <c r="F49" s="41"/>
     </row>
-    <row r="50" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:10">
       <c r="A50" s="41"/>
       <c r="B50" s="41" t="s">
         <v>311</v>
@@ -11209,7 +11247,7 @@
       <c r="E50" s="41"/>
       <c r="F50" s="41"/>
     </row>
-    <row r="51" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:10">
       <c r="A51" s="41" t="s">
         <v>311</v>
       </c>
@@ -11219,7 +11257,7 @@
       <c r="E51" s="41"/>
       <c r="F51" s="41"/>
     </row>
-    <row r="52" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:10">
       <c r="A52" s="41"/>
       <c r="B52" s="41"/>
       <c r="C52" s="41"/>
@@ -11227,7 +11265,7 @@
       <c r="E52" s="41"/>
       <c r="F52" s="41"/>
     </row>
-    <row r="53" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:10">
       <c r="A53" s="41" t="s">
         <v>406</v>
       </c>
@@ -11237,7 +11275,7 @@
       <c r="E53" s="41"/>
       <c r="F53" s="41"/>
     </row>
-    <row r="54" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:10">
       <c r="A54" s="41" t="s">
         <v>378</v>
       </c>
@@ -11247,7 +11285,7 @@
       <c r="E54" s="41"/>
       <c r="F54" s="41"/>
     </row>
-    <row r="55" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:10">
       <c r="A55" s="41"/>
       <c r="B55" s="41" t="s">
         <v>376</v>
@@ -11257,7 +11295,7 @@
       <c r="E55" s="41"/>
       <c r="F55" s="41"/>
     </row>
-    <row r="56" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:10">
       <c r="A56" s="41"/>
       <c r="B56" s="41"/>
       <c r="C56" s="41"/>
@@ -11265,7 +11303,7 @@
       <c r="E56" s="41"/>
       <c r="F56" s="41"/>
     </row>
-    <row r="57" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:10">
       <c r="A57" s="41"/>
       <c r="B57" s="41" t="s">
         <v>377</v>
@@ -11275,7 +11313,7 @@
       <c r="E57" s="41"/>
       <c r="F57" s="41"/>
     </row>
-    <row r="58" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:10">
       <c r="A58" s="41"/>
       <c r="B58" s="41" t="s">
         <v>378</v>
@@ -11285,7 +11323,7 @@
       <c r="E58" s="41"/>
       <c r="F58" s="41"/>
     </row>
-    <row r="59" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:10">
       <c r="A59" s="41"/>
       <c r="B59" s="41"/>
       <c r="C59" s="5" t="s">
@@ -11300,7 +11338,7 @@
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
     </row>
-    <row r="60" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:10">
       <c r="A60" s="41"/>
       <c r="B60" s="41"/>
       <c r="C60" s="41" t="s">
@@ -11313,7 +11351,7 @@
         <v>520</v>
       </c>
     </row>
-    <row r="61" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:10">
       <c r="A61" s="41"/>
       <c r="B61" s="41"/>
       <c r="C61" s="41"/>
@@ -11326,7 +11364,7 @@
         <v>521</v>
       </c>
     </row>
-    <row r="62" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:10">
       <c r="A62" s="41"/>
       <c r="B62" s="41"/>
       <c r="C62" s="41" t="s">
@@ -11336,7 +11374,7 @@
       <c r="E62" s="41"/>
       <c r="F62" s="41"/>
     </row>
-    <row r="63" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:10">
       <c r="A63" s="41"/>
       <c r="B63" s="41"/>
       <c r="C63" s="41" t="s">
@@ -11346,7 +11384,7 @@
       <c r="E63" s="41"/>
       <c r="F63" s="41"/>
     </row>
-    <row r="64" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:10">
       <c r="A64" s="41"/>
       <c r="B64" s="41"/>
       <c r="C64" s="41" t="s">
@@ -11356,7 +11394,7 @@
       <c r="E64" s="41"/>
       <c r="F64" s="41"/>
     </row>
-    <row r="65" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:7">
       <c r="A65" s="41"/>
       <c r="B65" s="41"/>
       <c r="C65" s="41"/>
@@ -11367,7 +11405,7 @@
       <c r="F65" s="41"/>
       <c r="G65" s="41"/>
     </row>
-    <row r="66" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:7">
       <c r="A66" s="41"/>
       <c r="B66" s="41"/>
       <c r="C66" s="41"/>
@@ -11377,7 +11415,7 @@
       <c r="E66" s="41"/>
       <c r="F66" s="41"/>
     </row>
-    <row r="67" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:7">
       <c r="A67" s="41"/>
       <c r="B67" s="41"/>
       <c r="C67" s="41"/>
@@ -11387,7 +11425,7 @@
       </c>
       <c r="F67" s="41"/>
     </row>
-    <row r="68" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:7">
       <c r="A68" s="41"/>
       <c r="B68" s="41"/>
       <c r="C68" s="41"/>
@@ -11397,7 +11435,7 @@
       <c r="E68" s="41"/>
       <c r="F68" s="41"/>
     </row>
-    <row r="69" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:7">
       <c r="A69" s="41"/>
       <c r="B69" s="41"/>
       <c r="C69" s="41"/>
@@ -11407,7 +11445,7 @@
       <c r="E69" s="41"/>
       <c r="F69" s="41"/>
     </row>
-    <row r="70" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:7">
       <c r="A70" s="41"/>
       <c r="B70" s="41"/>
       <c r="C70" s="41"/>
@@ -11417,7 +11455,7 @@
       <c r="E70" s="41"/>
       <c r="F70" s="41"/>
     </row>
-    <row r="71" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:7">
       <c r="A71" s="41"/>
       <c r="B71" s="41"/>
       <c r="C71" s="41"/>
@@ -11427,7 +11465,7 @@
       </c>
       <c r="F71" s="41"/>
     </row>
-    <row r="72" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:7">
       <c r="A72" s="41"/>
       <c r="B72" s="41"/>
       <c r="C72" s="41"/>
@@ -11437,7 +11475,7 @@
       <c r="E72" s="41"/>
       <c r="F72" s="41"/>
     </row>
-    <row r="73" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:7">
       <c r="A73" s="41"/>
       <c r="B73" s="41"/>
       <c r="C73" s="41" t="s">
@@ -11447,7 +11485,7 @@
       <c r="E73" s="41"/>
       <c r="F73" s="41"/>
     </row>
-    <row r="74" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:7">
       <c r="A74" s="41"/>
       <c r="B74" s="41" t="s">
         <v>311</v>
@@ -11457,7 +11495,7 @@
       <c r="E74" s="41"/>
       <c r="F74" s="41"/>
     </row>
-    <row r="75" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:7">
       <c r="A75" s="41"/>
       <c r="B75" s="41" t="s">
         <v>381</v>
@@ -11467,7 +11505,7 @@
       <c r="E75" s="41"/>
       <c r="F75" s="41"/>
     </row>
-    <row r="76" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:7">
       <c r="A76" s="41"/>
       <c r="B76" s="41" t="s">
         <v>378</v>
@@ -11477,7 +11515,7 @@
       <c r="E76" s="41"/>
       <c r="F76" s="41"/>
     </row>
-    <row r="77" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:7">
       <c r="A77" s="41"/>
       <c r="B77" s="41"/>
       <c r="C77" s="41" t="s">
@@ -11487,7 +11525,7 @@
       <c r="E77" s="41"/>
       <c r="F77" s="41"/>
     </row>
-    <row r="78" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:7">
       <c r="A78" s="41"/>
       <c r="B78" s="41" t="s">
         <v>311</v>
@@ -11497,7 +11535,7 @@
       <c r="E78" s="41"/>
       <c r="F78" s="41"/>
     </row>
-    <row r="79" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:7">
       <c r="A79" s="41"/>
       <c r="B79" s="41"/>
       <c r="C79" s="41"/>
@@ -11505,7 +11543,7 @@
       <c r="E79" s="41"/>
       <c r="F79" s="41"/>
     </row>
-    <row r="80" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:7">
       <c r="A80" s="41"/>
       <c r="B80" s="41" t="s">
         <v>407</v>
@@ -11515,7 +11553,7 @@
       <c r="E80" s="41"/>
       <c r="F80" s="41"/>
     </row>
-    <row r="81" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:6">
       <c r="A81" s="41" t="s">
         <v>311</v>
       </c>

--- a/CFT4CUnitSrc/src/report/GAReport.xlsx
+++ b/CFT4CUnitSrc/src/report/GAReport.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="1365" windowWidth="14805" windowHeight="6480" tabRatio="940"/>
+    <workbookView xWindow="240" yWindow="1365" windowWidth="14805" windowHeight="6480" tabRatio="940" activeTab="8"/>
   </bookViews>
   <sheets>
     <sheet name="PhDThesis" sheetId="17" r:id="rId1"/>
@@ -17,12 +17,12 @@
     <sheet name="ThayHieu_report" sheetId="13" r:id="rId8"/>
     <sheet name="PSOReport" sheetId="15" r:id="rId9"/>
   </sheets>
-  <calcPr calcId="125725"/>
+  <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="799" uniqueCount="534">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="807" uniqueCount="542">
   <si>
     <t>Nhìn chung, để sinh test case cho một input program theo phương pháp GA thì có các bước sau</t>
   </si>
@@ -1653,15 +1653,39 @@
   <si>
     <t>Search Based Software Engineering - Trends, Techniques and Applications</t>
   </si>
+  <si>
+    <t xml:space="preserve">triangleType </t>
+  </si>
+  <si>
+    <t xml:space="preserve">calDay </t>
+  </si>
+  <si>
+    <t xml:space="preserve">cal </t>
+  </si>
+  <si>
+    <t xml:space="preserve">remainder  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">computeTax </t>
+  </si>
+  <si>
+    <t xml:space="preserve">bessj  </t>
+  </si>
+  <si>
+    <t>printCalendar</t>
+  </si>
+  <si>
+    <t>line</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.000000000"/>
   </numFmts>
-  <fonts count="7">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -6051,6 +6075,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -6085,6 +6110,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -6260,26 +6286,26 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>532</v>
       </c>
     </row>
-    <row r="2" spans="1:2">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
         <v>531</v>
       </c>
     </row>
-    <row r="3" spans="1:2">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
         <v>533</v>
       </c>
@@ -6290,21 +6316,21 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B1"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="46.7109375" style="50" customWidth="1"/>
     <col min="2" max="2" width="60.7109375" style="50" customWidth="1"/>
     <col min="3" max="16384" width="9.140625" style="50"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="75">
+    <row r="1" spans="1:2" ht="75" x14ac:dyDescent="0.25">
       <c r="A1" s="49" t="s">
         <v>529</v>
       </c>
@@ -6319,67 +6345,67 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B25" sqref="B25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>500</v>
       </c>
     </row>
-    <row r="2" spans="1:3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
         <v>501</v>
       </c>
     </row>
-    <row r="3" spans="1:3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B3" s="47"/>
       <c r="C3" s="47" t="s">
         <v>503</v>
       </c>
     </row>
-    <row r="4" spans="1:3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C4" t="s">
         <v>502</v>
       </c>
     </row>
-    <row r="6" spans="1:3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>506</v>
       </c>
     </row>
-    <row r="7" spans="1:3">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
         <v>504</v>
       </c>
     </row>
-    <row r="8" spans="1:3">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
         <v>505</v>
       </c>
     </row>
-    <row r="19" spans="2:3">
+    <row r="19" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B19" t="s">
         <v>496</v>
       </c>
     </row>
-    <row r="20" spans="2:3">
+    <row r="20" spans="2:3" x14ac:dyDescent="0.25">
       <c r="C20" t="s">
         <v>497</v>
       </c>
     </row>
-    <row r="21" spans="2:3">
+    <row r="21" spans="2:3" x14ac:dyDescent="0.25">
       <c r="C21" t="s">
         <v>498</v>
       </c>
     </row>
-    <row r="22" spans="2:3">
+    <row r="22" spans="2:3" x14ac:dyDescent="0.25">
       <c r="C22" t="s">
         <v>499</v>
       </c>
@@ -6391,7 +6417,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:AP160"/>
   <sheetViews>
@@ -6399,34 +6425,34 @@
       <selection activeCell="L67" sqref="L67"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="10.7109375" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="10.140625" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="9.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B1" s="25" t="s">
         <v>495</v>
       </c>
     </row>
-    <row r="3" spans="1:10">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" s="18">
         <v>42502</v>
       </c>
     </row>
-    <row r="4" spans="1:10">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
         <v>168</v>
       </c>
     </row>
-    <row r="5" spans="1:10">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="C5" t="s">
         <v>169</v>
       </c>
     </row>
-    <row r="6" spans="1:10">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="C6" t="s">
         <v>180</v>
       </c>
@@ -6434,17 +6460,17 @@
         <v>181</v>
       </c>
     </row>
-    <row r="7" spans="1:10">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="J7" t="s">
         <v>182</v>
       </c>
     </row>
-    <row r="8" spans="1:10">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
         <v>171</v>
       </c>
     </row>
-    <row r="9" spans="1:10">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
         <v>179</v>
       </c>
@@ -6452,7 +6478,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="10" spans="1:10">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B10" t="s">
         <v>179</v>
       </c>
@@ -6460,32 +6486,32 @@
         <v>176</v>
       </c>
     </row>
-    <row r="11" spans="1:10">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="C11" t="s">
         <v>172</v>
       </c>
     </row>
-    <row r="12" spans="1:10">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="C12" t="s">
         <v>173</v>
       </c>
     </row>
-    <row r="13" spans="1:10">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="C13" t="s">
         <v>174</v>
       </c>
     </row>
-    <row r="15" spans="1:10">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="C15" s="1" t="s">
         <v>177</v>
       </c>
     </row>
-    <row r="16" spans="1:10">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="C16" s="1" t="s">
         <v>178</v>
       </c>
     </row>
-    <row r="19" spans="1:17">
+    <row r="19" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A19" s="18">
         <v>42499</v>
       </c>
@@ -6493,7 +6519,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:17">
+    <row r="20" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B20" t="s">
         <v>160</v>
       </c>
@@ -6501,7 +6527,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="21" spans="1:17">
+    <row r="21" spans="1:17" x14ac:dyDescent="0.25">
       <c r="C21" t="s">
         <v>161</v>
       </c>
@@ -6509,7 +6535,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="22" spans="1:17">
+    <row r="22" spans="1:17" x14ac:dyDescent="0.25">
       <c r="C22" t="s">
         <v>162</v>
       </c>
@@ -6517,12 +6543,12 @@
         <v>166</v>
       </c>
     </row>
-    <row r="23" spans="1:17">
+    <row r="23" spans="1:17" x14ac:dyDescent="0.25">
       <c r="C23" t="s">
         <v>167</v>
       </c>
     </row>
-    <row r="24" spans="1:17">
+    <row r="24" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B24" t="s">
         <v>164</v>
       </c>
@@ -6533,7 +6559,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="26" spans="1:17">
+    <row r="26" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A26" s="18">
         <v>42496</v>
       </c>
@@ -6547,7 +6573,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="27" spans="1:17">
+    <row r="27" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B27" t="s">
         <v>137</v>
       </c>
@@ -6555,7 +6581,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="28" spans="1:17">
+    <row r="28" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B28" t="s">
         <v>135</v>
       </c>
@@ -6566,7 +6592,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="30" spans="1:17">
+    <row r="30" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B30" t="s">
         <v>136</v>
       </c>
@@ -6577,12 +6603,12 @@
         <v>152</v>
       </c>
     </row>
-    <row r="31" spans="1:17">
+    <row r="31" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B31" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="32" spans="1:17">
+    <row r="32" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B32" t="s">
         <v>139</v>
       </c>
@@ -6590,12 +6616,12 @@
         <v>153</v>
       </c>
     </row>
-    <row r="34" spans="2:16">
+    <row r="34" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B34" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="35" spans="2:16">
+    <row r="35" spans="2:16" x14ac:dyDescent="0.25">
       <c r="C35" t="s">
         <v>140</v>
       </c>
@@ -6603,7 +6629,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="36" spans="2:16">
+    <row r="36" spans="2:16" x14ac:dyDescent="0.25">
       <c r="C36" t="s">
         <v>141</v>
       </c>
@@ -6611,7 +6637,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="38" spans="2:16">
+    <row r="38" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B38" t="s">
         <v>142</v>
       </c>
@@ -6619,47 +6645,47 @@
         <v>159</v>
       </c>
     </row>
-    <row r="40" spans="2:16">
+    <row r="40" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B40" t="s">
         <v>143</v>
       </c>
     </row>
-    <row r="41" spans="2:16">
+    <row r="41" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B41" t="s">
         <v>144</v>
       </c>
     </row>
-    <row r="43" spans="2:16">
+    <row r="43" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B43" t="s">
         <v>146</v>
       </c>
     </row>
-    <row r="44" spans="2:16">
+    <row r="44" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B44" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="45" spans="2:16">
+    <row r="45" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B45" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="47" spans="2:16">
+    <row r="47" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B47" t="s">
         <v>148</v>
       </c>
     </row>
-    <row r="52" spans="1:7">
+    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A52" s="18">
         <v>42494</v>
       </c>
     </row>
-    <row r="53" spans="1:7">
+    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B53" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="54" spans="1:7">
+    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C54" t="s">
         <v>1</v>
       </c>
@@ -6667,7 +6693,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="56" spans="1:7">
+    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C56" s="5" t="s">
         <v>3</v>
       </c>
@@ -6675,44 +6701,44 @@
         <v>123</v>
       </c>
     </row>
-    <row r="57" spans="1:7">
+    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
       <c r="D57" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="58" spans="1:7">
+    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
       <c r="E58" s="25" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="59" spans="1:7">
+    <row r="59" spans="1:7" x14ac:dyDescent="0.25">
       <c r="E59" s="25"/>
     </row>
-    <row r="60" spans="1:7">
+    <row r="60" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B60" s="5" t="s">
         <v>134</v>
       </c>
       <c r="E60" s="25"/>
     </row>
-    <row r="61" spans="1:7">
+    <row r="61" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C61" t="s">
         <v>124</v>
       </c>
       <c r="E61" s="25"/>
     </row>
-    <row r="62" spans="1:7">
+    <row r="62" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C62" t="s">
         <v>125</v>
       </c>
       <c r="E62" s="25"/>
     </row>
-    <row r="63" spans="1:7">
+    <row r="63" spans="1:7" x14ac:dyDescent="0.25">
       <c r="D63" t="s">
         <v>126</v>
       </c>
       <c r="E63" s="25"/>
     </row>
-    <row r="64" spans="1:7">
+    <row r="64" spans="1:7" x14ac:dyDescent="0.25">
       <c r="E64" s="26" t="s">
         <v>127</v>
       </c>
@@ -6723,7 +6749,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="65" spans="1:10">
+    <row r="65" spans="1:10" x14ac:dyDescent="0.25">
       <c r="E65" s="27">
         <v>1.1000000000000001</v>
       </c>
@@ -6734,7 +6760,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="66" spans="1:10">
+    <row r="66" spans="1:10" x14ac:dyDescent="0.25">
       <c r="E66" s="27">
         <v>1.1100000000000001</v>
       </c>
@@ -6751,7 +6777,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="67" spans="1:10">
+    <row r="67" spans="1:10" x14ac:dyDescent="0.25">
       <c r="E67" s="27">
         <v>1.3</v>
       </c>
@@ -6762,21 +6788,21 @@
         <v>1</v>
       </c>
     </row>
-    <row r="68" spans="1:10">
+    <row r="68" spans="1:10" x14ac:dyDescent="0.25">
       <c r="D68" t="s">
         <v>132</v>
       </c>
       <c r="E68" s="27"/>
     </row>
-    <row r="69" spans="1:10">
+    <row r="69" spans="1:10" x14ac:dyDescent="0.25">
       <c r="E69" s="27" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="70" spans="1:10">
+    <row r="70" spans="1:10" x14ac:dyDescent="0.25">
       <c r="E70" s="27"/>
     </row>
-    <row r="71" spans="1:10">
+    <row r="71" spans="1:10" x14ac:dyDescent="0.25">
       <c r="C71" t="s">
         <v>5</v>
       </c>
@@ -6784,57 +6810,57 @@
         <v>116</v>
       </c>
     </row>
-    <row r="73" spans="1:10">
+    <row r="73" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B73" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="74" spans="1:10">
+    <row r="74" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B74" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="76" spans="1:10">
+    <row r="76" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B76" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="77" spans="1:10">
+    <row r="77" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B77" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="79" spans="1:10">
+    <row r="79" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A79" s="18">
         <v>42488</v>
       </c>
     </row>
-    <row r="80" spans="1:10">
+    <row r="80" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B80" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="81" spans="1:42">
+    <row r="81" spans="1:42" x14ac:dyDescent="0.25">
       <c r="C81" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="82" spans="1:42">
+    <row r="82" spans="1:42" x14ac:dyDescent="0.25">
       <c r="C82" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="83" spans="1:42">
+    <row r="83" spans="1:42" x14ac:dyDescent="0.25">
       <c r="C83" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="84" spans="1:42">
+    <row r="84" spans="1:42" x14ac:dyDescent="0.25">
       <c r="C84" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="85" spans="1:42">
+    <row r="85" spans="1:42" x14ac:dyDescent="0.25">
       <c r="B85" s="5" t="s">
         <v>113</v>
       </c>
@@ -6847,12 +6873,12 @@
       <c r="I85" s="5"/>
       <c r="J85" s="5"/>
     </row>
-    <row r="87" spans="1:42">
+    <row r="87" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="89" spans="1:42">
+    <row r="89" spans="1:42" x14ac:dyDescent="0.25">
       <c r="B89" t="s">
         <v>1</v>
       </c>
@@ -6860,7 +6886,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="91" spans="1:42">
+    <row r="91" spans="1:42" x14ac:dyDescent="0.25">
       <c r="B91" t="s">
         <v>3</v>
       </c>
@@ -6868,12 +6894,12 @@
         <v>6</v>
       </c>
     </row>
-    <row r="92" spans="1:42">
+    <row r="92" spans="1:42" x14ac:dyDescent="0.25">
       <c r="C92" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="94" spans="1:42">
+    <row r="94" spans="1:42" x14ac:dyDescent="0.25">
       <c r="B94" t="s">
         <v>5</v>
       </c>
@@ -6881,12 +6907,12 @@
         <v>8</v>
       </c>
     </row>
-    <row r="95" spans="1:42">
+    <row r="95" spans="1:42" x14ac:dyDescent="0.25">
       <c r="C95" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="96" spans="1:42">
+    <row r="96" spans="1:42" x14ac:dyDescent="0.25">
       <c r="C96" s="6" t="s">
         <v>52</v>
       </c>
@@ -6920,7 +6946,7 @@
         <v>42483</v>
       </c>
     </row>
-    <row r="97" spans="2:42">
+    <row r="97" spans="2:42" x14ac:dyDescent="0.25">
       <c r="C97" s="6" t="s">
         <v>53</v>
       </c>
@@ -6952,7 +6978,7 @@
       <c r="AO97" s="5"/>
       <c r="AP97" s="5"/>
     </row>
-    <row r="98" spans="2:42">
+    <row r="98" spans="2:42" x14ac:dyDescent="0.25">
       <c r="C98" t="s">
         <v>14</v>
       </c>
@@ -6966,29 +6992,29 @@
       <c r="AO98" s="5"/>
       <c r="AP98" s="5"/>
     </row>
-    <row r="99" spans="2:42">
+    <row r="99" spans="2:42" x14ac:dyDescent="0.25">
       <c r="C99" s="1"/>
       <c r="D99" s="1" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="100" spans="2:42">
+    <row r="100" spans="2:42" x14ac:dyDescent="0.25">
       <c r="C100" s="1"/>
       <c r="D100" s="1" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="102" spans="2:42">
+    <row r="102" spans="2:42" x14ac:dyDescent="0.25">
       <c r="C102" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="103" spans="2:42">
+    <row r="103" spans="2:42" x14ac:dyDescent="0.25">
       <c r="C103" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="105" spans="2:42">
+    <row r="105" spans="2:42" x14ac:dyDescent="0.25">
       <c r="B105" t="s">
         <v>7</v>
       </c>
@@ -6996,12 +7022,12 @@
         <v>16</v>
       </c>
     </row>
-    <row r="107" spans="2:42">
+    <row r="107" spans="2:42" x14ac:dyDescent="0.25">
       <c r="C107" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="109" spans="2:42">
+    <row r="109" spans="2:42" x14ac:dyDescent="0.25">
       <c r="B109" t="s">
         <v>17</v>
       </c>
@@ -7009,7 +7035,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="110" spans="2:42">
+    <row r="110" spans="2:42" x14ac:dyDescent="0.25">
       <c r="D110" s="5" t="s">
         <v>50</v>
       </c>
@@ -7027,7 +7053,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="111" spans="2:42">
+    <row r="111" spans="2:42" x14ac:dyDescent="0.25">
       <c r="C111" t="s">
         <v>19</v>
       </c>
@@ -7035,12 +7061,12 @@
         <v>20</v>
       </c>
     </row>
-    <row r="112" spans="2:42">
+    <row r="112" spans="2:42" x14ac:dyDescent="0.25">
       <c r="D112" s="3" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="114" spans="1:24">
+    <row r="114" spans="1:24" x14ac:dyDescent="0.25">
       <c r="B114" t="s">
         <v>22</v>
       </c>
@@ -7048,12 +7074,12 @@
         <v>21</v>
       </c>
     </row>
-    <row r="116" spans="1:24">
+    <row r="116" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="117" spans="1:24">
+    <row r="117" spans="1:24" x14ac:dyDescent="0.25">
       <c r="B117" t="s">
         <v>48</v>
       </c>
@@ -7075,7 +7101,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="118" spans="1:24">
+    <row r="118" spans="1:24" x14ac:dyDescent="0.25">
       <c r="B118" t="s">
         <v>46</v>
       </c>
@@ -7089,7 +7115,7 @@
         <v>42480</v>
       </c>
     </row>
-    <row r="119" spans="1:24">
+    <row r="119" spans="1:24" x14ac:dyDescent="0.25">
       <c r="B119" t="s">
         <v>49</v>
       </c>
@@ -7103,14 +7129,14 @@
         <v>42480</v>
       </c>
     </row>
-    <row r="120" spans="1:24">
+    <row r="120" spans="1:24" x14ac:dyDescent="0.25">
       <c r="M120" s="6"/>
       <c r="N120" s="6"/>
       <c r="O120" s="6"/>
       <c r="P120" s="6"/>
       <c r="S120" s="8"/>
     </row>
-    <row r="121" spans="1:24">
+    <row r="121" spans="1:24" x14ac:dyDescent="0.25">
       <c r="F121" s="9" t="s">
         <v>69</v>
       </c>
@@ -7123,7 +7149,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="122" spans="1:24">
+    <row r="122" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
         <v>47</v>
       </c>
@@ -7146,7 +7172,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="123" spans="1:24">
+    <row r="123" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A123" s="4" t="s">
         <v>23</v>
       </c>
@@ -7166,7 +7192,7 @@
       <c r="O123" s="4"/>
       <c r="P123" s="4"/>
     </row>
-    <row r="124" spans="1:24">
+    <row r="124" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A124" s="4" t="s">
         <v>24</v>
       </c>
@@ -7186,7 +7212,7 @@
       <c r="O124" s="4"/>
       <c r="P124" s="4"/>
     </row>
-    <row r="125" spans="1:24">
+    <row r="125" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
         <v>25</v>
       </c>
@@ -7206,12 +7232,12 @@
       </c>
       <c r="V125" s="9"/>
     </row>
-    <row r="126" spans="1:24">
+    <row r="126" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="127" spans="1:24">
+    <row r="127" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A127" s="4" t="s">
         <v>42</v>
       </c>
@@ -7231,7 +7257,7 @@
       <c r="O127" s="4"/>
       <c r="P127" s="4"/>
     </row>
-    <row r="128" spans="1:24">
+    <row r="128" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A128" s="4" t="s">
         <v>27</v>
       </c>
@@ -7251,12 +7277,12 @@
       <c r="O128" s="4"/>
       <c r="P128" s="4"/>
     </row>
-    <row r="129" spans="1:16">
+    <row r="129" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="130" spans="1:16">
+    <row r="130" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A130" s="4" t="s">
         <v>45</v>
       </c>
@@ -7276,83 +7302,83 @@
       <c r="O130" s="4"/>
       <c r="P130" s="4"/>
     </row>
-    <row r="131" spans="1:16">
+    <row r="131" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="132" spans="1:16">
+    <row r="132" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="133" spans="1:16">
+    <row r="133" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="134" spans="1:16">
+    <row r="134" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="135" spans="1:16">
+    <row r="135" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="136" spans="1:16">
+    <row r="136" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="137" spans="1:16">
+    <row r="137" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="138" spans="1:16">
+    <row r="138" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="139" spans="1:16">
+    <row r="139" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="140" spans="1:16">
+    <row r="140" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="141" spans="1:16">
+    <row r="141" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="142" spans="1:16">
+    <row r="142" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="143" spans="1:16">
+    <row r="143" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="146" spans="1:11">
+    <row r="146" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A146" s="13" t="s">
         <v>70</v>
       </c>
       <c r="B146" s="13"/>
     </row>
-    <row r="147" spans="1:11">
+    <row r="147" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B147" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="148" spans="1:11">
+    <row r="148" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B148" s="5" t="s">
         <v>80</v>
       </c>
@@ -7362,32 +7388,32 @@
       <c r="D148" s="5"/>
       <c r="E148" s="5"/>
     </row>
-    <row r="149" spans="1:11">
+    <row r="149" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B149" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="150" spans="1:11">
+    <row r="150" spans="1:11" x14ac:dyDescent="0.25">
       <c r="C150" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="151" spans="1:11">
+    <row r="151" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B151" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="153" spans="1:11">
+    <row r="153" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B153" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="154" spans="1:11">
+    <row r="154" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B154" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="156" spans="1:11">
+    <row r="156" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B156" s="5" t="s">
         <v>84</v>
       </c>
@@ -7402,12 +7428,12 @@
         <v>42483</v>
       </c>
     </row>
-    <row r="159" spans="1:11">
+    <row r="159" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B159" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="160" spans="1:11">
+    <row r="160" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B160" t="s">
         <v>86</v>
       </c>
@@ -7423,7 +7449,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:R95"/>
   <sheetViews>
@@ -7431,7 +7457,7 @@
       <selection activeCell="H60" sqref="H60"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="5" style="10" customWidth="1"/>
     <col min="3" max="3" width="30.140625" bestFit="1" customWidth="1"/>
@@ -7446,7 +7472,7 @@
     <col min="12" max="12" width="14.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A1" s="7" t="s">
         <v>59</v>
       </c>
@@ -7455,7 +7481,7 @@
       <c r="D1" s="7"/>
       <c r="E1" s="11"/>
     </row>
-    <row r="2" spans="1:18">
+    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B2" s="17" t="s">
         <v>65</v>
       </c>
@@ -7493,7 +7519,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="3" spans="1:18">
+    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B3" s="14">
         <v>1</v>
       </c>
@@ -7537,7 +7563,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="4" spans="1:18">
+    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B4" s="14">
         <f>B3+1</f>
         <v>2</v>
@@ -7571,7 +7597,7 @@
       </c>
       <c r="L4" s="15"/>
     </row>
-    <row r="5" spans="1:18">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B5" s="14">
         <f t="shared" ref="B5:B19" si="0">B4+1</f>
         <v>3</v>
@@ -7605,7 +7631,7 @@
       </c>
       <c r="L5" s="15"/>
     </row>
-    <row r="6" spans="1:18">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B6" s="14">
         <f t="shared" si="0"/>
         <v>4</v>
@@ -7642,7 +7668,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="7" spans="1:18">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B7" s="14">
         <f t="shared" si="0"/>
         <v>5</v>
@@ -7683,7 +7709,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="8" spans="1:18">
+    <row r="8" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B8" s="14">
         <f t="shared" si="0"/>
         <v>6</v>
@@ -7725,7 +7751,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="9" spans="1:18">
+    <row r="9" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B9" s="14">
         <f t="shared" si="0"/>
         <v>7</v>
@@ -7765,7 +7791,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="10" spans="1:18">
+    <row r="10" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B10" s="14">
         <f t="shared" si="0"/>
         <v>8</v>
@@ -7805,7 +7831,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="11" spans="1:18">
+    <row r="11" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B11" s="14">
         <f t="shared" si="0"/>
         <v>9</v>
@@ -7821,7 +7847,7 @@
       <c r="K11" s="15"/>
       <c r="L11" s="15"/>
     </row>
-    <row r="12" spans="1:18">
+    <row r="12" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B12" s="14">
         <f t="shared" si="0"/>
         <v>10</v>
@@ -7837,7 +7863,7 @@
       <c r="K12" s="15"/>
       <c r="L12" s="15"/>
     </row>
-    <row r="13" spans="1:18">
+    <row r="13" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B13" s="14">
         <f t="shared" si="0"/>
         <v>11</v>
@@ -7853,7 +7879,7 @@
       <c r="K13" s="15"/>
       <c r="L13" s="15"/>
     </row>
-    <row r="14" spans="1:18">
+    <row r="14" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B14" s="14">
         <f t="shared" si="0"/>
         <v>12</v>
@@ -7869,7 +7895,7 @@
       <c r="K14" s="15"/>
       <c r="L14" s="15"/>
     </row>
-    <row r="15" spans="1:18">
+    <row r="15" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B15" s="14">
         <f t="shared" si="0"/>
         <v>13</v>
@@ -7885,7 +7911,7 @@
       <c r="K15" s="15"/>
       <c r="L15" s="15"/>
     </row>
-    <row r="16" spans="1:18">
+    <row r="16" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B16" s="14">
         <f t="shared" si="0"/>
         <v>14</v>
@@ -7901,7 +7927,7 @@
       <c r="K16" s="15"/>
       <c r="L16" s="15"/>
     </row>
-    <row r="17" spans="2:12">
+    <row r="17" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B17" s="14">
         <f t="shared" si="0"/>
         <v>15</v>
@@ -7917,7 +7943,7 @@
       <c r="K17" s="15"/>
       <c r="L17" s="15"/>
     </row>
-    <row r="18" spans="2:12">
+    <row r="18" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B18" s="14">
         <f t="shared" si="0"/>
         <v>16</v>
@@ -7933,7 +7959,7 @@
       <c r="K18" s="15"/>
       <c r="L18" s="15"/>
     </row>
-    <row r="19" spans="2:12">
+    <row r="19" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B19" s="14">
         <f t="shared" si="0"/>
         <v>17</v>
@@ -7949,12 +7975,12 @@
       <c r="K19" s="15"/>
       <c r="L19" s="15"/>
     </row>
-    <row r="22" spans="2:12">
+    <row r="22" spans="2:12" x14ac:dyDescent="0.25">
       <c r="C22" t="s">
         <v>183</v>
       </c>
     </row>
-    <row r="23" spans="2:12">
+    <row r="23" spans="2:12" x14ac:dyDescent="0.25">
       <c r="C23" t="s">
         <v>184</v>
       </c>
@@ -7973,7 +7999,7 @@
       </c>
       <c r="L23" s="51"/>
     </row>
-    <row r="24" spans="2:12">
+    <row r="24" spans="2:12" x14ac:dyDescent="0.25">
       <c r="G24" s="53"/>
       <c r="H24" s="55"/>
       <c r="I24" s="14" t="s">
@@ -7989,7 +8015,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="25" spans="2:12">
+    <row r="25" spans="2:12" x14ac:dyDescent="0.25">
       <c r="G25" s="33" t="s">
         <v>110</v>
       </c>
@@ -8005,7 +8031,7 @@
       <c r="K25" s="32"/>
       <c r="L25" s="32"/>
     </row>
-    <row r="26" spans="2:12">
+    <row r="26" spans="2:12" x14ac:dyDescent="0.25">
       <c r="G26" s="37"/>
       <c r="H26" s="38"/>
       <c r="I26" s="32">
@@ -8017,7 +8043,7 @@
       <c r="K26" s="32"/>
       <c r="L26" s="32"/>
     </row>
-    <row r="27" spans="2:12">
+    <row r="27" spans="2:12" x14ac:dyDescent="0.25">
       <c r="G27" s="37"/>
       <c r="H27" s="38"/>
       <c r="I27" s="32">
@@ -8029,7 +8055,7 @@
       <c r="K27" s="32"/>
       <c r="L27" s="32"/>
     </row>
-    <row r="28" spans="2:12">
+    <row r="28" spans="2:12" x14ac:dyDescent="0.25">
       <c r="G28" s="37"/>
       <c r="H28" s="38"/>
       <c r="I28" s="32">
@@ -8041,7 +8067,7 @@
       <c r="K28" s="32"/>
       <c r="L28" s="32"/>
     </row>
-    <row r="29" spans="2:12">
+    <row r="29" spans="2:12" x14ac:dyDescent="0.25">
       <c r="G29" s="37"/>
       <c r="H29" s="38"/>
       <c r="I29" s="32"/>
@@ -8049,7 +8075,7 @@
       <c r="K29" s="32"/>
       <c r="L29" s="32"/>
     </row>
-    <row r="30" spans="2:12">
+    <row r="30" spans="2:12" x14ac:dyDescent="0.25">
       <c r="G30" s="37"/>
       <c r="H30" s="38"/>
       <c r="I30" s="32"/>
@@ -8057,7 +8083,7 @@
       <c r="K30" s="32"/>
       <c r="L30" s="32"/>
     </row>
-    <row r="31" spans="2:12">
+    <row r="31" spans="2:12" x14ac:dyDescent="0.25">
       <c r="G31" s="35"/>
       <c r="H31" s="36"/>
       <c r="I31" s="32"/>
@@ -8065,7 +8091,7 @@
       <c r="K31" s="32"/>
       <c r="L31" s="32"/>
     </row>
-    <row r="32" spans="2:12">
+    <row r="32" spans="2:12" x14ac:dyDescent="0.25">
       <c r="G32" s="15" t="s">
         <v>109</v>
       </c>
@@ -8075,7 +8101,7 @@
       <c r="K32" s="32"/>
       <c r="L32" s="32"/>
     </row>
-    <row r="33" spans="1:12">
+    <row r="33" spans="1:12" x14ac:dyDescent="0.25">
       <c r="G33" s="15"/>
       <c r="H33" s="32"/>
       <c r="I33" s="32"/>
@@ -8083,7 +8109,7 @@
       <c r="K33" s="32"/>
       <c r="L33" s="32"/>
     </row>
-    <row r="34" spans="1:12">
+    <row r="34" spans="1:12" x14ac:dyDescent="0.25">
       <c r="G34" s="15"/>
       <c r="H34" s="32"/>
       <c r="I34" s="32"/>
@@ -8091,7 +8117,7 @@
       <c r="K34" s="32"/>
       <c r="L34" s="32"/>
     </row>
-    <row r="35" spans="1:12">
+    <row r="35" spans="1:12" x14ac:dyDescent="0.25">
       <c r="G35" s="15"/>
       <c r="H35" s="32"/>
       <c r="I35" s="32"/>
@@ -8099,7 +8125,7 @@
       <c r="K35" s="32"/>
       <c r="L35" s="32"/>
     </row>
-    <row r="36" spans="1:12">
+    <row r="36" spans="1:12" x14ac:dyDescent="0.25">
       <c r="G36" s="15" t="s">
         <v>195</v>
       </c>
@@ -8119,7 +8145,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="1:12">
+    <row r="37" spans="1:12" x14ac:dyDescent="0.25">
       <c r="G37" s="15"/>
       <c r="H37" s="32"/>
       <c r="I37" s="32">
@@ -8135,7 +8161,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="38" spans="1:12">
+    <row r="38" spans="1:12" x14ac:dyDescent="0.25">
       <c r="G38" s="15"/>
       <c r="H38" s="32"/>
       <c r="I38" s="32"/>
@@ -8147,7 +8173,7 @@
         <v>462</v>
       </c>
     </row>
-    <row r="39" spans="1:12">
+    <row r="39" spans="1:12" x14ac:dyDescent="0.25">
       <c r="G39" s="15"/>
       <c r="H39" s="32"/>
       <c r="I39" s="32"/>
@@ -8159,7 +8185,7 @@
         <v>57595</v>
       </c>
     </row>
-    <row r="40" spans="1:12">
+    <row r="40" spans="1:12" x14ac:dyDescent="0.25">
       <c r="G40" s="15" t="s">
         <v>111</v>
       </c>
@@ -8169,7 +8195,7 @@
       <c r="K40" s="32"/>
       <c r="L40" s="32"/>
     </row>
-    <row r="41" spans="1:12">
+    <row r="41" spans="1:12" x14ac:dyDescent="0.25">
       <c r="G41" s="15"/>
       <c r="H41" s="32"/>
       <c r="I41" s="32"/>
@@ -8177,14 +8203,14 @@
       <c r="K41" s="32"/>
       <c r="L41" s="32"/>
     </row>
-    <row r="42" spans="1:12">
+    <row r="42" spans="1:12" x14ac:dyDescent="0.25">
       <c r="H42" s="31"/>
       <c r="I42" s="31"/>
       <c r="J42" s="31"/>
       <c r="K42" s="31"/>
       <c r="L42" s="31"/>
     </row>
-    <row r="43" spans="1:12">
+    <row r="43" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>198</v>
       </c>
@@ -8194,7 +8220,7 @@
       <c r="K43" s="31"/>
       <c r="L43" s="31"/>
     </row>
-    <row r="44" spans="1:12">
+    <row r="44" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C44" t="s">
         <v>199</v>
       </c>
@@ -8204,7 +8230,7 @@
       <c r="K44" s="31"/>
       <c r="L44" s="31"/>
     </row>
-    <row r="45" spans="1:12">
+    <row r="45" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C45" t="s">
         <v>200</v>
       </c>
@@ -8215,7 +8241,7 @@
       <c r="I45" s="30"/>
       <c r="J45" s="30"/>
     </row>
-    <row r="46" spans="1:12">
+    <row r="46" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C46" t="s">
         <v>202</v>
       </c>
@@ -8223,7 +8249,7 @@
       <c r="I46" s="30"/>
       <c r="J46" s="30"/>
     </row>
-    <row r="47" spans="1:12">
+    <row r="47" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C47" t="s">
         <v>208</v>
       </c>
@@ -8234,17 +8260,17 @@
       <c r="I47" s="30"/>
       <c r="J47" s="30"/>
     </row>
-    <row r="48" spans="1:12">
+    <row r="48" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C48" t="s">
         <v>212</v>
       </c>
     </row>
-    <row r="50" spans="1:10">
+    <row r="50" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>203</v>
       </c>
     </row>
-    <row r="51" spans="1:10">
+    <row r="51" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>158</v>
       </c>
@@ -8252,7 +8278,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="52" spans="1:10">
+    <row r="52" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>158</v>
       </c>
@@ -8269,7 +8295,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="53" spans="1:10">
+    <row r="53" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B53" s="39" t="s">
         <v>206</v>
       </c>
@@ -8277,41 +8303,41 @@
         <v>211</v>
       </c>
     </row>
-    <row r="54" spans="1:10">
+    <row r="54" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B54" s="39" t="s">
         <v>213</v>
       </c>
     </row>
-    <row r="55" spans="1:10">
+    <row r="55" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B55" s="39" t="s">
         <v>214</v>
       </c>
     </row>
-    <row r="56" spans="1:10">
+    <row r="56" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B56" s="39"/>
       <c r="J56" s="40"/>
     </row>
-    <row r="57" spans="1:10">
+    <row r="57" spans="1:10" x14ac:dyDescent="0.25">
       <c r="J57" s="40"/>
     </row>
-    <row r="58" spans="1:10">
+    <row r="58" spans="1:10" x14ac:dyDescent="0.25">
       <c r="H58"/>
       <c r="J58" s="40"/>
     </row>
-    <row r="59" spans="1:10">
+    <row r="59" spans="1:10" x14ac:dyDescent="0.25">
       <c r="H59"/>
       <c r="J59" s="40"/>
     </row>
-    <row r="60" spans="1:10">
+    <row r="60" spans="1:10" x14ac:dyDescent="0.25">
       <c r="H60"/>
     </row>
-    <row r="61" spans="1:10">
+    <row r="61" spans="1:10" x14ac:dyDescent="0.25">
       <c r="H61"/>
     </row>
-    <row r="62" spans="1:10">
+    <row r="62" spans="1:10" x14ac:dyDescent="0.25">
       <c r="H62"/>
     </row>
-    <row r="95" spans="16:16">
+    <row r="95" spans="16:16" x14ac:dyDescent="0.25">
       <c r="P95" s="41"/>
     </row>
   </sheetData>
@@ -8328,7 +8354,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet3"/>
   <dimension ref="A1:AH18"/>
   <sheetViews>
@@ -8336,22 +8362,22 @@
       <selection activeCell="AD44" sqref="AD44"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="16384" width="9.140625" style="42"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:34">
+    <row r="1" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A1" s="43" t="s">
         <v>219</v>
       </c>
     </row>
-    <row r="2" spans="1:34">
+    <row r="2" spans="1:34" x14ac:dyDescent="0.25">
       <c r="O2" s="42" t="s">
         <v>215</v>
       </c>
     </row>
-    <row r="3" spans="1:34">
+    <row r="3" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A3" s="42" t="s">
         <v>220</v>
       </c>
@@ -8359,7 +8385,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="4" spans="1:34">
+    <row r="4" spans="1:34" x14ac:dyDescent="0.25">
       <c r="P4" s="42" t="s">
         <v>218</v>
       </c>
@@ -8373,12 +8399,12 @@
       <c r="AG4" s="5"/>
       <c r="AH4" s="5"/>
     </row>
-    <row r="5" spans="1:34">
+    <row r="5" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A5" s="42" t="s">
         <v>221</v>
       </c>
     </row>
-    <row r="6" spans="1:34">
+    <row r="6" spans="1:34" x14ac:dyDescent="0.25">
       <c r="B6" s="42" t="s">
         <v>224</v>
       </c>
@@ -8386,42 +8412,42 @@
         <v>225</v>
       </c>
     </row>
-    <row r="7" spans="1:34">
+    <row r="7" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A7" s="42" t="s">
         <v>222</v>
       </c>
     </row>
-    <row r="8" spans="1:34">
+    <row r="8" spans="1:34" x14ac:dyDescent="0.25">
       <c r="B8" s="42" t="s">
         <v>223</v>
       </c>
     </row>
-    <row r="12" spans="1:34">
+    <row r="12" spans="1:34" x14ac:dyDescent="0.25">
       <c r="O12" s="42" t="s">
         <v>216</v>
       </c>
     </row>
-    <row r="13" spans="1:34">
+    <row r="13" spans="1:34" x14ac:dyDescent="0.25">
       <c r="P13" s="42" t="s">
         <v>217</v>
       </c>
     </row>
-    <row r="14" spans="1:34">
+    <row r="14" spans="1:34" x14ac:dyDescent="0.25">
       <c r="Q14" s="42" t="s">
         <v>226</v>
       </c>
     </row>
-    <row r="16" spans="1:34">
+    <row r="16" spans="1:34" x14ac:dyDescent="0.25">
       <c r="P16" s="42" t="s">
         <v>227</v>
       </c>
     </row>
-    <row r="17" spans="4:16">
+    <row r="17" spans="4:16" x14ac:dyDescent="0.25">
       <c r="P17" s="42" t="s">
         <v>228</v>
       </c>
     </row>
-    <row r="18" spans="4:16">
+    <row r="18" spans="4:16" x14ac:dyDescent="0.25">
       <c r="D18" s="44"/>
     </row>
   </sheetData>
@@ -8432,7 +8458,7 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet4"/>
   <dimension ref="A1:AF109"/>
   <sheetViews>
@@ -8440,14 +8466,14 @@
       <selection activeCell="G52" sqref="G52"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:31">
+    <row r="1" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>230</v>
       </c>
     </row>
-    <row r="2" spans="1:31">
+    <row r="2" spans="1:31" x14ac:dyDescent="0.25">
       <c r="B2" s="25" t="s">
         <v>229</v>
       </c>
@@ -8455,7 +8481,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="4" spans="1:31">
+    <row r="4" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>231</v>
       </c>
@@ -8463,7 +8489,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="7" spans="1:31">
+    <row r="7" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>234</v>
       </c>
@@ -8471,7 +8497,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="8" spans="1:31">
+    <row r="8" spans="1:31" x14ac:dyDescent="0.25">
       <c r="B8" s="25" t="s">
         <v>233</v>
       </c>
@@ -8487,7 +8513,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="9" spans="1:31">
+    <row r="9" spans="1:31" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
         <v>235</v>
       </c>
@@ -8501,7 +8527,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="10" spans="1:31">
+    <row r="10" spans="1:31" x14ac:dyDescent="0.25">
       <c r="C10" s="3" t="s">
         <v>236</v>
       </c>
@@ -8515,7 +8541,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="11" spans="1:31">
+    <row r="11" spans="1:31" x14ac:dyDescent="0.25">
       <c r="C11" s="3" t="s">
         <v>237</v>
       </c>
@@ -8533,7 +8559,7 @@
       </c>
       <c r="AE11" s="5"/>
     </row>
-    <row r="12" spans="1:31">
+    <row r="12" spans="1:31" x14ac:dyDescent="0.25">
       <c r="R12" t="s">
         <v>252</v>
       </c>
@@ -8544,7 +8570,7 @@
         <v>287</v>
       </c>
     </row>
-    <row r="13" spans="1:31">
+    <row r="13" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>239</v>
       </c>
@@ -8558,7 +8584,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="14" spans="1:31">
+    <row r="14" spans="1:31" x14ac:dyDescent="0.25">
       <c r="B14" s="4" t="s">
         <v>240</v>
       </c>
@@ -8581,7 +8607,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="15" spans="1:31">
+    <row r="15" spans="1:31" x14ac:dyDescent="0.25">
       <c r="C15" t="s">
         <v>244</v>
       </c>
@@ -8601,7 +8627,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="16" spans="1:31">
+    <row r="16" spans="1:31" x14ac:dyDescent="0.25">
       <c r="C16" t="s">
         <v>246</v>
       </c>
@@ -8618,7 +8644,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="17" spans="1:32">
+    <row r="17" spans="1:32" x14ac:dyDescent="0.25">
       <c r="B17" s="4" t="s">
         <v>241</v>
       </c>
@@ -8643,7 +8669,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="18" spans="1:32">
+    <row r="18" spans="1:32" x14ac:dyDescent="0.25">
       <c r="C18" t="s">
         <v>247</v>
       </c>
@@ -8657,7 +8683,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="19" spans="1:32">
+    <row r="19" spans="1:32" x14ac:dyDescent="0.25">
       <c r="R19" t="s">
         <v>259</v>
       </c>
@@ -8665,7 +8691,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="20" spans="1:32">
+    <row r="20" spans="1:32" x14ac:dyDescent="0.25">
       <c r="R20" t="s">
         <v>260</v>
       </c>
@@ -8676,12 +8702,12 @@
         <v>295</v>
       </c>
     </row>
-    <row r="21" spans="1:32">
+    <row r="21" spans="1:32" x14ac:dyDescent="0.25">
       <c r="R21" t="s">
         <v>261</v>
       </c>
     </row>
-    <row r="22" spans="1:32">
+    <row r="22" spans="1:32" x14ac:dyDescent="0.25">
       <c r="B22" t="s">
         <v>242</v>
       </c>
@@ -8695,7 +8721,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="23" spans="1:32">
+    <row r="23" spans="1:32" x14ac:dyDescent="0.25">
       <c r="R23" t="s">
         <v>263</v>
       </c>
@@ -8703,7 +8729,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="24" spans="1:32">
+    <row r="24" spans="1:32" x14ac:dyDescent="0.25">
       <c r="R24" t="s">
         <v>264</v>
       </c>
@@ -8711,7 +8737,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="25" spans="1:32">
+    <row r="25" spans="1:32" x14ac:dyDescent="0.25">
       <c r="R25" t="s">
         <v>265</v>
       </c>
@@ -8721,7 +8747,7 @@
       <c r="AE25" s="5"/>
       <c r="AF25" s="5"/>
     </row>
-    <row r="26" spans="1:32">
+    <row r="26" spans="1:32" x14ac:dyDescent="0.25">
       <c r="R26" t="s">
         <v>266</v>
       </c>
@@ -8729,7 +8755,7 @@
         <v>298</v>
       </c>
     </row>
-    <row r="27" spans="1:32">
+    <row r="27" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A27" s="13" t="s">
         <v>305</v>
       </c>
@@ -8745,7 +8771,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="28" spans="1:32">
+    <row r="28" spans="1:32" x14ac:dyDescent="0.25">
       <c r="B28" t="s">
         <v>306</v>
       </c>
@@ -8756,7 +8782,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="29" spans="1:32">
+    <row r="29" spans="1:32" x14ac:dyDescent="0.25">
       <c r="B29" t="s">
         <v>307</v>
       </c>
@@ -8767,7 +8793,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="30" spans="1:32">
+    <row r="30" spans="1:32" x14ac:dyDescent="0.25">
       <c r="B30" t="s">
         <v>308</v>
       </c>
@@ -8778,7 +8804,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="31" spans="1:32">
+    <row r="31" spans="1:32" x14ac:dyDescent="0.25">
       <c r="C31" t="s">
         <v>309</v>
       </c>
@@ -8786,7 +8812,7 @@
         <v>302</v>
       </c>
     </row>
-    <row r="32" spans="1:32">
+    <row r="32" spans="1:32" x14ac:dyDescent="0.25">
       <c r="C32" t="s">
         <v>310</v>
       </c>
@@ -8794,7 +8820,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="33" spans="1:30">
+    <row r="33" spans="1:30" x14ac:dyDescent="0.25">
       <c r="B33" t="s">
         <v>311</v>
       </c>
@@ -8802,7 +8828,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="34" spans="1:30">
+    <row r="34" spans="1:30" x14ac:dyDescent="0.25">
       <c r="B34" t="s">
         <v>312</v>
       </c>
@@ -8810,72 +8836,72 @@
         <v>295</v>
       </c>
     </row>
-    <row r="35" spans="1:30">
+    <row r="35" spans="1:30" x14ac:dyDescent="0.25">
       <c r="C35" t="s">
         <v>313</v>
       </c>
     </row>
-    <row r="36" spans="1:30">
+    <row r="36" spans="1:30" x14ac:dyDescent="0.25">
       <c r="D36" t="s">
         <v>314</v>
       </c>
     </row>
-    <row r="37" spans="1:30">
+    <row r="37" spans="1:30" x14ac:dyDescent="0.25">
       <c r="D37" t="s">
         <v>315</v>
       </c>
     </row>
-    <row r="38" spans="1:30">
+    <row r="38" spans="1:30" x14ac:dyDescent="0.25">
       <c r="C38" t="s">
         <v>311</v>
       </c>
     </row>
-    <row r="39" spans="1:30">
+    <row r="39" spans="1:30" x14ac:dyDescent="0.25">
       <c r="C39" t="s">
         <v>316</v>
       </c>
     </row>
-    <row r="40" spans="1:30">
+    <row r="40" spans="1:30" x14ac:dyDescent="0.25">
       <c r="D40" t="s">
         <v>314</v>
       </c>
     </row>
-    <row r="41" spans="1:30">
+    <row r="41" spans="1:30" x14ac:dyDescent="0.25">
       <c r="D41" t="s">
         <v>315</v>
       </c>
     </row>
-    <row r="42" spans="1:30">
+    <row r="42" spans="1:30" x14ac:dyDescent="0.25">
       <c r="C42" t="s">
         <v>311</v>
       </c>
     </row>
-    <row r="43" spans="1:30">
+    <row r="43" spans="1:30" x14ac:dyDescent="0.25">
       <c r="C43" t="s">
         <v>317</v>
       </c>
     </row>
-    <row r="44" spans="1:30">
+    <row r="44" spans="1:30" x14ac:dyDescent="0.25">
       <c r="C44" t="s">
         <v>318</v>
       </c>
     </row>
-    <row r="45" spans="1:30">
+    <row r="45" spans="1:30" x14ac:dyDescent="0.25">
       <c r="C45" t="s">
         <v>319</v>
       </c>
     </row>
-    <row r="46" spans="1:30">
+    <row r="46" spans="1:30" x14ac:dyDescent="0.25">
       <c r="B46" t="s">
         <v>311</v>
       </c>
     </row>
-    <row r="47" spans="1:30">
+    <row r="47" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>311</v>
       </c>
     </row>
-    <row r="49" spans="1:7">
+    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A49" s="13" t="s">
         <v>320</v>
       </c>
@@ -8885,17 +8911,17 @@
       <c r="E49" s="13"/>
       <c r="F49" s="13"/>
     </row>
-    <row r="50" spans="1:7">
+    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B50" t="s">
         <v>321</v>
       </c>
     </row>
-    <row r="51" spans="1:7">
+    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B51" t="s">
         <v>322</v>
       </c>
     </row>
-    <row r="52" spans="1:7">
+    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B52" s="5" t="s">
         <v>323</v>
       </c>
@@ -8904,32 +8930,32 @@
         <v>324</v>
       </c>
     </row>
-    <row r="53" spans="1:7">
+    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C53" t="s">
         <v>325</v>
       </c>
     </row>
-    <row r="54" spans="1:7">
+    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
       <c r="D54" t="s">
         <v>326</v>
       </c>
     </row>
-    <row r="55" spans="1:7">
+    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
       <c r="E55" t="s">
         <v>327</v>
       </c>
     </row>
-    <row r="56" spans="1:7">
+    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B56" t="s">
         <v>322</v>
       </c>
     </row>
-    <row r="57" spans="1:7">
+    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>311</v>
       </c>
     </row>
-    <row r="59" spans="1:7">
+    <row r="59" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A59" s="13" t="s">
         <v>328</v>
       </c>
@@ -8939,62 +8965,62 @@
       <c r="E59" s="13"/>
       <c r="F59" s="13"/>
     </row>
-    <row r="60" spans="1:7">
+    <row r="60" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>329</v>
       </c>
     </row>
-    <row r="61" spans="1:7">
+    <row r="61" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>330</v>
       </c>
     </row>
-    <row r="62" spans="1:7">
+    <row r="62" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>331</v>
       </c>
     </row>
-    <row r="63" spans="1:7">
+    <row r="63" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>332</v>
       </c>
     </row>
-    <row r="64" spans="1:7">
+    <row r="64" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>333</v>
       </c>
     </row>
-    <row r="65" spans="1:9">
+    <row r="65" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>334</v>
       </c>
     </row>
-    <row r="66" spans="1:9">
+    <row r="66" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>335</v>
       </c>
     </row>
-    <row r="67" spans="1:9">
+    <row r="67" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>334</v>
       </c>
     </row>
-    <row r="68" spans="1:9">
+    <row r="68" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>336</v>
       </c>
     </row>
-    <row r="69" spans="1:9">
+    <row r="69" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>337</v>
       </c>
     </row>
-    <row r="70" spans="1:9">
+    <row r="70" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>338</v>
       </c>
     </row>
-    <row r="71" spans="1:9">
+    <row r="71" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>339</v>
       </c>
@@ -9002,7 +9028,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="72" spans="1:9">
+    <row r="72" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>340</v>
       </c>
@@ -9010,182 +9036,182 @@
         <v>372</v>
       </c>
     </row>
-    <row r="73" spans="1:9">
+    <row r="73" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>341</v>
       </c>
     </row>
-    <row r="74" spans="1:9">
+    <row r="74" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>342</v>
       </c>
     </row>
-    <row r="75" spans="1:9">
+    <row r="75" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>343</v>
       </c>
     </row>
-    <row r="76" spans="1:9">
+    <row r="76" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>344</v>
       </c>
     </row>
-    <row r="77" spans="1:9">
+    <row r="77" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
         <v>345</v>
       </c>
     </row>
-    <row r="78" spans="1:9">
+    <row r="78" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
         <v>341</v>
       </c>
     </row>
-    <row r="79" spans="1:9">
+    <row r="79" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
         <v>346</v>
       </c>
     </row>
-    <row r="80" spans="1:9">
+    <row r="80" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
         <v>347</v>
       </c>
     </row>
-    <row r="81" spans="1:1">
+    <row r="81" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
         <v>348</v>
       </c>
     </row>
-    <row r="82" spans="1:1">
+    <row r="82" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
         <v>349</v>
       </c>
     </row>
-    <row r="83" spans="1:1">
+    <row r="83" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
         <v>350</v>
       </c>
     </row>
-    <row r="84" spans="1:1">
+    <row r="84" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
         <v>351</v>
       </c>
     </row>
-    <row r="85" spans="1:1">
+    <row r="85" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
         <v>352</v>
       </c>
     </row>
-    <row r="86" spans="1:1">
+    <row r="86" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
         <v>348</v>
       </c>
     </row>
-    <row r="87" spans="1:1">
+    <row r="87" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
         <v>353</v>
       </c>
     </row>
-    <row r="88" spans="1:1">
+    <row r="88" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
         <v>354</v>
       </c>
     </row>
-    <row r="89" spans="1:1">
+    <row r="89" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
         <v>355</v>
       </c>
     </row>
-    <row r="90" spans="1:1">
+    <row r="90" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
         <v>356</v>
       </c>
     </row>
-    <row r="91" spans="1:1">
+    <row r="91" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
         <v>357</v>
       </c>
     </row>
-    <row r="92" spans="1:1">
+    <row r="92" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
         <v>358</v>
       </c>
     </row>
-    <row r="93" spans="1:1">
+    <row r="93" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
         <v>359</v>
       </c>
     </row>
-    <row r="94" spans="1:1">
+    <row r="94" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
         <v>360</v>
       </c>
     </row>
-    <row r="95" spans="1:1">
+    <row r="95" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
         <v>361</v>
       </c>
     </row>
-    <row r="96" spans="1:1">
+    <row r="96" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
         <v>362</v>
       </c>
     </row>
-    <row r="97" spans="1:1">
+    <row r="97" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
         <v>363</v>
       </c>
     </row>
-    <row r="98" spans="1:1">
+    <row r="98" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
         <v>351</v>
       </c>
     </row>
-    <row r="99" spans="1:1">
+    <row r="99" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
         <v>344</v>
       </c>
     </row>
-    <row r="100" spans="1:1">
+    <row r="100" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
         <v>364</v>
       </c>
     </row>
-    <row r="101" spans="1:1">
+    <row r="101" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
         <v>365</v>
       </c>
     </row>
-    <row r="102" spans="1:1">
+    <row r="102" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
         <v>338</v>
       </c>
     </row>
-    <row r="103" spans="1:1">
+    <row r="103" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
         <v>366</v>
       </c>
     </row>
-    <row r="104" spans="1:1">
+    <row r="104" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
         <v>367</v>
       </c>
     </row>
-    <row r="105" spans="1:1">
+    <row r="105" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
         <v>364</v>
       </c>
     </row>
-    <row r="107" spans="1:1">
+    <row r="107" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
         <v>368</v>
       </c>
     </row>
-    <row r="108" spans="1:1">
+    <row r="108" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
         <v>369</v>
       </c>
     </row>
-    <row r="109" spans="1:1">
+    <row r="109" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
         <v>370</v>
       </c>
@@ -9200,16 +9226,16 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Z133"/>
   <sheetViews>
     <sheetView topLeftCell="A70" workbookViewId="0">
       <selection activeCell="A57" sqref="A57:F122"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:25">
+    <row r="1" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A1" s="46" t="s">
         <v>375</v>
       </c>
@@ -9218,12 +9244,12 @@
       <c r="D1" s="46"/>
       <c r="E1" s="46"/>
     </row>
-    <row r="3" spans="1:25">
+    <row r="3" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>413</v>
       </c>
     </row>
-    <row r="5" spans="1:25">
+    <row r="5" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>414</v>
       </c>
@@ -9231,7 +9257,7 @@
         <v>448</v>
       </c>
     </row>
-    <row r="6" spans="1:25">
+    <row r="6" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>420</v>
       </c>
@@ -9239,7 +9265,7 @@
         <v>446</v>
       </c>
     </row>
-    <row r="7" spans="1:25">
+    <row r="7" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>378</v>
       </c>
@@ -9247,7 +9273,7 @@
         <v>447</v>
       </c>
     </row>
-    <row r="8" spans="1:25">
+    <row r="8" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
         <v>409</v>
       </c>
@@ -9258,7 +9284,7 @@
         <v>452</v>
       </c>
     </row>
-    <row r="9" spans="1:25">
+    <row r="9" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
         <v>415</v>
       </c>
@@ -9269,12 +9295,12 @@
         <v>453</v>
       </c>
     </row>
-    <row r="10" spans="1:25">
+    <row r="10" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B10" t="s">
         <v>410</v>
       </c>
     </row>
-    <row r="11" spans="1:25">
+    <row r="11" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B11" t="s">
         <v>416</v>
       </c>
@@ -9282,17 +9308,17 @@
         <v>451</v>
       </c>
     </row>
-    <row r="13" spans="1:25">
+    <row r="13" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B13" t="s">
         <v>417</v>
       </c>
     </row>
-    <row r="14" spans="1:25">
+    <row r="14" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B14" t="s">
         <v>378</v>
       </c>
     </row>
-    <row r="15" spans="1:25">
+    <row r="15" spans="1:25" x14ac:dyDescent="0.25">
       <c r="C15" t="s">
         <v>411</v>
       </c>
@@ -9300,7 +9326,7 @@
         <v>442</v>
       </c>
     </row>
-    <row r="16" spans="1:25">
+    <row r="16" spans="1:25" x14ac:dyDescent="0.25">
       <c r="C16" t="s">
         <v>418</v>
       </c>
@@ -9308,7 +9334,7 @@
         <v>443</v>
       </c>
     </row>
-    <row r="17" spans="1:26">
+    <row r="17" spans="1:26" x14ac:dyDescent="0.25">
       <c r="C17" t="s">
         <v>412</v>
       </c>
@@ -9316,7 +9342,7 @@
         <v>444</v>
       </c>
     </row>
-    <row r="18" spans="1:26">
+    <row r="18" spans="1:26" x14ac:dyDescent="0.25">
       <c r="C18" t="s">
         <v>419</v>
       </c>
@@ -9324,17 +9350,17 @@
         <v>445</v>
       </c>
     </row>
-    <row r="19" spans="1:26">
+    <row r="19" spans="1:26" x14ac:dyDescent="0.25">
       <c r="B19" t="s">
         <v>311</v>
       </c>
     </row>
-    <row r="20" spans="1:26">
+    <row r="20" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>311</v>
       </c>
     </row>
-    <row r="22" spans="1:26">
+    <row r="22" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>437</v>
       </c>
@@ -9348,7 +9374,7 @@
         <v>468</v>
       </c>
     </row>
-    <row r="23" spans="1:26">
+    <row r="23" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>425</v>
       </c>
@@ -9365,7 +9391,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="24" spans="1:26">
+    <row r="24" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>378</v>
       </c>
@@ -9379,7 +9405,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="25" spans="1:26">
+    <row r="25" spans="1:26" x14ac:dyDescent="0.25">
       <c r="B25" t="s">
         <v>426</v>
       </c>
@@ -9393,7 +9419,7 @@
         <v>478</v>
       </c>
     </row>
-    <row r="26" spans="1:26">
+    <row r="26" spans="1:26" x14ac:dyDescent="0.25">
       <c r="C26" t="s">
         <v>430</v>
       </c>
@@ -9407,7 +9433,7 @@
         <v>482</v>
       </c>
     </row>
-    <row r="27" spans="1:26">
+    <row r="27" spans="1:26" x14ac:dyDescent="0.25">
       <c r="B27" t="s">
         <v>381</v>
       </c>
@@ -9421,7 +9447,7 @@
         <v>457</v>
       </c>
     </row>
-    <row r="28" spans="1:26">
+    <row r="28" spans="1:26" x14ac:dyDescent="0.25">
       <c r="C28" t="s">
         <v>431</v>
       </c>
@@ -9435,7 +9461,7 @@
         <v>483</v>
       </c>
     </row>
-    <row r="29" spans="1:26">
+    <row r="29" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>311</v>
       </c>
@@ -9449,7 +9475,7 @@
         <v>484</v>
       </c>
     </row>
-    <row r="30" spans="1:26">
+    <row r="30" spans="1:26" x14ac:dyDescent="0.25">
       <c r="P30" t="s">
         <v>474</v>
       </c>
@@ -9460,7 +9486,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="31" spans="1:26">
+    <row r="31" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A31" s="41" t="s">
         <v>390</v>
       </c>
@@ -9483,7 +9509,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="32" spans="1:26">
+    <row r="32" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A32" s="41" t="s">
         <v>378</v>
       </c>
@@ -9500,7 +9526,7 @@
         <v>476</v>
       </c>
     </row>
-    <row r="33" spans="1:19">
+    <row r="33" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A33" s="41"/>
       <c r="B33" s="5" t="s">
         <v>421</v>
@@ -9517,7 +9543,7 @@
         <v>477</v>
       </c>
     </row>
-    <row r="34" spans="1:19">
+    <row r="34" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A34" s="41"/>
       <c r="B34" s="41" t="s">
         <v>378</v>
@@ -9534,7 +9560,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="35" spans="1:19">
+    <row r="35" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A35" s="41"/>
       <c r="B35" s="41"/>
       <c r="C35" s="41" t="s">
@@ -9555,7 +9581,7 @@
         <v>37500</v>
       </c>
     </row>
-    <row r="36" spans="1:19">
+    <row r="36" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A36" s="41"/>
       <c r="B36" s="41"/>
       <c r="C36" s="41" t="s">
@@ -9569,7 +9595,7 @@
         <v>408</v>
       </c>
     </row>
-    <row r="37" spans="1:19">
+    <row r="37" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A37" s="41"/>
       <c r="B37" s="41"/>
       <c r="C37" s="41"/>
@@ -9583,7 +9609,7 @@
         <v>428</v>
       </c>
     </row>
-    <row r="38" spans="1:19">
+    <row r="38" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A38" s="41"/>
       <c r="B38" s="41"/>
       <c r="C38" s="41"/>
@@ -9597,7 +9623,7 @@
         <v>429</v>
       </c>
     </row>
-    <row r="39" spans="1:19">
+    <row r="39" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A39" s="41"/>
       <c r="B39" s="41"/>
       <c r="C39" s="41"/>
@@ -9608,7 +9634,7 @@
       <c r="F39" s="41"/>
       <c r="G39" s="41"/>
     </row>
-    <row r="40" spans="1:19">
+    <row r="40" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A40" s="41"/>
       <c r="B40" s="41"/>
       <c r="C40" s="41"/>
@@ -9619,7 +9645,7 @@
       <c r="F40" s="41"/>
       <c r="G40" s="41"/>
     </row>
-    <row r="41" spans="1:19">
+    <row r="41" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A41" s="41"/>
       <c r="B41" s="41"/>
       <c r="C41" s="41"/>
@@ -9630,7 +9656,7 @@
       <c r="F41" s="41"/>
       <c r="G41" s="41"/>
     </row>
-    <row r="42" spans="1:19">
+    <row r="42" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A42" s="41"/>
       <c r="B42" s="41"/>
       <c r="C42" s="41"/>
@@ -9641,7 +9667,7 @@
       <c r="F42" s="41"/>
       <c r="G42" s="41"/>
     </row>
-    <row r="43" spans="1:19">
+    <row r="43" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A43" s="41"/>
       <c r="B43" s="41"/>
       <c r="C43" s="41"/>
@@ -9652,7 +9678,7 @@
       <c r="F43" s="41"/>
       <c r="G43" s="41"/>
     </row>
-    <row r="44" spans="1:19">
+    <row r="44" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A44" s="41"/>
       <c r="B44" s="41"/>
       <c r="C44" s="41"/>
@@ -9663,7 +9689,7 @@
       <c r="F44" s="41"/>
       <c r="G44" s="41"/>
     </row>
-    <row r="45" spans="1:19">
+    <row r="45" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A45" s="41"/>
       <c r="B45" s="41"/>
       <c r="C45" s="41" t="s">
@@ -9674,7 +9700,7 @@
       <c r="F45" s="41"/>
       <c r="G45" s="41"/>
     </row>
-    <row r="46" spans="1:19">
+    <row r="46" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A46" s="41"/>
       <c r="B46" s="41"/>
       <c r="C46" s="41" t="s">
@@ -9685,7 +9711,7 @@
       <c r="F46" s="41"/>
       <c r="G46" s="41"/>
     </row>
-    <row r="47" spans="1:19">
+    <row r="47" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A47" s="41"/>
       <c r="B47" s="41"/>
       <c r="C47" s="41" t="s">
@@ -9696,7 +9722,7 @@
       <c r="F47" s="41"/>
       <c r="G47" s="41"/>
     </row>
-    <row r="48" spans="1:19">
+    <row r="48" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A48" s="41"/>
       <c r="B48" s="41"/>
       <c r="C48" s="41"/>
@@ -9707,7 +9733,7 @@
       <c r="F48" s="41"/>
       <c r="G48" s="41"/>
     </row>
-    <row r="49" spans="1:26">
+    <row r="49" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A49" s="41"/>
       <c r="B49" s="41"/>
       <c r="C49" s="41" t="s">
@@ -9718,7 +9744,7 @@
       <c r="F49" s="41"/>
       <c r="G49" s="41"/>
     </row>
-    <row r="50" spans="1:26">
+    <row r="50" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A50" s="41"/>
       <c r="B50" s="41" t="s">
         <v>311</v>
@@ -9729,7 +9755,7 @@
       <c r="F50" s="41"/>
       <c r="G50" s="41"/>
     </row>
-    <row r="51" spans="1:26">
+    <row r="51" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A51" s="41"/>
       <c r="B51" s="41" t="s">
         <v>381</v>
@@ -9740,7 +9766,7 @@
       <c r="F51" s="41"/>
       <c r="G51" s="41"/>
     </row>
-    <row r="52" spans="1:26">
+    <row r="52" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A52" s="41"/>
       <c r="B52" s="41" t="s">
         <v>378</v>
@@ -9751,7 +9777,7 @@
       <c r="F52" s="41"/>
       <c r="G52" s="41"/>
     </row>
-    <row r="53" spans="1:26">
+    <row r="53" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A53" s="41"/>
       <c r="B53" s="41"/>
       <c r="C53" s="41" t="s">
@@ -9762,7 +9788,7 @@
       <c r="F53" s="41"/>
       <c r="G53" s="41"/>
     </row>
-    <row r="54" spans="1:26">
+    <row r="54" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A54" s="41"/>
       <c r="B54" s="41" t="s">
         <v>311</v>
@@ -9773,7 +9799,7 @@
       <c r="F54" s="41"/>
       <c r="G54" s="41"/>
     </row>
-    <row r="55" spans="1:26">
+    <row r="55" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A55" s="41" t="s">
         <v>311</v>
       </c>
@@ -9784,7 +9810,7 @@
       <c r="F55" s="41"/>
       <c r="G55" s="41"/>
     </row>
-    <row r="56" spans="1:26">
+    <row r="56" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A56" s="41"/>
       <c r="B56" s="41"/>
       <c r="C56" s="41"/>
@@ -9793,7 +9819,7 @@
       <c r="F56" s="41"/>
       <c r="G56" s="41"/>
     </row>
-    <row r="57" spans="1:26">
+    <row r="57" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A57" s="41" t="s">
         <v>393</v>
       </c>
@@ -9816,7 +9842,7 @@
         <v>468</v>
       </c>
     </row>
-    <row r="58" spans="1:26">
+    <row r="58" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A58" s="41" t="s">
         <v>378</v>
       </c>
@@ -9839,7 +9865,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="59" spans="1:26">
+    <row r="59" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A59" s="41"/>
       <c r="B59" s="41" t="s">
         <v>394</v>
@@ -9862,7 +9888,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="60" spans="1:26">
+    <row r="60" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A60" s="41"/>
       <c r="B60" s="41"/>
       <c r="C60" s="41"/>
@@ -9886,7 +9912,7 @@
         <v>469</v>
       </c>
     </row>
-    <row r="61" spans="1:26">
+    <row r="61" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A61" s="41"/>
       <c r="B61" s="5" t="s">
         <v>395</v>
@@ -9909,7 +9935,7 @@
         <v>470</v>
       </c>
     </row>
-    <row r="62" spans="1:26">
+    <row r="62" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A62" s="41"/>
       <c r="B62" s="41" t="s">
         <v>378</v>
@@ -9932,7 +9958,7 @@
         <v>471</v>
       </c>
     </row>
-    <row r="63" spans="1:26">
+    <row r="63" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A63" s="41"/>
       <c r="B63" s="41"/>
       <c r="C63" s="5" t="s">
@@ -9955,7 +9981,7 @@
         <v>472</v>
       </c>
     </row>
-    <row r="64" spans="1:26">
+    <row r="64" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A64" s="41"/>
       <c r="B64" s="41"/>
       <c r="C64" s="41" t="s">
@@ -9978,7 +10004,7 @@
         <v>473</v>
       </c>
     </row>
-    <row r="65" spans="1:26">
+    <row r="65" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A65" s="41"/>
       <c r="B65" s="41"/>
       <c r="C65" s="41"/>
@@ -9998,7 +10024,7 @@
         <v>491</v>
       </c>
     </row>
-    <row r="66" spans="1:26">
+    <row r="66" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A66" s="41"/>
       <c r="B66" s="41"/>
       <c r="C66" s="41" t="s">
@@ -10018,7 +10044,7 @@
         <v>492</v>
       </c>
     </row>
-    <row r="67" spans="1:26">
+    <row r="67" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A67" s="41"/>
       <c r="B67" s="41"/>
       <c r="C67" s="41" t="s">
@@ -10038,7 +10064,7 @@
         <v>493</v>
       </c>
     </row>
-    <row r="68" spans="1:26">
+    <row r="68" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A68" s="41"/>
       <c r="B68" s="41"/>
       <c r="C68" s="41" t="s">
@@ -10058,7 +10084,7 @@
         <v>489</v>
       </c>
     </row>
-    <row r="69" spans="1:26">
+    <row r="69" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A69" s="41"/>
       <c r="B69" s="41"/>
       <c r="C69" s="41"/>
@@ -10078,7 +10104,7 @@
         <v>494</v>
       </c>
     </row>
-    <row r="70" spans="1:26">
+    <row r="70" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A70" s="41"/>
       <c r="B70" s="41"/>
       <c r="C70" s="41" t="s">
@@ -10098,7 +10124,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="71" spans="1:26">
+    <row r="71" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A71" s="41"/>
       <c r="B71" s="41"/>
       <c r="C71" s="41" t="s">
@@ -10109,7 +10135,7 @@
       <c r="F71" s="41"/>
       <c r="G71" s="41"/>
     </row>
-    <row r="72" spans="1:26">
+    <row r="72" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A72" s="41"/>
       <c r="B72" s="41" t="s">
         <v>397</v>
@@ -10120,7 +10146,7 @@
       <c r="F72" s="41"/>
       <c r="G72" s="41"/>
     </row>
-    <row r="73" spans="1:26">
+    <row r="73" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A73" s="41"/>
       <c r="B73" s="41"/>
       <c r="C73" s="41"/>
@@ -10129,7 +10155,7 @@
       <c r="F73" s="41"/>
       <c r="G73" s="41"/>
     </row>
-    <row r="74" spans="1:26">
+    <row r="74" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A74" s="41"/>
       <c r="B74" s="41" t="s">
         <v>398</v>
@@ -10140,7 +10166,7 @@
       <c r="F74" s="41"/>
       <c r="G74" s="41"/>
     </row>
-    <row r="75" spans="1:26">
+    <row r="75" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A75" s="41"/>
       <c r="B75" s="41" t="s">
         <v>399</v>
@@ -10151,7 +10177,7 @@
       <c r="F75" s="41"/>
       <c r="G75" s="41"/>
     </row>
-    <row r="76" spans="1:26">
+    <row r="76" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A76" s="41"/>
       <c r="B76" s="41"/>
       <c r="C76" s="41" t="s">
@@ -10162,7 +10188,7 @@
       <c r="F76" s="41"/>
       <c r="G76" s="41"/>
     </row>
-    <row r="77" spans="1:26">
+    <row r="77" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A77" s="41"/>
       <c r="B77" s="41" t="s">
         <v>397</v>
@@ -10173,7 +10199,7 @@
       <c r="F77" s="41"/>
       <c r="G77" s="41"/>
     </row>
-    <row r="78" spans="1:26">
+    <row r="78" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A78" s="41"/>
       <c r="B78" s="41" t="s">
         <v>400</v>
@@ -10184,7 +10210,7 @@
       <c r="F78" s="41"/>
       <c r="G78" s="41"/>
     </row>
-    <row r="79" spans="1:26">
+    <row r="79" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A79" s="41"/>
       <c r="B79" s="41" t="s">
         <v>378</v>
@@ -10195,7 +10221,7 @@
       <c r="F79" s="41"/>
       <c r="G79" s="41"/>
     </row>
-    <row r="80" spans="1:26">
+    <row r="80" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A80" s="41"/>
       <c r="B80" s="41"/>
       <c r="C80" s="5" t="s">
@@ -10206,7 +10232,7 @@
       <c r="F80" s="41"/>
       <c r="G80" s="41"/>
     </row>
-    <row r="81" spans="1:26">
+    <row r="81" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A81" s="41"/>
       <c r="B81" s="41"/>
       <c r="C81" s="41" t="s">
@@ -10217,7 +10243,7 @@
       <c r="F81" s="41"/>
       <c r="G81" s="41"/>
     </row>
-    <row r="82" spans="1:26">
+    <row r="82" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A82" s="41"/>
       <c r="B82" s="41"/>
       <c r="C82" s="41"/>
@@ -10228,7 +10254,7 @@
       <c r="F82" s="41"/>
       <c r="G82" s="41"/>
     </row>
-    <row r="83" spans="1:26">
+    <row r="83" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A83" s="41"/>
       <c r="B83" s="41"/>
       <c r="C83" s="41"/>
@@ -10239,7 +10265,7 @@
       <c r="F83" s="41"/>
       <c r="G83" s="41"/>
     </row>
-    <row r="84" spans="1:26">
+    <row r="84" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A84" s="41"/>
       <c r="B84" s="41"/>
       <c r="C84" s="41" t="s">
@@ -10250,7 +10276,7 @@
       <c r="F84" s="41"/>
       <c r="G84" s="41"/>
     </row>
-    <row r="85" spans="1:26">
+    <row r="85" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A85" s="41"/>
       <c r="B85" s="41"/>
       <c r="C85" s="41" t="s">
@@ -10261,7 +10287,7 @@
       <c r="F85" s="41"/>
       <c r="G85" s="41"/>
     </row>
-    <row r="86" spans="1:26">
+    <row r="86" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A86" s="41"/>
       <c r="B86" s="41"/>
       <c r="C86" s="41" t="s">
@@ -10272,7 +10298,7 @@
       <c r="F86" s="41"/>
       <c r="G86" s="41"/>
     </row>
-    <row r="87" spans="1:26">
+    <row r="87" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A87" s="41"/>
       <c r="B87" s="41"/>
       <c r="C87" s="41"/>
@@ -10283,7 +10309,7 @@
       <c r="F87" s="41"/>
       <c r="G87" s="41"/>
     </row>
-    <row r="88" spans="1:26">
+    <row r="88" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A88" s="41"/>
       <c r="B88" s="41"/>
       <c r="C88" s="41"/>
@@ -10294,7 +10320,7 @@
       <c r="F88" s="41"/>
       <c r="G88" s="41"/>
     </row>
-    <row r="89" spans="1:26">
+    <row r="89" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A89" s="41"/>
       <c r="B89" s="41"/>
       <c r="C89" s="41"/>
@@ -10305,7 +10331,7 @@
       <c r="F89" s="41"/>
       <c r="G89" s="41"/>
     </row>
-    <row r="90" spans="1:26">
+    <row r="90" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A90" s="41"/>
       <c r="B90" s="41"/>
       <c r="C90" s="41" t="s">
@@ -10316,7 +10342,7 @@
       <c r="F90" s="41"/>
       <c r="G90" s="41"/>
     </row>
-    <row r="91" spans="1:26">
+    <row r="91" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A91" s="41"/>
       <c r="B91" s="41" t="s">
         <v>311</v>
@@ -10327,7 +10353,7 @@
       <c r="F91" s="41"/>
       <c r="G91" s="41"/>
     </row>
-    <row r="92" spans="1:26">
+    <row r="92" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A92" s="41" t="s">
         <v>311</v>
       </c>
@@ -10338,7 +10364,7 @@
       <c r="F92" s="41"/>
       <c r="G92" s="41"/>
     </row>
-    <row r="93" spans="1:26">
+    <row r="93" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A93" s="41"/>
       <c r="B93" s="41"/>
       <c r="C93" s="41"/>
@@ -10347,7 +10373,7 @@
       <c r="F93" s="41"/>
       <c r="G93" s="41"/>
     </row>
-    <row r="94" spans="1:26">
+    <row r="94" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A94" s="41" t="s">
         <v>406</v>
       </c>
@@ -10370,7 +10396,7 @@
         <v>468</v>
       </c>
     </row>
-    <row r="95" spans="1:26">
+    <row r="95" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A95" s="41" t="s">
         <v>378</v>
       </c>
@@ -10393,7 +10419,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="96" spans="1:26">
+    <row r="96" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A96" s="41"/>
       <c r="B96" s="41" t="s">
         <v>376</v>
@@ -10416,7 +10442,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="97" spans="1:26">
+    <row r="97" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A97" s="41"/>
       <c r="B97" s="41"/>
       <c r="C97" s="41"/>
@@ -10437,7 +10463,7 @@
         <v>467</v>
       </c>
     </row>
-    <row r="98" spans="1:26">
+    <row r="98" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A98" s="41"/>
       <c r="B98" s="41" t="s">
         <v>377</v>
@@ -10460,7 +10486,7 @@
         <v>485</v>
       </c>
     </row>
-    <row r="99" spans="1:26">
+    <row r="99" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A99" s="41"/>
       <c r="B99" s="41" t="s">
         <v>378</v>
@@ -10483,7 +10509,7 @@
         <v>457</v>
       </c>
     </row>
-    <row r="100" spans="1:26">
+    <row r="100" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A100" s="41"/>
       <c r="B100" s="41"/>
       <c r="C100" s="5" t="s">
@@ -10506,7 +10532,7 @@
         <v>486</v>
       </c>
     </row>
-    <row r="101" spans="1:26">
+    <row r="101" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A101" s="41"/>
       <c r="B101" s="41"/>
       <c r="C101" s="41" t="s">
@@ -10529,7 +10555,7 @@
         <v>487</v>
       </c>
     </row>
-    <row r="102" spans="1:26">
+    <row r="102" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A102" s="41"/>
       <c r="B102" s="41"/>
       <c r="C102" s="41"/>
@@ -10549,7 +10575,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="103" spans="1:26">
+    <row r="103" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A103" s="41"/>
       <c r="B103" s="41"/>
       <c r="C103" s="41" t="s">
@@ -10569,7 +10595,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="104" spans="1:26">
+    <row r="104" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A104" s="41"/>
       <c r="B104" s="41"/>
       <c r="C104" s="41" t="s">
@@ -10580,7 +10606,7 @@
       <c r="F104" s="41"/>
       <c r="G104" s="41"/>
     </row>
-    <row r="105" spans="1:26">
+    <row r="105" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A105" s="41"/>
       <c r="B105" s="41"/>
       <c r="C105" s="41" t="s">
@@ -10591,7 +10617,7 @@
       <c r="F105" s="41"/>
       <c r="G105" s="41"/>
     </row>
-    <row r="106" spans="1:26">
+    <row r="106" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A106" s="41"/>
       <c r="B106" s="41"/>
       <c r="C106" s="41"/>
@@ -10602,7 +10628,7 @@
       <c r="F106" s="5"/>
       <c r="G106" s="41"/>
     </row>
-    <row r="107" spans="1:26">
+    <row r="107" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A107" s="41"/>
       <c r="B107" s="41"/>
       <c r="C107" s="41"/>
@@ -10613,7 +10639,7 @@
       <c r="F107" s="41"/>
       <c r="G107" s="41"/>
     </row>
-    <row r="108" spans="1:26">
+    <row r="108" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A108" s="41"/>
       <c r="B108" s="41"/>
       <c r="C108" s="41"/>
@@ -10624,7 +10650,7 @@
       <c r="F108" s="41"/>
       <c r="G108" s="41"/>
     </row>
-    <row r="109" spans="1:26">
+    <row r="109" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A109" s="41"/>
       <c r="B109" s="41"/>
       <c r="C109" s="41"/>
@@ -10635,7 +10661,7 @@
       <c r="F109" s="41"/>
       <c r="G109" s="41"/>
     </row>
-    <row r="110" spans="1:26">
+    <row r="110" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A110" s="41"/>
       <c r="B110" s="41"/>
       <c r="C110" s="41"/>
@@ -10646,7 +10672,7 @@
       <c r="F110" s="41"/>
       <c r="G110" s="41"/>
     </row>
-    <row r="111" spans="1:26">
+    <row r="111" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A111" s="41"/>
       <c r="B111" s="41"/>
       <c r="C111" s="41"/>
@@ -10657,7 +10683,7 @@
       <c r="F111" s="41"/>
       <c r="G111" s="41"/>
     </row>
-    <row r="112" spans="1:26">
+    <row r="112" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A112" s="41"/>
       <c r="B112" s="41"/>
       <c r="C112" s="41"/>
@@ -10668,7 +10694,7 @@
       <c r="F112" s="41"/>
       <c r="G112" s="41"/>
     </row>
-    <row r="113" spans="1:7">
+    <row r="113" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A113" s="41"/>
       <c r="B113" s="41"/>
       <c r="C113" s="41"/>
@@ -10679,7 +10705,7 @@
       <c r="F113" s="41"/>
       <c r="G113" s="41"/>
     </row>
-    <row r="114" spans="1:7">
+    <row r="114" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A114" s="41"/>
       <c r="B114" s="41"/>
       <c r="C114" s="41" t="s">
@@ -10690,7 +10716,7 @@
       <c r="F114" s="41"/>
       <c r="G114" s="41"/>
     </row>
-    <row r="115" spans="1:7">
+    <row r="115" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A115" s="41"/>
       <c r="B115" s="41" t="s">
         <v>311</v>
@@ -10701,7 +10727,7 @@
       <c r="F115" s="41"/>
       <c r="G115" s="41"/>
     </row>
-    <row r="116" spans="1:7">
+    <row r="116" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A116" s="41"/>
       <c r="B116" s="41" t="s">
         <v>381</v>
@@ -10712,7 +10738,7 @@
       <c r="F116" s="41"/>
       <c r="G116" s="41"/>
     </row>
-    <row r="117" spans="1:7">
+    <row r="117" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A117" s="41"/>
       <c r="B117" s="41" t="s">
         <v>378</v>
@@ -10723,7 +10749,7 @@
       <c r="F117" s="41"/>
       <c r="G117" s="41"/>
     </row>
-    <row r="118" spans="1:7">
+    <row r="118" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A118" s="41"/>
       <c r="B118" s="41"/>
       <c r="C118" s="41" t="s">
@@ -10734,7 +10760,7 @@
       <c r="F118" s="41"/>
       <c r="G118" s="41"/>
     </row>
-    <row r="119" spans="1:7">
+    <row r="119" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A119" s="41"/>
       <c r="B119" s="41" t="s">
         <v>311</v>
@@ -10745,7 +10771,7 @@
       <c r="F119" s="41"/>
       <c r="G119" s="41"/>
     </row>
-    <row r="120" spans="1:7">
+    <row r="120" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A120" s="41"/>
       <c r="B120" s="41"/>
       <c r="C120" s="41"/>
@@ -10754,7 +10780,7 @@
       <c r="F120" s="41"/>
       <c r="G120" s="41"/>
     </row>
-    <row r="121" spans="1:7">
+    <row r="121" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A121" s="41"/>
       <c r="B121" s="41" t="s">
         <v>407</v>
@@ -10765,7 +10791,7 @@
       <c r="F121" s="41"/>
       <c r="G121" s="41"/>
     </row>
-    <row r="122" spans="1:7">
+    <row r="122" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A122" s="41" t="s">
         <v>311</v>
       </c>
@@ -10776,7 +10802,7 @@
       <c r="F122" s="41"/>
       <c r="G122" s="41"/>
     </row>
-    <row r="125" spans="1:7">
+    <row r="125" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A125" s="41"/>
       <c r="B125" s="41"/>
       <c r="C125" s="41"/>
@@ -10785,7 +10811,7 @@
       <c r="F125" s="41"/>
       <c r="G125" s="41"/>
     </row>
-    <row r="133" spans="1:11">
+    <row r="133" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A133" s="41"/>
       <c r="B133" s="41"/>
       <c r="C133" s="41"/>
@@ -10805,71 +10831,100 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L81"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:S81"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="L23" sqref="L23"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="S1" sqref="S1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="19" max="19" width="13.28515625" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>507</v>
       </c>
-    </row>
-    <row r="2" spans="1:6">
+      <c r="S1" t="s">
+        <v>534</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>508</v>
       </c>
-    </row>
-    <row r="3" spans="1:6">
+      <c r="S2" t="s">
+        <v>535</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>509</v>
       </c>
-    </row>
-    <row r="5" spans="1:6">
+      <c r="S3" t="s">
+        <v>536</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="S4" t="s">
+        <v>537</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>510</v>
       </c>
-    </row>
-    <row r="6" spans="1:6">
+      <c r="S5" t="s">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A6" s="48" t="s">
         <v>514</v>
       </c>
-    </row>
-    <row r="7" spans="1:6">
+      <c r="S6" t="s">
+        <v>539</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A7" s="48" t="s">
         <v>515</v>
       </c>
-    </row>
-    <row r="8" spans="1:6">
+      <c r="S7" t="s">
+        <v>540</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>512</v>
       </c>
-    </row>
-    <row r="9" spans="1:6">
+      <c r="S8" t="s">
+        <v>541</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>513</v>
       </c>
     </row>
-    <row r="10" spans="1:6">
+    <row r="10" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>511</v>
       </c>
     </row>
-    <row r="12" spans="1:6">
+    <row r="12" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>516</v>
       </c>
     </row>
-    <row r="14" spans="1:6">
+    <row r="14" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>517</v>
       </c>
     </row>
-    <row r="16" spans="1:6">
+    <row r="16" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A16" s="41" t="s">
         <v>393</v>
       </c>
@@ -10879,7 +10934,7 @@
       <c r="E16" s="41"/>
       <c r="F16" s="41"/>
     </row>
-    <row r="17" spans="1:12">
+    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A17" s="41" t="s">
         <v>378</v>
       </c>
@@ -10892,7 +10947,7 @@
         <v>523</v>
       </c>
     </row>
-    <row r="18" spans="1:12">
+    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A18" s="41"/>
       <c r="B18" s="41" t="s">
         <v>394</v>
@@ -10905,7 +10960,7 @@
         <v>524</v>
       </c>
     </row>
-    <row r="19" spans="1:12">
+    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A19" s="41"/>
       <c r="B19" s="41"/>
       <c r="C19" s="41"/>
@@ -10916,7 +10971,7 @@
         <v>526</v>
       </c>
     </row>
-    <row r="20" spans="1:12">
+    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A20" s="41"/>
       <c r="B20" s="41" t="s">
         <v>395</v>
@@ -10929,7 +10984,7 @@
         <v>527</v>
       </c>
     </row>
-    <row r="21" spans="1:12">
+    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A21" s="41"/>
       <c r="B21" s="41" t="s">
         <v>378</v>
@@ -10939,7 +10994,7 @@
       <c r="E21" s="41"/>
       <c r="F21" s="41"/>
     </row>
-    <row r="22" spans="1:12">
+    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A22" s="41"/>
       <c r="B22" s="41"/>
       <c r="C22" s="41" t="s">
@@ -10952,7 +11007,7 @@
         <v>525</v>
       </c>
     </row>
-    <row r="23" spans="1:12">
+    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A23" s="41"/>
       <c r="B23" s="41"/>
       <c r="C23" s="41" t="s">
@@ -10965,7 +11020,7 @@
         <v>528</v>
       </c>
     </row>
-    <row r="24" spans="1:12">
+    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A24" s="41"/>
       <c r="B24" s="41"/>
       <c r="C24" s="41"/>
@@ -10975,7 +11030,7 @@
       <c r="E24" s="41"/>
       <c r="F24" s="41"/>
     </row>
-    <row r="25" spans="1:12">
+    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A25" s="41"/>
       <c r="B25" s="41"/>
       <c r="C25" s="41" t="s">
@@ -10985,7 +11040,7 @@
       <c r="E25" s="41"/>
       <c r="F25" s="41"/>
     </row>
-    <row r="26" spans="1:12">
+    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A26" s="41"/>
       <c r="B26" s="41"/>
       <c r="C26" s="41" t="s">
@@ -10995,7 +11050,7 @@
       <c r="E26" s="41"/>
       <c r="F26" s="41"/>
     </row>
-    <row r="27" spans="1:12">
+    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A27" s="41"/>
       <c r="B27" s="41"/>
       <c r="C27" s="41" t="s">
@@ -11005,7 +11060,7 @@
       <c r="E27" s="41"/>
       <c r="F27" s="41"/>
     </row>
-    <row r="28" spans="1:12">
+    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A28" s="41"/>
       <c r="B28" s="41"/>
       <c r="C28" s="41"/>
@@ -11015,7 +11070,7 @@
       <c r="E28" s="41"/>
       <c r="F28" s="41"/>
     </row>
-    <row r="29" spans="1:12">
+    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A29" s="41"/>
       <c r="B29" s="41"/>
       <c r="C29" s="41" t="s">
@@ -11025,7 +11080,7 @@
       <c r="E29" s="41"/>
       <c r="F29" s="41"/>
     </row>
-    <row r="30" spans="1:12">
+    <row r="30" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A30" s="41"/>
       <c r="B30" s="41"/>
       <c r="C30" s="41" t="s">
@@ -11035,7 +11090,7 @@
       <c r="E30" s="41"/>
       <c r="F30" s="41"/>
     </row>
-    <row r="31" spans="1:12">
+    <row r="31" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A31" s="41"/>
       <c r="B31" s="41" t="s">
         <v>397</v>
@@ -11045,7 +11100,7 @@
       <c r="E31" s="41"/>
       <c r="F31" s="41"/>
     </row>
-    <row r="32" spans="1:12">
+    <row r="32" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A32" s="41"/>
       <c r="B32" s="41"/>
       <c r="C32" s="41"/>
@@ -11053,7 +11108,7 @@
       <c r="E32" s="41"/>
       <c r="F32" s="41"/>
     </row>
-    <row r="33" spans="1:10">
+    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A33" s="41"/>
       <c r="B33" s="41" t="s">
         <v>398</v>
@@ -11063,7 +11118,7 @@
       <c r="E33" s="41"/>
       <c r="F33" s="41"/>
     </row>
-    <row r="34" spans="1:10">
+    <row r="34" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A34" s="41"/>
       <c r="B34" s="41" t="s">
         <v>399</v>
@@ -11073,7 +11128,7 @@
       <c r="E34" s="41"/>
       <c r="F34" s="41"/>
     </row>
-    <row r="35" spans="1:10">
+    <row r="35" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A35" s="41"/>
       <c r="B35" s="41"/>
       <c r="C35" s="41" t="s">
@@ -11083,7 +11138,7 @@
       <c r="E35" s="41"/>
       <c r="F35" s="41"/>
     </row>
-    <row r="36" spans="1:10">
+    <row r="36" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A36" s="41"/>
       <c r="B36" s="41" t="s">
         <v>397</v>
@@ -11093,7 +11148,7 @@
       <c r="E36" s="41"/>
       <c r="F36" s="41"/>
     </row>
-    <row r="37" spans="1:10">
+    <row r="37" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A37" s="41"/>
       <c r="B37" s="41" t="s">
         <v>400</v>
@@ -11103,7 +11158,7 @@
       <c r="E37" s="41"/>
       <c r="F37" s="41"/>
     </row>
-    <row r="38" spans="1:10">
+    <row r="38" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A38" s="41"/>
       <c r="B38" s="41" t="s">
         <v>378</v>
@@ -11113,7 +11168,7 @@
       <c r="E38" s="41"/>
       <c r="F38" s="41"/>
     </row>
-    <row r="39" spans="1:10">
+    <row r="39" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A39" s="41"/>
       <c r="B39" s="41"/>
       <c r="C39" s="5" t="s">
@@ -11131,7 +11186,7 @@
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
     </row>
-    <row r="40" spans="1:10">
+    <row r="40" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A40" s="41"/>
       <c r="B40" s="41"/>
       <c r="C40" s="41" t="s">
@@ -11144,7 +11199,7 @@
         <v>520</v>
       </c>
     </row>
-    <row r="41" spans="1:10">
+    <row r="41" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A41" s="41"/>
       <c r="B41" s="41"/>
       <c r="C41" s="41"/>
@@ -11157,7 +11212,7 @@
         <v>521</v>
       </c>
     </row>
-    <row r="42" spans="1:10">
+    <row r="42" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A42" s="41"/>
       <c r="B42" s="41"/>
       <c r="C42" s="41"/>
@@ -11167,7 +11222,7 @@
       <c r="E42" s="41"/>
       <c r="F42" s="41"/>
     </row>
-    <row r="43" spans="1:10">
+    <row r="43" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A43" s="41"/>
       <c r="B43" s="41"/>
       <c r="C43" s="41" t="s">
@@ -11177,7 +11232,7 @@
       <c r="E43" s="41"/>
       <c r="F43" s="41"/>
     </row>
-    <row r="44" spans="1:10">
+    <row r="44" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A44" s="41"/>
       <c r="B44" s="41"/>
       <c r="C44" s="41" t="s">
@@ -11187,7 +11242,7 @@
       <c r="E44" s="41"/>
       <c r="F44" s="41"/>
     </row>
-    <row r="45" spans="1:10">
+    <row r="45" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A45" s="41"/>
       <c r="B45" s="41"/>
       <c r="C45" s="41" t="s">
@@ -11197,7 +11252,7 @@
       <c r="E45" s="41"/>
       <c r="F45" s="41"/>
     </row>
-    <row r="46" spans="1:10">
+    <row r="46" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A46" s="41"/>
       <c r="B46" s="41"/>
       <c r="C46" s="41"/>
@@ -11207,7 +11262,7 @@
       <c r="E46" s="41"/>
       <c r="F46" s="41"/>
     </row>
-    <row r="47" spans="1:10">
+    <row r="47" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A47" s="41"/>
       <c r="B47" s="41"/>
       <c r="C47" s="41"/>
@@ -11217,7 +11272,7 @@
       <c r="E47" s="41"/>
       <c r="F47" s="41"/>
     </row>
-    <row r="48" spans="1:10">
+    <row r="48" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A48" s="41"/>
       <c r="B48" s="41"/>
       <c r="C48" s="41"/>
@@ -11227,7 +11282,7 @@
       <c r="E48" s="41"/>
       <c r="F48" s="41"/>
     </row>
-    <row r="49" spans="1:10">
+    <row r="49" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A49" s="41"/>
       <c r="B49" s="41"/>
       <c r="C49" s="41" t="s">
@@ -11237,7 +11292,7 @@
       <c r="E49" s="41"/>
       <c r="F49" s="41"/>
     </row>
-    <row r="50" spans="1:10">
+    <row r="50" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A50" s="41"/>
       <c r="B50" s="41" t="s">
         <v>311</v>
@@ -11247,7 +11302,7 @@
       <c r="E50" s="41"/>
       <c r="F50" s="41"/>
     </row>
-    <row r="51" spans="1:10">
+    <row r="51" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A51" s="41" t="s">
         <v>311</v>
       </c>
@@ -11257,7 +11312,7 @@
       <c r="E51" s="41"/>
       <c r="F51" s="41"/>
     </row>
-    <row r="52" spans="1:10">
+    <row r="52" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A52" s="41"/>
       <c r="B52" s="41"/>
       <c r="C52" s="41"/>
@@ -11265,7 +11320,7 @@
       <c r="E52" s="41"/>
       <c r="F52" s="41"/>
     </row>
-    <row r="53" spans="1:10">
+    <row r="53" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A53" s="41" t="s">
         <v>406</v>
       </c>
@@ -11275,7 +11330,7 @@
       <c r="E53" s="41"/>
       <c r="F53" s="41"/>
     </row>
-    <row r="54" spans="1:10">
+    <row r="54" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A54" s="41" t="s">
         <v>378</v>
       </c>
@@ -11285,7 +11340,7 @@
       <c r="E54" s="41"/>
       <c r="F54" s="41"/>
     </row>
-    <row r="55" spans="1:10">
+    <row r="55" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A55" s="41"/>
       <c r="B55" s="41" t="s">
         <v>376</v>
@@ -11295,7 +11350,7 @@
       <c r="E55" s="41"/>
       <c r="F55" s="41"/>
     </row>
-    <row r="56" spans="1:10">
+    <row r="56" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A56" s="41"/>
       <c r="B56" s="41"/>
       <c r="C56" s="41"/>
@@ -11303,7 +11358,7 @@
       <c r="E56" s="41"/>
       <c r="F56" s="41"/>
     </row>
-    <row r="57" spans="1:10">
+    <row r="57" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A57" s="41"/>
       <c r="B57" s="41" t="s">
         <v>377</v>
@@ -11313,7 +11368,7 @@
       <c r="E57" s="41"/>
       <c r="F57" s="41"/>
     </row>
-    <row r="58" spans="1:10">
+    <row r="58" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A58" s="41"/>
       <c r="B58" s="41" t="s">
         <v>378</v>
@@ -11323,7 +11378,7 @@
       <c r="E58" s="41"/>
       <c r="F58" s="41"/>
     </row>
-    <row r="59" spans="1:10">
+    <row r="59" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A59" s="41"/>
       <c r="B59" s="41"/>
       <c r="C59" s="5" t="s">
@@ -11338,7 +11393,7 @@
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
     </row>
-    <row r="60" spans="1:10">
+    <row r="60" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A60" s="41"/>
       <c r="B60" s="41"/>
       <c r="C60" s="41" t="s">
@@ -11351,7 +11406,7 @@
         <v>520</v>
       </c>
     </row>
-    <row r="61" spans="1:10">
+    <row r="61" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A61" s="41"/>
       <c r="B61" s="41"/>
       <c r="C61" s="41"/>
@@ -11364,7 +11419,7 @@
         <v>521</v>
       </c>
     </row>
-    <row r="62" spans="1:10">
+    <row r="62" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A62" s="41"/>
       <c r="B62" s="41"/>
       <c r="C62" s="41" t="s">
@@ -11374,7 +11429,7 @@
       <c r="E62" s="41"/>
       <c r="F62" s="41"/>
     </row>
-    <row r="63" spans="1:10">
+    <row r="63" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A63" s="41"/>
       <c r="B63" s="41"/>
       <c r="C63" s="41" t="s">
@@ -11384,7 +11439,7 @@
       <c r="E63" s="41"/>
       <c r="F63" s="41"/>
     </row>
-    <row r="64" spans="1:10">
+    <row r="64" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A64" s="41"/>
       <c r="B64" s="41"/>
       <c r="C64" s="41" t="s">
@@ -11394,7 +11449,7 @@
       <c r="E64" s="41"/>
       <c r="F64" s="41"/>
     </row>
-    <row r="65" spans="1:7">
+    <row r="65" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A65" s="41"/>
       <c r="B65" s="41"/>
       <c r="C65" s="41"/>
@@ -11405,7 +11460,7 @@
       <c r="F65" s="41"/>
       <c r="G65" s="41"/>
     </row>
-    <row r="66" spans="1:7">
+    <row r="66" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A66" s="41"/>
       <c r="B66" s="41"/>
       <c r="C66" s="41"/>
@@ -11415,7 +11470,7 @@
       <c r="E66" s="41"/>
       <c r="F66" s="41"/>
     </row>
-    <row r="67" spans="1:7">
+    <row r="67" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A67" s="41"/>
       <c r="B67" s="41"/>
       <c r="C67" s="41"/>
@@ -11425,7 +11480,7 @@
       </c>
       <c r="F67" s="41"/>
     </row>
-    <row r="68" spans="1:7">
+    <row r="68" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A68" s="41"/>
       <c r="B68" s="41"/>
       <c r="C68" s="41"/>
@@ -11435,7 +11490,7 @@
       <c r="E68" s="41"/>
       <c r="F68" s="41"/>
     </row>
-    <row r="69" spans="1:7">
+    <row r="69" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A69" s="41"/>
       <c r="B69" s="41"/>
       <c r="C69" s="41"/>
@@ -11445,7 +11500,7 @@
       <c r="E69" s="41"/>
       <c r="F69" s="41"/>
     </row>
-    <row r="70" spans="1:7">
+    <row r="70" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A70" s="41"/>
       <c r="B70" s="41"/>
       <c r="C70" s="41"/>
@@ -11455,7 +11510,7 @@
       <c r="E70" s="41"/>
       <c r="F70" s="41"/>
     </row>
-    <row r="71" spans="1:7">
+    <row r="71" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A71" s="41"/>
       <c r="B71" s="41"/>
       <c r="C71" s="41"/>
@@ -11465,7 +11520,7 @@
       </c>
       <c r="F71" s="41"/>
     </row>
-    <row r="72" spans="1:7">
+    <row r="72" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A72" s="41"/>
       <c r="B72" s="41"/>
       <c r="C72" s="41"/>
@@ -11475,7 +11530,7 @@
       <c r="E72" s="41"/>
       <c r="F72" s="41"/>
     </row>
-    <row r="73" spans="1:7">
+    <row r="73" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A73" s="41"/>
       <c r="B73" s="41"/>
       <c r="C73" s="41" t="s">
@@ -11485,7 +11540,7 @@
       <c r="E73" s="41"/>
       <c r="F73" s="41"/>
     </row>
-    <row r="74" spans="1:7">
+    <row r="74" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A74" s="41"/>
       <c r="B74" s="41" t="s">
         <v>311</v>
@@ -11495,7 +11550,7 @@
       <c r="E74" s="41"/>
       <c r="F74" s="41"/>
     </row>
-    <row r="75" spans="1:7">
+    <row r="75" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A75" s="41"/>
       <c r="B75" s="41" t="s">
         <v>381</v>
@@ -11505,7 +11560,7 @@
       <c r="E75" s="41"/>
       <c r="F75" s="41"/>
     </row>
-    <row r="76" spans="1:7">
+    <row r="76" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A76" s="41"/>
       <c r="B76" s="41" t="s">
         <v>378</v>
@@ -11515,7 +11570,7 @@
       <c r="E76" s="41"/>
       <c r="F76" s="41"/>
     </row>
-    <row r="77" spans="1:7">
+    <row r="77" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A77" s="41"/>
       <c r="B77" s="41"/>
       <c r="C77" s="41" t="s">
@@ -11525,7 +11580,7 @@
       <c r="E77" s="41"/>
       <c r="F77" s="41"/>
     </row>
-    <row r="78" spans="1:7">
+    <row r="78" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A78" s="41"/>
       <c r="B78" s="41" t="s">
         <v>311</v>
@@ -11535,7 +11590,7 @@
       <c r="E78" s="41"/>
       <c r="F78" s="41"/>
     </row>
-    <row r="79" spans="1:7">
+    <row r="79" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A79" s="41"/>
       <c r="B79" s="41"/>
       <c r="C79" s="41"/>
@@ -11543,7 +11598,7 @@
       <c r="E79" s="41"/>
       <c r="F79" s="41"/>
     </row>
-    <row r="80" spans="1:7">
+    <row r="80" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A80" s="41"/>
       <c r="B80" s="41" t="s">
         <v>407</v>
@@ -11553,7 +11608,7 @@
       <c r="E80" s="41"/>
       <c r="F80" s="41"/>
     </row>
-    <row r="81" spans="1:6">
+    <row r="81" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A81" s="41" t="s">
         <v>311</v>
       </c>

--- a/CFT4CUnitSrc/src/report/GAReport.xlsx
+++ b/CFT4CUnitSrc/src/report/GAReport.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="1365" windowWidth="14805" windowHeight="6480" tabRatio="940" activeTab="8"/>
@@ -17,12 +17,12 @@
     <sheet name="ThayHieu_report" sheetId="13" r:id="rId8"/>
     <sheet name="PSOReport" sheetId="15" r:id="rId9"/>
   </sheets>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="807" uniqueCount="542">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="811" uniqueCount="546">
   <si>
     <t>Nhìn chung, để sinh test case cho một input program theo phương pháp GA thì có các bước sau</t>
   </si>
@@ -1677,15 +1677,27 @@
   <si>
     <t>line</t>
   </si>
+  <si>
+    <t>Search–Based Testing_Kiran Lakhotia_PhDThesis</t>
+  </si>
+  <si>
+    <t>Cái này viết về search based testing rất tốt</t>
+  </si>
+  <si>
+    <t>đây thì viết về GA tốt hơn</t>
+  </si>
+  <si>
+    <t>đã có chương trình</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.000000000"/>
   </numFmts>
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="7">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -6075,7 +6087,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -6110,7 +6121,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -6286,28 +6296,39 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B3"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:J4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="N20" sqref="N20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10">
       <c r="A1" t="s">
         <v>532</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10">
       <c r="B2" t="s">
         <v>531</v>
       </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="J2" t="s">
+        <v>544</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10">
       <c r="B3" t="s">
         <v>533</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10">
+      <c r="B4" t="s">
+        <v>542</v>
+      </c>
+      <c r="H4" t="s">
+        <v>543</v>
       </c>
     </row>
   </sheetData>
@@ -6316,21 +6337,21 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:B1"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="46.7109375" style="50" customWidth="1"/>
     <col min="2" max="2" width="60.7109375" style="50" customWidth="1"/>
     <col min="3" max="16384" width="9.140625" style="50"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" ht="75">
       <c r="A1" s="49" t="s">
         <v>529</v>
       </c>
@@ -6345,67 +6366,67 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:C22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B25" sqref="B25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3">
       <c r="A1" t="s">
         <v>500</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3">
       <c r="B2" t="s">
         <v>501</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3">
       <c r="B3" s="47"/>
       <c r="C3" s="47" t="s">
         <v>503</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3">
       <c r="C4" t="s">
         <v>502</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3">
       <c r="A6" t="s">
         <v>506</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3">
       <c r="B7" t="s">
         <v>504</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3">
       <c r="B8" t="s">
         <v>505</v>
       </c>
     </row>
-    <row r="19" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:3">
       <c r="B19" t="s">
         <v>496</v>
       </c>
     </row>
-    <row r="20" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:3">
       <c r="C20" t="s">
         <v>497</v>
       </c>
     </row>
-    <row r="21" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:3">
       <c r="C21" t="s">
         <v>498</v>
       </c>
     </row>
-    <row r="22" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:3">
       <c r="C22" t="s">
         <v>499</v>
       </c>
@@ -6417,7 +6438,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:AP160"/>
   <sheetViews>
@@ -6425,34 +6446,34 @@
       <selection activeCell="L67" sqref="L67"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="10.7109375" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="10.140625" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="9.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10">
       <c r="B1" s="25" t="s">
         <v>495</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10">
       <c r="A3" s="18">
         <v>42502</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10">
       <c r="B4" t="s">
         <v>168</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10">
       <c r="C5" t="s">
         <v>169</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10">
       <c r="C6" t="s">
         <v>180</v>
       </c>
@@ -6460,17 +6481,17 @@
         <v>181</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10">
       <c r="J7" t="s">
         <v>182</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:10">
       <c r="B8" t="s">
         <v>171</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:10">
       <c r="B9" t="s">
         <v>179</v>
       </c>
@@ -6478,7 +6499,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:10">
       <c r="B10" t="s">
         <v>179</v>
       </c>
@@ -6486,32 +6507,32 @@
         <v>176</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:10">
       <c r="C11" t="s">
         <v>172</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:10">
       <c r="C12" t="s">
         <v>173</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:10">
       <c r="C13" t="s">
         <v>174</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:10">
       <c r="C15" s="1" t="s">
         <v>177</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:10">
       <c r="C16" s="1" t="s">
         <v>178</v>
       </c>
     </row>
-    <row r="19" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:17">
       <c r="A19" s="18">
         <v>42499</v>
       </c>
@@ -6519,7 +6540,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:17">
       <c r="B20" t="s">
         <v>160</v>
       </c>
@@ -6527,7 +6548,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:17">
       <c r="C21" t="s">
         <v>161</v>
       </c>
@@ -6535,7 +6556,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:17">
       <c r="C22" t="s">
         <v>162</v>
       </c>
@@ -6543,12 +6564,12 @@
         <v>166</v>
       </c>
     </row>
-    <row r="23" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:17">
       <c r="C23" t="s">
         <v>167</v>
       </c>
     </row>
-    <row r="24" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:17">
       <c r="B24" t="s">
         <v>164</v>
       </c>
@@ -6559,7 +6580,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="26" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:17">
       <c r="A26" s="18">
         <v>42496</v>
       </c>
@@ -6573,7 +6594,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="27" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:17">
       <c r="B27" t="s">
         <v>137</v>
       </c>
@@ -6581,7 +6602,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="28" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:17">
       <c r="B28" t="s">
         <v>135</v>
       </c>
@@ -6592,7 +6613,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="30" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:17">
       <c r="B30" t="s">
         <v>136</v>
       </c>
@@ -6603,12 +6624,12 @@
         <v>152</v>
       </c>
     </row>
-    <row r="31" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:17">
       <c r="B31" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="32" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:17">
       <c r="B32" t="s">
         <v>139</v>
       </c>
@@ -6616,12 +6637,12 @@
         <v>153</v>
       </c>
     </row>
-    <row r="34" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:16">
       <c r="B34" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="35" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:16">
       <c r="C35" t="s">
         <v>140</v>
       </c>
@@ -6629,7 +6650,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="36" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:16">
       <c r="C36" t="s">
         <v>141</v>
       </c>
@@ -6637,7 +6658,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="38" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="38" spans="2:16">
       <c r="B38" t="s">
         <v>142</v>
       </c>
@@ -6645,47 +6666,47 @@
         <v>159</v>
       </c>
     </row>
-    <row r="40" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="40" spans="2:16">
       <c r="B40" t="s">
         <v>143</v>
       </c>
     </row>
-    <row r="41" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="41" spans="2:16">
       <c r="B41" t="s">
         <v>144</v>
       </c>
     </row>
-    <row r="43" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="43" spans="2:16">
       <c r="B43" t="s">
         <v>146</v>
       </c>
     </row>
-    <row r="44" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="44" spans="2:16">
       <c r="B44" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="45" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="45" spans="2:16">
       <c r="B45" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="47" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="47" spans="2:16">
       <c r="B47" t="s">
         <v>148</v>
       </c>
     </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:7">
       <c r="A52" s="18">
         <v>42494</v>
       </c>
     </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:7">
       <c r="B53" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:7">
       <c r="C54" t="s">
         <v>1</v>
       </c>
@@ -6693,7 +6714,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:7">
       <c r="C56" s="5" t="s">
         <v>3</v>
       </c>
@@ -6701,44 +6722,44 @@
         <v>123</v>
       </c>
     </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:7">
       <c r="D57" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:7">
       <c r="E58" s="25" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:7">
       <c r="E59" s="25"/>
     </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:7">
       <c r="B60" s="5" t="s">
         <v>134</v>
       </c>
       <c r="E60" s="25"/>
     </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:7">
       <c r="C61" t="s">
         <v>124</v>
       </c>
       <c r="E61" s="25"/>
     </row>
-    <row r="62" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:7">
       <c r="C62" t="s">
         <v>125</v>
       </c>
       <c r="E62" s="25"/>
     </row>
-    <row r="63" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:7">
       <c r="D63" t="s">
         <v>126</v>
       </c>
       <c r="E63" s="25"/>
     </row>
-    <row r="64" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:7">
       <c r="E64" s="26" t="s">
         <v>127</v>
       </c>
@@ -6749,7 +6770,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="65" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:10">
       <c r="E65" s="27">
         <v>1.1000000000000001</v>
       </c>
@@ -6760,7 +6781,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="66" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:10">
       <c r="E66" s="27">
         <v>1.1100000000000001</v>
       </c>
@@ -6777,7 +6798,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="67" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:10">
       <c r="E67" s="27">
         <v>1.3</v>
       </c>
@@ -6788,21 +6809,21 @@
         <v>1</v>
       </c>
     </row>
-    <row r="68" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:10">
       <c r="D68" t="s">
         <v>132</v>
       </c>
       <c r="E68" s="27"/>
     </row>
-    <row r="69" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:10">
       <c r="E69" s="27" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="70" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:10">
       <c r="E70" s="27"/>
     </row>
-    <row r="71" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:10">
       <c r="C71" t="s">
         <v>5</v>
       </c>
@@ -6810,57 +6831,57 @@
         <v>116</v>
       </c>
     </row>
-    <row r="73" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:10">
       <c r="B73" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="74" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:10">
       <c r="B74" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="76" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:10">
       <c r="B76" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="77" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:10">
       <c r="B77" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="79" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:10">
       <c r="A79" s="18">
         <v>42488</v>
       </c>
     </row>
-    <row r="80" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:10">
       <c r="B80" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="81" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:42">
       <c r="C81" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="82" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:42">
       <c r="C82" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="83" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:42">
       <c r="C83" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="84" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:42">
       <c r="C84" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="85" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:42">
       <c r="B85" s="5" t="s">
         <v>113</v>
       </c>
@@ -6873,12 +6894,12 @@
       <c r="I85" s="5"/>
       <c r="J85" s="5"/>
     </row>
-    <row r="87" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:42">
       <c r="A87" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="89" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:42">
       <c r="B89" t="s">
         <v>1</v>
       </c>
@@ -6886,7 +6907,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="91" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:42">
       <c r="B91" t="s">
         <v>3</v>
       </c>
@@ -6894,12 +6915,12 @@
         <v>6</v>
       </c>
     </row>
-    <row r="92" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:42">
       <c r="C92" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="94" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:42">
       <c r="B94" t="s">
         <v>5</v>
       </c>
@@ -6907,12 +6928,12 @@
         <v>8</v>
       </c>
     </row>
-    <row r="95" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:42">
       <c r="C95" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="96" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:42">
       <c r="C96" s="6" t="s">
         <v>52</v>
       </c>
@@ -6946,7 +6967,7 @@
         <v>42483</v>
       </c>
     </row>
-    <row r="97" spans="2:42" x14ac:dyDescent="0.25">
+    <row r="97" spans="2:42">
       <c r="C97" s="6" t="s">
         <v>53</v>
       </c>
@@ -6978,7 +6999,7 @@
       <c r="AO97" s="5"/>
       <c r="AP97" s="5"/>
     </row>
-    <row r="98" spans="2:42" x14ac:dyDescent="0.25">
+    <row r="98" spans="2:42">
       <c r="C98" t="s">
         <v>14</v>
       </c>
@@ -6992,29 +7013,29 @@
       <c r="AO98" s="5"/>
       <c r="AP98" s="5"/>
     </row>
-    <row r="99" spans="2:42" x14ac:dyDescent="0.25">
+    <row r="99" spans="2:42">
       <c r="C99" s="1"/>
       <c r="D99" s="1" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="100" spans="2:42" x14ac:dyDescent="0.25">
+    <row r="100" spans="2:42">
       <c r="C100" s="1"/>
       <c r="D100" s="1" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="102" spans="2:42" x14ac:dyDescent="0.25">
+    <row r="102" spans="2:42">
       <c r="C102" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="103" spans="2:42" x14ac:dyDescent="0.25">
+    <row r="103" spans="2:42">
       <c r="C103" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="105" spans="2:42" x14ac:dyDescent="0.25">
+    <row r="105" spans="2:42">
       <c r="B105" t="s">
         <v>7</v>
       </c>
@@ -7022,12 +7043,12 @@
         <v>16</v>
       </c>
     </row>
-    <row r="107" spans="2:42" x14ac:dyDescent="0.25">
+    <row r="107" spans="2:42">
       <c r="C107" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="109" spans="2:42" x14ac:dyDescent="0.25">
+    <row r="109" spans="2:42">
       <c r="B109" t="s">
         <v>17</v>
       </c>
@@ -7035,7 +7056,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="110" spans="2:42" x14ac:dyDescent="0.25">
+    <row r="110" spans="2:42">
       <c r="D110" s="5" t="s">
         <v>50</v>
       </c>
@@ -7053,7 +7074,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="111" spans="2:42" x14ac:dyDescent="0.25">
+    <row r="111" spans="2:42">
       <c r="C111" t="s">
         <v>19</v>
       </c>
@@ -7061,12 +7082,12 @@
         <v>20</v>
       </c>
     </row>
-    <row r="112" spans="2:42" x14ac:dyDescent="0.25">
+    <row r="112" spans="2:42">
       <c r="D112" s="3" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="114" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:24">
       <c r="B114" t="s">
         <v>22</v>
       </c>
@@ -7074,12 +7095,12 @@
         <v>21</v>
       </c>
     </row>
-    <row r="116" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:24">
       <c r="A116" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="117" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:24">
       <c r="B117" t="s">
         <v>48</v>
       </c>
@@ -7101,7 +7122,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="118" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:24">
       <c r="B118" t="s">
         <v>46</v>
       </c>
@@ -7115,7 +7136,7 @@
         <v>42480</v>
       </c>
     </row>
-    <row r="119" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:24">
       <c r="B119" t="s">
         <v>49</v>
       </c>
@@ -7129,14 +7150,14 @@
         <v>42480</v>
       </c>
     </row>
-    <row r="120" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:24">
       <c r="M120" s="6"/>
       <c r="N120" s="6"/>
       <c r="O120" s="6"/>
       <c r="P120" s="6"/>
       <c r="S120" s="8"/>
     </row>
-    <row r="121" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:24">
       <c r="F121" s="9" t="s">
         <v>69</v>
       </c>
@@ -7149,7 +7170,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="122" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:24">
       <c r="A122" t="s">
         <v>47</v>
       </c>
@@ -7172,7 +7193,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="123" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:24">
       <c r="A123" s="4" t="s">
         <v>23</v>
       </c>
@@ -7192,7 +7213,7 @@
       <c r="O123" s="4"/>
       <c r="P123" s="4"/>
     </row>
-    <row r="124" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:24">
       <c r="A124" s="4" t="s">
         <v>24</v>
       </c>
@@ -7212,7 +7233,7 @@
       <c r="O124" s="4"/>
       <c r="P124" s="4"/>
     </row>
-    <row r="125" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:24">
       <c r="A125" t="s">
         <v>25</v>
       </c>
@@ -7232,12 +7253,12 @@
       </c>
       <c r="V125" s="9"/>
     </row>
-    <row r="126" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:24">
       <c r="A126" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="127" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:24">
       <c r="A127" s="4" t="s">
         <v>42</v>
       </c>
@@ -7257,7 +7278,7 @@
       <c r="O127" s="4"/>
       <c r="P127" s="4"/>
     </row>
-    <row r="128" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:24">
       <c r="A128" s="4" t="s">
         <v>27</v>
       </c>
@@ -7277,12 +7298,12 @@
       <c r="O128" s="4"/>
       <c r="P128" s="4"/>
     </row>
-    <row r="129" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:16">
       <c r="A129" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="130" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:16">
       <c r="A130" s="4" t="s">
         <v>45</v>
       </c>
@@ -7302,83 +7323,83 @@
       <c r="O130" s="4"/>
       <c r="P130" s="4"/>
     </row>
-    <row r="131" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:16">
       <c r="A131" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="132" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:16">
       <c r="A132" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="133" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:16">
       <c r="A133" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="134" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:16">
       <c r="A134" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="135" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:16">
       <c r="A135" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="136" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:16">
       <c r="A136" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="137" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:16">
       <c r="A137" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="138" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:16">
       <c r="A138" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="139" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:16">
       <c r="A139" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="140" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:16">
       <c r="A140" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="141" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:16">
       <c r="A141" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="142" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:16">
       <c r="A142" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="143" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:16">
       <c r="A143" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="146" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:11">
       <c r="A146" s="13" t="s">
         <v>70</v>
       </c>
       <c r="B146" s="13"/>
     </row>
-    <row r="147" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:11">
       <c r="B147" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="148" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:11">
       <c r="B148" s="5" t="s">
         <v>80</v>
       </c>
@@ -7388,32 +7409,32 @@
       <c r="D148" s="5"/>
       <c r="E148" s="5"/>
     </row>
-    <row r="149" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:11">
       <c r="B149" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="150" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:11">
       <c r="C150" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="151" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:11">
       <c r="B151" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="153" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:11">
       <c r="B153" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="154" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:11">
       <c r="B154" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="156" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:11">
       <c r="B156" s="5" t="s">
         <v>84</v>
       </c>
@@ -7428,12 +7449,12 @@
         <v>42483</v>
       </c>
     </row>
-    <row r="159" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:11">
       <c r="B159" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="160" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:11">
       <c r="B160" t="s">
         <v>86</v>
       </c>
@@ -7449,7 +7470,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:R95"/>
   <sheetViews>
@@ -7457,7 +7478,7 @@
       <selection activeCell="H60" sqref="H60"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="2" max="2" width="5" style="10" customWidth="1"/>
     <col min="3" max="3" width="30.140625" bestFit="1" customWidth="1"/>
@@ -7472,7 +7493,7 @@
     <col min="12" max="12" width="14.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:18">
       <c r="A1" s="7" t="s">
         <v>59</v>
       </c>
@@ -7481,7 +7502,7 @@
       <c r="D1" s="7"/>
       <c r="E1" s="11"/>
     </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:18">
       <c r="B2" s="17" t="s">
         <v>65</v>
       </c>
@@ -7519,7 +7540,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:18">
       <c r="B3" s="14">
         <v>1</v>
       </c>
@@ -7563,7 +7584,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:18">
       <c r="B4" s="14">
         <f>B3+1</f>
         <v>2</v>
@@ -7597,7 +7618,7 @@
       </c>
       <c r="L4" s="15"/>
     </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:18">
       <c r="B5" s="14">
         <f t="shared" ref="B5:B19" si="0">B4+1</f>
         <v>3</v>
@@ -7631,7 +7652,7 @@
       </c>
       <c r="L5" s="15"/>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:18">
       <c r="B6" s="14">
         <f t="shared" si="0"/>
         <v>4</v>
@@ -7668,7 +7689,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:18">
       <c r="B7" s="14">
         <f t="shared" si="0"/>
         <v>5</v>
@@ -7709,7 +7730,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:18">
       <c r="B8" s="14">
         <f t="shared" si="0"/>
         <v>6</v>
@@ -7751,7 +7772,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:18">
       <c r="B9" s="14">
         <f t="shared" si="0"/>
         <v>7</v>
@@ -7791,7 +7812,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:18">
       <c r="B10" s="14">
         <f t="shared" si="0"/>
         <v>8</v>
@@ -7831,7 +7852,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:18">
       <c r="B11" s="14">
         <f t="shared" si="0"/>
         <v>9</v>
@@ -7847,7 +7868,7 @@
       <c r="K11" s="15"/>
       <c r="L11" s="15"/>
     </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:18">
       <c r="B12" s="14">
         <f t="shared" si="0"/>
         <v>10</v>
@@ -7863,7 +7884,7 @@
       <c r="K12" s="15"/>
       <c r="L12" s="15"/>
     </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:18">
       <c r="B13" s="14">
         <f t="shared" si="0"/>
         <v>11</v>
@@ -7879,7 +7900,7 @@
       <c r="K13" s="15"/>
       <c r="L13" s="15"/>
     </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:18">
       <c r="B14" s="14">
         <f t="shared" si="0"/>
         <v>12</v>
@@ -7895,7 +7916,7 @@
       <c r="K14" s="15"/>
       <c r="L14" s="15"/>
     </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:18">
       <c r="B15" s="14">
         <f t="shared" si="0"/>
         <v>13</v>
@@ -7911,7 +7932,7 @@
       <c r="K15" s="15"/>
       <c r="L15" s="15"/>
     </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:18">
       <c r="B16" s="14">
         <f t="shared" si="0"/>
         <v>14</v>
@@ -7927,7 +7948,7 @@
       <c r="K16" s="15"/>
       <c r="L16" s="15"/>
     </row>
-    <row r="17" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:12">
       <c r="B17" s="14">
         <f t="shared" si="0"/>
         <v>15</v>
@@ -7943,7 +7964,7 @@
       <c r="K17" s="15"/>
       <c r="L17" s="15"/>
     </row>
-    <row r="18" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:12">
       <c r="B18" s="14">
         <f t="shared" si="0"/>
         <v>16</v>
@@ -7959,7 +7980,7 @@
       <c r="K18" s="15"/>
       <c r="L18" s="15"/>
     </row>
-    <row r="19" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:12">
       <c r="B19" s="14">
         <f t="shared" si="0"/>
         <v>17</v>
@@ -7975,12 +7996,12 @@
       <c r="K19" s="15"/>
       <c r="L19" s="15"/>
     </row>
-    <row r="22" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:12">
       <c r="C22" t="s">
         <v>183</v>
       </c>
     </row>
-    <row r="23" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:12">
       <c r="C23" t="s">
         <v>184</v>
       </c>
@@ -7999,7 +8020,7 @@
       </c>
       <c r="L23" s="51"/>
     </row>
-    <row r="24" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:12">
       <c r="G24" s="53"/>
       <c r="H24" s="55"/>
       <c r="I24" s="14" t="s">
@@ -8015,7 +8036,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="25" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:12">
       <c r="G25" s="33" t="s">
         <v>110</v>
       </c>
@@ -8031,7 +8052,7 @@
       <c r="K25" s="32"/>
       <c r="L25" s="32"/>
     </row>
-    <row r="26" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:12">
       <c r="G26" s="37"/>
       <c r="H26" s="38"/>
       <c r="I26" s="32">
@@ -8043,7 +8064,7 @@
       <c r="K26" s="32"/>
       <c r="L26" s="32"/>
     </row>
-    <row r="27" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:12">
       <c r="G27" s="37"/>
       <c r="H27" s="38"/>
       <c r="I27" s="32">
@@ -8055,7 +8076,7 @@
       <c r="K27" s="32"/>
       <c r="L27" s="32"/>
     </row>
-    <row r="28" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:12">
       <c r="G28" s="37"/>
       <c r="H28" s="38"/>
       <c r="I28" s="32">
@@ -8067,7 +8088,7 @@
       <c r="K28" s="32"/>
       <c r="L28" s="32"/>
     </row>
-    <row r="29" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:12">
       <c r="G29" s="37"/>
       <c r="H29" s="38"/>
       <c r="I29" s="32"/>
@@ -8075,7 +8096,7 @@
       <c r="K29" s="32"/>
       <c r="L29" s="32"/>
     </row>
-    <row r="30" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:12">
       <c r="G30" s="37"/>
       <c r="H30" s="38"/>
       <c r="I30" s="32"/>
@@ -8083,7 +8104,7 @@
       <c r="K30" s="32"/>
       <c r="L30" s="32"/>
     </row>
-    <row r="31" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:12">
       <c r="G31" s="35"/>
       <c r="H31" s="36"/>
       <c r="I31" s="32"/>
@@ -8091,7 +8112,7 @@
       <c r="K31" s="32"/>
       <c r="L31" s="32"/>
     </row>
-    <row r="32" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:12">
       <c r="G32" s="15" t="s">
         <v>109</v>
       </c>
@@ -8101,7 +8122,7 @@
       <c r="K32" s="32"/>
       <c r="L32" s="32"/>
     </row>
-    <row r="33" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:12">
       <c r="G33" s="15"/>
       <c r="H33" s="32"/>
       <c r="I33" s="32"/>
@@ -8109,7 +8130,7 @@
       <c r="K33" s="32"/>
       <c r="L33" s="32"/>
     </row>
-    <row r="34" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:12">
       <c r="G34" s="15"/>
       <c r="H34" s="32"/>
       <c r="I34" s="32"/>
@@ -8117,7 +8138,7 @@
       <c r="K34" s="32"/>
       <c r="L34" s="32"/>
     </row>
-    <row r="35" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:12">
       <c r="G35" s="15"/>
       <c r="H35" s="32"/>
       <c r="I35" s="32"/>
@@ -8125,7 +8146,7 @@
       <c r="K35" s="32"/>
       <c r="L35" s="32"/>
     </row>
-    <row r="36" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:12">
       <c r="G36" s="15" t="s">
         <v>195</v>
       </c>
@@ -8145,7 +8166,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:12">
       <c r="G37" s="15"/>
       <c r="H37" s="32"/>
       <c r="I37" s="32">
@@ -8161,7 +8182,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="38" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:12">
       <c r="G38" s="15"/>
       <c r="H38" s="32"/>
       <c r="I38" s="32"/>
@@ -8173,7 +8194,7 @@
         <v>462</v>
       </c>
     </row>
-    <row r="39" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:12">
       <c r="G39" s="15"/>
       <c r="H39" s="32"/>
       <c r="I39" s="32"/>
@@ -8185,7 +8206,7 @@
         <v>57595</v>
       </c>
     </row>
-    <row r="40" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:12">
       <c r="G40" s="15" t="s">
         <v>111</v>
       </c>
@@ -8195,7 +8216,7 @@
       <c r="K40" s="32"/>
       <c r="L40" s="32"/>
     </row>
-    <row r="41" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:12">
       <c r="G41" s="15"/>
       <c r="H41" s="32"/>
       <c r="I41" s="32"/>
@@ -8203,14 +8224,14 @@
       <c r="K41" s="32"/>
       <c r="L41" s="32"/>
     </row>
-    <row r="42" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:12">
       <c r="H42" s="31"/>
       <c r="I42" s="31"/>
       <c r="J42" s="31"/>
       <c r="K42" s="31"/>
       <c r="L42" s="31"/>
     </row>
-    <row r="43" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:12">
       <c r="A43" t="s">
         <v>198</v>
       </c>
@@ -8220,7 +8241,7 @@
       <c r="K43" s="31"/>
       <c r="L43" s="31"/>
     </row>
-    <row r="44" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:12">
       <c r="C44" t="s">
         <v>199</v>
       </c>
@@ -8230,7 +8251,7 @@
       <c r="K44" s="31"/>
       <c r="L44" s="31"/>
     </row>
-    <row r="45" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:12">
       <c r="C45" t="s">
         <v>200</v>
       </c>
@@ -8241,7 +8262,7 @@
       <c r="I45" s="30"/>
       <c r="J45" s="30"/>
     </row>
-    <row r="46" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:12">
       <c r="C46" t="s">
         <v>202</v>
       </c>
@@ -8249,7 +8270,7 @@
       <c r="I46" s="30"/>
       <c r="J46" s="30"/>
     </row>
-    <row r="47" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:12">
       <c r="C47" t="s">
         <v>208</v>
       </c>
@@ -8260,17 +8281,17 @@
       <c r="I47" s="30"/>
       <c r="J47" s="30"/>
     </row>
-    <row r="48" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:12">
       <c r="C48" t="s">
         <v>212</v>
       </c>
     </row>
-    <row r="50" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:10">
       <c r="A50" t="s">
         <v>203</v>
       </c>
     </row>
-    <row r="51" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:10">
       <c r="A51" t="s">
         <v>158</v>
       </c>
@@ -8278,7 +8299,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="52" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:10">
       <c r="A52" t="s">
         <v>158</v>
       </c>
@@ -8295,7 +8316,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="53" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:10">
       <c r="B53" s="39" t="s">
         <v>206</v>
       </c>
@@ -8303,41 +8324,41 @@
         <v>211</v>
       </c>
     </row>
-    <row r="54" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:10">
       <c r="B54" s="39" t="s">
         <v>213</v>
       </c>
     </row>
-    <row r="55" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:10">
       <c r="B55" s="39" t="s">
         <v>214</v>
       </c>
     </row>
-    <row r="56" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:10">
       <c r="B56" s="39"/>
       <c r="J56" s="40"/>
     </row>
-    <row r="57" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:10">
       <c r="J57" s="40"/>
     </row>
-    <row r="58" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:10">
       <c r="H58"/>
       <c r="J58" s="40"/>
     </row>
-    <row r="59" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:10">
       <c r="H59"/>
       <c r="J59" s="40"/>
     </row>
-    <row r="60" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:10">
       <c r="H60"/>
     </row>
-    <row r="61" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:10">
       <c r="H61"/>
     </row>
-    <row r="62" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:10">
       <c r="H62"/>
     </row>
-    <row r="95" spans="16:16" x14ac:dyDescent="0.25">
+    <row r="95" spans="16:16">
       <c r="P95" s="41"/>
     </row>
   </sheetData>
@@ -8354,7 +8375,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr codeName="Sheet3"/>
   <dimension ref="A1:AH18"/>
   <sheetViews>
@@ -8362,22 +8383,22 @@
       <selection activeCell="AD44" sqref="AD44"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="16384" width="9.140625" style="42"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:34">
       <c r="A1" s="43" t="s">
         <v>219</v>
       </c>
     </row>
-    <row r="2" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:34">
       <c r="O2" s="42" t="s">
         <v>215</v>
       </c>
     </row>
-    <row r="3" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:34">
       <c r="A3" s="42" t="s">
         <v>220</v>
       </c>
@@ -8385,7 +8406,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="4" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:34">
       <c r="P4" s="42" t="s">
         <v>218</v>
       </c>
@@ -8399,12 +8420,12 @@
       <c r="AG4" s="5"/>
       <c r="AH4" s="5"/>
     </row>
-    <row r="5" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:34">
       <c r="A5" s="42" t="s">
         <v>221</v>
       </c>
     </row>
-    <row r="6" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:34">
       <c r="B6" s="42" t="s">
         <v>224</v>
       </c>
@@ -8412,42 +8433,42 @@
         <v>225</v>
       </c>
     </row>
-    <row r="7" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:34">
       <c r="A7" s="42" t="s">
         <v>222</v>
       </c>
     </row>
-    <row r="8" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:34">
       <c r="B8" s="42" t="s">
         <v>223</v>
       </c>
     </row>
-    <row r="12" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:34">
       <c r="O12" s="42" t="s">
         <v>216</v>
       </c>
     </row>
-    <row r="13" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:34">
       <c r="P13" s="42" t="s">
         <v>217</v>
       </c>
     </row>
-    <row r="14" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:34">
       <c r="Q14" s="42" t="s">
         <v>226</v>
       </c>
     </row>
-    <row r="16" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:34">
       <c r="P16" s="42" t="s">
         <v>227</v>
       </c>
     </row>
-    <row r="17" spans="4:16" x14ac:dyDescent="0.25">
+    <row r="17" spans="4:16">
       <c r="P17" s="42" t="s">
         <v>228</v>
       </c>
     </row>
-    <row r="18" spans="4:16" x14ac:dyDescent="0.25">
+    <row r="18" spans="4:16">
       <c r="D18" s="44"/>
     </row>
   </sheetData>
@@ -8458,7 +8479,7 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr codeName="Sheet4"/>
   <dimension ref="A1:AF109"/>
   <sheetViews>
@@ -8466,14 +8487,14 @@
       <selection activeCell="G52" sqref="G52"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:31">
       <c r="A1" t="s">
         <v>230</v>
       </c>
     </row>
-    <row r="2" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:31">
       <c r="B2" s="25" t="s">
         <v>229</v>
       </c>
@@ -8481,7 +8502,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="4" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:31">
       <c r="A4" t="s">
         <v>231</v>
       </c>
@@ -8489,7 +8510,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="7" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:31">
       <c r="A7" t="s">
         <v>234</v>
       </c>
@@ -8497,7 +8518,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="8" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:31">
       <c r="B8" s="25" t="s">
         <v>233</v>
       </c>
@@ -8513,7 +8534,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="9" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:31">
       <c r="B9" t="s">
         <v>235</v>
       </c>
@@ -8527,7 +8548,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="10" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:31">
       <c r="C10" s="3" t="s">
         <v>236</v>
       </c>
@@ -8541,7 +8562,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="11" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:31">
       <c r="C11" s="3" t="s">
         <v>237</v>
       </c>
@@ -8559,7 +8580,7 @@
       </c>
       <c r="AE11" s="5"/>
     </row>
-    <row r="12" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:31">
       <c r="R12" t="s">
         <v>252</v>
       </c>
@@ -8570,7 +8591,7 @@
         <v>287</v>
       </c>
     </row>
-    <row r="13" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:31">
       <c r="A13" t="s">
         <v>239</v>
       </c>
@@ -8584,7 +8605,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="14" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:31">
       <c r="B14" s="4" t="s">
         <v>240</v>
       </c>
@@ -8607,7 +8628,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="15" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:31">
       <c r="C15" t="s">
         <v>244</v>
       </c>
@@ -8627,7 +8648,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="16" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:31">
       <c r="C16" t="s">
         <v>246</v>
       </c>
@@ -8644,7 +8665,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="17" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:32">
       <c r="B17" s="4" t="s">
         <v>241</v>
       </c>
@@ -8669,7 +8690,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="18" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:32">
       <c r="C18" t="s">
         <v>247</v>
       </c>
@@ -8683,7 +8704,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="19" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:32">
       <c r="R19" t="s">
         <v>259</v>
       </c>
@@ -8691,7 +8712,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="20" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:32">
       <c r="R20" t="s">
         <v>260</v>
       </c>
@@ -8702,12 +8723,12 @@
         <v>295</v>
       </c>
     </row>
-    <row r="21" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:32">
       <c r="R21" t="s">
         <v>261</v>
       </c>
     </row>
-    <row r="22" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:32">
       <c r="B22" t="s">
         <v>242</v>
       </c>
@@ -8721,7 +8742,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="23" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:32">
       <c r="R23" t="s">
         <v>263</v>
       </c>
@@ -8729,7 +8750,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="24" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:32">
       <c r="R24" t="s">
         <v>264</v>
       </c>
@@ -8737,7 +8758,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="25" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:32">
       <c r="R25" t="s">
         <v>265</v>
       </c>
@@ -8747,7 +8768,7 @@
       <c r="AE25" s="5"/>
       <c r="AF25" s="5"/>
     </row>
-    <row r="26" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:32">
       <c r="R26" t="s">
         <v>266</v>
       </c>
@@ -8755,7 +8776,7 @@
         <v>298</v>
       </c>
     </row>
-    <row r="27" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:32">
       <c r="A27" s="13" t="s">
         <v>305</v>
       </c>
@@ -8771,7 +8792,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="28" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:32">
       <c r="B28" t="s">
         <v>306</v>
       </c>
@@ -8782,7 +8803,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="29" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:32">
       <c r="B29" t="s">
         <v>307</v>
       </c>
@@ -8793,7 +8814,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="30" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:32">
       <c r="B30" t="s">
         <v>308</v>
       </c>
@@ -8804,7 +8825,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="31" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:32">
       <c r="C31" t="s">
         <v>309</v>
       </c>
@@ -8812,7 +8833,7 @@
         <v>302</v>
       </c>
     </row>
-    <row r="32" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:32">
       <c r="C32" t="s">
         <v>310</v>
       </c>
@@ -8820,7 +8841,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="33" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:30">
       <c r="B33" t="s">
         <v>311</v>
       </c>
@@ -8828,7 +8849,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="34" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:30">
       <c r="B34" t="s">
         <v>312</v>
       </c>
@@ -8836,72 +8857,72 @@
         <v>295</v>
       </c>
     </row>
-    <row r="35" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:30">
       <c r="C35" t="s">
         <v>313</v>
       </c>
     </row>
-    <row r="36" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:30">
       <c r="D36" t="s">
         <v>314</v>
       </c>
     </row>
-    <row r="37" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:30">
       <c r="D37" t="s">
         <v>315</v>
       </c>
     </row>
-    <row r="38" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:30">
       <c r="C38" t="s">
         <v>311</v>
       </c>
     </row>
-    <row r="39" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:30">
       <c r="C39" t="s">
         <v>316</v>
       </c>
     </row>
-    <row r="40" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:30">
       <c r="D40" t="s">
         <v>314</v>
       </c>
     </row>
-    <row r="41" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:30">
       <c r="D41" t="s">
         <v>315</v>
       </c>
     </row>
-    <row r="42" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:30">
       <c r="C42" t="s">
         <v>311</v>
       </c>
     </row>
-    <row r="43" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:30">
       <c r="C43" t="s">
         <v>317</v>
       </c>
     </row>
-    <row r="44" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:30">
       <c r="C44" t="s">
         <v>318</v>
       </c>
     </row>
-    <row r="45" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:30">
       <c r="C45" t="s">
         <v>319</v>
       </c>
     </row>
-    <row r="46" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:30">
       <c r="B46" t="s">
         <v>311</v>
       </c>
     </row>
-    <row r="47" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:30">
       <c r="A47" t="s">
         <v>311</v>
       </c>
     </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:7">
       <c r="A49" s="13" t="s">
         <v>320</v>
       </c>
@@ -8911,17 +8932,17 @@
       <c r="E49" s="13"/>
       <c r="F49" s="13"/>
     </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:7">
       <c r="B50" t="s">
         <v>321</v>
       </c>
     </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:7">
       <c r="B51" t="s">
         <v>322</v>
       </c>
     </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:7">
       <c r="B52" s="5" t="s">
         <v>323</v>
       </c>
@@ -8930,32 +8951,32 @@
         <v>324</v>
       </c>
     </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:7">
       <c r="C53" t="s">
         <v>325</v>
       </c>
     </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:7">
       <c r="D54" t="s">
         <v>326</v>
       </c>
     </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:7">
       <c r="E55" t="s">
         <v>327</v>
       </c>
     </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:7">
       <c r="B56" t="s">
         <v>322</v>
       </c>
     </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:7">
       <c r="A57" t="s">
         <v>311</v>
       </c>
     </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:7">
       <c r="A59" s="13" t="s">
         <v>328</v>
       </c>
@@ -8965,62 +8986,62 @@
       <c r="E59" s="13"/>
       <c r="F59" s="13"/>
     </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:7">
       <c r="A60" t="s">
         <v>329</v>
       </c>
     </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:7">
       <c r="A61" t="s">
         <v>330</v>
       </c>
     </row>
-    <row r="62" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:7">
       <c r="A62" t="s">
         <v>331</v>
       </c>
     </row>
-    <row r="63" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:7">
       <c r="A63" t="s">
         <v>332</v>
       </c>
     </row>
-    <row r="64" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:7">
       <c r="A64" t="s">
         <v>333</v>
       </c>
     </row>
-    <row r="65" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:9">
       <c r="A65" t="s">
         <v>334</v>
       </c>
     </row>
-    <row r="66" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:9">
       <c r="A66" t="s">
         <v>335</v>
       </c>
     </row>
-    <row r="67" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:9">
       <c r="A67" t="s">
         <v>334</v>
       </c>
     </row>
-    <row r="68" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:9">
       <c r="A68" t="s">
         <v>336</v>
       </c>
     </row>
-    <row r="69" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:9">
       <c r="A69" t="s">
         <v>337</v>
       </c>
     </row>
-    <row r="70" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:9">
       <c r="A70" t="s">
         <v>338</v>
       </c>
     </row>
-    <row r="71" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:9">
       <c r="A71" t="s">
         <v>339</v>
       </c>
@@ -9028,7 +9049,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="72" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:9">
       <c r="A72" t="s">
         <v>340</v>
       </c>
@@ -9036,182 +9057,182 @@
         <v>372</v>
       </c>
     </row>
-    <row r="73" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:9">
       <c r="A73" t="s">
         <v>341</v>
       </c>
     </row>
-    <row r="74" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:9">
       <c r="A74" t="s">
         <v>342</v>
       </c>
     </row>
-    <row r="75" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:9">
       <c r="A75" t="s">
         <v>343</v>
       </c>
     </row>
-    <row r="76" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:9">
       <c r="A76" t="s">
         <v>344</v>
       </c>
     </row>
-    <row r="77" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:9">
       <c r="A77" t="s">
         <v>345</v>
       </c>
     </row>
-    <row r="78" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:9">
       <c r="A78" t="s">
         <v>341</v>
       </c>
     </row>
-    <row r="79" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:9">
       <c r="A79" t="s">
         <v>346</v>
       </c>
     </row>
-    <row r="80" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:9">
       <c r="A80" t="s">
         <v>347</v>
       </c>
     </row>
-    <row r="81" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:1">
       <c r="A81" t="s">
         <v>348</v>
       </c>
     </row>
-    <row r="82" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:1">
       <c r="A82" t="s">
         <v>349</v>
       </c>
     </row>
-    <row r="83" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:1">
       <c r="A83" t="s">
         <v>350</v>
       </c>
     </row>
-    <row r="84" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:1">
       <c r="A84" t="s">
         <v>351</v>
       </c>
     </row>
-    <row r="85" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:1">
       <c r="A85" t="s">
         <v>352</v>
       </c>
     </row>
-    <row r="86" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:1">
       <c r="A86" t="s">
         <v>348</v>
       </c>
     </row>
-    <row r="87" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:1">
       <c r="A87" t="s">
         <v>353</v>
       </c>
     </row>
-    <row r="88" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:1">
       <c r="A88" t="s">
         <v>354</v>
       </c>
     </row>
-    <row r="89" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:1">
       <c r="A89" t="s">
         <v>355</v>
       </c>
     </row>
-    <row r="90" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:1">
       <c r="A90" t="s">
         <v>356</v>
       </c>
     </row>
-    <row r="91" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:1">
       <c r="A91" t="s">
         <v>357</v>
       </c>
     </row>
-    <row r="92" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:1">
       <c r="A92" t="s">
         <v>358</v>
       </c>
     </row>
-    <row r="93" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:1">
       <c r="A93" t="s">
         <v>359</v>
       </c>
     </row>
-    <row r="94" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:1">
       <c r="A94" t="s">
         <v>360</v>
       </c>
     </row>
-    <row r="95" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:1">
       <c r="A95" t="s">
         <v>361</v>
       </c>
     </row>
-    <row r="96" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:1">
       <c r="A96" t="s">
         <v>362</v>
       </c>
     </row>
-    <row r="97" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:1">
       <c r="A97" t="s">
         <v>363</v>
       </c>
     </row>
-    <row r="98" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:1">
       <c r="A98" t="s">
         <v>351</v>
       </c>
     </row>
-    <row r="99" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:1">
       <c r="A99" t="s">
         <v>344</v>
       </c>
     </row>
-    <row r="100" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:1">
       <c r="A100" t="s">
         <v>364</v>
       </c>
     </row>
-    <row r="101" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:1">
       <c r="A101" t="s">
         <v>365</v>
       </c>
     </row>
-    <row r="102" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:1">
       <c r="A102" t="s">
         <v>338</v>
       </c>
     </row>
-    <row r="103" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:1">
       <c r="A103" t="s">
         <v>366</v>
       </c>
     </row>
-    <row r="104" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:1">
       <c r="A104" t="s">
         <v>367</v>
       </c>
     </row>
-    <row r="105" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:1">
       <c r="A105" t="s">
         <v>364</v>
       </c>
     </row>
-    <row r="107" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:1">
       <c r="A107" t="s">
         <v>368</v>
       </c>
     </row>
-    <row r="108" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:1">
       <c r="A108" t="s">
         <v>369</v>
       </c>
     </row>
-    <row r="109" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:1">
       <c r="A109" t="s">
         <v>370</v>
       </c>
@@ -9226,16 +9247,16 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:Z133"/>
   <sheetViews>
     <sheetView topLeftCell="A70" workbookViewId="0">
       <selection activeCell="A57" sqref="A57:F122"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:25">
       <c r="A1" s="46" t="s">
         <v>375</v>
       </c>
@@ -9244,12 +9265,12 @@
       <c r="D1" s="46"/>
       <c r="E1" s="46"/>
     </row>
-    <row r="3" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:25">
       <c r="A3" t="s">
         <v>413</v>
       </c>
     </row>
-    <row r="5" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:25">
       <c r="A5" t="s">
         <v>414</v>
       </c>
@@ -9257,7 +9278,7 @@
         <v>448</v>
       </c>
     </row>
-    <row r="6" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:25">
       <c r="A6" t="s">
         <v>420</v>
       </c>
@@ -9265,7 +9286,7 @@
         <v>446</v>
       </c>
     </row>
-    <row r="7" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:25">
       <c r="A7" t="s">
         <v>378</v>
       </c>
@@ -9273,7 +9294,7 @@
         <v>447</v>
       </c>
     </row>
-    <row r="8" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:25">
       <c r="B8" t="s">
         <v>409</v>
       </c>
@@ -9284,7 +9305,7 @@
         <v>452</v>
       </c>
     </row>
-    <row r="9" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:25">
       <c r="B9" t="s">
         <v>415</v>
       </c>
@@ -9295,12 +9316,12 @@
         <v>453</v>
       </c>
     </row>
-    <row r="10" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:25">
       <c r="B10" t="s">
         <v>410</v>
       </c>
     </row>
-    <row r="11" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:25">
       <c r="B11" t="s">
         <v>416</v>
       </c>
@@ -9308,17 +9329,17 @@
         <v>451</v>
       </c>
     </row>
-    <row r="13" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:25">
       <c r="B13" t="s">
         <v>417</v>
       </c>
     </row>
-    <row r="14" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:25">
       <c r="B14" t="s">
         <v>378</v>
       </c>
     </row>
-    <row r="15" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:25">
       <c r="C15" t="s">
         <v>411</v>
       </c>
@@ -9326,7 +9347,7 @@
         <v>442</v>
       </c>
     </row>
-    <row r="16" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:25">
       <c r="C16" t="s">
         <v>418</v>
       </c>
@@ -9334,7 +9355,7 @@
         <v>443</v>
       </c>
     </row>
-    <row r="17" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:26">
       <c r="C17" t="s">
         <v>412</v>
       </c>
@@ -9342,7 +9363,7 @@
         <v>444</v>
       </c>
     </row>
-    <row r="18" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:26">
       <c r="C18" t="s">
         <v>419</v>
       </c>
@@ -9350,17 +9371,17 @@
         <v>445</v>
       </c>
     </row>
-    <row r="19" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:26">
       <c r="B19" t="s">
         <v>311</v>
       </c>
     </row>
-    <row r="20" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:26">
       <c r="A20" t="s">
         <v>311</v>
       </c>
     </row>
-    <row r="22" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:26">
       <c r="A22" t="s">
         <v>437</v>
       </c>
@@ -9374,7 +9395,7 @@
         <v>468</v>
       </c>
     </row>
-    <row r="23" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:26">
       <c r="A23" t="s">
         <v>425</v>
       </c>
@@ -9391,7 +9412,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="24" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:26">
       <c r="A24" t="s">
         <v>378</v>
       </c>
@@ -9405,7 +9426,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="25" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:26">
       <c r="B25" t="s">
         <v>426</v>
       </c>
@@ -9419,7 +9440,7 @@
         <v>478</v>
       </c>
     </row>
-    <row r="26" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:26">
       <c r="C26" t="s">
         <v>430</v>
       </c>
@@ -9433,7 +9454,7 @@
         <v>482</v>
       </c>
     </row>
-    <row r="27" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:26">
       <c r="B27" t="s">
         <v>381</v>
       </c>
@@ -9447,7 +9468,7 @@
         <v>457</v>
       </c>
     </row>
-    <row r="28" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:26">
       <c r="C28" t="s">
         <v>431</v>
       </c>
@@ -9461,7 +9482,7 @@
         <v>483</v>
       </c>
     </row>
-    <row r="29" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:26">
       <c r="A29" t="s">
         <v>311</v>
       </c>
@@ -9475,7 +9496,7 @@
         <v>484</v>
       </c>
     </row>
-    <row r="30" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:26">
       <c r="P30" t="s">
         <v>474</v>
       </c>
@@ -9486,7 +9507,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="31" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:26">
       <c r="A31" s="41" t="s">
         <v>390</v>
       </c>
@@ -9509,7 +9530,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="32" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:26">
       <c r="A32" s="41" t="s">
         <v>378</v>
       </c>
@@ -9526,7 +9547,7 @@
         <v>476</v>
       </c>
     </row>
-    <row r="33" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:19">
       <c r="A33" s="41"/>
       <c r="B33" s="5" t="s">
         <v>421</v>
@@ -9543,7 +9564,7 @@
         <v>477</v>
       </c>
     </row>
-    <row r="34" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:19">
       <c r="A34" s="41"/>
       <c r="B34" s="41" t="s">
         <v>378</v>
@@ -9560,7 +9581,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="35" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:19">
       <c r="A35" s="41"/>
       <c r="B35" s="41"/>
       <c r="C35" s="41" t="s">
@@ -9581,7 +9602,7 @@
         <v>37500</v>
       </c>
     </row>
-    <row r="36" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:19">
       <c r="A36" s="41"/>
       <c r="B36" s="41"/>
       <c r="C36" s="41" t="s">
@@ -9595,7 +9616,7 @@
         <v>408</v>
       </c>
     </row>
-    <row r="37" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:19">
       <c r="A37" s="41"/>
       <c r="B37" s="41"/>
       <c r="C37" s="41"/>
@@ -9609,7 +9630,7 @@
         <v>428</v>
       </c>
     </row>
-    <row r="38" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:19">
       <c r="A38" s="41"/>
       <c r="B38" s="41"/>
       <c r="C38" s="41"/>
@@ -9623,7 +9644,7 @@
         <v>429</v>
       </c>
     </row>
-    <row r="39" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:19">
       <c r="A39" s="41"/>
       <c r="B39" s="41"/>
       <c r="C39" s="41"/>
@@ -9634,7 +9655,7 @@
       <c r="F39" s="41"/>
       <c r="G39" s="41"/>
     </row>
-    <row r="40" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:19">
       <c r="A40" s="41"/>
       <c r="B40" s="41"/>
       <c r="C40" s="41"/>
@@ -9645,7 +9666,7 @@
       <c r="F40" s="41"/>
       <c r="G40" s="41"/>
     </row>
-    <row r="41" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:19">
       <c r="A41" s="41"/>
       <c r="B41" s="41"/>
       <c r="C41" s="41"/>
@@ -9656,7 +9677,7 @@
       <c r="F41" s="41"/>
       <c r="G41" s="41"/>
     </row>
-    <row r="42" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:19">
       <c r="A42" s="41"/>
       <c r="B42" s="41"/>
       <c r="C42" s="41"/>
@@ -9667,7 +9688,7 @@
       <c r="F42" s="41"/>
       <c r="G42" s="41"/>
     </row>
-    <row r="43" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:19">
       <c r="A43" s="41"/>
       <c r="B43" s="41"/>
       <c r="C43" s="41"/>
@@ -9678,7 +9699,7 @@
       <c r="F43" s="41"/>
       <c r="G43" s="41"/>
     </row>
-    <row r="44" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:19">
       <c r="A44" s="41"/>
       <c r="B44" s="41"/>
       <c r="C44" s="41"/>
@@ -9689,7 +9710,7 @@
       <c r="F44" s="41"/>
       <c r="G44" s="41"/>
     </row>
-    <row r="45" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:19">
       <c r="A45" s="41"/>
       <c r="B45" s="41"/>
       <c r="C45" s="41" t="s">
@@ -9700,7 +9721,7 @@
       <c r="F45" s="41"/>
       <c r="G45" s="41"/>
     </row>
-    <row r="46" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:19">
       <c r="A46" s="41"/>
       <c r="B46" s="41"/>
       <c r="C46" s="41" t="s">
@@ -9711,7 +9732,7 @@
       <c r="F46" s="41"/>
       <c r="G46" s="41"/>
     </row>
-    <row r="47" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:19">
       <c r="A47" s="41"/>
       <c r="B47" s="41"/>
       <c r="C47" s="41" t="s">
@@ -9722,7 +9743,7 @@
       <c r="F47" s="41"/>
       <c r="G47" s="41"/>
     </row>
-    <row r="48" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:19">
       <c r="A48" s="41"/>
       <c r="B48" s="41"/>
       <c r="C48" s="41"/>
@@ -9733,7 +9754,7 @@
       <c r="F48" s="41"/>
       <c r="G48" s="41"/>
     </row>
-    <row r="49" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:26">
       <c r="A49" s="41"/>
       <c r="B49" s="41"/>
       <c r="C49" s="41" t="s">
@@ -9744,7 +9765,7 @@
       <c r="F49" s="41"/>
       <c r="G49" s="41"/>
     </row>
-    <row r="50" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:26">
       <c r="A50" s="41"/>
       <c r="B50" s="41" t="s">
         <v>311</v>
@@ -9755,7 +9776,7 @@
       <c r="F50" s="41"/>
       <c r="G50" s="41"/>
     </row>
-    <row r="51" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:26">
       <c r="A51" s="41"/>
       <c r="B51" s="41" t="s">
         <v>381</v>
@@ -9766,7 +9787,7 @@
       <c r="F51" s="41"/>
       <c r="G51" s="41"/>
     </row>
-    <row r="52" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:26">
       <c r="A52" s="41"/>
       <c r="B52" s="41" t="s">
         <v>378</v>
@@ -9777,7 +9798,7 @@
       <c r="F52" s="41"/>
       <c r="G52" s="41"/>
     </row>
-    <row r="53" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:26">
       <c r="A53" s="41"/>
       <c r="B53" s="41"/>
       <c r="C53" s="41" t="s">
@@ -9788,7 +9809,7 @@
       <c r="F53" s="41"/>
       <c r="G53" s="41"/>
     </row>
-    <row r="54" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:26">
       <c r="A54" s="41"/>
       <c r="B54" s="41" t="s">
         <v>311</v>
@@ -9799,7 +9820,7 @@
       <c r="F54" s="41"/>
       <c r="G54" s="41"/>
     </row>
-    <row r="55" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:26">
       <c r="A55" s="41" t="s">
         <v>311</v>
       </c>
@@ -9810,7 +9831,7 @@
       <c r="F55" s="41"/>
       <c r="G55" s="41"/>
     </row>
-    <row r="56" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:26">
       <c r="A56" s="41"/>
       <c r="B56" s="41"/>
       <c r="C56" s="41"/>
@@ -9819,7 +9840,7 @@
       <c r="F56" s="41"/>
       <c r="G56" s="41"/>
     </row>
-    <row r="57" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:26">
       <c r="A57" s="41" t="s">
         <v>393</v>
       </c>
@@ -9842,7 +9863,7 @@
         <v>468</v>
       </c>
     </row>
-    <row r="58" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:26">
       <c r="A58" s="41" t="s">
         <v>378</v>
       </c>
@@ -9865,7 +9886,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="59" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:26">
       <c r="A59" s="41"/>
       <c r="B59" s="41" t="s">
         <v>394</v>
@@ -9888,7 +9909,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="60" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:26">
       <c r="A60" s="41"/>
       <c r="B60" s="41"/>
       <c r="C60" s="41"/>
@@ -9912,7 +9933,7 @@
         <v>469</v>
       </c>
     </row>
-    <row r="61" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:26">
       <c r="A61" s="41"/>
       <c r="B61" s="5" t="s">
         <v>395</v>
@@ -9935,7 +9956,7 @@
         <v>470</v>
       </c>
     </row>
-    <row r="62" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:26">
       <c r="A62" s="41"/>
       <c r="B62" s="41" t="s">
         <v>378</v>
@@ -9958,7 +9979,7 @@
         <v>471</v>
       </c>
     </row>
-    <row r="63" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:26">
       <c r="A63" s="41"/>
       <c r="B63" s="41"/>
       <c r="C63" s="5" t="s">
@@ -9981,7 +10002,7 @@
         <v>472</v>
       </c>
     </row>
-    <row r="64" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:26">
       <c r="A64" s="41"/>
       <c r="B64" s="41"/>
       <c r="C64" s="41" t="s">
@@ -10004,7 +10025,7 @@
         <v>473</v>
       </c>
     </row>
-    <row r="65" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:26">
       <c r="A65" s="41"/>
       <c r="B65" s="41"/>
       <c r="C65" s="41"/>
@@ -10024,7 +10045,7 @@
         <v>491</v>
       </c>
     </row>
-    <row r="66" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:26">
       <c r="A66" s="41"/>
       <c r="B66" s="41"/>
       <c r="C66" s="41" t="s">
@@ -10044,7 +10065,7 @@
         <v>492</v>
       </c>
     </row>
-    <row r="67" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:26">
       <c r="A67" s="41"/>
       <c r="B67" s="41"/>
       <c r="C67" s="41" t="s">
@@ -10064,7 +10085,7 @@
         <v>493</v>
       </c>
     </row>
-    <row r="68" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:26">
       <c r="A68" s="41"/>
       <c r="B68" s="41"/>
       <c r="C68" s="41" t="s">
@@ -10084,7 +10105,7 @@
         <v>489</v>
       </c>
     </row>
-    <row r="69" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:26">
       <c r="A69" s="41"/>
       <c r="B69" s="41"/>
       <c r="C69" s="41"/>
@@ -10104,7 +10125,7 @@
         <v>494</v>
       </c>
     </row>
-    <row r="70" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:26">
       <c r="A70" s="41"/>
       <c r="B70" s="41"/>
       <c r="C70" s="41" t="s">
@@ -10124,7 +10145,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="71" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:26">
       <c r="A71" s="41"/>
       <c r="B71" s="41"/>
       <c r="C71" s="41" t="s">
@@ -10135,7 +10156,7 @@
       <c r="F71" s="41"/>
       <c r="G71" s="41"/>
     </row>
-    <row r="72" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:26">
       <c r="A72" s="41"/>
       <c r="B72" s="41" t="s">
         <v>397</v>
@@ -10146,7 +10167,7 @@
       <c r="F72" s="41"/>
       <c r="G72" s="41"/>
     </row>
-    <row r="73" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:26">
       <c r="A73" s="41"/>
       <c r="B73" s="41"/>
       <c r="C73" s="41"/>
@@ -10155,7 +10176,7 @@
       <c r="F73" s="41"/>
       <c r="G73" s="41"/>
     </row>
-    <row r="74" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:26">
       <c r="A74" s="41"/>
       <c r="B74" s="41" t="s">
         <v>398</v>
@@ -10166,7 +10187,7 @@
       <c r="F74" s="41"/>
       <c r="G74" s="41"/>
     </row>
-    <row r="75" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:26">
       <c r="A75" s="41"/>
       <c r="B75" s="41" t="s">
         <v>399</v>
@@ -10177,7 +10198,7 @@
       <c r="F75" s="41"/>
       <c r="G75" s="41"/>
     </row>
-    <row r="76" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:26">
       <c r="A76" s="41"/>
       <c r="B76" s="41"/>
       <c r="C76" s="41" t="s">
@@ -10188,7 +10209,7 @@
       <c r="F76" s="41"/>
       <c r="G76" s="41"/>
     </row>
-    <row r="77" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:26">
       <c r="A77" s="41"/>
       <c r="B77" s="41" t="s">
         <v>397</v>
@@ -10199,7 +10220,7 @@
       <c r="F77" s="41"/>
       <c r="G77" s="41"/>
     </row>
-    <row r="78" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:26">
       <c r="A78" s="41"/>
       <c r="B78" s="41" t="s">
         <v>400</v>
@@ -10210,7 +10231,7 @@
       <c r="F78" s="41"/>
       <c r="G78" s="41"/>
     </row>
-    <row r="79" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:26">
       <c r="A79" s="41"/>
       <c r="B79" s="41" t="s">
         <v>378</v>
@@ -10221,7 +10242,7 @@
       <c r="F79" s="41"/>
       <c r="G79" s="41"/>
     </row>
-    <row r="80" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:26">
       <c r="A80" s="41"/>
       <c r="B80" s="41"/>
       <c r="C80" s="5" t="s">
@@ -10232,7 +10253,7 @@
       <c r="F80" s="41"/>
       <c r="G80" s="41"/>
     </row>
-    <row r="81" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:26">
       <c r="A81" s="41"/>
       <c r="B81" s="41"/>
       <c r="C81" s="41" t="s">
@@ -10243,7 +10264,7 @@
       <c r="F81" s="41"/>
       <c r="G81" s="41"/>
     </row>
-    <row r="82" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:26">
       <c r="A82" s="41"/>
       <c r="B82" s="41"/>
       <c r="C82" s="41"/>
@@ -10254,7 +10275,7 @@
       <c r="F82" s="41"/>
       <c r="G82" s="41"/>
     </row>
-    <row r="83" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:26">
       <c r="A83" s="41"/>
       <c r="B83" s="41"/>
       <c r="C83" s="41"/>
@@ -10265,7 +10286,7 @@
       <c r="F83" s="41"/>
       <c r="G83" s="41"/>
     </row>
-    <row r="84" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:26">
       <c r="A84" s="41"/>
       <c r="B84" s="41"/>
       <c r="C84" s="41" t="s">
@@ -10276,7 +10297,7 @@
       <c r="F84" s="41"/>
       <c r="G84" s="41"/>
     </row>
-    <row r="85" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:26">
       <c r="A85" s="41"/>
       <c r="B85" s="41"/>
       <c r="C85" s="41" t="s">
@@ -10287,7 +10308,7 @@
       <c r="F85" s="41"/>
       <c r="G85" s="41"/>
     </row>
-    <row r="86" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:26">
       <c r="A86" s="41"/>
       <c r="B86" s="41"/>
       <c r="C86" s="41" t="s">
@@ -10298,7 +10319,7 @@
       <c r="F86" s="41"/>
       <c r="G86" s="41"/>
     </row>
-    <row r="87" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:26">
       <c r="A87" s="41"/>
       <c r="B87" s="41"/>
       <c r="C87" s="41"/>
@@ -10309,7 +10330,7 @@
       <c r="F87" s="41"/>
       <c r="G87" s="41"/>
     </row>
-    <row r="88" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:26">
       <c r="A88" s="41"/>
       <c r="B88" s="41"/>
       <c r="C88" s="41"/>
@@ -10320,7 +10341,7 @@
       <c r="F88" s="41"/>
       <c r="G88" s="41"/>
     </row>
-    <row r="89" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:26">
       <c r="A89" s="41"/>
       <c r="B89" s="41"/>
       <c r="C89" s="41"/>
@@ -10331,7 +10352,7 @@
       <c r="F89" s="41"/>
       <c r="G89" s="41"/>
     </row>
-    <row r="90" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:26">
       <c r="A90" s="41"/>
       <c r="B90" s="41"/>
       <c r="C90" s="41" t="s">
@@ -10342,7 +10363,7 @@
       <c r="F90" s="41"/>
       <c r="G90" s="41"/>
     </row>
-    <row r="91" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:26">
       <c r="A91" s="41"/>
       <c r="B91" s="41" t="s">
         <v>311</v>
@@ -10353,7 +10374,7 @@
       <c r="F91" s="41"/>
       <c r="G91" s="41"/>
     </row>
-    <row r="92" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:26">
       <c r="A92" s="41" t="s">
         <v>311</v>
       </c>
@@ -10364,7 +10385,7 @@
       <c r="F92" s="41"/>
       <c r="G92" s="41"/>
     </row>
-    <row r="93" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:26">
       <c r="A93" s="41"/>
       <c r="B93" s="41"/>
       <c r="C93" s="41"/>
@@ -10373,7 +10394,7 @@
       <c r="F93" s="41"/>
       <c r="G93" s="41"/>
     </row>
-    <row r="94" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:26">
       <c r="A94" s="41" t="s">
         <v>406</v>
       </c>
@@ -10396,7 +10417,7 @@
         <v>468</v>
       </c>
     </row>
-    <row r="95" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:26">
       <c r="A95" s="41" t="s">
         <v>378</v>
       </c>
@@ -10419,7 +10440,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="96" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:26">
       <c r="A96" s="41"/>
       <c r="B96" s="41" t="s">
         <v>376</v>
@@ -10442,7 +10463,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="97" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:26">
       <c r="A97" s="41"/>
       <c r="B97" s="41"/>
       <c r="C97" s="41"/>
@@ -10463,7 +10484,7 @@
         <v>467</v>
       </c>
     </row>
-    <row r="98" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:26">
       <c r="A98" s="41"/>
       <c r="B98" s="41" t="s">
         <v>377</v>
@@ -10486,7 +10507,7 @@
         <v>485</v>
       </c>
     </row>
-    <row r="99" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:26">
       <c r="A99" s="41"/>
       <c r="B99" s="41" t="s">
         <v>378</v>
@@ -10509,7 +10530,7 @@
         <v>457</v>
       </c>
     </row>
-    <row r="100" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:26">
       <c r="A100" s="41"/>
       <c r="B100" s="41"/>
       <c r="C100" s="5" t="s">
@@ -10532,7 +10553,7 @@
         <v>486</v>
       </c>
     </row>
-    <row r="101" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:26">
       <c r="A101" s="41"/>
       <c r="B101" s="41"/>
       <c r="C101" s="41" t="s">
@@ -10555,7 +10576,7 @@
         <v>487</v>
       </c>
     </row>
-    <row r="102" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:26">
       <c r="A102" s="41"/>
       <c r="B102" s="41"/>
       <c r="C102" s="41"/>
@@ -10575,7 +10596,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="103" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:26">
       <c r="A103" s="41"/>
       <c r="B103" s="41"/>
       <c r="C103" s="41" t="s">
@@ -10595,7 +10616,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="104" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:26">
       <c r="A104" s="41"/>
       <c r="B104" s="41"/>
       <c r="C104" s="41" t="s">
@@ -10606,7 +10627,7 @@
       <c r="F104" s="41"/>
       <c r="G104" s="41"/>
     </row>
-    <row r="105" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:26">
       <c r="A105" s="41"/>
       <c r="B105" s="41"/>
       <c r="C105" s="41" t="s">
@@ -10617,7 +10638,7 @@
       <c r="F105" s="41"/>
       <c r="G105" s="41"/>
     </row>
-    <row r="106" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:26">
       <c r="A106" s="41"/>
       <c r="B106" s="41"/>
       <c r="C106" s="41"/>
@@ -10628,7 +10649,7 @@
       <c r="F106" s="5"/>
       <c r="G106" s="41"/>
     </row>
-    <row r="107" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:26">
       <c r="A107" s="41"/>
       <c r="B107" s="41"/>
       <c r="C107" s="41"/>
@@ -10639,7 +10660,7 @@
       <c r="F107" s="41"/>
       <c r="G107" s="41"/>
     </row>
-    <row r="108" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:26">
       <c r="A108" s="41"/>
       <c r="B108" s="41"/>
       <c r="C108" s="41"/>
@@ -10650,7 +10671,7 @@
       <c r="F108" s="41"/>
       <c r="G108" s="41"/>
     </row>
-    <row r="109" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:26">
       <c r="A109" s="41"/>
       <c r="B109" s="41"/>
       <c r="C109" s="41"/>
@@ -10661,7 +10682,7 @@
       <c r="F109" s="41"/>
       <c r="G109" s="41"/>
     </row>
-    <row r="110" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:26">
       <c r="A110" s="41"/>
       <c r="B110" s="41"/>
       <c r="C110" s="41"/>
@@ -10672,7 +10693,7 @@
       <c r="F110" s="41"/>
       <c r="G110" s="41"/>
     </row>
-    <row r="111" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:26">
       <c r="A111" s="41"/>
       <c r="B111" s="41"/>
       <c r="C111" s="41"/>
@@ -10683,7 +10704,7 @@
       <c r="F111" s="41"/>
       <c r="G111" s="41"/>
     </row>
-    <row r="112" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:26">
       <c r="A112" s="41"/>
       <c r="B112" s="41"/>
       <c r="C112" s="41"/>
@@ -10694,7 +10715,7 @@
       <c r="F112" s="41"/>
       <c r="G112" s="41"/>
     </row>
-    <row r="113" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:7">
       <c r="A113" s="41"/>
       <c r="B113" s="41"/>
       <c r="C113" s="41"/>
@@ -10705,7 +10726,7 @@
       <c r="F113" s="41"/>
       <c r="G113" s="41"/>
     </row>
-    <row r="114" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:7">
       <c r="A114" s="41"/>
       <c r="B114" s="41"/>
       <c r="C114" s="41" t="s">
@@ -10716,7 +10737,7 @@
       <c r="F114" s="41"/>
       <c r="G114" s="41"/>
     </row>
-    <row r="115" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:7">
       <c r="A115" s="41"/>
       <c r="B115" s="41" t="s">
         <v>311</v>
@@ -10727,7 +10748,7 @@
       <c r="F115" s="41"/>
       <c r="G115" s="41"/>
     </row>
-    <row r="116" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:7">
       <c r="A116" s="41"/>
       <c r="B116" s="41" t="s">
         <v>381</v>
@@ -10738,7 +10759,7 @@
       <c r="F116" s="41"/>
       <c r="G116" s="41"/>
     </row>
-    <row r="117" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:7">
       <c r="A117" s="41"/>
       <c r="B117" s="41" t="s">
         <v>378</v>
@@ -10749,7 +10770,7 @@
       <c r="F117" s="41"/>
       <c r="G117" s="41"/>
     </row>
-    <row r="118" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:7">
       <c r="A118" s="41"/>
       <c r="B118" s="41"/>
       <c r="C118" s="41" t="s">
@@ -10760,7 +10781,7 @@
       <c r="F118" s="41"/>
       <c r="G118" s="41"/>
     </row>
-    <row r="119" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:7">
       <c r="A119" s="41"/>
       <c r="B119" s="41" t="s">
         <v>311</v>
@@ -10771,7 +10792,7 @@
       <c r="F119" s="41"/>
       <c r="G119" s="41"/>
     </row>
-    <row r="120" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:7">
       <c r="A120" s="41"/>
       <c r="B120" s="41"/>
       <c r="C120" s="41"/>
@@ -10780,7 +10801,7 @@
       <c r="F120" s="41"/>
       <c r="G120" s="41"/>
     </row>
-    <row r="121" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:7">
       <c r="A121" s="41"/>
       <c r="B121" s="41" t="s">
         <v>407</v>
@@ -10791,7 +10812,7 @@
       <c r="F121" s="41"/>
       <c r="G121" s="41"/>
     </row>
-    <row r="122" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:7">
       <c r="A122" s="41" t="s">
         <v>311</v>
       </c>
@@ -10802,7 +10823,7 @@
       <c r="F122" s="41"/>
       <c r="G122" s="41"/>
     </row>
-    <row r="125" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:7">
       <c r="A125" s="41"/>
       <c r="B125" s="41"/>
       <c r="C125" s="41"/>
@@ -10811,7 +10832,7 @@
       <c r="F125" s="41"/>
       <c r="G125" s="41"/>
     </row>
-    <row r="133" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:11">
       <c r="A133" s="41"/>
       <c r="B133" s="41"/>
       <c r="C133" s="41"/>
@@ -10831,27 +10852,30 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:S81"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:U81"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="S1" sqref="S1"/>
+    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
+      <selection activeCell="S2" sqref="S2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="19" max="19" width="13.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:21">
       <c r="A1" t="s">
         <v>507</v>
       </c>
       <c r="S1" t="s">
         <v>534</v>
       </c>
-    </row>
-    <row r="2" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="U1" t="s">
+        <v>545</v>
+      </c>
+    </row>
+    <row r="2" spans="1:21">
       <c r="A2" t="s">
         <v>508</v>
       </c>
@@ -10859,7 +10883,7 @@
         <v>535</v>
       </c>
     </row>
-    <row r="3" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:21">
       <c r="A3" t="s">
         <v>509</v>
       </c>
@@ -10867,12 +10891,12 @@
         <v>536</v>
       </c>
     </row>
-    <row r="4" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:21">
       <c r="S4" t="s">
         <v>537</v>
       </c>
     </row>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:21">
       <c r="A5" t="s">
         <v>510</v>
       </c>
@@ -10880,7 +10904,7 @@
         <v>538</v>
       </c>
     </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:21">
       <c r="A6" s="48" t="s">
         <v>514</v>
       </c>
@@ -10888,7 +10912,7 @@
         <v>539</v>
       </c>
     </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:21">
       <c r="A7" s="48" t="s">
         <v>515</v>
       </c>
@@ -10896,7 +10920,7 @@
         <v>540</v>
       </c>
     </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:21">
       <c r="A8" t="s">
         <v>512</v>
       </c>
@@ -10904,27 +10928,27 @@
         <v>541</v>
       </c>
     </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:21">
       <c r="A9" t="s">
         <v>513</v>
       </c>
     </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:21">
       <c r="A10" t="s">
         <v>511</v>
       </c>
     </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:21">
       <c r="A12" t="s">
         <v>516</v>
       </c>
     </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:21">
       <c r="A14" t="s">
         <v>517</v>
       </c>
     </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:21">
       <c r="A16" s="41" t="s">
         <v>393</v>
       </c>
@@ -10934,7 +10958,7 @@
       <c r="E16" s="41"/>
       <c r="F16" s="41"/>
     </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:12">
       <c r="A17" s="41" t="s">
         <v>378</v>
       </c>
@@ -10947,7 +10971,7 @@
         <v>523</v>
       </c>
     </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:12">
       <c r="A18" s="41"/>
       <c r="B18" s="41" t="s">
         <v>394</v>
@@ -10960,7 +10984,7 @@
         <v>524</v>
       </c>
     </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:12">
       <c r="A19" s="41"/>
       <c r="B19" s="41"/>
       <c r="C19" s="41"/>
@@ -10971,7 +10995,7 @@
         <v>526</v>
       </c>
     </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:12">
       <c r="A20" s="41"/>
       <c r="B20" s="41" t="s">
         <v>395</v>
@@ -10984,7 +11008,7 @@
         <v>527</v>
       </c>
     </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:12">
       <c r="A21" s="41"/>
       <c r="B21" s="41" t="s">
         <v>378</v>
@@ -10994,7 +11018,7 @@
       <c r="E21" s="41"/>
       <c r="F21" s="41"/>
     </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:12">
       <c r="A22" s="41"/>
       <c r="B22" s="41"/>
       <c r="C22" s="41" t="s">
@@ -11007,7 +11031,7 @@
         <v>525</v>
       </c>
     </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:12">
       <c r="A23" s="41"/>
       <c r="B23" s="41"/>
       <c r="C23" s="41" t="s">
@@ -11020,7 +11044,7 @@
         <v>528</v>
       </c>
     </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:12">
       <c r="A24" s="41"/>
       <c r="B24" s="41"/>
       <c r="C24" s="41"/>
@@ -11030,7 +11054,7 @@
       <c r="E24" s="41"/>
       <c r="F24" s="41"/>
     </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:12">
       <c r="A25" s="41"/>
       <c r="B25" s="41"/>
       <c r="C25" s="41" t="s">
@@ -11040,7 +11064,7 @@
       <c r="E25" s="41"/>
       <c r="F25" s="41"/>
     </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:12">
       <c r="A26" s="41"/>
       <c r="B26" s="41"/>
       <c r="C26" s="41" t="s">
@@ -11050,7 +11074,7 @@
       <c r="E26" s="41"/>
       <c r="F26" s="41"/>
     </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:12">
       <c r="A27" s="41"/>
       <c r="B27" s="41"/>
       <c r="C27" s="41" t="s">
@@ -11060,7 +11084,7 @@
       <c r="E27" s="41"/>
       <c r="F27" s="41"/>
     </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:12">
       <c r="A28" s="41"/>
       <c r="B28" s="41"/>
       <c r="C28" s="41"/>
@@ -11070,7 +11094,7 @@
       <c r="E28" s="41"/>
       <c r="F28" s="41"/>
     </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:12">
       <c r="A29" s="41"/>
       <c r="B29" s="41"/>
       <c r="C29" s="41" t="s">
@@ -11080,7 +11104,7 @@
       <c r="E29" s="41"/>
       <c r="F29" s="41"/>
     </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:12">
       <c r="A30" s="41"/>
       <c r="B30" s="41"/>
       <c r="C30" s="41" t="s">
@@ -11090,7 +11114,7 @@
       <c r="E30" s="41"/>
       <c r="F30" s="41"/>
     </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:12">
       <c r="A31" s="41"/>
       <c r="B31" s="41" t="s">
         <v>397</v>
@@ -11100,7 +11124,7 @@
       <c r="E31" s="41"/>
       <c r="F31" s="41"/>
     </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:12">
       <c r="A32" s="41"/>
       <c r="B32" s="41"/>
       <c r="C32" s="41"/>
@@ -11108,7 +11132,7 @@
       <c r="E32" s="41"/>
       <c r="F32" s="41"/>
     </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:10">
       <c r="A33" s="41"/>
       <c r="B33" s="41" t="s">
         <v>398</v>
@@ -11118,7 +11142,7 @@
       <c r="E33" s="41"/>
       <c r="F33" s="41"/>
     </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:10">
       <c r="A34" s="41"/>
       <c r="B34" s="41" t="s">
         <v>399</v>
@@ -11128,7 +11152,7 @@
       <c r="E34" s="41"/>
       <c r="F34" s="41"/>
     </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:10">
       <c r="A35" s="41"/>
       <c r="B35" s="41"/>
       <c r="C35" s="41" t="s">
@@ -11138,7 +11162,7 @@
       <c r="E35" s="41"/>
       <c r="F35" s="41"/>
     </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:10">
       <c r="A36" s="41"/>
       <c r="B36" s="41" t="s">
         <v>397</v>
@@ -11148,7 +11172,7 @@
       <c r="E36" s="41"/>
       <c r="F36" s="41"/>
     </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:10">
       <c r="A37" s="41"/>
       <c r="B37" s="41" t="s">
         <v>400</v>
@@ -11158,7 +11182,7 @@
       <c r="E37" s="41"/>
       <c r="F37" s="41"/>
     </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:10">
       <c r="A38" s="41"/>
       <c r="B38" s="41" t="s">
         <v>378</v>
@@ -11168,7 +11192,7 @@
       <c r="E38" s="41"/>
       <c r="F38" s="41"/>
     </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:10">
       <c r="A39" s="41"/>
       <c r="B39" s="41"/>
       <c r="C39" s="5" t="s">
@@ -11186,7 +11210,7 @@
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
     </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:10">
       <c r="A40" s="41"/>
       <c r="B40" s="41"/>
       <c r="C40" s="41" t="s">
@@ -11199,7 +11223,7 @@
         <v>520</v>
       </c>
     </row>
-    <row r="41" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:10">
       <c r="A41" s="41"/>
       <c r="B41" s="41"/>
       <c r="C41" s="41"/>
@@ -11212,7 +11236,7 @@
         <v>521</v>
       </c>
     </row>
-    <row r="42" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:10">
       <c r="A42" s="41"/>
       <c r="B42" s="41"/>
       <c r="C42" s="41"/>
@@ -11222,7 +11246,7 @@
       <c r="E42" s="41"/>
       <c r="F42" s="41"/>
     </row>
-    <row r="43" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:10">
       <c r="A43" s="41"/>
       <c r="B43" s="41"/>
       <c r="C43" s="41" t="s">
@@ -11232,7 +11256,7 @@
       <c r="E43" s="41"/>
       <c r="F43" s="41"/>
     </row>
-    <row r="44" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:10">
       <c r="A44" s="41"/>
       <c r="B44" s="41"/>
       <c r="C44" s="41" t="s">
@@ -11242,7 +11266,7 @@
       <c r="E44" s="41"/>
       <c r="F44" s="41"/>
     </row>
-    <row r="45" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:10">
       <c r="A45" s="41"/>
       <c r="B45" s="41"/>
       <c r="C45" s="41" t="s">
@@ -11252,7 +11276,7 @@
       <c r="E45" s="41"/>
       <c r="F45" s="41"/>
     </row>
-    <row r="46" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:10">
       <c r="A46" s="41"/>
       <c r="B46" s="41"/>
       <c r="C46" s="41"/>
@@ -11262,7 +11286,7 @@
       <c r="E46" s="41"/>
       <c r="F46" s="41"/>
     </row>
-    <row r="47" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:10">
       <c r="A47" s="41"/>
       <c r="B47" s="41"/>
       <c r="C47" s="41"/>
@@ -11272,7 +11296,7 @@
       <c r="E47" s="41"/>
       <c r="F47" s="41"/>
     </row>
-    <row r="48" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:10">
       <c r="A48" s="41"/>
       <c r="B48" s="41"/>
       <c r="C48" s="41"/>
@@ -11282,7 +11306,7 @@
       <c r="E48" s="41"/>
       <c r="F48" s="41"/>
     </row>
-    <row r="49" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:10">
       <c r="A49" s="41"/>
       <c r="B49" s="41"/>
       <c r="C49" s="41" t="s">
@@ -11292,7 +11316,7 @@
       <c r="E49" s="41"/>
       <c r="F49" s="41"/>
     </row>
-    <row r="50" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:10">
       <c r="A50" s="41"/>
       <c r="B50" s="41" t="s">
         <v>311</v>
@@ -11302,7 +11326,7 @@
       <c r="E50" s="41"/>
       <c r="F50" s="41"/>
     </row>
-    <row r="51" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:10">
       <c r="A51" s="41" t="s">
         <v>311</v>
       </c>
@@ -11312,7 +11336,7 @@
       <c r="E51" s="41"/>
       <c r="F51" s="41"/>
     </row>
-    <row r="52" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:10">
       <c r="A52" s="41"/>
       <c r="B52" s="41"/>
       <c r="C52" s="41"/>
@@ -11320,7 +11344,7 @@
       <c r="E52" s="41"/>
       <c r="F52" s="41"/>
     </row>
-    <row r="53" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:10">
       <c r="A53" s="41" t="s">
         <v>406</v>
       </c>
@@ -11330,7 +11354,7 @@
       <c r="E53" s="41"/>
       <c r="F53" s="41"/>
     </row>
-    <row r="54" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:10">
       <c r="A54" s="41" t="s">
         <v>378</v>
       </c>
@@ -11340,7 +11364,7 @@
       <c r="E54" s="41"/>
       <c r="F54" s="41"/>
     </row>
-    <row r="55" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:10">
       <c r="A55" s="41"/>
       <c r="B55" s="41" t="s">
         <v>376</v>
@@ -11350,7 +11374,7 @@
       <c r="E55" s="41"/>
       <c r="F55" s="41"/>
     </row>
-    <row r="56" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:10">
       <c r="A56" s="41"/>
       <c r="B56" s="41"/>
       <c r="C56" s="41"/>
@@ -11358,7 +11382,7 @@
       <c r="E56" s="41"/>
       <c r="F56" s="41"/>
     </row>
-    <row r="57" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:10">
       <c r="A57" s="41"/>
       <c r="B57" s="41" t="s">
         <v>377</v>
@@ -11368,7 +11392,7 @@
       <c r="E57" s="41"/>
       <c r="F57" s="41"/>
     </row>
-    <row r="58" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:10">
       <c r="A58" s="41"/>
       <c r="B58" s="41" t="s">
         <v>378</v>
@@ -11378,7 +11402,7 @@
       <c r="E58" s="41"/>
       <c r="F58" s="41"/>
     </row>
-    <row r="59" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:10">
       <c r="A59" s="41"/>
       <c r="B59" s="41"/>
       <c r="C59" s="5" t="s">
@@ -11393,7 +11417,7 @@
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
     </row>
-    <row r="60" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:10">
       <c r="A60" s="41"/>
       <c r="B60" s="41"/>
       <c r="C60" s="41" t="s">
@@ -11406,7 +11430,7 @@
         <v>520</v>
       </c>
     </row>
-    <row r="61" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:10">
       <c r="A61" s="41"/>
       <c r="B61" s="41"/>
       <c r="C61" s="41"/>
@@ -11419,7 +11443,7 @@
         <v>521</v>
       </c>
     </row>
-    <row r="62" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:10">
       <c r="A62" s="41"/>
       <c r="B62" s="41"/>
       <c r="C62" s="41" t="s">
@@ -11429,7 +11453,7 @@
       <c r="E62" s="41"/>
       <c r="F62" s="41"/>
     </row>
-    <row r="63" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:10">
       <c r="A63" s="41"/>
       <c r="B63" s="41"/>
       <c r="C63" s="41" t="s">
@@ -11439,7 +11463,7 @@
       <c r="E63" s="41"/>
       <c r="F63" s="41"/>
     </row>
-    <row r="64" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:10">
       <c r="A64" s="41"/>
       <c r="B64" s="41"/>
       <c r="C64" s="41" t="s">
@@ -11449,7 +11473,7 @@
       <c r="E64" s="41"/>
       <c r="F64" s="41"/>
     </row>
-    <row r="65" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:7">
       <c r="A65" s="41"/>
       <c r="B65" s="41"/>
       <c r="C65" s="41"/>
@@ -11460,7 +11484,7 @@
       <c r="F65" s="41"/>
       <c r="G65" s="41"/>
     </row>
-    <row r="66" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:7">
       <c r="A66" s="41"/>
       <c r="B66" s="41"/>
       <c r="C66" s="41"/>
@@ -11470,7 +11494,7 @@
       <c r="E66" s="41"/>
       <c r="F66" s="41"/>
     </row>
-    <row r="67" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:7">
       <c r="A67" s="41"/>
       <c r="B67" s="41"/>
       <c r="C67" s="41"/>
@@ -11480,7 +11504,7 @@
       </c>
       <c r="F67" s="41"/>
     </row>
-    <row r="68" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:7">
       <c r="A68" s="41"/>
       <c r="B68" s="41"/>
       <c r="C68" s="41"/>
@@ -11490,7 +11514,7 @@
       <c r="E68" s="41"/>
       <c r="F68" s="41"/>
     </row>
-    <row r="69" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:7">
       <c r="A69" s="41"/>
       <c r="B69" s="41"/>
       <c r="C69" s="41"/>
@@ -11500,7 +11524,7 @@
       <c r="E69" s="41"/>
       <c r="F69" s="41"/>
     </row>
-    <row r="70" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:7">
       <c r="A70" s="41"/>
       <c r="B70" s="41"/>
       <c r="C70" s="41"/>
@@ -11510,7 +11534,7 @@
       <c r="E70" s="41"/>
       <c r="F70" s="41"/>
     </row>
-    <row r="71" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:7">
       <c r="A71" s="41"/>
       <c r="B71" s="41"/>
       <c r="C71" s="41"/>
@@ -11520,7 +11544,7 @@
       </c>
       <c r="F71" s="41"/>
     </row>
-    <row r="72" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:7">
       <c r="A72" s="41"/>
       <c r="B72" s="41"/>
       <c r="C72" s="41"/>
@@ -11530,7 +11554,7 @@
       <c r="E72" s="41"/>
       <c r="F72" s="41"/>
     </row>
-    <row r="73" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:7">
       <c r="A73" s="41"/>
       <c r="B73" s="41"/>
       <c r="C73" s="41" t="s">
@@ -11540,7 +11564,7 @@
       <c r="E73" s="41"/>
       <c r="F73" s="41"/>
     </row>
-    <row r="74" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:7">
       <c r="A74" s="41"/>
       <c r="B74" s="41" t="s">
         <v>311</v>
@@ -11550,7 +11574,7 @@
       <c r="E74" s="41"/>
       <c r="F74" s="41"/>
     </row>
-    <row r="75" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:7">
       <c r="A75" s="41"/>
       <c r="B75" s="41" t="s">
         <v>381</v>
@@ -11560,7 +11584,7 @@
       <c r="E75" s="41"/>
       <c r="F75" s="41"/>
     </row>
-    <row r="76" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:7">
       <c r="A76" s="41"/>
       <c r="B76" s="41" t="s">
         <v>378</v>
@@ -11570,7 +11594,7 @@
       <c r="E76" s="41"/>
       <c r="F76" s="41"/>
     </row>
-    <row r="77" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:7">
       <c r="A77" s="41"/>
       <c r="B77" s="41"/>
       <c r="C77" s="41" t="s">
@@ -11580,7 +11604,7 @@
       <c r="E77" s="41"/>
       <c r="F77" s="41"/>
     </row>
-    <row r="78" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:7">
       <c r="A78" s="41"/>
       <c r="B78" s="41" t="s">
         <v>311</v>
@@ -11590,7 +11614,7 @@
       <c r="E78" s="41"/>
       <c r="F78" s="41"/>
     </row>
-    <row r="79" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:7">
       <c r="A79" s="41"/>
       <c r="B79" s="41"/>
       <c r="C79" s="41"/>
@@ -11598,7 +11622,7 @@
       <c r="E79" s="41"/>
       <c r="F79" s="41"/>
     </row>
-    <row r="80" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:7">
       <c r="A80" s="41"/>
       <c r="B80" s="41" t="s">
         <v>407</v>
@@ -11608,7 +11632,7 @@
       <c r="E80" s="41"/>
       <c r="F80" s="41"/>
     </row>
-    <row r="81" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:6">
       <c r="A81" s="41" t="s">
         <v>311</v>
       </c>

--- a/CFT4CUnitSrc/src/report/GAReport.xlsx
+++ b/CFT4CUnitSrc/src/report/GAReport.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="1365" windowWidth="14805" windowHeight="6480" tabRatio="940" activeTab="8"/>
@@ -17,12 +17,12 @@
     <sheet name="ThayHieu_report" sheetId="13" r:id="rId8"/>
     <sheet name="PSOReport" sheetId="15" r:id="rId9"/>
   </sheets>
-  <calcPr calcId="125725"/>
+  <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="811" uniqueCount="546">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="813" uniqueCount="546">
   <si>
     <t>Nhìn chung, để sinh test case cho một input program theo phương pháp GA thì có các bước sau</t>
   </si>
@@ -1693,11 +1693,11 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.000000000"/>
   </numFmts>
-  <fonts count="7">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -6087,6 +6087,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -6121,6 +6122,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -6296,21 +6298,21 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="N20" sqref="N20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:10">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>532</v>
       </c>
     </row>
-    <row r="2" spans="1:10">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
         <v>531</v>
       </c>
@@ -6318,12 +6320,12 @@
         <v>544</v>
       </c>
     </row>
-    <row r="3" spans="1:10">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
         <v>533</v>
       </c>
     </row>
-    <row r="4" spans="1:10">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
         <v>542</v>
       </c>
@@ -6337,21 +6339,21 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B1"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="46.7109375" style="50" customWidth="1"/>
     <col min="2" max="2" width="60.7109375" style="50" customWidth="1"/>
     <col min="3" max="16384" width="9.140625" style="50"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="75">
+    <row r="1" spans="1:2" ht="75" x14ac:dyDescent="0.25">
       <c r="A1" s="49" t="s">
         <v>529</v>
       </c>
@@ -6366,67 +6368,67 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B25" sqref="B25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>500</v>
       </c>
     </row>
-    <row r="2" spans="1:3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
         <v>501</v>
       </c>
     </row>
-    <row r="3" spans="1:3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B3" s="47"/>
       <c r="C3" s="47" t="s">
         <v>503</v>
       </c>
     </row>
-    <row r="4" spans="1:3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C4" t="s">
         <v>502</v>
       </c>
     </row>
-    <row r="6" spans="1:3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>506</v>
       </c>
     </row>
-    <row r="7" spans="1:3">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
         <v>504</v>
       </c>
     </row>
-    <row r="8" spans="1:3">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
         <v>505</v>
       </c>
     </row>
-    <row r="19" spans="2:3">
+    <row r="19" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B19" t="s">
         <v>496</v>
       </c>
     </row>
-    <row r="20" spans="2:3">
+    <row r="20" spans="2:3" x14ac:dyDescent="0.25">
       <c r="C20" t="s">
         <v>497</v>
       </c>
     </row>
-    <row r="21" spans="2:3">
+    <row r="21" spans="2:3" x14ac:dyDescent="0.25">
       <c r="C21" t="s">
         <v>498</v>
       </c>
     </row>
-    <row r="22" spans="2:3">
+    <row r="22" spans="2:3" x14ac:dyDescent="0.25">
       <c r="C22" t="s">
         <v>499</v>
       </c>
@@ -6438,7 +6440,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:AP160"/>
   <sheetViews>
@@ -6446,34 +6448,34 @@
       <selection activeCell="L67" sqref="L67"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="10.7109375" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="10.140625" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="9.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B1" s="25" t="s">
         <v>495</v>
       </c>
     </row>
-    <row r="3" spans="1:10">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" s="18">
         <v>42502</v>
       </c>
     </row>
-    <row r="4" spans="1:10">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
         <v>168</v>
       </c>
     </row>
-    <row r="5" spans="1:10">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="C5" t="s">
         <v>169</v>
       </c>
     </row>
-    <row r="6" spans="1:10">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="C6" t="s">
         <v>180</v>
       </c>
@@ -6481,17 +6483,17 @@
         <v>181</v>
       </c>
     </row>
-    <row r="7" spans="1:10">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="J7" t="s">
         <v>182</v>
       </c>
     </row>
-    <row r="8" spans="1:10">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
         <v>171</v>
       </c>
     </row>
-    <row r="9" spans="1:10">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
         <v>179</v>
       </c>
@@ -6499,7 +6501,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="10" spans="1:10">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B10" t="s">
         <v>179</v>
       </c>
@@ -6507,32 +6509,32 @@
         <v>176</v>
       </c>
     </row>
-    <row r="11" spans="1:10">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="C11" t="s">
         <v>172</v>
       </c>
     </row>
-    <row r="12" spans="1:10">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="C12" t="s">
         <v>173</v>
       </c>
     </row>
-    <row r="13" spans="1:10">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="C13" t="s">
         <v>174</v>
       </c>
     </row>
-    <row r="15" spans="1:10">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="C15" s="1" t="s">
         <v>177</v>
       </c>
     </row>
-    <row r="16" spans="1:10">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="C16" s="1" t="s">
         <v>178</v>
       </c>
     </row>
-    <row r="19" spans="1:17">
+    <row r="19" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A19" s="18">
         <v>42499</v>
       </c>
@@ -6540,7 +6542,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:17">
+    <row r="20" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B20" t="s">
         <v>160</v>
       </c>
@@ -6548,7 +6550,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="21" spans="1:17">
+    <row r="21" spans="1:17" x14ac:dyDescent="0.25">
       <c r="C21" t="s">
         <v>161</v>
       </c>
@@ -6556,7 +6558,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="22" spans="1:17">
+    <row r="22" spans="1:17" x14ac:dyDescent="0.25">
       <c r="C22" t="s">
         <v>162</v>
       </c>
@@ -6564,12 +6566,12 @@
         <v>166</v>
       </c>
     </row>
-    <row r="23" spans="1:17">
+    <row r="23" spans="1:17" x14ac:dyDescent="0.25">
       <c r="C23" t="s">
         <v>167</v>
       </c>
     </row>
-    <row r="24" spans="1:17">
+    <row r="24" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B24" t="s">
         <v>164</v>
       </c>
@@ -6580,7 +6582,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="26" spans="1:17">
+    <row r="26" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A26" s="18">
         <v>42496</v>
       </c>
@@ -6594,7 +6596,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="27" spans="1:17">
+    <row r="27" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B27" t="s">
         <v>137</v>
       </c>
@@ -6602,7 +6604,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="28" spans="1:17">
+    <row r="28" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B28" t="s">
         <v>135</v>
       </c>
@@ -6613,7 +6615,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="30" spans="1:17">
+    <row r="30" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B30" t="s">
         <v>136</v>
       </c>
@@ -6624,12 +6626,12 @@
         <v>152</v>
       </c>
     </row>
-    <row r="31" spans="1:17">
+    <row r="31" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B31" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="32" spans="1:17">
+    <row r="32" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B32" t="s">
         <v>139</v>
       </c>
@@ -6637,12 +6639,12 @@
         <v>153</v>
       </c>
     </row>
-    <row r="34" spans="2:16">
+    <row r="34" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B34" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="35" spans="2:16">
+    <row r="35" spans="2:16" x14ac:dyDescent="0.25">
       <c r="C35" t="s">
         <v>140</v>
       </c>
@@ -6650,7 +6652,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="36" spans="2:16">
+    <row r="36" spans="2:16" x14ac:dyDescent="0.25">
       <c r="C36" t="s">
         <v>141</v>
       </c>
@@ -6658,7 +6660,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="38" spans="2:16">
+    <row r="38" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B38" t="s">
         <v>142</v>
       </c>
@@ -6666,47 +6668,47 @@
         <v>159</v>
       </c>
     </row>
-    <row r="40" spans="2:16">
+    <row r="40" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B40" t="s">
         <v>143</v>
       </c>
     </row>
-    <row r="41" spans="2:16">
+    <row r="41" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B41" t="s">
         <v>144</v>
       </c>
     </row>
-    <row r="43" spans="2:16">
+    <row r="43" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B43" t="s">
         <v>146</v>
       </c>
     </row>
-    <row r="44" spans="2:16">
+    <row r="44" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B44" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="45" spans="2:16">
+    <row r="45" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B45" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="47" spans="2:16">
+    <row r="47" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B47" t="s">
         <v>148</v>
       </c>
     </row>
-    <row r="52" spans="1:7">
+    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A52" s="18">
         <v>42494</v>
       </c>
     </row>
-    <row r="53" spans="1:7">
+    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B53" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="54" spans="1:7">
+    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C54" t="s">
         <v>1</v>
       </c>
@@ -6714,7 +6716,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="56" spans="1:7">
+    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C56" s="5" t="s">
         <v>3</v>
       </c>
@@ -6722,44 +6724,44 @@
         <v>123</v>
       </c>
     </row>
-    <row r="57" spans="1:7">
+    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
       <c r="D57" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="58" spans="1:7">
+    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
       <c r="E58" s="25" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="59" spans="1:7">
+    <row r="59" spans="1:7" x14ac:dyDescent="0.25">
       <c r="E59" s="25"/>
     </row>
-    <row r="60" spans="1:7">
+    <row r="60" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B60" s="5" t="s">
         <v>134</v>
       </c>
       <c r="E60" s="25"/>
     </row>
-    <row r="61" spans="1:7">
+    <row r="61" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C61" t="s">
         <v>124</v>
       </c>
       <c r="E61" s="25"/>
     </row>
-    <row r="62" spans="1:7">
+    <row r="62" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C62" t="s">
         <v>125</v>
       </c>
       <c r="E62" s="25"/>
     </row>
-    <row r="63" spans="1:7">
+    <row r="63" spans="1:7" x14ac:dyDescent="0.25">
       <c r="D63" t="s">
         <v>126</v>
       </c>
       <c r="E63" s="25"/>
     </row>
-    <row r="64" spans="1:7">
+    <row r="64" spans="1:7" x14ac:dyDescent="0.25">
       <c r="E64" s="26" t="s">
         <v>127</v>
       </c>
@@ -6770,7 +6772,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="65" spans="1:10">
+    <row r="65" spans="1:10" x14ac:dyDescent="0.25">
       <c r="E65" s="27">
         <v>1.1000000000000001</v>
       </c>
@@ -6781,7 +6783,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="66" spans="1:10">
+    <row r="66" spans="1:10" x14ac:dyDescent="0.25">
       <c r="E66" s="27">
         <v>1.1100000000000001</v>
       </c>
@@ -6798,7 +6800,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="67" spans="1:10">
+    <row r="67" spans="1:10" x14ac:dyDescent="0.25">
       <c r="E67" s="27">
         <v>1.3</v>
       </c>
@@ -6809,21 +6811,21 @@
         <v>1</v>
       </c>
     </row>
-    <row r="68" spans="1:10">
+    <row r="68" spans="1:10" x14ac:dyDescent="0.25">
       <c r="D68" t="s">
         <v>132</v>
       </c>
       <c r="E68" s="27"/>
     </row>
-    <row r="69" spans="1:10">
+    <row r="69" spans="1:10" x14ac:dyDescent="0.25">
       <c r="E69" s="27" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="70" spans="1:10">
+    <row r="70" spans="1:10" x14ac:dyDescent="0.25">
       <c r="E70" s="27"/>
     </row>
-    <row r="71" spans="1:10">
+    <row r="71" spans="1:10" x14ac:dyDescent="0.25">
       <c r="C71" t="s">
         <v>5</v>
       </c>
@@ -6831,57 +6833,57 @@
         <v>116</v>
       </c>
     </row>
-    <row r="73" spans="1:10">
+    <row r="73" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B73" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="74" spans="1:10">
+    <row r="74" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B74" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="76" spans="1:10">
+    <row r="76" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B76" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="77" spans="1:10">
+    <row r="77" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B77" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="79" spans="1:10">
+    <row r="79" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A79" s="18">
         <v>42488</v>
       </c>
     </row>
-    <row r="80" spans="1:10">
+    <row r="80" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B80" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="81" spans="1:42">
+    <row r="81" spans="1:42" x14ac:dyDescent="0.25">
       <c r="C81" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="82" spans="1:42">
+    <row r="82" spans="1:42" x14ac:dyDescent="0.25">
       <c r="C82" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="83" spans="1:42">
+    <row r="83" spans="1:42" x14ac:dyDescent="0.25">
       <c r="C83" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="84" spans="1:42">
+    <row r="84" spans="1:42" x14ac:dyDescent="0.25">
       <c r="C84" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="85" spans="1:42">
+    <row r="85" spans="1:42" x14ac:dyDescent="0.25">
       <c r="B85" s="5" t="s">
         <v>113</v>
       </c>
@@ -6894,12 +6896,12 @@
       <c r="I85" s="5"/>
       <c r="J85" s="5"/>
     </row>
-    <row r="87" spans="1:42">
+    <row r="87" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="89" spans="1:42">
+    <row r="89" spans="1:42" x14ac:dyDescent="0.25">
       <c r="B89" t="s">
         <v>1</v>
       </c>
@@ -6907,7 +6909,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="91" spans="1:42">
+    <row r="91" spans="1:42" x14ac:dyDescent="0.25">
       <c r="B91" t="s">
         <v>3</v>
       </c>
@@ -6915,12 +6917,12 @@
         <v>6</v>
       </c>
     </row>
-    <row r="92" spans="1:42">
+    <row r="92" spans="1:42" x14ac:dyDescent="0.25">
       <c r="C92" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="94" spans="1:42">
+    <row r="94" spans="1:42" x14ac:dyDescent="0.25">
       <c r="B94" t="s">
         <v>5</v>
       </c>
@@ -6928,12 +6930,12 @@
         <v>8</v>
       </c>
     </row>
-    <row r="95" spans="1:42">
+    <row r="95" spans="1:42" x14ac:dyDescent="0.25">
       <c r="C95" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="96" spans="1:42">
+    <row r="96" spans="1:42" x14ac:dyDescent="0.25">
       <c r="C96" s="6" t="s">
         <v>52</v>
       </c>
@@ -6967,7 +6969,7 @@
         <v>42483</v>
       </c>
     </row>
-    <row r="97" spans="2:42">
+    <row r="97" spans="2:42" x14ac:dyDescent="0.25">
       <c r="C97" s="6" t="s">
         <v>53</v>
       </c>
@@ -6999,7 +7001,7 @@
       <c r="AO97" s="5"/>
       <c r="AP97" s="5"/>
     </row>
-    <row r="98" spans="2:42">
+    <row r="98" spans="2:42" x14ac:dyDescent="0.25">
       <c r="C98" t="s">
         <v>14</v>
       </c>
@@ -7013,29 +7015,29 @@
       <c r="AO98" s="5"/>
       <c r="AP98" s="5"/>
     </row>
-    <row r="99" spans="2:42">
+    <row r="99" spans="2:42" x14ac:dyDescent="0.25">
       <c r="C99" s="1"/>
       <c r="D99" s="1" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="100" spans="2:42">
+    <row r="100" spans="2:42" x14ac:dyDescent="0.25">
       <c r="C100" s="1"/>
       <c r="D100" s="1" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="102" spans="2:42">
+    <row r="102" spans="2:42" x14ac:dyDescent="0.25">
       <c r="C102" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="103" spans="2:42">
+    <row r="103" spans="2:42" x14ac:dyDescent="0.25">
       <c r="C103" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="105" spans="2:42">
+    <row r="105" spans="2:42" x14ac:dyDescent="0.25">
       <c r="B105" t="s">
         <v>7</v>
       </c>
@@ -7043,12 +7045,12 @@
         <v>16</v>
       </c>
     </row>
-    <row r="107" spans="2:42">
+    <row r="107" spans="2:42" x14ac:dyDescent="0.25">
       <c r="C107" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="109" spans="2:42">
+    <row r="109" spans="2:42" x14ac:dyDescent="0.25">
       <c r="B109" t="s">
         <v>17</v>
       </c>
@@ -7056,7 +7058,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="110" spans="2:42">
+    <row r="110" spans="2:42" x14ac:dyDescent="0.25">
       <c r="D110" s="5" t="s">
         <v>50</v>
       </c>
@@ -7074,7 +7076,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="111" spans="2:42">
+    <row r="111" spans="2:42" x14ac:dyDescent="0.25">
       <c r="C111" t="s">
         <v>19</v>
       </c>
@@ -7082,12 +7084,12 @@
         <v>20</v>
       </c>
     </row>
-    <row r="112" spans="2:42">
+    <row r="112" spans="2:42" x14ac:dyDescent="0.25">
       <c r="D112" s="3" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="114" spans="1:24">
+    <row r="114" spans="1:24" x14ac:dyDescent="0.25">
       <c r="B114" t="s">
         <v>22</v>
       </c>
@@ -7095,12 +7097,12 @@
         <v>21</v>
       </c>
     </row>
-    <row r="116" spans="1:24">
+    <row r="116" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="117" spans="1:24">
+    <row r="117" spans="1:24" x14ac:dyDescent="0.25">
       <c r="B117" t="s">
         <v>48</v>
       </c>
@@ -7122,7 +7124,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="118" spans="1:24">
+    <row r="118" spans="1:24" x14ac:dyDescent="0.25">
       <c r="B118" t="s">
         <v>46</v>
       </c>
@@ -7136,7 +7138,7 @@
         <v>42480</v>
       </c>
     </row>
-    <row r="119" spans="1:24">
+    <row r="119" spans="1:24" x14ac:dyDescent="0.25">
       <c r="B119" t="s">
         <v>49</v>
       </c>
@@ -7150,14 +7152,14 @@
         <v>42480</v>
       </c>
     </row>
-    <row r="120" spans="1:24">
+    <row r="120" spans="1:24" x14ac:dyDescent="0.25">
       <c r="M120" s="6"/>
       <c r="N120" s="6"/>
       <c r="O120" s="6"/>
       <c r="P120" s="6"/>
       <c r="S120" s="8"/>
     </row>
-    <row r="121" spans="1:24">
+    <row r="121" spans="1:24" x14ac:dyDescent="0.25">
       <c r="F121" s="9" t="s">
         <v>69</v>
       </c>
@@ -7170,7 +7172,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="122" spans="1:24">
+    <row r="122" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
         <v>47</v>
       </c>
@@ -7193,7 +7195,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="123" spans="1:24">
+    <row r="123" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A123" s="4" t="s">
         <v>23</v>
       </c>
@@ -7213,7 +7215,7 @@
       <c r="O123" s="4"/>
       <c r="P123" s="4"/>
     </row>
-    <row r="124" spans="1:24">
+    <row r="124" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A124" s="4" t="s">
         <v>24</v>
       </c>
@@ -7233,7 +7235,7 @@
       <c r="O124" s="4"/>
       <c r="P124" s="4"/>
     </row>
-    <row r="125" spans="1:24">
+    <row r="125" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
         <v>25</v>
       </c>
@@ -7253,12 +7255,12 @@
       </c>
       <c r="V125" s="9"/>
     </row>
-    <row r="126" spans="1:24">
+    <row r="126" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="127" spans="1:24">
+    <row r="127" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A127" s="4" t="s">
         <v>42</v>
       </c>
@@ -7278,7 +7280,7 @@
       <c r="O127" s="4"/>
       <c r="P127" s="4"/>
     </row>
-    <row r="128" spans="1:24">
+    <row r="128" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A128" s="4" t="s">
         <v>27</v>
       </c>
@@ -7298,12 +7300,12 @@
       <c r="O128" s="4"/>
       <c r="P128" s="4"/>
     </row>
-    <row r="129" spans="1:16">
+    <row r="129" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="130" spans="1:16">
+    <row r="130" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A130" s="4" t="s">
         <v>45</v>
       </c>
@@ -7323,83 +7325,83 @@
       <c r="O130" s="4"/>
       <c r="P130" s="4"/>
     </row>
-    <row r="131" spans="1:16">
+    <row r="131" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="132" spans="1:16">
+    <row r="132" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="133" spans="1:16">
+    <row r="133" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="134" spans="1:16">
+    <row r="134" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="135" spans="1:16">
+    <row r="135" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="136" spans="1:16">
+    <row r="136" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="137" spans="1:16">
+    <row r="137" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="138" spans="1:16">
+    <row r="138" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="139" spans="1:16">
+    <row r="139" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="140" spans="1:16">
+    <row r="140" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="141" spans="1:16">
+    <row r="141" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="142" spans="1:16">
+    <row r="142" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="143" spans="1:16">
+    <row r="143" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="146" spans="1:11">
+    <row r="146" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A146" s="13" t="s">
         <v>70</v>
       </c>
       <c r="B146" s="13"/>
     </row>
-    <row r="147" spans="1:11">
+    <row r="147" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B147" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="148" spans="1:11">
+    <row r="148" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B148" s="5" t="s">
         <v>80</v>
       </c>
@@ -7409,32 +7411,32 @@
       <c r="D148" s="5"/>
       <c r="E148" s="5"/>
     </row>
-    <row r="149" spans="1:11">
+    <row r="149" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B149" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="150" spans="1:11">
+    <row r="150" spans="1:11" x14ac:dyDescent="0.25">
       <c r="C150" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="151" spans="1:11">
+    <row r="151" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B151" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="153" spans="1:11">
+    <row r="153" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B153" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="154" spans="1:11">
+    <row r="154" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B154" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="156" spans="1:11">
+    <row r="156" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B156" s="5" t="s">
         <v>84</v>
       </c>
@@ -7449,12 +7451,12 @@
         <v>42483</v>
       </c>
     </row>
-    <row r="159" spans="1:11">
+    <row r="159" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B159" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="160" spans="1:11">
+    <row r="160" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B160" t="s">
         <v>86</v>
       </c>
@@ -7470,7 +7472,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:R95"/>
   <sheetViews>
@@ -7478,7 +7480,7 @@
       <selection activeCell="H60" sqref="H60"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="5" style="10" customWidth="1"/>
     <col min="3" max="3" width="30.140625" bestFit="1" customWidth="1"/>
@@ -7493,7 +7495,7 @@
     <col min="12" max="12" width="14.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A1" s="7" t="s">
         <v>59</v>
       </c>
@@ -7502,7 +7504,7 @@
       <c r="D1" s="7"/>
       <c r="E1" s="11"/>
     </row>
-    <row r="2" spans="1:18">
+    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B2" s="17" t="s">
         <v>65</v>
       </c>
@@ -7540,7 +7542,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="3" spans="1:18">
+    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B3" s="14">
         <v>1</v>
       </c>
@@ -7584,7 +7586,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="4" spans="1:18">
+    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B4" s="14">
         <f>B3+1</f>
         <v>2</v>
@@ -7618,7 +7620,7 @@
       </c>
       <c r="L4" s="15"/>
     </row>
-    <row r="5" spans="1:18">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B5" s="14">
         <f t="shared" ref="B5:B19" si="0">B4+1</f>
         <v>3</v>
@@ -7652,7 +7654,7 @@
       </c>
       <c r="L5" s="15"/>
     </row>
-    <row r="6" spans="1:18">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B6" s="14">
         <f t="shared" si="0"/>
         <v>4</v>
@@ -7689,7 +7691,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="7" spans="1:18">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B7" s="14">
         <f t="shared" si="0"/>
         <v>5</v>
@@ -7730,7 +7732,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="8" spans="1:18">
+    <row r="8" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B8" s="14">
         <f t="shared" si="0"/>
         <v>6</v>
@@ -7772,7 +7774,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="9" spans="1:18">
+    <row r="9" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B9" s="14">
         <f t="shared" si="0"/>
         <v>7</v>
@@ -7812,7 +7814,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="10" spans="1:18">
+    <row r="10" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B10" s="14">
         <f t="shared" si="0"/>
         <v>8</v>
@@ -7852,7 +7854,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="11" spans="1:18">
+    <row r="11" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B11" s="14">
         <f t="shared" si="0"/>
         <v>9</v>
@@ -7868,7 +7870,7 @@
       <c r="K11" s="15"/>
       <c r="L11" s="15"/>
     </row>
-    <row r="12" spans="1:18">
+    <row r="12" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B12" s="14">
         <f t="shared" si="0"/>
         <v>10</v>
@@ -7884,7 +7886,7 @@
       <c r="K12" s="15"/>
       <c r="L12" s="15"/>
     </row>
-    <row r="13" spans="1:18">
+    <row r="13" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B13" s="14">
         <f t="shared" si="0"/>
         <v>11</v>
@@ -7900,7 +7902,7 @@
       <c r="K13" s="15"/>
       <c r="L13" s="15"/>
     </row>
-    <row r="14" spans="1:18">
+    <row r="14" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B14" s="14">
         <f t="shared" si="0"/>
         <v>12</v>
@@ -7916,7 +7918,7 @@
       <c r="K14" s="15"/>
       <c r="L14" s="15"/>
     </row>
-    <row r="15" spans="1:18">
+    <row r="15" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B15" s="14">
         <f t="shared" si="0"/>
         <v>13</v>
@@ -7932,7 +7934,7 @@
       <c r="K15" s="15"/>
       <c r="L15" s="15"/>
     </row>
-    <row r="16" spans="1:18">
+    <row r="16" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B16" s="14">
         <f t="shared" si="0"/>
         <v>14</v>
@@ -7948,7 +7950,7 @@
       <c r="K16" s="15"/>
       <c r="L16" s="15"/>
     </row>
-    <row r="17" spans="2:12">
+    <row r="17" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B17" s="14">
         <f t="shared" si="0"/>
         <v>15</v>
@@ -7964,7 +7966,7 @@
       <c r="K17" s="15"/>
       <c r="L17" s="15"/>
     </row>
-    <row r="18" spans="2:12">
+    <row r="18" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B18" s="14">
         <f t="shared" si="0"/>
         <v>16</v>
@@ -7980,7 +7982,7 @@
       <c r="K18" s="15"/>
       <c r="L18" s="15"/>
     </row>
-    <row r="19" spans="2:12">
+    <row r="19" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B19" s="14">
         <f t="shared" si="0"/>
         <v>17</v>
@@ -7996,12 +7998,12 @@
       <c r="K19" s="15"/>
       <c r="L19" s="15"/>
     </row>
-    <row r="22" spans="2:12">
+    <row r="22" spans="2:12" x14ac:dyDescent="0.25">
       <c r="C22" t="s">
         <v>183</v>
       </c>
     </row>
-    <row r="23" spans="2:12">
+    <row r="23" spans="2:12" x14ac:dyDescent="0.25">
       <c r="C23" t="s">
         <v>184</v>
       </c>
@@ -8020,7 +8022,7 @@
       </c>
       <c r="L23" s="51"/>
     </row>
-    <row r="24" spans="2:12">
+    <row r="24" spans="2:12" x14ac:dyDescent="0.25">
       <c r="G24" s="53"/>
       <c r="H24" s="55"/>
       <c r="I24" s="14" t="s">
@@ -8036,7 +8038,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="25" spans="2:12">
+    <row r="25" spans="2:12" x14ac:dyDescent="0.25">
       <c r="G25" s="33" t="s">
         <v>110</v>
       </c>
@@ -8052,7 +8054,7 @@
       <c r="K25" s="32"/>
       <c r="L25" s="32"/>
     </row>
-    <row r="26" spans="2:12">
+    <row r="26" spans="2:12" x14ac:dyDescent="0.25">
       <c r="G26" s="37"/>
       <c r="H26" s="38"/>
       <c r="I26" s="32">
@@ -8064,7 +8066,7 @@
       <c r="K26" s="32"/>
       <c r="L26" s="32"/>
     </row>
-    <row r="27" spans="2:12">
+    <row r="27" spans="2:12" x14ac:dyDescent="0.25">
       <c r="G27" s="37"/>
       <c r="H27" s="38"/>
       <c r="I27" s="32">
@@ -8076,7 +8078,7 @@
       <c r="K27" s="32"/>
       <c r="L27" s="32"/>
     </row>
-    <row r="28" spans="2:12">
+    <row r="28" spans="2:12" x14ac:dyDescent="0.25">
       <c r="G28" s="37"/>
       <c r="H28" s="38"/>
       <c r="I28" s="32">
@@ -8088,7 +8090,7 @@
       <c r="K28" s="32"/>
       <c r="L28" s="32"/>
     </row>
-    <row r="29" spans="2:12">
+    <row r="29" spans="2:12" x14ac:dyDescent="0.25">
       <c r="G29" s="37"/>
       <c r="H29" s="38"/>
       <c r="I29" s="32"/>
@@ -8096,7 +8098,7 @@
       <c r="K29" s="32"/>
       <c r="L29" s="32"/>
     </row>
-    <row r="30" spans="2:12">
+    <row r="30" spans="2:12" x14ac:dyDescent="0.25">
       <c r="G30" s="37"/>
       <c r="H30" s="38"/>
       <c r="I30" s="32"/>
@@ -8104,7 +8106,7 @@
       <c r="K30" s="32"/>
       <c r="L30" s="32"/>
     </row>
-    <row r="31" spans="2:12">
+    <row r="31" spans="2:12" x14ac:dyDescent="0.25">
       <c r="G31" s="35"/>
       <c r="H31" s="36"/>
       <c r="I31" s="32"/>
@@ -8112,7 +8114,7 @@
       <c r="K31" s="32"/>
       <c r="L31" s="32"/>
     </row>
-    <row r="32" spans="2:12">
+    <row r="32" spans="2:12" x14ac:dyDescent="0.25">
       <c r="G32" s="15" t="s">
         <v>109</v>
       </c>
@@ -8122,7 +8124,7 @@
       <c r="K32" s="32"/>
       <c r="L32" s="32"/>
     </row>
-    <row r="33" spans="1:12">
+    <row r="33" spans="1:12" x14ac:dyDescent="0.25">
       <c r="G33" s="15"/>
       <c r="H33" s="32"/>
       <c r="I33" s="32"/>
@@ -8130,7 +8132,7 @@
       <c r="K33" s="32"/>
       <c r="L33" s="32"/>
     </row>
-    <row r="34" spans="1:12">
+    <row r="34" spans="1:12" x14ac:dyDescent="0.25">
       <c r="G34" s="15"/>
       <c r="H34" s="32"/>
       <c r="I34" s="32"/>
@@ -8138,7 +8140,7 @@
       <c r="K34" s="32"/>
       <c r="L34" s="32"/>
     </row>
-    <row r="35" spans="1:12">
+    <row r="35" spans="1:12" x14ac:dyDescent="0.25">
       <c r="G35" s="15"/>
       <c r="H35" s="32"/>
       <c r="I35" s="32"/>
@@ -8146,7 +8148,7 @@
       <c r="K35" s="32"/>
       <c r="L35" s="32"/>
     </row>
-    <row r="36" spans="1:12">
+    <row r="36" spans="1:12" x14ac:dyDescent="0.25">
       <c r="G36" s="15" t="s">
         <v>195</v>
       </c>
@@ -8166,7 +8168,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="1:12">
+    <row r="37" spans="1:12" x14ac:dyDescent="0.25">
       <c r="G37" s="15"/>
       <c r="H37" s="32"/>
       <c r="I37" s="32">
@@ -8182,7 +8184,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="38" spans="1:12">
+    <row r="38" spans="1:12" x14ac:dyDescent="0.25">
       <c r="G38" s="15"/>
       <c r="H38" s="32"/>
       <c r="I38" s="32"/>
@@ -8194,7 +8196,7 @@
         <v>462</v>
       </c>
     </row>
-    <row r="39" spans="1:12">
+    <row r="39" spans="1:12" x14ac:dyDescent="0.25">
       <c r="G39" s="15"/>
       <c r="H39" s="32"/>
       <c r="I39" s="32"/>
@@ -8206,7 +8208,7 @@
         <v>57595</v>
       </c>
     </row>
-    <row r="40" spans="1:12">
+    <row r="40" spans="1:12" x14ac:dyDescent="0.25">
       <c r="G40" s="15" t="s">
         <v>111</v>
       </c>
@@ -8216,7 +8218,7 @@
       <c r="K40" s="32"/>
       <c r="L40" s="32"/>
     </row>
-    <row r="41" spans="1:12">
+    <row r="41" spans="1:12" x14ac:dyDescent="0.25">
       <c r="G41" s="15"/>
       <c r="H41" s="32"/>
       <c r="I41" s="32"/>
@@ -8224,14 +8226,14 @@
       <c r="K41" s="32"/>
       <c r="L41" s="32"/>
     </row>
-    <row r="42" spans="1:12">
+    <row r="42" spans="1:12" x14ac:dyDescent="0.25">
       <c r="H42" s="31"/>
       <c r="I42" s="31"/>
       <c r="J42" s="31"/>
       <c r="K42" s="31"/>
       <c r="L42" s="31"/>
     </row>
-    <row r="43" spans="1:12">
+    <row r="43" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>198</v>
       </c>
@@ -8241,7 +8243,7 @@
       <c r="K43" s="31"/>
       <c r="L43" s="31"/>
     </row>
-    <row r="44" spans="1:12">
+    <row r="44" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C44" t="s">
         <v>199</v>
       </c>
@@ -8251,7 +8253,7 @@
       <c r="K44" s="31"/>
       <c r="L44" s="31"/>
     </row>
-    <row r="45" spans="1:12">
+    <row r="45" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C45" t="s">
         <v>200</v>
       </c>
@@ -8262,7 +8264,7 @@
       <c r="I45" s="30"/>
       <c r="J45" s="30"/>
     </row>
-    <row r="46" spans="1:12">
+    <row r="46" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C46" t="s">
         <v>202</v>
       </c>
@@ -8270,7 +8272,7 @@
       <c r="I46" s="30"/>
       <c r="J46" s="30"/>
     </row>
-    <row r="47" spans="1:12">
+    <row r="47" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C47" t="s">
         <v>208</v>
       </c>
@@ -8281,17 +8283,17 @@
       <c r="I47" s="30"/>
       <c r="J47" s="30"/>
     </row>
-    <row r="48" spans="1:12">
+    <row r="48" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C48" t="s">
         <v>212</v>
       </c>
     </row>
-    <row r="50" spans="1:10">
+    <row r="50" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>203</v>
       </c>
     </row>
-    <row r="51" spans="1:10">
+    <row r="51" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>158</v>
       </c>
@@ -8299,7 +8301,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="52" spans="1:10">
+    <row r="52" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>158</v>
       </c>
@@ -8316,7 +8318,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="53" spans="1:10">
+    <row r="53" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B53" s="39" t="s">
         <v>206</v>
       </c>
@@ -8324,41 +8326,41 @@
         <v>211</v>
       </c>
     </row>
-    <row r="54" spans="1:10">
+    <row r="54" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B54" s="39" t="s">
         <v>213</v>
       </c>
     </row>
-    <row r="55" spans="1:10">
+    <row r="55" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B55" s="39" t="s">
         <v>214</v>
       </c>
     </row>
-    <row r="56" spans="1:10">
+    <row r="56" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B56" s="39"/>
       <c r="J56" s="40"/>
     </row>
-    <row r="57" spans="1:10">
+    <row r="57" spans="1:10" x14ac:dyDescent="0.25">
       <c r="J57" s="40"/>
     </row>
-    <row r="58" spans="1:10">
+    <row r="58" spans="1:10" x14ac:dyDescent="0.25">
       <c r="H58"/>
       <c r="J58" s="40"/>
     </row>
-    <row r="59" spans="1:10">
+    <row r="59" spans="1:10" x14ac:dyDescent="0.25">
       <c r="H59"/>
       <c r="J59" s="40"/>
     </row>
-    <row r="60" spans="1:10">
+    <row r="60" spans="1:10" x14ac:dyDescent="0.25">
       <c r="H60"/>
     </row>
-    <row r="61" spans="1:10">
+    <row r="61" spans="1:10" x14ac:dyDescent="0.25">
       <c r="H61"/>
     </row>
-    <row r="62" spans="1:10">
+    <row r="62" spans="1:10" x14ac:dyDescent="0.25">
       <c r="H62"/>
     </row>
-    <row r="95" spans="16:16">
+    <row r="95" spans="16:16" x14ac:dyDescent="0.25">
       <c r="P95" s="41"/>
     </row>
   </sheetData>
@@ -8375,7 +8377,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet3"/>
   <dimension ref="A1:AH18"/>
   <sheetViews>
@@ -8383,22 +8385,22 @@
       <selection activeCell="AD44" sqref="AD44"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="16384" width="9.140625" style="42"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:34">
+    <row r="1" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A1" s="43" t="s">
         <v>219</v>
       </c>
     </row>
-    <row r="2" spans="1:34">
+    <row r="2" spans="1:34" x14ac:dyDescent="0.25">
       <c r="O2" s="42" t="s">
         <v>215</v>
       </c>
     </row>
-    <row r="3" spans="1:34">
+    <row r="3" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A3" s="42" t="s">
         <v>220</v>
       </c>
@@ -8406,7 +8408,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="4" spans="1:34">
+    <row r="4" spans="1:34" x14ac:dyDescent="0.25">
       <c r="P4" s="42" t="s">
         <v>218</v>
       </c>
@@ -8420,12 +8422,12 @@
       <c r="AG4" s="5"/>
       <c r="AH4" s="5"/>
     </row>
-    <row r="5" spans="1:34">
+    <row r="5" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A5" s="42" t="s">
         <v>221</v>
       </c>
     </row>
-    <row r="6" spans="1:34">
+    <row r="6" spans="1:34" x14ac:dyDescent="0.25">
       <c r="B6" s="42" t="s">
         <v>224</v>
       </c>
@@ -8433,42 +8435,42 @@
         <v>225</v>
       </c>
     </row>
-    <row r="7" spans="1:34">
+    <row r="7" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A7" s="42" t="s">
         <v>222</v>
       </c>
     </row>
-    <row r="8" spans="1:34">
+    <row r="8" spans="1:34" x14ac:dyDescent="0.25">
       <c r="B8" s="42" t="s">
         <v>223</v>
       </c>
     </row>
-    <row r="12" spans="1:34">
+    <row r="12" spans="1:34" x14ac:dyDescent="0.25">
       <c r="O12" s="42" t="s">
         <v>216</v>
       </c>
     </row>
-    <row r="13" spans="1:34">
+    <row r="13" spans="1:34" x14ac:dyDescent="0.25">
       <c r="P13" s="42" t="s">
         <v>217</v>
       </c>
     </row>
-    <row r="14" spans="1:34">
+    <row r="14" spans="1:34" x14ac:dyDescent="0.25">
       <c r="Q14" s="42" t="s">
         <v>226</v>
       </c>
     </row>
-    <row r="16" spans="1:34">
+    <row r="16" spans="1:34" x14ac:dyDescent="0.25">
       <c r="P16" s="42" t="s">
         <v>227</v>
       </c>
     </row>
-    <row r="17" spans="4:16">
+    <row r="17" spans="4:16" x14ac:dyDescent="0.25">
       <c r="P17" s="42" t="s">
         <v>228</v>
       </c>
     </row>
-    <row r="18" spans="4:16">
+    <row r="18" spans="4:16" x14ac:dyDescent="0.25">
       <c r="D18" s="44"/>
     </row>
   </sheetData>
@@ -8479,7 +8481,7 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet4"/>
   <dimension ref="A1:AF109"/>
   <sheetViews>
@@ -8487,14 +8489,14 @@
       <selection activeCell="G52" sqref="G52"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:31">
+    <row r="1" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>230</v>
       </c>
     </row>
-    <row r="2" spans="1:31">
+    <row r="2" spans="1:31" x14ac:dyDescent="0.25">
       <c r="B2" s="25" t="s">
         <v>229</v>
       </c>
@@ -8502,7 +8504,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="4" spans="1:31">
+    <row r="4" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>231</v>
       </c>
@@ -8510,7 +8512,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="7" spans="1:31">
+    <row r="7" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>234</v>
       </c>
@@ -8518,7 +8520,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="8" spans="1:31">
+    <row r="8" spans="1:31" x14ac:dyDescent="0.25">
       <c r="B8" s="25" t="s">
         <v>233</v>
       </c>
@@ -8534,7 +8536,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="9" spans="1:31">
+    <row r="9" spans="1:31" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
         <v>235</v>
       </c>
@@ -8548,7 +8550,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="10" spans="1:31">
+    <row r="10" spans="1:31" x14ac:dyDescent="0.25">
       <c r="C10" s="3" t="s">
         <v>236</v>
       </c>
@@ -8562,7 +8564,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="11" spans="1:31">
+    <row r="11" spans="1:31" x14ac:dyDescent="0.25">
       <c r="C11" s="3" t="s">
         <v>237</v>
       </c>
@@ -8580,7 +8582,7 @@
       </c>
       <c r="AE11" s="5"/>
     </row>
-    <row r="12" spans="1:31">
+    <row r="12" spans="1:31" x14ac:dyDescent="0.25">
       <c r="R12" t="s">
         <v>252</v>
       </c>
@@ -8591,7 +8593,7 @@
         <v>287</v>
       </c>
     </row>
-    <row r="13" spans="1:31">
+    <row r="13" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>239</v>
       </c>
@@ -8605,7 +8607,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="14" spans="1:31">
+    <row r="14" spans="1:31" x14ac:dyDescent="0.25">
       <c r="B14" s="4" t="s">
         <v>240</v>
       </c>
@@ -8628,7 +8630,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="15" spans="1:31">
+    <row r="15" spans="1:31" x14ac:dyDescent="0.25">
       <c r="C15" t="s">
         <v>244</v>
       </c>
@@ -8648,7 +8650,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="16" spans="1:31">
+    <row r="16" spans="1:31" x14ac:dyDescent="0.25">
       <c r="C16" t="s">
         <v>246</v>
       </c>
@@ -8665,7 +8667,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="17" spans="1:32">
+    <row r="17" spans="1:32" x14ac:dyDescent="0.25">
       <c r="B17" s="4" t="s">
         <v>241</v>
       </c>
@@ -8690,7 +8692,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="18" spans="1:32">
+    <row r="18" spans="1:32" x14ac:dyDescent="0.25">
       <c r="C18" t="s">
         <v>247</v>
       </c>
@@ -8704,7 +8706,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="19" spans="1:32">
+    <row r="19" spans="1:32" x14ac:dyDescent="0.25">
       <c r="R19" t="s">
         <v>259</v>
       </c>
@@ -8712,7 +8714,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="20" spans="1:32">
+    <row r="20" spans="1:32" x14ac:dyDescent="0.25">
       <c r="R20" t="s">
         <v>260</v>
       </c>
@@ -8723,12 +8725,12 @@
         <v>295</v>
       </c>
     </row>
-    <row r="21" spans="1:32">
+    <row r="21" spans="1:32" x14ac:dyDescent="0.25">
       <c r="R21" t="s">
         <v>261</v>
       </c>
     </row>
-    <row r="22" spans="1:32">
+    <row r="22" spans="1:32" x14ac:dyDescent="0.25">
       <c r="B22" t="s">
         <v>242</v>
       </c>
@@ -8742,7 +8744,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="23" spans="1:32">
+    <row r="23" spans="1:32" x14ac:dyDescent="0.25">
       <c r="R23" t="s">
         <v>263</v>
       </c>
@@ -8750,7 +8752,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="24" spans="1:32">
+    <row r="24" spans="1:32" x14ac:dyDescent="0.25">
       <c r="R24" t="s">
         <v>264</v>
       </c>
@@ -8758,7 +8760,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="25" spans="1:32">
+    <row r="25" spans="1:32" x14ac:dyDescent="0.25">
       <c r="R25" t="s">
         <v>265</v>
       </c>
@@ -8768,7 +8770,7 @@
       <c r="AE25" s="5"/>
       <c r="AF25" s="5"/>
     </row>
-    <row r="26" spans="1:32">
+    <row r="26" spans="1:32" x14ac:dyDescent="0.25">
       <c r="R26" t="s">
         <v>266</v>
       </c>
@@ -8776,7 +8778,7 @@
         <v>298</v>
       </c>
     </row>
-    <row r="27" spans="1:32">
+    <row r="27" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A27" s="13" t="s">
         <v>305</v>
       </c>
@@ -8792,7 +8794,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="28" spans="1:32">
+    <row r="28" spans="1:32" x14ac:dyDescent="0.25">
       <c r="B28" t="s">
         <v>306</v>
       </c>
@@ -8803,7 +8805,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="29" spans="1:32">
+    <row r="29" spans="1:32" x14ac:dyDescent="0.25">
       <c r="B29" t="s">
         <v>307</v>
       </c>
@@ -8814,7 +8816,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="30" spans="1:32">
+    <row r="30" spans="1:32" x14ac:dyDescent="0.25">
       <c r="B30" t="s">
         <v>308</v>
       </c>
@@ -8825,7 +8827,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="31" spans="1:32">
+    <row r="31" spans="1:32" x14ac:dyDescent="0.25">
       <c r="C31" t="s">
         <v>309</v>
       </c>
@@ -8833,7 +8835,7 @@
         <v>302</v>
       </c>
     </row>
-    <row r="32" spans="1:32">
+    <row r="32" spans="1:32" x14ac:dyDescent="0.25">
       <c r="C32" t="s">
         <v>310</v>
       </c>
@@ -8841,7 +8843,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="33" spans="1:30">
+    <row r="33" spans="1:30" x14ac:dyDescent="0.25">
       <c r="B33" t="s">
         <v>311</v>
       </c>
@@ -8849,7 +8851,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="34" spans="1:30">
+    <row r="34" spans="1:30" x14ac:dyDescent="0.25">
       <c r="B34" t="s">
         <v>312</v>
       </c>
@@ -8857,72 +8859,72 @@
         <v>295</v>
       </c>
     </row>
-    <row r="35" spans="1:30">
+    <row r="35" spans="1:30" x14ac:dyDescent="0.25">
       <c r="C35" t="s">
         <v>313</v>
       </c>
     </row>
-    <row r="36" spans="1:30">
+    <row r="36" spans="1:30" x14ac:dyDescent="0.25">
       <c r="D36" t="s">
         <v>314</v>
       </c>
     </row>
-    <row r="37" spans="1:30">
+    <row r="37" spans="1:30" x14ac:dyDescent="0.25">
       <c r="D37" t="s">
         <v>315</v>
       </c>
     </row>
-    <row r="38" spans="1:30">
+    <row r="38" spans="1:30" x14ac:dyDescent="0.25">
       <c r="C38" t="s">
         <v>311</v>
       </c>
     </row>
-    <row r="39" spans="1:30">
+    <row r="39" spans="1:30" x14ac:dyDescent="0.25">
       <c r="C39" t="s">
         <v>316</v>
       </c>
     </row>
-    <row r="40" spans="1:30">
+    <row r="40" spans="1:30" x14ac:dyDescent="0.25">
       <c r="D40" t="s">
         <v>314</v>
       </c>
     </row>
-    <row r="41" spans="1:30">
+    <row r="41" spans="1:30" x14ac:dyDescent="0.25">
       <c r="D41" t="s">
         <v>315</v>
       </c>
     </row>
-    <row r="42" spans="1:30">
+    <row r="42" spans="1:30" x14ac:dyDescent="0.25">
       <c r="C42" t="s">
         <v>311</v>
       </c>
     </row>
-    <row r="43" spans="1:30">
+    <row r="43" spans="1:30" x14ac:dyDescent="0.25">
       <c r="C43" t="s">
         <v>317</v>
       </c>
     </row>
-    <row r="44" spans="1:30">
+    <row r="44" spans="1:30" x14ac:dyDescent="0.25">
       <c r="C44" t="s">
         <v>318</v>
       </c>
     </row>
-    <row r="45" spans="1:30">
+    <row r="45" spans="1:30" x14ac:dyDescent="0.25">
       <c r="C45" t="s">
         <v>319</v>
       </c>
     </row>
-    <row r="46" spans="1:30">
+    <row r="46" spans="1:30" x14ac:dyDescent="0.25">
       <c r="B46" t="s">
         <v>311</v>
       </c>
     </row>
-    <row r="47" spans="1:30">
+    <row r="47" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>311</v>
       </c>
     </row>
-    <row r="49" spans="1:7">
+    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A49" s="13" t="s">
         <v>320</v>
       </c>
@@ -8932,17 +8934,17 @@
       <c r="E49" s="13"/>
       <c r="F49" s="13"/>
     </row>
-    <row r="50" spans="1:7">
+    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B50" t="s">
         <v>321</v>
       </c>
     </row>
-    <row r="51" spans="1:7">
+    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B51" t="s">
         <v>322</v>
       </c>
     </row>
-    <row r="52" spans="1:7">
+    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B52" s="5" t="s">
         <v>323</v>
       </c>
@@ -8951,32 +8953,32 @@
         <v>324</v>
       </c>
     </row>
-    <row r="53" spans="1:7">
+    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C53" t="s">
         <v>325</v>
       </c>
     </row>
-    <row r="54" spans="1:7">
+    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
       <c r="D54" t="s">
         <v>326</v>
       </c>
     </row>
-    <row r="55" spans="1:7">
+    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
       <c r="E55" t="s">
         <v>327</v>
       </c>
     </row>
-    <row r="56" spans="1:7">
+    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B56" t="s">
         <v>322</v>
       </c>
     </row>
-    <row r="57" spans="1:7">
+    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>311</v>
       </c>
     </row>
-    <row r="59" spans="1:7">
+    <row r="59" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A59" s="13" t="s">
         <v>328</v>
       </c>
@@ -8986,62 +8988,62 @@
       <c r="E59" s="13"/>
       <c r="F59" s="13"/>
     </row>
-    <row r="60" spans="1:7">
+    <row r="60" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>329</v>
       </c>
     </row>
-    <row r="61" spans="1:7">
+    <row r="61" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>330</v>
       </c>
     </row>
-    <row r="62" spans="1:7">
+    <row r="62" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>331</v>
       </c>
     </row>
-    <row r="63" spans="1:7">
+    <row r="63" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>332</v>
       </c>
     </row>
-    <row r="64" spans="1:7">
+    <row r="64" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>333</v>
       </c>
     </row>
-    <row r="65" spans="1:9">
+    <row r="65" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>334</v>
       </c>
     </row>
-    <row r="66" spans="1:9">
+    <row r="66" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>335</v>
       </c>
     </row>
-    <row r="67" spans="1:9">
+    <row r="67" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>334</v>
       </c>
     </row>
-    <row r="68" spans="1:9">
+    <row r="68" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>336</v>
       </c>
     </row>
-    <row r="69" spans="1:9">
+    <row r="69" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>337</v>
       </c>
     </row>
-    <row r="70" spans="1:9">
+    <row r="70" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>338</v>
       </c>
     </row>
-    <row r="71" spans="1:9">
+    <row r="71" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>339</v>
       </c>
@@ -9049,7 +9051,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="72" spans="1:9">
+    <row r="72" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>340</v>
       </c>
@@ -9057,182 +9059,182 @@
         <v>372</v>
       </c>
     </row>
-    <row r="73" spans="1:9">
+    <row r="73" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>341</v>
       </c>
     </row>
-    <row r="74" spans="1:9">
+    <row r="74" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>342</v>
       </c>
     </row>
-    <row r="75" spans="1:9">
+    <row r="75" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>343</v>
       </c>
     </row>
-    <row r="76" spans="1:9">
+    <row r="76" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>344</v>
       </c>
     </row>
-    <row r="77" spans="1:9">
+    <row r="77" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
         <v>345</v>
       </c>
     </row>
-    <row r="78" spans="1:9">
+    <row r="78" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
         <v>341</v>
       </c>
     </row>
-    <row r="79" spans="1:9">
+    <row r="79" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
         <v>346</v>
       </c>
     </row>
-    <row r="80" spans="1:9">
+    <row r="80" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
         <v>347</v>
       </c>
     </row>
-    <row r="81" spans="1:1">
+    <row r="81" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
         <v>348</v>
       </c>
     </row>
-    <row r="82" spans="1:1">
+    <row r="82" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
         <v>349</v>
       </c>
     </row>
-    <row r="83" spans="1:1">
+    <row r="83" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
         <v>350</v>
       </c>
     </row>
-    <row r="84" spans="1:1">
+    <row r="84" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
         <v>351</v>
       </c>
     </row>
-    <row r="85" spans="1:1">
+    <row r="85" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
         <v>352</v>
       </c>
     </row>
-    <row r="86" spans="1:1">
+    <row r="86" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
         <v>348</v>
       </c>
     </row>
-    <row r="87" spans="1:1">
+    <row r="87" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
         <v>353</v>
       </c>
     </row>
-    <row r="88" spans="1:1">
+    <row r="88" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
         <v>354</v>
       </c>
     </row>
-    <row r="89" spans="1:1">
+    <row r="89" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
         <v>355</v>
       </c>
     </row>
-    <row r="90" spans="1:1">
+    <row r="90" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
         <v>356</v>
       </c>
     </row>
-    <row r="91" spans="1:1">
+    <row r="91" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
         <v>357</v>
       </c>
     </row>
-    <row r="92" spans="1:1">
+    <row r="92" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
         <v>358</v>
       </c>
     </row>
-    <row r="93" spans="1:1">
+    <row r="93" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
         <v>359</v>
       </c>
     </row>
-    <row r="94" spans="1:1">
+    <row r="94" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
         <v>360</v>
       </c>
     </row>
-    <row r="95" spans="1:1">
+    <row r="95" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
         <v>361</v>
       </c>
     </row>
-    <row r="96" spans="1:1">
+    <row r="96" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
         <v>362</v>
       </c>
     </row>
-    <row r="97" spans="1:1">
+    <row r="97" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
         <v>363</v>
       </c>
     </row>
-    <row r="98" spans="1:1">
+    <row r="98" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
         <v>351</v>
       </c>
     </row>
-    <row r="99" spans="1:1">
+    <row r="99" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
         <v>344</v>
       </c>
     </row>
-    <row r="100" spans="1:1">
+    <row r="100" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
         <v>364</v>
       </c>
     </row>
-    <row r="101" spans="1:1">
+    <row r="101" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
         <v>365</v>
       </c>
     </row>
-    <row r="102" spans="1:1">
+    <row r="102" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
         <v>338</v>
       </c>
     </row>
-    <row r="103" spans="1:1">
+    <row r="103" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
         <v>366</v>
       </c>
     </row>
-    <row r="104" spans="1:1">
+    <row r="104" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
         <v>367</v>
       </c>
     </row>
-    <row r="105" spans="1:1">
+    <row r="105" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
         <v>364</v>
       </c>
     </row>
-    <row r="107" spans="1:1">
+    <row r="107" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
         <v>368</v>
       </c>
     </row>
-    <row r="108" spans="1:1">
+    <row r="108" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
         <v>369</v>
       </c>
     </row>
-    <row r="109" spans="1:1">
+    <row r="109" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
         <v>370</v>
       </c>
@@ -9247,16 +9249,16 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Z133"/>
   <sheetViews>
     <sheetView topLeftCell="A70" workbookViewId="0">
       <selection activeCell="A57" sqref="A57:F122"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:25">
+    <row r="1" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A1" s="46" t="s">
         <v>375</v>
       </c>
@@ -9265,12 +9267,12 @@
       <c r="D1" s="46"/>
       <c r="E1" s="46"/>
     </row>
-    <row r="3" spans="1:25">
+    <row r="3" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>413</v>
       </c>
     </row>
-    <row r="5" spans="1:25">
+    <row r="5" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>414</v>
       </c>
@@ -9278,7 +9280,7 @@
         <v>448</v>
       </c>
     </row>
-    <row r="6" spans="1:25">
+    <row r="6" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>420</v>
       </c>
@@ -9286,7 +9288,7 @@
         <v>446</v>
       </c>
     </row>
-    <row r="7" spans="1:25">
+    <row r="7" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>378</v>
       </c>
@@ -9294,7 +9296,7 @@
         <v>447</v>
       </c>
     </row>
-    <row r="8" spans="1:25">
+    <row r="8" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
         <v>409</v>
       </c>
@@ -9305,7 +9307,7 @@
         <v>452</v>
       </c>
     </row>
-    <row r="9" spans="1:25">
+    <row r="9" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
         <v>415</v>
       </c>
@@ -9316,12 +9318,12 @@
         <v>453</v>
       </c>
     </row>
-    <row r="10" spans="1:25">
+    <row r="10" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B10" t="s">
         <v>410</v>
       </c>
     </row>
-    <row r="11" spans="1:25">
+    <row r="11" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B11" t="s">
         <v>416</v>
       </c>
@@ -9329,17 +9331,17 @@
         <v>451</v>
       </c>
     </row>
-    <row r="13" spans="1:25">
+    <row r="13" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B13" t="s">
         <v>417</v>
       </c>
     </row>
-    <row r="14" spans="1:25">
+    <row r="14" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B14" t="s">
         <v>378</v>
       </c>
     </row>
-    <row r="15" spans="1:25">
+    <row r="15" spans="1:25" x14ac:dyDescent="0.25">
       <c r="C15" t="s">
         <v>411</v>
       </c>
@@ -9347,7 +9349,7 @@
         <v>442</v>
       </c>
     </row>
-    <row r="16" spans="1:25">
+    <row r="16" spans="1:25" x14ac:dyDescent="0.25">
       <c r="C16" t="s">
         <v>418</v>
       </c>
@@ -9355,7 +9357,7 @@
         <v>443</v>
       </c>
     </row>
-    <row r="17" spans="1:26">
+    <row r="17" spans="1:26" x14ac:dyDescent="0.25">
       <c r="C17" t="s">
         <v>412</v>
       </c>
@@ -9363,7 +9365,7 @@
         <v>444</v>
       </c>
     </row>
-    <row r="18" spans="1:26">
+    <row r="18" spans="1:26" x14ac:dyDescent="0.25">
       <c r="C18" t="s">
         <v>419</v>
       </c>
@@ -9371,17 +9373,17 @@
         <v>445</v>
       </c>
     </row>
-    <row r="19" spans="1:26">
+    <row r="19" spans="1:26" x14ac:dyDescent="0.25">
       <c r="B19" t="s">
         <v>311</v>
       </c>
     </row>
-    <row r="20" spans="1:26">
+    <row r="20" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>311</v>
       </c>
     </row>
-    <row r="22" spans="1:26">
+    <row r="22" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>437</v>
       </c>
@@ -9395,7 +9397,7 @@
         <v>468</v>
       </c>
     </row>
-    <row r="23" spans="1:26">
+    <row r="23" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>425</v>
       </c>
@@ -9412,7 +9414,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="24" spans="1:26">
+    <row r="24" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>378</v>
       </c>
@@ -9426,7 +9428,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="25" spans="1:26">
+    <row r="25" spans="1:26" x14ac:dyDescent="0.25">
       <c r="B25" t="s">
         <v>426</v>
       </c>
@@ -9440,7 +9442,7 @@
         <v>478</v>
       </c>
     </row>
-    <row r="26" spans="1:26">
+    <row r="26" spans="1:26" x14ac:dyDescent="0.25">
       <c r="C26" t="s">
         <v>430</v>
       </c>
@@ -9454,7 +9456,7 @@
         <v>482</v>
       </c>
     </row>
-    <row r="27" spans="1:26">
+    <row r="27" spans="1:26" x14ac:dyDescent="0.25">
       <c r="B27" t="s">
         <v>381</v>
       </c>
@@ -9468,7 +9470,7 @@
         <v>457</v>
       </c>
     </row>
-    <row r="28" spans="1:26">
+    <row r="28" spans="1:26" x14ac:dyDescent="0.25">
       <c r="C28" t="s">
         <v>431</v>
       </c>
@@ -9482,7 +9484,7 @@
         <v>483</v>
       </c>
     </row>
-    <row r="29" spans="1:26">
+    <row r="29" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>311</v>
       </c>
@@ -9496,7 +9498,7 @@
         <v>484</v>
       </c>
     </row>
-    <row r="30" spans="1:26">
+    <row r="30" spans="1:26" x14ac:dyDescent="0.25">
       <c r="P30" t="s">
         <v>474</v>
       </c>
@@ -9507,7 +9509,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="31" spans="1:26">
+    <row r="31" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A31" s="41" t="s">
         <v>390</v>
       </c>
@@ -9530,7 +9532,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="32" spans="1:26">
+    <row r="32" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A32" s="41" t="s">
         <v>378</v>
       </c>
@@ -9547,7 +9549,7 @@
         <v>476</v>
       </c>
     </row>
-    <row r="33" spans="1:19">
+    <row r="33" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A33" s="41"/>
       <c r="B33" s="5" t="s">
         <v>421</v>
@@ -9564,7 +9566,7 @@
         <v>477</v>
       </c>
     </row>
-    <row r="34" spans="1:19">
+    <row r="34" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A34" s="41"/>
       <c r="B34" s="41" t="s">
         <v>378</v>
@@ -9581,7 +9583,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="35" spans="1:19">
+    <row r="35" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A35" s="41"/>
       <c r="B35" s="41"/>
       <c r="C35" s="41" t="s">
@@ -9602,7 +9604,7 @@
         <v>37500</v>
       </c>
     </row>
-    <row r="36" spans="1:19">
+    <row r="36" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A36" s="41"/>
       <c r="B36" s="41"/>
       <c r="C36" s="41" t="s">
@@ -9616,7 +9618,7 @@
         <v>408</v>
       </c>
     </row>
-    <row r="37" spans="1:19">
+    <row r="37" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A37" s="41"/>
       <c r="B37" s="41"/>
       <c r="C37" s="41"/>
@@ -9630,7 +9632,7 @@
         <v>428</v>
       </c>
     </row>
-    <row r="38" spans="1:19">
+    <row r="38" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A38" s="41"/>
       <c r="B38" s="41"/>
       <c r="C38" s="41"/>
@@ -9644,7 +9646,7 @@
         <v>429</v>
       </c>
     </row>
-    <row r="39" spans="1:19">
+    <row r="39" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A39" s="41"/>
       <c r="B39" s="41"/>
       <c r="C39" s="41"/>
@@ -9655,7 +9657,7 @@
       <c r="F39" s="41"/>
       <c r="G39" s="41"/>
     </row>
-    <row r="40" spans="1:19">
+    <row r="40" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A40" s="41"/>
       <c r="B40" s="41"/>
       <c r="C40" s="41"/>
@@ -9666,7 +9668,7 @@
       <c r="F40" s="41"/>
       <c r="G40" s="41"/>
     </row>
-    <row r="41" spans="1:19">
+    <row r="41" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A41" s="41"/>
       <c r="B41" s="41"/>
       <c r="C41" s="41"/>
@@ -9677,7 +9679,7 @@
       <c r="F41" s="41"/>
       <c r="G41" s="41"/>
     </row>
-    <row r="42" spans="1:19">
+    <row r="42" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A42" s="41"/>
       <c r="B42" s="41"/>
       <c r="C42" s="41"/>
@@ -9688,7 +9690,7 @@
       <c r="F42" s="41"/>
       <c r="G42" s="41"/>
     </row>
-    <row r="43" spans="1:19">
+    <row r="43" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A43" s="41"/>
       <c r="B43" s="41"/>
       <c r="C43" s="41"/>
@@ -9699,7 +9701,7 @@
       <c r="F43" s="41"/>
       <c r="G43" s="41"/>
     </row>
-    <row r="44" spans="1:19">
+    <row r="44" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A44" s="41"/>
       <c r="B44" s="41"/>
       <c r="C44" s="41"/>
@@ -9710,7 +9712,7 @@
       <c r="F44" s="41"/>
       <c r="G44" s="41"/>
     </row>
-    <row r="45" spans="1:19">
+    <row r="45" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A45" s="41"/>
       <c r="B45" s="41"/>
       <c r="C45" s="41" t="s">
@@ -9721,7 +9723,7 @@
       <c r="F45" s="41"/>
       <c r="G45" s="41"/>
     </row>
-    <row r="46" spans="1:19">
+    <row r="46" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A46" s="41"/>
       <c r="B46" s="41"/>
       <c r="C46" s="41" t="s">
@@ -9732,7 +9734,7 @@
       <c r="F46" s="41"/>
       <c r="G46" s="41"/>
     </row>
-    <row r="47" spans="1:19">
+    <row r="47" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A47" s="41"/>
       <c r="B47" s="41"/>
       <c r="C47" s="41" t="s">
@@ -9743,7 +9745,7 @@
       <c r="F47" s="41"/>
       <c r="G47" s="41"/>
     </row>
-    <row r="48" spans="1:19">
+    <row r="48" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A48" s="41"/>
       <c r="B48" s="41"/>
       <c r="C48" s="41"/>
@@ -9754,7 +9756,7 @@
       <c r="F48" s="41"/>
       <c r="G48" s="41"/>
     </row>
-    <row r="49" spans="1:26">
+    <row r="49" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A49" s="41"/>
       <c r="B49" s="41"/>
       <c r="C49" s="41" t="s">
@@ -9765,7 +9767,7 @@
       <c r="F49" s="41"/>
       <c r="G49" s="41"/>
     </row>
-    <row r="50" spans="1:26">
+    <row r="50" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A50" s="41"/>
       <c r="B50" s="41" t="s">
         <v>311</v>
@@ -9776,7 +9778,7 @@
       <c r="F50" s="41"/>
       <c r="G50" s="41"/>
     </row>
-    <row r="51" spans="1:26">
+    <row r="51" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A51" s="41"/>
       <c r="B51" s="41" t="s">
         <v>381</v>
@@ -9787,7 +9789,7 @@
       <c r="F51" s="41"/>
       <c r="G51" s="41"/>
     </row>
-    <row r="52" spans="1:26">
+    <row r="52" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A52" s="41"/>
       <c r="B52" s="41" t="s">
         <v>378</v>
@@ -9798,7 +9800,7 @@
       <c r="F52" s="41"/>
       <c r="G52" s="41"/>
     </row>
-    <row r="53" spans="1:26">
+    <row r="53" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A53" s="41"/>
       <c r="B53" s="41"/>
       <c r="C53" s="41" t="s">
@@ -9809,7 +9811,7 @@
       <c r="F53" s="41"/>
       <c r="G53" s="41"/>
     </row>
-    <row r="54" spans="1:26">
+    <row r="54" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A54" s="41"/>
       <c r="B54" s="41" t="s">
         <v>311</v>
@@ -9820,7 +9822,7 @@
       <c r="F54" s="41"/>
       <c r="G54" s="41"/>
     </row>
-    <row r="55" spans="1:26">
+    <row r="55" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A55" s="41" t="s">
         <v>311</v>
       </c>
@@ -9831,7 +9833,7 @@
       <c r="F55" s="41"/>
       <c r="G55" s="41"/>
     </row>
-    <row r="56" spans="1:26">
+    <row r="56" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A56" s="41"/>
       <c r="B56" s="41"/>
       <c r="C56" s="41"/>
@@ -9840,7 +9842,7 @@
       <c r="F56" s="41"/>
       <c r="G56" s="41"/>
     </row>
-    <row r="57" spans="1:26">
+    <row r="57" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A57" s="41" t="s">
         <v>393</v>
       </c>
@@ -9863,7 +9865,7 @@
         <v>468</v>
       </c>
     </row>
-    <row r="58" spans="1:26">
+    <row r="58" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A58" s="41" t="s">
         <v>378</v>
       </c>
@@ -9886,7 +9888,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="59" spans="1:26">
+    <row r="59" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A59" s="41"/>
       <c r="B59" s="41" t="s">
         <v>394</v>
@@ -9909,7 +9911,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="60" spans="1:26">
+    <row r="60" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A60" s="41"/>
       <c r="B60" s="41"/>
       <c r="C60" s="41"/>
@@ -9933,7 +9935,7 @@
         <v>469</v>
       </c>
     </row>
-    <row r="61" spans="1:26">
+    <row r="61" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A61" s="41"/>
       <c r="B61" s="5" t="s">
         <v>395</v>
@@ -9956,7 +9958,7 @@
         <v>470</v>
       </c>
     </row>
-    <row r="62" spans="1:26">
+    <row r="62" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A62" s="41"/>
       <c r="B62" s="41" t="s">
         <v>378</v>
@@ -9979,7 +9981,7 @@
         <v>471</v>
       </c>
     </row>
-    <row r="63" spans="1:26">
+    <row r="63" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A63" s="41"/>
       <c r="B63" s="41"/>
       <c r="C63" s="5" t="s">
@@ -10002,7 +10004,7 @@
         <v>472</v>
       </c>
     </row>
-    <row r="64" spans="1:26">
+    <row r="64" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A64" s="41"/>
       <c r="B64" s="41"/>
       <c r="C64" s="41" t="s">
@@ -10025,7 +10027,7 @@
         <v>473</v>
       </c>
     </row>
-    <row r="65" spans="1:26">
+    <row r="65" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A65" s="41"/>
       <c r="B65" s="41"/>
       <c r="C65" s="41"/>
@@ -10045,7 +10047,7 @@
         <v>491</v>
       </c>
     </row>
-    <row r="66" spans="1:26">
+    <row r="66" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A66" s="41"/>
       <c r="B66" s="41"/>
       <c r="C66" s="41" t="s">
@@ -10065,7 +10067,7 @@
         <v>492</v>
       </c>
     </row>
-    <row r="67" spans="1:26">
+    <row r="67" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A67" s="41"/>
       <c r="B67" s="41"/>
       <c r="C67" s="41" t="s">
@@ -10085,7 +10087,7 @@
         <v>493</v>
       </c>
     </row>
-    <row r="68" spans="1:26">
+    <row r="68" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A68" s="41"/>
       <c r="B68" s="41"/>
       <c r="C68" s="41" t="s">
@@ -10105,7 +10107,7 @@
         <v>489</v>
       </c>
     </row>
-    <row r="69" spans="1:26">
+    <row r="69" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A69" s="41"/>
       <c r="B69" s="41"/>
       <c r="C69" s="41"/>
@@ -10125,7 +10127,7 @@
         <v>494</v>
       </c>
     </row>
-    <row r="70" spans="1:26">
+    <row r="70" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A70" s="41"/>
       <c r="B70" s="41"/>
       <c r="C70" s="41" t="s">
@@ -10145,7 +10147,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="71" spans="1:26">
+    <row r="71" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A71" s="41"/>
       <c r="B71" s="41"/>
       <c r="C71" s="41" t="s">
@@ -10156,7 +10158,7 @@
       <c r="F71" s="41"/>
       <c r="G71" s="41"/>
     </row>
-    <row r="72" spans="1:26">
+    <row r="72" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A72" s="41"/>
       <c r="B72" s="41" t="s">
         <v>397</v>
@@ -10167,7 +10169,7 @@
       <c r="F72" s="41"/>
       <c r="G72" s="41"/>
     </row>
-    <row r="73" spans="1:26">
+    <row r="73" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A73" s="41"/>
       <c r="B73" s="41"/>
       <c r="C73" s="41"/>
@@ -10176,7 +10178,7 @@
       <c r="F73" s="41"/>
       <c r="G73" s="41"/>
     </row>
-    <row r="74" spans="1:26">
+    <row r="74" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A74" s="41"/>
       <c r="B74" s="41" t="s">
         <v>398</v>
@@ -10187,7 +10189,7 @@
       <c r="F74" s="41"/>
       <c r="G74" s="41"/>
     </row>
-    <row r="75" spans="1:26">
+    <row r="75" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A75" s="41"/>
       <c r="B75" s="41" t="s">
         <v>399</v>
@@ -10198,7 +10200,7 @@
       <c r="F75" s="41"/>
       <c r="G75" s="41"/>
     </row>
-    <row r="76" spans="1:26">
+    <row r="76" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A76" s="41"/>
       <c r="B76" s="41"/>
       <c r="C76" s="41" t="s">
@@ -10209,7 +10211,7 @@
       <c r="F76" s="41"/>
       <c r="G76" s="41"/>
     </row>
-    <row r="77" spans="1:26">
+    <row r="77" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A77" s="41"/>
       <c r="B77" s="41" t="s">
         <v>397</v>
@@ -10220,7 +10222,7 @@
       <c r="F77" s="41"/>
       <c r="G77" s="41"/>
     </row>
-    <row r="78" spans="1:26">
+    <row r="78" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A78" s="41"/>
       <c r="B78" s="41" t="s">
         <v>400</v>
@@ -10231,7 +10233,7 @@
       <c r="F78" s="41"/>
       <c r="G78" s="41"/>
     </row>
-    <row r="79" spans="1:26">
+    <row r="79" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A79" s="41"/>
       <c r="B79" s="41" t="s">
         <v>378</v>
@@ -10242,7 +10244,7 @@
       <c r="F79" s="41"/>
       <c r="G79" s="41"/>
     </row>
-    <row r="80" spans="1:26">
+    <row r="80" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A80" s="41"/>
       <c r="B80" s="41"/>
       <c r="C80" s="5" t="s">
@@ -10253,7 +10255,7 @@
       <c r="F80" s="41"/>
       <c r="G80" s="41"/>
     </row>
-    <row r="81" spans="1:26">
+    <row r="81" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A81" s="41"/>
       <c r="B81" s="41"/>
       <c r="C81" s="41" t="s">
@@ -10264,7 +10266,7 @@
       <c r="F81" s="41"/>
       <c r="G81" s="41"/>
     </row>
-    <row r="82" spans="1:26">
+    <row r="82" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A82" s="41"/>
       <c r="B82" s="41"/>
       <c r="C82" s="41"/>
@@ -10275,7 +10277,7 @@
       <c r="F82" s="41"/>
       <c r="G82" s="41"/>
     </row>
-    <row r="83" spans="1:26">
+    <row r="83" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A83" s="41"/>
       <c r="B83" s="41"/>
       <c r="C83" s="41"/>
@@ -10286,7 +10288,7 @@
       <c r="F83" s="41"/>
       <c r="G83" s="41"/>
     </row>
-    <row r="84" spans="1:26">
+    <row r="84" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A84" s="41"/>
       <c r="B84" s="41"/>
       <c r="C84" s="41" t="s">
@@ -10297,7 +10299,7 @@
       <c r="F84" s="41"/>
       <c r="G84" s="41"/>
     </row>
-    <row r="85" spans="1:26">
+    <row r="85" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A85" s="41"/>
       <c r="B85" s="41"/>
       <c r="C85" s="41" t="s">
@@ -10308,7 +10310,7 @@
       <c r="F85" s="41"/>
       <c r="G85" s="41"/>
     </row>
-    <row r="86" spans="1:26">
+    <row r="86" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A86" s="41"/>
       <c r="B86" s="41"/>
       <c r="C86" s="41" t="s">
@@ -10319,7 +10321,7 @@
       <c r="F86" s="41"/>
       <c r="G86" s="41"/>
     </row>
-    <row r="87" spans="1:26">
+    <row r="87" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A87" s="41"/>
       <c r="B87" s="41"/>
       <c r="C87" s="41"/>
@@ -10330,7 +10332,7 @@
       <c r="F87" s="41"/>
       <c r="G87" s="41"/>
     </row>
-    <row r="88" spans="1:26">
+    <row r="88" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A88" s="41"/>
       <c r="B88" s="41"/>
       <c r="C88" s="41"/>
@@ -10341,7 +10343,7 @@
       <c r="F88" s="41"/>
       <c r="G88" s="41"/>
     </row>
-    <row r="89" spans="1:26">
+    <row r="89" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A89" s="41"/>
       <c r="B89" s="41"/>
       <c r="C89" s="41"/>
@@ -10352,7 +10354,7 @@
       <c r="F89" s="41"/>
       <c r="G89" s="41"/>
     </row>
-    <row r="90" spans="1:26">
+    <row r="90" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A90" s="41"/>
       <c r="B90" s="41"/>
       <c r="C90" s="41" t="s">
@@ -10363,7 +10365,7 @@
       <c r="F90" s="41"/>
       <c r="G90" s="41"/>
     </row>
-    <row r="91" spans="1:26">
+    <row r="91" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A91" s="41"/>
       <c r="B91" s="41" t="s">
         <v>311</v>
@@ -10374,7 +10376,7 @@
       <c r="F91" s="41"/>
       <c r="G91" s="41"/>
     </row>
-    <row r="92" spans="1:26">
+    <row r="92" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A92" s="41" t="s">
         <v>311</v>
       </c>
@@ -10385,7 +10387,7 @@
       <c r="F92" s="41"/>
       <c r="G92" s="41"/>
     </row>
-    <row r="93" spans="1:26">
+    <row r="93" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A93" s="41"/>
       <c r="B93" s="41"/>
       <c r="C93" s="41"/>
@@ -10394,7 +10396,7 @@
       <c r="F93" s="41"/>
       <c r="G93" s="41"/>
     </row>
-    <row r="94" spans="1:26">
+    <row r="94" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A94" s="41" t="s">
         <v>406</v>
       </c>
@@ -10417,7 +10419,7 @@
         <v>468</v>
       </c>
     </row>
-    <row r="95" spans="1:26">
+    <row r="95" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A95" s="41" t="s">
         <v>378</v>
       </c>
@@ -10440,7 +10442,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="96" spans="1:26">
+    <row r="96" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A96" s="41"/>
       <c r="B96" s="41" t="s">
         <v>376</v>
@@ -10463,7 +10465,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="97" spans="1:26">
+    <row r="97" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A97" s="41"/>
       <c r="B97" s="41"/>
       <c r="C97" s="41"/>
@@ -10484,7 +10486,7 @@
         <v>467</v>
       </c>
     </row>
-    <row r="98" spans="1:26">
+    <row r="98" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A98" s="41"/>
       <c r="B98" s="41" t="s">
         <v>377</v>
@@ -10507,7 +10509,7 @@
         <v>485</v>
       </c>
     </row>
-    <row r="99" spans="1:26">
+    <row r="99" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A99" s="41"/>
       <c r="B99" s="41" t="s">
         <v>378</v>
@@ -10530,7 +10532,7 @@
         <v>457</v>
       </c>
     </row>
-    <row r="100" spans="1:26">
+    <row r="100" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A100" s="41"/>
       <c r="B100" s="41"/>
       <c r="C100" s="5" t="s">
@@ -10553,7 +10555,7 @@
         <v>486</v>
       </c>
     </row>
-    <row r="101" spans="1:26">
+    <row r="101" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A101" s="41"/>
       <c r="B101" s="41"/>
       <c r="C101" s="41" t="s">
@@ -10576,7 +10578,7 @@
         <v>487</v>
       </c>
     </row>
-    <row r="102" spans="1:26">
+    <row r="102" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A102" s="41"/>
       <c r="B102" s="41"/>
       <c r="C102" s="41"/>
@@ -10596,7 +10598,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="103" spans="1:26">
+    <row r="103" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A103" s="41"/>
       <c r="B103" s="41"/>
       <c r="C103" s="41" t="s">
@@ -10616,7 +10618,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="104" spans="1:26">
+    <row r="104" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A104" s="41"/>
       <c r="B104" s="41"/>
       <c r="C104" s="41" t="s">
@@ -10627,7 +10629,7 @@
       <c r="F104" s="41"/>
       <c r="G104" s="41"/>
     </row>
-    <row r="105" spans="1:26">
+    <row r="105" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A105" s="41"/>
       <c r="B105" s="41"/>
       <c r="C105" s="41" t="s">
@@ -10638,7 +10640,7 @@
       <c r="F105" s="41"/>
       <c r="G105" s="41"/>
     </row>
-    <row r="106" spans="1:26">
+    <row r="106" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A106" s="41"/>
       <c r="B106" s="41"/>
       <c r="C106" s="41"/>
@@ -10649,7 +10651,7 @@
       <c r="F106" s="5"/>
       <c r="G106" s="41"/>
     </row>
-    <row r="107" spans="1:26">
+    <row r="107" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A107" s="41"/>
       <c r="B107" s="41"/>
       <c r="C107" s="41"/>
@@ -10660,7 +10662,7 @@
       <c r="F107" s="41"/>
       <c r="G107" s="41"/>
     </row>
-    <row r="108" spans="1:26">
+    <row r="108" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A108" s="41"/>
       <c r="B108" s="41"/>
       <c r="C108" s="41"/>
@@ -10671,7 +10673,7 @@
       <c r="F108" s="41"/>
       <c r="G108" s="41"/>
     </row>
-    <row r="109" spans="1:26">
+    <row r="109" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A109" s="41"/>
       <c r="B109" s="41"/>
       <c r="C109" s="41"/>
@@ -10682,7 +10684,7 @@
       <c r="F109" s="41"/>
       <c r="G109" s="41"/>
     </row>
-    <row r="110" spans="1:26">
+    <row r="110" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A110" s="41"/>
       <c r="B110" s="41"/>
       <c r="C110" s="41"/>
@@ -10693,7 +10695,7 @@
       <c r="F110" s="41"/>
       <c r="G110" s="41"/>
     </row>
-    <row r="111" spans="1:26">
+    <row r="111" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A111" s="41"/>
       <c r="B111" s="41"/>
       <c r="C111" s="41"/>
@@ -10704,7 +10706,7 @@
       <c r="F111" s="41"/>
       <c r="G111" s="41"/>
     </row>
-    <row r="112" spans="1:26">
+    <row r="112" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A112" s="41"/>
       <c r="B112" s="41"/>
       <c r="C112" s="41"/>
@@ -10715,7 +10717,7 @@
       <c r="F112" s="41"/>
       <c r="G112" s="41"/>
     </row>
-    <row r="113" spans="1:7">
+    <row r="113" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A113" s="41"/>
       <c r="B113" s="41"/>
       <c r="C113" s="41"/>
@@ -10726,7 +10728,7 @@
       <c r="F113" s="41"/>
       <c r="G113" s="41"/>
     </row>
-    <row r="114" spans="1:7">
+    <row r="114" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A114" s="41"/>
       <c r="B114" s="41"/>
       <c r="C114" s="41" t="s">
@@ -10737,7 +10739,7 @@
       <c r="F114" s="41"/>
       <c r="G114" s="41"/>
     </row>
-    <row r="115" spans="1:7">
+    <row r="115" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A115" s="41"/>
       <c r="B115" s="41" t="s">
         <v>311</v>
@@ -10748,7 +10750,7 @@
       <c r="F115" s="41"/>
       <c r="G115" s="41"/>
     </row>
-    <row r="116" spans="1:7">
+    <row r="116" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A116" s="41"/>
       <c r="B116" s="41" t="s">
         <v>381</v>
@@ -10759,7 +10761,7 @@
       <c r="F116" s="41"/>
       <c r="G116" s="41"/>
     </row>
-    <row r="117" spans="1:7">
+    <row r="117" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A117" s="41"/>
       <c r="B117" s="41" t="s">
         <v>378</v>
@@ -10770,7 +10772,7 @@
       <c r="F117" s="41"/>
       <c r="G117" s="41"/>
     </row>
-    <row r="118" spans="1:7">
+    <row r="118" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A118" s="41"/>
       <c r="B118" s="41"/>
       <c r="C118" s="41" t="s">
@@ -10781,7 +10783,7 @@
       <c r="F118" s="41"/>
       <c r="G118" s="41"/>
     </row>
-    <row r="119" spans="1:7">
+    <row r="119" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A119" s="41"/>
       <c r="B119" s="41" t="s">
         <v>311</v>
@@ -10792,7 +10794,7 @@
       <c r="F119" s="41"/>
       <c r="G119" s="41"/>
     </row>
-    <row r="120" spans="1:7">
+    <row r="120" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A120" s="41"/>
       <c r="B120" s="41"/>
       <c r="C120" s="41"/>
@@ -10801,7 +10803,7 @@
       <c r="F120" s="41"/>
       <c r="G120" s="41"/>
     </row>
-    <row r="121" spans="1:7">
+    <row r="121" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A121" s="41"/>
       <c r="B121" s="41" t="s">
         <v>407</v>
@@ -10812,7 +10814,7 @@
       <c r="F121" s="41"/>
       <c r="G121" s="41"/>
     </row>
-    <row r="122" spans="1:7">
+    <row r="122" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A122" s="41" t="s">
         <v>311</v>
       </c>
@@ -10823,7 +10825,7 @@
       <c r="F122" s="41"/>
       <c r="G122" s="41"/>
     </row>
-    <row r="125" spans="1:7">
+    <row r="125" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A125" s="41"/>
       <c r="B125" s="41"/>
       <c r="C125" s="41"/>
@@ -10832,7 +10834,7 @@
       <c r="F125" s="41"/>
       <c r="G125" s="41"/>
     </row>
-    <row r="133" spans="1:11">
+    <row r="133" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A133" s="41"/>
       <c r="B133" s="41"/>
       <c r="C133" s="41"/>
@@ -10852,19 +10854,19 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:U81"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
-      <selection activeCell="S2" sqref="S2"/>
+      <selection activeCell="U15" sqref="U15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="19" max="19" width="13.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21">
+    <row r="1" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>507</v>
       </c>
@@ -10875,28 +10877,34 @@
         <v>545</v>
       </c>
     </row>
-    <row r="2" spans="1:21">
+    <row r="2" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>508</v>
       </c>
       <c r="S2" t="s">
         <v>535</v>
       </c>
-    </row>
-    <row r="3" spans="1:21">
+      <c r="U2" t="s">
+        <v>545</v>
+      </c>
+    </row>
+    <row r="3" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>509</v>
       </c>
       <c r="S3" t="s">
         <v>536</v>
       </c>
-    </row>
-    <row r="4" spans="1:21">
+      <c r="U3">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="4" spans="1:21" x14ac:dyDescent="0.25">
       <c r="S4" t="s">
         <v>537</v>
       </c>
     </row>
-    <row r="5" spans="1:21">
+    <row r="5" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>510</v>
       </c>
@@ -10904,7 +10912,7 @@
         <v>538</v>
       </c>
     </row>
-    <row r="6" spans="1:21">
+    <row r="6" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A6" s="48" t="s">
         <v>514</v>
       </c>
@@ -10912,7 +10920,7 @@
         <v>539</v>
       </c>
     </row>
-    <row r="7" spans="1:21">
+    <row r="7" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A7" s="48" t="s">
         <v>515</v>
       </c>
@@ -10920,35 +10928,38 @@
         <v>540</v>
       </c>
     </row>
-    <row r="8" spans="1:21">
+    <row r="8" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>512</v>
       </c>
       <c r="S8" t="s">
         <v>541</v>
       </c>
-    </row>
-    <row r="9" spans="1:21">
+      <c r="U8" t="s">
+        <v>545</v>
+      </c>
+    </row>
+    <row r="9" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>513</v>
       </c>
     </row>
-    <row r="10" spans="1:21">
+    <row r="10" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>511</v>
       </c>
     </row>
-    <row r="12" spans="1:21">
+    <row r="12" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>516</v>
       </c>
     </row>
-    <row r="14" spans="1:21">
+    <row r="14" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>517</v>
       </c>
     </row>
-    <row r="16" spans="1:21">
+    <row r="16" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A16" s="41" t="s">
         <v>393</v>
       </c>
@@ -10958,7 +10969,7 @@
       <c r="E16" s="41"/>
       <c r="F16" s="41"/>
     </row>
-    <row r="17" spans="1:12">
+    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A17" s="41" t="s">
         <v>378</v>
       </c>
@@ -10971,7 +10982,7 @@
         <v>523</v>
       </c>
     </row>
-    <row r="18" spans="1:12">
+    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A18" s="41"/>
       <c r="B18" s="41" t="s">
         <v>394</v>
@@ -10984,7 +10995,7 @@
         <v>524</v>
       </c>
     </row>
-    <row r="19" spans="1:12">
+    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A19" s="41"/>
       <c r="B19" s="41"/>
       <c r="C19" s="41"/>
@@ -10995,7 +11006,7 @@
         <v>526</v>
       </c>
     </row>
-    <row r="20" spans="1:12">
+    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A20" s="41"/>
       <c r="B20" s="41" t="s">
         <v>395</v>
@@ -11008,7 +11019,7 @@
         <v>527</v>
       </c>
     </row>
-    <row r="21" spans="1:12">
+    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A21" s="41"/>
       <c r="B21" s="41" t="s">
         <v>378</v>
@@ -11018,7 +11029,7 @@
       <c r="E21" s="41"/>
       <c r="F21" s="41"/>
     </row>
-    <row r="22" spans="1:12">
+    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A22" s="41"/>
       <c r="B22" s="41"/>
       <c r="C22" s="41" t="s">
@@ -11031,7 +11042,7 @@
         <v>525</v>
       </c>
     </row>
-    <row r="23" spans="1:12">
+    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A23" s="41"/>
       <c r="B23" s="41"/>
       <c r="C23" s="41" t="s">
@@ -11044,7 +11055,7 @@
         <v>528</v>
       </c>
     </row>
-    <row r="24" spans="1:12">
+    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A24" s="41"/>
       <c r="B24" s="41"/>
       <c r="C24" s="41"/>
@@ -11054,7 +11065,7 @@
       <c r="E24" s="41"/>
       <c r="F24" s="41"/>
     </row>
-    <row r="25" spans="1:12">
+    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A25" s="41"/>
       <c r="B25" s="41"/>
       <c r="C25" s="41" t="s">
@@ -11064,7 +11075,7 @@
       <c r="E25" s="41"/>
       <c r="F25" s="41"/>
     </row>
-    <row r="26" spans="1:12">
+    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A26" s="41"/>
       <c r="B26" s="41"/>
       <c r="C26" s="41" t="s">
@@ -11074,7 +11085,7 @@
       <c r="E26" s="41"/>
       <c r="F26" s="41"/>
     </row>
-    <row r="27" spans="1:12">
+    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A27" s="41"/>
       <c r="B27" s="41"/>
       <c r="C27" s="41" t="s">
@@ -11084,7 +11095,7 @@
       <c r="E27" s="41"/>
       <c r="F27" s="41"/>
     </row>
-    <row r="28" spans="1:12">
+    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A28" s="41"/>
       <c r="B28" s="41"/>
       <c r="C28" s="41"/>
@@ -11094,7 +11105,7 @@
       <c r="E28" s="41"/>
       <c r="F28" s="41"/>
     </row>
-    <row r="29" spans="1:12">
+    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A29" s="41"/>
       <c r="B29" s="41"/>
       <c r="C29" s="41" t="s">
@@ -11104,7 +11115,7 @@
       <c r="E29" s="41"/>
       <c r="F29" s="41"/>
     </row>
-    <row r="30" spans="1:12">
+    <row r="30" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A30" s="41"/>
       <c r="B30" s="41"/>
       <c r="C30" s="41" t="s">
@@ -11114,7 +11125,7 @@
       <c r="E30" s="41"/>
       <c r="F30" s="41"/>
     </row>
-    <row r="31" spans="1:12">
+    <row r="31" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A31" s="41"/>
       <c r="B31" s="41" t="s">
         <v>397</v>
@@ -11124,7 +11135,7 @@
       <c r="E31" s="41"/>
       <c r="F31" s="41"/>
     </row>
-    <row r="32" spans="1:12">
+    <row r="32" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A32" s="41"/>
       <c r="B32" s="41"/>
       <c r="C32" s="41"/>
@@ -11132,7 +11143,7 @@
       <c r="E32" s="41"/>
       <c r="F32" s="41"/>
     </row>
-    <row r="33" spans="1:10">
+    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A33" s="41"/>
       <c r="B33" s="41" t="s">
         <v>398</v>
@@ -11142,7 +11153,7 @@
       <c r="E33" s="41"/>
       <c r="F33" s="41"/>
     </row>
-    <row r="34" spans="1:10">
+    <row r="34" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A34" s="41"/>
       <c r="B34" s="41" t="s">
         <v>399</v>
@@ -11152,7 +11163,7 @@
       <c r="E34" s="41"/>
       <c r="F34" s="41"/>
     </row>
-    <row r="35" spans="1:10">
+    <row r="35" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A35" s="41"/>
       <c r="B35" s="41"/>
       <c r="C35" s="41" t="s">
@@ -11162,7 +11173,7 @@
       <c r="E35" s="41"/>
       <c r="F35" s="41"/>
     </row>
-    <row r="36" spans="1:10">
+    <row r="36" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A36" s="41"/>
       <c r="B36" s="41" t="s">
         <v>397</v>
@@ -11172,7 +11183,7 @@
       <c r="E36" s="41"/>
       <c r="F36" s="41"/>
     </row>
-    <row r="37" spans="1:10">
+    <row r="37" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A37" s="41"/>
       <c r="B37" s="41" t="s">
         <v>400</v>
@@ -11182,7 +11193,7 @@
       <c r="E37" s="41"/>
       <c r="F37" s="41"/>
     </row>
-    <row r="38" spans="1:10">
+    <row r="38" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A38" s="41"/>
       <c r="B38" s="41" t="s">
         <v>378</v>
@@ -11192,7 +11203,7 @@
       <c r="E38" s="41"/>
       <c r="F38" s="41"/>
     </row>
-    <row r="39" spans="1:10">
+    <row r="39" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A39" s="41"/>
       <c r="B39" s="41"/>
       <c r="C39" s="5" t="s">
@@ -11210,7 +11221,7 @@
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
     </row>
-    <row r="40" spans="1:10">
+    <row r="40" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A40" s="41"/>
       <c r="B40" s="41"/>
       <c r="C40" s="41" t="s">
@@ -11223,7 +11234,7 @@
         <v>520</v>
       </c>
     </row>
-    <row r="41" spans="1:10">
+    <row r="41" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A41" s="41"/>
       <c r="B41" s="41"/>
       <c r="C41" s="41"/>
@@ -11236,7 +11247,7 @@
         <v>521</v>
       </c>
     </row>
-    <row r="42" spans="1:10">
+    <row r="42" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A42" s="41"/>
       <c r="B42" s="41"/>
       <c r="C42" s="41"/>
@@ -11246,7 +11257,7 @@
       <c r="E42" s="41"/>
       <c r="F42" s="41"/>
     </row>
-    <row r="43" spans="1:10">
+    <row r="43" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A43" s="41"/>
       <c r="B43" s="41"/>
       <c r="C43" s="41" t="s">
@@ -11256,7 +11267,7 @@
       <c r="E43" s="41"/>
       <c r="F43" s="41"/>
     </row>
-    <row r="44" spans="1:10">
+    <row r="44" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A44" s="41"/>
       <c r="B44" s="41"/>
       <c r="C44" s="41" t="s">
@@ -11266,7 +11277,7 @@
       <c r="E44" s="41"/>
       <c r="F44" s="41"/>
     </row>
-    <row r="45" spans="1:10">
+    <row r="45" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A45" s="41"/>
       <c r="B45" s="41"/>
       <c r="C45" s="41" t="s">
@@ -11276,7 +11287,7 @@
       <c r="E45" s="41"/>
       <c r="F45" s="41"/>
     </row>
-    <row r="46" spans="1:10">
+    <row r="46" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A46" s="41"/>
       <c r="B46" s="41"/>
       <c r="C46" s="41"/>
@@ -11286,7 +11297,7 @@
       <c r="E46" s="41"/>
       <c r="F46" s="41"/>
     </row>
-    <row r="47" spans="1:10">
+    <row r="47" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A47" s="41"/>
       <c r="B47" s="41"/>
       <c r="C47" s="41"/>
@@ -11296,7 +11307,7 @@
       <c r="E47" s="41"/>
       <c r="F47" s="41"/>
     </row>
-    <row r="48" spans="1:10">
+    <row r="48" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A48" s="41"/>
       <c r="B48" s="41"/>
       <c r="C48" s="41"/>
@@ -11306,7 +11317,7 @@
       <c r="E48" s="41"/>
       <c r="F48" s="41"/>
     </row>
-    <row r="49" spans="1:10">
+    <row r="49" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A49" s="41"/>
       <c r="B49" s="41"/>
       <c r="C49" s="41" t="s">
@@ -11316,7 +11327,7 @@
       <c r="E49" s="41"/>
       <c r="F49" s="41"/>
     </row>
-    <row r="50" spans="1:10">
+    <row r="50" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A50" s="41"/>
       <c r="B50" s="41" t="s">
         <v>311</v>
@@ -11326,7 +11337,7 @@
       <c r="E50" s="41"/>
       <c r="F50" s="41"/>
     </row>
-    <row r="51" spans="1:10">
+    <row r="51" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A51" s="41" t="s">
         <v>311</v>
       </c>
@@ -11336,7 +11347,7 @@
       <c r="E51" s="41"/>
       <c r="F51" s="41"/>
     </row>
-    <row r="52" spans="1:10">
+    <row r="52" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A52" s="41"/>
       <c r="B52" s="41"/>
       <c r="C52" s="41"/>
@@ -11344,7 +11355,7 @@
       <c r="E52" s="41"/>
       <c r="F52" s="41"/>
     </row>
-    <row r="53" spans="1:10">
+    <row r="53" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A53" s="41" t="s">
         <v>406</v>
       </c>
@@ -11354,7 +11365,7 @@
       <c r="E53" s="41"/>
       <c r="F53" s="41"/>
     </row>
-    <row r="54" spans="1:10">
+    <row r="54" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A54" s="41" t="s">
         <v>378</v>
       </c>
@@ -11364,7 +11375,7 @@
       <c r="E54" s="41"/>
       <c r="F54" s="41"/>
     </row>
-    <row r="55" spans="1:10">
+    <row r="55" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A55" s="41"/>
       <c r="B55" s="41" t="s">
         <v>376</v>
@@ -11374,7 +11385,7 @@
       <c r="E55" s="41"/>
       <c r="F55" s="41"/>
     </row>
-    <row r="56" spans="1:10">
+    <row r="56" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A56" s="41"/>
       <c r="B56" s="41"/>
       <c r="C56" s="41"/>
@@ -11382,7 +11393,7 @@
       <c r="E56" s="41"/>
       <c r="F56" s="41"/>
     </row>
-    <row r="57" spans="1:10">
+    <row r="57" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A57" s="41"/>
       <c r="B57" s="41" t="s">
         <v>377</v>
@@ -11392,7 +11403,7 @@
       <c r="E57" s="41"/>
       <c r="F57" s="41"/>
     </row>
-    <row r="58" spans="1:10">
+    <row r="58" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A58" s="41"/>
       <c r="B58" s="41" t="s">
         <v>378</v>
@@ -11402,7 +11413,7 @@
       <c r="E58" s="41"/>
       <c r="F58" s="41"/>
     </row>
-    <row r="59" spans="1:10">
+    <row r="59" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A59" s="41"/>
       <c r="B59" s="41"/>
       <c r="C59" s="5" t="s">
@@ -11417,7 +11428,7 @@
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
     </row>
-    <row r="60" spans="1:10">
+    <row r="60" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A60" s="41"/>
       <c r="B60" s="41"/>
       <c r="C60" s="41" t="s">
@@ -11430,7 +11441,7 @@
         <v>520</v>
       </c>
     </row>
-    <row r="61" spans="1:10">
+    <row r="61" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A61" s="41"/>
       <c r="B61" s="41"/>
       <c r="C61" s="41"/>
@@ -11443,7 +11454,7 @@
         <v>521</v>
       </c>
     </row>
-    <row r="62" spans="1:10">
+    <row r="62" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A62" s="41"/>
       <c r="B62" s="41"/>
       <c r="C62" s="41" t="s">
@@ -11453,7 +11464,7 @@
       <c r="E62" s="41"/>
       <c r="F62" s="41"/>
     </row>
-    <row r="63" spans="1:10">
+    <row r="63" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A63" s="41"/>
       <c r="B63" s="41"/>
       <c r="C63" s="41" t="s">
@@ -11463,7 +11474,7 @@
       <c r="E63" s="41"/>
       <c r="F63" s="41"/>
     </row>
-    <row r="64" spans="1:10">
+    <row r="64" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A64" s="41"/>
       <c r="B64" s="41"/>
       <c r="C64" s="41" t="s">
@@ -11473,7 +11484,7 @@
       <c r="E64" s="41"/>
       <c r="F64" s="41"/>
     </row>
-    <row r="65" spans="1:7">
+    <row r="65" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A65" s="41"/>
       <c r="B65" s="41"/>
       <c r="C65" s="41"/>
@@ -11484,7 +11495,7 @@
       <c r="F65" s="41"/>
       <c r="G65" s="41"/>
     </row>
-    <row r="66" spans="1:7">
+    <row r="66" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A66" s="41"/>
       <c r="B66" s="41"/>
       <c r="C66" s="41"/>
@@ -11494,7 +11505,7 @@
       <c r="E66" s="41"/>
       <c r="F66" s="41"/>
     </row>
-    <row r="67" spans="1:7">
+    <row r="67" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A67" s="41"/>
       <c r="B67" s="41"/>
       <c r="C67" s="41"/>
@@ -11504,7 +11515,7 @@
       </c>
       <c r="F67" s="41"/>
     </row>
-    <row r="68" spans="1:7">
+    <row r="68" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A68" s="41"/>
       <c r="B68" s="41"/>
       <c r="C68" s="41"/>
@@ -11514,7 +11525,7 @@
       <c r="E68" s="41"/>
       <c r="F68" s="41"/>
     </row>
-    <row r="69" spans="1:7">
+    <row r="69" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A69" s="41"/>
       <c r="B69" s="41"/>
       <c r="C69" s="41"/>
@@ -11524,7 +11535,7 @@
       <c r="E69" s="41"/>
       <c r="F69" s="41"/>
     </row>
-    <row r="70" spans="1:7">
+    <row r="70" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A70" s="41"/>
       <c r="B70" s="41"/>
       <c r="C70" s="41"/>
@@ -11534,7 +11545,7 @@
       <c r="E70" s="41"/>
       <c r="F70" s="41"/>
     </row>
-    <row r="71" spans="1:7">
+    <row r="71" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A71" s="41"/>
       <c r="B71" s="41"/>
       <c r="C71" s="41"/>
@@ -11544,7 +11555,7 @@
       </c>
       <c r="F71" s="41"/>
     </row>
-    <row r="72" spans="1:7">
+    <row r="72" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A72" s="41"/>
       <c r="B72" s="41"/>
       <c r="C72" s="41"/>
@@ -11554,7 +11565,7 @@
       <c r="E72" s="41"/>
       <c r="F72" s="41"/>
     </row>
-    <row r="73" spans="1:7">
+    <row r="73" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A73" s="41"/>
       <c r="B73" s="41"/>
       <c r="C73" s="41" t="s">
@@ -11564,7 +11575,7 @@
       <c r="E73" s="41"/>
       <c r="F73" s="41"/>
     </row>
-    <row r="74" spans="1:7">
+    <row r="74" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A74" s="41"/>
       <c r="B74" s="41" t="s">
         <v>311</v>
@@ -11574,7 +11585,7 @@
       <c r="E74" s="41"/>
       <c r="F74" s="41"/>
     </row>
-    <row r="75" spans="1:7">
+    <row r="75" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A75" s="41"/>
       <c r="B75" s="41" t="s">
         <v>381</v>
@@ -11584,7 +11595,7 @@
       <c r="E75" s="41"/>
       <c r="F75" s="41"/>
     </row>
-    <row r="76" spans="1:7">
+    <row r="76" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A76" s="41"/>
       <c r="B76" s="41" t="s">
         <v>378</v>
@@ -11594,7 +11605,7 @@
       <c r="E76" s="41"/>
       <c r="F76" s="41"/>
     </row>
-    <row r="77" spans="1:7">
+    <row r="77" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A77" s="41"/>
       <c r="B77" s="41"/>
       <c r="C77" s="41" t="s">
@@ -11604,7 +11615,7 @@
       <c r="E77" s="41"/>
       <c r="F77" s="41"/>
     </row>
-    <row r="78" spans="1:7">
+    <row r="78" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A78" s="41"/>
       <c r="B78" s="41" t="s">
         <v>311</v>
@@ -11614,7 +11625,7 @@
       <c r="E78" s="41"/>
       <c r="F78" s="41"/>
     </row>
-    <row r="79" spans="1:7">
+    <row r="79" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A79" s="41"/>
       <c r="B79" s="41"/>
       <c r="C79" s="41"/>
@@ -11622,7 +11633,7 @@
       <c r="E79" s="41"/>
       <c r="F79" s="41"/>
     </row>
-    <row r="80" spans="1:7">
+    <row r="80" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A80" s="41"/>
       <c r="B80" s="41" t="s">
         <v>407</v>
@@ -11632,7 +11643,7 @@
       <c r="E80" s="41"/>
       <c r="F80" s="41"/>
     </row>
-    <row r="81" spans="1:6">
+    <row r="81" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A81" s="41" t="s">
         <v>311</v>
       </c>

--- a/CFT4CUnitSrc/src/report/GAReport.xlsx
+++ b/CFT4CUnitSrc/src/report/GAReport.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="1365" windowWidth="14805" windowHeight="6480" tabRatio="940" activeTab="8"/>
@@ -17,12 +17,12 @@
     <sheet name="ThayHieu_report" sheetId="13" r:id="rId8"/>
     <sheet name="PSOReport" sheetId="15" r:id="rId9"/>
   </sheets>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="813" uniqueCount="546">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="815" uniqueCount="546">
   <si>
     <t>Nhìn chung, để sinh test case cho một input program theo phương pháp GA thì có các bước sau</t>
   </si>
@@ -1693,11 +1693,11 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.000000000"/>
   </numFmts>
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="7">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -6087,7 +6087,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -6122,7 +6121,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -6298,21 +6296,21 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:J4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="N20" sqref="N20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10">
       <c r="A1" t="s">
         <v>532</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10">
       <c r="B2" t="s">
         <v>531</v>
       </c>
@@ -6320,12 +6318,12 @@
         <v>544</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10">
       <c r="B3" t="s">
         <v>533</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10">
       <c r="B4" t="s">
         <v>542</v>
       </c>
@@ -6339,21 +6337,21 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:B1"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="46.7109375" style="50" customWidth="1"/>
     <col min="2" max="2" width="60.7109375" style="50" customWidth="1"/>
     <col min="3" max="16384" width="9.140625" style="50"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" ht="75">
       <c r="A1" s="49" t="s">
         <v>529</v>
       </c>
@@ -6368,67 +6366,67 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:C22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B25" sqref="B25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3">
       <c r="A1" t="s">
         <v>500</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3">
       <c r="B2" t="s">
         <v>501</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3">
       <c r="B3" s="47"/>
       <c r="C3" s="47" t="s">
         <v>503</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3">
       <c r="C4" t="s">
         <v>502</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3">
       <c r="A6" t="s">
         <v>506</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3">
       <c r="B7" t="s">
         <v>504</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3">
       <c r="B8" t="s">
         <v>505</v>
       </c>
     </row>
-    <row r="19" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:3">
       <c r="B19" t="s">
         <v>496</v>
       </c>
     </row>
-    <row r="20" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:3">
       <c r="C20" t="s">
         <v>497</v>
       </c>
     </row>
-    <row r="21" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:3">
       <c r="C21" t="s">
         <v>498</v>
       </c>
     </row>
-    <row r="22" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:3">
       <c r="C22" t="s">
         <v>499</v>
       </c>
@@ -6440,7 +6438,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:AP160"/>
   <sheetViews>
@@ -6448,34 +6446,34 @@
       <selection activeCell="L67" sqref="L67"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="10.7109375" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="10.140625" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="9.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10">
       <c r="B1" s="25" t="s">
         <v>495</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10">
       <c r="A3" s="18">
         <v>42502</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10">
       <c r="B4" t="s">
         <v>168</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10">
       <c r="C5" t="s">
         <v>169</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10">
       <c r="C6" t="s">
         <v>180</v>
       </c>
@@ -6483,17 +6481,17 @@
         <v>181</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10">
       <c r="J7" t="s">
         <v>182</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:10">
       <c r="B8" t="s">
         <v>171</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:10">
       <c r="B9" t="s">
         <v>179</v>
       </c>
@@ -6501,7 +6499,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:10">
       <c r="B10" t="s">
         <v>179</v>
       </c>
@@ -6509,32 +6507,32 @@
         <v>176</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:10">
       <c r="C11" t="s">
         <v>172</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:10">
       <c r="C12" t="s">
         <v>173</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:10">
       <c r="C13" t="s">
         <v>174</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:10">
       <c r="C15" s="1" t="s">
         <v>177</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:10">
       <c r="C16" s="1" t="s">
         <v>178</v>
       </c>
     </row>
-    <row r="19" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:17">
       <c r="A19" s="18">
         <v>42499</v>
       </c>
@@ -6542,7 +6540,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:17">
       <c r="B20" t="s">
         <v>160</v>
       </c>
@@ -6550,7 +6548,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:17">
       <c r="C21" t="s">
         <v>161</v>
       </c>
@@ -6558,7 +6556,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:17">
       <c r="C22" t="s">
         <v>162</v>
       </c>
@@ -6566,12 +6564,12 @@
         <v>166</v>
       </c>
     </row>
-    <row r="23" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:17">
       <c r="C23" t="s">
         <v>167</v>
       </c>
     </row>
-    <row r="24" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:17">
       <c r="B24" t="s">
         <v>164</v>
       </c>
@@ -6582,7 +6580,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="26" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:17">
       <c r="A26" s="18">
         <v>42496</v>
       </c>
@@ -6596,7 +6594,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="27" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:17">
       <c r="B27" t="s">
         <v>137</v>
       </c>
@@ -6604,7 +6602,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="28" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:17">
       <c r="B28" t="s">
         <v>135</v>
       </c>
@@ -6615,7 +6613,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="30" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:17">
       <c r="B30" t="s">
         <v>136</v>
       </c>
@@ -6626,12 +6624,12 @@
         <v>152</v>
       </c>
     </row>
-    <row r="31" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:17">
       <c r="B31" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="32" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:17">
       <c r="B32" t="s">
         <v>139</v>
       </c>
@@ -6639,12 +6637,12 @@
         <v>153</v>
       </c>
     </row>
-    <row r="34" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:16">
       <c r="B34" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="35" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:16">
       <c r="C35" t="s">
         <v>140</v>
       </c>
@@ -6652,7 +6650,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="36" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:16">
       <c r="C36" t="s">
         <v>141</v>
       </c>
@@ -6660,7 +6658,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="38" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="38" spans="2:16">
       <c r="B38" t="s">
         <v>142</v>
       </c>
@@ -6668,47 +6666,47 @@
         <v>159</v>
       </c>
     </row>
-    <row r="40" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="40" spans="2:16">
       <c r="B40" t="s">
         <v>143</v>
       </c>
     </row>
-    <row r="41" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="41" spans="2:16">
       <c r="B41" t="s">
         <v>144</v>
       </c>
     </row>
-    <row r="43" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="43" spans="2:16">
       <c r="B43" t="s">
         <v>146</v>
       </c>
     </row>
-    <row r="44" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="44" spans="2:16">
       <c r="B44" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="45" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="45" spans="2:16">
       <c r="B45" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="47" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="47" spans="2:16">
       <c r="B47" t="s">
         <v>148</v>
       </c>
     </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:7">
       <c r="A52" s="18">
         <v>42494</v>
       </c>
     </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:7">
       <c r="B53" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:7">
       <c r="C54" t="s">
         <v>1</v>
       </c>
@@ -6716,7 +6714,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:7">
       <c r="C56" s="5" t="s">
         <v>3</v>
       </c>
@@ -6724,44 +6722,44 @@
         <v>123</v>
       </c>
     </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:7">
       <c r="D57" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:7">
       <c r="E58" s="25" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:7">
       <c r="E59" s="25"/>
     </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:7">
       <c r="B60" s="5" t="s">
         <v>134</v>
       </c>
       <c r="E60" s="25"/>
     </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:7">
       <c r="C61" t="s">
         <v>124</v>
       </c>
       <c r="E61" s="25"/>
     </row>
-    <row r="62" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:7">
       <c r="C62" t="s">
         <v>125</v>
       </c>
       <c r="E62" s="25"/>
     </row>
-    <row r="63" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:7">
       <c r="D63" t="s">
         <v>126</v>
       </c>
       <c r="E63" s="25"/>
     </row>
-    <row r="64" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:7">
       <c r="E64" s="26" t="s">
         <v>127</v>
       </c>
@@ -6772,7 +6770,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="65" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:10">
       <c r="E65" s="27">
         <v>1.1000000000000001</v>
       </c>
@@ -6783,7 +6781,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="66" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:10">
       <c r="E66" s="27">
         <v>1.1100000000000001</v>
       </c>
@@ -6800,7 +6798,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="67" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:10">
       <c r="E67" s="27">
         <v>1.3</v>
       </c>
@@ -6811,21 +6809,21 @@
         <v>1</v>
       </c>
     </row>
-    <row r="68" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:10">
       <c r="D68" t="s">
         <v>132</v>
       </c>
       <c r="E68" s="27"/>
     </row>
-    <row r="69" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:10">
       <c r="E69" s="27" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="70" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:10">
       <c r="E70" s="27"/>
     </row>
-    <row r="71" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:10">
       <c r="C71" t="s">
         <v>5</v>
       </c>
@@ -6833,57 +6831,57 @@
         <v>116</v>
       </c>
     </row>
-    <row r="73" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:10">
       <c r="B73" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="74" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:10">
       <c r="B74" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="76" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:10">
       <c r="B76" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="77" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:10">
       <c r="B77" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="79" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:10">
       <c r="A79" s="18">
         <v>42488</v>
       </c>
     </row>
-    <row r="80" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:10">
       <c r="B80" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="81" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:42">
       <c r="C81" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="82" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:42">
       <c r="C82" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="83" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:42">
       <c r="C83" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="84" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:42">
       <c r="C84" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="85" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:42">
       <c r="B85" s="5" t="s">
         <v>113</v>
       </c>
@@ -6896,12 +6894,12 @@
       <c r="I85" s="5"/>
       <c r="J85" s="5"/>
     </row>
-    <row r="87" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:42">
       <c r="A87" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="89" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:42">
       <c r="B89" t="s">
         <v>1</v>
       </c>
@@ -6909,7 +6907,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="91" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:42">
       <c r="B91" t="s">
         <v>3</v>
       </c>
@@ -6917,12 +6915,12 @@
         <v>6</v>
       </c>
     </row>
-    <row r="92" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:42">
       <c r="C92" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="94" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:42">
       <c r="B94" t="s">
         <v>5</v>
       </c>
@@ -6930,12 +6928,12 @@
         <v>8</v>
       </c>
     </row>
-    <row r="95" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:42">
       <c r="C95" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="96" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:42"